--- a/Versão5/META/Ontologia_METAL.xlsx
+++ b/Versão5/META/Ontologia_METAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\META\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1A5BBC-E0C2-4EE6-86C8-434E5F563397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A66D029-661C-4AD9-8E07-BD4CDAB90EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4950" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5024" uniqueCount="704">
   <si>
     <t>Edição</t>
   </si>
@@ -2177,6 +2177,12 @@
   </si>
   <si>
     <t>Perfil.U.Enrijecido</t>
+  </si>
+  <si>
+    <t>CategoriaRvt</t>
+  </si>
+  <si>
+    <t>ClasseIfc</t>
   </si>
 </sst>
 </file>
@@ -2433,7 +2439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2599,6 +2605,9 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2636,6 +2645,14 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2643,14 +2660,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3196,7 +3205,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45908.598060300923</v>
+        <v>45922.455275810185</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -3246,11 +3255,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31:C37"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X2" sqref="X2:Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.765625" defaultRowHeight="8.6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3278,9 +3287,11 @@
     <col min="21" max="21" width="7.07421875" style="41" customWidth="1"/>
     <col min="22" max="22" width="7" style="41" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.84375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.765625" customWidth="1"/>
+    <col min="25" max="25" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>35</v>
       </c>
@@ -3350,8 +3361,14 @@
       <c r="W1" s="29" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X1" s="28" t="s">
+        <v>702</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="24">
         <v>2</v>
       </c>
@@ -3428,8 +3445,14 @@
         <f>CONCATENATE("Key.",LEFT(C2,3),".",A2)</f>
         <v>Key.Est.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X2" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="24">
         <v>3</v>
       </c>
@@ -3506,8 +3529,14 @@
         <f>CONCATENATE("Key.",LEFT(C3,3),".",A3)</f>
         <v>Key.Est.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="24">
         <v>4</v>
       </c>
@@ -3582,8 +3611,14 @@
         <f t="shared" ref="W4:W8" si="5">CONCATENATE("Key.",LEFT(C4,3),".",A4)</f>
         <v>Key.Est.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X4" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="24">
         <v>5</v>
       </c>
@@ -3658,8 +3693,14 @@
         <f t="shared" si="5"/>
         <v>Key.Est.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X5" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="24">
         <v>6</v>
       </c>
@@ -3734,8 +3775,14 @@
         <f t="shared" si="5"/>
         <v>Key.Est.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X6" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24">
         <v>7</v>
       </c>
@@ -3810,8 +3857,14 @@
         <f t="shared" ref="W7" si="10">CONCATENATE("Key.",LEFT(C7,3),".",A7)</f>
         <v>Key.Est.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X7" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="24">
         <v>8</v>
       </c>
@@ -3886,8 +3939,14 @@
         <f t="shared" si="5"/>
         <v>Key.Est.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X8" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="24">
         <v>9</v>
       </c>
@@ -3962,8 +4021,14 @@
         <f t="shared" ref="W9:W29" si="13">CONCATENATE("Key.",LEFT(C9,3),".",A9)</f>
         <v>Key.Est.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X9" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="24">
         <v>10</v>
       </c>
@@ -4038,8 +4103,14 @@
         <f t="shared" si="13"/>
         <v>Key.Est.10</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X10" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="24">
         <v>11</v>
       </c>
@@ -4114,8 +4185,14 @@
         <f t="shared" si="13"/>
         <v>Key.Est.11</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X11" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="24">
         <v>12</v>
       </c>
@@ -4190,8 +4267,14 @@
         <f t="shared" si="13"/>
         <v>Key.Est.12</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X12" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24">
         <v>13</v>
       </c>
@@ -4266,8 +4349,14 @@
         <f t="shared" si="13"/>
         <v>Key.Est.13</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X13" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y13" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="24">
         <v>14</v>
       </c>
@@ -4342,8 +4431,14 @@
         <f t="shared" ref="W14:W19" si="20">CONCATENATE("Key.",LEFT(C14,3),".",A14)</f>
         <v>Key.Est.14</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X14" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="24">
         <v>15</v>
       </c>
@@ -4418,8 +4513,14 @@
         <f t="shared" ref="W15:W18" si="25">CONCATENATE("Key.",LEFT(C15,3),".",A15)</f>
         <v>Key.Est.15</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X15" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="24">
         <v>16</v>
       </c>
@@ -4494,8 +4595,14 @@
         <f t="shared" ref="W16" si="30">CONCATENATE("Key.",LEFT(C16,3),".",A16)</f>
         <v>Key.Est.16</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X16" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y16" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="24">
         <v>17</v>
       </c>
@@ -4570,8 +4677,14 @@
         <f t="shared" si="25"/>
         <v>Key.Est.17</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X17" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="24">
         <v>18</v>
       </c>
@@ -4646,8 +4759,14 @@
         <f t="shared" si="25"/>
         <v>Key.Est.18</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X18" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="24">
         <v>19</v>
       </c>
@@ -4722,8 +4841,14 @@
         <f t="shared" si="20"/>
         <v>Key.Est.19</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X19" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y19" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="24">
         <v>20</v>
       </c>
@@ -4798,8 +4923,14 @@
         <f t="shared" si="13"/>
         <v>Key.Est.20</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X20" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y20" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="24">
         <v>21</v>
       </c>
@@ -4874,8 +5005,14 @@
         <f t="shared" si="13"/>
         <v>Key.Est.21</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X21" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="24">
         <v>22</v>
       </c>
@@ -4950,8 +5087,14 @@
         <f t="shared" si="13"/>
         <v>Key.Est.22</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X22" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24">
         <v>23</v>
       </c>
@@ -5026,8 +5169,14 @@
         <f t="shared" si="13"/>
         <v>Key.Est.23</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X23" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y23" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="24">
         <v>24</v>
       </c>
@@ -5102,8 +5251,14 @@
         <f t="shared" si="13"/>
         <v>Key.Est.24</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X24" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y24" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="24">
         <v>25</v>
       </c>
@@ -5178,8 +5333,14 @@
         <f t="shared" si="13"/>
         <v>Key.Est.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X25" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y25" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="24">
         <v>26</v>
       </c>
@@ -5254,8 +5415,14 @@
         <f t="shared" si="13"/>
         <v>Key.Est.26</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X26" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="24">
         <v>27</v>
       </c>
@@ -5330,8 +5497,14 @@
         <f t="shared" ref="W27" si="37">CONCATENATE("Key.",LEFT(C27,3),".",A27)</f>
         <v>Key.Est.27</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X27" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y27" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="24">
         <v>28</v>
       </c>
@@ -5406,8 +5579,14 @@
         <f t="shared" si="13"/>
         <v>Key.Est.28</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X28" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y28" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="24">
         <v>29</v>
       </c>
@@ -5482,8 +5661,14 @@
         <f t="shared" si="13"/>
         <v>Key.Est.29</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X29" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y29" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="24">
         <v>30</v>
       </c>
@@ -5558,8 +5743,14 @@
         <f t="shared" ref="W30:W35" si="41">CONCATENATE("Key.",LEFT(C30,3),".",A30)</f>
         <v>Key.Est.30</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X30" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y30" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="24">
         <v>31</v>
       </c>
@@ -5634,8 +5825,14 @@
         <f t="shared" ref="W31" si="46">CONCATENATE("Key.",LEFT(C31,3),".",A31)</f>
         <v>Key.Mon.31</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X31" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y31" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="24">
         <v>32</v>
       </c>
@@ -5710,8 +5907,14 @@
         <f t="shared" si="41"/>
         <v>Key.Mon.32</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X32" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y32" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="24">
         <v>33</v>
       </c>
@@ -5786,8 +5989,14 @@
         <f t="shared" si="41"/>
         <v>Key.Mon.33</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X33" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y33" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="24">
         <v>34</v>
       </c>
@@ -5862,8 +6071,14 @@
         <f t="shared" si="41"/>
         <v>Key.Mon.34</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X34" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y34" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="24">
         <v>35</v>
       </c>
@@ -5938,8 +6153,14 @@
         <f t="shared" si="41"/>
         <v>Key.Mon.35</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X35" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y35" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="24">
         <v>36</v>
       </c>
@@ -6014,8 +6235,14 @@
         <f t="shared" ref="W36:W37" si="54">CONCATENATE("Key.",LEFT(C36,3),".",A36)</f>
         <v>Key.Mon.36</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X36" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y36" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="24">
         <v>37</v>
       </c>
@@ -6090,29 +6317,35 @@
         <f t="shared" si="54"/>
         <v>Key.Mon.37</v>
       </c>
+      <c r="X37" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y37" s="57" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="F1 F4:F30">
+    <cfRule type="duplicateValues" dxfId="11" priority="220"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3">
-    <cfRule type="duplicateValues" dxfId="6" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:F1048576 F36 F33:F34 F1 F4:F30">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O1">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1 F4:F30">
-    <cfRule type="duplicateValues" dxfId="0" priority="220"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6340,7 +6573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
   <dimension ref="A1:AE155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A155"/>
     </sheetView>
@@ -21108,11 +21341,11 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B1:B155">
-    <cfRule type="duplicateValues" dxfId="3" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="150"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/META/Ontologia_METAL.xlsx
+++ b/Versão5/META/Ontologia_METAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\META\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45E2186-7B74-4BD3-B074-F44E0DE9025D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D0ECBB-4DDC-47E1-B0F8-EBF5CF26F4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5427" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5635" uniqueCount="873">
   <si>
     <t>Edição</t>
   </si>
@@ -2296,9 +2296,6 @@
     <t>Perfis.U</t>
   </si>
   <si>
-    <t>Emplacadas</t>
-  </si>
-  <si>
     <t>Ancoragem.Extremo.Fixo</t>
   </si>
   <si>
@@ -2528,6 +2525,171 @@
   </si>
   <si>
     <t>Barra nervada para estribos y armadura primaria de hormigón armado.</t>
+  </si>
+  <si>
+    <t>Pórticos</t>
+  </si>
+  <si>
+    <t>Galpão</t>
+  </si>
+  <si>
+    <t>Galpão.Vãos.Múltiplos</t>
+  </si>
+  <si>
+    <t>Galpão.e.Anexo</t>
+  </si>
+  <si>
+    <t>Emplacados</t>
+  </si>
+  <si>
+    <t>Placa.de.Cumeeira</t>
+  </si>
+  <si>
+    <t>Placa.de.Gusset</t>
+  </si>
+  <si>
+    <t>Placa para conectar barras diagonais, montantes e banzos em nós de treliças metálicas.</t>
+  </si>
+  <si>
+    <t>Placa para conectar a coluna e a viga do pórtico de um galpão metálico.</t>
+  </si>
+  <si>
+    <t>Placa para conectar as vigas do pórtico de um galpão metálico.</t>
+  </si>
+  <si>
+    <t>Placa para conectar la columna y la viga del pórtico de un cobertizo metálico.</t>
+  </si>
+  <si>
+    <t>Placa para conectar las vigas de pórtico de un cobertizo metálico.</t>
+  </si>
+  <si>
+    <t>Placa para conectar barras diagonales, montantes y bridas en nudos de cerchas metálicas.</t>
+  </si>
+  <si>
+    <t>Placa.de.Mísula</t>
+  </si>
+  <si>
+    <t>Galpões</t>
+  </si>
+  <si>
+    <t>Contraventamentos</t>
+  </si>
+  <si>
+    <t>Barra.Contraventamento</t>
+  </si>
+  <si>
+    <t>Barra.Comprimida</t>
+  </si>
+  <si>
+    <t>Barra.Tracionada</t>
+  </si>
+  <si>
+    <t>Barra comprimida de um contraventamento.</t>
+  </si>
+  <si>
+    <t>Barra tracionada de um contraventamento.</t>
+  </si>
+  <si>
+    <t>Barra de um contraventamento.</t>
+  </si>
+  <si>
+    <t>Barra de um arriostramiento.</t>
+  </si>
+  <si>
+    <t>Barra comprimida de um arriostramiento.</t>
+  </si>
+  <si>
+    <t>Barra tracionada de um arriostramiento.</t>
+  </si>
+  <si>
+    <t>IfcMemberBRACE</t>
+  </si>
+  <si>
+    <t>Barras.Montantes</t>
+  </si>
+  <si>
+    <t>Barras.Diagonais</t>
+  </si>
+  <si>
+    <t>Barra.Diagonal</t>
+  </si>
+  <si>
+    <t>Barra.Montante</t>
+  </si>
+  <si>
+    <t>Banzos</t>
+  </si>
+  <si>
+    <t>Banzo.Superior</t>
+  </si>
+  <si>
+    <t>Banzo.Inferior</t>
+  </si>
+  <si>
+    <t>Banzo superior de uma treliça.</t>
+  </si>
+  <si>
+    <t>Banzo inferior de uma treliça.</t>
+  </si>
+  <si>
+    <t>Barra diagonal uma estrutura.</t>
+  </si>
+  <si>
+    <t>Barra montante uma estrutura.</t>
+  </si>
+  <si>
+    <t>Barra montante de una cercha.</t>
+  </si>
+  <si>
+    <t>Barra diagonal de una estructura.</t>
+  </si>
+  <si>
+    <t>Banzo superior de na estructura.</t>
+  </si>
+  <si>
+    <t>Banzo inferior de una estructura.</t>
+  </si>
+  <si>
+    <t>IfcMemberCHORD</t>
+  </si>
+  <si>
+    <t>IfcMemberMULLION</t>
+  </si>
+  <si>
+    <t>OST_VerticalBracing</t>
+  </si>
+  <si>
+    <t>OST_KickerBracing</t>
+  </si>
+  <si>
+    <t>IfcReinforcingBar</t>
+  </si>
+  <si>
+    <t>IfcElementAssemblyTRUSS</t>
+  </si>
+  <si>
+    <t>é.membro.de some Treliças.Planas</t>
+  </si>
+  <si>
+    <t>é.montante.de some Estrutural</t>
+  </si>
+  <si>
+    <t>é.diagonal.de some Estrutural</t>
+  </si>
+  <si>
+    <t>é.banzo.superior.de some Estrutural</t>
+  </si>
+  <si>
+    <t>é.banzo.inferior.de some Estrutural</t>
+  </si>
+  <si>
+    <t>é.membro.de some Estrutural</t>
+  </si>
+  <si>
+    <t>é.mísula.de some Pórticos</t>
+  </si>
+  <si>
+    <t>é.cumeeira.de some Pórticos</t>
   </si>
 </sst>
 </file>
@@ -3718,7 +3880,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45933.38908912037</v>
+        <v>45933.442080092595</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -3768,26 +3930,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.765625" defaultRowHeight="8.6" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.07421875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.765625" customWidth="1"/>
+    <col min="3" max="3" width="9.4609375" customWidth="1"/>
+    <col min="4" max="4" width="7.4609375" customWidth="1"/>
     <col min="5" max="5" width="9.61328125" customWidth="1"/>
     <col min="6" max="6" width="12.765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="12.4609375" customWidth="1"/>
     <col min="9" max="9" width="7.4609375" customWidth="1"/>
-    <col min="10" max="10" width="7.07421875" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="10" max="10" width="14.4609375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.4609375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.23046875" customWidth="1"/>
     <col min="13" max="13" width="9.53515625" customWidth="1"/>
     <col min="14" max="14" width="9.765625" customWidth="1"/>
@@ -3955,10 +4117,10 @@
         <v>Ligas Metálicas</v>
       </c>
       <c r="V2" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W2" s="30" t="str">
-        <f t="shared" ref="W2:W69" si="2">CONCATENATE("k.",LOWER(LEFT(D2,2)),LOWER(LEFT(E2,4)),".",A2)</f>
+        <f t="shared" ref="W2:W82" si="2">CONCATENATE("k.",LOWER(LEFT(D2,2)),LOWER(LEFT(E2,4)),".",A2)</f>
         <v>k.daliga.2</v>
       </c>
       <c r="X2" s="55" t="s">
@@ -4030,19 +4192,19 @@
         <v>9</v>
       </c>
       <c r="S3" s="62" t="str">
-        <f t="shared" ref="S3:S69" si="3">SUBSTITUTE(C3, ".", " ")</f>
+        <f t="shared" ref="S3:S82" si="3">SUBSTITUTE(C3, ".", " ")</f>
         <v>Materialidade</v>
       </c>
       <c r="T3" s="62" t="str">
-        <f t="shared" ref="T3:T69" si="4">SUBSTITUTE(D3, ".", " ")</f>
+        <f t="shared" ref="T3:T82" si="4">SUBSTITUTE(D3, ".", " ")</f>
         <v>Da Estrutura</v>
       </c>
       <c r="U3" s="62" t="str">
-        <f t="shared" ref="U3:U69" si="5">SUBSTITUTE(E3, ".", " ")</f>
+        <f t="shared" ref="U3:U82" si="5">SUBSTITUTE(E3, ".", " ")</f>
         <v>Ligas Metálicas</v>
       </c>
       <c r="V3" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W3" s="30" t="str">
         <f t="shared" si="2"/>
@@ -4084,7 +4246,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>9</v>
+        <v>870</v>
       </c>
       <c r="K4" s="32" t="s">
         <v>9</v>
@@ -4109,7 +4271,7 @@
         <v>683</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="R4" s="61" t="s">
         <v>9</v>
@@ -4127,7 +4289,7 @@
         <v>Soldados</v>
       </c>
       <c r="V4" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W4" s="30" t="str">
         <f t="shared" si="2"/>
@@ -4194,7 +4356,7 @@
         <v>684</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="R5" s="61" t="s">
         <v>9</v>
@@ -4212,7 +4374,7 @@
         <v>Soldados</v>
       </c>
       <c r="V5" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W5" s="30" t="str">
         <f t="shared" si="2"/>
@@ -4222,7 +4384,7 @@
         <v>623</v>
       </c>
       <c r="Y5" s="55" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -4279,7 +4441,7 @@
         <v>682</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="R6" s="61" t="s">
         <v>9</v>
@@ -4297,7 +4459,7 @@
         <v>Soldados</v>
       </c>
       <c r="V6" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W6" s="30" t="str">
         <f t="shared" si="2"/>
@@ -4339,7 +4501,7 @@
         <v>9</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>9</v>
+        <v>870</v>
       </c>
       <c r="K7" s="32" t="s">
         <v>9</v>
@@ -4364,7 +4526,7 @@
         <v>713</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R7" s="61" t="s">
         <v>9</v>
@@ -4382,7 +4544,7 @@
         <v>Laminados</v>
       </c>
       <c r="V7" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W7" s="30" t="str">
         <f t="shared" si="2"/>
@@ -4449,7 +4611,7 @@
         <v>714</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="R8" s="61" t="s">
         <v>9</v>
@@ -4467,7 +4629,7 @@
         <v>Laminados</v>
       </c>
       <c r="V8" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W8" s="30" t="str">
         <f t="shared" si="2"/>
@@ -4534,7 +4696,7 @@
         <v>715</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R9" s="61" t="s">
         <v>9</v>
@@ -4552,7 +4714,7 @@
         <v>Laminados</v>
       </c>
       <c r="V9" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W9" s="30" t="str">
         <f t="shared" si="2"/>
@@ -4616,10 +4778,10 @@
         <v>Perfil T</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="R10" s="61" t="s">
         <v>9</v>
@@ -4637,7 +4799,7 @@
         <v>Perfis T</v>
       </c>
       <c r="V10" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W10" s="30" t="str">
         <f t="shared" si="2"/>
@@ -4701,10 +4863,10 @@
         <v>Perfil U</v>
       </c>
       <c r="P11" s="25" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="R11" s="61" t="s">
         <v>9</v>
@@ -4722,7 +4884,7 @@
         <v>Perfis U</v>
       </c>
       <c r="V11" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W11" s="30" t="str">
         <f t="shared" si="2"/>
@@ -4770,11 +4932,11 @@
         <v>9</v>
       </c>
       <c r="L12" s="25" t="str">
-        <f t="shared" ref="L12:L60" si="15">_xlfn.CONCAT(SUBSTITUTE(C12,"1.",""))</f>
+        <f t="shared" ref="L12:L73" si="15">_xlfn.CONCAT(SUBSTITUTE(C12,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M12" s="25" t="str">
-        <f t="shared" ref="M12:O21" si="16">_xlfn.CONCAT(SUBSTITUTE(D12,"."," "))</f>
+        <f t="shared" ref="M12:O24" si="16">_xlfn.CONCAT(SUBSTITUTE(D12,"."," "))</f>
         <v>Perfis TUL</v>
       </c>
       <c r="N12" s="25" t="str">
@@ -4786,10 +4948,10 @@
         <v>Perfil U Enrijecido</v>
       </c>
       <c r="P12" s="25" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q12" s="29" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="R12" s="61" t="s">
         <v>9</v>
@@ -4807,7 +4969,7 @@
         <v>Perfis U</v>
       </c>
       <c r="V12" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W12" s="30" t="str">
         <f t="shared" si="2"/>
@@ -4871,10 +5033,10 @@
         <v>Perfil L Abas Iguais</v>
       </c>
       <c r="P13" s="25" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="Q13" s="29" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R13" s="61" t="s">
         <v>9</v>
@@ -4892,7 +5054,7 @@
         <v>Cantoneiras</v>
       </c>
       <c r="V13" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W13" s="30" t="str">
         <f t="shared" si="2"/>
@@ -4944,11 +5106,11 @@
         <v>Estrutural</v>
       </c>
       <c r="M14" s="25" t="str">
-        <f t="shared" ref="M14:M42" si="17">_xlfn.CONCAT(SUBSTITUTE(D14,"."," "))</f>
+        <f t="shared" ref="M14:M52" si="17">_xlfn.CONCAT(SUBSTITUTE(D14,"."," "))</f>
         <v>Perfis TUL</v>
       </c>
       <c r="N14" s="25" t="str">
-        <f t="shared" ref="N14:N42" si="18">_xlfn.CONCAT(SUBSTITUTE(E14,"."," "))</f>
+        <f t="shared" ref="N14:N52" si="18">_xlfn.CONCAT(SUBSTITUTE(E14,"."," "))</f>
         <v>Cantoneiras</v>
       </c>
       <c r="O14" s="25" t="str">
@@ -4956,10 +5118,10 @@
         <v>Perfil L Abas Desiguais</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="Q14" s="29" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R14" s="61" t="s">
         <v>9</v>
@@ -4977,7 +5139,7 @@
         <v>Cantoneiras</v>
       </c>
       <c r="V14" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W14" s="30" t="str">
         <f t="shared" si="2"/>
@@ -5001,7 +5163,7 @@
         <v>520</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>741</v>
+        <v>822</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>692</v>
@@ -5030,7 +5192,7 @@
       </c>
       <c r="M15" s="25" t="str">
         <f t="shared" ref="M15" si="19">_xlfn.CONCAT(SUBSTITUTE(D15,"."," "))</f>
-        <v>Emplacadas</v>
+        <v>Emplacados</v>
       </c>
       <c r="N15" s="25" t="str">
         <f t="shared" ref="N15" si="20">_xlfn.CONCAT(SUBSTITUTE(E15,"."," "))</f>
@@ -5044,7 +5206,7 @@
         <v>558</v>
       </c>
       <c r="Q15" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="R15" s="61" t="s">
         <v>9</v>
@@ -5055,14 +5217,14 @@
       </c>
       <c r="T15" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Emplacadas</v>
+        <v>Emplacados</v>
       </c>
       <c r="U15" s="62" t="str">
         <f t="shared" si="5"/>
         <v>Placas</v>
       </c>
       <c r="V15" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W15" s="30" t="str">
         <f t="shared" si="2"/>
@@ -5086,7 +5248,7 @@
         <v>520</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>741</v>
+        <v>822</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>692</v>
@@ -5115,21 +5277,21 @@
       </c>
       <c r="M16" s="25" t="str">
         <f t="shared" si="17"/>
-        <v>Emplacadas</v>
+        <v>Emplacados</v>
       </c>
       <c r="N16" s="25" t="str">
         <f t="shared" si="18"/>
         <v>Placas</v>
       </c>
       <c r="O16" s="25" t="str">
-        <f t="shared" ref="O16:O19" si="21">_xlfn.CONCAT(SUBSTITUTE(F16,"."," "))</f>
+        <f t="shared" ref="O16:O22" si="21">_xlfn.CONCAT(SUBSTITUTE(F16,"."," "))</f>
         <v>Placa Enrijecedora</v>
       </c>
       <c r="P16" s="25" t="s">
         <v>560</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R16" s="61" t="s">
         <v>9</v>
@@ -5140,14 +5302,14 @@
       </c>
       <c r="T16" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Emplacadas</v>
+        <v>Emplacados</v>
       </c>
       <c r="U16" s="62" t="str">
         <f t="shared" si="5"/>
         <v>Placas</v>
       </c>
       <c r="V16" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W16" s="30" t="str">
         <f t="shared" si="2"/>
@@ -5171,7 +5333,7 @@
         <v>520</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>741</v>
+        <v>822</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>692</v>
@@ -5195,12 +5357,12 @@
         <v>9</v>
       </c>
       <c r="L17" s="25" t="str">
-        <f t="shared" ref="L17:L19" si="22">_xlfn.CONCAT(SUBSTITUTE(C17,"1.",""))</f>
+        <f t="shared" ref="L17:L22" si="22">_xlfn.CONCAT(SUBSTITUTE(C17,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M17" s="25" t="str">
         <f t="shared" si="17"/>
-        <v>Emplacadas</v>
+        <v>Emplacados</v>
       </c>
       <c r="N17" s="25" t="str">
         <f t="shared" si="18"/>
@@ -5214,7 +5376,7 @@
         <v>560</v>
       </c>
       <c r="Q17" s="29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R17" s="61" t="s">
         <v>9</v>
@@ -5225,14 +5387,14 @@
       </c>
       <c r="T17" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Emplacadas</v>
+        <v>Emplacados</v>
       </c>
       <c r="U17" s="62" t="str">
         <f t="shared" si="5"/>
         <v>Placas</v>
       </c>
       <c r="V17" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W17" s="30" t="str">
         <f t="shared" si="2"/>
@@ -5256,7 +5418,7 @@
         <v>520</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>741</v>
+        <v>822</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>692</v>
@@ -5285,7 +5447,7 @@
       </c>
       <c r="M18" s="25" t="str">
         <f t="shared" si="17"/>
-        <v>Emplacadas</v>
+        <v>Emplacados</v>
       </c>
       <c r="N18" s="25" t="str">
         <f t="shared" si="18"/>
@@ -5299,7 +5461,7 @@
         <v>724</v>
       </c>
       <c r="Q18" s="29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R18" s="61" t="s">
         <v>9</v>
@@ -5310,14 +5472,14 @@
       </c>
       <c r="T18" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Emplacadas</v>
+        <v>Emplacados</v>
       </c>
       <c r="U18" s="62" t="str">
         <f t="shared" si="5"/>
         <v>Placas</v>
       </c>
       <c r="V18" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W18" s="30" t="str">
         <f t="shared" si="2"/>
@@ -5341,7 +5503,7 @@
         <v>520</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>741</v>
+        <v>822</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>692</v>
@@ -5365,44 +5527,44 @@
         <v>9</v>
       </c>
       <c r="L19" s="25" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="L19:L21" si="23">_xlfn.CONCAT(SUBSTITUTE(C19,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M19" s="25" t="str">
-        <f t="shared" si="17"/>
-        <v>Emplacadas</v>
+        <f t="shared" ref="M19:M21" si="24">_xlfn.CONCAT(SUBSTITUTE(D19,"."," "))</f>
+        <v>Emplacados</v>
       </c>
       <c r="N19" s="25" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="N19:N21" si="25">_xlfn.CONCAT(SUBSTITUTE(E19,"."," "))</f>
         <v>Placas</v>
       </c>
       <c r="O19" s="25" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="O19:O21" si="26">_xlfn.CONCAT(SUBSTITUTE(F19,"."," "))</f>
         <v>Placa de Fechamento</v>
       </c>
       <c r="P19" s="25" t="s">
         <v>574</v>
       </c>
       <c r="Q19" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="R19" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S19" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="S19:S21" si="27">SUBSTITUTE(C19, ".", " ")</f>
         <v>Estrutural</v>
       </c>
       <c r="T19" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>Emplacadas</v>
+        <f t="shared" ref="T19:T21" si="28">SUBSTITUTE(D19, ".", " ")</f>
+        <v>Emplacados</v>
       </c>
       <c r="U19" s="62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="U19:U21" si="29">SUBSTITUTE(E19, ".", " ")</f>
         <v>Placas</v>
       </c>
       <c r="V19" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W19" s="30" t="str">
         <f t="shared" si="2"/>
@@ -5426,13 +5588,13 @@
         <v>520</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>690</v>
+        <v>822</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>727</v>
+        <v>692</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>712</v>
+        <v>831</v>
       </c>
       <c r="G20" s="32" t="s">
         <v>9</v>
@@ -5447,57 +5609,57 @@
         <v>9</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>9</v>
+        <v>871</v>
       </c>
       <c r="L20" s="25" t="str">
-        <f t="shared" ref="L20" si="23">_xlfn.CONCAT(SUBSTITUTE(C20,"1.",""))</f>
+        <f t="shared" si="23"/>
         <v>Estrutural</v>
       </c>
       <c r="M20" s="25" t="str">
-        <f t="shared" si="17"/>
-        <v>Barras</v>
+        <f t="shared" si="24"/>
+        <v>Emplacados</v>
       </c>
       <c r="N20" s="25" t="str">
-        <f t="shared" si="18"/>
-        <v>Barras Laminadas</v>
+        <f t="shared" si="25"/>
+        <v>Placas</v>
       </c>
       <c r="O20" s="25" t="str">
-        <f t="shared" ref="O20" si="24">_xlfn.CONCAT(SUBSTITUTE(F20,"."," "))</f>
-        <v>Barra Redonda</v>
+        <f t="shared" si="26"/>
+        <v>Placa de Mísula</v>
       </c>
       <c r="P20" s="25" t="s">
-        <v>810</v>
-      </c>
-      <c r="Q20" s="25" t="s">
-        <v>810</v>
+        <v>826</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>828</v>
       </c>
       <c r="R20" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S20" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>Estrutural</v>
       </c>
       <c r="T20" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>Barras</v>
+        <f t="shared" si="28"/>
+        <v>Emplacados</v>
       </c>
       <c r="U20" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>Barras Laminadas</v>
+        <f t="shared" si="29"/>
+        <v>Placas</v>
       </c>
       <c r="V20" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W20" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.babarr.20</v>
+        <v>k.emplac.20</v>
       </c>
       <c r="X20" s="55" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Y20" s="55" t="s">
-        <v>624</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -5511,13 +5673,13 @@
         <v>520</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>690</v>
+        <v>822</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>727</v>
+        <v>692</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>728</v>
+        <v>823</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>9</v>
@@ -5532,57 +5694,57 @@
         <v>9</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>9</v>
+        <v>872</v>
       </c>
       <c r="L21" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>Estrutural</v>
       </c>
       <c r="M21" s="25" t="str">
-        <f t="shared" ref="M21" si="25">_xlfn.CONCAT(SUBSTITUTE(D21,"."," "))</f>
-        <v>Barras</v>
+        <f t="shared" si="24"/>
+        <v>Emplacados</v>
       </c>
       <c r="N21" s="25" t="str">
-        <f t="shared" ref="N21" si="26">_xlfn.CONCAT(SUBSTITUTE(E21,"."," "))</f>
-        <v>Barras Laminadas</v>
+        <f t="shared" si="25"/>
+        <v>Placas</v>
       </c>
       <c r="O21" s="25" t="str">
-        <f t="shared" si="16"/>
-        <v>Barra Quadrada</v>
+        <f t="shared" si="26"/>
+        <v>Placa de Cumeeira</v>
       </c>
       <c r="P21" s="25" t="s">
-        <v>812</v>
-      </c>
-      <c r="Q21" s="25" t="s">
-        <v>813</v>
+        <v>827</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>829</v>
       </c>
       <c r="R21" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S21" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>Estrutural</v>
       </c>
       <c r="T21" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>Barras</v>
+        <f t="shared" si="28"/>
+        <v>Emplacados</v>
       </c>
       <c r="U21" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>Barras Laminadas</v>
+        <f t="shared" si="29"/>
+        <v>Placas</v>
       </c>
       <c r="V21" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W21" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.babarr.21</v>
+        <v>k.emplac.21</v>
       </c>
       <c r="X21" s="55" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Y21" s="55" t="s">
-        <v>624</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -5596,13 +5758,13 @@
         <v>520</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>690</v>
+        <v>822</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>727</v>
+        <v>692</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>711</v>
+        <v>824</v>
       </c>
       <c r="G22" s="32" t="s">
         <v>9</v>
@@ -5617,29 +5779,29 @@
         <v>9</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>9</v>
+        <v>865</v>
       </c>
       <c r="L22" s="25" t="str">
-        <f t="shared" ref="L22:L35" si="27">_xlfn.CONCAT(SUBSTITUTE(C22,"1.",""))</f>
+        <f t="shared" si="22"/>
         <v>Estrutural</v>
       </c>
       <c r="M22" s="25" t="str">
-        <f t="shared" ref="M22:M35" si="28">_xlfn.CONCAT(SUBSTITUTE(D22,"."," "))</f>
-        <v>Barras</v>
+        <f t="shared" si="17"/>
+        <v>Emplacados</v>
       </c>
       <c r="N22" s="25" t="str">
-        <f t="shared" ref="N22:N35" si="29">_xlfn.CONCAT(SUBSTITUTE(E22,"."," "))</f>
-        <v>Barras Laminadas</v>
+        <f t="shared" si="18"/>
+        <v>Placas</v>
       </c>
       <c r="O22" s="25" t="str">
-        <f t="shared" ref="O22:O35" si="30">_xlfn.CONCAT(SUBSTITUTE(F22,"."," "))</f>
-        <v>Barra Hexagonal</v>
+        <f t="shared" si="21"/>
+        <v>Placa de Gusset</v>
       </c>
       <c r="P22" s="25" t="s">
-        <v>811</v>
-      </c>
-      <c r="Q22" s="25" t="s">
-        <v>811</v>
+        <v>825</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>830</v>
       </c>
       <c r="R22" s="61" t="s">
         <v>9</v>
@@ -5650,24 +5812,24 @@
       </c>
       <c r="T22" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Barras</v>
+        <v>Emplacados</v>
       </c>
       <c r="U22" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Barras Laminadas</v>
+        <v>Placas</v>
       </c>
       <c r="V22" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W22" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.babarr.22</v>
+        <v>k.emplac.22</v>
       </c>
       <c r="X22" s="55" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Y22" s="55" t="s">
-        <v>624</v>
+        <v>675</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -5687,7 +5849,7 @@
         <v>727</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="G23" s="32" t="s">
         <v>9</v>
@@ -5705,26 +5867,26 @@
         <v>9</v>
       </c>
       <c r="L23" s="25" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="L23" si="30">_xlfn.CONCAT(SUBSTITUTE(C23,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M23" s="25" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>Barras</v>
       </c>
       <c r="N23" s="25" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>Barras Laminadas</v>
       </c>
       <c r="O23" s="25" t="str">
-        <f t="shared" si="30"/>
-        <v>Barra Chata</v>
+        <f t="shared" ref="O23" si="31">_xlfn.CONCAT(SUBSTITUTE(F23,"."," "))</f>
+        <v>Barra Redonda</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>726</v>
-      </c>
-      <c r="Q23" s="29" t="s">
-        <v>773</v>
+        <v>809</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>809</v>
       </c>
       <c r="R23" s="61" t="s">
         <v>9</v>
@@ -5742,7 +5904,7 @@
         <v>Barras Laminadas</v>
       </c>
       <c r="V23" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W23" s="30" t="str">
         <f t="shared" si="2"/>
@@ -5769,10 +5931,10 @@
         <v>690</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G24" s="32" t="s">
         <v>9</v>
@@ -5790,7 +5952,7 @@
         <v>9</v>
       </c>
       <c r="L24" s="25" t="str">
-        <f t="shared" ref="L24" si="31">_xlfn.CONCAT(SUBSTITUTE(C24,"1.",""))</f>
+        <f t="shared" si="15"/>
         <v>Estrutural</v>
       </c>
       <c r="M24" s="25" t="str">
@@ -5799,17 +5961,17 @@
       </c>
       <c r="N24" s="25" t="str">
         <f t="shared" ref="N24" si="33">_xlfn.CONCAT(SUBSTITUTE(E24,"."," "))</f>
-        <v>Barras Trefiladas</v>
+        <v>Barras Laminadas</v>
       </c>
       <c r="O24" s="25" t="str">
-        <f t="shared" ref="O24" si="34">_xlfn.CONCAT(SUBSTITUTE(F24,"."," "))</f>
-        <v>Barra Trefilada Redonda</v>
+        <f t="shared" si="16"/>
+        <v>Barra Quadrada</v>
       </c>
       <c r="P24" s="25" t="s">
-        <v>734</v>
-      </c>
-      <c r="Q24" s="29" t="s">
-        <v>814</v>
+        <v>811</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>812</v>
       </c>
       <c r="R24" s="61" t="s">
         <v>9</v>
@@ -5824,10 +5986,10 @@
       </c>
       <c r="U24" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Barras Trefiladas</v>
+        <v>Barras Laminadas</v>
       </c>
       <c r="V24" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W24" s="30" t="str">
         <f t="shared" si="2"/>
@@ -5854,10 +6016,10 @@
         <v>690</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>9</v>
@@ -5875,26 +6037,26 @@
         <v>9</v>
       </c>
       <c r="L25" s="25" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="L25:L45" si="34">_xlfn.CONCAT(SUBSTITUTE(C25,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M25" s="25" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="M25:M45" si="35">_xlfn.CONCAT(SUBSTITUTE(D25,"."," "))</f>
         <v>Barras</v>
       </c>
       <c r="N25" s="25" t="str">
-        <f t="shared" si="29"/>
-        <v>Barras Trefiladas</v>
+        <f t="shared" ref="N25:N45" si="36">_xlfn.CONCAT(SUBSTITUTE(E25,"."," "))</f>
+        <v>Barras Laminadas</v>
       </c>
       <c r="O25" s="25" t="str">
-        <f t="shared" si="30"/>
-        <v>Barra Trefilada Quadrada</v>
+        <f t="shared" ref="O25:O45" si="37">_xlfn.CONCAT(SUBSTITUTE(F25,"."," "))</f>
+        <v>Barra Hexagonal</v>
       </c>
       <c r="P25" s="25" t="s">
-        <v>735</v>
-      </c>
-      <c r="Q25" s="29" t="s">
-        <v>816</v>
+        <v>810</v>
+      </c>
+      <c r="Q25" s="25" t="s">
+        <v>810</v>
       </c>
       <c r="R25" s="61" t="s">
         <v>9</v>
@@ -5909,10 +6071,10 @@
       </c>
       <c r="U25" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Barras Trefiladas</v>
+        <v>Barras Laminadas</v>
       </c>
       <c r="V25" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W25" s="30" t="str">
         <f t="shared" si="2"/>
@@ -5939,10 +6101,10 @@
         <v>690</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="G26" s="32" t="s">
         <v>9</v>
@@ -5960,26 +6122,26 @@
         <v>9</v>
       </c>
       <c r="L26" s="25" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>Estrutural</v>
       </c>
       <c r="M26" s="25" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>Barras</v>
       </c>
       <c r="N26" s="25" t="str">
-        <f t="shared" si="29"/>
-        <v>Barras Trefiladas</v>
+        <f t="shared" si="36"/>
+        <v>Barras Laminadas</v>
       </c>
       <c r="O26" s="25" t="str">
-        <f t="shared" si="30"/>
-        <v>Barra Trefilada Hexagonal</v>
+        <f t="shared" si="37"/>
+        <v>Barra Chata</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>815</v>
+        <v>772</v>
       </c>
       <c r="R26" s="61" t="s">
         <v>9</v>
@@ -5994,10 +6156,10 @@
       </c>
       <c r="U26" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Barras Trefiladas</v>
+        <v>Barras Laminadas</v>
       </c>
       <c r="V26" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W26" s="30" t="str">
         <f t="shared" si="2"/>
@@ -6024,10 +6186,10 @@
         <v>690</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>9</v>
@@ -6045,26 +6207,26 @@
         <v>9</v>
       </c>
       <c r="L27" s="25" t="str">
-        <f t="shared" ref="L27:L28" si="35">_xlfn.CONCAT(SUBSTITUTE(C27,"1.",""))</f>
+        <f t="shared" ref="L27" si="38">_xlfn.CONCAT(SUBSTITUTE(C27,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M27" s="25" t="str">
-        <f t="shared" ref="M27:M28" si="36">_xlfn.CONCAT(SUBSTITUTE(D27,"."," "))</f>
+        <f t="shared" ref="M27" si="39">_xlfn.CONCAT(SUBSTITUTE(D27,"."," "))</f>
         <v>Barras</v>
       </c>
       <c r="N27" s="25" t="str">
-        <f t="shared" ref="N27:N28" si="37">_xlfn.CONCAT(SUBSTITUTE(E27,"."," "))</f>
-        <v>Barras de Armaduras</v>
+        <f t="shared" ref="N27" si="40">_xlfn.CONCAT(SUBSTITUTE(E27,"."," "))</f>
+        <v>Barras Trefiladas</v>
       </c>
       <c r="O27" s="25" t="str">
-        <f t="shared" ref="O27:O28" si="38">_xlfn.CONCAT(SUBSTITUTE(F27,"."," "))</f>
-        <v>Barra Vergalhão</v>
+        <f t="shared" ref="O27" si="41">_xlfn.CONCAT(SUBSTITUTE(F27,"."," "))</f>
+        <v>Barra Trefilada Redonda</v>
       </c>
       <c r="P27" s="25" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>774</v>
+        <v>813</v>
       </c>
       <c r="R27" s="61" t="s">
         <v>9</v>
@@ -6079,20 +6241,20 @@
       </c>
       <c r="U27" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Barras de Armaduras</v>
+        <v>Barras Trefiladas</v>
       </c>
       <c r="V27" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W27" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.27</v>
       </c>
       <c r="X27" s="55" t="s">
-        <v>722</v>
+        <v>632</v>
       </c>
       <c r="Y27" s="55" t="s">
-        <v>9</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6109,10 +6271,10 @@
         <v>690</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>9</v>
@@ -6130,26 +6292,26 @@
         <v>9</v>
       </c>
       <c r="L28" s="25" t="str">
+        <f t="shared" si="34"/>
+        <v>Estrutural</v>
+      </c>
+      <c r="M28" s="25" t="str">
         <f t="shared" si="35"/>
-        <v>Estrutural</v>
-      </c>
-      <c r="M28" s="25" t="str">
+        <v>Barras</v>
+      </c>
+      <c r="N28" s="25" t="str">
         <f t="shared" si="36"/>
-        <v>Barras</v>
-      </c>
-      <c r="N28" s="25" t="str">
+        <v>Barras Trefiladas</v>
+      </c>
+      <c r="O28" s="25" t="str">
         <f t="shared" si="37"/>
-        <v>Barras de Armaduras</v>
-      </c>
-      <c r="O28" s="25" t="str">
-        <f t="shared" si="38"/>
-        <v>Barra Lisa</v>
+        <v>Barra Trefilada Quadrada</v>
       </c>
       <c r="P28" s="25" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="Q28" s="29" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="R28" s="61" t="s">
         <v>9</v>
@@ -6164,20 +6326,20 @@
       </c>
       <c r="U28" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Barras de Armaduras</v>
+        <v>Barras Trefiladas</v>
       </c>
       <c r="V28" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W28" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.28</v>
       </c>
       <c r="X28" s="55" t="s">
-        <v>722</v>
+        <v>632</v>
       </c>
       <c r="Y28" s="55" t="s">
-        <v>9</v>
+        <v>624</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6194,10 +6356,10 @@
         <v>690</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>9</v>
@@ -6215,26 +6377,26 @@
         <v>9</v>
       </c>
       <c r="L29" s="25" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>Estrutural</v>
       </c>
       <c r="M29" s="25" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>Barras</v>
       </c>
       <c r="N29" s="25" t="str">
-        <f t="shared" si="29"/>
-        <v>Barras de Armaduras</v>
+        <f t="shared" si="36"/>
+        <v>Barras Trefiladas</v>
       </c>
       <c r="O29" s="25" t="str">
-        <f t="shared" si="30"/>
-        <v>Barra Nervurada</v>
+        <f t="shared" si="37"/>
+        <v>Barra Trefilada Hexagonal</v>
       </c>
       <c r="P29" s="25" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="Q29" s="29" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="R29" s="61" t="s">
         <v>9</v>
@@ -6249,20 +6411,20 @@
       </c>
       <c r="U29" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Barras de Armaduras</v>
+        <v>Barras Trefiladas</v>
       </c>
       <c r="V29" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W29" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.29</v>
       </c>
       <c r="X29" s="55" t="s">
-        <v>722</v>
+        <v>632</v>
       </c>
       <c r="Y29" s="55" t="s">
-        <v>9</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6276,13 +6438,13 @@
         <v>520</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>707</v>
+        <v>730</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>9</v>
@@ -6300,26 +6462,26 @@
         <v>9</v>
       </c>
       <c r="L30" s="25" t="str">
-        <f t="shared" ref="L30:L34" si="39">_xlfn.CONCAT(SUBSTITUTE(C30,"1.",""))</f>
+        <f t="shared" ref="L30:L39" si="42">_xlfn.CONCAT(SUBSTITUTE(C30,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M30" s="25" t="str">
-        <f t="shared" ref="M30:M34" si="40">_xlfn.CONCAT(SUBSTITUTE(D30,"."," "))</f>
-        <v>Treliçados</v>
+        <f t="shared" ref="M30:M39" si="43">_xlfn.CONCAT(SUBSTITUTE(D30,"."," "))</f>
+        <v>Barras</v>
       </c>
       <c r="N30" s="25" t="str">
-        <f t="shared" ref="N30:N34" si="41">_xlfn.CONCAT(SUBSTITUTE(E30,"."," "))</f>
-        <v>Treliças Planas</v>
+        <f t="shared" ref="N30:N39" si="44">_xlfn.CONCAT(SUBSTITUTE(E30,"."," "))</f>
+        <v>Barras de Armaduras</v>
       </c>
       <c r="O30" s="25" t="str">
-        <f t="shared" ref="O30:O33" si="42">_xlfn.CONCAT(SUBSTITUTE(F30,"."," "))</f>
-        <v>Treliça Pratt</v>
+        <f t="shared" ref="O30:O39" si="45">_xlfn.CONCAT(SUBSTITUTE(F30,"."," "))</f>
+        <v>Barra Vergalhão</v>
       </c>
       <c r="P30" s="25" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="Q30" s="29" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="R30" s="61" t="s">
         <v>9</v>
@@ -6330,24 +6492,24 @@
       </c>
       <c r="T30" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Treliçados</v>
+        <v>Barras</v>
       </c>
       <c r="U30" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Treliças Planas</v>
+        <v>Barras de Armaduras</v>
       </c>
       <c r="V30" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W30" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.trtrel.30</v>
+        <v>k.babarr.30</v>
       </c>
       <c r="X30" s="55" t="s">
-        <v>639</v>
+        <v>722</v>
       </c>
       <c r="Y30" s="55" t="s">
-        <v>9</v>
+        <v>863</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6361,13 +6523,13 @@
         <v>520</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>707</v>
+        <v>730</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>9</v>
@@ -6385,26 +6547,26 @@
         <v>9</v>
       </c>
       <c r="L31" s="25" t="str">
-        <f t="shared" ref="L31:L33" si="43">_xlfn.CONCAT(SUBSTITUTE(C31,"1.",""))</f>
+        <f t="shared" si="42"/>
         <v>Estrutural</v>
       </c>
       <c r="M31" s="25" t="str">
-        <f t="shared" ref="M31:M33" si="44">_xlfn.CONCAT(SUBSTITUTE(D31,"."," "))</f>
-        <v>Treliçados</v>
+        <f t="shared" si="43"/>
+        <v>Barras</v>
       </c>
       <c r="N31" s="25" t="str">
-        <f t="shared" ref="N31:N33" si="45">_xlfn.CONCAT(SUBSTITUTE(E31,"."," "))</f>
-        <v>Treliças Planas</v>
+        <f t="shared" si="44"/>
+        <v>Barras de Armaduras</v>
       </c>
       <c r="O31" s="25" t="str">
-        <f t="shared" si="42"/>
-        <v>Treliça Howe</v>
+        <f t="shared" si="45"/>
+        <v>Barra Lisa</v>
       </c>
       <c r="P31" s="25" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>776</v>
+        <v>816</v>
       </c>
       <c r="R31" s="61" t="s">
         <v>9</v>
@@ -6415,24 +6577,24 @@
       </c>
       <c r="T31" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Treliçados</v>
+        <v>Barras</v>
       </c>
       <c r="U31" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Treliças Planas</v>
+        <v>Barras de Armaduras</v>
       </c>
       <c r="V31" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W31" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.trtrel.31</v>
+        <v>k.babarr.31</v>
       </c>
       <c r="X31" s="55" t="s">
-        <v>639</v>
+        <v>722</v>
       </c>
       <c r="Y31" s="55" t="s">
-        <v>9</v>
+        <v>863</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6446,13 +6608,13 @@
         <v>520</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>707</v>
+        <v>730</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>9</v>
@@ -6470,54 +6632,54 @@
         <v>9</v>
       </c>
       <c r="L32" s="25" t="str">
+        <f t="shared" si="42"/>
+        <v>Estrutural</v>
+      </c>
+      <c r="M32" s="25" t="str">
         <f t="shared" si="43"/>
+        <v>Barras</v>
+      </c>
+      <c r="N32" s="25" t="str">
+        <f t="shared" si="44"/>
+        <v>Barras de Armaduras</v>
+      </c>
+      <c r="O32" s="25" t="str">
+        <f t="shared" si="45"/>
+        <v>Barra Nervurada</v>
+      </c>
+      <c r="P32" s="25" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q32" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="R32" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S32" s="62" t="str">
+        <f t="shared" ref="S32:S39" si="46">SUBSTITUTE(C32, ".", " ")</f>
         <v>Estrutural</v>
       </c>
-      <c r="M32" s="25" t="str">
-        <f t="shared" si="44"/>
-        <v>Treliçados</v>
-      </c>
-      <c r="N32" s="25" t="str">
-        <f t="shared" si="45"/>
-        <v>Treliças Planas</v>
-      </c>
-      <c r="O32" s="25" t="str">
-        <f t="shared" si="42"/>
-        <v>Treliça Warren</v>
-      </c>
-      <c r="P32" s="25" t="s">
-        <v>705</v>
-      </c>
-      <c r="Q32" s="29" t="s">
-        <v>777</v>
-      </c>
-      <c r="R32" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="S32" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>Estrutural</v>
-      </c>
       <c r="T32" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>Treliçados</v>
+        <f t="shared" ref="T32:T39" si="47">SUBSTITUTE(D32, ".", " ")</f>
+        <v>Barras</v>
       </c>
       <c r="U32" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>Treliças Planas</v>
+        <f t="shared" ref="U32:U39" si="48">SUBSTITUTE(E32, ".", " ")</f>
+        <v>Barras de Armaduras</v>
       </c>
       <c r="V32" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W32" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.trtrel.32</v>
+        <v>k.babarr.32</v>
       </c>
       <c r="X32" s="55" t="s">
-        <v>639</v>
+        <v>722</v>
       </c>
       <c r="Y32" s="55" t="s">
-        <v>9</v>
+        <v>863</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6531,13 +6693,13 @@
         <v>520</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>707</v>
+        <v>833</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>706</v>
+        <v>834</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>9</v>
@@ -6555,54 +6717,54 @@
         <v>9</v>
       </c>
       <c r="L33" s="25" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="L33" si="49">_xlfn.CONCAT(SUBSTITUTE(C33,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M33" s="25" t="str">
-        <f t="shared" si="44"/>
-        <v>Treliçados</v>
+        <f t="shared" ref="M33" si="50">_xlfn.CONCAT(SUBSTITUTE(D33,"."," "))</f>
+        <v>Barras</v>
       </c>
       <c r="N33" s="25" t="str">
-        <f t="shared" si="45"/>
-        <v>Treliças Planas</v>
+        <f t="shared" ref="N33" si="51">_xlfn.CONCAT(SUBSTITUTE(E33,"."," "))</f>
+        <v>Contraventamentos</v>
       </c>
       <c r="O33" s="25" t="str">
-        <f t="shared" si="42"/>
-        <v>Treliça Fink</v>
+        <f t="shared" ref="O33" si="52">_xlfn.CONCAT(SUBSTITUTE(F33,"."," "))</f>
+        <v>Barra Contraventamento</v>
       </c>
       <c r="P33" s="25" t="s">
-        <v>708</v>
-      </c>
-      <c r="Q33" s="29" t="s">
-        <v>778</v>
+        <v>839</v>
+      </c>
+      <c r="Q33" s="25" t="s">
+        <v>840</v>
       </c>
       <c r="R33" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S33" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="S33" si="53">SUBSTITUTE(C33, ".", " ")</f>
         <v>Estrutural</v>
       </c>
       <c r="T33" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>Treliçados</v>
+        <f t="shared" ref="T33" si="54">SUBSTITUTE(D33, ".", " ")</f>
+        <v>Barras</v>
       </c>
       <c r="U33" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>Treliças Planas</v>
+        <f t="shared" ref="U33" si="55">SUBSTITUTE(E33, ".", " ")</f>
+        <v>Contraventamentos</v>
       </c>
       <c r="V33" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W33" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.trtrel.33</v>
+        <v>k.bacont.33</v>
       </c>
       <c r="X33" s="55" t="s">
-        <v>639</v>
+        <v>862</v>
       </c>
       <c r="Y33" s="55" t="s">
-        <v>9</v>
+        <v>843</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6616,13 +6778,13 @@
         <v>520</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>707</v>
+        <v>833</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>704</v>
+        <v>835</v>
       </c>
       <c r="G34" s="32" t="s">
         <v>9</v>
@@ -6640,54 +6802,54 @@
         <v>9</v>
       </c>
       <c r="L34" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Estrutural</v>
       </c>
       <c r="M34" s="25" t="str">
-        <f t="shared" si="40"/>
-        <v>Treliçados</v>
+        <f t="shared" si="43"/>
+        <v>Barras</v>
       </c>
       <c r="N34" s="25" t="str">
-        <f t="shared" si="41"/>
-        <v>Treliças Planas</v>
+        <f t="shared" si="44"/>
+        <v>Contraventamentos</v>
       </c>
       <c r="O34" s="25" t="str">
-        <f t="shared" ref="O34" si="46">_xlfn.CONCAT(SUBSTITUTE(F34,"."," "))</f>
-        <v>Treliça Vierendeel</v>
+        <f t="shared" si="45"/>
+        <v>Barra Comprimida</v>
       </c>
       <c r="P34" s="25" t="s">
-        <v>709</v>
-      </c>
-      <c r="Q34" s="29" t="s">
-        <v>779</v>
+        <v>837</v>
+      </c>
+      <c r="Q34" s="25" t="s">
+        <v>841</v>
       </c>
       <c r="R34" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S34" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="46"/>
         <v>Estrutural</v>
       </c>
       <c r="T34" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>Treliçados</v>
+        <f t="shared" si="47"/>
+        <v>Barras</v>
       </c>
       <c r="U34" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>Treliças Planas</v>
+        <f t="shared" si="48"/>
+        <v>Contraventamentos</v>
       </c>
       <c r="V34" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W34" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.trtrel.34</v>
+        <v>k.bacont.34</v>
       </c>
       <c r="X34" s="55" t="s">
-        <v>639</v>
+        <v>862</v>
       </c>
       <c r="Y34" s="55" t="s">
-        <v>9</v>
+        <v>843</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6701,13 +6863,13 @@
         <v>520</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>707</v>
+        <v>833</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>698</v>
+        <v>836</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>9</v>
@@ -6725,54 +6887,54 @@
         <v>9</v>
       </c>
       <c r="L35" s="25" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>Estrutural</v>
       </c>
       <c r="M35" s="25" t="str">
-        <f t="shared" si="28"/>
-        <v>Treliçados</v>
+        <f t="shared" si="43"/>
+        <v>Barras</v>
       </c>
       <c r="N35" s="25" t="str">
-        <f t="shared" si="29"/>
-        <v>Treliças Planas</v>
+        <f t="shared" si="44"/>
+        <v>Contraventamentos</v>
       </c>
       <c r="O35" s="25" t="str">
-        <f t="shared" si="30"/>
-        <v>Tesoura</v>
+        <f t="shared" si="45"/>
+        <v>Barra Tracionada</v>
       </c>
       <c r="P35" s="25" t="s">
-        <v>710</v>
-      </c>
-      <c r="Q35" s="29" t="s">
-        <v>780</v>
+        <v>838</v>
+      </c>
+      <c r="Q35" s="25" t="s">
+        <v>842</v>
       </c>
       <c r="R35" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S35" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="46"/>
         <v>Estrutural</v>
       </c>
       <c r="T35" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>Treliçados</v>
+        <f t="shared" si="47"/>
+        <v>Barras</v>
       </c>
       <c r="U35" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>Treliças Planas</v>
+        <f t="shared" si="48"/>
+        <v>Contraventamentos</v>
       </c>
       <c r="V35" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W35" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.trtrel.35</v>
+        <v>k.bacont.35</v>
       </c>
       <c r="X35" s="55" t="s">
-        <v>639</v>
+        <v>862</v>
       </c>
       <c r="Y35" s="55" t="s">
-        <v>9</v>
+        <v>843</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6786,13 +6948,13 @@
         <v>520</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>707</v>
+        <v>844</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>638</v>
+        <v>847</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>9</v>
@@ -6804,60 +6966,60 @@
         <v>9</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>9</v>
+        <v>866</v>
       </c>
       <c r="K36" s="32" t="s">
         <v>9</v>
       </c>
       <c r="L36" s="25" t="str">
-        <f t="shared" ref="L36:L42" si="47">_xlfn.CONCAT(SUBSTITUTE(C36,"1.",""))</f>
+        <f t="shared" ref="L36:L38" si="56">_xlfn.CONCAT(SUBSTITUTE(C36,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M36" s="25" t="str">
-        <f t="shared" si="17"/>
-        <v>Treliçados</v>
+        <f t="shared" ref="M36:M38" si="57">_xlfn.CONCAT(SUBSTITUTE(D36,"."," "))</f>
+        <v>Barras</v>
       </c>
       <c r="N36" s="25" t="str">
-        <f t="shared" si="18"/>
-        <v>Treliças Planas</v>
+        <f t="shared" ref="N36:N38" si="58">_xlfn.CONCAT(SUBSTITUTE(E36,"."," "))</f>
+        <v>Barras Montantes</v>
       </c>
       <c r="O36" s="25" t="str">
-        <f t="shared" ref="O36:O42" si="48">_xlfn.CONCAT(SUBSTITUTE(F36,"."," "))</f>
-        <v>Treliça Ponte</v>
+        <f t="shared" ref="O36:O38" si="59">_xlfn.CONCAT(SUBSTITUTE(F36,"."," "))</f>
+        <v>Barra Montante</v>
       </c>
       <c r="P36" s="25" t="s">
-        <v>723</v>
-      </c>
-      <c r="Q36" s="29" t="s">
-        <v>781</v>
+        <v>854</v>
+      </c>
+      <c r="Q36" s="25" t="s">
+        <v>855</v>
       </c>
       <c r="R36" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S36" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="S36:S38" si="60">SUBSTITUTE(C36, ".", " ")</f>
         <v>Estrutural</v>
       </c>
       <c r="T36" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>Treliçados</v>
+        <f t="shared" ref="T36:T38" si="61">SUBSTITUTE(D36, ".", " ")</f>
+        <v>Barras</v>
       </c>
       <c r="U36" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>Treliças Planas</v>
+        <f t="shared" ref="U36:U38" si="62">SUBSTITUTE(E36, ".", " ")</f>
+        <v>Barras Montantes</v>
       </c>
       <c r="V36" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W36" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.trtrel.36</v>
+        <v>k.babarr.36</v>
       </c>
       <c r="X36" s="55" t="s">
-        <v>639</v>
+        <v>861</v>
       </c>
       <c r="Y36" s="55" t="s">
-        <v>9</v>
+        <v>860</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6871,13 +7033,13 @@
         <v>520</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>759</v>
+        <v>845</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>750</v>
+        <v>846</v>
       </c>
       <c r="G37" s="32" t="s">
         <v>9</v>
@@ -6889,60 +7051,60 @@
         <v>9</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>9</v>
+        <v>867</v>
       </c>
       <c r="K37" s="32" t="s">
         <v>9</v>
       </c>
       <c r="L37" s="25" t="str">
-        <f t="shared" ref="L37:L41" si="49">_xlfn.CONCAT(SUBSTITUTE(C37,"1.",""))</f>
+        <f t="shared" si="56"/>
         <v>Estrutural</v>
       </c>
       <c r="M37" s="25" t="str">
-        <f t="shared" ref="M37:M41" si="50">_xlfn.CONCAT(SUBSTITUTE(D37,"."," "))</f>
-        <v>Treliçados</v>
+        <f t="shared" si="57"/>
+        <v>Barras</v>
       </c>
       <c r="N37" s="25" t="str">
-        <f t="shared" ref="N37:N41" si="51">_xlfn.CONCAT(SUBSTITUTE(E37,"."," "))</f>
-        <v>Treliças Espaciais</v>
+        <f t="shared" si="58"/>
+        <v>Barras Diagonais</v>
       </c>
       <c r="O37" s="25" t="str">
-        <f t="shared" ref="O37:O41" si="52">_xlfn.CONCAT(SUBSTITUTE(F37,"."," "))</f>
-        <v>Treliça Espacial Reticulada</v>
+        <f t="shared" si="59"/>
+        <v>Barra Diagonal</v>
       </c>
       <c r="P37" s="25" t="s">
-        <v>753</v>
-      </c>
-      <c r="Q37" s="29" t="s">
-        <v>782</v>
+        <v>853</v>
+      </c>
+      <c r="Q37" s="25" t="s">
+        <v>856</v>
       </c>
       <c r="R37" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S37" s="62" t="str">
-        <f t="shared" ref="S37:S41" si="53">SUBSTITUTE(C37, ".", " ")</f>
+        <f t="shared" si="60"/>
         <v>Estrutural</v>
       </c>
       <c r="T37" s="62" t="str">
-        <f t="shared" ref="T37:T41" si="54">SUBSTITUTE(D37, ".", " ")</f>
-        <v>Treliçados</v>
+        <f t="shared" si="61"/>
+        <v>Barras</v>
       </c>
       <c r="U37" s="62" t="str">
-        <f t="shared" ref="U37:U41" si="55">SUBSTITUTE(E37, ".", " ")</f>
-        <v>Treliças Espaciais</v>
+        <f t="shared" si="62"/>
+        <v>Barras Diagonais</v>
       </c>
       <c r="V37" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W37" s="30" t="str">
-        <f t="shared" ref="W37:W41" si="56">CONCATENATE("k.",LOWER(LEFT(D37,2)),LOWER(LEFT(E37,4)),".",A37)</f>
-        <v>k.trtrel.37</v>
+        <f t="shared" si="2"/>
+        <v>k.babarr.37</v>
       </c>
       <c r="X37" s="55" t="s">
-        <v>639</v>
+        <v>862</v>
       </c>
       <c r="Y37" s="55" t="s">
-        <v>9</v>
+        <v>843</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6956,13 +7118,13 @@
         <v>520</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>759</v>
+        <v>848</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>751</v>
+        <v>849</v>
       </c>
       <c r="G38" s="32" t="s">
         <v>9</v>
@@ -6974,60 +7136,60 @@
         <v>9</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>9</v>
+        <v>868</v>
       </c>
       <c r="K38" s="32" t="s">
         <v>9</v>
       </c>
       <c r="L38" s="25" t="str">
-        <f t="shared" ref="L38" si="57">_xlfn.CONCAT(SUBSTITUTE(C38,"1.",""))</f>
+        <f t="shared" si="56"/>
         <v>Estrutural</v>
       </c>
       <c r="M38" s="25" t="str">
-        <f t="shared" ref="M38" si="58">_xlfn.CONCAT(SUBSTITUTE(D38,"."," "))</f>
-        <v>Treliçados</v>
+        <f t="shared" si="57"/>
+        <v>Barras</v>
       </c>
       <c r="N38" s="25" t="str">
-        <f t="shared" ref="N38" si="59">_xlfn.CONCAT(SUBSTITUTE(E38,"."," "))</f>
-        <v>Treliças Espaciais</v>
+        <f t="shared" si="58"/>
+        <v>Banzos</v>
       </c>
       <c r="O38" s="25" t="str">
-        <f t="shared" ref="O38" si="60">_xlfn.CONCAT(SUBSTITUTE(F38,"."," "))</f>
-        <v>Treliça Espacial Geodésica</v>
+        <f t="shared" si="59"/>
+        <v>Banzo Superior</v>
       </c>
       <c r="P38" s="25" t="s">
-        <v>758</v>
-      </c>
-      <c r="Q38" s="29" t="s">
-        <v>783</v>
+        <v>851</v>
+      </c>
+      <c r="Q38" s="25" t="s">
+        <v>857</v>
       </c>
       <c r="R38" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S38" s="62" t="str">
-        <f t="shared" ref="S38" si="61">SUBSTITUTE(C38, ".", " ")</f>
+        <f t="shared" si="60"/>
         <v>Estrutural</v>
       </c>
       <c r="T38" s="62" t="str">
-        <f t="shared" ref="T38" si="62">SUBSTITUTE(D38, ".", " ")</f>
-        <v>Treliçados</v>
+        <f t="shared" si="61"/>
+        <v>Barras</v>
       </c>
       <c r="U38" s="62" t="str">
-        <f t="shared" ref="U38" si="63">SUBSTITUTE(E38, ".", " ")</f>
-        <v>Treliças Espaciais</v>
+        <f t="shared" si="62"/>
+        <v>Banzos</v>
       </c>
       <c r="V38" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W38" s="30" t="str">
-        <f t="shared" ref="W38" si="64">CONCATENATE("k.",LOWER(LEFT(D38,2)),LOWER(LEFT(E38,4)),".",A38)</f>
-        <v>k.trtrel.38</v>
+        <f t="shared" si="2"/>
+        <v>k.babanz.38</v>
       </c>
       <c r="X38" s="55" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="Y38" s="55" t="s">
-        <v>9</v>
+        <v>859</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7041,13 +7203,13 @@
         <v>520</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>759</v>
+        <v>848</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>760</v>
+        <v>850</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>9</v>
@@ -7059,60 +7221,60 @@
         <v>9</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>9</v>
+        <v>869</v>
       </c>
       <c r="K39" s="32" t="s">
         <v>9</v>
       </c>
       <c r="L39" s="25" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>Estrutural</v>
       </c>
       <c r="M39" s="25" t="str">
-        <f t="shared" si="50"/>
-        <v>Treliçados</v>
+        <f t="shared" si="43"/>
+        <v>Barras</v>
       </c>
       <c r="N39" s="25" t="str">
-        <f t="shared" si="51"/>
-        <v>Treliças Espaciais</v>
+        <f t="shared" si="44"/>
+        <v>Banzos</v>
       </c>
       <c r="O39" s="25" t="str">
-        <f t="shared" si="52"/>
-        <v>Treliça Espacial Arqueada</v>
+        <f t="shared" si="45"/>
+        <v>Banzo Inferior</v>
       </c>
       <c r="P39" s="25" t="s">
-        <v>761</v>
-      </c>
-      <c r="Q39" s="29" t="s">
-        <v>784</v>
+        <v>852</v>
+      </c>
+      <c r="Q39" s="25" t="s">
+        <v>858</v>
       </c>
       <c r="R39" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S39" s="62" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>Estrutural</v>
       </c>
       <c r="T39" s="62" t="str">
-        <f t="shared" si="54"/>
-        <v>Treliçados</v>
+        <f t="shared" si="47"/>
+        <v>Barras</v>
       </c>
       <c r="U39" s="62" t="str">
-        <f t="shared" si="55"/>
-        <v>Treliças Espaciais</v>
+        <f t="shared" si="48"/>
+        <v>Banzos</v>
       </c>
       <c r="V39" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W39" s="30" t="str">
-        <f t="shared" si="56"/>
-        <v>k.trtrel.39</v>
+        <f t="shared" ref="W39" si="63">CONCATENATE("k.",LOWER(LEFT(D39,2)),LOWER(LEFT(E39,4)),".",A39)</f>
+        <v>k.babanz.39</v>
       </c>
       <c r="X39" s="55" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="Y39" s="55" t="s">
-        <v>9</v>
+        <v>859</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7129,10 +7291,10 @@
         <v>691</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>759</v>
+        <v>707</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>752</v>
+        <v>699</v>
       </c>
       <c r="G40" s="32" t="s">
         <v>9</v>
@@ -7150,54 +7312,54 @@
         <v>9</v>
       </c>
       <c r="L40" s="25" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="L40:L44" si="64">_xlfn.CONCAT(SUBSTITUTE(C40,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M40" s="25" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="M40:M44" si="65">_xlfn.CONCAT(SUBSTITUTE(D40,"."," "))</f>
         <v>Treliçados</v>
       </c>
       <c r="N40" s="25" t="str">
-        <f t="shared" si="51"/>
-        <v>Treliças Espaciais</v>
+        <f t="shared" ref="N40:N44" si="66">_xlfn.CONCAT(SUBSTITUTE(E40,"."," "))</f>
+        <v>Treliças Planas</v>
       </c>
       <c r="O40" s="25" t="str">
-        <f t="shared" si="52"/>
-        <v>Treliça Espacial Piramidal</v>
+        <f t="shared" ref="O40:O43" si="67">_xlfn.CONCAT(SUBSTITUTE(F40,"."," "))</f>
+        <v>Treliça Pratt</v>
       </c>
       <c r="P40" s="25" t="s">
-        <v>757</v>
+        <v>700</v>
       </c>
       <c r="Q40" s="29" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="R40" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S40" s="62" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T40" s="62" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="4"/>
         <v>Treliçados</v>
       </c>
       <c r="U40" s="62" t="str">
-        <f t="shared" si="55"/>
-        <v>Treliças Espaciais</v>
+        <f t="shared" si="5"/>
+        <v>Treliças Planas</v>
       </c>
       <c r="V40" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W40" s="30" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="2"/>
         <v>k.trtrel.40</v>
       </c>
       <c r="X40" s="55" t="s">
         <v>639</v>
       </c>
       <c r="Y40" s="55" t="s">
-        <v>9</v>
+        <v>864</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7214,10 +7376,10 @@
         <v>691</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>759</v>
+        <v>707</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>754</v>
+        <v>701</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>9</v>
@@ -7235,54 +7397,54 @@
         <v>9</v>
       </c>
       <c r="L41" s="25" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="L41:L43" si="68">_xlfn.CONCAT(SUBSTITUTE(C41,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M41" s="25" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="M41:M43" si="69">_xlfn.CONCAT(SUBSTITUTE(D41,"."," "))</f>
         <v>Treliçados</v>
       </c>
       <c r="N41" s="25" t="str">
-        <f t="shared" si="51"/>
-        <v>Treliças Espaciais</v>
+        <f t="shared" ref="N41:N43" si="70">_xlfn.CONCAT(SUBSTITUTE(E41,"."," "))</f>
+        <v>Treliças Planas</v>
       </c>
       <c r="O41" s="25" t="str">
-        <f t="shared" si="52"/>
-        <v>Treliça Espacial Octaédrica</v>
+        <f t="shared" si="67"/>
+        <v>Treliça Howe</v>
       </c>
       <c r="P41" s="25" t="s">
-        <v>756</v>
+        <v>702</v>
       </c>
       <c r="Q41" s="29" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="R41" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S41" s="62" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T41" s="62" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="4"/>
         <v>Treliçados</v>
       </c>
       <c r="U41" s="62" t="str">
-        <f t="shared" si="55"/>
-        <v>Treliças Espaciais</v>
+        <f t="shared" si="5"/>
+        <v>Treliças Planas</v>
       </c>
       <c r="V41" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W41" s="30" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="2"/>
         <v>k.trtrel.41</v>
       </c>
       <c r="X41" s="55" t="s">
         <v>639</v>
       </c>
       <c r="Y41" s="55" t="s">
-        <v>9</v>
+        <v>864</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7299,10 +7461,10 @@
         <v>691</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>759</v>
+        <v>707</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>762</v>
+        <v>703</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>9</v>
@@ -7320,26 +7482,26 @@
         <v>9</v>
       </c>
       <c r="L42" s="25" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="68"/>
         <v>Estrutural</v>
       </c>
       <c r="M42" s="25" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="69"/>
         <v>Treliçados</v>
       </c>
       <c r="N42" s="25" t="str">
-        <f t="shared" si="18"/>
-        <v>Treliças Espaciais</v>
+        <f t="shared" si="70"/>
+        <v>Treliças Planas</v>
       </c>
       <c r="O42" s="25" t="str">
-        <f t="shared" si="48"/>
-        <v>Treliça Espacial Híbrida</v>
+        <f t="shared" si="67"/>
+        <v>Treliça Warren</v>
       </c>
       <c r="P42" s="25" t="s">
-        <v>755</v>
+        <v>705</v>
       </c>
       <c r="Q42" s="29" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="R42" s="61" t="s">
         <v>9</v>
@@ -7354,10 +7516,10 @@
       </c>
       <c r="U42" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Treliças Espaciais</v>
+        <v>Treliças Planas</v>
       </c>
       <c r="V42" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W42" s="30" t="str">
         <f t="shared" si="2"/>
@@ -7367,7 +7529,7 @@
         <v>639</v>
       </c>
       <c r="Y42" s="55" t="s">
-        <v>9</v>
+        <v>864</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7381,13 +7543,13 @@
         <v>520</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>605</v>
+        <v>691</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>656</v>
+        <v>707</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>749</v>
+        <v>706</v>
       </c>
       <c r="G43" s="32" t="s">
         <v>9</v>
@@ -7405,26 +7567,26 @@
         <v>9</v>
       </c>
       <c r="L43" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="68"/>
         <v>Estrutural</v>
       </c>
       <c r="M43" s="25" t="str">
-        <f t="shared" ref="M43:M60" si="65">_xlfn.CONCAT(SUBSTITUTE(D43,"."," "))</f>
-        <v>Tensionadas</v>
+        <f t="shared" si="69"/>
+        <v>Treliçados</v>
       </c>
       <c r="N43" s="25" t="str">
-        <f t="shared" ref="N43:N60" si="66">_xlfn.CONCAT(SUBSTITUTE(E43,"."," "))</f>
-        <v>Tensores</v>
+        <f t="shared" si="70"/>
+        <v>Treliças Planas</v>
       </c>
       <c r="O43" s="25" t="str">
-        <f t="shared" ref="O43:O61" si="67">_xlfn.CONCAT(SUBSTITUTE(F43,"."," "))</f>
-        <v>Ancora Estrutural</v>
+        <f t="shared" si="67"/>
+        <v>Treliça Fink</v>
       </c>
       <c r="P43" s="25" t="s">
-        <v>601</v>
+        <v>708</v>
       </c>
       <c r="Q43" s="29" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="R43" s="61" t="s">
         <v>9</v>
@@ -7435,24 +7597,24 @@
       </c>
       <c r="T43" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Tensionadas</v>
+        <v>Treliçados</v>
       </c>
       <c r="U43" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Tensores</v>
+        <v>Treliças Planas</v>
       </c>
       <c r="V43" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W43" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.tetens.43</v>
+        <v>k.trtrel.43</v>
       </c>
       <c r="X43" s="55" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="Y43" s="55" t="s">
-        <v>676</v>
+        <v>864</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7466,13 +7628,13 @@
         <v>520</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>605</v>
+        <v>691</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>656</v>
+        <v>707</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>748</v>
+        <v>704</v>
       </c>
       <c r="G44" s="32" t="s">
         <v>9</v>
@@ -7490,26 +7652,26 @@
         <v>9</v>
       </c>
       <c r="L44" s="25" t="str">
-        <f t="shared" ref="L44:L59" si="68">_xlfn.CONCAT(SUBSTITUTE(C44,"1.",""))</f>
+        <f t="shared" si="64"/>
         <v>Estrutural</v>
       </c>
       <c r="M44" s="25" t="str">
-        <f t="shared" ref="M44:M59" si="69">_xlfn.CONCAT(SUBSTITUTE(D44,"."," "))</f>
-        <v>Tensionadas</v>
+        <f t="shared" si="65"/>
+        <v>Treliçados</v>
       </c>
       <c r="N44" s="25" t="str">
-        <f t="shared" ref="N44:N59" si="70">_xlfn.CONCAT(SUBSTITUTE(E44,"."," "))</f>
-        <v>Tensores</v>
+        <f t="shared" si="66"/>
+        <v>Treliças Planas</v>
       </c>
       <c r="O44" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Conector Estrutural</v>
+        <f t="shared" ref="O44" si="71">_xlfn.CONCAT(SUBSTITUTE(F44,"."," "))</f>
+        <v>Treliça Vierendeel</v>
       </c>
       <c r="P44" s="25" t="s">
-        <v>602</v>
+        <v>709</v>
       </c>
       <c r="Q44" s="29" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="R44" s="61" t="s">
         <v>9</v>
@@ -7520,24 +7682,24 @@
       </c>
       <c r="T44" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Tensionadas</v>
+        <v>Treliçados</v>
       </c>
       <c r="U44" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Tensores</v>
+        <v>Treliças Planas</v>
       </c>
       <c r="V44" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W44" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.tetens.44</v>
+        <v>k.trtrel.44</v>
       </c>
       <c r="X44" s="55" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="Y44" s="55" t="s">
-        <v>9</v>
+        <v>864</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7551,13 +7713,13 @@
         <v>520</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>605</v>
+        <v>691</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="F45" s="60" t="s">
-        <v>590</v>
+        <v>707</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>698</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>9</v>
@@ -7575,26 +7737,26 @@
         <v>9</v>
       </c>
       <c r="L45" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="34"/>
         <v>Estrutural</v>
       </c>
       <c r="M45" s="25" t="str">
-        <f t="shared" si="69"/>
-        <v>Tensionadas</v>
+        <f t="shared" si="35"/>
+        <v>Treliçados</v>
       </c>
       <c r="N45" s="25" t="str">
-        <f t="shared" si="70"/>
-        <v>Tensores</v>
+        <f t="shared" si="36"/>
+        <v>Treliças Planas</v>
       </c>
       <c r="O45" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Estai</v>
+        <f t="shared" si="37"/>
+        <v>Tesoura</v>
       </c>
       <c r="P45" s="25" t="s">
-        <v>656</v>
+        <v>710</v>
       </c>
       <c r="Q45" s="29" t="s">
-        <v>656</v>
+        <v>779</v>
       </c>
       <c r="R45" s="61" t="s">
         <v>9</v>
@@ -7605,24 +7767,24 @@
       </c>
       <c r="T45" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Tensionadas</v>
+        <v>Treliçados</v>
       </c>
       <c r="U45" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Tensores</v>
+        <v>Treliças Planas</v>
       </c>
       <c r="V45" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W45" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.tetens.45</v>
+        <v>k.trtrel.45</v>
       </c>
       <c r="X45" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="Y45" s="59" t="s">
-        <v>641</v>
+        <v>639</v>
+      </c>
+      <c r="Y45" s="55" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7636,13 +7798,13 @@
         <v>520</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>605</v>
+        <v>691</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="F46" s="60" t="s">
-        <v>657</v>
+        <v>707</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>638</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>9</v>
@@ -7660,26 +7822,26 @@
         <v>9</v>
       </c>
       <c r="L46" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="L46:L52" si="72">_xlfn.CONCAT(SUBSTITUTE(C46,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M46" s="25" t="str">
-        <f t="shared" si="69"/>
-        <v>Tensionadas</v>
+        <f t="shared" si="17"/>
+        <v>Treliçados</v>
       </c>
       <c r="N46" s="25" t="str">
-        <f t="shared" si="70"/>
-        <v>Tensores</v>
+        <f t="shared" si="18"/>
+        <v>Treliças Planas</v>
       </c>
       <c r="O46" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Ancoragem de Estai</v>
+        <f t="shared" ref="O46:O52" si="73">_xlfn.CONCAT(SUBSTITUTE(F46,"."," "))</f>
+        <v>Treliça Ponte</v>
       </c>
       <c r="P46" s="25" t="s">
-        <v>656</v>
+        <v>723</v>
       </c>
       <c r="Q46" s="29" t="s">
-        <v>656</v>
+        <v>780</v>
       </c>
       <c r="R46" s="61" t="s">
         <v>9</v>
@@ -7690,24 +7852,24 @@
       </c>
       <c r="T46" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Tensionadas</v>
+        <v>Treliçados</v>
       </c>
       <c r="U46" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Tensores</v>
+        <v>Treliças Planas</v>
       </c>
       <c r="V46" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W46" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.tetens.46</v>
+        <v>k.trtrel.46</v>
       </c>
       <c r="X46" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="Y46" s="59" t="s">
-        <v>642</v>
+        <v>639</v>
+      </c>
+      <c r="Y46" s="55" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7721,13 +7883,13 @@
         <v>520</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>605</v>
+        <v>691</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="F47" s="60" t="s">
-        <v>658</v>
+        <v>758</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>749</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>9</v>
@@ -7745,54 +7907,54 @@
         <v>9</v>
       </c>
       <c r="L47" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="L47:L51" si="74">_xlfn.CONCAT(SUBSTITUTE(C47,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M47" s="25" t="str">
-        <f t="shared" si="69"/>
-        <v>Tensionadas</v>
+        <f t="shared" ref="M47:M51" si="75">_xlfn.CONCAT(SUBSTITUTE(D47,"."," "))</f>
+        <v>Treliçados</v>
       </c>
       <c r="N47" s="25" t="str">
-        <f t="shared" si="70"/>
-        <v>Tensores</v>
+        <f t="shared" ref="N47:N51" si="76">_xlfn.CONCAT(SUBSTITUTE(E47,"."," "))</f>
+        <v>Treliças Espaciais</v>
       </c>
       <c r="O47" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Ancoragem Acoplador</v>
+        <f t="shared" ref="O47:O51" si="77">_xlfn.CONCAT(SUBSTITUTE(F47,"."," "))</f>
+        <v>Treliça Espacial Reticulada</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>656</v>
+        <v>752</v>
       </c>
       <c r="Q47" s="29" t="s">
-        <v>656</v>
+        <v>781</v>
       </c>
       <c r="R47" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S47" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="S47:S51" si="78">SUBSTITUTE(C47, ".", " ")</f>
         <v>Estrutural</v>
       </c>
       <c r="T47" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>Tensionadas</v>
+        <f t="shared" ref="T47:T51" si="79">SUBSTITUTE(D47, ".", " ")</f>
+        <v>Treliçados</v>
       </c>
       <c r="U47" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>Tensores</v>
+        <f t="shared" ref="U47:U51" si="80">SUBSTITUTE(E47, ".", " ")</f>
+        <v>Treliças Espaciais</v>
       </c>
       <c r="V47" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W47" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.tetens.47</v>
+        <v>k.trtrel.47</v>
       </c>
       <c r="X47" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="Y47" s="59" t="s">
-        <v>643</v>
+        <v>639</v>
+      </c>
+      <c r="Y47" s="55" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7806,13 +7968,13 @@
         <v>520</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>605</v>
+        <v>691</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="F48" s="60" t="s">
-        <v>742</v>
+        <v>758</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>750</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>9</v>
@@ -7830,54 +7992,54 @@
         <v>9</v>
       </c>
       <c r="L48" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="L48" si="81">_xlfn.CONCAT(SUBSTITUTE(C48,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M48" s="25" t="str">
-        <f t="shared" si="69"/>
-        <v>Tensionadas</v>
+        <f t="shared" ref="M48" si="82">_xlfn.CONCAT(SUBSTITUTE(D48,"."," "))</f>
+        <v>Treliçados</v>
       </c>
       <c r="N48" s="25" t="str">
-        <f t="shared" si="70"/>
-        <v>Tensores</v>
+        <f t="shared" ref="N48" si="83">_xlfn.CONCAT(SUBSTITUTE(E48,"."," "))</f>
+        <v>Treliças Espaciais</v>
       </c>
       <c r="O48" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Ancoragem Extremo Fixo</v>
+        <f t="shared" ref="O48" si="84">_xlfn.CONCAT(SUBSTITUTE(F48,"."," "))</f>
+        <v>Treliça Espacial Geodésica</v>
       </c>
       <c r="P48" s="25" t="s">
-        <v>656</v>
+        <v>757</v>
       </c>
       <c r="Q48" s="29" t="s">
-        <v>656</v>
+        <v>782</v>
       </c>
       <c r="R48" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S48" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="S48" si="85">SUBSTITUTE(C48, ".", " ")</f>
         <v>Estrutural</v>
       </c>
       <c r="T48" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>Tensionadas</v>
+        <f t="shared" ref="T48" si="86">SUBSTITUTE(D48, ".", " ")</f>
+        <v>Treliçados</v>
       </c>
       <c r="U48" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>Tensores</v>
+        <f t="shared" ref="U48" si="87">SUBSTITUTE(E48, ".", " ")</f>
+        <v>Treliças Espaciais</v>
       </c>
       <c r="V48" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W48" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.tetens.48</v>
+        <v>k.trtrel.48</v>
       </c>
       <c r="X48" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="Y48" s="59" t="s">
-        <v>644</v>
+        <v>639</v>
+      </c>
+      <c r="Y48" s="55" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7891,78 +8053,78 @@
         <v>520</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>605</v>
+        <v>691</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="F49" s="60" t="s">
+        <v>758</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" s="25" t="str">
+        <f t="shared" si="74"/>
+        <v>Estrutural</v>
+      </c>
+      <c r="M49" s="25" t="str">
+        <f t="shared" si="75"/>
+        <v>Treliçados</v>
+      </c>
+      <c r="N49" s="25" t="str">
+        <f t="shared" si="76"/>
+        <v>Treliças Espaciais</v>
+      </c>
+      <c r="O49" s="25" t="str">
+        <f t="shared" si="77"/>
+        <v>Treliça Espacial Arqueada</v>
+      </c>
+      <c r="P49" s="25" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q49" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="R49" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S49" s="62" t="str">
+        <f t="shared" si="78"/>
+        <v>Estrutural</v>
+      </c>
+      <c r="T49" s="62" t="str">
+        <f t="shared" si="79"/>
+        <v>Treliçados</v>
+      </c>
+      <c r="U49" s="62" t="str">
+        <f t="shared" si="80"/>
+        <v>Treliças Espaciais</v>
+      </c>
+      <c r="V49" s="61" t="s">
         <v>743</v>
-      </c>
-      <c r="G49" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="J49" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="K49" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="L49" s="25" t="str">
-        <f t="shared" si="68"/>
-        <v>Estrutural</v>
-      </c>
-      <c r="M49" s="25" t="str">
-        <f t="shared" si="69"/>
-        <v>Tensionadas</v>
-      </c>
-      <c r="N49" s="25" t="str">
-        <f t="shared" si="70"/>
-        <v>Tensores</v>
-      </c>
-      <c r="O49" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Ancoragem Extremo Tensionado</v>
-      </c>
-      <c r="P49" s="25" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q49" s="29" t="s">
-        <v>656</v>
-      </c>
-      <c r="R49" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="S49" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>Estrutural</v>
-      </c>
-      <c r="T49" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>Tensionadas</v>
-      </c>
-      <c r="U49" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>Tensores</v>
-      </c>
-      <c r="V49" s="61" t="s">
-        <v>744</v>
       </c>
       <c r="W49" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.tetens.49</v>
+        <v>k.trtrel.49</v>
       </c>
       <c r="X49" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="Y49" s="59" t="s">
-        <v>645</v>
+        <v>639</v>
+      </c>
+      <c r="Y49" s="55" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7976,13 +8138,13 @@
         <v>520</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>605</v>
+        <v>691</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="F50" s="60" t="s">
-        <v>659</v>
+        <v>758</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>751</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>9</v>
@@ -8000,54 +8162,54 @@
         <v>9</v>
       </c>
       <c r="L50" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>Estrutural</v>
       </c>
       <c r="M50" s="25" t="str">
-        <f t="shared" si="69"/>
-        <v>Tensionadas</v>
+        <f t="shared" si="75"/>
+        <v>Treliçados</v>
       </c>
       <c r="N50" s="25" t="str">
-        <f t="shared" si="70"/>
-        <v>Tensores</v>
+        <f t="shared" si="76"/>
+        <v>Treliças Espaciais</v>
       </c>
       <c r="O50" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Tensor Barra</v>
+        <f t="shared" si="77"/>
+        <v>Treliça Espacial Piramidal</v>
       </c>
       <c r="P50" s="25" t="s">
-        <v>656</v>
+        <v>756</v>
       </c>
       <c r="Q50" s="29" t="s">
-        <v>656</v>
+        <v>784</v>
       </c>
       <c r="R50" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S50" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="78"/>
         <v>Estrutural</v>
       </c>
       <c r="T50" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>Tensionadas</v>
+        <f t="shared" si="79"/>
+        <v>Treliçados</v>
       </c>
       <c r="U50" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>Tensores</v>
+        <f t="shared" si="80"/>
+        <v>Treliças Espaciais</v>
       </c>
       <c r="V50" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W50" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.tetens.50</v>
+        <v>k.trtrel.50</v>
       </c>
       <c r="X50" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="Y50" s="59" t="s">
-        <v>646</v>
+        <v>639</v>
+      </c>
+      <c r="Y50" s="55" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -8061,13 +8223,13 @@
         <v>520</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>605</v>
+        <v>691</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="F51" s="60" t="s">
-        <v>666</v>
+        <v>758</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>753</v>
       </c>
       <c r="G51" s="32" t="s">
         <v>9</v>
@@ -8085,54 +8247,54 @@
         <v>9</v>
       </c>
       <c r="L51" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>Estrutural</v>
       </c>
       <c r="M51" s="25" t="str">
-        <f t="shared" si="69"/>
-        <v>Tensionadas</v>
+        <f t="shared" si="75"/>
+        <v>Treliçados</v>
       </c>
       <c r="N51" s="25" t="str">
-        <f t="shared" si="70"/>
-        <v>Tensores</v>
+        <f t="shared" si="76"/>
+        <v>Treliças Espaciais</v>
       </c>
       <c r="O51" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Tensor Revestido</v>
+        <f t="shared" si="77"/>
+        <v>Treliça Espacial Octaédrica</v>
       </c>
       <c r="P51" s="25" t="s">
-        <v>656</v>
+        <v>755</v>
       </c>
       <c r="Q51" s="29" t="s">
-        <v>656</v>
+        <v>785</v>
       </c>
       <c r="R51" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S51" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="78"/>
         <v>Estrutural</v>
       </c>
       <c r="T51" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>Tensionadas</v>
+        <f t="shared" si="79"/>
+        <v>Treliçados</v>
       </c>
       <c r="U51" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v>Tensores</v>
+        <f t="shared" si="80"/>
+        <v>Treliças Espaciais</v>
       </c>
       <c r="V51" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W51" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.tetens.51</v>
+        <v>k.trtrel.51</v>
       </c>
       <c r="X51" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="Y51" s="59" t="s">
-        <v>647</v>
+        <v>639</v>
+      </c>
+      <c r="Y51" s="55" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -8146,13 +8308,13 @@
         <v>520</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>605</v>
+        <v>691</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="F52" s="60" t="s">
-        <v>660</v>
+        <v>758</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>761</v>
       </c>
       <c r="G52" s="32" t="s">
         <v>9</v>
@@ -8170,26 +8332,26 @@
         <v>9</v>
       </c>
       <c r="L52" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>Estrutural</v>
       </c>
       <c r="M52" s="25" t="str">
-        <f t="shared" si="69"/>
-        <v>Tensionadas</v>
+        <f t="shared" si="17"/>
+        <v>Treliçados</v>
       </c>
       <c r="N52" s="25" t="str">
-        <f t="shared" si="70"/>
-        <v>Tensores</v>
+        <f t="shared" si="18"/>
+        <v>Treliças Espaciais</v>
       </c>
       <c r="O52" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Tensor Bainha</v>
+        <f t="shared" si="73"/>
+        <v>Treliça Espacial Híbrida</v>
       </c>
       <c r="P52" s="25" t="s">
-        <v>656</v>
+        <v>754</v>
       </c>
       <c r="Q52" s="29" t="s">
-        <v>656</v>
+        <v>786</v>
       </c>
       <c r="R52" s="61" t="s">
         <v>9</v>
@@ -8200,24 +8362,24 @@
       </c>
       <c r="T52" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Tensionadas</v>
+        <v>Treliçados</v>
       </c>
       <c r="U52" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Tensores</v>
+        <v>Treliças Espaciais</v>
       </c>
       <c r="V52" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W52" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.tetens.52</v>
+        <v>k.trtrel.52</v>
       </c>
       <c r="X52" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="Y52" s="59" t="s">
-        <v>648</v>
+        <v>639</v>
+      </c>
+      <c r="Y52" s="55" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -8231,13 +8393,13 @@
         <v>520</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>605</v>
+        <v>832</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="F53" s="60" t="s">
-        <v>663</v>
+        <v>818</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>819</v>
       </c>
       <c r="G53" s="32" t="s">
         <v>9</v>
@@ -8255,26 +8417,26 @@
         <v>9</v>
       </c>
       <c r="L53" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="L53:L55" si="88">_xlfn.CONCAT(SUBSTITUTE(C53,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M53" s="25" t="str">
-        <f t="shared" si="69"/>
-        <v>Tensionadas</v>
+        <f t="shared" ref="M53:M55" si="89">_xlfn.CONCAT(SUBSTITUTE(D53,"."," "))</f>
+        <v>Galpões</v>
       </c>
       <c r="N53" s="25" t="str">
-        <f t="shared" si="70"/>
-        <v>Tensores</v>
+        <f t="shared" ref="N53:N55" si="90">_xlfn.CONCAT(SUBSTITUTE(E53,"."," "))</f>
+        <v>Pórticos</v>
       </c>
       <c r="O53" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Tensor Bainha Acoplador</v>
+        <f t="shared" ref="O53:O55" si="91">_xlfn.CONCAT(SUBSTITUTE(F53,"."," "))</f>
+        <v>Galpão</v>
       </c>
       <c r="P53" s="25" t="s">
-        <v>656</v>
+        <v>601</v>
       </c>
       <c r="Q53" s="29" t="s">
-        <v>656</v>
+        <v>787</v>
       </c>
       <c r="R53" s="61" t="s">
         <v>9</v>
@@ -8285,24 +8447,24 @@
       </c>
       <c r="T53" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Tensionadas</v>
+        <v>Galpões</v>
       </c>
       <c r="U53" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Tensores</v>
+        <v>Pórticos</v>
       </c>
       <c r="V53" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W53" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.tetens.53</v>
+        <v>k.gapórt.53</v>
       </c>
       <c r="X53" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="Y53" s="59" t="s">
-        <v>649</v>
+        <v>628</v>
+      </c>
+      <c r="Y53" s="55" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -8316,13 +8478,13 @@
         <v>520</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>605</v>
+        <v>832</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="F54" s="60" t="s">
-        <v>667</v>
+        <v>818</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>821</v>
       </c>
       <c r="G54" s="32" t="s">
         <v>9</v>
@@ -8340,26 +8502,26 @@
         <v>9</v>
       </c>
       <c r="L54" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="88"/>
         <v>Estrutural</v>
       </c>
       <c r="M54" s="25" t="str">
-        <f t="shared" si="69"/>
-        <v>Tensionadas</v>
+        <f t="shared" si="89"/>
+        <v>Galpões</v>
       </c>
       <c r="N54" s="25" t="str">
-        <f t="shared" si="70"/>
-        <v>Tensores</v>
+        <f t="shared" si="90"/>
+        <v>Pórticos</v>
       </c>
       <c r="O54" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Tensor Bainha Diabolo</v>
+        <f t="shared" si="91"/>
+        <v>Galpão e Anexo</v>
       </c>
       <c r="P54" s="25" t="s">
-        <v>656</v>
+        <v>601</v>
       </c>
       <c r="Q54" s="29" t="s">
-        <v>656</v>
+        <v>787</v>
       </c>
       <c r="R54" s="61" t="s">
         <v>9</v>
@@ -8370,24 +8532,24 @@
       </c>
       <c r="T54" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Tensionadas</v>
+        <v>Galpões</v>
       </c>
       <c r="U54" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Tensores</v>
+        <v>Pórticos</v>
       </c>
       <c r="V54" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W54" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.tetens.54</v>
+        <v>k.gapórt.54</v>
       </c>
       <c r="X54" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="Y54" s="59" t="s">
-        <v>650</v>
+        <v>628</v>
+      </c>
+      <c r="Y54" s="55" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -8401,13 +8563,13 @@
         <v>520</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>605</v>
+        <v>832</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="F55" s="60" t="s">
-        <v>668</v>
+        <v>818</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>820</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>9</v>
@@ -8425,26 +8587,26 @@
         <v>9</v>
       </c>
       <c r="L55" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="88"/>
         <v>Estrutural</v>
       </c>
       <c r="M55" s="25" t="str">
-        <f t="shared" si="69"/>
-        <v>Tensionadas</v>
+        <f t="shared" si="89"/>
+        <v>Galpões</v>
       </c>
       <c r="N55" s="25" t="str">
-        <f t="shared" si="70"/>
-        <v>Tensores</v>
+        <f t="shared" si="90"/>
+        <v>Pórticos</v>
       </c>
       <c r="O55" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Tensor Bainha Cabo</v>
+        <f t="shared" si="91"/>
+        <v>Galpão Vãos Múltiplos</v>
       </c>
       <c r="P55" s="25" t="s">
-        <v>656</v>
+        <v>601</v>
       </c>
       <c r="Q55" s="29" t="s">
-        <v>656</v>
+        <v>787</v>
       </c>
       <c r="R55" s="61" t="s">
         <v>9</v>
@@ -8455,24 +8617,24 @@
       </c>
       <c r="T55" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Tensionadas</v>
+        <v>Galpões</v>
       </c>
       <c r="U55" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Tensores</v>
+        <v>Pórticos</v>
       </c>
       <c r="V55" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W55" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.tetens.55</v>
+        <v>k.gapórt.55</v>
       </c>
       <c r="X55" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="Y55" s="59" t="s">
-        <v>651</v>
+        <v>628</v>
+      </c>
+      <c r="Y55" s="55" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -8491,8 +8653,8 @@
       <c r="E56" s="18" t="s">
         <v>656</v>
       </c>
-      <c r="F56" s="60" t="s">
-        <v>665</v>
+      <c r="F56" s="18" t="s">
+        <v>748</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>9</v>
@@ -8510,26 +8672,26 @@
         <v>9</v>
       </c>
       <c r="L56" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="15"/>
         <v>Estrutural</v>
       </c>
       <c r="M56" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="M56:M73" si="92">_xlfn.CONCAT(SUBSTITUTE(D56,"."," "))</f>
         <v>Tensionadas</v>
       </c>
       <c r="N56" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="N56:N73" si="93">_xlfn.CONCAT(SUBSTITUTE(E56,"."," "))</f>
         <v>Tensores</v>
       </c>
       <c r="O56" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Tensor Injetor</v>
+        <f t="shared" ref="O56:O74" si="94">_xlfn.CONCAT(SUBSTITUTE(F56,"."," "))</f>
+        <v>Ancora Estrutural</v>
       </c>
       <c r="P56" s="25" t="s">
-        <v>656</v>
+        <v>601</v>
       </c>
       <c r="Q56" s="29" t="s">
-        <v>656</v>
+        <v>787</v>
       </c>
       <c r="R56" s="61" t="s">
         <v>9</v>
@@ -8547,17 +8709,17 @@
         <v>Tensores</v>
       </c>
       <c r="V56" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W56" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.tetens.56</v>
       </c>
       <c r="X56" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="Y56" s="59" t="s">
-        <v>652</v>
+        <v>628</v>
+      </c>
+      <c r="Y56" s="55" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -8576,8 +8738,8 @@
       <c r="E57" s="18" t="s">
         <v>656</v>
       </c>
-      <c r="F57" s="60" t="s">
-        <v>664</v>
+      <c r="F57" s="18" t="s">
+        <v>747</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>9</v>
@@ -8595,26 +8757,26 @@
         <v>9</v>
       </c>
       <c r="L57" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="L57:L72" si="95">_xlfn.CONCAT(SUBSTITUTE(C57,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M57" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="M57:M72" si="96">_xlfn.CONCAT(SUBSTITUTE(D57,"."," "))</f>
         <v>Tensionadas</v>
       </c>
       <c r="N57" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="N57:N72" si="97">_xlfn.CONCAT(SUBSTITUTE(E57,"."," "))</f>
         <v>Tensores</v>
       </c>
       <c r="O57" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Tensor Trombeta</v>
+        <f t="shared" si="94"/>
+        <v>Conector Estrutural</v>
       </c>
       <c r="P57" s="25" t="s">
-        <v>656</v>
+        <v>602</v>
       </c>
       <c r="Q57" s="29" t="s">
-        <v>656</v>
+        <v>788</v>
       </c>
       <c r="R57" s="61" t="s">
         <v>9</v>
@@ -8632,17 +8794,17 @@
         <v>Tensores</v>
       </c>
       <c r="V57" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W57" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.tetens.57</v>
       </c>
       <c r="X57" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="Y57" s="59" t="s">
-        <v>653</v>
+        <v>629</v>
+      </c>
+      <c r="Y57" s="55" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -8662,7 +8824,7 @@
         <v>656</v>
       </c>
       <c r="F58" s="60" t="s">
-        <v>661</v>
+        <v>590</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>9</v>
@@ -8680,20 +8842,20 @@
         <v>9</v>
       </c>
       <c r="L58" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="95"/>
         <v>Estrutural</v>
       </c>
       <c r="M58" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="96"/>
         <v>Tensionadas</v>
       </c>
       <c r="N58" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="97"/>
         <v>Tensores</v>
       </c>
       <c r="O58" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Tensor Corda</v>
+        <f t="shared" si="94"/>
+        <v>Estai</v>
       </c>
       <c r="P58" s="25" t="s">
         <v>656</v>
@@ -8717,7 +8879,7 @@
         <v>Tensores</v>
       </c>
       <c r="V58" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -8727,7 +8889,7 @@
         <v>627</v>
       </c>
       <c r="Y58" s="59" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -8747,7 +8909,7 @@
         <v>656</v>
       </c>
       <c r="F59" s="60" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G59" s="32" t="s">
         <v>9</v>
@@ -8765,20 +8927,20 @@
         <v>9</v>
       </c>
       <c r="L59" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="95"/>
         <v>Estrutural</v>
       </c>
       <c r="M59" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="96"/>
         <v>Tensionadas</v>
       </c>
       <c r="N59" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="97"/>
         <v>Tensores</v>
       </c>
       <c r="O59" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Tensor Fio</v>
+        <f t="shared" si="94"/>
+        <v>Ancoragem de Estai</v>
       </c>
       <c r="P59" s="25" t="s">
         <v>656</v>
@@ -8802,7 +8964,7 @@
         <v>Tensores</v>
       </c>
       <c r="V59" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W59" s="30" t="str">
         <f t="shared" si="2"/>
@@ -8812,7 +8974,7 @@
         <v>627</v>
       </c>
       <c r="Y59" s="59" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -8831,8 +8993,8 @@
       <c r="E60" s="18" t="s">
         <v>656</v>
       </c>
-      <c r="F60" s="18" t="s">
-        <v>746</v>
+      <c r="F60" s="60" t="s">
+        <v>658</v>
       </c>
       <c r="G60" s="32" t="s">
         <v>9</v>
@@ -8850,26 +9012,26 @@
         <v>9</v>
       </c>
       <c r="L60" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="95"/>
         <v>Estrutural</v>
       </c>
       <c r="M60" s="25" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="96"/>
         <v>Tensionadas</v>
       </c>
       <c r="N60" s="25" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="97"/>
         <v>Tensores</v>
       </c>
       <c r="O60" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Mastro Estrutural</v>
+        <f t="shared" si="94"/>
+        <v>Ancoragem Acoplador</v>
       </c>
       <c r="P60" s="25" t="s">
-        <v>603</v>
+        <v>656</v>
       </c>
       <c r="Q60" s="29" t="s">
-        <v>790</v>
+        <v>656</v>
       </c>
       <c r="R60" s="61" t="s">
         <v>9</v>
@@ -8887,17 +9049,17 @@
         <v>Tensores</v>
       </c>
       <c r="V60" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W60" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.tetens.60</v>
       </c>
       <c r="X60" s="55" t="s">
-        <v>623</v>
-      </c>
-      <c r="Y60" s="55" t="s">
-        <v>9</v>
+        <v>627</v>
+      </c>
+      <c r="Y60" s="59" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -8916,8 +9078,8 @@
       <c r="E61" s="18" t="s">
         <v>656</v>
       </c>
-      <c r="F61" s="18" t="s">
-        <v>747</v>
+      <c r="F61" s="60" t="s">
+        <v>741</v>
       </c>
       <c r="G61" s="32" t="s">
         <v>9</v>
@@ -8935,26 +9097,26 @@
         <v>9</v>
       </c>
       <c r="L61" s="25" t="str">
-        <f t="shared" ref="L61:L66" si="71">_xlfn.CONCAT(SUBSTITUTE(C61,"1.",""))</f>
+        <f t="shared" si="95"/>
         <v>Estrutural</v>
       </c>
       <c r="M61" s="25" t="str">
-        <f t="shared" ref="M61:M66" si="72">_xlfn.CONCAT(SUBSTITUTE(D61,"."," "))</f>
+        <f t="shared" si="96"/>
         <v>Tensionadas</v>
       </c>
       <c r="N61" s="25" t="str">
-        <f t="shared" ref="N61:N66" si="73">_xlfn.CONCAT(SUBSTITUTE(E61,"."," "))</f>
+        <f t="shared" si="97"/>
         <v>Tensores</v>
       </c>
       <c r="O61" s="25" t="str">
-        <f t="shared" si="67"/>
-        <v>Membrana Estrutural</v>
+        <f t="shared" si="94"/>
+        <v>Ancoragem Extremo Fixo</v>
       </c>
       <c r="P61" s="25" t="s">
-        <v>604</v>
+        <v>656</v>
       </c>
       <c r="Q61" s="29" t="s">
-        <v>791</v>
+        <v>656</v>
       </c>
       <c r="R61" s="61" t="s">
         <v>9</v>
@@ -8972,17 +9134,17 @@
         <v>Tensores</v>
       </c>
       <c r="V61" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W61" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.tetens.61</v>
       </c>
       <c r="X61" s="55" t="s">
-        <v>630</v>
-      </c>
-      <c r="Y61" s="55" t="s">
-        <v>640</v>
+        <v>627</v>
+      </c>
+      <c r="Y61" s="59" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -8993,16 +9155,16 @@
         <v>76</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>671</v>
+        <v>520</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>672</v>
+        <v>605</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>598</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>596</v>
+        <v>656</v>
+      </c>
+      <c r="F62" s="60" t="s">
+        <v>742</v>
       </c>
       <c r="G62" s="32" t="s">
         <v>9</v>
@@ -9020,54 +9182,54 @@
         <v>9</v>
       </c>
       <c r="L62" s="25" t="str">
-        <f t="shared" ref="L62" si="74">_xlfn.CONCAT(SUBSTITUTE(C62,"1.",""))</f>
-        <v>Conexões.Estruturais</v>
+        <f t="shared" si="95"/>
+        <v>Estrutural</v>
       </c>
       <c r="M62" s="25" t="str">
-        <f t="shared" ref="M62" si="75">_xlfn.CONCAT(SUBSTITUTE(D62,"."," "))</f>
-        <v>Fixações</v>
+        <f t="shared" si="96"/>
+        <v>Tensionadas</v>
       </c>
       <c r="N62" s="25" t="str">
-        <f t="shared" ref="N62" si="76">_xlfn.CONCAT(SUBSTITUTE(E62,"."," "))</f>
-        <v>Chumbadores</v>
+        <f t="shared" si="97"/>
+        <v>Tensores</v>
       </c>
       <c r="O62" s="25" t="str">
-        <f t="shared" ref="O62" si="77">_xlfn.CONCAT(SUBSTITUTE(F62,"."," "))</f>
-        <v>Chumbador Interno</v>
+        <f t="shared" si="94"/>
+        <v>Ancoragem Extremo Tensionado</v>
       </c>
       <c r="P62" s="25" t="s">
-        <v>599</v>
+        <v>656</v>
       </c>
       <c r="Q62" s="29" t="s">
-        <v>792</v>
+        <v>656</v>
       </c>
       <c r="R62" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S62" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>Conexões Estruturais</v>
+        <v>Estrutural</v>
       </c>
       <c r="T62" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Fixações</v>
+        <v>Tensionadas</v>
       </c>
       <c r="U62" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Chumbadores</v>
+        <v>Tensores</v>
       </c>
       <c r="V62" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W62" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.fichum.62</v>
+        <v>k.tetens.62</v>
       </c>
       <c r="X62" s="55" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y62" s="55" t="s">
-        <v>674</v>
+        <v>627</v>
+      </c>
+      <c r="Y62" s="59" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="63" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -9078,16 +9240,16 @@
         <v>76</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>671</v>
+        <v>520</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>672</v>
+        <v>605</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>598</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>597</v>
+        <v>656</v>
+      </c>
+      <c r="F63" s="60" t="s">
+        <v>659</v>
       </c>
       <c r="G63" s="32" t="s">
         <v>9</v>
@@ -9105,54 +9267,54 @@
         <v>9</v>
       </c>
       <c r="L63" s="25" t="str">
-        <f t="shared" si="71"/>
-        <v>Conexões.Estruturais</v>
+        <f t="shared" si="95"/>
+        <v>Estrutural</v>
       </c>
       <c r="M63" s="25" t="str">
-        <f t="shared" si="72"/>
-        <v>Fixações</v>
+        <f t="shared" si="96"/>
+        <v>Tensionadas</v>
       </c>
       <c r="N63" s="25" t="str">
-        <f t="shared" si="73"/>
-        <v>Chumbadores</v>
+        <f t="shared" si="97"/>
+        <v>Tensores</v>
       </c>
       <c r="O63" s="25" t="str">
-        <f t="shared" ref="O63" si="78">_xlfn.CONCAT(SUBSTITUTE(F63,"."," "))</f>
-        <v>Chumbador Externo</v>
+        <f t="shared" si="94"/>
+        <v>Tensor Barra</v>
       </c>
       <c r="P63" s="25" t="s">
-        <v>600</v>
+        <v>656</v>
       </c>
       <c r="Q63" s="29" t="s">
-        <v>793</v>
+        <v>656</v>
       </c>
       <c r="R63" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S63" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>Conexões Estruturais</v>
+        <v>Estrutural</v>
       </c>
       <c r="T63" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Fixações</v>
+        <v>Tensionadas</v>
       </c>
       <c r="U63" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Chumbadores</v>
+        <v>Tensores</v>
       </c>
       <c r="V63" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W63" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.fichum.63</v>
+        <v>k.tetens.63</v>
       </c>
       <c r="X63" s="55" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y63" s="55" t="s">
-        <v>674</v>
+        <v>627</v>
+      </c>
+      <c r="Y63" s="59" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -9163,16 +9325,16 @@
         <v>76</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>671</v>
+        <v>520</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>672</v>
+        <v>605</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>669</v>
-      </c>
-      <c r="F64" s="49" t="s">
-        <v>589</v>
+        <v>656</v>
+      </c>
+      <c r="F64" s="60" t="s">
+        <v>666</v>
       </c>
       <c r="G64" s="32" t="s">
         <v>9</v>
@@ -9190,54 +9352,54 @@
         <v>9</v>
       </c>
       <c r="L64" s="25" t="str">
-        <f t="shared" si="71"/>
-        <v>Conexões.Estruturais</v>
+        <f t="shared" si="95"/>
+        <v>Estrutural</v>
       </c>
       <c r="M64" s="25" t="str">
-        <f t="shared" si="72"/>
-        <v>Fixações</v>
+        <f t="shared" si="96"/>
+        <v>Tensionadas</v>
       </c>
       <c r="N64" s="25" t="str">
-        <f t="shared" si="73"/>
-        <v>Parafusos</v>
+        <f t="shared" si="97"/>
+        <v>Tensores</v>
       </c>
       <c r="O64" s="25" t="str">
-        <f t="shared" ref="O64" si="79">_xlfn.CONCAT(SUBSTITUTE(F64,"."," "))</f>
-        <v>Parafuso DIN</v>
+        <f t="shared" si="94"/>
+        <v>Tensor Revestido</v>
       </c>
       <c r="P64" s="25" t="s">
-        <v>559</v>
+        <v>656</v>
       </c>
       <c r="Q64" s="29" t="s">
-        <v>794</v>
+        <v>656</v>
       </c>
       <c r="R64" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S64" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>Conexões Estruturais</v>
+        <v>Estrutural</v>
       </c>
       <c r="T64" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Fixações</v>
+        <v>Tensionadas</v>
       </c>
       <c r="U64" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Parafusos</v>
+        <v>Tensores</v>
       </c>
       <c r="V64" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W64" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.fipara.64</v>
+        <v>k.tetens.64</v>
       </c>
       <c r="X64" s="55" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y64" s="55" t="s">
-        <v>676</v>
+        <v>627</v>
+      </c>
+      <c r="Y64" s="59" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="65" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -9248,16 +9410,16 @@
         <v>76</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>671</v>
+        <v>520</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>672</v>
+        <v>605</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>669</v>
-      </c>
-      <c r="F65" s="49" t="s">
-        <v>546</v>
+        <v>656</v>
+      </c>
+      <c r="F65" s="60" t="s">
+        <v>660</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>9</v>
@@ -9275,54 +9437,54 @@
         <v>9</v>
       </c>
       <c r="L65" s="25" t="str">
-        <f t="shared" si="71"/>
-        <v>Conexões.Estruturais</v>
+        <f t="shared" si="95"/>
+        <v>Estrutural</v>
       </c>
       <c r="M65" s="25" t="str">
-        <f t="shared" si="72"/>
-        <v>Fixações</v>
+        <f t="shared" si="96"/>
+        <v>Tensionadas</v>
       </c>
       <c r="N65" s="25" t="str">
-        <f t="shared" si="73"/>
-        <v>Parafusos</v>
+        <f t="shared" si="97"/>
+        <v>Tensores</v>
       </c>
       <c r="O65" s="25" t="str">
-        <f t="shared" ref="O65:O66" si="80">_xlfn.CONCAT(SUBSTITUTE(F65,"."," "))</f>
-        <v>Parafuso ASTM</v>
+        <f t="shared" si="94"/>
+        <v>Tensor Bainha</v>
       </c>
       <c r="P65" s="25" t="s">
-        <v>556</v>
+        <v>656</v>
       </c>
       <c r="Q65" s="29" t="s">
-        <v>795</v>
+        <v>656</v>
       </c>
       <c r="R65" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S65" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>Conexões Estruturais</v>
+        <v>Estrutural</v>
       </c>
       <c r="T65" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Fixações</v>
+        <v>Tensionadas</v>
       </c>
       <c r="U65" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Parafusos</v>
+        <v>Tensores</v>
       </c>
       <c r="V65" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W65" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.fipara.65</v>
+        <v>k.tetens.65</v>
       </c>
       <c r="X65" s="55" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y65" s="55" t="s">
-        <v>676</v>
+        <v>627</v>
+      </c>
+      <c r="Y65" s="59" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="66" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -9333,16 +9495,16 @@
         <v>76</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>671</v>
+        <v>520</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>672</v>
+        <v>605</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>669</v>
-      </c>
-      <c r="F66" s="18" t="s">
-        <v>542</v>
+        <v>656</v>
+      </c>
+      <c r="F66" s="60" t="s">
+        <v>663</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>9</v>
@@ -9360,54 +9522,54 @@
         <v>9</v>
       </c>
       <c r="L66" s="25" t="str">
-        <f t="shared" si="71"/>
-        <v>Conexões.Estruturais</v>
+        <f t="shared" si="95"/>
+        <v>Estrutural</v>
       </c>
       <c r="M66" s="25" t="str">
-        <f t="shared" si="72"/>
-        <v>Fixações</v>
+        <f t="shared" si="96"/>
+        <v>Tensionadas</v>
       </c>
       <c r="N66" s="25" t="str">
-        <f t="shared" si="73"/>
-        <v>Parafusos</v>
+        <f t="shared" si="97"/>
+        <v>Tensores</v>
       </c>
       <c r="O66" s="25" t="str">
-        <f t="shared" si="80"/>
-        <v>Parafuso Drywall</v>
+        <f t="shared" si="94"/>
+        <v>Tensor Bainha Acoplador</v>
       </c>
       <c r="P66" s="25" t="s">
-        <v>543</v>
+        <v>656</v>
       </c>
       <c r="Q66" s="29" t="s">
-        <v>796</v>
+        <v>656</v>
       </c>
       <c r="R66" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S66" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>Conexões Estruturais</v>
+        <v>Estrutural</v>
       </c>
       <c r="T66" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Fixações</v>
+        <v>Tensionadas</v>
       </c>
       <c r="U66" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Parafusos</v>
+        <v>Tensores</v>
       </c>
       <c r="V66" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W66" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.fipara.66</v>
+        <v>k.tetens.66</v>
       </c>
       <c r="X66" s="55" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y66" s="55" t="s">
-        <v>676</v>
+        <v>627</v>
+      </c>
+      <c r="Y66" s="59" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="67" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -9418,16 +9580,16 @@
         <v>76</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>671</v>
+        <v>520</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>672</v>
+        <v>605</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>669</v>
-      </c>
-      <c r="F67" s="48" t="s">
-        <v>541</v>
+        <v>656</v>
+      </c>
+      <c r="F67" s="60" t="s">
+        <v>667</v>
       </c>
       <c r="G67" s="32" t="s">
         <v>9</v>
@@ -9445,54 +9607,54 @@
         <v>9</v>
       </c>
       <c r="L67" s="25" t="str">
-        <f t="shared" ref="L67:L68" si="81">_xlfn.CONCAT(SUBSTITUTE(C67,"1.",""))</f>
-        <v>Conexões.Estruturais</v>
+        <f t="shared" si="95"/>
+        <v>Estrutural</v>
       </c>
       <c r="M67" s="25" t="str">
-        <f t="shared" ref="M67:M68" si="82">_xlfn.CONCAT(SUBSTITUTE(D67,"."," "))</f>
-        <v>Fixações</v>
+        <f t="shared" si="96"/>
+        <v>Tensionadas</v>
       </c>
       <c r="N67" s="25" t="str">
-        <f t="shared" ref="N67:N68" si="83">_xlfn.CONCAT(SUBSTITUTE(E67,"."," "))</f>
-        <v>Parafusos</v>
+        <f t="shared" si="97"/>
+        <v>Tensores</v>
       </c>
       <c r="O67" s="25" t="str">
-        <f t="shared" ref="O67:O68" si="84">_xlfn.CONCAT(SUBSTITUTE(F67,"."," "))</f>
-        <v>Parafuso Brocante</v>
+        <f t="shared" si="94"/>
+        <v>Tensor Bainha Diabolo</v>
       </c>
       <c r="P67" s="25" t="s">
-        <v>544</v>
+        <v>656</v>
       </c>
       <c r="Q67" s="29" t="s">
-        <v>797</v>
+        <v>656</v>
       </c>
       <c r="R67" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S67" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>Conexões Estruturais</v>
+        <v>Estrutural</v>
       </c>
       <c r="T67" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Fixações</v>
+        <v>Tensionadas</v>
       </c>
       <c r="U67" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Parafusos</v>
+        <v>Tensores</v>
       </c>
       <c r="V67" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W67" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.fipara.67</v>
+        <v>k.tetens.67</v>
       </c>
       <c r="X67" s="55" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y67" s="55" t="s">
-        <v>676</v>
+        <v>627</v>
+      </c>
+      <c r="Y67" s="59" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="68" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -9503,16 +9665,16 @@
         <v>76</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>671</v>
+        <v>520</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>672</v>
+        <v>605</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>669</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>557</v>
+        <v>656</v>
+      </c>
+      <c r="F68" s="60" t="s">
+        <v>668</v>
       </c>
       <c r="G68" s="32" t="s">
         <v>9</v>
@@ -9530,54 +9692,54 @@
         <v>9</v>
       </c>
       <c r="L68" s="25" t="str">
-        <f t="shared" si="81"/>
-        <v>Conexões.Estruturais</v>
+        <f t="shared" si="95"/>
+        <v>Estrutural</v>
       </c>
       <c r="M68" s="25" t="str">
-        <f t="shared" si="82"/>
-        <v>Fixações</v>
+        <f t="shared" si="96"/>
+        <v>Tensionadas</v>
       </c>
       <c r="N68" s="25" t="str">
-        <f t="shared" si="83"/>
-        <v>Parafusos</v>
+        <f t="shared" si="97"/>
+        <v>Tensores</v>
       </c>
       <c r="O68" s="25" t="str">
-        <f t="shared" si="84"/>
-        <v>Parafuso Auto Atarraxante</v>
+        <f t="shared" si="94"/>
+        <v>Tensor Bainha Cabo</v>
       </c>
       <c r="P68" s="25" t="s">
-        <v>545</v>
+        <v>656</v>
       </c>
       <c r="Q68" s="29" t="s">
-        <v>798</v>
+        <v>656</v>
       </c>
       <c r="R68" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S68" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>Conexões Estruturais</v>
+        <v>Estrutural</v>
       </c>
       <c r="T68" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Fixações</v>
+        <v>Tensionadas</v>
       </c>
       <c r="U68" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Parafusos</v>
+        <v>Tensores</v>
       </c>
       <c r="V68" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W68" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.fipara.68</v>
+        <v>k.tetens.68</v>
       </c>
       <c r="X68" s="55" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y68" s="55" t="s">
-        <v>676</v>
+        <v>627</v>
+      </c>
+      <c r="Y68" s="59" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -9588,16 +9750,16 @@
         <v>76</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>671</v>
+        <v>520</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>672</v>
+        <v>605</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>635</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>670</v>
+        <v>656</v>
+      </c>
+      <c r="F69" s="60" t="s">
+        <v>665</v>
       </c>
       <c r="G69" s="32" t="s">
         <v>9</v>
@@ -9615,53 +9777,1158 @@
         <v>9</v>
       </c>
       <c r="L69" s="25" t="str">
-        <f t="shared" ref="L69" si="85">_xlfn.CONCAT(SUBSTITUTE(C69,"1.",""))</f>
-        <v>Conexões.Estruturais</v>
+        <f t="shared" si="95"/>
+        <v>Estrutural</v>
       </c>
       <c r="M69" s="25" t="str">
-        <f t="shared" ref="M69" si="86">_xlfn.CONCAT(SUBSTITUTE(D69,"."," "))</f>
-        <v>Fixações</v>
+        <f t="shared" si="96"/>
+        <v>Tensionadas</v>
       </c>
       <c r="N69" s="25" t="str">
-        <f t="shared" ref="N69" si="87">_xlfn.CONCAT(SUBSTITUTE(E69,"."," "))</f>
-        <v>Pinos</v>
+        <f t="shared" si="97"/>
+        <v>Tensores</v>
       </c>
       <c r="O69" s="25" t="str">
-        <f t="shared" ref="O69" si="88">_xlfn.CONCAT(SUBSTITUTE(F69,"."," "))</f>
-        <v>Pino de Cisalhamento</v>
+        <f t="shared" si="94"/>
+        <v>Tensor Injetor</v>
       </c>
       <c r="P69" s="25" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="Q69" s="29" t="s">
-        <v>799</v>
+        <v>656</v>
       </c>
       <c r="R69" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S69" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>Conexões Estruturais</v>
+        <v>Estrutural</v>
       </c>
       <c r="T69" s="62" t="str">
         <f t="shared" si="4"/>
-        <v>Fixações</v>
+        <v>Tensionadas</v>
       </c>
       <c r="U69" s="62" t="str">
         <f t="shared" si="5"/>
-        <v>Pinos</v>
+        <v>Tensores</v>
       </c>
       <c r="V69" s="61" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W69" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>k.fipino.69</v>
+        <v>k.tetens.69</v>
       </c>
       <c r="X69" s="55" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y69" s="59" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="24">
+        <v>70</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="F70" s="60" t="s">
+        <v>664</v>
+      </c>
+      <c r="G70" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J70" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K70" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L70" s="25" t="str">
+        <f t="shared" si="95"/>
+        <v>Estrutural</v>
+      </c>
+      <c r="M70" s="25" t="str">
+        <f t="shared" si="96"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N70" s="25" t="str">
+        <f t="shared" si="97"/>
+        <v>Tensores</v>
+      </c>
+      <c r="O70" s="25" t="str">
+        <f t="shared" si="94"/>
+        <v>Tensor Trombeta</v>
+      </c>
+      <c r="P70" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q70" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="R70" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S70" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>Estrutural</v>
+      </c>
+      <c r="T70" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="U70" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v>Tensores</v>
+      </c>
+      <c r="V70" s="61" t="s">
+        <v>743</v>
+      </c>
+      <c r="W70" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>k.tetens.70</v>
+      </c>
+      <c r="X70" s="55" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y70" s="59" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="24">
+        <v>71</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="F71" s="60" t="s">
+        <v>661</v>
+      </c>
+      <c r="G71" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J71" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L71" s="25" t="str">
+        <f t="shared" si="95"/>
+        <v>Estrutural</v>
+      </c>
+      <c r="M71" s="25" t="str">
+        <f t="shared" si="96"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N71" s="25" t="str">
+        <f t="shared" si="97"/>
+        <v>Tensores</v>
+      </c>
+      <c r="O71" s="25" t="str">
+        <f t="shared" si="94"/>
+        <v>Tensor Corda</v>
+      </c>
+      <c r="P71" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q71" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="R71" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S71" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>Estrutural</v>
+      </c>
+      <c r="T71" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="U71" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v>Tensores</v>
+      </c>
+      <c r="V71" s="61" t="s">
+        <v>743</v>
+      </c>
+      <c r="W71" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>k.tetens.71</v>
+      </c>
+      <c r="X71" s="55" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y71" s="59" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="24">
+        <v>72</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="F72" s="60" t="s">
+        <v>662</v>
+      </c>
+      <c r="G72" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J72" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L72" s="25" t="str">
+        <f t="shared" si="95"/>
+        <v>Estrutural</v>
+      </c>
+      <c r="M72" s="25" t="str">
+        <f t="shared" si="96"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N72" s="25" t="str">
+        <f t="shared" si="97"/>
+        <v>Tensores</v>
+      </c>
+      <c r="O72" s="25" t="str">
+        <f t="shared" si="94"/>
+        <v>Tensor Fio</v>
+      </c>
+      <c r="P72" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q72" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="R72" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S72" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>Estrutural</v>
+      </c>
+      <c r="T72" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="U72" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v>Tensores</v>
+      </c>
+      <c r="V72" s="61" t="s">
+        <v>743</v>
+      </c>
+      <c r="W72" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>k.tetens.72</v>
+      </c>
+      <c r="X72" s="55" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y72" s="59" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="24">
+        <v>73</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="G73" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J73" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K73" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L73" s="25" t="str">
+        <f t="shared" si="15"/>
+        <v>Estrutural</v>
+      </c>
+      <c r="M73" s="25" t="str">
+        <f t="shared" si="92"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N73" s="25" t="str">
+        <f t="shared" si="93"/>
+        <v>Tensores</v>
+      </c>
+      <c r="O73" s="25" t="str">
+        <f t="shared" si="94"/>
+        <v>Mastro Estrutural</v>
+      </c>
+      <c r="P73" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q73" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="R73" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S73" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>Estrutural</v>
+      </c>
+      <c r="T73" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="U73" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v>Tensores</v>
+      </c>
+      <c r="V73" s="61" t="s">
+        <v>743</v>
+      </c>
+      <c r="W73" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>k.tetens.73</v>
+      </c>
+      <c r="X73" s="55" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y73" s="55" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="24">
+        <v>74</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>746</v>
+      </c>
+      <c r="G74" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J74" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L74" s="25" t="str">
+        <f t="shared" ref="L74:L79" si="98">_xlfn.CONCAT(SUBSTITUTE(C74,"1.",""))</f>
+        <v>Estrutural</v>
+      </c>
+      <c r="M74" s="25" t="str">
+        <f t="shared" ref="M74:M79" si="99">_xlfn.CONCAT(SUBSTITUTE(D74,"."," "))</f>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N74" s="25" t="str">
+        <f t="shared" ref="N74:N79" si="100">_xlfn.CONCAT(SUBSTITUTE(E74,"."," "))</f>
+        <v>Tensores</v>
+      </c>
+      <c r="O74" s="25" t="str">
+        <f t="shared" si="94"/>
+        <v>Membrana Estrutural</v>
+      </c>
+      <c r="P74" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q74" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="R74" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S74" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>Estrutural</v>
+      </c>
+      <c r="T74" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="U74" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v>Tensores</v>
+      </c>
+      <c r="V74" s="61" t="s">
+        <v>743</v>
+      </c>
+      <c r="W74" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>k.tetens.74</v>
+      </c>
+      <c r="X74" s="55" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y74" s="55" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="24">
+        <v>75</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>596</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J75" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L75" s="25" t="str">
+        <f t="shared" ref="L75" si="101">_xlfn.CONCAT(SUBSTITUTE(C75,"1.",""))</f>
+        <v>Conexões.Estruturais</v>
+      </c>
+      <c r="M75" s="25" t="str">
+        <f t="shared" ref="M75" si="102">_xlfn.CONCAT(SUBSTITUTE(D75,"."," "))</f>
+        <v>Fixações</v>
+      </c>
+      <c r="N75" s="25" t="str">
+        <f t="shared" ref="N75" si="103">_xlfn.CONCAT(SUBSTITUTE(E75,"."," "))</f>
+        <v>Chumbadores</v>
+      </c>
+      <c r="O75" s="25" t="str">
+        <f t="shared" ref="O75" si="104">_xlfn.CONCAT(SUBSTITUTE(F75,"."," "))</f>
+        <v>Chumbador Interno</v>
+      </c>
+      <c r="P75" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q75" s="29" t="s">
+        <v>791</v>
+      </c>
+      <c r="R75" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S75" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>Conexões Estruturais</v>
+      </c>
+      <c r="T75" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>Fixações</v>
+      </c>
+      <c r="U75" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v>Chumbadores</v>
+      </c>
+      <c r="V75" s="61" t="s">
+        <v>743</v>
+      </c>
+      <c r="W75" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>k.fichum.75</v>
+      </c>
+      <c r="X75" s="55" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y75" s="55" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="24">
+        <v>76</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="G76" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J76" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L76" s="25" t="str">
+        <f t="shared" si="98"/>
+        <v>Conexões.Estruturais</v>
+      </c>
+      <c r="M76" s="25" t="str">
+        <f t="shared" si="99"/>
+        <v>Fixações</v>
+      </c>
+      <c r="N76" s="25" t="str">
+        <f t="shared" si="100"/>
+        <v>Chumbadores</v>
+      </c>
+      <c r="O76" s="25" t="str">
+        <f t="shared" ref="O76" si="105">_xlfn.CONCAT(SUBSTITUTE(F76,"."," "))</f>
+        <v>Chumbador Externo</v>
+      </c>
+      <c r="P76" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q76" s="29" t="s">
+        <v>792</v>
+      </c>
+      <c r="R76" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S76" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>Conexões Estruturais</v>
+      </c>
+      <c r="T76" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>Fixações</v>
+      </c>
+      <c r="U76" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v>Chumbadores</v>
+      </c>
+      <c r="V76" s="61" t="s">
+        <v>743</v>
+      </c>
+      <c r="W76" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>k.fichum.76</v>
+      </c>
+      <c r="X76" s="55" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y76" s="55" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="24">
+        <v>77</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="F77" s="49" t="s">
+        <v>589</v>
+      </c>
+      <c r="G77" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J77" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L77" s="25" t="str">
+        <f t="shared" si="98"/>
+        <v>Conexões.Estruturais</v>
+      </c>
+      <c r="M77" s="25" t="str">
+        <f t="shared" si="99"/>
+        <v>Fixações</v>
+      </c>
+      <c r="N77" s="25" t="str">
+        <f t="shared" si="100"/>
+        <v>Parafusos</v>
+      </c>
+      <c r="O77" s="25" t="str">
+        <f t="shared" ref="O77" si="106">_xlfn.CONCAT(SUBSTITUTE(F77,"."," "))</f>
+        <v>Parafuso DIN</v>
+      </c>
+      <c r="P77" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q77" s="29" t="s">
+        <v>793</v>
+      </c>
+      <c r="R77" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S77" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>Conexões Estruturais</v>
+      </c>
+      <c r="T77" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>Fixações</v>
+      </c>
+      <c r="U77" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v>Parafusos</v>
+      </c>
+      <c r="V77" s="61" t="s">
+        <v>743</v>
+      </c>
+      <c r="W77" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>k.fipara.77</v>
+      </c>
+      <c r="X77" s="55" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y77" s="55" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="24">
+        <v>78</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="F78" s="49" t="s">
+        <v>546</v>
+      </c>
+      <c r="G78" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J78" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L78" s="25" t="str">
+        <f t="shared" si="98"/>
+        <v>Conexões.Estruturais</v>
+      </c>
+      <c r="M78" s="25" t="str">
+        <f t="shared" si="99"/>
+        <v>Fixações</v>
+      </c>
+      <c r="N78" s="25" t="str">
+        <f t="shared" si="100"/>
+        <v>Parafusos</v>
+      </c>
+      <c r="O78" s="25" t="str">
+        <f t="shared" ref="O78:O79" si="107">_xlfn.CONCAT(SUBSTITUTE(F78,"."," "))</f>
+        <v>Parafuso ASTM</v>
+      </c>
+      <c r="P78" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q78" s="29" t="s">
+        <v>794</v>
+      </c>
+      <c r="R78" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S78" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>Conexões Estruturais</v>
+      </c>
+      <c r="T78" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>Fixações</v>
+      </c>
+      <c r="U78" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v>Parafusos</v>
+      </c>
+      <c r="V78" s="61" t="s">
+        <v>743</v>
+      </c>
+      <c r="W78" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>k.fipara.78</v>
+      </c>
+      <c r="X78" s="55" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y78" s="55" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="24">
+        <v>79</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="G79" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J79" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L79" s="25" t="str">
+        <f t="shared" si="98"/>
+        <v>Conexões.Estruturais</v>
+      </c>
+      <c r="M79" s="25" t="str">
+        <f t="shared" si="99"/>
+        <v>Fixações</v>
+      </c>
+      <c r="N79" s="25" t="str">
+        <f t="shared" si="100"/>
+        <v>Parafusos</v>
+      </c>
+      <c r="O79" s="25" t="str">
+        <f t="shared" si="107"/>
+        <v>Parafuso Drywall</v>
+      </c>
+      <c r="P79" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q79" s="29" t="s">
+        <v>795</v>
+      </c>
+      <c r="R79" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S79" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>Conexões Estruturais</v>
+      </c>
+      <c r="T79" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>Fixações</v>
+      </c>
+      <c r="U79" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v>Parafusos</v>
+      </c>
+      <c r="V79" s="61" t="s">
+        <v>743</v>
+      </c>
+      <c r="W79" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>k.fipara.79</v>
+      </c>
+      <c r="X79" s="55" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y79" s="55" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="24">
+        <v>80</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="F80" s="48" t="s">
+        <v>541</v>
+      </c>
+      <c r="G80" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J80" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L80" s="25" t="str">
+        <f t="shared" ref="L80:L81" si="108">_xlfn.CONCAT(SUBSTITUTE(C80,"1.",""))</f>
+        <v>Conexões.Estruturais</v>
+      </c>
+      <c r="M80" s="25" t="str">
+        <f t="shared" ref="M80:M81" si="109">_xlfn.CONCAT(SUBSTITUTE(D80,"."," "))</f>
+        <v>Fixações</v>
+      </c>
+      <c r="N80" s="25" t="str">
+        <f t="shared" ref="N80:N81" si="110">_xlfn.CONCAT(SUBSTITUTE(E80,"."," "))</f>
+        <v>Parafusos</v>
+      </c>
+      <c r="O80" s="25" t="str">
+        <f t="shared" ref="O80:O81" si="111">_xlfn.CONCAT(SUBSTITUTE(F80,"."," "))</f>
+        <v>Parafuso Brocante</v>
+      </c>
+      <c r="P80" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q80" s="29" t="s">
+        <v>796</v>
+      </c>
+      <c r="R80" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S80" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>Conexões Estruturais</v>
+      </c>
+      <c r="T80" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>Fixações</v>
+      </c>
+      <c r="U80" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v>Parafusos</v>
+      </c>
+      <c r="V80" s="61" t="s">
+        <v>743</v>
+      </c>
+      <c r="W80" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>k.fipara.80</v>
+      </c>
+      <c r="X80" s="55" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y80" s="55" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="24">
+        <v>81</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="G81" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J81" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L81" s="25" t="str">
+        <f t="shared" si="108"/>
+        <v>Conexões.Estruturais</v>
+      </c>
+      <c r="M81" s="25" t="str">
+        <f t="shared" si="109"/>
+        <v>Fixações</v>
+      </c>
+      <c r="N81" s="25" t="str">
+        <f t="shared" si="110"/>
+        <v>Parafusos</v>
+      </c>
+      <c r="O81" s="25" t="str">
+        <f t="shared" si="111"/>
+        <v>Parafuso Auto Atarraxante</v>
+      </c>
+      <c r="P81" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q81" s="29" t="s">
+        <v>797</v>
+      </c>
+      <c r="R81" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S81" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>Conexões Estruturais</v>
+      </c>
+      <c r="T81" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>Fixações</v>
+      </c>
+      <c r="U81" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v>Parafusos</v>
+      </c>
+      <c r="V81" s="61" t="s">
+        <v>743</v>
+      </c>
+      <c r="W81" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>k.fipara.81</v>
+      </c>
+      <c r="X81" s="55" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y81" s="55" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="24">
+        <v>82</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="G82" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J82" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L82" s="25" t="str">
+        <f t="shared" ref="L82" si="112">_xlfn.CONCAT(SUBSTITUTE(C82,"1.",""))</f>
+        <v>Conexões.Estruturais</v>
+      </c>
+      <c r="M82" s="25" t="str">
+        <f t="shared" ref="M82" si="113">_xlfn.CONCAT(SUBSTITUTE(D82,"."," "))</f>
+        <v>Fixações</v>
+      </c>
+      <c r="N82" s="25" t="str">
+        <f t="shared" ref="N82" si="114">_xlfn.CONCAT(SUBSTITUTE(E82,"."," "))</f>
+        <v>Pinos</v>
+      </c>
+      <c r="O82" s="25" t="str">
+        <f t="shared" ref="O82" si="115">_xlfn.CONCAT(SUBSTITUTE(F82,"."," "))</f>
+        <v>Pino de Cisalhamento</v>
+      </c>
+      <c r="P82" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q82" s="29" t="s">
+        <v>798</v>
+      </c>
+      <c r="R82" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S82" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>Conexões Estruturais</v>
+      </c>
+      <c r="T82" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>Fixações</v>
+      </c>
+      <c r="U82" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v>Pinos</v>
+      </c>
+      <c r="V82" s="61" t="s">
+        <v>743</v>
+      </c>
+      <c r="W82" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v>k.fipino.82</v>
+      </c>
+      <c r="X82" s="55" t="s">
         <v>637</v>
       </c>
-      <c r="Y69" s="55" t="s">
+      <c r="Y82" s="55" t="s">
         <v>676</v>
       </c>
     </row>
@@ -9680,7 +10947,7 @@
   <conditionalFormatting sqref="F2:F3">
     <cfRule type="duplicateValues" dxfId="19" priority="240"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F59">
+  <conditionalFormatting sqref="F58:F72">
     <cfRule type="duplicateValues" dxfId="18" priority="3"/>
     <cfRule type="duplicateValues" dxfId="17" priority="4"/>
     <cfRule type="duplicateValues" dxfId="16" priority="5"/>
@@ -9688,10 +10955,10 @@
     <cfRule type="duplicateValues" dxfId="14" priority="7"/>
     <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F60:F61 F1 F4:F44">
+  <conditionalFormatting sqref="F73:F74 F1 F4:F57">
     <cfRule type="duplicateValues" dxfId="12" priority="266"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70:F1048576 F67 F64:F65 F1 F60:F61 F4:F44">
+  <conditionalFormatting sqref="F83:F1048576 F80 F77:F78 F1 F73:F74 F4:F57">
     <cfRule type="duplicateValues" dxfId="11" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O1">
@@ -9699,10 +10966,10 @@
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W69">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  <conditionalFormatting sqref="W2:W82">
+    <cfRule type="duplicateValues" dxfId="9" priority="305"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y45:Y59">
+  <conditionalFormatting sqref="Y58:Y72">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
     <cfRule type="duplicateValues" dxfId="7" priority="10"/>
     <cfRule type="duplicateValues" dxfId="6" priority="11"/>

--- a/Versão5/META/Ontologia_METAL.xlsx
+++ b/Versão5/META/Ontologia_METAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\META\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412E567A-2A7D-487B-B016-B127F3176A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA32B21-56BE-4F70-B488-CFEE94316A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -2620,12 +2620,6 @@
     <t>é.membro.de some Estrutural</t>
   </si>
   <si>
-    <t>é.mísula.de some Pórticos</t>
-  </si>
-  <si>
-    <t>é.cumeeira.de some Pórticos</t>
-  </si>
-  <si>
     <t>ContraVentamento.Horizontal.X</t>
   </si>
   <si>
@@ -3179,6 +3173,12 @@
   </si>
   <si>
     <t>Conexión metálica en la unión entre la viga inclinada y la correa.</t>
+  </si>
+  <si>
+    <t>é.mísula.de some Pórticos.de.Galpões</t>
+  </si>
+  <si>
+    <t>é.cumeeira.de some Pórticos.de.Galpões</t>
   </si>
 </sst>
 </file>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45934.489540625</v>
+        <v>45934.49245046296</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -4341,9 +4341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
   <dimension ref="A1:Y117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.765625" defaultRowHeight="8.6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4634,7 +4634,7 @@
         <v>76</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>520</v>
@@ -4719,7 +4719,7 @@
         <v>76</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>520</v>
@@ -4804,7 +4804,7 @@
         <v>76</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>520</v>
@@ -4889,7 +4889,7 @@
         <v>76</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>520</v>
@@ -4974,7 +4974,7 @@
         <v>76</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>520</v>
@@ -5059,7 +5059,7 @@
         <v>76</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>520</v>
@@ -5144,16 +5144,16 @@
         <v>76</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>9</v>
@@ -5162,7 +5162,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="J10" s="32" t="s">
         <v>9</v>
@@ -5229,16 +5229,16 @@
         <v>76</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>9</v>
@@ -5314,16 +5314,16 @@
         <v>76</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="G12" s="32" t="s">
         <v>9</v>
@@ -5357,10 +5357,10 @@
         <v>Perfil Sigma</v>
       </c>
       <c r="P12" s="25" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="Q12" s="29" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="R12" s="61" t="s">
         <v>9</v>
@@ -5399,10 +5399,10 @@
         <v>76</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>730</v>
@@ -5484,10 +5484,10 @@
         <v>76</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>731</v>
@@ -5569,16 +5569,16 @@
         <v>76</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>731</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G15" s="32" t="s">
         <v>9</v>
@@ -5654,16 +5654,16 @@
         <v>76</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>9</v>
@@ -5697,10 +5697,10 @@
         <v>Perfil Z</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="R16" s="61" t="s">
         <v>9</v>
@@ -5739,16 +5739,16 @@
         <v>76</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D17" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>928</v>
-      </c>
       <c r="F17" s="18" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="G17" s="32" t="s">
         <v>9</v>
@@ -5782,10 +5782,10 @@
         <v>Seção Circular</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="Q17" s="25" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="R17" s="61" t="s">
         <v>9</v>
@@ -5824,16 +5824,16 @@
         <v>76</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D18" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>928</v>
-      </c>
       <c r="F18" s="18" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G18" s="32" t="s">
         <v>9</v>
@@ -5867,10 +5867,10 @@
         <v>Seção Quadrada</v>
       </c>
       <c r="P18" s="25" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="Q18" s="25" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="R18" s="61" t="s">
         <v>9</v>
@@ -5909,16 +5909,16 @@
         <v>76</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D19" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>928</v>
-      </c>
       <c r="F19" s="18" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>9</v>
@@ -5952,10 +5952,10 @@
         <v>Seção Retangular</v>
       </c>
       <c r="P19" s="25" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="Q19" s="25" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="R19" s="61" t="s">
         <v>9</v>
@@ -5994,7 +5994,7 @@
         <v>76</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>808</v>
@@ -6079,7 +6079,7 @@
         <v>76</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>808</v>
@@ -6164,7 +6164,7 @@
         <v>76</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>808</v>
@@ -6249,7 +6249,7 @@
         <v>76</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>808</v>
@@ -6334,7 +6334,7 @@
         <v>76</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>808</v>
@@ -6419,7 +6419,7 @@
         <v>76</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>808</v>
@@ -6443,7 +6443,7 @@
         <v>9</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>849</v>
+        <v>1034</v>
       </c>
       <c r="L25" s="25" t="str">
         <f t="shared" si="43"/>
@@ -6504,7 +6504,7 @@
         <v>76</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>808</v>
@@ -6528,7 +6528,7 @@
         <v>9</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>850</v>
+        <v>1035</v>
       </c>
       <c r="L26" s="25" t="str">
         <f t="shared" si="43"/>
@@ -6589,7 +6589,7 @@
         <v>76</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>808</v>
@@ -6598,7 +6598,7 @@
         <v>686</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>9</v>
@@ -6632,10 +6632,10 @@
         <v>Placa Gusset</v>
       </c>
       <c r="P27" s="25" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="R27" s="61" t="s">
         <v>9</v>
@@ -6674,16 +6674,16 @@
         <v>76</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D28" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>966</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>967</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>968</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>969</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>9</v>
@@ -6717,10 +6717,10 @@
         <v>SteelDeck Trapezoidal</v>
       </c>
       <c r="P28" s="25" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="Q28" s="29" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="R28" s="61" t="s">
         <v>9</v>
@@ -6745,10 +6745,10 @@
         <v>k.chstee.28</v>
       </c>
       <c r="X28" s="55" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="Y28" s="55" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6759,7 +6759,7 @@
         <v>76</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>684</v>
@@ -6844,7 +6844,7 @@
         <v>76</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>684</v>
@@ -6929,7 +6929,7 @@
         <v>76</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>684</v>
@@ -7014,7 +7014,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>684</v>
@@ -7099,7 +7099,7 @@
         <v>76</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>684</v>
@@ -7184,7 +7184,7 @@
         <v>76</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>684</v>
@@ -7269,7 +7269,7 @@
         <v>76</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>684</v>
@@ -7354,7 +7354,7 @@
         <v>76</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>684</v>
@@ -7439,7 +7439,7 @@
         <v>76</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>684</v>
@@ -7524,7 +7524,7 @@
         <v>76</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>684</v>
@@ -7609,13 +7609,13 @@
         <v>76</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>684</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>816</v>
@@ -7633,7 +7633,7 @@
         <v>9</v>
       </c>
       <c r="K39" s="32" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="L39" s="25" t="str">
         <f t="shared" ref="L39" si="70">_xlfn.CONCAT(SUBSTITUTE(C39,"1.",""))</f>
@@ -7680,7 +7680,7 @@
         <v>k.babarr.39</v>
       </c>
       <c r="X39" s="55" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="Y39" s="55" t="s">
         <v>825</v>
@@ -7694,13 +7694,13 @@
         <v>76</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>684</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>817</v>
@@ -7718,7 +7718,7 @@
         <v>9</v>
       </c>
       <c r="K40" s="32" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="L40" s="25" t="str">
         <f t="shared" si="63"/>
@@ -7765,7 +7765,7 @@
         <v>k.babarr.40</v>
       </c>
       <c r="X40" s="55" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="Y40" s="55" t="s">
         <v>825</v>
@@ -7779,13 +7779,13 @@
         <v>76</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>684</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>818</v>
@@ -7803,7 +7803,7 @@
         <v>9</v>
       </c>
       <c r="K41" s="32" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="L41" s="25" t="str">
         <f t="shared" si="63"/>
@@ -7850,7 +7850,7 @@
         <v>k.babarr.41</v>
       </c>
       <c r="X41" s="55" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="Y41" s="55" t="s">
         <v>825</v>
@@ -7864,7 +7864,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>684</v>
@@ -7885,10 +7885,10 @@
         <v>9</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K42" s="32" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="L42" s="25" t="str">
         <f t="shared" si="63"/>
@@ -7949,7 +7949,7 @@
         <v>76</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>684</v>
@@ -7970,10 +7970,10 @@
         <v>9</v>
       </c>
       <c r="J43" s="32" t="s">
+        <v>860</v>
+      </c>
+      <c r="K43" s="32" t="s">
         <v>862</v>
-      </c>
-      <c r="K43" s="32" t="s">
-        <v>864</v>
       </c>
       <c r="L43" s="25" t="str">
         <f t="shared" si="63"/>
@@ -8034,7 +8034,7 @@
         <v>76</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>684</v>
@@ -8055,10 +8055,10 @@
         <v>9</v>
       </c>
       <c r="J44" s="32" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K44" s="32" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="L44" s="25" t="str">
         <f t="shared" si="63"/>
@@ -8119,7 +8119,7 @@
         <v>76</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>684</v>
@@ -8143,7 +8143,7 @@
         <v>9</v>
       </c>
       <c r="K45" s="32" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="L45" s="25" t="str">
         <f t="shared" ref="L45" si="77">_xlfn.CONCAT(SUBSTITUTE(C45,"1.",""))</f>
@@ -8204,16 +8204,16 @@
         <v>76</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>9</v>
@@ -8247,10 +8247,10 @@
         <v>ContraVentamento Horizontal Diagonal</v>
       </c>
       <c r="P46" s="25" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="Q46" s="25" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="R46" s="61" t="s">
         <v>9</v>
@@ -8275,7 +8275,7 @@
         <v>k.cocont.46</v>
       </c>
       <c r="X46" s="55" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="Y46" s="55" t="s">
         <v>825</v>
@@ -8289,16 +8289,16 @@
         <v>76</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>9</v>
@@ -8332,10 +8332,10 @@
         <v>ContraVentamento Horizontal X</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="Q47" s="25" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="R47" s="61" t="s">
         <v>9</v>
@@ -8360,7 +8360,7 @@
         <v>k.cocont.47</v>
       </c>
       <c r="X47" s="55" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="Y47" s="55" t="s">
         <v>825</v>
@@ -8374,16 +8374,16 @@
         <v>76</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>9</v>
@@ -8417,10 +8417,10 @@
         <v>ContraVentamento Horizontal K</v>
       </c>
       <c r="P48" s="25" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Q48" s="25" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="R48" s="61" t="s">
         <v>9</v>
@@ -8445,7 +8445,7 @@
         <v>k.cocont.48</v>
       </c>
       <c r="X48" s="55" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="Y48" s="55" t="s">
         <v>825</v>
@@ -8459,16 +8459,16 @@
         <v>76</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>9</v>
@@ -8502,10 +8502,10 @@
         <v>ContraVentamento Horizontal V</v>
       </c>
       <c r="P49" s="25" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="Q49" s="25" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="R49" s="61" t="s">
         <v>9</v>
@@ -8530,7 +8530,7 @@
         <v>k.cocont.49</v>
       </c>
       <c r="X49" s="55" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="Y49" s="55" t="s">
         <v>825</v>
@@ -8544,16 +8544,16 @@
         <v>76</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>9</v>
@@ -8587,10 +8587,10 @@
         <v>ContraVentamento Horizontal VI</v>
       </c>
       <c r="P50" s="25" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="Q50" s="25" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="R50" s="61" t="s">
         <v>9</v>
@@ -8615,7 +8615,7 @@
         <v>k.cocont.50</v>
       </c>
       <c r="X50" s="55" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="Y50" s="55" t="s">
         <v>825</v>
@@ -8629,16 +8629,16 @@
         <v>76</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G51" s="32" t="s">
         <v>9</v>
@@ -8672,10 +8672,10 @@
         <v>ContraVentamento Horizontal Delta</v>
       </c>
       <c r="P51" s="25" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="Q51" s="25" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="R51" s="61" t="s">
         <v>9</v>
@@ -8700,7 +8700,7 @@
         <v>k.cocont.51</v>
       </c>
       <c r="X51" s="55" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="Y51" s="55" t="s">
         <v>825</v>
@@ -8714,16 +8714,16 @@
         <v>76</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D52" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="E52" s="18" t="s">
         <v>857</v>
       </c>
-      <c r="E52" s="18" t="s">
-        <v>859</v>
-      </c>
       <c r="F52" s="18" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G52" s="32" t="s">
         <v>9</v>
@@ -8757,10 +8757,10 @@
         <v>ContraVentamento Vertical</v>
       </c>
       <c r="P52" s="25" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="Q52" s="25" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="R52" s="61" t="s">
         <v>9</v>
@@ -8799,16 +8799,16 @@
         <v>76</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D53" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="E53" s="18" t="s">
         <v>857</v>
       </c>
-      <c r="E53" s="18" t="s">
-        <v>859</v>
-      </c>
       <c r="F53" s="18" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G53" s="32" t="s">
         <v>9</v>
@@ -8842,10 +8842,10 @@
         <v>ContraVentamento Vertical X</v>
       </c>
       <c r="P53" s="25" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="Q53" s="25" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="R53" s="61" t="s">
         <v>9</v>
@@ -8884,16 +8884,16 @@
         <v>76</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D54" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="E54" s="18" t="s">
         <v>857</v>
       </c>
-      <c r="E54" s="18" t="s">
-        <v>859</v>
-      </c>
       <c r="F54" s="18" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G54" s="32" t="s">
         <v>9</v>
@@ -8927,10 +8927,10 @@
         <v>ContraVentamento Vertical K</v>
       </c>
       <c r="P54" s="25" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="Q54" s="25" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="R54" s="61" t="s">
         <v>9</v>
@@ -8969,16 +8969,16 @@
         <v>76</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D55" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>857</v>
       </c>
-      <c r="E55" s="18" t="s">
-        <v>859</v>
-      </c>
       <c r="F55" s="18" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>9</v>
@@ -9012,10 +9012,10 @@
         <v>ContraVentamento Vertical V</v>
       </c>
       <c r="P55" s="25" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="Q55" s="25" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="R55" s="61" t="s">
         <v>9</v>
@@ -9054,16 +9054,16 @@
         <v>76</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D56" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>857</v>
       </c>
-      <c r="E56" s="18" t="s">
-        <v>859</v>
-      </c>
       <c r="F56" s="18" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>9</v>
@@ -9097,10 +9097,10 @@
         <v>ContraVentamento Vertical VI</v>
       </c>
       <c r="P56" s="25" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="Q56" s="25" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="R56" s="61" t="s">
         <v>9</v>
@@ -9139,16 +9139,16 @@
         <v>76</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D57" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="E57" s="18" t="s">
         <v>857</v>
       </c>
-      <c r="E57" s="18" t="s">
-        <v>859</v>
-      </c>
       <c r="F57" s="18" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>9</v>
@@ -9182,10 +9182,10 @@
         <v>ContraVentamento Vertical Delta</v>
       </c>
       <c r="P57" s="25" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="Q57" s="25" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="R57" s="61" t="s">
         <v>9</v>
@@ -9224,16 +9224,16 @@
         <v>76</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>9</v>
@@ -9267,10 +9267,10 @@
         <v>ContraVentamento Cabo</v>
       </c>
       <c r="P58" s="25" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="Q58" s="25" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="R58" s="61" t="s">
         <v>9</v>
@@ -9309,7 +9309,7 @@
         <v>76</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>685</v>
@@ -9394,7 +9394,7 @@
         <v>76</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>685</v>
@@ -9479,7 +9479,7 @@
         <v>76</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>685</v>
@@ -9564,7 +9564,7 @@
         <v>76</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>685</v>
@@ -9649,7 +9649,7 @@
         <v>76</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>685</v>
@@ -9734,7 +9734,7 @@
         <v>76</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>685</v>
@@ -9819,7 +9819,7 @@
         <v>76</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>685</v>
@@ -9904,7 +9904,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>685</v>
@@ -9989,7 +9989,7 @@
         <v>76</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>685</v>
@@ -10074,7 +10074,7 @@
         <v>76</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>685</v>
@@ -10159,7 +10159,7 @@
         <v>76</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>685</v>
@@ -10244,7 +10244,7 @@
         <v>76</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>685</v>
@@ -10329,7 +10329,7 @@
         <v>76</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>685</v>
@@ -10414,16 +10414,16 @@
         <v>76</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>815</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="G72" s="32" t="s">
         <v>9</v>
@@ -10457,10 +10457,10 @@
         <v>Pórtico Galpão</v>
       </c>
       <c r="P72" s="25" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="Q72" s="29" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="R72" s="61" t="s">
         <v>9</v>
@@ -10499,16 +10499,16 @@
         <v>76</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>815</v>
       </c>
       <c r="E73" s="18" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F73" s="18" t="s">
         <v>1022</v>
-      </c>
-      <c r="F73" s="18" t="s">
-        <v>1024</v>
       </c>
       <c r="G73" s="32" t="s">
         <v>9</v>
@@ -10542,10 +10542,10 @@
         <v>Pórtico Galpão e Anexo</v>
       </c>
       <c r="P73" s="25" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="Q73" s="29" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="R73" s="61" t="s">
         <v>9</v>
@@ -10584,16 +10584,16 @@
         <v>76</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>815</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="G74" s="32" t="s">
         <v>9</v>
@@ -10627,10 +10627,10 @@
         <v>Pórtico Galpão Vãos Múltiplos</v>
       </c>
       <c r="P74" s="25" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="Q74" s="29" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="R74" s="61" t="s">
         <v>9</v>
@@ -10669,7 +10669,7 @@
         <v>76</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>603</v>
@@ -10708,7 +10708,7 @@
         <v>Tensores</v>
       </c>
       <c r="O75" s="25" t="str">
-        <f t="shared" ref="O75:P109" si="159">_xlfn.CONCAT(SUBSTITUTE(F75,"."," "))</f>
+        <f t="shared" ref="O75:O109" si="159">_xlfn.CONCAT(SUBSTITUTE(F75,"."," "))</f>
         <v>Ancora Estrutural</v>
       </c>
       <c r="P75" s="25" t="s">
@@ -10754,7 +10754,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>603</v>
@@ -10839,7 +10839,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>603</v>
@@ -10885,7 +10885,7 @@
         <v>589</v>
       </c>
       <c r="Q77" s="29" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="R77" s="61" t="s">
         <v>9</v>
@@ -10924,7 +10924,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>603</v>
@@ -10967,10 +10967,10 @@
         <v>Ancoragem de Estai</v>
       </c>
       <c r="P78" s="25" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="Q78" s="29" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="R78" s="61" t="s">
         <v>9</v>
@@ -11009,7 +11009,7 @@
         <v>76</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>603</v>
@@ -11052,10 +11052,10 @@
         <v>Ancoragem Acoplador</v>
       </c>
       <c r="P79" s="25" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="Q79" s="29" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="R79" s="61" t="s">
         <v>9</v>
@@ -11094,7 +11094,7 @@
         <v>76</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>603</v>
@@ -11137,10 +11137,10 @@
         <v>Ancoragem Extremo Fixo</v>
       </c>
       <c r="P80" s="25" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="Q80" s="29" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="R80" s="61" t="s">
         <v>9</v>
@@ -11179,7 +11179,7 @@
         <v>76</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>603</v>
@@ -11222,10 +11222,10 @@
         <v>Ancoragem Extremo Tensionado</v>
       </c>
       <c r="P81" s="25" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="Q81" s="29" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="R81" s="61" t="s">
         <v>9</v>
@@ -11264,7 +11264,7 @@
         <v>76</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>603</v>
@@ -11307,10 +11307,10 @@
         <v>Tensor Barra</v>
       </c>
       <c r="P82" s="25" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="Q82" s="29" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="R82" s="61" t="s">
         <v>9</v>
@@ -11349,7 +11349,7 @@
         <v>76</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D83" s="18" t="s">
         <v>603</v>
@@ -11392,10 +11392,10 @@
         <v>Tensor Revestido</v>
       </c>
       <c r="P83" s="25" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="Q83" s="29" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="R83" s="61" t="s">
         <v>9</v>
@@ -11434,7 +11434,7 @@
         <v>76</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D84" s="18" t="s">
         <v>603</v>
@@ -11477,10 +11477,10 @@
         <v>Tensor Bainha</v>
       </c>
       <c r="P84" s="25" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="Q84" s="29" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="R84" s="61" t="s">
         <v>9</v>
@@ -11519,7 +11519,7 @@
         <v>76</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>603</v>
@@ -11562,10 +11562,10 @@
         <v>Tensor Bainha Acoplador</v>
       </c>
       <c r="P85" s="25" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="Q85" s="29" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="R85" s="61" t="s">
         <v>9</v>
@@ -11604,7 +11604,7 @@
         <v>76</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D86" s="18" t="s">
         <v>603</v>
@@ -11647,10 +11647,10 @@
         <v>Tensor Bainha Diabolo</v>
       </c>
       <c r="P86" s="25" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="Q86" s="29" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="R86" s="61" t="s">
         <v>9</v>
@@ -11689,7 +11689,7 @@
         <v>76</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>603</v>
@@ -11732,10 +11732,10 @@
         <v>Tensor Bainha Cabo</v>
       </c>
       <c r="P87" s="25" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="Q87" s="29" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="R87" s="61" t="s">
         <v>9</v>
@@ -11774,7 +11774,7 @@
         <v>76</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>603</v>
@@ -11817,10 +11817,10 @@
         <v>Tensor Injetor</v>
       </c>
       <c r="P88" s="25" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="Q88" s="29" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="R88" s="61" t="s">
         <v>9</v>
@@ -11859,7 +11859,7 @@
         <v>76</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>603</v>
@@ -11902,10 +11902,10 @@
         <v>Tensor Trombeta</v>
       </c>
       <c r="P89" s="25" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="Q89" s="29" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="R89" s="61" t="s">
         <v>9</v>
@@ -11944,7 +11944,7 @@
         <v>76</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>603</v>
@@ -11987,10 +11987,10 @@
         <v>Tensor Corda</v>
       </c>
       <c r="P90" s="25" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="Q90" s="29" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="R90" s="61" t="s">
         <v>9</v>
@@ -12029,7 +12029,7 @@
         <v>76</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>603</v>
@@ -12072,10 +12072,10 @@
         <v>Tensor Fio</v>
       </c>
       <c r="P91" s="25" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="Q91" s="29" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="R91" s="61" t="s">
         <v>9</v>
@@ -12114,7 +12114,7 @@
         <v>76</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D92" s="18" t="s">
         <v>603</v>
@@ -12157,10 +12157,10 @@
         <v>Mastro Estrutural</v>
       </c>
       <c r="P92" s="25" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="Q92" s="29" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="R92" s="61" t="s">
         <v>9</v>
@@ -12199,7 +12199,7 @@
         <v>76</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>603</v>
@@ -12287,13 +12287,13 @@
         <v>92</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E94" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="F94" s="18" t="s">
         <v>904</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>906</v>
       </c>
       <c r="G94" s="32" t="s">
         <v>9</v>
@@ -12327,10 +12327,10 @@
         <v>Terça Cobertura</v>
       </c>
       <c r="P94" s="25" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q94" s="29" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="R94" s="61" t="s">
         <v>9</v>
@@ -12372,13 +12372,13 @@
         <v>92</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G95" s="32" t="s">
         <v>9</v>
@@ -12412,10 +12412,10 @@
         <v>Terça Fachada</v>
       </c>
       <c r="P95" s="25" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="Q95" s="29" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="R95" s="61" t="s">
         <v>9</v>
@@ -12457,13 +12457,13 @@
         <v>92</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G96" s="32" t="s">
         <v>9</v>
@@ -12497,10 +12497,10 @@
         <v>Terça Cartola</v>
       </c>
       <c r="P96" s="25" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="Q96" s="29" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="R96" s="61" t="s">
         <v>9</v>
@@ -12542,13 +12542,13 @@
         <v>92</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="G97" s="32" t="s">
         <v>9</v>
@@ -12582,10 +12582,10 @@
         <v>Tirante Beiral</v>
       </c>
       <c r="P97" s="25" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="Q97" s="29" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="R97" s="61" t="s">
         <v>9</v>
@@ -12627,13 +12627,13 @@
         <v>92</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E98" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F98" s="18" t="s">
         <v>1026</v>
-      </c>
-      <c r="F98" s="18" t="s">
-        <v>1028</v>
       </c>
       <c r="G98" s="32" t="s">
         <v>9</v>
@@ -12667,10 +12667,10 @@
         <v>Tirante Terça</v>
       </c>
       <c r="P98" s="25" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="Q98" s="29" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="R98" s="61" t="s">
         <v>9</v>
@@ -12712,13 +12712,13 @@
         <v>92</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="G99" s="32" t="s">
         <v>9</v>
@@ -12752,10 +12752,10 @@
         <v>Tirante Cumeeira</v>
       </c>
       <c r="P99" s="25" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="Q99" s="29" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="R99" s="61" t="s">
         <v>9</v>
@@ -12797,13 +12797,13 @@
         <v>92</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G100" s="32" t="s">
         <v>9</v>
@@ -12837,10 +12837,10 @@
         <v>Frechal Alinhamento</v>
       </c>
       <c r="P100" s="25" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="Q100" s="29" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="R100" s="61" t="s">
         <v>9</v>
@@ -12879,16 +12879,16 @@
         <v>76</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G101" s="32" t="s">
         <v>9</v>
@@ -12922,10 +12922,10 @@
         <v>Painel Sanduíche Fachada</v>
       </c>
       <c r="P101" s="25" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="Q101" s="29" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="R101" s="61" t="s">
         <v>9</v>
@@ -12950,10 +12950,10 @@
         <v>k.sifach.101</v>
       </c>
       <c r="X101" s="55" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="Y101" s="55" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -12964,16 +12964,16 @@
         <v>76</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E102" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="F102" s="18" t="s">
         <v>946</v>
-      </c>
-      <c r="F102" s="18" t="s">
-        <v>948</v>
       </c>
       <c r="G102" s="32" t="s">
         <v>9</v>
@@ -13007,10 +13007,10 @@
         <v>Painel Sanduíche Térmico</v>
       </c>
       <c r="P102" s="25" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="Q102" s="29" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="R102" s="61" t="s">
         <v>9</v>
@@ -13035,10 +13035,10 @@
         <v>k.sipain.102</v>
       </c>
       <c r="X102" s="55" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="Y102" s="55" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13049,16 +13049,16 @@
         <v>76</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D103" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="E103" s="18" t="s">
         <v>945</v>
       </c>
-      <c r="E103" s="18" t="s">
+      <c r="F103" s="18" t="s">
         <v>947</v>
-      </c>
-      <c r="F103" s="18" t="s">
-        <v>949</v>
       </c>
       <c r="G103" s="32" t="s">
         <v>9</v>
@@ -13092,10 +13092,10 @@
         <v>Telha Sanduíche Zipada</v>
       </c>
       <c r="P103" s="25" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="Q103" s="29" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="R103" s="61" t="s">
         <v>9</v>
@@ -13120,10 +13120,10 @@
         <v>k.sitelh.103</v>
       </c>
       <c r="X103" s="55" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="Y103" s="59" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13134,16 +13134,16 @@
         <v>76</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D104" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="E104" s="18" t="s">
         <v>945</v>
       </c>
-      <c r="E104" s="18" t="s">
-        <v>947</v>
-      </c>
       <c r="F104" s="18" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G104" s="32" t="s">
         <v>9</v>
@@ -13177,10 +13177,10 @@
         <v>Telha Sanduíche Ondulada</v>
       </c>
       <c r="P104" s="25" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="Q104" s="29" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="R104" s="61" t="s">
         <v>9</v>
@@ -13205,10 +13205,10 @@
         <v>k.sitelh.104</v>
       </c>
       <c r="X104" s="55" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="Y104" s="59" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13219,16 +13219,16 @@
         <v>76</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D105" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="E105" s="18" t="s">
         <v>945</v>
       </c>
-      <c r="E105" s="18" t="s">
-        <v>947</v>
-      </c>
       <c r="F105" s="18" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G105" s="32" t="s">
         <v>9</v>
@@ -13262,10 +13262,10 @@
         <v>Telha Sanduíche Trapezoidal</v>
       </c>
       <c r="P105" s="25" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="Q105" s="29" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="R105" s="61" t="s">
         <v>9</v>
@@ -13290,10 +13290,10 @@
         <v>k.sitelh.105</v>
       </c>
       <c r="X105" s="55" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="Y105" s="59" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13304,16 +13304,16 @@
         <v>76</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D106" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="E106" s="18" t="s">
         <v>945</v>
       </c>
-      <c r="E106" s="18" t="s">
-        <v>947</v>
-      </c>
       <c r="F106" s="18" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G106" s="32" t="s">
         <v>9</v>
@@ -13347,10 +13347,10 @@
         <v>Telha Sanduíche Solar</v>
       </c>
       <c r="P106" s="25" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="Q106" s="29" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="R106" s="61" t="s">
         <v>9</v>
@@ -13375,10 +13375,10 @@
         <v>k.sitelh.106</v>
       </c>
       <c r="X106" s="55" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="Y106" s="59" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13389,16 +13389,16 @@
         <v>76</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="G107" s="32" t="s">
         <v>9</v>
@@ -13432,10 +13432,10 @@
         <v>Telha Trapezoidal</v>
       </c>
       <c r="P107" s="25" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="Q107" s="29" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="R107" s="61" t="s">
         <v>9</v>
@@ -13460,10 +13460,10 @@
         <v>k.sitelh.107</v>
       </c>
       <c r="X107" s="55" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="Y107" s="59" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13474,16 +13474,16 @@
         <v>76</v>
       </c>
       <c r="C108" s="18" t="s">
+        <v>915</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>918</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>916</v>
+      </c>
+      <c r="F108" s="18" t="s">
         <v>917</v>
-      </c>
-      <c r="D108" s="18" t="s">
-        <v>920</v>
-      </c>
-      <c r="E108" s="18" t="s">
-        <v>918</v>
-      </c>
-      <c r="F108" s="18" t="s">
-        <v>919</v>
       </c>
       <c r="G108" s="32" t="s">
         <v>9</v>
@@ -13517,10 +13517,10 @@
         <v>Telha Ondulada</v>
       </c>
       <c r="P108" s="25" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="Q108" s="29" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="R108" s="61" t="s">
         <v>9</v>
@@ -13545,10 +13545,10 @@
         <v>k.sitelh.108</v>
       </c>
       <c r="X108" s="55" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="Y108" s="59" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13559,16 +13559,16 @@
         <v>76</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G109" s="32" t="s">
         <v>9</v>
@@ -13602,10 +13602,10 @@
         <v>Telha Zipada</v>
       </c>
       <c r="P109" s="25" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="Q109" s="29" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="R109" s="61" t="s">
         <v>9</v>
@@ -13630,10 +13630,10 @@
         <v>k.sitelh.109</v>
       </c>
       <c r="X109" s="55" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="Y109" s="59" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13644,7 +13644,7 @@
         <v>76</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>667</v>
@@ -13729,7 +13729,7 @@
         <v>76</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>667</v>
@@ -13814,7 +13814,7 @@
         <v>76</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>667</v>
@@ -13899,7 +13899,7 @@
         <v>76</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>667</v>
@@ -13984,7 +13984,7 @@
         <v>76</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D114" s="18" t="s">
         <v>667</v>
@@ -14069,7 +14069,7 @@
         <v>76</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D115" s="18" t="s">
         <v>667</v>
@@ -14154,7 +14154,7 @@
         <v>76</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>667</v>
@@ -14239,7 +14239,7 @@
         <v>76</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>667</v>
@@ -14338,12 +14338,12 @@
     <cfRule type="duplicateValues" dxfId="9" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y100">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -14572,7 +14572,7 @@
   <dimension ref="A1:AE155"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
@@ -29339,11 +29339,11 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B1:B155">
-    <cfRule type="duplicateValues" dxfId="8" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="150"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/META/Ontologia_METAL.xlsx
+++ b/Versão5/META/Ontologia_METAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\META\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA32B21-56BE-4F70-B488-CFEE94316A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F52284F-B666-4B7C-99A5-F4C1D6673928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -2944,9 +2944,6 @@
     <t>Telha sanduíche trapezoidal isotérmica oferece conforto térmico e economia de energia. Com trapézios de formato adaptado para colocação de paineis solares integrados à cobertura.</t>
   </si>
   <si>
-    <t>Fachadas.Sanduíches</t>
-  </si>
-  <si>
     <t>Painel.Sanduíche.Fachada</t>
   </si>
   <si>
@@ -3179,6 +3176,9 @@
   </si>
   <si>
     <t>é.cumeeira.de some Pórticos.de.Galpões</t>
+  </si>
+  <si>
+    <t>Ancoras</t>
   </si>
 </sst>
 </file>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45934.49245046296</v>
+        <v>45934.499316319445</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -4341,9 +4341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
   <dimension ref="A1:Y117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2:W117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.765625" defaultRowHeight="8.6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4601,22 +4601,22 @@
         <v>9</v>
       </c>
       <c r="S3" s="62" t="str">
-        <f t="shared" ref="S3:S71" si="3">SUBSTITUTE(C3, ".", " ")</f>
+        <f t="shared" ref="S3:S66" si="3">SUBSTITUTE(C3, ".", " ")</f>
         <v>Materialidade</v>
       </c>
       <c r="T3" s="62" t="str">
-        <f t="shared" ref="T3:T71" si="4">SUBSTITUTE(D3, ".", " ")</f>
+        <f t="shared" ref="T3:T66" si="4">SUBSTITUTE(D3, ".", " ")</f>
         <v>Da Estrutura</v>
       </c>
       <c r="U3" s="62" t="str">
-        <f t="shared" ref="U3:U71" si="5">SUBSTITUTE(E3, ".", " ")</f>
+        <f t="shared" ref="U3:U66" si="5">SUBSTITUTE(E3, ".", " ")</f>
         <v>Ligas Metálicas</v>
       </c>
       <c r="V3" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W3" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="W3:W66" si="6">CONCATENATE("k.",LOWER(LEFT(D3,2)),LOWER(LEFT(E3,4)),".",A3)</f>
         <v>k.daliga.3</v>
       </c>
       <c r="X3" s="55" t="s">
@@ -4661,7 +4661,7 @@
         <v>9</v>
       </c>
       <c r="L4" s="25" t="str">
-        <f t="shared" ref="L4:L6" si="6">_xlfn.CONCAT(SUBSTITUTE(C4,"1.",""))</f>
+        <f t="shared" ref="L4:L6" si="7">_xlfn.CONCAT(SUBSTITUTE(C4,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M4" s="25" t="str">
@@ -4701,7 +4701,7 @@
         <v>734</v>
       </c>
       <c r="W4" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.susold.4</v>
       </c>
       <c r="X4" s="55" t="s">
@@ -4746,7 +4746,7 @@
         <v>9</v>
       </c>
       <c r="L5" s="25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Estrutural</v>
       </c>
       <c r="M5" s="25" t="str">
@@ -4786,7 +4786,7 @@
         <v>734</v>
       </c>
       <c r="W5" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.susold.5</v>
       </c>
       <c r="X5" s="55" t="s">
@@ -4831,7 +4831,7 @@
         <v>9</v>
       </c>
       <c r="L6" s="25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Estrutural</v>
       </c>
       <c r="M6" s="25" t="str">
@@ -4871,7 +4871,7 @@
         <v>734</v>
       </c>
       <c r="W6" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.susold.6</v>
       </c>
       <c r="X6" s="55" t="s">
@@ -4916,19 +4916,19 @@
         <v>9</v>
       </c>
       <c r="L7" s="25" t="str">
-        <f t="shared" ref="L7:L19" si="7">_xlfn.CONCAT(SUBSTITUTE(C7,"1.",""))</f>
+        <f t="shared" ref="L7:L19" si="8">_xlfn.CONCAT(SUBSTITUTE(C7,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M7" s="25" t="str">
-        <f t="shared" ref="M7:M19" si="8">_xlfn.CONCAT(SUBSTITUTE(D7,"."," "))</f>
+        <f t="shared" ref="M7:M19" si="9">_xlfn.CONCAT(SUBSTITUTE(D7,"."," "))</f>
         <v>Sustentação</v>
       </c>
       <c r="N7" s="25" t="str">
-        <f t="shared" ref="N7:N19" si="9">_xlfn.CONCAT(SUBSTITUTE(E7,"."," "))</f>
+        <f t="shared" ref="N7:N19" si="10">_xlfn.CONCAT(SUBSTITUTE(E7,"."," "))</f>
         <v>Laminados</v>
       </c>
       <c r="O7" s="25" t="str">
-        <f t="shared" ref="O7:O19" si="10">_xlfn.CONCAT(SUBSTITUTE(F7,"."," "))</f>
+        <f t="shared" ref="O7:O19" si="11">_xlfn.CONCAT(SUBSTITUTE(F7,"."," "))</f>
         <v>Perfil Laminado I</v>
       </c>
       <c r="P7" s="25" t="s">
@@ -4956,7 +4956,7 @@
         <v>734</v>
       </c>
       <c r="W7" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.sulami.7</v>
       </c>
       <c r="X7" s="55" t="s">
@@ -5001,19 +5001,19 @@
         <v>9</v>
       </c>
       <c r="L8" s="25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Estrutural</v>
       </c>
       <c r="M8" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Sustentação</v>
       </c>
       <c r="N8" s="25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Laminados</v>
       </c>
       <c r="O8" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Perfil Laminado HP</v>
       </c>
       <c r="P8" s="25" t="s">
@@ -5041,7 +5041,7 @@
         <v>734</v>
       </c>
       <c r="W8" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.sulami.8</v>
       </c>
       <c r="X8" s="55" t="s">
@@ -5086,19 +5086,19 @@
         <v>9</v>
       </c>
       <c r="L9" s="25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Estrutural</v>
       </c>
       <c r="M9" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Sustentação</v>
       </c>
       <c r="N9" s="25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Laminados</v>
       </c>
       <c r="O9" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Perfil Laminado W</v>
       </c>
       <c r="P9" s="25" t="s">
@@ -5126,7 +5126,7 @@
         <v>734</v>
       </c>
       <c r="W9" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.sulami.9</v>
       </c>
       <c r="X9" s="55" t="s">
@@ -5171,19 +5171,19 @@
         <v>9</v>
       </c>
       <c r="L10" s="25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Estrutural</v>
       </c>
       <c r="M10" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N10" s="25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Perfis L</v>
       </c>
       <c r="O10" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Cantoneira</v>
       </c>
       <c r="P10" s="25" t="s">
@@ -5196,22 +5196,22 @@
         <v>9</v>
       </c>
       <c r="S10" s="62" t="str">
-        <f t="shared" ref="S10:S11" si="11">SUBSTITUTE(C10, ".", " ")</f>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T10" s="62" t="str">
-        <f t="shared" ref="T10:T11" si="12">SUBSTITUTE(D10, ".", " ")</f>
+        <f t="shared" si="4"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="U10" s="62" t="str">
-        <f t="shared" ref="U10:U11" si="13">SUBSTITUTE(E10, ".", " ")</f>
+        <f t="shared" si="5"/>
         <v>Perfis L</v>
       </c>
       <c r="V10" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W10" s="30" t="str">
-        <f t="shared" ref="W10:W11" si="14">CONCATENATE("k.",LOWER(LEFT(D10,2)),LOWER(LEFT(E10,4)),".",A10)</f>
+        <f t="shared" si="6"/>
         <v>k.peperf.10</v>
       </c>
       <c r="X10" s="55" t="s">
@@ -5256,19 +5256,19 @@
         <v>9</v>
       </c>
       <c r="L11" s="25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Estrutural</v>
       </c>
       <c r="M11" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N11" s="25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Perfis L</v>
       </c>
       <c r="O11" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Cantoneira Abas Desiguais</v>
       </c>
       <c r="P11" s="25" t="s">
@@ -5281,22 +5281,22 @@
         <v>9</v>
       </c>
       <c r="S11" s="62" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T11" s="62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="U11" s="62" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>Perfis L</v>
       </c>
       <c r="V11" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W11" s="30" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>k.peperf.11</v>
       </c>
       <c r="X11" s="55" t="s">
@@ -5341,19 +5341,19 @@
         <v>9</v>
       </c>
       <c r="L12" s="25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Estrutural</v>
       </c>
       <c r="M12" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N12" s="25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Perfis S</v>
       </c>
       <c r="O12" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Perfil Sigma</v>
       </c>
       <c r="P12" s="25" t="s">
@@ -5366,22 +5366,22 @@
         <v>9</v>
       </c>
       <c r="S12" s="62" t="str">
-        <f t="shared" ref="S12" si="15">SUBSTITUTE(C12, ".", " ")</f>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T12" s="62" t="str">
-        <f t="shared" ref="T12" si="16">SUBSTITUTE(D12, ".", " ")</f>
+        <f t="shared" si="4"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="U12" s="62" t="str">
-        <f t="shared" ref="U12" si="17">SUBSTITUTE(E12, ".", " ")</f>
+        <f t="shared" si="5"/>
         <v>Perfis S</v>
       </c>
       <c r="V12" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W12" s="30" t="str">
-        <f t="shared" ref="W12" si="18">CONCATENATE("k.",LOWER(LEFT(D12,2)),LOWER(LEFT(E12,4)),".",A12)</f>
+        <f t="shared" si="6"/>
         <v>k.peperf.12</v>
       </c>
       <c r="X12" s="55" t="s">
@@ -5426,19 +5426,19 @@
         <v>9</v>
       </c>
       <c r="L13" s="25" t="str">
-        <f t="shared" ref="L13" si="19">_xlfn.CONCAT(SUBSTITUTE(C13,"1.",""))</f>
+        <f t="shared" ref="L13" si="12">_xlfn.CONCAT(SUBSTITUTE(C13,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M13" s="25" t="str">
-        <f t="shared" ref="M13" si="20">_xlfn.CONCAT(SUBSTITUTE(D13,"."," "))</f>
+        <f t="shared" ref="M13" si="13">_xlfn.CONCAT(SUBSTITUTE(D13,"."," "))</f>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N13" s="25" t="str">
-        <f t="shared" ref="N13" si="21">_xlfn.CONCAT(SUBSTITUTE(E13,"."," "))</f>
+        <f t="shared" ref="N13" si="14">_xlfn.CONCAT(SUBSTITUTE(E13,"."," "))</f>
         <v>Perfis T</v>
       </c>
       <c r="O13" s="25" t="str">
-        <f t="shared" ref="O13" si="22">_xlfn.CONCAT(SUBSTITUTE(F13,"."," "))</f>
+        <f t="shared" ref="O13" si="15">_xlfn.CONCAT(SUBSTITUTE(F13,"."," "))</f>
         <v>Perfil T</v>
       </c>
       <c r="P13" s="25" t="s">
@@ -5466,7 +5466,7 @@
         <v>734</v>
       </c>
       <c r="W13" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.peperf.13</v>
       </c>
       <c r="X13" s="55" t="s">
@@ -5511,19 +5511,19 @@
         <v>9</v>
       </c>
       <c r="L14" s="25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Estrutural</v>
       </c>
       <c r="M14" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N14" s="25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Perfis U</v>
       </c>
       <c r="O14" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Perfil U</v>
       </c>
       <c r="P14" s="25" t="s">
@@ -5551,7 +5551,7 @@
         <v>734</v>
       </c>
       <c r="W14" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.peperf.14</v>
       </c>
       <c r="X14" s="55" t="s">
@@ -5596,19 +5596,19 @@
         <v>9</v>
       </c>
       <c r="L15" s="25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Estrutural</v>
       </c>
       <c r="M15" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N15" s="25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Perfis U</v>
       </c>
       <c r="O15" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Perfil UE</v>
       </c>
       <c r="P15" s="25" t="s">
@@ -5621,22 +5621,22 @@
         <v>9</v>
       </c>
       <c r="S15" s="62" t="str">
-        <f t="shared" ref="S15:S19" si="23">SUBSTITUTE(C15, ".", " ")</f>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T15" s="62" t="str">
-        <f t="shared" ref="T15:T19" si="24">SUBSTITUTE(D15, ".", " ")</f>
+        <f t="shared" si="4"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="U15" s="62" t="str">
-        <f t="shared" ref="U15:U19" si="25">SUBSTITUTE(E15, ".", " ")</f>
+        <f t="shared" si="5"/>
         <v>Perfis U</v>
       </c>
       <c r="V15" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W15" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.peperf.15</v>
       </c>
       <c r="X15" s="55" t="s">
@@ -5681,19 +5681,19 @@
         <v>9</v>
       </c>
       <c r="L16" s="25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Estrutural</v>
       </c>
       <c r="M16" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N16" s="25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Perfis Z</v>
       </c>
       <c r="O16" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Perfil Z</v>
       </c>
       <c r="P16" s="25" t="s">
@@ -5706,22 +5706,22 @@
         <v>9</v>
       </c>
       <c r="S16" s="62" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T16" s="62" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="U16" s="62" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="5"/>
         <v>Perfis Z</v>
       </c>
       <c r="V16" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W16" s="30" t="str">
-        <f t="shared" ref="W16:W19" si="26">CONCATENATE("k.",LOWER(LEFT(D16,2)),LOWER(LEFT(E16,4)),".",A16)</f>
+        <f t="shared" si="6"/>
         <v>k.peperf.16</v>
       </c>
       <c r="X16" s="55" t="s">
@@ -5766,19 +5766,19 @@
         <v>9</v>
       </c>
       <c r="L17" s="25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Estrutural</v>
       </c>
       <c r="M17" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N17" s="25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Perfis Tubulares</v>
       </c>
       <c r="O17" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Seção Circular</v>
       </c>
       <c r="P17" s="25" t="s">
@@ -5791,22 +5791,22 @@
         <v>9</v>
       </c>
       <c r="S17" s="62" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T17" s="62" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="U17" s="62" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="5"/>
         <v>Perfis Tubulares</v>
       </c>
       <c r="V17" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W17" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>k.peperf.17</v>
       </c>
       <c r="X17" s="55" t="s">
@@ -5851,19 +5851,19 @@
         <v>9</v>
       </c>
       <c r="L18" s="25" t="str">
-        <f t="shared" ref="L18" si="27">_xlfn.CONCAT(SUBSTITUTE(C18,"1.",""))</f>
+        <f t="shared" ref="L18" si="16">_xlfn.CONCAT(SUBSTITUTE(C18,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M18" s="25" t="str">
-        <f t="shared" ref="M18" si="28">_xlfn.CONCAT(SUBSTITUTE(D18,"."," "))</f>
+        <f t="shared" ref="M18" si="17">_xlfn.CONCAT(SUBSTITUTE(D18,"."," "))</f>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N18" s="25" t="str">
-        <f t="shared" ref="N18" si="29">_xlfn.CONCAT(SUBSTITUTE(E18,"."," "))</f>
+        <f t="shared" ref="N18" si="18">_xlfn.CONCAT(SUBSTITUTE(E18,"."," "))</f>
         <v>Perfis Tubulares</v>
       </c>
       <c r="O18" s="25" t="str">
-        <f t="shared" ref="O18" si="30">_xlfn.CONCAT(SUBSTITUTE(F18,"."," "))</f>
+        <f t="shared" ref="O18" si="19">_xlfn.CONCAT(SUBSTITUTE(F18,"."," "))</f>
         <v>Seção Quadrada</v>
       </c>
       <c r="P18" s="25" t="s">
@@ -5876,22 +5876,22 @@
         <v>9</v>
       </c>
       <c r="S18" s="62" t="str">
-        <f t="shared" ref="S18" si="31">SUBSTITUTE(C18, ".", " ")</f>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T18" s="62" t="str">
-        <f t="shared" ref="T18" si="32">SUBSTITUTE(D18, ".", " ")</f>
+        <f t="shared" si="4"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="U18" s="62" t="str">
-        <f t="shared" ref="U18" si="33">SUBSTITUTE(E18, ".", " ")</f>
+        <f t="shared" si="5"/>
         <v>Perfis Tubulares</v>
       </c>
       <c r="V18" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W18" s="30" t="str">
-        <f t="shared" ref="W18" si="34">CONCATENATE("k.",LOWER(LEFT(D18,2)),LOWER(LEFT(E18,4)),".",A18)</f>
+        <f t="shared" si="6"/>
         <v>k.peperf.18</v>
       </c>
       <c r="X18" s="55" t="s">
@@ -5936,19 +5936,19 @@
         <v>9</v>
       </c>
       <c r="L19" s="25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Estrutural</v>
       </c>
       <c r="M19" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N19" s="25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Perfis Tubulares</v>
       </c>
       <c r="O19" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Seção Retangular</v>
       </c>
       <c r="P19" s="25" t="s">
@@ -5961,22 +5961,22 @@
         <v>9</v>
       </c>
       <c r="S19" s="62" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T19" s="62" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="U19" s="62" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="5"/>
         <v>Perfis Tubulares</v>
       </c>
       <c r="V19" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W19" s="30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="6"/>
         <v>k.peperf.19</v>
       </c>
       <c r="X19" s="55" t="s">
@@ -6021,19 +6021,19 @@
         <v>9</v>
       </c>
       <c r="L20" s="25" t="str">
-        <f t="shared" ref="L20:L92" si="35">_xlfn.CONCAT(SUBSTITUTE(C20,"1.",""))</f>
+        <f t="shared" ref="L20:L92" si="20">_xlfn.CONCAT(SUBSTITUTE(C20,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M20" s="25" t="str">
-        <f t="shared" ref="M20" si="36">_xlfn.CONCAT(SUBSTITUTE(D20,"."," "))</f>
+        <f t="shared" ref="M20" si="21">_xlfn.CONCAT(SUBSTITUTE(D20,"."," "))</f>
         <v>Emplacados</v>
       </c>
       <c r="N20" s="25" t="str">
-        <f t="shared" ref="N20" si="37">_xlfn.CONCAT(SUBSTITUTE(E20,"."," "))</f>
+        <f t="shared" ref="N20" si="22">_xlfn.CONCAT(SUBSTITUTE(E20,"."," "))</f>
         <v>Placas</v>
       </c>
       <c r="O20" s="25" t="str">
-        <f t="shared" ref="O20:O30" si="38">_xlfn.CONCAT(SUBSTITUTE(F20,"."," "))</f>
+        <f t="shared" ref="O20:O30" si="23">_xlfn.CONCAT(SUBSTITUTE(F20,"."," "))</f>
         <v>Placa de Base</v>
       </c>
       <c r="P20" s="25" t="s">
@@ -6061,7 +6061,7 @@
         <v>734</v>
       </c>
       <c r="W20" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.emplac.20</v>
       </c>
       <c r="X20" s="55" t="s">
@@ -6106,19 +6106,19 @@
         <v>9</v>
       </c>
       <c r="L21" s="25" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>Estrutural</v>
       </c>
       <c r="M21" s="25" t="str">
-        <f t="shared" ref="M21:M71" si="39">_xlfn.CONCAT(SUBSTITUTE(D21,"."," "))</f>
+        <f t="shared" ref="M21:M71" si="24">_xlfn.CONCAT(SUBSTITUTE(D21,"."," "))</f>
         <v>Emplacados</v>
       </c>
       <c r="N21" s="25" t="str">
-        <f t="shared" ref="N21:N71" si="40">_xlfn.CONCAT(SUBSTITUTE(E21,"."," "))</f>
+        <f t="shared" ref="N21:N71" si="25">_xlfn.CONCAT(SUBSTITUTE(E21,"."," "))</f>
         <v>Placas</v>
       </c>
       <c r="O21" s="25" t="str">
-        <f t="shared" ref="O21:O28" si="41">_xlfn.CONCAT(SUBSTITUTE(F21,"."," "))</f>
+        <f t="shared" ref="O21:O28" si="26">_xlfn.CONCAT(SUBSTITUTE(F21,"."," "))</f>
         <v>Placa Enrijecedora</v>
       </c>
       <c r="P21" s="25" t="s">
@@ -6146,7 +6146,7 @@
         <v>734</v>
       </c>
       <c r="W21" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.emplac.21</v>
       </c>
       <c r="X21" s="55" t="s">
@@ -6191,19 +6191,19 @@
         <v>9</v>
       </c>
       <c r="L22" s="25" t="str">
-        <f t="shared" ref="L22:L28" si="42">_xlfn.CONCAT(SUBSTITUTE(C22,"1.",""))</f>
+        <f t="shared" ref="L22:L28" si="27">_xlfn.CONCAT(SUBSTITUTE(C22,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M22" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="24"/>
         <v>Emplacados</v>
       </c>
       <c r="N22" s="25" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="25"/>
         <v>Placas</v>
       </c>
       <c r="O22" s="25" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="26"/>
         <v>Placa de Interface</v>
       </c>
       <c r="P22" s="25" t="s">
@@ -6231,7 +6231,7 @@
         <v>734</v>
       </c>
       <c r="W22" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.emplac.22</v>
       </c>
       <c r="X22" s="55" t="s">
@@ -6276,19 +6276,19 @@
         <v>9</v>
       </c>
       <c r="L23" s="25" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="27"/>
         <v>Estrutural</v>
       </c>
       <c r="M23" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="24"/>
         <v>Emplacados</v>
       </c>
       <c r="N23" s="25" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="25"/>
         <v>Placas</v>
       </c>
       <c r="O23" s="25" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="26"/>
         <v>Placa de Emenda</v>
       </c>
       <c r="P23" s="25" t="s">
@@ -6316,7 +6316,7 @@
         <v>734</v>
       </c>
       <c r="W23" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.emplac.23</v>
       </c>
       <c r="X23" s="55" t="s">
@@ -6361,19 +6361,19 @@
         <v>9</v>
       </c>
       <c r="L24" s="25" t="str">
-        <f t="shared" ref="L24:L27" si="43">_xlfn.CONCAT(SUBSTITUTE(C24,"1.",""))</f>
+        <f t="shared" ref="L24:L27" si="28">_xlfn.CONCAT(SUBSTITUTE(C24,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M24" s="25" t="str">
-        <f t="shared" ref="M24:M27" si="44">_xlfn.CONCAT(SUBSTITUTE(D24,"."," "))</f>
+        <f t="shared" ref="M24:M27" si="29">_xlfn.CONCAT(SUBSTITUTE(D24,"."," "))</f>
         <v>Emplacados</v>
       </c>
       <c r="N24" s="25" t="str">
-        <f t="shared" ref="N24:N27" si="45">_xlfn.CONCAT(SUBSTITUTE(E24,"."," "))</f>
+        <f t="shared" ref="N24:N27" si="30">_xlfn.CONCAT(SUBSTITUTE(E24,"."," "))</f>
         <v>Placas</v>
       </c>
       <c r="O24" s="25" t="str">
-        <f t="shared" ref="O24:O27" si="46">_xlfn.CONCAT(SUBSTITUTE(F24,"."," "))</f>
+        <f t="shared" ref="O24:O27" si="31">_xlfn.CONCAT(SUBSTITUTE(F24,"."," "))</f>
         <v>Placa de Fechamento</v>
       </c>
       <c r="P24" s="25" t="s">
@@ -6386,22 +6386,22 @@
         <v>9</v>
       </c>
       <c r="S24" s="62" t="str">
-        <f t="shared" ref="S24:S27" si="47">SUBSTITUTE(C24, ".", " ")</f>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T24" s="62" t="str">
-        <f t="shared" ref="T24:T27" si="48">SUBSTITUTE(D24, ".", " ")</f>
+        <f t="shared" si="4"/>
         <v>Emplacados</v>
       </c>
       <c r="U24" s="62" t="str">
-        <f t="shared" ref="U24:U27" si="49">SUBSTITUTE(E24, ".", " ")</f>
+        <f t="shared" si="5"/>
         <v>Placas</v>
       </c>
       <c r="V24" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W24" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.emplac.24</v>
       </c>
       <c r="X24" s="55" t="s">
@@ -6443,22 +6443,22 @@
         <v>9</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="L25" s="25" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="28"/>
         <v>Estrutural</v>
       </c>
       <c r="M25" s="25" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="29"/>
         <v>Emplacados</v>
       </c>
       <c r="N25" s="25" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="30"/>
         <v>Placas</v>
       </c>
       <c r="O25" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>Placa de Mísula</v>
       </c>
       <c r="P25" s="25" t="s">
@@ -6471,22 +6471,22 @@
         <v>9</v>
       </c>
       <c r="S25" s="62" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T25" s="62" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="4"/>
         <v>Emplacados</v>
       </c>
       <c r="U25" s="62" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="5"/>
         <v>Placas</v>
       </c>
       <c r="V25" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W25" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.emplac.25</v>
       </c>
       <c r="X25" s="55" t="s">
@@ -6528,22 +6528,22 @@
         <v>9</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L26" s="25" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="28"/>
         <v>Estrutural</v>
       </c>
       <c r="M26" s="25" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="29"/>
         <v>Emplacados</v>
       </c>
       <c r="N26" s="25" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="30"/>
         <v>Placas</v>
       </c>
       <c r="O26" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>Placa de Cumeeira</v>
       </c>
       <c r="P26" s="25" t="s">
@@ -6556,22 +6556,22 @@
         <v>9</v>
       </c>
       <c r="S26" s="62" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T26" s="62" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="4"/>
         <v>Emplacados</v>
       </c>
       <c r="U26" s="62" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="5"/>
         <v>Placas</v>
       </c>
       <c r="V26" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W26" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.emplac.26</v>
       </c>
       <c r="X26" s="55" t="s">
@@ -6598,7 +6598,7 @@
         <v>686</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>9</v>
@@ -6616,47 +6616,47 @@
         <v>847</v>
       </c>
       <c r="L27" s="25" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="28"/>
         <v>Estrutural</v>
       </c>
       <c r="M27" s="25" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="29"/>
         <v>Emplacados</v>
       </c>
       <c r="N27" s="25" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="30"/>
         <v>Placas</v>
       </c>
       <c r="O27" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>Placa Gusset</v>
       </c>
       <c r="P27" s="25" t="s">
+        <v>971</v>
+      </c>
+      <c r="Q27" s="29" t="s">
         <v>972</v>
       </c>
-      <c r="Q27" s="29" t="s">
-        <v>973</v>
-      </c>
       <c r="R27" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S27" s="62" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T27" s="62" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="4"/>
         <v>Emplacados</v>
       </c>
       <c r="U27" s="62" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="5"/>
         <v>Placas</v>
       </c>
       <c r="V27" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W27" s="30" t="str">
-        <f t="shared" ref="W27" si="50">CONCATENATE("k.",LOWER(LEFT(D27,2)),LOWER(LEFT(E27,4)),".",A27)</f>
+        <f t="shared" si="6"/>
         <v>k.emplac.27</v>
       </c>
       <c r="X27" s="55" t="s">
@@ -6677,50 +6677,50 @@
         <v>937</v>
       </c>
       <c r="D28" s="18" t="s">
+        <v>964</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>965</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="F28" s="18" t="s">
         <v>966</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="G28" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="25" t="str">
+        <f t="shared" si="27"/>
+        <v>Estrutural</v>
+      </c>
+      <c r="M28" s="25" t="str">
+        <f t="shared" si="24"/>
+        <v>Chapas</v>
+      </c>
+      <c r="N28" s="25" t="str">
+        <f t="shared" si="25"/>
+        <v>SteelDecks</v>
+      </c>
+      <c r="O28" s="25" t="str">
+        <f t="shared" si="26"/>
+        <v>SteelDeck Trapezoidal</v>
+      </c>
+      <c r="P28" s="25" t="s">
         <v>967</v>
       </c>
-      <c r="G28" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28" s="25" t="str">
-        <f t="shared" si="42"/>
-        <v>Estrutural</v>
-      </c>
-      <c r="M28" s="25" t="str">
-        <f t="shared" si="39"/>
-        <v>Chapas</v>
-      </c>
-      <c r="N28" s="25" t="str">
-        <f t="shared" si="40"/>
-        <v>SteelDecks</v>
-      </c>
-      <c r="O28" s="25" t="str">
-        <f t="shared" si="41"/>
-        <v>SteelDeck Trapezoidal</v>
-      </c>
-      <c r="P28" s="25" t="s">
+      <c r="Q28" s="29" t="s">
         <v>968</v>
-      </c>
-      <c r="Q28" s="29" t="s">
-        <v>969</v>
       </c>
       <c r="R28" s="61" t="s">
         <v>9</v>
@@ -6741,14 +6741,14 @@
         <v>734</v>
       </c>
       <c r="W28" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.chstee.28</v>
       </c>
       <c r="X28" s="55" t="s">
+        <v>969</v>
+      </c>
+      <c r="Y28" s="55" t="s">
         <v>970</v>
-      </c>
-      <c r="Y28" s="55" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6786,19 +6786,19 @@
         <v>9</v>
       </c>
       <c r="L29" s="25" t="str">
-        <f t="shared" ref="L29" si="51">_xlfn.CONCAT(SUBSTITUTE(C29,"1.",""))</f>
+        <f t="shared" ref="L29" si="32">_xlfn.CONCAT(SUBSTITUTE(C29,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M29" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="24"/>
         <v>Barras</v>
       </c>
       <c r="N29" s="25" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="25"/>
         <v>Barras Laminadas</v>
       </c>
       <c r="O29" s="25" t="str">
-        <f t="shared" ref="O29" si="52">_xlfn.CONCAT(SUBSTITUTE(F29,"."," "))</f>
+        <f t="shared" ref="O29" si="33">_xlfn.CONCAT(SUBSTITUTE(F29,"."," "))</f>
         <v>Barra Redonda</v>
       </c>
       <c r="P29" s="25" t="s">
@@ -6826,7 +6826,7 @@
         <v>734</v>
       </c>
       <c r="W29" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.babarr.29</v>
       </c>
       <c r="X29" s="55" t="s">
@@ -6871,19 +6871,19 @@
         <v>9</v>
       </c>
       <c r="L30" s="25" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>Estrutural</v>
       </c>
       <c r="M30" s="25" t="str">
-        <f t="shared" ref="M30" si="53">_xlfn.CONCAT(SUBSTITUTE(D30,"."," "))</f>
+        <f t="shared" ref="M30" si="34">_xlfn.CONCAT(SUBSTITUTE(D30,"."," "))</f>
         <v>Barras</v>
       </c>
       <c r="N30" s="25" t="str">
-        <f t="shared" ref="N30" si="54">_xlfn.CONCAT(SUBSTITUTE(E30,"."," "))</f>
+        <f t="shared" ref="N30" si="35">_xlfn.CONCAT(SUBSTITUTE(E30,"."," "))</f>
         <v>Barras Laminadas</v>
       </c>
       <c r="O30" s="25" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="23"/>
         <v>Barra Quadrada</v>
       </c>
       <c r="P30" s="25" t="s">
@@ -6911,7 +6911,7 @@
         <v>734</v>
       </c>
       <c r="W30" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.babarr.30</v>
       </c>
       <c r="X30" s="55" t="s">
@@ -6956,19 +6956,19 @@
         <v>9</v>
       </c>
       <c r="L31" s="25" t="str">
-        <f t="shared" ref="L31:L64" si="55">_xlfn.CONCAT(SUBSTITUTE(C31,"1.",""))</f>
+        <f t="shared" ref="L31:L64" si="36">_xlfn.CONCAT(SUBSTITUTE(C31,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M31" s="25" t="str">
-        <f t="shared" ref="M31:M64" si="56">_xlfn.CONCAT(SUBSTITUTE(D31,"."," "))</f>
+        <f t="shared" ref="M31:M64" si="37">_xlfn.CONCAT(SUBSTITUTE(D31,"."," "))</f>
         <v>Barras</v>
       </c>
       <c r="N31" s="25" t="str">
-        <f t="shared" ref="N31:N64" si="57">_xlfn.CONCAT(SUBSTITUTE(E31,"."," "))</f>
+        <f t="shared" ref="N31:N64" si="38">_xlfn.CONCAT(SUBSTITUTE(E31,"."," "))</f>
         <v>Barras Laminadas</v>
       </c>
       <c r="O31" s="25" t="str">
-        <f t="shared" ref="O31:O64" si="58">_xlfn.CONCAT(SUBSTITUTE(F31,"."," "))</f>
+        <f t="shared" ref="O31:O64" si="39">_xlfn.CONCAT(SUBSTITUTE(F31,"."," "))</f>
         <v>Barra Hexagonal</v>
       </c>
       <c r="P31" s="25" t="s">
@@ -6996,7 +6996,7 @@
         <v>734</v>
       </c>
       <c r="W31" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.babarr.31</v>
       </c>
       <c r="X31" s="55" t="s">
@@ -7041,19 +7041,19 @@
         <v>9</v>
       </c>
       <c r="L32" s="25" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="36"/>
         <v>Estrutural</v>
       </c>
       <c r="M32" s="25" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="37"/>
         <v>Barras</v>
       </c>
       <c r="N32" s="25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="38"/>
         <v>Barras Laminadas</v>
       </c>
       <c r="O32" s="25" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="39"/>
         <v>Barra Chata</v>
       </c>
       <c r="P32" s="25" t="s">
@@ -7081,7 +7081,7 @@
         <v>734</v>
       </c>
       <c r="W32" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.babarr.32</v>
       </c>
       <c r="X32" s="55" t="s">
@@ -7126,19 +7126,19 @@
         <v>9</v>
       </c>
       <c r="L33" s="25" t="str">
-        <f t="shared" ref="L33" si="59">_xlfn.CONCAT(SUBSTITUTE(C33,"1.",""))</f>
+        <f t="shared" ref="L33" si="40">_xlfn.CONCAT(SUBSTITUTE(C33,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M33" s="25" t="str">
-        <f t="shared" ref="M33" si="60">_xlfn.CONCAT(SUBSTITUTE(D33,"."," "))</f>
+        <f t="shared" ref="M33" si="41">_xlfn.CONCAT(SUBSTITUTE(D33,"."," "))</f>
         <v>Barras</v>
       </c>
       <c r="N33" s="25" t="str">
-        <f t="shared" ref="N33" si="61">_xlfn.CONCAT(SUBSTITUTE(E33,"."," "))</f>
+        <f t="shared" ref="N33" si="42">_xlfn.CONCAT(SUBSTITUTE(E33,"."," "))</f>
         <v>Barras Trefiladas</v>
       </c>
       <c r="O33" s="25" t="str">
-        <f t="shared" ref="O33" si="62">_xlfn.CONCAT(SUBSTITUTE(F33,"."," "))</f>
+        <f t="shared" ref="O33" si="43">_xlfn.CONCAT(SUBSTITUTE(F33,"."," "))</f>
         <v>Barra Trefilada Redonda</v>
       </c>
       <c r="P33" s="25" t="s">
@@ -7166,7 +7166,7 @@
         <v>734</v>
       </c>
       <c r="W33" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.babarr.33</v>
       </c>
       <c r="X33" s="55" t="s">
@@ -7211,19 +7211,19 @@
         <v>9</v>
       </c>
       <c r="L34" s="25" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="36"/>
         <v>Estrutural</v>
       </c>
       <c r="M34" s="25" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="37"/>
         <v>Barras</v>
       </c>
       <c r="N34" s="25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="38"/>
         <v>Barras Trefiladas</v>
       </c>
       <c r="O34" s="25" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="39"/>
         <v>Barra Trefilada Quadrada</v>
       </c>
       <c r="P34" s="25" t="s">
@@ -7251,7 +7251,7 @@
         <v>734</v>
       </c>
       <c r="W34" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.babarr.34</v>
       </c>
       <c r="X34" s="55" t="s">
@@ -7296,19 +7296,19 @@
         <v>9</v>
       </c>
       <c r="L35" s="25" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="36"/>
         <v>Estrutural</v>
       </c>
       <c r="M35" s="25" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="37"/>
         <v>Barras</v>
       </c>
       <c r="N35" s="25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="38"/>
         <v>Barras Trefiladas</v>
       </c>
       <c r="O35" s="25" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="39"/>
         <v>Barra Trefilada Hexagonal</v>
       </c>
       <c r="P35" s="25" t="s">
@@ -7336,7 +7336,7 @@
         <v>734</v>
       </c>
       <c r="W35" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.babarr.35</v>
       </c>
       <c r="X35" s="55" t="s">
@@ -7381,19 +7381,19 @@
         <v>9</v>
       </c>
       <c r="L36" s="25" t="str">
-        <f t="shared" ref="L36:L44" si="63">_xlfn.CONCAT(SUBSTITUTE(C36,"1.",""))</f>
+        <f t="shared" ref="L36:L44" si="44">_xlfn.CONCAT(SUBSTITUTE(C36,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M36" s="25" t="str">
-        <f t="shared" ref="M36:M44" si="64">_xlfn.CONCAT(SUBSTITUTE(D36,"."," "))</f>
+        <f t="shared" ref="M36:M44" si="45">_xlfn.CONCAT(SUBSTITUTE(D36,"."," "))</f>
         <v>Barras</v>
       </c>
       <c r="N36" s="25" t="str">
-        <f t="shared" ref="N36:N44" si="65">_xlfn.CONCAT(SUBSTITUTE(E36,"."," "))</f>
+        <f t="shared" ref="N36:N44" si="46">_xlfn.CONCAT(SUBSTITUTE(E36,"."," "))</f>
         <v>Barras de Armaduras</v>
       </c>
       <c r="O36" s="25" t="str">
-        <f t="shared" ref="O36:O44" si="66">_xlfn.CONCAT(SUBSTITUTE(F36,"."," "))</f>
+        <f t="shared" ref="O36:O44" si="47">_xlfn.CONCAT(SUBSTITUTE(F36,"."," "))</f>
         <v>Barra Vergalhão</v>
       </c>
       <c r="P36" s="25" t="s">
@@ -7421,7 +7421,7 @@
         <v>734</v>
       </c>
       <c r="W36" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.babarr.36</v>
       </c>
       <c r="X36" s="55" t="s">
@@ -7466,19 +7466,19 @@
         <v>9</v>
       </c>
       <c r="L37" s="25" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="44"/>
         <v>Estrutural</v>
       </c>
       <c r="M37" s="25" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="45"/>
         <v>Barras</v>
       </c>
       <c r="N37" s="25" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="46"/>
         <v>Barras de Armaduras</v>
       </c>
       <c r="O37" s="25" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="47"/>
         <v>Barra Lisa</v>
       </c>
       <c r="P37" s="25" t="s">
@@ -7506,7 +7506,7 @@
         <v>734</v>
       </c>
       <c r="W37" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.babarr.37</v>
       </c>
       <c r="X37" s="55" t="s">
@@ -7551,19 +7551,19 @@
         <v>9</v>
       </c>
       <c r="L38" s="25" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="44"/>
         <v>Estrutural</v>
       </c>
       <c r="M38" s="25" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="45"/>
         <v>Barras</v>
       </c>
       <c r="N38" s="25" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="46"/>
         <v>Barras de Armaduras</v>
       </c>
       <c r="O38" s="25" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="47"/>
         <v>Barra Nervurada</v>
       </c>
       <c r="P38" s="25" t="s">
@@ -7576,22 +7576,22 @@
         <v>9</v>
       </c>
       <c r="S38" s="62" t="str">
-        <f t="shared" ref="S38:S44" si="67">SUBSTITUTE(C38, ".", " ")</f>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T38" s="62" t="str">
-        <f t="shared" ref="T38:T44" si="68">SUBSTITUTE(D38, ".", " ")</f>
+        <f t="shared" si="4"/>
         <v>Barras</v>
       </c>
       <c r="U38" s="62" t="str">
-        <f t="shared" ref="U38:U44" si="69">SUBSTITUTE(E38, ".", " ")</f>
+        <f t="shared" si="5"/>
         <v>Barras de Armaduras</v>
       </c>
       <c r="V38" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W38" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.babarr.38</v>
       </c>
       <c r="X38" s="55" t="s">
@@ -7636,19 +7636,19 @@
         <v>859</v>
       </c>
       <c r="L39" s="25" t="str">
-        <f t="shared" ref="L39" si="70">_xlfn.CONCAT(SUBSTITUTE(C39,"1.",""))</f>
+        <f t="shared" ref="L39" si="48">_xlfn.CONCAT(SUBSTITUTE(C39,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M39" s="25" t="str">
-        <f t="shared" ref="M39" si="71">_xlfn.CONCAT(SUBSTITUTE(D39,"."," "))</f>
+        <f t="shared" ref="M39" si="49">_xlfn.CONCAT(SUBSTITUTE(D39,"."," "))</f>
         <v>Barras</v>
       </c>
       <c r="N39" s="25" t="str">
-        <f t="shared" ref="N39" si="72">_xlfn.CONCAT(SUBSTITUTE(E39,"."," "))</f>
+        <f t="shared" ref="N39" si="50">_xlfn.CONCAT(SUBSTITUTE(E39,"."," "))</f>
         <v>Barras Contraventamentos</v>
       </c>
       <c r="O39" s="25" t="str">
-        <f t="shared" ref="O39" si="73">_xlfn.CONCAT(SUBSTITUTE(F39,"."," "))</f>
+        <f t="shared" ref="O39" si="51">_xlfn.CONCAT(SUBSTITUTE(F39,"."," "))</f>
         <v>Barra Contraventamento</v>
       </c>
       <c r="P39" s="25" t="s">
@@ -7661,26 +7661,26 @@
         <v>9</v>
       </c>
       <c r="S39" s="62" t="str">
-        <f t="shared" ref="S39" si="74">SUBSTITUTE(C39, ".", " ")</f>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T39" s="62" t="str">
-        <f t="shared" ref="T39" si="75">SUBSTITUTE(D39, ".", " ")</f>
+        <f t="shared" si="4"/>
         <v>Barras</v>
       </c>
       <c r="U39" s="62" t="str">
-        <f t="shared" ref="U39" si="76">SUBSTITUTE(E39, ".", " ")</f>
+        <f t="shared" si="5"/>
         <v>Barras Contraventamentos</v>
       </c>
       <c r="V39" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W39" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.babarr.39</v>
       </c>
       <c r="X39" s="55" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="Y39" s="55" t="s">
         <v>825</v>
@@ -7721,19 +7721,19 @@
         <v>859</v>
       </c>
       <c r="L40" s="25" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="44"/>
         <v>Estrutural</v>
       </c>
       <c r="M40" s="25" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="45"/>
         <v>Barras</v>
       </c>
       <c r="N40" s="25" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="46"/>
         <v>Barras Contraventamentos</v>
       </c>
       <c r="O40" s="25" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="47"/>
         <v>Barra Comprimida</v>
       </c>
       <c r="P40" s="25" t="s">
@@ -7746,26 +7746,26 @@
         <v>9</v>
       </c>
       <c r="S40" s="62" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T40" s="62" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="4"/>
         <v>Barras</v>
       </c>
       <c r="U40" s="62" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="5"/>
         <v>Barras Contraventamentos</v>
       </c>
       <c r="V40" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W40" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.babarr.40</v>
       </c>
       <c r="X40" s="55" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="Y40" s="55" t="s">
         <v>825</v>
@@ -7806,19 +7806,19 @@
         <v>859</v>
       </c>
       <c r="L41" s="25" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="44"/>
         <v>Estrutural</v>
       </c>
       <c r="M41" s="25" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="45"/>
         <v>Barras</v>
       </c>
       <c r="N41" s="25" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="46"/>
         <v>Barras Contraventamentos</v>
       </c>
       <c r="O41" s="25" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="47"/>
         <v>Barra Tracionada</v>
       </c>
       <c r="P41" s="25" t="s">
@@ -7831,26 +7831,26 @@
         <v>9</v>
       </c>
       <c r="S41" s="62" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T41" s="62" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="4"/>
         <v>Barras</v>
       </c>
       <c r="U41" s="62" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="5"/>
         <v>Barras Contraventamentos</v>
       </c>
       <c r="V41" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W41" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.babarr.41</v>
       </c>
       <c r="X41" s="55" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="Y41" s="55" t="s">
         <v>825</v>
@@ -7891,19 +7891,19 @@
         <v>861</v>
       </c>
       <c r="L42" s="25" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="44"/>
         <v>Estrutural</v>
       </c>
       <c r="M42" s="25" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="45"/>
         <v>Barras</v>
       </c>
       <c r="N42" s="25" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="46"/>
         <v>Barras Montantes</v>
       </c>
       <c r="O42" s="25" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="47"/>
         <v>Barra Montante</v>
       </c>
       <c r="P42" s="25" t="s">
@@ -7916,22 +7916,22 @@
         <v>9</v>
       </c>
       <c r="S42" s="62" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T42" s="62" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="4"/>
         <v>Barras</v>
       </c>
       <c r="U42" s="62" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="5"/>
         <v>Barras Montantes</v>
       </c>
       <c r="V42" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W42" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.babarr.42</v>
       </c>
       <c r="X42" s="55" t="s">
@@ -7976,19 +7976,19 @@
         <v>862</v>
       </c>
       <c r="L43" s="25" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="44"/>
         <v>Estrutural</v>
       </c>
       <c r="M43" s="25" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="45"/>
         <v>Barras</v>
       </c>
       <c r="N43" s="25" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="46"/>
         <v>Barras Diagonais</v>
       </c>
       <c r="O43" s="25" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="47"/>
         <v>Barra Diagonal</v>
       </c>
       <c r="P43" s="25" t="s">
@@ -8001,22 +8001,22 @@
         <v>9</v>
       </c>
       <c r="S43" s="62" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T43" s="62" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="4"/>
         <v>Barras</v>
       </c>
       <c r="U43" s="62" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="5"/>
         <v>Barras Diagonais</v>
       </c>
       <c r="V43" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W43" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.babarr.43</v>
       </c>
       <c r="X43" s="55" t="s">
@@ -8061,19 +8061,19 @@
         <v>863</v>
       </c>
       <c r="L44" s="25" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="44"/>
         <v>Estrutural</v>
       </c>
       <c r="M44" s="25" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="45"/>
         <v>Barras</v>
       </c>
       <c r="N44" s="25" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="46"/>
         <v>Banzos</v>
       </c>
       <c r="O44" s="25" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="47"/>
         <v>Banzo Superior</v>
       </c>
       <c r="P44" s="25" t="s">
@@ -8086,22 +8086,22 @@
         <v>9</v>
       </c>
       <c r="S44" s="62" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T44" s="62" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="4"/>
         <v>Barras</v>
       </c>
       <c r="U44" s="62" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="5"/>
         <v>Banzos</v>
       </c>
       <c r="V44" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W44" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.babanz.44</v>
       </c>
       <c r="X44" s="55" t="s">
@@ -8146,19 +8146,19 @@
         <v>864</v>
       </c>
       <c r="L45" s="25" t="str">
-        <f t="shared" ref="L45" si="77">_xlfn.CONCAT(SUBSTITUTE(C45,"1.",""))</f>
+        <f t="shared" ref="L45" si="52">_xlfn.CONCAT(SUBSTITUTE(C45,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M45" s="25" t="str">
-        <f t="shared" ref="M45" si="78">_xlfn.CONCAT(SUBSTITUTE(D45,"."," "))</f>
+        <f t="shared" ref="M45" si="53">_xlfn.CONCAT(SUBSTITUTE(D45,"."," "))</f>
         <v>Barras</v>
       </c>
       <c r="N45" s="25" t="str">
-        <f t="shared" ref="N45" si="79">_xlfn.CONCAT(SUBSTITUTE(E45,"."," "))</f>
+        <f t="shared" ref="N45" si="54">_xlfn.CONCAT(SUBSTITUTE(E45,"."," "))</f>
         <v>Banzos</v>
       </c>
       <c r="O45" s="25" t="str">
-        <f t="shared" ref="O45" si="80">_xlfn.CONCAT(SUBSTITUTE(F45,"."," "))</f>
+        <f t="shared" ref="O45" si="55">_xlfn.CONCAT(SUBSTITUTE(F45,"."," "))</f>
         <v>Banzo Inferior</v>
       </c>
       <c r="P45" s="25" t="s">
@@ -8171,22 +8171,22 @@
         <v>9</v>
       </c>
       <c r="S45" s="62" t="str">
-        <f t="shared" ref="S45" si="81">SUBSTITUTE(C45, ".", " ")</f>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T45" s="62" t="str">
-        <f t="shared" ref="T45" si="82">SUBSTITUTE(D45, ".", " ")</f>
+        <f t="shared" si="4"/>
         <v>Barras</v>
       </c>
       <c r="U45" s="62" t="str">
-        <f t="shared" ref="U45" si="83">SUBSTITUTE(E45, ".", " ")</f>
+        <f t="shared" si="5"/>
         <v>Banzos</v>
       </c>
       <c r="V45" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W45" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.babanz.45</v>
       </c>
       <c r="X45" s="55" t="s">
@@ -8231,19 +8231,19 @@
         <v>9</v>
       </c>
       <c r="L46" s="25" t="str">
-        <f t="shared" ref="L46:L51" si="84">_xlfn.CONCAT(SUBSTITUTE(C46,"1.",""))</f>
+        <f t="shared" ref="L46:L51" si="56">_xlfn.CONCAT(SUBSTITUTE(C46,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M46" s="25" t="str">
-        <f t="shared" ref="M46:M51" si="85">_xlfn.CONCAT(SUBSTITUTE(D46,"."," "))</f>
+        <f t="shared" ref="M46:M51" si="57">_xlfn.CONCAT(SUBSTITUTE(D46,"."," "))</f>
         <v>ContraVentamentos</v>
       </c>
       <c r="N46" s="25" t="str">
-        <f t="shared" ref="N46:N51" si="86">_xlfn.CONCAT(SUBSTITUTE(E46,"."," "))</f>
+        <f t="shared" ref="N46:N51" si="58">_xlfn.CONCAT(SUBSTITUTE(E46,"."," "))</f>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="O46" s="25" t="str">
-        <f t="shared" ref="O46:O51" si="87">_xlfn.CONCAT(SUBSTITUTE(F46,"."," "))</f>
+        <f t="shared" ref="O46:O51" si="59">_xlfn.CONCAT(SUBSTITUTE(F46,"."," "))</f>
         <v>ContraVentamento Horizontal Diagonal</v>
       </c>
       <c r="P46" s="25" t="s">
@@ -8256,26 +8256,26 @@
         <v>9</v>
       </c>
       <c r="S46" s="62" t="str">
-        <f t="shared" ref="S46:S51" si="88">SUBSTITUTE(C46, ".", " ")</f>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T46" s="62" t="str">
-        <f t="shared" ref="T46:T51" si="89">SUBSTITUTE(D46, ".", " ")</f>
+        <f t="shared" si="4"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="U46" s="62" t="str">
-        <f t="shared" ref="U46:U51" si="90">SUBSTITUTE(E46, ".", " ")</f>
+        <f t="shared" si="5"/>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V46" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W46" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.cocont.46</v>
       </c>
       <c r="X46" s="55" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="Y46" s="55" t="s">
         <v>825</v>
@@ -8316,19 +8316,19 @@
         <v>9</v>
       </c>
       <c r="L47" s="25" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="56"/>
         <v>Estrutural</v>
       </c>
       <c r="M47" s="25" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="57"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="N47" s="25" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="58"/>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="O47" s="25" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="59"/>
         <v>ContraVentamento Horizontal X</v>
       </c>
       <c r="P47" s="25" t="s">
@@ -8341,26 +8341,26 @@
         <v>9</v>
       </c>
       <c r="S47" s="62" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T47" s="62" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="4"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="U47" s="62" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="5"/>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V47" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W47" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.cocont.47</v>
       </c>
       <c r="X47" s="55" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="Y47" s="55" t="s">
         <v>825</v>
@@ -8401,19 +8401,19 @@
         <v>9</v>
       </c>
       <c r="L48" s="25" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="56"/>
         <v>Estrutural</v>
       </c>
       <c r="M48" s="25" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="57"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="N48" s="25" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="58"/>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="O48" s="25" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="59"/>
         <v>ContraVentamento Horizontal K</v>
       </c>
       <c r="P48" s="25" t="s">
@@ -8426,26 +8426,26 @@
         <v>9</v>
       </c>
       <c r="S48" s="62" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T48" s="62" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="4"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="U48" s="62" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="5"/>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V48" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W48" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.cocont.48</v>
       </c>
       <c r="X48" s="55" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="Y48" s="55" t="s">
         <v>825</v>
@@ -8486,19 +8486,19 @@
         <v>9</v>
       </c>
       <c r="L49" s="25" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="56"/>
         <v>Estrutural</v>
       </c>
       <c r="M49" s="25" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="57"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="N49" s="25" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="58"/>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="O49" s="25" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="59"/>
         <v>ContraVentamento Horizontal V</v>
       </c>
       <c r="P49" s="25" t="s">
@@ -8511,26 +8511,26 @@
         <v>9</v>
       </c>
       <c r="S49" s="62" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T49" s="62" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="4"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="U49" s="62" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="5"/>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V49" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W49" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.cocont.49</v>
       </c>
       <c r="X49" s="55" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="Y49" s="55" t="s">
         <v>825</v>
@@ -8571,19 +8571,19 @@
         <v>9</v>
       </c>
       <c r="L50" s="25" t="str">
-        <f t="shared" ref="L50" si="91">_xlfn.CONCAT(SUBSTITUTE(C50,"1.",""))</f>
+        <f t="shared" ref="L50" si="60">_xlfn.CONCAT(SUBSTITUTE(C50,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M50" s="25" t="str">
-        <f t="shared" ref="M50" si="92">_xlfn.CONCAT(SUBSTITUTE(D50,"."," "))</f>
+        <f t="shared" ref="M50" si="61">_xlfn.CONCAT(SUBSTITUTE(D50,"."," "))</f>
         <v>ContraVentamentos</v>
       </c>
       <c r="N50" s="25" t="str">
-        <f t="shared" ref="N50" si="93">_xlfn.CONCAT(SUBSTITUTE(E50,"."," "))</f>
+        <f t="shared" ref="N50" si="62">_xlfn.CONCAT(SUBSTITUTE(E50,"."," "))</f>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="O50" s="25" t="str">
-        <f t="shared" ref="O50" si="94">_xlfn.CONCAT(SUBSTITUTE(F50,"."," "))</f>
+        <f t="shared" ref="O50" si="63">_xlfn.CONCAT(SUBSTITUTE(F50,"."," "))</f>
         <v>ContraVentamento Horizontal VI</v>
       </c>
       <c r="P50" s="25" t="s">
@@ -8596,26 +8596,26 @@
         <v>9</v>
       </c>
       <c r="S50" s="62" t="str">
-        <f t="shared" ref="S50" si="95">SUBSTITUTE(C50, ".", " ")</f>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T50" s="62" t="str">
-        <f t="shared" ref="T50" si="96">SUBSTITUTE(D50, ".", " ")</f>
+        <f t="shared" si="4"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="U50" s="62" t="str">
-        <f t="shared" ref="U50" si="97">SUBSTITUTE(E50, ".", " ")</f>
+        <f t="shared" si="5"/>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V50" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W50" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.cocont.50</v>
       </c>
       <c r="X50" s="55" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="Y50" s="55" t="s">
         <v>825</v>
@@ -8656,19 +8656,19 @@
         <v>9</v>
       </c>
       <c r="L51" s="25" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="56"/>
         <v>Estrutural</v>
       </c>
       <c r="M51" s="25" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="57"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="N51" s="25" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="58"/>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="O51" s="25" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="59"/>
         <v>ContraVentamento Horizontal Delta</v>
       </c>
       <c r="P51" s="25" t="s">
@@ -8681,26 +8681,26 @@
         <v>9</v>
       </c>
       <c r="S51" s="62" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T51" s="62" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="4"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="U51" s="62" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="5"/>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V51" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W51" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.cocont.51</v>
       </c>
       <c r="X51" s="55" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="Y51" s="55" t="s">
         <v>825</v>
@@ -8741,19 +8741,19 @@
         <v>9</v>
       </c>
       <c r="L52" s="25" t="str">
-        <f t="shared" ref="L52" si="98">_xlfn.CONCAT(SUBSTITUTE(C52,"1.",""))</f>
+        <f t="shared" ref="L52" si="64">_xlfn.CONCAT(SUBSTITUTE(C52,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M52" s="25" t="str">
-        <f t="shared" ref="M52" si="99">_xlfn.CONCAT(SUBSTITUTE(D52,"."," "))</f>
+        <f t="shared" ref="M52" si="65">_xlfn.CONCAT(SUBSTITUTE(D52,"."," "))</f>
         <v>ContraVentamentos</v>
       </c>
       <c r="N52" s="25" t="str">
-        <f t="shared" ref="N52" si="100">_xlfn.CONCAT(SUBSTITUTE(E52,"."," "))</f>
+        <f t="shared" ref="N52" si="66">_xlfn.CONCAT(SUBSTITUTE(E52,"."," "))</f>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="O52" s="25" t="str">
-        <f t="shared" ref="O52" si="101">_xlfn.CONCAT(SUBSTITUTE(F52,"."," "))</f>
+        <f t="shared" ref="O52" si="67">_xlfn.CONCAT(SUBSTITUTE(F52,"."," "))</f>
         <v>ContraVentamento Vertical</v>
       </c>
       <c r="P52" s="25" t="s">
@@ -8766,22 +8766,22 @@
         <v>9</v>
       </c>
       <c r="S52" s="62" t="str">
-        <f t="shared" ref="S52" si="102">SUBSTITUTE(C52, ".", " ")</f>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T52" s="62" t="str">
-        <f t="shared" ref="T52" si="103">SUBSTITUTE(D52, ".", " ")</f>
+        <f t="shared" si="4"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="U52" s="62" t="str">
-        <f t="shared" ref="U52" si="104">SUBSTITUTE(E52, ".", " ")</f>
+        <f t="shared" si="5"/>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V52" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W52" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.cocont.52</v>
       </c>
       <c r="X52" s="55" t="s">
@@ -8826,19 +8826,19 @@
         <v>9</v>
       </c>
       <c r="L53" s="25" t="str">
-        <f t="shared" ref="L53:L58" si="105">_xlfn.CONCAT(SUBSTITUTE(C53,"1.",""))</f>
+        <f t="shared" ref="L53:L58" si="68">_xlfn.CONCAT(SUBSTITUTE(C53,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M53" s="25" t="str">
-        <f t="shared" ref="M53:M58" si="106">_xlfn.CONCAT(SUBSTITUTE(D53,"."," "))</f>
+        <f t="shared" ref="M53:M58" si="69">_xlfn.CONCAT(SUBSTITUTE(D53,"."," "))</f>
         <v>ContraVentamentos</v>
       </c>
       <c r="N53" s="25" t="str">
-        <f t="shared" ref="N53:N58" si="107">_xlfn.CONCAT(SUBSTITUTE(E53,"."," "))</f>
+        <f t="shared" ref="N53:N58" si="70">_xlfn.CONCAT(SUBSTITUTE(E53,"."," "))</f>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="O53" s="25" t="str">
-        <f t="shared" ref="O53:O58" si="108">_xlfn.CONCAT(SUBSTITUTE(F53,"."," "))</f>
+        <f t="shared" ref="O53:O58" si="71">_xlfn.CONCAT(SUBSTITUTE(F53,"."," "))</f>
         <v>ContraVentamento Vertical X</v>
       </c>
       <c r="P53" s="25" t="s">
@@ -8851,22 +8851,22 @@
         <v>9</v>
       </c>
       <c r="S53" s="62" t="str">
-        <f t="shared" ref="S53:S58" si="109">SUBSTITUTE(C53, ".", " ")</f>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T53" s="62" t="str">
-        <f t="shared" ref="T53:T58" si="110">SUBSTITUTE(D53, ".", " ")</f>
+        <f t="shared" si="4"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="U53" s="62" t="str">
-        <f t="shared" ref="U53:U58" si="111">SUBSTITUTE(E53, ".", " ")</f>
+        <f t="shared" si="5"/>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V53" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W53" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.cocont.53</v>
       </c>
       <c r="X53" s="55" t="s">
@@ -8911,19 +8911,19 @@
         <v>9</v>
       </c>
       <c r="L54" s="25" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="68"/>
         <v>Estrutural</v>
       </c>
       <c r="M54" s="25" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="69"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="N54" s="25" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="70"/>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="O54" s="25" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="71"/>
         <v>ContraVentamento Vertical K</v>
       </c>
       <c r="P54" s="25" t="s">
@@ -8936,22 +8936,22 @@
         <v>9</v>
       </c>
       <c r="S54" s="62" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T54" s="62" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="4"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="U54" s="62" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="5"/>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V54" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W54" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.cocont.54</v>
       </c>
       <c r="X54" s="55" t="s">
@@ -8996,19 +8996,19 @@
         <v>9</v>
       </c>
       <c r="L55" s="25" t="str">
-        <f t="shared" ref="L55:L57" si="112">_xlfn.CONCAT(SUBSTITUTE(C55,"1.",""))</f>
+        <f t="shared" ref="L55:L57" si="72">_xlfn.CONCAT(SUBSTITUTE(C55,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M55" s="25" t="str">
-        <f t="shared" ref="M55:M57" si="113">_xlfn.CONCAT(SUBSTITUTE(D55,"."," "))</f>
+        <f t="shared" ref="M55:M57" si="73">_xlfn.CONCAT(SUBSTITUTE(D55,"."," "))</f>
         <v>ContraVentamentos</v>
       </c>
       <c r="N55" s="25" t="str">
-        <f t="shared" ref="N55:N57" si="114">_xlfn.CONCAT(SUBSTITUTE(E55,"."," "))</f>
+        <f t="shared" ref="N55:N57" si="74">_xlfn.CONCAT(SUBSTITUTE(E55,"."," "))</f>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="O55" s="25" t="str">
-        <f t="shared" ref="O55:O57" si="115">_xlfn.CONCAT(SUBSTITUTE(F55,"."," "))</f>
+        <f t="shared" ref="O55:O57" si="75">_xlfn.CONCAT(SUBSTITUTE(F55,"."," "))</f>
         <v>ContraVentamento Vertical V</v>
       </c>
       <c r="P55" s="25" t="s">
@@ -9021,22 +9021,22 @@
         <v>9</v>
       </c>
       <c r="S55" s="62" t="str">
-        <f t="shared" ref="S55:S57" si="116">SUBSTITUTE(C55, ".", " ")</f>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T55" s="62" t="str">
-        <f t="shared" ref="T55:T57" si="117">SUBSTITUTE(D55, ".", " ")</f>
+        <f t="shared" si="4"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="U55" s="62" t="str">
-        <f t="shared" ref="U55:U57" si="118">SUBSTITUTE(E55, ".", " ")</f>
+        <f t="shared" si="5"/>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V55" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W55" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.cocont.55</v>
       </c>
       <c r="X55" s="55" t="s">
@@ -9081,19 +9081,19 @@
         <v>9</v>
       </c>
       <c r="L56" s="25" t="str">
-        <f t="shared" ref="L56" si="119">_xlfn.CONCAT(SUBSTITUTE(C56,"1.",""))</f>
+        <f t="shared" ref="L56" si="76">_xlfn.CONCAT(SUBSTITUTE(C56,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M56" s="25" t="str">
-        <f t="shared" ref="M56" si="120">_xlfn.CONCAT(SUBSTITUTE(D56,"."," "))</f>
+        <f t="shared" ref="M56" si="77">_xlfn.CONCAT(SUBSTITUTE(D56,"."," "))</f>
         <v>ContraVentamentos</v>
       </c>
       <c r="N56" s="25" t="str">
-        <f t="shared" ref="N56" si="121">_xlfn.CONCAT(SUBSTITUTE(E56,"."," "))</f>
+        <f t="shared" ref="N56" si="78">_xlfn.CONCAT(SUBSTITUTE(E56,"."," "))</f>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="O56" s="25" t="str">
-        <f t="shared" ref="O56" si="122">_xlfn.CONCAT(SUBSTITUTE(F56,"."," "))</f>
+        <f t="shared" ref="O56" si="79">_xlfn.CONCAT(SUBSTITUTE(F56,"."," "))</f>
         <v>ContraVentamento Vertical VI</v>
       </c>
       <c r="P56" s="25" t="s">
@@ -9106,22 +9106,22 @@
         <v>9</v>
       </c>
       <c r="S56" s="62" t="str">
-        <f t="shared" ref="S56" si="123">SUBSTITUTE(C56, ".", " ")</f>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T56" s="62" t="str">
-        <f t="shared" ref="T56" si="124">SUBSTITUTE(D56, ".", " ")</f>
+        <f t="shared" si="4"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="U56" s="62" t="str">
-        <f t="shared" ref="U56" si="125">SUBSTITUTE(E56, ".", " ")</f>
+        <f t="shared" si="5"/>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V56" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W56" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.cocont.56</v>
       </c>
       <c r="X56" s="55" t="s">
@@ -9166,19 +9166,19 @@
         <v>9</v>
       </c>
       <c r="L57" s="25" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="72"/>
         <v>Estrutural</v>
       </c>
       <c r="M57" s="25" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="73"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="N57" s="25" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="74"/>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="O57" s="25" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="75"/>
         <v>ContraVentamento Vertical Delta</v>
       </c>
       <c r="P57" s="25" t="s">
@@ -9191,22 +9191,22 @@
         <v>9</v>
       </c>
       <c r="S57" s="62" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T57" s="62" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="4"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="U57" s="62" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="5"/>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V57" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W57" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.cocont.57</v>
       </c>
       <c r="X57" s="55" t="s">
@@ -9251,19 +9251,19 @@
         <v>9</v>
       </c>
       <c r="L58" s="25" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="68"/>
         <v>Estrutural</v>
       </c>
       <c r="M58" s="25" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="69"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="N58" s="25" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="70"/>
         <v>ContraVentamentos Cabos</v>
       </c>
       <c r="O58" s="25" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="71"/>
         <v>ContraVentamento Cabo</v>
       </c>
       <c r="P58" s="25" t="s">
@@ -9276,22 +9276,22 @@
         <v>9</v>
       </c>
       <c r="S58" s="62" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T58" s="62" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="4"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="U58" s="62" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="5"/>
         <v>ContraVentamentos Cabos</v>
       </c>
       <c r="V58" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W58" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.cocont.58</v>
       </c>
       <c r="X58" s="55" t="s">
@@ -9336,19 +9336,19 @@
         <v>9</v>
       </c>
       <c r="L59" s="25" t="str">
-        <f t="shared" ref="L59:L63" si="126">_xlfn.CONCAT(SUBSTITUTE(C59,"1.",""))</f>
+        <f t="shared" ref="L59:L63" si="80">_xlfn.CONCAT(SUBSTITUTE(C59,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M59" s="25" t="str">
-        <f t="shared" ref="M59:M63" si="127">_xlfn.CONCAT(SUBSTITUTE(D59,"."," "))</f>
+        <f t="shared" ref="M59:M63" si="81">_xlfn.CONCAT(SUBSTITUTE(D59,"."," "))</f>
         <v>Treliçados</v>
       </c>
       <c r="N59" s="25" t="str">
-        <f t="shared" ref="N59:N63" si="128">_xlfn.CONCAT(SUBSTITUTE(E59,"."," "))</f>
+        <f t="shared" ref="N59:N63" si="82">_xlfn.CONCAT(SUBSTITUTE(E59,"."," "))</f>
         <v>Treliças Planas</v>
       </c>
       <c r="O59" s="25" t="str">
-        <f t="shared" ref="O59:O62" si="129">_xlfn.CONCAT(SUBSTITUTE(F59,"."," "))</f>
+        <f t="shared" ref="O59:O62" si="83">_xlfn.CONCAT(SUBSTITUTE(F59,"."," "))</f>
         <v>Treliça Pratt</v>
       </c>
       <c r="P59" s="25" t="s">
@@ -9376,7 +9376,7 @@
         <v>734</v>
       </c>
       <c r="W59" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.trtrel.59</v>
       </c>
       <c r="X59" s="55" t="s">
@@ -9421,19 +9421,19 @@
         <v>9</v>
       </c>
       <c r="L60" s="25" t="str">
-        <f t="shared" ref="L60:L62" si="130">_xlfn.CONCAT(SUBSTITUTE(C60,"1.",""))</f>
+        <f t="shared" ref="L60:L62" si="84">_xlfn.CONCAT(SUBSTITUTE(C60,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M60" s="25" t="str">
-        <f t="shared" ref="M60:M62" si="131">_xlfn.CONCAT(SUBSTITUTE(D60,"."," "))</f>
+        <f t="shared" ref="M60:M62" si="85">_xlfn.CONCAT(SUBSTITUTE(D60,"."," "))</f>
         <v>Treliçados</v>
       </c>
       <c r="N60" s="25" t="str">
-        <f t="shared" ref="N60:N62" si="132">_xlfn.CONCAT(SUBSTITUTE(E60,"."," "))</f>
+        <f t="shared" ref="N60:N62" si="86">_xlfn.CONCAT(SUBSTITUTE(E60,"."," "))</f>
         <v>Treliças Planas</v>
       </c>
       <c r="O60" s="25" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="83"/>
         <v>Treliça Howe</v>
       </c>
       <c r="P60" s="25" t="s">
@@ -9461,7 +9461,7 @@
         <v>734</v>
       </c>
       <c r="W60" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.trtrel.60</v>
       </c>
       <c r="X60" s="55" t="s">
@@ -9506,19 +9506,19 @@
         <v>9</v>
       </c>
       <c r="L61" s="25" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="84"/>
         <v>Estrutural</v>
       </c>
       <c r="M61" s="25" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="85"/>
         <v>Treliçados</v>
       </c>
       <c r="N61" s="25" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="86"/>
         <v>Treliças Planas</v>
       </c>
       <c r="O61" s="25" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="83"/>
         <v>Treliça Warren</v>
       </c>
       <c r="P61" s="25" t="s">
@@ -9546,7 +9546,7 @@
         <v>734</v>
       </c>
       <c r="W61" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.trtrel.61</v>
       </c>
       <c r="X61" s="55" t="s">
@@ -9591,19 +9591,19 @@
         <v>9</v>
       </c>
       <c r="L62" s="25" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="84"/>
         <v>Estrutural</v>
       </c>
       <c r="M62" s="25" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="85"/>
         <v>Treliçados</v>
       </c>
       <c r="N62" s="25" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="86"/>
         <v>Treliças Planas</v>
       </c>
       <c r="O62" s="25" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="83"/>
         <v>Treliça Fink</v>
       </c>
       <c r="P62" s="25" t="s">
@@ -9631,7 +9631,7 @@
         <v>734</v>
       </c>
       <c r="W62" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.trtrel.62</v>
       </c>
       <c r="X62" s="55" t="s">
@@ -9676,19 +9676,19 @@
         <v>9</v>
       </c>
       <c r="L63" s="25" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="80"/>
         <v>Estrutural</v>
       </c>
       <c r="M63" s="25" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="81"/>
         <v>Treliçados</v>
       </c>
       <c r="N63" s="25" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="82"/>
         <v>Treliças Planas</v>
       </c>
       <c r="O63" s="25" t="str">
-        <f t="shared" ref="O63" si="133">_xlfn.CONCAT(SUBSTITUTE(F63,"."," "))</f>
+        <f t="shared" ref="O63" si="87">_xlfn.CONCAT(SUBSTITUTE(F63,"."," "))</f>
         <v>Treliça Vierendeel</v>
       </c>
       <c r="P63" s="25" t="s">
@@ -9716,7 +9716,7 @@
         <v>734</v>
       </c>
       <c r="W63" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.trtrel.63</v>
       </c>
       <c r="X63" s="55" t="s">
@@ -9761,19 +9761,19 @@
         <v>9</v>
       </c>
       <c r="L64" s="25" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="36"/>
         <v>Estrutural</v>
       </c>
       <c r="M64" s="25" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="37"/>
         <v>Treliçados</v>
       </c>
       <c r="N64" s="25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="38"/>
         <v>Treliças Planas</v>
       </c>
       <c r="O64" s="25" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="39"/>
         <v>Tesoura</v>
       </c>
       <c r="P64" s="25" t="s">
@@ -9801,7 +9801,7 @@
         <v>734</v>
       </c>
       <c r="W64" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.trtrel.64</v>
       </c>
       <c r="X64" s="55" t="s">
@@ -9846,19 +9846,19 @@
         <v>9</v>
       </c>
       <c r="L65" s="25" t="str">
-        <f t="shared" ref="L65:L71" si="134">_xlfn.CONCAT(SUBSTITUTE(C65,"1.",""))</f>
+        <f t="shared" ref="L65:L71" si="88">_xlfn.CONCAT(SUBSTITUTE(C65,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M65" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="24"/>
         <v>Treliçados</v>
       </c>
       <c r="N65" s="25" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="25"/>
         <v>Treliças Planas</v>
       </c>
       <c r="O65" s="25" t="str">
-        <f t="shared" ref="O65:O71" si="135">_xlfn.CONCAT(SUBSTITUTE(F65,"."," "))</f>
+        <f t="shared" ref="O65:O71" si="89">_xlfn.CONCAT(SUBSTITUTE(F65,"."," "))</f>
         <v>Treliça Ponte</v>
       </c>
       <c r="P65" s="25" t="s">
@@ -9886,7 +9886,7 @@
         <v>734</v>
       </c>
       <c r="W65" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.trtrel.65</v>
       </c>
       <c r="X65" s="55" t="s">
@@ -9931,19 +9931,19 @@
         <v>9</v>
       </c>
       <c r="L66" s="25" t="str">
-        <f t="shared" ref="L66:L70" si="136">_xlfn.CONCAT(SUBSTITUTE(C66,"1.",""))</f>
+        <f t="shared" ref="L66:L70" si="90">_xlfn.CONCAT(SUBSTITUTE(C66,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M66" s="25" t="str">
-        <f t="shared" ref="M66:M70" si="137">_xlfn.CONCAT(SUBSTITUTE(D66,"."," "))</f>
+        <f t="shared" ref="M66:M70" si="91">_xlfn.CONCAT(SUBSTITUTE(D66,"."," "))</f>
         <v>Treliçados</v>
       </c>
       <c r="N66" s="25" t="str">
-        <f t="shared" ref="N66:N70" si="138">_xlfn.CONCAT(SUBSTITUTE(E66,"."," "))</f>
+        <f t="shared" ref="N66:N70" si="92">_xlfn.CONCAT(SUBSTITUTE(E66,"."," "))</f>
         <v>Treliças Espaciais</v>
       </c>
       <c r="O66" s="25" t="str">
-        <f t="shared" ref="O66:O70" si="139">_xlfn.CONCAT(SUBSTITUTE(F66,"."," "))</f>
+        <f t="shared" ref="O66:O70" si="93">_xlfn.CONCAT(SUBSTITUTE(F66,"."," "))</f>
         <v>Treliça Espacial Reticulada</v>
       </c>
       <c r="P66" s="25" t="s">
@@ -9956,22 +9956,22 @@
         <v>9</v>
       </c>
       <c r="S66" s="62" t="str">
-        <f t="shared" ref="S66:S70" si="140">SUBSTITUTE(C66, ".", " ")</f>
+        <f t="shared" si="3"/>
         <v>Estrutural</v>
       </c>
       <c r="T66" s="62" t="str">
-        <f t="shared" ref="T66:T70" si="141">SUBSTITUTE(D66, ".", " ")</f>
+        <f t="shared" si="4"/>
         <v>Treliçados</v>
       </c>
       <c r="U66" s="62" t="str">
-        <f t="shared" ref="U66:U70" si="142">SUBSTITUTE(E66, ".", " ")</f>
+        <f t="shared" si="5"/>
         <v>Treliças Espaciais</v>
       </c>
       <c r="V66" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W66" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>k.trtrel.66</v>
       </c>
       <c r="X66" s="55" t="s">
@@ -10016,19 +10016,19 @@
         <v>9</v>
       </c>
       <c r="L67" s="25" t="str">
-        <f t="shared" ref="L67" si="143">_xlfn.CONCAT(SUBSTITUTE(C67,"1.",""))</f>
+        <f t="shared" ref="L67" si="94">_xlfn.CONCAT(SUBSTITUTE(C67,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M67" s="25" t="str">
-        <f t="shared" ref="M67" si="144">_xlfn.CONCAT(SUBSTITUTE(D67,"."," "))</f>
+        <f t="shared" ref="M67" si="95">_xlfn.CONCAT(SUBSTITUTE(D67,"."," "))</f>
         <v>Treliçados</v>
       </c>
       <c r="N67" s="25" t="str">
-        <f t="shared" ref="N67" si="145">_xlfn.CONCAT(SUBSTITUTE(E67,"."," "))</f>
+        <f t="shared" ref="N67" si="96">_xlfn.CONCAT(SUBSTITUTE(E67,"."," "))</f>
         <v>Treliças Espaciais</v>
       </c>
       <c r="O67" s="25" t="str">
-        <f t="shared" ref="O67" si="146">_xlfn.CONCAT(SUBSTITUTE(F67,"."," "))</f>
+        <f t="shared" ref="O67" si="97">_xlfn.CONCAT(SUBSTITUTE(F67,"."," "))</f>
         <v>Treliça Espacial Geodésica</v>
       </c>
       <c r="P67" s="25" t="s">
@@ -10041,22 +10041,22 @@
         <v>9</v>
       </c>
       <c r="S67" s="62" t="str">
-        <f t="shared" ref="S67" si="147">SUBSTITUTE(C67, ".", " ")</f>
+        <f t="shared" ref="S67:S117" si="98">SUBSTITUTE(C67, ".", " ")</f>
         <v>Estrutural</v>
       </c>
       <c r="T67" s="62" t="str">
-        <f t="shared" ref="T67" si="148">SUBSTITUTE(D67, ".", " ")</f>
+        <f t="shared" ref="T67:T117" si="99">SUBSTITUTE(D67, ".", " ")</f>
         <v>Treliçados</v>
       </c>
       <c r="U67" s="62" t="str">
-        <f t="shared" ref="U67" si="149">SUBSTITUTE(E67, ".", " ")</f>
+        <f t="shared" ref="U67:U117" si="100">SUBSTITUTE(E67, ".", " ")</f>
         <v>Treliças Espaciais</v>
       </c>
       <c r="V67" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W67" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="W67:W117" si="101">CONCATENATE("k.",LOWER(LEFT(D67,2)),LOWER(LEFT(E67,4)),".",A67)</f>
         <v>k.trtrel.67</v>
       </c>
       <c r="X67" s="55" t="s">
@@ -10101,19 +10101,19 @@
         <v>9</v>
       </c>
       <c r="L68" s="25" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="90"/>
         <v>Estrutural</v>
       </c>
       <c r="M68" s="25" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="91"/>
         <v>Treliçados</v>
       </c>
       <c r="N68" s="25" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="92"/>
         <v>Treliças Espaciais</v>
       </c>
       <c r="O68" s="25" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="93"/>
         <v>Treliça Espacial Arqueada</v>
       </c>
       <c r="P68" s="25" t="s">
@@ -10126,22 +10126,22 @@
         <v>9</v>
       </c>
       <c r="S68" s="62" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T68" s="62" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="99"/>
         <v>Treliçados</v>
       </c>
       <c r="U68" s="62" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="100"/>
         <v>Treliças Espaciais</v>
       </c>
       <c r="V68" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W68" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.trtrel.68</v>
       </c>
       <c r="X68" s="55" t="s">
@@ -10186,19 +10186,19 @@
         <v>9</v>
       </c>
       <c r="L69" s="25" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="90"/>
         <v>Estrutural</v>
       </c>
       <c r="M69" s="25" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="91"/>
         <v>Treliçados</v>
       </c>
       <c r="N69" s="25" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="92"/>
         <v>Treliças Espaciais</v>
       </c>
       <c r="O69" s="25" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="93"/>
         <v>Treliça Espacial Piramidal</v>
       </c>
       <c r="P69" s="25" t="s">
@@ -10211,22 +10211,22 @@
         <v>9</v>
       </c>
       <c r="S69" s="62" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T69" s="62" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="99"/>
         <v>Treliçados</v>
       </c>
       <c r="U69" s="62" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="100"/>
         <v>Treliças Espaciais</v>
       </c>
       <c r="V69" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W69" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.trtrel.69</v>
       </c>
       <c r="X69" s="55" t="s">
@@ -10271,19 +10271,19 @@
         <v>9</v>
       </c>
       <c r="L70" s="25" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="90"/>
         <v>Estrutural</v>
       </c>
       <c r="M70" s="25" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="91"/>
         <v>Treliçados</v>
       </c>
       <c r="N70" s="25" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="92"/>
         <v>Treliças Espaciais</v>
       </c>
       <c r="O70" s="25" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="93"/>
         <v>Treliça Espacial Octaédrica</v>
       </c>
       <c r="P70" s="25" t="s">
@@ -10296,22 +10296,22 @@
         <v>9</v>
       </c>
       <c r="S70" s="62" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T70" s="62" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="99"/>
         <v>Treliçados</v>
       </c>
       <c r="U70" s="62" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="100"/>
         <v>Treliças Espaciais</v>
       </c>
       <c r="V70" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W70" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.trtrel.70</v>
       </c>
       <c r="X70" s="55" t="s">
@@ -10356,19 +10356,19 @@
         <v>9</v>
       </c>
       <c r="L71" s="25" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="88"/>
         <v>Estrutural</v>
       </c>
       <c r="M71" s="25" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="24"/>
         <v>Treliçados</v>
       </c>
       <c r="N71" s="25" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="25"/>
         <v>Treliças Espaciais</v>
       </c>
       <c r="O71" s="25" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="89"/>
         <v>Treliça Espacial Híbrida</v>
       </c>
       <c r="P71" s="25" t="s">
@@ -10381,22 +10381,22 @@
         <v>9</v>
       </c>
       <c r="S71" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T71" s="62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="99"/>
         <v>Treliçados</v>
       </c>
       <c r="U71" s="62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="100"/>
         <v>Treliças Espaciais</v>
       </c>
       <c r="V71" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W71" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.trtrel.71</v>
       </c>
       <c r="X71" s="55" t="s">
@@ -10420,11 +10420,11 @@
         <v>815</v>
       </c>
       <c r="E72" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F72" s="18" t="s">
         <v>1020</v>
       </c>
-      <c r="F72" s="18" t="s">
-        <v>1021</v>
-      </c>
       <c r="G72" s="32" t="s">
         <v>9</v>
       </c>
@@ -10441,47 +10441,47 @@
         <v>9</v>
       </c>
       <c r="L72" s="25" t="str">
-        <f t="shared" ref="L72:L74" si="150">_xlfn.CONCAT(SUBSTITUTE(C72,"1.",""))</f>
+        <f t="shared" ref="L72:L74" si="102">_xlfn.CONCAT(SUBSTITUTE(C72,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M72" s="25" t="str">
-        <f t="shared" ref="M72:M74" si="151">_xlfn.CONCAT(SUBSTITUTE(D72,"."," "))</f>
+        <f t="shared" ref="M72:M74" si="103">_xlfn.CONCAT(SUBSTITUTE(D72,"."," "))</f>
         <v>Galpões</v>
       </c>
       <c r="N72" s="25" t="str">
-        <f t="shared" ref="N72:N74" si="152">_xlfn.CONCAT(SUBSTITUTE(E72,"."," "))</f>
+        <f t="shared" ref="N72:N74" si="104">_xlfn.CONCAT(SUBSTITUTE(E72,"."," "))</f>
         <v>Pórticos de Galpões</v>
       </c>
       <c r="O72" s="25" t="str">
-        <f t="shared" ref="O72:O74" si="153">_xlfn.CONCAT(SUBSTITUTE(F72,"."," "))</f>
+        <f t="shared" ref="O72:O74" si="105">_xlfn.CONCAT(SUBSTITUTE(F72,"."," "))</f>
         <v>Pórtico Galpão</v>
       </c>
       <c r="P72" s="25" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="Q72" s="29" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="R72" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S72" s="62" t="str">
-        <f t="shared" ref="S72:S117" si="154">SUBSTITUTE(C72, ".", " ")</f>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T72" s="62" t="str">
-        <f t="shared" ref="T72:T117" si="155">SUBSTITUTE(D72, ".", " ")</f>
+        <f t="shared" si="99"/>
         <v>Galpões</v>
       </c>
       <c r="U72" s="62" t="str">
-        <f t="shared" ref="U72:U117" si="156">SUBSTITUTE(E72, ".", " ")</f>
+        <f t="shared" si="100"/>
         <v>Pórticos de Galpões</v>
       </c>
       <c r="V72" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W72" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.gapórt.72</v>
       </c>
       <c r="X72" s="55" t="s">
@@ -10505,10 +10505,10 @@
         <v>815</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G73" s="32" t="s">
         <v>9</v>
@@ -10526,47 +10526,47 @@
         <v>9</v>
       </c>
       <c r="L73" s="25" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="102"/>
         <v>Estrutural</v>
       </c>
       <c r="M73" s="25" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="103"/>
         <v>Galpões</v>
       </c>
       <c r="N73" s="25" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="104"/>
         <v>Pórticos de Galpões</v>
       </c>
       <c r="O73" s="25" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="105"/>
         <v>Pórtico Galpão e Anexo</v>
       </c>
       <c r="P73" s="25" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="Q73" s="29" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="R73" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S73" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T73" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Galpões</v>
       </c>
       <c r="U73" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Pórticos de Galpões</v>
       </c>
       <c r="V73" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W73" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.gapórt.73</v>
       </c>
       <c r="X73" s="55" t="s">
@@ -10590,10 +10590,10 @@
         <v>815</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G74" s="32" t="s">
         <v>9</v>
@@ -10611,47 +10611,47 @@
         <v>9</v>
       </c>
       <c r="L74" s="25" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="102"/>
         <v>Estrutural</v>
       </c>
       <c r="M74" s="25" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="103"/>
         <v>Galpões</v>
       </c>
       <c r="N74" s="25" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="104"/>
         <v>Pórticos de Galpões</v>
       </c>
       <c r="O74" s="25" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="105"/>
         <v>Pórtico Galpão Vãos Múltiplos</v>
       </c>
       <c r="P74" s="25" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="Q74" s="29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="R74" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S74" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T74" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Galpões</v>
       </c>
       <c r="U74" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Pórticos de Galpões</v>
       </c>
       <c r="V74" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W74" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.gapórt.74</v>
       </c>
       <c r="X74" s="55" t="s">
@@ -10675,7 +10675,7 @@
         <v>603</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>652</v>
+        <v>1035</v>
       </c>
       <c r="F75" s="18" t="s">
         <v>739</v>
@@ -10696,19 +10696,19 @@
         <v>9</v>
       </c>
       <c r="L75" s="25" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>Estrutural</v>
       </c>
       <c r="M75" s="25" t="str">
-        <f t="shared" ref="M75:M92" si="157">_xlfn.CONCAT(SUBSTITUTE(D75,"."," "))</f>
+        <f t="shared" ref="M75:M92" si="106">_xlfn.CONCAT(SUBSTITUTE(D75,"."," "))</f>
         <v>Tensionadas</v>
       </c>
       <c r="N75" s="25" t="str">
-        <f t="shared" ref="N75:N92" si="158">_xlfn.CONCAT(SUBSTITUTE(E75,"."," "))</f>
-        <v>Tensores</v>
+        <f t="shared" ref="N75:N92" si="107">_xlfn.CONCAT(SUBSTITUTE(E75,"."," "))</f>
+        <v>Ancoras</v>
       </c>
       <c r="O75" s="25" t="str">
-        <f t="shared" ref="O75:O109" si="159">_xlfn.CONCAT(SUBSTITUTE(F75,"."," "))</f>
+        <f t="shared" ref="O75:O109" si="108">_xlfn.CONCAT(SUBSTITUTE(F75,"."," "))</f>
         <v>Ancora Estrutural</v>
       </c>
       <c r="P75" s="25" t="s">
@@ -10721,23 +10721,23 @@
         <v>9</v>
       </c>
       <c r="S75" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T75" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U75" s="62" t="str">
-        <f t="shared" si="156"/>
-        <v>Tensores</v>
+        <f t="shared" si="100"/>
+        <v>Ancoras</v>
       </c>
       <c r="V75" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W75" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>k.tetens.75</v>
+        <f t="shared" si="101"/>
+        <v>k.teanco.75</v>
       </c>
       <c r="X75" s="55" t="s">
         <v>625</v>
@@ -10760,7 +10760,7 @@
         <v>603</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>652</v>
+        <v>1035</v>
       </c>
       <c r="F76" s="18" t="s">
         <v>738</v>
@@ -10781,19 +10781,19 @@
         <v>9</v>
       </c>
       <c r="L76" s="25" t="str">
-        <f t="shared" ref="L76:L91" si="160">_xlfn.CONCAT(SUBSTITUTE(C76,"1.",""))</f>
+        <f t="shared" ref="L76:L91" si="109">_xlfn.CONCAT(SUBSTITUTE(C76,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M76" s="25" t="str">
-        <f t="shared" ref="M76:M91" si="161">_xlfn.CONCAT(SUBSTITUTE(D76,"."," "))</f>
+        <f t="shared" ref="M76:M91" si="110">_xlfn.CONCAT(SUBSTITUTE(D76,"."," "))</f>
         <v>Tensionadas</v>
       </c>
       <c r="N76" s="25" t="str">
-        <f t="shared" ref="N76:N91" si="162">_xlfn.CONCAT(SUBSTITUTE(E76,"."," "))</f>
-        <v>Tensores</v>
+        <f t="shared" ref="N76:N91" si="111">_xlfn.CONCAT(SUBSTITUTE(E76,"."," "))</f>
+        <v>Ancoras</v>
       </c>
       <c r="O76" s="25" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="108"/>
         <v>Conector Estrutural</v>
       </c>
       <c r="P76" s="25" t="s">
@@ -10806,23 +10806,23 @@
         <v>9</v>
       </c>
       <c r="S76" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T76" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U76" s="62" t="str">
-        <f t="shared" si="156"/>
-        <v>Tensores</v>
+        <f t="shared" si="100"/>
+        <v>Ancoras</v>
       </c>
       <c r="V76" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W76" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>k.tetens.76</v>
+        <f t="shared" si="101"/>
+        <v>k.teanco.76</v>
       </c>
       <c r="X76" s="55" t="s">
         <v>625</v>
@@ -10845,10 +10845,10 @@
         <v>603</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>652</v>
+        <v>1035</v>
       </c>
       <c r="F77" s="60" t="s">
-        <v>589</v>
+        <v>653</v>
       </c>
       <c r="G77" s="32" t="s">
         <v>9</v>
@@ -10866,23 +10866,23 @@
         <v>9</v>
       </c>
       <c r="L77" s="25" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="109"/>
         <v>Estrutural</v>
       </c>
       <c r="M77" s="25" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="110"/>
         <v>Tensionadas</v>
       </c>
       <c r="N77" s="25" t="str">
-        <f t="shared" si="162"/>
-        <v>Tensores</v>
+        <f t="shared" si="111"/>
+        <v>Ancoras</v>
       </c>
       <c r="O77" s="25" t="str">
-        <f t="shared" si="159"/>
-        <v>Estai</v>
+        <f t="shared" si="108"/>
+        <v>Ancoragem de Estai</v>
       </c>
       <c r="P77" s="25" t="s">
-        <v>589</v>
+        <v>978</v>
       </c>
       <c r="Q77" s="29" t="s">
         <v>1018</v>
@@ -10891,29 +10891,29 @@
         <v>9</v>
       </c>
       <c r="S77" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T77" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U77" s="62" t="str">
-        <f t="shared" si="156"/>
-        <v>Tensores</v>
+        <f t="shared" si="100"/>
+        <v>Ancoras</v>
       </c>
       <c r="V77" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W77" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>k.tetens.77</v>
+        <f t="shared" si="101"/>
+        <v>k.teanco.77</v>
       </c>
       <c r="X77" s="55" t="s">
         <v>624</v>
       </c>
       <c r="Y77" s="59" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="78" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -10930,10 +10930,10 @@
         <v>603</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>652</v>
+        <v>1035</v>
       </c>
       <c r="F78" s="60" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G78" s="32" t="s">
         <v>9</v>
@@ -10951,54 +10951,54 @@
         <v>9</v>
       </c>
       <c r="L78" s="25" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="109"/>
         <v>Estrutural</v>
       </c>
       <c r="M78" s="25" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="110"/>
         <v>Tensionadas</v>
       </c>
       <c r="N78" s="25" t="str">
-        <f t="shared" si="162"/>
-        <v>Tensores</v>
+        <f t="shared" si="111"/>
+        <v>Ancoras</v>
       </c>
       <c r="O78" s="25" t="str">
-        <f t="shared" si="159"/>
-        <v>Ancoragem de Estai</v>
+        <f t="shared" si="108"/>
+        <v>Ancoragem Acoplador</v>
       </c>
       <c r="P78" s="25" t="s">
         <v>979</v>
       </c>
       <c r="Q78" s="29" t="s">
-        <v>1019</v>
+        <v>996</v>
       </c>
       <c r="R78" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S78" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T78" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U78" s="62" t="str">
-        <f t="shared" si="156"/>
-        <v>Tensores</v>
+        <f t="shared" si="100"/>
+        <v>Ancoras</v>
       </c>
       <c r="V78" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W78" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>k.tetens.78</v>
+        <f t="shared" si="101"/>
+        <v>k.teanco.78</v>
       </c>
       <c r="X78" s="55" t="s">
         <v>624</v>
       </c>
       <c r="Y78" s="59" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="79" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -11015,10 +11015,10 @@
         <v>603</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>652</v>
+        <v>1035</v>
       </c>
       <c r="F79" s="60" t="s">
-        <v>654</v>
+        <v>732</v>
       </c>
       <c r="G79" s="32" t="s">
         <v>9</v>
@@ -11036,20 +11036,20 @@
         <v>9</v>
       </c>
       <c r="L79" s="25" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="109"/>
         <v>Estrutural</v>
       </c>
       <c r="M79" s="25" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="110"/>
         <v>Tensionadas</v>
       </c>
       <c r="N79" s="25" t="str">
-        <f t="shared" si="162"/>
-        <v>Tensores</v>
+        <f t="shared" si="111"/>
+        <v>Ancoras</v>
       </c>
       <c r="O79" s="25" t="str">
-        <f t="shared" si="159"/>
-        <v>Ancoragem Acoplador</v>
+        <f t="shared" si="108"/>
+        <v>Ancoragem Extremo Fixo</v>
       </c>
       <c r="P79" s="25" t="s">
         <v>980</v>
@@ -11061,29 +11061,29 @@
         <v>9</v>
       </c>
       <c r="S79" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T79" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U79" s="62" t="str">
-        <f t="shared" si="156"/>
-        <v>Tensores</v>
+        <f t="shared" si="100"/>
+        <v>Ancoras</v>
       </c>
       <c r="V79" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W79" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>k.tetens.79</v>
+        <f t="shared" si="101"/>
+        <v>k.teanco.79</v>
       </c>
       <c r="X79" s="55" t="s">
         <v>624</v>
       </c>
       <c r="Y79" s="59" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="80" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -11100,10 +11100,10 @@
         <v>603</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>652</v>
+        <v>1035</v>
       </c>
       <c r="F80" s="60" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G80" s="32" t="s">
         <v>9</v>
@@ -11121,20 +11121,20 @@
         <v>9</v>
       </c>
       <c r="L80" s="25" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="109"/>
         <v>Estrutural</v>
       </c>
       <c r="M80" s="25" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="110"/>
         <v>Tensionadas</v>
       </c>
       <c r="N80" s="25" t="str">
-        <f t="shared" si="162"/>
-        <v>Tensores</v>
+        <f t="shared" si="111"/>
+        <v>Ancoras</v>
       </c>
       <c r="O80" s="25" t="str">
-        <f t="shared" si="159"/>
-        <v>Ancoragem Extremo Fixo</v>
+        <f t="shared" si="108"/>
+        <v>Ancoragem Extremo Tensionado</v>
       </c>
       <c r="P80" s="25" t="s">
         <v>981</v>
@@ -11146,29 +11146,29 @@
         <v>9</v>
       </c>
       <c r="S80" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T80" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U80" s="62" t="str">
-        <f t="shared" si="156"/>
-        <v>Tensores</v>
+        <f t="shared" si="100"/>
+        <v>Ancoras</v>
       </c>
       <c r="V80" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W80" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v>k.tetens.80</v>
+        <f t="shared" si="101"/>
+        <v>k.teanco.80</v>
       </c>
       <c r="X80" s="55" t="s">
         <v>624</v>
       </c>
       <c r="Y80" s="59" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="81" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -11188,7 +11188,7 @@
         <v>652</v>
       </c>
       <c r="F81" s="60" t="s">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="G81" s="32" t="s">
         <v>9</v>
@@ -11206,54 +11206,54 @@
         <v>9</v>
       </c>
       <c r="L81" s="25" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" ref="L81" si="112">_xlfn.CONCAT(SUBSTITUTE(C81,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M81" s="25" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" ref="M81" si="113">_xlfn.CONCAT(SUBSTITUTE(D81,"."," "))</f>
         <v>Tensionadas</v>
       </c>
       <c r="N81" s="25" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" ref="N81" si="114">_xlfn.CONCAT(SUBSTITUTE(E81,"."," "))</f>
         <v>Tensores</v>
       </c>
       <c r="O81" s="25" t="str">
-        <f t="shared" si="159"/>
-        <v>Ancoragem Extremo Tensionado</v>
+        <f t="shared" ref="O81" si="115">_xlfn.CONCAT(SUBSTITUTE(F81,"."," "))</f>
+        <v>Estai</v>
       </c>
       <c r="P81" s="25" t="s">
-        <v>982</v>
+        <v>589</v>
       </c>
       <c r="Q81" s="29" t="s">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="R81" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S81" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T81" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U81" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Tensores</v>
       </c>
       <c r="V81" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W81" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.tetens.81</v>
       </c>
       <c r="X81" s="55" t="s">
         <v>624</v>
       </c>
       <c r="Y81" s="59" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -11291,47 +11291,47 @@
         <v>9</v>
       </c>
       <c r="L82" s="25" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="109"/>
         <v>Estrutural</v>
       </c>
       <c r="M82" s="25" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="110"/>
         <v>Tensionadas</v>
       </c>
       <c r="N82" s="25" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="111"/>
         <v>Tensores</v>
       </c>
       <c r="O82" s="25" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="108"/>
         <v>Tensor Barra</v>
       </c>
       <c r="P82" s="25" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="Q82" s="29" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R82" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S82" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T82" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U82" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Tensores</v>
       </c>
       <c r="V82" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W82" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.tetens.82</v>
       </c>
       <c r="X82" s="55" t="s">
@@ -11376,47 +11376,47 @@
         <v>9</v>
       </c>
       <c r="L83" s="25" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="109"/>
         <v>Estrutural</v>
       </c>
       <c r="M83" s="25" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="110"/>
         <v>Tensionadas</v>
       </c>
       <c r="N83" s="25" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="111"/>
         <v>Tensores</v>
       </c>
       <c r="O83" s="25" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="108"/>
         <v>Tensor Revestido</v>
       </c>
       <c r="P83" s="25" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="Q83" s="29" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="R83" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S83" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T83" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U83" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Tensores</v>
       </c>
       <c r="V83" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W83" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.tetens.83</v>
       </c>
       <c r="X83" s="55" t="s">
@@ -11461,47 +11461,47 @@
         <v>9</v>
       </c>
       <c r="L84" s="25" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="109"/>
         <v>Estrutural</v>
       </c>
       <c r="M84" s="25" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="110"/>
         <v>Tensionadas</v>
       </c>
       <c r="N84" s="25" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="111"/>
         <v>Tensores</v>
       </c>
       <c r="O84" s="25" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="108"/>
         <v>Tensor Bainha</v>
       </c>
       <c r="P84" s="25" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="Q84" s="29" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="R84" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S84" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T84" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U84" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Tensores</v>
       </c>
       <c r="V84" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W84" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.tetens.84</v>
       </c>
       <c r="X84" s="55" t="s">
@@ -11546,47 +11546,47 @@
         <v>9</v>
       </c>
       <c r="L85" s="25" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="109"/>
         <v>Estrutural</v>
       </c>
       <c r="M85" s="25" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="110"/>
         <v>Tensionadas</v>
       </c>
       <c r="N85" s="25" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="111"/>
         <v>Tensores</v>
       </c>
       <c r="O85" s="25" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="108"/>
         <v>Tensor Bainha Acoplador</v>
       </c>
       <c r="P85" s="25" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="Q85" s="29" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="R85" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S85" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T85" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U85" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Tensores</v>
       </c>
       <c r="V85" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W85" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.tetens.85</v>
       </c>
       <c r="X85" s="55" t="s">
@@ -11631,47 +11631,47 @@
         <v>9</v>
       </c>
       <c r="L86" s="25" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="109"/>
         <v>Estrutural</v>
       </c>
       <c r="M86" s="25" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="110"/>
         <v>Tensionadas</v>
       </c>
       <c r="N86" s="25" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="111"/>
         <v>Tensores</v>
       </c>
       <c r="O86" s="25" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="108"/>
         <v>Tensor Bainha Diabolo</v>
       </c>
       <c r="P86" s="25" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="Q86" s="29" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="R86" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S86" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T86" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U86" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Tensores</v>
       </c>
       <c r="V86" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W86" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.tetens.86</v>
       </c>
       <c r="X86" s="55" t="s">
@@ -11716,47 +11716,47 @@
         <v>9</v>
       </c>
       <c r="L87" s="25" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="109"/>
         <v>Estrutural</v>
       </c>
       <c r="M87" s="25" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="110"/>
         <v>Tensionadas</v>
       </c>
       <c r="N87" s="25" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="111"/>
         <v>Tensores</v>
       </c>
       <c r="O87" s="25" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="108"/>
         <v>Tensor Bainha Cabo</v>
       </c>
       <c r="P87" s="25" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Q87" s="29" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="R87" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S87" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T87" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U87" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Tensores</v>
       </c>
       <c r="V87" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W87" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.tetens.87</v>
       </c>
       <c r="X87" s="55" t="s">
@@ -11801,47 +11801,47 @@
         <v>9</v>
       </c>
       <c r="L88" s="25" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="109"/>
         <v>Estrutural</v>
       </c>
       <c r="M88" s="25" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="110"/>
         <v>Tensionadas</v>
       </c>
       <c r="N88" s="25" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="111"/>
         <v>Tensores</v>
       </c>
       <c r="O88" s="25" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="108"/>
         <v>Tensor Injetor</v>
       </c>
       <c r="P88" s="25" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="Q88" s="29" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="R88" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S88" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T88" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U88" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Tensores</v>
       </c>
       <c r="V88" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W88" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.tetens.88</v>
       </c>
       <c r="X88" s="55" t="s">
@@ -11886,47 +11886,47 @@
         <v>9</v>
       </c>
       <c r="L89" s="25" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="109"/>
         <v>Estrutural</v>
       </c>
       <c r="M89" s="25" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="110"/>
         <v>Tensionadas</v>
       </c>
       <c r="N89" s="25" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="111"/>
         <v>Tensores</v>
       </c>
       <c r="O89" s="25" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="108"/>
         <v>Tensor Trombeta</v>
       </c>
       <c r="P89" s="25" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="Q89" s="29" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="R89" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S89" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T89" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U89" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Tensores</v>
       </c>
       <c r="V89" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W89" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.tetens.89</v>
       </c>
       <c r="X89" s="55" t="s">
@@ -11971,47 +11971,47 @@
         <v>9</v>
       </c>
       <c r="L90" s="25" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="109"/>
         <v>Estrutural</v>
       </c>
       <c r="M90" s="25" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="110"/>
         <v>Tensionadas</v>
       </c>
       <c r="N90" s="25" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="111"/>
         <v>Tensores</v>
       </c>
       <c r="O90" s="25" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="108"/>
         <v>Tensor Corda</v>
       </c>
       <c r="P90" s="25" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="Q90" s="29" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="R90" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S90" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T90" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U90" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Tensores</v>
       </c>
       <c r="V90" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W90" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.tetens.90</v>
       </c>
       <c r="X90" s="55" t="s">
@@ -12056,47 +12056,47 @@
         <v>9</v>
       </c>
       <c r="L91" s="25" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="109"/>
         <v>Estrutural</v>
       </c>
       <c r="M91" s="25" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="110"/>
         <v>Tensionadas</v>
       </c>
       <c r="N91" s="25" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="111"/>
         <v>Tensores</v>
       </c>
       <c r="O91" s="25" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="108"/>
         <v>Tensor Fio</v>
       </c>
       <c r="P91" s="25" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="Q91" s="29" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="R91" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S91" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T91" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U91" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Tensores</v>
       </c>
       <c r="V91" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W91" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.tetens.91</v>
       </c>
       <c r="X91" s="55" t="s">
@@ -12141,47 +12141,47 @@
         <v>9</v>
       </c>
       <c r="L92" s="25" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>Estrutural</v>
       </c>
       <c r="M92" s="25" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="106"/>
         <v>Tensionadas</v>
       </c>
       <c r="N92" s="25" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="107"/>
         <v>Tensores</v>
       </c>
       <c r="O92" s="25" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="108"/>
         <v>Mastro Estrutural</v>
       </c>
       <c r="P92" s="25" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="Q92" s="29" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="R92" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S92" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T92" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U92" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Tensores</v>
       </c>
       <c r="V92" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W92" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.tetens.92</v>
       </c>
       <c r="X92" s="55" t="s">
@@ -12226,19 +12226,19 @@
         <v>9</v>
       </c>
       <c r="L93" s="25" t="str">
-        <f t="shared" ref="L93:L114" si="163">_xlfn.CONCAT(SUBSTITUTE(C93,"1.",""))</f>
+        <f t="shared" ref="L93:L114" si="116">_xlfn.CONCAT(SUBSTITUTE(C93,"1.",""))</f>
         <v>Estrutural</v>
       </c>
       <c r="M93" s="25" t="str">
-        <f t="shared" ref="M93:M114" si="164">_xlfn.CONCAT(SUBSTITUTE(D93,"."," "))</f>
+        <f t="shared" ref="M93:M114" si="117">_xlfn.CONCAT(SUBSTITUTE(D93,"."," "))</f>
         <v>Tensionadas</v>
       </c>
       <c r="N93" s="25" t="str">
-        <f t="shared" ref="N93:N114" si="165">_xlfn.CONCAT(SUBSTITUTE(E93,"."," "))</f>
+        <f t="shared" ref="N93:N114" si="118">_xlfn.CONCAT(SUBSTITUTE(E93,"."," "))</f>
         <v>Tensores</v>
       </c>
       <c r="O93" s="25" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="108"/>
         <v>Membrana Estrutural</v>
       </c>
       <c r="P93" s="25" t="s">
@@ -12251,22 +12251,22 @@
         <v>9</v>
       </c>
       <c r="S93" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutural</v>
       </c>
       <c r="T93" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Tensionadas</v>
       </c>
       <c r="U93" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Tensores</v>
       </c>
       <c r="V93" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W93" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.tetens.93</v>
       </c>
       <c r="X93" s="55" t="s">
@@ -12311,19 +12311,19 @@
         <v>9</v>
       </c>
       <c r="L94" s="25" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="116"/>
         <v>Estrutura.Secundária</v>
       </c>
       <c r="M94" s="25" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="117"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="N94" s="25" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="118"/>
         <v>Terças</v>
       </c>
       <c r="O94" s="25" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="108"/>
         <v>Terça Cobertura</v>
       </c>
       <c r="P94" s="25" t="s">
@@ -12336,22 +12336,22 @@
         <v>9</v>
       </c>
       <c r="S94" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutura Secundária</v>
       </c>
       <c r="T94" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="U94" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Terças</v>
       </c>
       <c r="V94" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W94" s="30" t="str">
-        <f t="shared" ref="W94:W109" si="166">CONCATENATE("k.",LOWER(LEFT(D94,2)),LOWER(LEFT(E94,4)),".",A94)</f>
+        <f t="shared" si="101"/>
         <v>k.teterç.94</v>
       </c>
       <c r="X94" s="55" t="s">
@@ -12396,19 +12396,19 @@
         <v>9</v>
       </c>
       <c r="L95" s="25" t="str">
-        <f t="shared" ref="L95:L108" si="167">_xlfn.CONCAT(SUBSTITUTE(C95,"1.",""))</f>
+        <f t="shared" ref="L95:L108" si="119">_xlfn.CONCAT(SUBSTITUTE(C95,"1.",""))</f>
         <v>Estrutura.Secundária</v>
       </c>
       <c r="M95" s="25" t="str">
-        <f t="shared" ref="M95:M108" si="168">_xlfn.CONCAT(SUBSTITUTE(D95,"."," "))</f>
+        <f t="shared" ref="M95:M108" si="120">_xlfn.CONCAT(SUBSTITUTE(D95,"."," "))</f>
         <v>Terças de Suporte</v>
       </c>
       <c r="N95" s="25" t="str">
-        <f t="shared" ref="N95:N108" si="169">_xlfn.CONCAT(SUBSTITUTE(E95,"."," "))</f>
+        <f t="shared" ref="N95:N108" si="121">_xlfn.CONCAT(SUBSTITUTE(E95,"."," "))</f>
         <v>Terças</v>
       </c>
       <c r="O95" s="25" t="str">
-        <f t="shared" ref="O95:O108" si="170">_xlfn.CONCAT(SUBSTITUTE(F95,"."," "))</f>
+        <f t="shared" ref="O95:O108" si="122">_xlfn.CONCAT(SUBSTITUTE(F95,"."," "))</f>
         <v>Terça Fachada</v>
       </c>
       <c r="P95" s="25" t="s">
@@ -12421,22 +12421,22 @@
         <v>9</v>
       </c>
       <c r="S95" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutura Secundária</v>
       </c>
       <c r="T95" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="U95" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Terças</v>
       </c>
       <c r="V95" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W95" s="30" t="str">
-        <f t="shared" ref="W95:W108" si="171">CONCATENATE("k.",LOWER(LEFT(D95,2)),LOWER(LEFT(E95,4)),".",A95)</f>
+        <f t="shared" si="101"/>
         <v>k.teterç.95</v>
       </c>
       <c r="X95" s="55" t="s">
@@ -12481,19 +12481,19 @@
         <v>9</v>
       </c>
       <c r="L96" s="25" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="119"/>
         <v>Estrutura.Secundária</v>
       </c>
       <c r="M96" s="25" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="120"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="N96" s="25" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="121"/>
         <v>Terças</v>
       </c>
       <c r="O96" s="25" t="str">
-        <f t="shared" si="170"/>
+        <f t="shared" si="122"/>
         <v>Terça Cartola</v>
       </c>
       <c r="P96" s="25" t="s">
@@ -12506,22 +12506,22 @@
         <v>9</v>
       </c>
       <c r="S96" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutura Secundária</v>
       </c>
       <c r="T96" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="U96" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Terças</v>
       </c>
       <c r="V96" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W96" s="30" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="101"/>
         <v>k.teterç.96</v>
       </c>
       <c r="X96" s="55" t="s">
@@ -12545,11 +12545,11 @@
         <v>939</v>
       </c>
       <c r="E97" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F97" s="18" t="s">
         <v>1024</v>
       </c>
-      <c r="F97" s="18" t="s">
-        <v>1025</v>
-      </c>
       <c r="G97" s="32" t="s">
         <v>9</v>
       </c>
@@ -12566,47 +12566,47 @@
         <v>9</v>
       </c>
       <c r="L97" s="25" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="119"/>
         <v>Estrutura.Secundária</v>
       </c>
       <c r="M97" s="25" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="120"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="N97" s="25" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="121"/>
         <v>Tirantes</v>
       </c>
       <c r="O97" s="25" t="str">
-        <f t="shared" si="170"/>
+        <f t="shared" si="122"/>
         <v>Tirante Beiral</v>
       </c>
       <c r="P97" s="25" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="Q97" s="29" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="R97" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S97" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutura Secundária</v>
       </c>
       <c r="T97" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="U97" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Tirantes</v>
       </c>
       <c r="V97" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W97" s="30" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="101"/>
         <v>k.tetira.97</v>
       </c>
       <c r="X97" s="55" t="s">
@@ -12630,10 +12630,10 @@
         <v>939</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G98" s="32" t="s">
         <v>9</v>
@@ -12651,47 +12651,47 @@
         <v>9</v>
       </c>
       <c r="L98" s="25" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="119"/>
         <v>Estrutura.Secundária</v>
       </c>
       <c r="M98" s="25" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="120"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="N98" s="25" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="121"/>
         <v>Tirantes</v>
       </c>
       <c r="O98" s="25" t="str">
-        <f t="shared" si="170"/>
+        <f t="shared" si="122"/>
         <v>Tirante Terça</v>
       </c>
       <c r="P98" s="25" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="Q98" s="29" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="R98" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S98" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutura Secundária</v>
       </c>
       <c r="T98" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="U98" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Tirantes</v>
       </c>
       <c r="V98" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W98" s="30" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="101"/>
         <v>k.tetira.98</v>
       </c>
       <c r="X98" s="55" t="s">
@@ -12715,10 +12715,10 @@
         <v>939</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G99" s="32" t="s">
         <v>9</v>
@@ -12736,47 +12736,47 @@
         <v>9</v>
       </c>
       <c r="L99" s="25" t="str">
-        <f t="shared" ref="L99" si="172">_xlfn.CONCAT(SUBSTITUTE(C99,"1.",""))</f>
+        <f t="shared" ref="L99" si="123">_xlfn.CONCAT(SUBSTITUTE(C99,"1.",""))</f>
         <v>Estrutura.Secundária</v>
       </c>
       <c r="M99" s="25" t="str">
-        <f t="shared" ref="M99" si="173">_xlfn.CONCAT(SUBSTITUTE(D99,"."," "))</f>
+        <f t="shared" ref="M99" si="124">_xlfn.CONCAT(SUBSTITUTE(D99,"."," "))</f>
         <v>Terças de Suporte</v>
       </c>
       <c r="N99" s="25" t="str">
-        <f t="shared" ref="N99" si="174">_xlfn.CONCAT(SUBSTITUTE(E99,"."," "))</f>
+        <f t="shared" ref="N99" si="125">_xlfn.CONCAT(SUBSTITUTE(E99,"."," "))</f>
         <v>Tirantes</v>
       </c>
       <c r="O99" s="25" t="str">
-        <f t="shared" ref="O99" si="175">_xlfn.CONCAT(SUBSTITUTE(F99,"."," "))</f>
+        <f t="shared" ref="O99" si="126">_xlfn.CONCAT(SUBSTITUTE(F99,"."," "))</f>
         <v>Tirante Cumeeira</v>
       </c>
       <c r="P99" s="25" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Q99" s="29" t="s">
         <v>1030</v>
       </c>
-      <c r="Q99" s="29" t="s">
-        <v>1031</v>
-      </c>
       <c r="R99" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S99" s="62" t="str">
-        <f t="shared" ref="S99" si="176">SUBSTITUTE(C99, ".", " ")</f>
+        <f t="shared" si="98"/>
         <v>Estrutura Secundária</v>
       </c>
       <c r="T99" s="62" t="str">
-        <f t="shared" ref="T99" si="177">SUBSTITUTE(D99, ".", " ")</f>
+        <f t="shared" si="99"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="U99" s="62" t="str">
-        <f t="shared" ref="U99" si="178">SUBSTITUTE(E99, ".", " ")</f>
+        <f t="shared" si="100"/>
         <v>Tirantes</v>
       </c>
       <c r="V99" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W99" s="30" t="str">
-        <f t="shared" ref="W99" si="179">CONCATENATE("k.",LOWER(LEFT(D99,2)),LOWER(LEFT(E99,4)),".",A99)</f>
+        <f t="shared" si="101"/>
         <v>k.tetira.99</v>
       </c>
       <c r="X99" s="55" t="s">
@@ -12821,19 +12821,19 @@
         <v>9</v>
       </c>
       <c r="L100" s="25" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="119"/>
         <v>Estrutura.Secundária</v>
       </c>
       <c r="M100" s="25" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="120"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="N100" s="25" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="121"/>
         <v>Frechais</v>
       </c>
       <c r="O100" s="25" t="str">
-        <f t="shared" si="170"/>
+        <f t="shared" si="122"/>
         <v>Frechal Alinhamento</v>
       </c>
       <c r="P100" s="25" t="s">
@@ -12846,22 +12846,22 @@
         <v>9</v>
       </c>
       <c r="S100" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutura Secundária</v>
       </c>
       <c r="T100" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="U100" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Frechais</v>
       </c>
       <c r="V100" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W100" s="30" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="101"/>
         <v>k.tefrec.100</v>
       </c>
       <c r="X100" s="55" t="s">
@@ -12885,75 +12885,75 @@
         <v>943</v>
       </c>
       <c r="E101" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="F101" s="18" t="s">
         <v>957</v>
       </c>
-      <c r="F101" s="18" t="s">
+      <c r="G101" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J101" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K101" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L101" s="25" t="str">
+        <f t="shared" ref="L101" si="127">_xlfn.CONCAT(SUBSTITUTE(C101,"1.",""))</f>
+        <v>Estrutura.Fechamento</v>
+      </c>
+      <c r="M101" s="25" t="str">
+        <f t="shared" ref="M101" si="128">_xlfn.CONCAT(SUBSTITUTE(D101,"."," "))</f>
+        <v>Sistemas Sanduíches</v>
+      </c>
+      <c r="N101" s="25" t="str">
+        <f t="shared" ref="N101" si="129">_xlfn.CONCAT(SUBSTITUTE(E101,"."," "))</f>
+        <v>Paineis Sanduíches</v>
+      </c>
+      <c r="O101" s="25" t="str">
+        <f t="shared" ref="O101" si="130">_xlfn.CONCAT(SUBSTITUTE(F101,"."," "))</f>
+        <v>Painel Sanduíche Fachada</v>
+      </c>
+      <c r="P101" s="25" t="s">
         <v>958</v>
       </c>
-      <c r="G101" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H101" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I101" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="J101" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="K101" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="L101" s="25" t="str">
-        <f t="shared" ref="L101" si="180">_xlfn.CONCAT(SUBSTITUTE(C101,"1.",""))</f>
-        <v>Estrutura.Fechamento</v>
-      </c>
-      <c r="M101" s="25" t="str">
-        <f t="shared" ref="M101" si="181">_xlfn.CONCAT(SUBSTITUTE(D101,"."," "))</f>
+      <c r="Q101" s="29" t="s">
+        <v>1010</v>
+      </c>
+      <c r="R101" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S101" s="62" t="str">
+        <f t="shared" si="98"/>
+        <v>Estrutura Fechamento</v>
+      </c>
+      <c r="T101" s="62" t="str">
+        <f t="shared" si="99"/>
         <v>Sistemas Sanduíches</v>
       </c>
-      <c r="N101" s="25" t="str">
-        <f t="shared" ref="N101" si="182">_xlfn.CONCAT(SUBSTITUTE(E101,"."," "))</f>
-        <v>Fachadas Sanduíches</v>
-      </c>
-      <c r="O101" s="25" t="str">
-        <f t="shared" ref="O101" si="183">_xlfn.CONCAT(SUBSTITUTE(F101,"."," "))</f>
-        <v>Painel Sanduíche Fachada</v>
-      </c>
-      <c r="P101" s="25" t="s">
-        <v>959</v>
-      </c>
-      <c r="Q101" s="29" t="s">
-        <v>1011</v>
-      </c>
-      <c r="R101" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="S101" s="62" t="str">
-        <f t="shared" si="154"/>
-        <v>Estrutura Fechamento</v>
-      </c>
-      <c r="T101" s="62" t="str">
-        <f t="shared" si="155"/>
-        <v>Sistemas Sanduíches</v>
-      </c>
       <c r="U101" s="62" t="str">
-        <f t="shared" si="156"/>
-        <v>Fachadas Sanduíches</v>
+        <f t="shared" si="100"/>
+        <v>Paineis Sanduíches</v>
       </c>
       <c r="V101" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W101" s="30" t="str">
-        <f t="shared" ref="W101" si="184">CONCATENATE("k.",LOWER(LEFT(D101,2)),LOWER(LEFT(E101,4)),".",A101)</f>
-        <v>k.sifach.101</v>
+        <f t="shared" si="101"/>
+        <v>k.sipain.101</v>
       </c>
       <c r="X101" s="55" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="Y101" s="55" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -12991,54 +12991,54 @@
         <v>9</v>
       </c>
       <c r="L102" s="25" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="119"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M102" s="25" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="120"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="N102" s="25" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="121"/>
         <v>Paineis Sanduíches</v>
       </c>
       <c r="O102" s="25" t="str">
-        <f t="shared" si="170"/>
+        <f t="shared" si="122"/>
         <v>Painel Sanduíche Térmico</v>
       </c>
       <c r="P102" s="25" t="s">
         <v>941</v>
       </c>
       <c r="Q102" s="29" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="R102" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S102" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutura Fechamento</v>
       </c>
       <c r="T102" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="U102" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Paineis Sanduíches</v>
       </c>
       <c r="V102" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W102" s="30" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="101"/>
         <v>k.sipain.102</v>
       </c>
       <c r="X102" s="55" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="Y102" s="55" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13076,54 +13076,54 @@
         <v>9</v>
       </c>
       <c r="L103" s="25" t="str">
-        <f t="shared" ref="L103:L105" si="185">_xlfn.CONCAT(SUBSTITUTE(C103,"1.",""))</f>
+        <f t="shared" ref="L103:L105" si="131">_xlfn.CONCAT(SUBSTITUTE(C103,"1.",""))</f>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M103" s="25" t="str">
-        <f t="shared" ref="M103:M105" si="186">_xlfn.CONCAT(SUBSTITUTE(D103,"."," "))</f>
+        <f t="shared" ref="M103:M105" si="132">_xlfn.CONCAT(SUBSTITUTE(D103,"."," "))</f>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="N103" s="25" t="str">
-        <f t="shared" ref="N103:N105" si="187">_xlfn.CONCAT(SUBSTITUTE(E103,"."," "))</f>
+        <f t="shared" ref="N103:N105" si="133">_xlfn.CONCAT(SUBSTITUTE(E103,"."," "))</f>
         <v>Telhas Sanduíches</v>
       </c>
       <c r="O103" s="25" t="str">
-        <f t="shared" ref="O103:O105" si="188">_xlfn.CONCAT(SUBSTITUTE(F103,"."," "))</f>
+        <f t="shared" ref="O103:O105" si="134">_xlfn.CONCAT(SUBSTITUTE(F103,"."," "))</f>
         <v>Telha Sanduíche Zipada</v>
       </c>
       <c r="P103" s="25" t="s">
         <v>948</v>
       </c>
       <c r="Q103" s="29" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="R103" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S103" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutura Fechamento</v>
       </c>
       <c r="T103" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="U103" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V103" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W103" s="30" t="str">
-        <f t="shared" ref="W103:W105" si="189">CONCATENATE("k.",LOWER(LEFT(D103,2)),LOWER(LEFT(E103,4)),".",A103)</f>
+        <f t="shared" si="101"/>
         <v>k.sitelh.103</v>
       </c>
       <c r="X103" s="55" t="s">
+        <v>960</v>
+      </c>
+      <c r="Y103" s="59" t="s">
         <v>961</v>
-      </c>
-      <c r="Y103" s="59" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13161,54 +13161,54 @@
         <v>9</v>
       </c>
       <c r="L104" s="25" t="str">
-        <f t="shared" si="185"/>
+        <f t="shared" si="131"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M104" s="25" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="132"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="N104" s="25" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="133"/>
         <v>Telhas Sanduíches</v>
       </c>
       <c r="O104" s="25" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="134"/>
         <v>Telha Sanduíche Ondulada</v>
       </c>
       <c r="P104" s="25" t="s">
         <v>952</v>
       </c>
       <c r="Q104" s="29" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="R104" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S104" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutura Fechamento</v>
       </c>
       <c r="T104" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="U104" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V104" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W104" s="30" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="101"/>
         <v>k.sitelh.104</v>
       </c>
       <c r="X104" s="55" t="s">
+        <v>960</v>
+      </c>
+      <c r="Y104" s="59" t="s">
         <v>961</v>
-      </c>
-      <c r="Y104" s="59" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13246,54 +13246,54 @@
         <v>9</v>
       </c>
       <c r="L105" s="25" t="str">
-        <f t="shared" si="185"/>
+        <f t="shared" si="131"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M105" s="25" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="132"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="N105" s="25" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="133"/>
         <v>Telhas Sanduíches</v>
       </c>
       <c r="O105" s="25" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="134"/>
         <v>Telha Sanduíche Trapezoidal</v>
       </c>
       <c r="P105" s="25" t="s">
         <v>951</v>
       </c>
       <c r="Q105" s="29" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="R105" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S105" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutura Fechamento</v>
       </c>
       <c r="T105" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="U105" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V105" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W105" s="30" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="101"/>
         <v>k.sitelh.105</v>
       </c>
       <c r="X105" s="55" t="s">
+        <v>960</v>
+      </c>
+      <c r="Y105" s="59" t="s">
         <v>961</v>
-      </c>
-      <c r="Y105" s="59" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13331,54 +13331,54 @@
         <v>9</v>
       </c>
       <c r="L106" s="25" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="119"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M106" s="25" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="120"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="N106" s="25" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="121"/>
         <v>Telhas Sanduíches</v>
       </c>
       <c r="O106" s="25" t="str">
-        <f t="shared" si="170"/>
+        <f t="shared" si="122"/>
         <v>Telha Sanduíche Solar</v>
       </c>
       <c r="P106" s="25" t="s">
         <v>956</v>
       </c>
       <c r="Q106" s="29" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="R106" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S106" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutura Fechamento</v>
       </c>
       <c r="T106" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="U106" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V106" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W106" s="30" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="101"/>
         <v>k.sitelh.106</v>
       </c>
       <c r="X106" s="55" t="s">
+        <v>960</v>
+      </c>
+      <c r="Y106" s="59" t="s">
         <v>961</v>
-      </c>
-      <c r="Y106" s="59" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13416,54 +13416,54 @@
         <v>9</v>
       </c>
       <c r="L107" s="25" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="119"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M107" s="25" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="120"/>
         <v>Sistemas Perfilados</v>
       </c>
       <c r="N107" s="25" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="121"/>
         <v>Telhas Perfiladas</v>
       </c>
       <c r="O107" s="25" t="str">
-        <f t="shared" si="170"/>
+        <f t="shared" si="122"/>
         <v>Telha Trapezoidal</v>
       </c>
       <c r="P107" s="25" t="s">
         <v>954</v>
       </c>
       <c r="Q107" s="29" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="R107" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S107" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutura Fechamento</v>
       </c>
       <c r="T107" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Sistemas Perfilados</v>
       </c>
       <c r="U107" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Telhas Perfiladas</v>
       </c>
       <c r="V107" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W107" s="30" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="101"/>
         <v>k.sitelh.107</v>
       </c>
       <c r="X107" s="55" t="s">
+        <v>960</v>
+      </c>
+      <c r="Y107" s="59" t="s">
         <v>961</v>
-      </c>
-      <c r="Y107" s="59" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13501,54 +13501,54 @@
         <v>9</v>
       </c>
       <c r="L108" s="25" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="119"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M108" s="25" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="120"/>
         <v>Sistemas Perfilados</v>
       </c>
       <c r="N108" s="25" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="121"/>
         <v>Telhas Perfiladas</v>
       </c>
       <c r="O108" s="25" t="str">
-        <f t="shared" si="170"/>
+        <f t="shared" si="122"/>
         <v>Telha Ondulada</v>
       </c>
       <c r="P108" s="25" t="s">
         <v>952</v>
       </c>
       <c r="Q108" s="29" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="R108" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S108" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutura Fechamento</v>
       </c>
       <c r="T108" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Sistemas Perfilados</v>
       </c>
       <c r="U108" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Telhas Perfiladas</v>
       </c>
       <c r="V108" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W108" s="30" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="101"/>
         <v>k.sitelh.108</v>
       </c>
       <c r="X108" s="55" t="s">
+        <v>960</v>
+      </c>
+      <c r="Y108" s="59" t="s">
         <v>961</v>
-      </c>
-      <c r="Y108" s="59" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13586,54 +13586,54 @@
         <v>9</v>
       </c>
       <c r="L109" s="25" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="116"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M109" s="25" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="117"/>
         <v>Sistemas Perfilados</v>
       </c>
       <c r="N109" s="25" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="118"/>
         <v>Telhas Perfiladas</v>
       </c>
       <c r="O109" s="25" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="108"/>
         <v>Telha Zipada</v>
       </c>
       <c r="P109" s="25" t="s">
         <v>942</v>
       </c>
       <c r="Q109" s="29" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="R109" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S109" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Estrutura Fechamento</v>
       </c>
       <c r="T109" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Sistemas Perfilados</v>
       </c>
       <c r="U109" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Telhas Perfiladas</v>
       </c>
       <c r="V109" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W109" s="30" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="101"/>
         <v>k.sitelh.109</v>
       </c>
       <c r="X109" s="55" t="s">
+        <v>960</v>
+      </c>
+      <c r="Y109" s="59" t="s">
         <v>961</v>
-      </c>
-      <c r="Y109" s="59" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="8.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -13671,19 +13671,19 @@
         <v>9</v>
       </c>
       <c r="L110" s="25" t="str">
-        <f t="shared" ref="L110" si="190">_xlfn.CONCAT(SUBSTITUTE(C110,"1.",""))</f>
+        <f t="shared" ref="L110" si="135">_xlfn.CONCAT(SUBSTITUTE(C110,"1.",""))</f>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M110" s="25" t="str">
-        <f t="shared" ref="M110" si="191">_xlfn.CONCAT(SUBSTITUTE(D110,"."," "))</f>
+        <f t="shared" ref="M110" si="136">_xlfn.CONCAT(SUBSTITUTE(D110,"."," "))</f>
         <v>Fixações</v>
       </c>
       <c r="N110" s="25" t="str">
-        <f t="shared" ref="N110" si="192">_xlfn.CONCAT(SUBSTITUTE(E110,"."," "))</f>
+        <f t="shared" ref="N110" si="137">_xlfn.CONCAT(SUBSTITUTE(E110,"."," "))</f>
         <v>Chumbadores</v>
       </c>
       <c r="O110" s="25" t="str">
-        <f t="shared" ref="O110" si="193">_xlfn.CONCAT(SUBSTITUTE(F110,"."," "))</f>
+        <f t="shared" ref="O110" si="138">_xlfn.CONCAT(SUBSTITUTE(F110,"."," "))</f>
         <v>Chumbador Interno</v>
       </c>
       <c r="P110" s="25" t="s">
@@ -13696,22 +13696,22 @@
         <v>9</v>
       </c>
       <c r="S110" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Conexão Estrutural</v>
       </c>
       <c r="T110" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Fixações</v>
       </c>
       <c r="U110" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Chumbadores</v>
       </c>
       <c r="V110" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W110" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.fichum.110</v>
       </c>
       <c r="X110" s="55" t="s">
@@ -13756,19 +13756,19 @@
         <v>9</v>
       </c>
       <c r="L111" s="25" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="116"/>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M111" s="25" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="117"/>
         <v>Fixações</v>
       </c>
       <c r="N111" s="25" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="118"/>
         <v>Chumbadores</v>
       </c>
       <c r="O111" s="25" t="str">
-        <f t="shared" ref="O111" si="194">_xlfn.CONCAT(SUBSTITUTE(F111,"."," "))</f>
+        <f t="shared" ref="O111" si="139">_xlfn.CONCAT(SUBSTITUTE(F111,"."," "))</f>
         <v>Chumbador Externo</v>
       </c>
       <c r="P111" s="25" t="s">
@@ -13781,22 +13781,22 @@
         <v>9</v>
       </c>
       <c r="S111" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Conexão Estrutural</v>
       </c>
       <c r="T111" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Fixações</v>
       </c>
       <c r="U111" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Chumbadores</v>
       </c>
       <c r="V111" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W111" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.fichum.111</v>
       </c>
       <c r="X111" s="55" t="s">
@@ -13841,19 +13841,19 @@
         <v>9</v>
       </c>
       <c r="L112" s="25" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="116"/>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M112" s="25" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="117"/>
         <v>Fixações</v>
       </c>
       <c r="N112" s="25" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="118"/>
         <v>Parafusos</v>
       </c>
       <c r="O112" s="25" t="str">
-        <f t="shared" ref="O112" si="195">_xlfn.CONCAT(SUBSTITUTE(F112,"."," "))</f>
+        <f t="shared" ref="O112" si="140">_xlfn.CONCAT(SUBSTITUTE(F112,"."," "))</f>
         <v>Parafuso DIN</v>
       </c>
       <c r="P112" s="25" t="s">
@@ -13866,22 +13866,22 @@
         <v>9</v>
       </c>
       <c r="S112" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Conexão Estrutural</v>
       </c>
       <c r="T112" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Fixações</v>
       </c>
       <c r="U112" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Parafusos</v>
       </c>
       <c r="V112" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W112" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.fipara.112</v>
       </c>
       <c r="X112" s="55" t="s">
@@ -13926,19 +13926,19 @@
         <v>9</v>
       </c>
       <c r="L113" s="25" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="116"/>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M113" s="25" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="117"/>
         <v>Fixações</v>
       </c>
       <c r="N113" s="25" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="118"/>
         <v>Parafusos</v>
       </c>
       <c r="O113" s="25" t="str">
-        <f t="shared" ref="O113:O114" si="196">_xlfn.CONCAT(SUBSTITUTE(F113,"."," "))</f>
+        <f t="shared" ref="O113:O114" si="141">_xlfn.CONCAT(SUBSTITUTE(F113,"."," "))</f>
         <v>Parafuso ASTM</v>
       </c>
       <c r="P113" s="25" t="s">
@@ -13951,22 +13951,22 @@
         <v>9</v>
       </c>
       <c r="S113" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Conexão Estrutural</v>
       </c>
       <c r="T113" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Fixações</v>
       </c>
       <c r="U113" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Parafusos</v>
       </c>
       <c r="V113" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W113" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.fipara.113</v>
       </c>
       <c r="X113" s="55" t="s">
@@ -14011,19 +14011,19 @@
         <v>9</v>
       </c>
       <c r="L114" s="25" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="116"/>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M114" s="25" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="117"/>
         <v>Fixações</v>
       </c>
       <c r="N114" s="25" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="118"/>
         <v>Parafusos</v>
       </c>
       <c r="O114" s="25" t="str">
-        <f t="shared" si="196"/>
+        <f t="shared" si="141"/>
         <v>Parafuso Drywall</v>
       </c>
       <c r="P114" s="25" t="s">
@@ -14036,22 +14036,22 @@
         <v>9</v>
       </c>
       <c r="S114" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Conexão Estrutural</v>
       </c>
       <c r="T114" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Fixações</v>
       </c>
       <c r="U114" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Parafusos</v>
       </c>
       <c r="V114" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W114" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.fipara.114</v>
       </c>
       <c r="X114" s="55" t="s">
@@ -14096,19 +14096,19 @@
         <v>9</v>
       </c>
       <c r="L115" s="25" t="str">
-        <f t="shared" ref="L115:L116" si="197">_xlfn.CONCAT(SUBSTITUTE(C115,"1.",""))</f>
+        <f t="shared" ref="L115:L116" si="142">_xlfn.CONCAT(SUBSTITUTE(C115,"1.",""))</f>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M115" s="25" t="str">
-        <f t="shared" ref="M115:M116" si="198">_xlfn.CONCAT(SUBSTITUTE(D115,"."," "))</f>
+        <f t="shared" ref="M115:M116" si="143">_xlfn.CONCAT(SUBSTITUTE(D115,"."," "))</f>
         <v>Fixações</v>
       </c>
       <c r="N115" s="25" t="str">
-        <f t="shared" ref="N115:N116" si="199">_xlfn.CONCAT(SUBSTITUTE(E115,"."," "))</f>
+        <f t="shared" ref="N115:N116" si="144">_xlfn.CONCAT(SUBSTITUTE(E115,"."," "))</f>
         <v>Parafusos</v>
       </c>
       <c r="O115" s="25" t="str">
-        <f t="shared" ref="O115:O116" si="200">_xlfn.CONCAT(SUBSTITUTE(F115,"."," "))</f>
+        <f t="shared" ref="O115:O116" si="145">_xlfn.CONCAT(SUBSTITUTE(F115,"."," "))</f>
         <v>Parafuso Brocante</v>
       </c>
       <c r="P115" s="25" t="s">
@@ -14121,22 +14121,22 @@
         <v>9</v>
       </c>
       <c r="S115" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Conexão Estrutural</v>
       </c>
       <c r="T115" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Fixações</v>
       </c>
       <c r="U115" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Parafusos</v>
       </c>
       <c r="V115" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W115" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.fipara.115</v>
       </c>
       <c r="X115" s="55" t="s">
@@ -14181,19 +14181,19 @@
         <v>9</v>
       </c>
       <c r="L116" s="25" t="str">
-        <f t="shared" si="197"/>
+        <f t="shared" si="142"/>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M116" s="25" t="str">
-        <f t="shared" si="198"/>
+        <f t="shared" si="143"/>
         <v>Fixações</v>
       </c>
       <c r="N116" s="25" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" si="144"/>
         <v>Parafusos</v>
       </c>
       <c r="O116" s="25" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" si="145"/>
         <v>Parafuso Auto Atarraxante</v>
       </c>
       <c r="P116" s="25" t="s">
@@ -14206,22 +14206,22 @@
         <v>9</v>
       </c>
       <c r="S116" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Conexão Estrutural</v>
       </c>
       <c r="T116" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Fixações</v>
       </c>
       <c r="U116" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Parafusos</v>
       </c>
       <c r="V116" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W116" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.fipara.116</v>
       </c>
       <c r="X116" s="55" t="s">
@@ -14266,19 +14266,19 @@
         <v>9</v>
       </c>
       <c r="L117" s="25" t="str">
-        <f t="shared" ref="L117" si="201">_xlfn.CONCAT(SUBSTITUTE(C117,"1.",""))</f>
+        <f t="shared" ref="L117" si="146">_xlfn.CONCAT(SUBSTITUTE(C117,"1.",""))</f>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M117" s="25" t="str">
-        <f t="shared" ref="M117" si="202">_xlfn.CONCAT(SUBSTITUTE(D117,"."," "))</f>
+        <f t="shared" ref="M117" si="147">_xlfn.CONCAT(SUBSTITUTE(D117,"."," "))</f>
         <v>Fixações</v>
       </c>
       <c r="N117" s="25" t="str">
-        <f t="shared" ref="N117" si="203">_xlfn.CONCAT(SUBSTITUTE(E117,"."," "))</f>
+        <f t="shared" ref="N117" si="148">_xlfn.CONCAT(SUBSTITUTE(E117,"."," "))</f>
         <v>Pinos</v>
       </c>
       <c r="O117" s="25" t="str">
-        <f t="shared" ref="O117" si="204">_xlfn.CONCAT(SUBSTITUTE(F117,"."," "))</f>
+        <f t="shared" ref="O117" si="149">_xlfn.CONCAT(SUBSTITUTE(F117,"."," "))</f>
         <v>Pino de Cisalhamento</v>
       </c>
       <c r="P117" s="25" t="s">
@@ -14291,22 +14291,22 @@
         <v>9</v>
       </c>
       <c r="S117" s="62" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="98"/>
         <v>Conexão Estrutural</v>
       </c>
       <c r="T117" s="62" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="99"/>
         <v>Fixações</v>
       </c>
       <c r="U117" s="62" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="100"/>
         <v>Pinos</v>
       </c>
       <c r="V117" s="61" t="s">
         <v>734</v>
       </c>
       <c r="W117" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="101"/>
         <v>k.fipino.117</v>
       </c>
       <c r="X117" s="55" t="s">
@@ -14326,24 +14326,24 @@
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Y100">
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="W2:W117">
-    <cfRule type="duplicateValues" dxfId="15" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="442"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y77:Y91">
-    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y100">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="445"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="446"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="448"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="449"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -29339,11 +29339,11 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B1:B155">
-    <cfRule type="duplicateValues" dxfId="2" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="150"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/META/Ontologia_METAL.xlsx
+++ b/Versão5/META/Ontologia_METAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\META\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E460F3-C1FC-4AE8-B9EA-5FCE0ECA7D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CA3FC6-4C2F-4BA3-B504-A329B102B348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -2581,9 +2581,6 @@
     <t>é.membro.de some Treliças.Planas</t>
   </si>
   <si>
-    <t>é.membro.de some Estrutural</t>
-  </si>
-  <si>
     <t>ContraVentamento.Horizontal.X</t>
   </si>
   <si>
@@ -3266,6 +3263,9 @@
   </si>
   <si>
     <t>Fabricado en acero CA-60 acanalado y acero GG-50. La malla soldada acanalada se suministra en paneles y está formada por alambres o barras soldadas en todos los puntos de cruce, configurando la malla de control de agrietamiento y la resistencia mecánica.</t>
+  </si>
+  <si>
+    <t>é.membro.de some Estrutura.Principal</t>
   </si>
 </sst>
 </file>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45940.287954861109</v>
+        <v>45940.289642824071</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -4428,9 +4428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
   <dimension ref="A1:Y126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X1" sqref="X1:Z1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69140625" defaultRowHeight="6.55" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4444,7 +4444,7 @@
     <col min="7" max="7" width="11.69140625" customWidth="1"/>
     <col min="8" max="8" width="14.3046875" customWidth="1"/>
     <col min="9" max="9" width="12.84375" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15.23046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.3828125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.3828125" customWidth="1"/>
     <col min="13" max="13" width="10.15234375" customWidth="1"/>
@@ -4723,13 +4723,13 @@
         <v>91</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>1023</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>1024</v>
       </c>
       <c r="G4" s="32" t="s">
         <v>9</v>
@@ -4763,10 +4763,10 @@
         <v>Vergalhão</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="R4" s="61" t="s">
         <v>9</v>
@@ -4808,13 +4808,13 @@
         <v>91</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>9</v>
@@ -4848,10 +4848,10 @@
         <v>Vergalhão Liso</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="R5" s="61" t="s">
         <v>9</v>
@@ -4893,13 +4893,13 @@
         <v>91</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G6" s="32" t="s">
         <v>9</v>
@@ -4933,10 +4933,10 @@
         <v>Vergalhão Nervurado</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="R6" s="61" t="s">
         <v>9</v>
@@ -4978,13 +4978,13 @@
         <v>91</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>1027</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>1028</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>9</v>
@@ -5018,10 +5018,10 @@
         <v>Vergalhão GG70</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="R7" s="61" t="s">
         <v>9</v>
@@ -5063,13 +5063,13 @@
         <v>91</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G8" s="32" t="s">
         <v>9</v>
@@ -5103,10 +5103,10 @@
         <v>Estribo Retangular</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="R8" s="61" t="s">
         <v>9</v>
@@ -5148,13 +5148,13 @@
         <v>91</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>9</v>
@@ -5188,10 +5188,10 @@
         <v>Estribo Circular</v>
       </c>
       <c r="P9" s="25" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="R9" s="61" t="s">
         <v>9</v>
@@ -5233,13 +5233,13 @@
         <v>91</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>9</v>
@@ -5273,10 +5273,10 @@
         <v>Estribo Diagonal</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="R10" s="61" t="s">
         <v>9</v>
@@ -5318,13 +5318,13 @@
         <v>91</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>9</v>
@@ -5358,10 +5358,10 @@
         <v>Estribo Helicoidal</v>
       </c>
       <c r="P11" s="25" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="R11" s="61" t="s">
         <v>9</v>
@@ -5403,13 +5403,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G12" s="32" t="s">
         <v>9</v>
@@ -5443,10 +5443,10 @@
         <v>Tela Soldada</v>
       </c>
       <c r="P12" s="25" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Q12" s="29" t="s">
         <v>1063</v>
-      </c>
-      <c r="Q12" s="29" t="s">
-        <v>1064</v>
       </c>
       <c r="R12" s="61" t="s">
         <v>9</v>
@@ -5488,13 +5488,13 @@
         <v>91</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E13" s="18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>1052</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>1053</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>9</v>
@@ -5528,10 +5528,10 @@
         <v>Armadura APS</v>
       </c>
       <c r="P13" s="25" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="Q13" s="29" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="R13" s="61" t="s">
         <v>9</v>
@@ -5573,13 +5573,13 @@
         <v>91</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G14" s="32" t="s">
         <v>9</v>
@@ -5613,10 +5613,10 @@
         <v>Fôrma Incorporada</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="Q14" s="29" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="R14" s="61" t="s">
         <v>9</v>
@@ -5658,13 +5658,13 @@
         <v>91</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G15" s="32" t="s">
         <v>9</v>
@@ -5698,10 +5698,10 @@
         <v>Fôrma Incorporada APS</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="Q15" s="29" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="R15" s="61" t="s">
         <v>9</v>
@@ -5761,7 +5761,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>836</v>
+        <v>1064</v>
       </c>
       <c r="K16" s="32" t="s">
         <v>9</v>
@@ -6016,7 +6016,7 @@
         <v>9</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>836</v>
+        <v>1064</v>
       </c>
       <c r="K19" s="32" t="s">
         <v>9</v>
@@ -6253,13 +6253,13 @@
         <v>91</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G22" s="32" t="s">
         <v>9</v>
@@ -6268,7 +6268,7 @@
         <v>9</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J22" s="32" t="s">
         <v>9</v>
@@ -6338,13 +6338,13 @@
         <v>91</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E23" s="18" t="s">
+        <v>896</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>897</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>898</v>
       </c>
       <c r="G23" s="32" t="s">
         <v>9</v>
@@ -6423,13 +6423,13 @@
         <v>91</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G24" s="32" t="s">
         <v>9</v>
@@ -6463,10 +6463,10 @@
         <v>Perfil Sigma</v>
       </c>
       <c r="P24" s="25" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q24" s="29" t="s">
         <v>901</v>
-      </c>
-      <c r="Q24" s="29" t="s">
-        <v>902</v>
       </c>
       <c r="R24" s="61" t="s">
         <v>9</v>
@@ -6508,7 +6508,7 @@
         <v>91</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>722</v>
@@ -6593,7 +6593,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>723</v>
@@ -6678,13 +6678,13 @@
         <v>91</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>723</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>9</v>
@@ -6763,13 +6763,13 @@
         <v>91</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E28" s="18" t="s">
+        <v>884</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>885</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>886</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>9</v>
@@ -6803,10 +6803,10 @@
         <v>Perfil Z</v>
       </c>
       <c r="P28" s="25" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q28" s="29" t="s">
         <v>887</v>
-      </c>
-      <c r="Q28" s="29" t="s">
-        <v>888</v>
       </c>
       <c r="R28" s="61" t="s">
         <v>9</v>
@@ -6848,13 +6848,13 @@
         <v>91</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>9</v>
@@ -6888,10 +6888,10 @@
         <v>Seção Circular</v>
       </c>
       <c r="P29" s="25" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q29" s="25" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="R29" s="61" t="s">
         <v>9</v>
@@ -6933,13 +6933,13 @@
         <v>91</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>9</v>
@@ -6973,10 +6973,10 @@
         <v>Seção Quadrada</v>
       </c>
       <c r="P30" s="25" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q30" s="25" t="s">
         <v>916</v>
-      </c>
-      <c r="Q30" s="25" t="s">
-        <v>917</v>
       </c>
       <c r="R30" s="61" t="s">
         <v>9</v>
@@ -7018,13 +7018,13 @@
         <v>91</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>9</v>
@@ -7058,10 +7058,10 @@
         <v>Seção Retangular</v>
       </c>
       <c r="P31" s="25" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="Q31" s="25" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="R31" s="61" t="s">
         <v>9</v>
@@ -7549,7 +7549,7 @@
         <v>9</v>
       </c>
       <c r="K37" s="32" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="L37" s="25" t="str">
         <f t="shared" si="51"/>
@@ -7634,7 +7634,7 @@
         <v>9</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L38" s="25" t="str">
         <f t="shared" si="51"/>
@@ -7704,7 +7704,7 @@
         <v>685</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>9</v>
@@ -7738,10 +7738,10 @@
         <v>Placa Gusset</v>
       </c>
       <c r="P39" s="25" t="s">
+        <v>957</v>
+      </c>
+      <c r="Q39" s="29" t="s">
         <v>958</v>
-      </c>
-      <c r="Q39" s="29" t="s">
-        <v>959</v>
       </c>
       <c r="R39" s="61" t="s">
         <v>9</v>
@@ -7783,13 +7783,13 @@
         <v>91</v>
       </c>
       <c r="D40" s="18" t="s">
+        <v>950</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>951</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="F40" s="18" t="s">
         <v>952</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>953</v>
       </c>
       <c r="G40" s="32" t="s">
         <v>9</v>
@@ -7823,10 +7823,10 @@
         <v>SteelDeck Trapezoidal</v>
       </c>
       <c r="P40" s="25" t="s">
+        <v>953</v>
+      </c>
+      <c r="Q40" s="29" t="s">
         <v>954</v>
-      </c>
-      <c r="Q40" s="29" t="s">
-        <v>955</v>
       </c>
       <c r="R40" s="61" t="s">
         <v>9</v>
@@ -7851,10 +7851,10 @@
         <v>k.chstee.40</v>
       </c>
       <c r="X40" s="55" t="s">
+        <v>955</v>
+      </c>
+      <c r="Y40" s="55" t="s">
         <v>956</v>
-      </c>
-      <c r="Y40" s="55" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8466,7 +8466,7 @@
         <v>683</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F48" s="18" t="s">
         <v>804</v>
@@ -8484,7 +8484,7 @@
         <v>9</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L48" s="25" t="str">
         <f t="shared" ref="L48" si="67">_xlfn.CONCAT(SUBSTITUTE(C48,"1.",""))</f>
@@ -8531,7 +8531,7 @@
         <v>k.babarr.48</v>
       </c>
       <c r="X48" s="55" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="Y48" s="55" t="s">
         <v>813</v>
@@ -8551,7 +8551,7 @@
         <v>683</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>805</v>
@@ -8569,7 +8569,7 @@
         <v>9</v>
       </c>
       <c r="K49" s="32" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L49" s="25" t="str">
         <f t="shared" ref="L49:L53" si="71">_xlfn.CONCAT(SUBSTITUTE(C49,"1.",""))</f>
@@ -8616,7 +8616,7 @@
         <v>k.babarr.49</v>
       </c>
       <c r="X49" s="55" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="Y49" s="55" t="s">
         <v>813</v>
@@ -8636,7 +8636,7 @@
         <v>683</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>806</v>
@@ -8654,7 +8654,7 @@
         <v>9</v>
       </c>
       <c r="K50" s="32" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L50" s="25" t="str">
         <f t="shared" si="71"/>
@@ -8701,7 +8701,7 @@
         <v>k.babarr.50</v>
       </c>
       <c r="X50" s="55" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="Y50" s="55" t="s">
         <v>813</v>
@@ -8736,10 +8736,10 @@
         <v>9</v>
       </c>
       <c r="J51" s="32" t="s">
+        <v>847</v>
+      </c>
+      <c r="K51" s="32" t="s">
         <v>848</v>
-      </c>
-      <c r="K51" s="32" t="s">
-        <v>849</v>
       </c>
       <c r="L51" s="25" t="str">
         <f t="shared" si="71"/>
@@ -8821,10 +8821,10 @@
         <v>9</v>
       </c>
       <c r="J52" s="32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K52" s="32" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="L52" s="25" t="str">
         <f t="shared" si="71"/>
@@ -8906,10 +8906,10 @@
         <v>9</v>
       </c>
       <c r="J53" s="32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="L53" s="25" t="str">
         <f t="shared" si="71"/>
@@ -8994,7 +8994,7 @@
         <v>9</v>
       </c>
       <c r="K54" s="32" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L54" s="25" t="str">
         <f t="shared" ref="L54" si="75">_xlfn.CONCAT(SUBSTITUTE(C54,"1.",""))</f>
@@ -9058,13 +9058,13 @@
         <v>91</v>
       </c>
       <c r="D55" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="E55" s="18" t="s">
-        <v>844</v>
-      </c>
       <c r="F55" s="18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>9</v>
@@ -9098,10 +9098,10 @@
         <v>ContraVentamento Horizontal Diagonal</v>
       </c>
       <c r="P55" s="25" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Q55" s="25" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="R55" s="61" t="s">
         <v>9</v>
@@ -9126,7 +9126,7 @@
         <v>k.cocont.55</v>
       </c>
       <c r="X55" s="55" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="Y55" s="55" t="s">
         <v>813</v>
@@ -9143,13 +9143,13 @@
         <v>91</v>
       </c>
       <c r="D56" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="E56" s="18" t="s">
-        <v>844</v>
-      </c>
       <c r="F56" s="18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>9</v>
@@ -9183,10 +9183,10 @@
         <v>ContraVentamento Horizontal X</v>
       </c>
       <c r="P56" s="25" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Q56" s="25" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="R56" s="61" t="s">
         <v>9</v>
@@ -9211,7 +9211,7 @@
         <v>k.cocont.56</v>
       </c>
       <c r="X56" s="55" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="Y56" s="55" t="s">
         <v>813</v>
@@ -9228,13 +9228,13 @@
         <v>91</v>
       </c>
       <c r="D57" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="E57" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="E57" s="18" t="s">
-        <v>844</v>
-      </c>
       <c r="F57" s="18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>9</v>
@@ -9268,10 +9268,10 @@
         <v>ContraVentamento Horizontal K</v>
       </c>
       <c r="P57" s="25" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Q57" s="25" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="R57" s="61" t="s">
         <v>9</v>
@@ -9296,7 +9296,7 @@
         <v>k.cocont.57</v>
       </c>
       <c r="X57" s="55" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="Y57" s="55" t="s">
         <v>813</v>
@@ -9313,13 +9313,13 @@
         <v>91</v>
       </c>
       <c r="D58" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="E58" s="18" t="s">
-        <v>844</v>
-      </c>
       <c r="F58" s="18" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>9</v>
@@ -9353,10 +9353,10 @@
         <v>ContraVentamento Horizontal V</v>
       </c>
       <c r="P58" s="25" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q58" s="25" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="R58" s="61" t="s">
         <v>9</v>
@@ -9381,7 +9381,7 @@
         <v>k.cocont.58</v>
       </c>
       <c r="X58" s="55" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="Y58" s="55" t="s">
         <v>813</v>
@@ -9398,13 +9398,13 @@
         <v>91</v>
       </c>
       <c r="D59" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="E59" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="E59" s="18" t="s">
-        <v>844</v>
-      </c>
       <c r="F59" s="18" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G59" s="32" t="s">
         <v>9</v>
@@ -9438,10 +9438,10 @@
         <v>ContraVentamento Horizontal VI</v>
       </c>
       <c r="P59" s="25" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Q59" s="25" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="R59" s="61" t="s">
         <v>9</v>
@@ -9466,7 +9466,7 @@
         <v>k.cocont.59</v>
       </c>
       <c r="X59" s="55" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="Y59" s="55" t="s">
         <v>813</v>
@@ -9483,13 +9483,13 @@
         <v>91</v>
       </c>
       <c r="D60" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="E60" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="E60" s="18" t="s">
-        <v>844</v>
-      </c>
       <c r="F60" s="18" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G60" s="32" t="s">
         <v>9</v>
@@ -9523,10 +9523,10 @@
         <v>ContraVentamento Horizontal Delta</v>
       </c>
       <c r="P60" s="25" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q60" s="25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="R60" s="61" t="s">
         <v>9</v>
@@ -9551,7 +9551,7 @@
         <v>k.cocont.60</v>
       </c>
       <c r="X60" s="55" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="Y60" s="55" t="s">
         <v>813</v>
@@ -9568,13 +9568,13 @@
         <v>91</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G61" s="32" t="s">
         <v>9</v>
@@ -9608,10 +9608,10 @@
         <v>ContraVentamento Vertical</v>
       </c>
       <c r="P61" s="25" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Q61" s="25" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="R61" s="61" t="s">
         <v>9</v>
@@ -9653,13 +9653,13 @@
         <v>91</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G62" s="32" t="s">
         <v>9</v>
@@ -9693,10 +9693,10 @@
         <v>ContraVentamento Vertical X</v>
       </c>
       <c r="P62" s="25" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="Q62" s="25" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="R62" s="61" t="s">
         <v>9</v>
@@ -9738,13 +9738,13 @@
         <v>91</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G63" s="32" t="s">
         <v>9</v>
@@ -9778,10 +9778,10 @@
         <v>ContraVentamento Vertical K</v>
       </c>
       <c r="P63" s="25" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q63" s="25" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="R63" s="61" t="s">
         <v>9</v>
@@ -9823,13 +9823,13 @@
         <v>91</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G64" s="32" t="s">
         <v>9</v>
@@ -9863,10 +9863,10 @@
         <v>ContraVentamento Vertical V</v>
       </c>
       <c r="P64" s="25" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="Q64" s="25" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="R64" s="61" t="s">
         <v>9</v>
@@ -9908,13 +9908,13 @@
         <v>91</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E65" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="F65" s="18" t="s">
         <v>845</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>846</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>9</v>
@@ -9948,10 +9948,10 @@
         <v>ContraVentamento Vertical VI</v>
       </c>
       <c r="P65" s="25" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Q65" s="25" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="R65" s="61" t="s">
         <v>9</v>
@@ -9993,13 +9993,13 @@
         <v>91</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>9</v>
@@ -10033,10 +10033,10 @@
         <v>ContraVentamento Vertical Delta</v>
       </c>
       <c r="P66" s="25" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q66" s="25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="R66" s="61" t="s">
         <v>9</v>
@@ -10078,13 +10078,13 @@
         <v>91</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E67" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="F67" s="18" t="s">
         <v>853</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>854</v>
       </c>
       <c r="G67" s="32" t="s">
         <v>9</v>
@@ -10118,10 +10118,10 @@
         <v>ContraVentamento Cabo</v>
       </c>
       <c r="P67" s="25" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Q67" s="25" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="R67" s="61" t="s">
         <v>9</v>
@@ -11271,10 +11271,10 @@
         <v>803</v>
       </c>
       <c r="E81" s="18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F81" s="18" t="s">
         <v>1006</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>1007</v>
       </c>
       <c r="G81" s="32" t="s">
         <v>9</v>
@@ -11308,10 +11308,10 @@
         <v>Pórtico Galpão</v>
       </c>
       <c r="P81" s="25" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="Q81" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="R81" s="61" t="s">
         <v>9</v>
@@ -11356,10 +11356,10 @@
         <v>803</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G82" s="32" t="s">
         <v>9</v>
@@ -11393,10 +11393,10 @@
         <v>Pórtico Galpão e Anexo</v>
       </c>
       <c r="P82" s="25" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="Q82" s="29" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="R82" s="61" t="s">
         <v>9</v>
@@ -11441,10 +11441,10 @@
         <v>803</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G83" s="32" t="s">
         <v>9</v>
@@ -11478,10 +11478,10 @@
         <v>Pórtico Galpão Vãos Múltiplos</v>
       </c>
       <c r="P83" s="25" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="Q83" s="29" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="R83" s="61" t="s">
         <v>9</v>
@@ -11526,7 +11526,7 @@
         <v>603</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F84" s="18" t="s">
         <v>731</v>
@@ -11611,7 +11611,7 @@
         <v>603</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F85" s="18" t="s">
         <v>730</v>
@@ -11696,7 +11696,7 @@
         <v>603</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F86" s="60" t="s">
         <v>652</v>
@@ -11733,10 +11733,10 @@
         <v>Ancoragem de Estai</v>
       </c>
       <c r="P86" s="25" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="Q86" s="29" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="R86" s="61" t="s">
         <v>9</v>
@@ -11781,7 +11781,7 @@
         <v>603</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F87" s="60" t="s">
         <v>653</v>
@@ -11818,10 +11818,10 @@
         <v>Ancoragem Acoplador</v>
       </c>
       <c r="P87" s="25" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="Q87" s="29" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="R87" s="61" t="s">
         <v>9</v>
@@ -11866,7 +11866,7 @@
         <v>603</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F88" s="60" t="s">
         <v>724</v>
@@ -11903,10 +11903,10 @@
         <v>Ancoragem Extremo Fixo</v>
       </c>
       <c r="P88" s="25" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q88" s="29" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="R88" s="61" t="s">
         <v>9</v>
@@ -11951,7 +11951,7 @@
         <v>603</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F89" s="60" t="s">
         <v>725</v>
@@ -11988,10 +11988,10 @@
         <v>Ancoragem Extremo Tensionado</v>
       </c>
       <c r="P89" s="25" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q89" s="29" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="R89" s="61" t="s">
         <v>9</v>
@@ -12076,7 +12076,7 @@
         <v>589</v>
       </c>
       <c r="Q90" s="29" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="R90" s="61" t="s">
         <v>9</v>
@@ -12158,10 +12158,10 @@
         <v>Tensor Barra</v>
       </c>
       <c r="P91" s="25" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q91" s="29" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="R91" s="61" t="s">
         <v>9</v>
@@ -12243,10 +12243,10 @@
         <v>Tensor Revestido</v>
       </c>
       <c r="P92" s="25" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="Q92" s="29" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="R92" s="61" t="s">
         <v>9</v>
@@ -12328,10 +12328,10 @@
         <v>Tensor Bainha</v>
       </c>
       <c r="P93" s="25" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="Q93" s="29" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="R93" s="61" t="s">
         <v>9</v>
@@ -12413,10 +12413,10 @@
         <v>Tensor Bainha Acoplador</v>
       </c>
       <c r="P94" s="25" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="Q94" s="29" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="R94" s="61" t="s">
         <v>9</v>
@@ -12498,10 +12498,10 @@
         <v>Tensor Bainha Diabolo</v>
       </c>
       <c r="P95" s="25" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="Q95" s="29" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="R95" s="61" t="s">
         <v>9</v>
@@ -12583,10 +12583,10 @@
         <v>Tensor Bainha Cabo</v>
       </c>
       <c r="P96" s="25" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="Q96" s="29" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="R96" s="61" t="s">
         <v>9</v>
@@ -12668,10 +12668,10 @@
         <v>Tensor Injetor</v>
       </c>
       <c r="P97" s="25" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="Q97" s="29" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="R97" s="61" t="s">
         <v>9</v>
@@ -12753,10 +12753,10 @@
         <v>Tensor Trombeta</v>
       </c>
       <c r="P98" s="25" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="Q98" s="29" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="R98" s="61" t="s">
         <v>9</v>
@@ -12838,10 +12838,10 @@
         <v>Tensor Corda</v>
       </c>
       <c r="P99" s="25" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="Q99" s="29" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="R99" s="61" t="s">
         <v>9</v>
@@ -12923,10 +12923,10 @@
         <v>Tensor Fio</v>
       </c>
       <c r="P100" s="25" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="Q100" s="29" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="R100" s="61" t="s">
         <v>9</v>
@@ -13008,10 +13008,10 @@
         <v>Mastro Estrutural</v>
       </c>
       <c r="P101" s="25" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="Q101" s="29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="R101" s="61" t="s">
         <v>9</v>
@@ -13138,13 +13138,13 @@
         <v>92</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G103" s="32" t="s">
         <v>9</v>
@@ -13178,10 +13178,10 @@
         <v>Terça Cobertura</v>
       </c>
       <c r="P103" s="25" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="Q103" s="29" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="R103" s="61" t="s">
         <v>9</v>
@@ -13223,13 +13223,13 @@
         <v>92</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E104" s="18" t="s">
+        <v>889</v>
+      </c>
+      <c r="F104" s="18" t="s">
         <v>890</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>891</v>
       </c>
       <c r="G104" s="32" t="s">
         <v>9</v>
@@ -13263,10 +13263,10 @@
         <v>Terça Fachada</v>
       </c>
       <c r="P104" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="Q104" s="29" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="R104" s="61" t="s">
         <v>9</v>
@@ -13308,13 +13308,13 @@
         <v>92</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G105" s="32" t="s">
         <v>9</v>
@@ -13348,10 +13348,10 @@
         <v>Terça Cartola</v>
       </c>
       <c r="P105" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="Q105" s="29" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="R105" s="61" t="s">
         <v>9</v>
@@ -13393,13 +13393,13 @@
         <v>92</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E106" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F106" s="18" t="s">
         <v>1010</v>
-      </c>
-      <c r="F106" s="18" t="s">
-        <v>1011</v>
       </c>
       <c r="G106" s="32" t="s">
         <v>9</v>
@@ -13433,10 +13433,10 @@
         <v>Tirante Beiral</v>
       </c>
       <c r="P106" s="25" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="Q106" s="29" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R106" s="61" t="s">
         <v>9</v>
@@ -13478,13 +13478,13 @@
         <v>92</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G107" s="32" t="s">
         <v>9</v>
@@ -13518,10 +13518,10 @@
         <v>Tirante Terça</v>
       </c>
       <c r="P107" s="25" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Q107" s="29" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R107" s="61" t="s">
         <v>9</v>
@@ -13563,13 +13563,13 @@
         <v>92</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G108" s="32" t="s">
         <v>9</v>
@@ -13603,10 +13603,10 @@
         <v>Tirante Cumeeira</v>
       </c>
       <c r="P108" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="Q108" s="29" t="s">
         <v>1016</v>
-      </c>
-      <c r="Q108" s="29" t="s">
-        <v>1017</v>
       </c>
       <c r="R108" s="61" t="s">
         <v>9</v>
@@ -13648,13 +13648,13 @@
         <v>92</v>
       </c>
       <c r="D109" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="E109" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="E109" s="18" t="s">
-        <v>927</v>
-      </c>
       <c r="F109" s="18" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G109" s="32" t="s">
         <v>9</v>
@@ -13688,10 +13688,10 @@
         <v>Frechal Alinhamento</v>
       </c>
       <c r="P109" s="25" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="Q109" s="29" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="R109" s="61" t="s">
         <v>9</v>
@@ -13730,16 +13730,16 @@
         <v>76</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D110" s="18" t="s">
+        <v>929</v>
+      </c>
+      <c r="E110" s="18" t="s">
         <v>930</v>
       </c>
-      <c r="E110" s="18" t="s">
-        <v>931</v>
-      </c>
       <c r="F110" s="18" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G110" s="32" t="s">
         <v>9</v>
@@ -13773,10 +13773,10 @@
         <v>Painel Sanduíche Fachada</v>
       </c>
       <c r="P110" s="25" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="Q110" s="29" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="R110" s="61" t="s">
         <v>9</v>
@@ -13801,10 +13801,10 @@
         <v>k.sipain.110</v>
       </c>
       <c r="X110" s="55" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="Y110" s="55" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13815,16 +13815,16 @@
         <v>76</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D111" s="18" t="s">
+        <v>929</v>
+      </c>
+      <c r="E111" s="18" t="s">
         <v>930</v>
       </c>
-      <c r="E111" s="18" t="s">
-        <v>931</v>
-      </c>
       <c r="F111" s="18" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G111" s="32" t="s">
         <v>9</v>
@@ -13858,10 +13858,10 @@
         <v>Painel Sanduíche Térmico</v>
       </c>
       <c r="P111" s="25" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="Q111" s="29" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="R111" s="61" t="s">
         <v>9</v>
@@ -13886,10 +13886,10 @@
         <v>k.sipain.111</v>
       </c>
       <c r="X111" s="55" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="Y111" s="55" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13900,16 +13900,16 @@
         <v>76</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G112" s="32" t="s">
         <v>9</v>
@@ -13943,10 +13943,10 @@
         <v>Telha Sanduíche Zipada</v>
       </c>
       <c r="P112" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="Q112" s="29" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="R112" s="61" t="s">
         <v>9</v>
@@ -13971,10 +13971,10 @@
         <v>k.sitelh.112</v>
       </c>
       <c r="X112" s="55" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y112" s="59" t="s">
         <v>947</v>
-      </c>
-      <c r="Y112" s="59" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="113" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13985,16 +13985,16 @@
         <v>76</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G113" s="32" t="s">
         <v>9</v>
@@ -14028,10 +14028,10 @@
         <v>Telha Sanduíche Ondulada</v>
       </c>
       <c r="P113" s="25" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="Q113" s="29" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R113" s="61" t="s">
         <v>9</v>
@@ -14056,10 +14056,10 @@
         <v>k.sitelh.113</v>
       </c>
       <c r="X113" s="55" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y113" s="59" t="s">
         <v>947</v>
-      </c>
-      <c r="Y113" s="59" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="114" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14070,16 +14070,16 @@
         <v>76</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G114" s="32" t="s">
         <v>9</v>
@@ -14113,10 +14113,10 @@
         <v>Telha Sanduíche Trapezoidal</v>
       </c>
       <c r="P114" s="25" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="Q114" s="29" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="R114" s="61" t="s">
         <v>9</v>
@@ -14141,10 +14141,10 @@
         <v>k.sitelh.114</v>
       </c>
       <c r="X114" s="55" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y114" s="59" t="s">
         <v>947</v>
-      </c>
-      <c r="Y114" s="59" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="115" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14155,16 +14155,16 @@
         <v>76</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G115" s="32" t="s">
         <v>9</v>
@@ -14198,10 +14198,10 @@
         <v>Telha Sanduíche Solar</v>
       </c>
       <c r="P115" s="25" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="Q115" s="29" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="R115" s="61" t="s">
         <v>9</v>
@@ -14226,10 +14226,10 @@
         <v>k.sitelh.115</v>
       </c>
       <c r="X115" s="55" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y115" s="59" t="s">
         <v>947</v>
-      </c>
-      <c r="Y115" s="59" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="116" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14240,16 +14240,16 @@
         <v>76</v>
       </c>
       <c r="C116" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="E116" s="18" t="s">
         <v>903</v>
       </c>
-      <c r="D116" s="18" t="s">
-        <v>906</v>
-      </c>
-      <c r="E116" s="18" t="s">
-        <v>904</v>
-      </c>
       <c r="F116" s="18" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G116" s="32" t="s">
         <v>9</v>
@@ -14283,10 +14283,10 @@
         <v>Telha Trapezoidal</v>
       </c>
       <c r="P116" s="25" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="Q116" s="29" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="R116" s="61" t="s">
         <v>9</v>
@@ -14311,10 +14311,10 @@
         <v>k.sitelh.116</v>
       </c>
       <c r="X116" s="55" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y116" s="59" t="s">
         <v>947</v>
-      </c>
-      <c r="Y116" s="59" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="117" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14325,16 +14325,16 @@
         <v>76</v>
       </c>
       <c r="C117" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="E117" s="18" t="s">
         <v>903</v>
       </c>
-      <c r="D117" s="18" t="s">
-        <v>906</v>
-      </c>
-      <c r="E117" s="18" t="s">
+      <c r="F117" s="18" t="s">
         <v>904</v>
-      </c>
-      <c r="F117" s="18" t="s">
-        <v>905</v>
       </c>
       <c r="G117" s="32" t="s">
         <v>9</v>
@@ -14368,10 +14368,10 @@
         <v>Telha Ondulada</v>
       </c>
       <c r="P117" s="25" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="Q117" s="29" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R117" s="61" t="s">
         <v>9</v>
@@ -14396,10 +14396,10 @@
         <v>k.sitelh.117</v>
       </c>
       <c r="X117" s="55" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y117" s="59" t="s">
         <v>947</v>
-      </c>
-      <c r="Y117" s="59" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="118" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14410,16 +14410,16 @@
         <v>76</v>
       </c>
       <c r="C118" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="E118" s="18" t="s">
         <v>903</v>
       </c>
-      <c r="D118" s="18" t="s">
+      <c r="F118" s="18" t="s">
         <v>906</v>
-      </c>
-      <c r="E118" s="18" t="s">
-        <v>904</v>
-      </c>
-      <c r="F118" s="18" t="s">
-        <v>907</v>
       </c>
       <c r="G118" s="32" t="s">
         <v>9</v>
@@ -14453,10 +14453,10 @@
         <v>Telha Zipada</v>
       </c>
       <c r="P118" s="25" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="Q118" s="29" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="R118" s="61" t="s">
         <v>9</v>
@@ -14481,10 +14481,10 @@
         <v>k.sitelh.118</v>
       </c>
       <c r="X118" s="55" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y118" s="59" t="s">
         <v>947</v>
-      </c>
-      <c r="Y118" s="59" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="119" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14495,7 +14495,7 @@
         <v>76</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D119" s="18" t="s">
         <v>666</v>
@@ -14580,7 +14580,7 @@
         <v>76</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D120" s="18" t="s">
         <v>666</v>
@@ -14665,7 +14665,7 @@
         <v>76</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D121" s="18" t="s">
         <v>666</v>
@@ -14750,7 +14750,7 @@
         <v>76</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>666</v>
@@ -14835,7 +14835,7 @@
         <v>76</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>666</v>
@@ -14920,7 +14920,7 @@
         <v>76</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D124" s="18" t="s">
         <v>666</v>
@@ -15005,7 +15005,7 @@
         <v>76</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>666</v>
@@ -15090,7 +15090,7 @@
         <v>76</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>666</v>
@@ -15133,10 +15133,10 @@
         <v>Pino de Cisalhamento</v>
       </c>
       <c r="P126" s="25" t="s">
+        <v>1049</v>
+      </c>
+      <c r="Q126" s="29" t="s">
         <v>1050</v>
-      </c>
-      <c r="Q126" s="29" t="s">
-        <v>1051</v>
       </c>
       <c r="R126" s="61" t="s">
         <v>9</v>

--- a/Versão5/META/Ontologia_METAL.xlsx
+++ b/Versão5/META/Ontologia_METAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\META\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CA3FC6-4C2F-4BA3-B504-A329B102B348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E66798-C8CA-4A05-8981-D339E581FFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6339" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6339" uniqueCount="1066">
   <si>
     <t>Edição</t>
   </si>
@@ -3266,6 +3266,9 @@
   </si>
   <si>
     <t>é.membro.de some Estrutura.Principal</t>
+  </si>
+  <si>
+    <t>Tipos.Estruturais</t>
   </si>
 </sst>
 </file>
@@ -4376,7 +4379,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45940.289642824071</v>
+        <v>45940.292071759257</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -4428,9 +4431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
   <dimension ref="A1:Y126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69140625" defaultRowHeight="6.55" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7127,7 +7130,7 @@
         <v>9</v>
       </c>
       <c r="L32" s="25" t="str">
-        <f t="shared" ref="L32:L101" si="43">_xlfn.CONCAT(SUBSTITUTE(C32,"1.",""))</f>
+        <f t="shared" ref="L32:L98" si="43">_xlfn.CONCAT(SUBSTITUTE(C32,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M32" s="25" t="str">
@@ -10652,7 +10655,7 @@
         <v>726</v>
       </c>
       <c r="W73" s="30" t="str">
-        <f t="shared" ref="W73:W126" si="111">CONCATENATE("k.",LOWER(LEFT(D73,2)),LOWER(LEFT(E73,4)),".",A73)</f>
+        <f t="shared" ref="W73:W123" si="111">CONCATENATE("k.",LOWER(LEFT(D73,2)),LOWER(LEFT(E73,4)),".",A73)</f>
         <v>k.trtrel.73</v>
       </c>
       <c r="X73" s="55" t="s">
@@ -10892,15 +10895,15 @@
         <v>9</v>
       </c>
       <c r="S76" s="62" t="str">
-        <f t="shared" ref="S76:S126" si="122">SUBSTITUTE(C76, ".", " ")</f>
+        <f t="shared" ref="S76:S123" si="122">SUBSTITUTE(C76, ".", " ")</f>
         <v>Estrutura Principal</v>
       </c>
       <c r="T76" s="62" t="str">
-        <f t="shared" ref="T76:T126" si="123">SUBSTITUTE(D76, ".", " ")</f>
+        <f t="shared" ref="T76:T123" si="123">SUBSTITUTE(D76, ".", " ")</f>
         <v>Treliçados</v>
       </c>
       <c r="U76" s="62" t="str">
-        <f t="shared" ref="U76:U126" si="124">SUBSTITUTE(E76, ".", " ")</f>
+        <f t="shared" ref="U76:U123" si="124">SUBSTITUTE(E76, ".", " ")</f>
         <v>Treliças Espaciais</v>
       </c>
       <c r="V76" s="61" t="s">
@@ -11268,13 +11271,13 @@
         <v>91</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>803</v>
+        <v>603</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>1006</v>
+        <v>731</v>
       </c>
       <c r="G81" s="32" t="s">
         <v>9</v>
@@ -11292,26 +11295,26 @@
         <v>9</v>
       </c>
       <c r="L81" s="25" t="str">
-        <f t="shared" ref="L81:L83" si="125">_xlfn.CONCAT(SUBSTITUTE(C81,"1.",""))</f>
+        <f t="shared" si="43"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M81" s="25" t="str">
-        <f t="shared" ref="M81:M83" si="126">_xlfn.CONCAT(SUBSTITUTE(D81,"."," "))</f>
-        <v>Galpões</v>
+        <f t="shared" ref="M81:M98" si="125">_xlfn.CONCAT(SUBSTITUTE(D81,"."," "))</f>
+        <v>Tensionadas</v>
       </c>
       <c r="N81" s="25" t="str">
-        <f t="shared" ref="N81:N83" si="127">_xlfn.CONCAT(SUBSTITUTE(E81,"."," "))</f>
-        <v>Pórticos de Galpões</v>
+        <f t="shared" ref="N81:N98" si="126">_xlfn.CONCAT(SUBSTITUTE(E81,"."," "))</f>
+        <v>Ancoras</v>
       </c>
       <c r="O81" s="25" t="str">
-        <f t="shared" ref="O81:O83" si="128">_xlfn.CONCAT(SUBSTITUTE(F81,"."," "))</f>
-        <v>Pórtico Galpão</v>
+        <f t="shared" ref="O81:O115" si="127">_xlfn.CONCAT(SUBSTITUTE(F81,"."," "))</f>
+        <v>Ancora Estrutural</v>
       </c>
       <c r="P81" s="25" t="s">
-        <v>961</v>
+        <v>600</v>
       </c>
       <c r="Q81" s="29" t="s">
-        <v>979</v>
+        <v>769</v>
       </c>
       <c r="R81" s="61" t="s">
         <v>9</v>
@@ -11322,24 +11325,24 @@
       </c>
       <c r="T81" s="62" t="str">
         <f t="shared" si="123"/>
-        <v>Galpões</v>
+        <v>Tensionadas</v>
       </c>
       <c r="U81" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Pórticos de Galpões</v>
+        <v>Ancoras</v>
       </c>
       <c r="V81" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W81" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.gapórt.81</v>
+        <v>k.teanco.81</v>
       </c>
       <c r="X81" s="55" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="Y81" s="55" t="s">
-        <v>622</v>
+        <v>669</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11353,13 +11356,13 @@
         <v>91</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>803</v>
+        <v>603</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>1007</v>
+        <v>730</v>
       </c>
       <c r="G82" s="32" t="s">
         <v>9</v>
@@ -11377,26 +11380,26 @@
         <v>9</v>
       </c>
       <c r="L82" s="25" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" ref="L82:L97" si="128">_xlfn.CONCAT(SUBSTITUTE(C82,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M82" s="25" t="str">
-        <f t="shared" si="126"/>
-        <v>Galpões</v>
+        <f t="shared" ref="M82:M97" si="129">_xlfn.CONCAT(SUBSTITUTE(D82,"."," "))</f>
+        <v>Tensionadas</v>
       </c>
       <c r="N82" s="25" t="str">
+        <f t="shared" ref="N82:N97" si="130">_xlfn.CONCAT(SUBSTITUTE(E82,"."," "))</f>
+        <v>Ancoras</v>
+      </c>
+      <c r="O82" s="25" t="str">
         <f t="shared" si="127"/>
-        <v>Pórticos de Galpões</v>
-      </c>
-      <c r="O82" s="25" t="str">
-        <f t="shared" si="128"/>
-        <v>Pórtico Galpão e Anexo</v>
+        <v>Conector Estrutural</v>
       </c>
       <c r="P82" s="25" t="s">
-        <v>962</v>
+        <v>601</v>
       </c>
       <c r="Q82" s="29" t="s">
-        <v>980</v>
+        <v>770</v>
       </c>
       <c r="R82" s="61" t="s">
         <v>9</v>
@@ -11407,24 +11410,24 @@
       </c>
       <c r="T82" s="62" t="str">
         <f t="shared" si="123"/>
-        <v>Galpões</v>
+        <v>Tensionadas</v>
       </c>
       <c r="U82" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Pórticos de Galpões</v>
+        <v>Ancoras</v>
       </c>
       <c r="V82" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W82" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.gapórt.82</v>
+        <v>k.teanco.82</v>
       </c>
       <c r="X82" s="55" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="Y82" s="55" t="s">
-        <v>622</v>
+        <v>669</v>
       </c>
     </row>
     <row r="83" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11438,13 +11441,13 @@
         <v>91</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>803</v>
+        <v>603</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F83" s="18" t="s">
-        <v>1008</v>
+        <v>1021</v>
+      </c>
+      <c r="F83" s="60" t="s">
+        <v>652</v>
       </c>
       <c r="G83" s="32" t="s">
         <v>9</v>
@@ -11462,26 +11465,26 @@
         <v>9</v>
       </c>
       <c r="L83" s="25" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M83" s="25" t="str">
-        <f t="shared" si="126"/>
-        <v>Galpões</v>
+        <f t="shared" si="129"/>
+        <v>Tensionadas</v>
       </c>
       <c r="N83" s="25" t="str">
+        <f t="shared" si="130"/>
+        <v>Ancoras</v>
+      </c>
+      <c r="O83" s="25" t="str">
         <f t="shared" si="127"/>
-        <v>Pórticos de Galpões</v>
-      </c>
-      <c r="O83" s="25" t="str">
-        <f t="shared" si="128"/>
-        <v>Pórtico Galpão Vãos Múltiplos</v>
+        <v>Ancoragem de Estai</v>
       </c>
       <c r="P83" s="25" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="Q83" s="29" t="s">
-        <v>981</v>
+        <v>1004</v>
       </c>
       <c r="R83" s="61" t="s">
         <v>9</v>
@@ -11492,24 +11495,24 @@
       </c>
       <c r="T83" s="62" t="str">
         <f t="shared" si="123"/>
-        <v>Galpões</v>
+        <v>Tensionadas</v>
       </c>
       <c r="U83" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Pórticos de Galpões</v>
+        <v>Ancoras</v>
       </c>
       <c r="V83" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W83" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.gapórt.83</v>
+        <v>k.teanco.83</v>
       </c>
       <c r="X83" s="55" t="s">
-        <v>623</v>
-      </c>
-      <c r="Y83" s="55" t="s">
-        <v>622</v>
+        <v>624</v>
+      </c>
+      <c r="Y83" s="59" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="84" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11528,8 +11531,8 @@
       <c r="E84" s="18" t="s">
         <v>1021</v>
       </c>
-      <c r="F84" s="18" t="s">
-        <v>731</v>
+      <c r="F84" s="60" t="s">
+        <v>653</v>
       </c>
       <c r="G84" s="32" t="s">
         <v>9</v>
@@ -11547,26 +11550,26 @@
         <v>9</v>
       </c>
       <c r="L84" s="25" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="128"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M84" s="25" t="str">
-        <f t="shared" ref="M84:M101" si="129">_xlfn.CONCAT(SUBSTITUTE(D84,"."," "))</f>
+        <f t="shared" si="129"/>
         <v>Tensionadas</v>
       </c>
       <c r="N84" s="25" t="str">
-        <f t="shared" ref="N84:N101" si="130">_xlfn.CONCAT(SUBSTITUTE(E84,"."," "))</f>
+        <f t="shared" si="130"/>
         <v>Ancoras</v>
       </c>
       <c r="O84" s="25" t="str">
-        <f t="shared" ref="O84:O118" si="131">_xlfn.CONCAT(SUBSTITUTE(F84,"."," "))</f>
-        <v>Ancora Estrutural</v>
+        <f t="shared" si="127"/>
+        <v>Ancoragem Acoplador</v>
       </c>
       <c r="P84" s="25" t="s">
-        <v>600</v>
+        <v>965</v>
       </c>
       <c r="Q84" s="29" t="s">
-        <v>769</v>
+        <v>982</v>
       </c>
       <c r="R84" s="61" t="s">
         <v>9</v>
@@ -11591,10 +11594,10 @@
         <v>k.teanco.84</v>
       </c>
       <c r="X84" s="55" t="s">
-        <v>625</v>
-      </c>
-      <c r="Y84" s="55" t="s">
-        <v>669</v>
+        <v>624</v>
+      </c>
+      <c r="Y84" s="59" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11613,8 +11616,8 @@
       <c r="E85" s="18" t="s">
         <v>1021</v>
       </c>
-      <c r="F85" s="18" t="s">
-        <v>730</v>
+      <c r="F85" s="60" t="s">
+        <v>724</v>
       </c>
       <c r="G85" s="32" t="s">
         <v>9</v>
@@ -11632,26 +11635,26 @@
         <v>9</v>
       </c>
       <c r="L85" s="25" t="str">
-        <f t="shared" ref="L85:L100" si="132">_xlfn.CONCAT(SUBSTITUTE(C85,"1.",""))</f>
+        <f t="shared" si="128"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M85" s="25" t="str">
-        <f t="shared" ref="M85:M100" si="133">_xlfn.CONCAT(SUBSTITUTE(D85,"."," "))</f>
+        <f t="shared" si="129"/>
         <v>Tensionadas</v>
       </c>
       <c r="N85" s="25" t="str">
-        <f t="shared" ref="N85:N100" si="134">_xlfn.CONCAT(SUBSTITUTE(E85,"."," "))</f>
+        <f t="shared" si="130"/>
         <v>Ancoras</v>
       </c>
       <c r="O85" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Conector Estrutural</v>
+        <f t="shared" si="127"/>
+        <v>Ancoragem Extremo Fixo</v>
       </c>
       <c r="P85" s="25" t="s">
-        <v>601</v>
+        <v>966</v>
       </c>
       <c r="Q85" s="29" t="s">
-        <v>770</v>
+        <v>983</v>
       </c>
       <c r="R85" s="61" t="s">
         <v>9</v>
@@ -11676,10 +11679,10 @@
         <v>k.teanco.85</v>
       </c>
       <c r="X85" s="55" t="s">
-        <v>625</v>
-      </c>
-      <c r="Y85" s="55" t="s">
-        <v>669</v>
+        <v>624</v>
+      </c>
+      <c r="Y85" s="59" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11699,7 +11702,7 @@
         <v>1021</v>
       </c>
       <c r="F86" s="60" t="s">
-        <v>652</v>
+        <v>725</v>
       </c>
       <c r="G86" s="32" t="s">
         <v>9</v>
@@ -11717,26 +11720,26 @@
         <v>9</v>
       </c>
       <c r="L86" s="25" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="128"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M86" s="25" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="129"/>
         <v>Tensionadas</v>
       </c>
       <c r="N86" s="25" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="130"/>
         <v>Ancoras</v>
       </c>
       <c r="O86" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Ancoragem de Estai</v>
+        <f t="shared" si="127"/>
+        <v>Ancoragem Extremo Tensionado</v>
       </c>
       <c r="P86" s="25" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="Q86" s="29" t="s">
-        <v>1004</v>
+        <v>984</v>
       </c>
       <c r="R86" s="61" t="s">
         <v>9</v>
@@ -11764,7 +11767,7 @@
         <v>624</v>
       </c>
       <c r="Y86" s="59" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="87" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11781,10 +11784,10 @@
         <v>603</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>1021</v>
+        <v>651</v>
       </c>
       <c r="F87" s="60" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="G87" s="32" t="s">
         <v>9</v>
@@ -11802,26 +11805,26 @@
         <v>9</v>
       </c>
       <c r="L87" s="25" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" ref="L87" si="131">_xlfn.CONCAT(SUBSTITUTE(C87,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M87" s="25" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" ref="M87" si="132">_xlfn.CONCAT(SUBSTITUTE(D87,"."," "))</f>
         <v>Tensionadas</v>
       </c>
       <c r="N87" s="25" t="str">
-        <f t="shared" si="134"/>
-        <v>Ancoras</v>
+        <f t="shared" ref="N87" si="133">_xlfn.CONCAT(SUBSTITUTE(E87,"."," "))</f>
+        <v>Tensores</v>
       </c>
       <c r="O87" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Ancoragem Acoplador</v>
+        <f t="shared" ref="O87" si="134">_xlfn.CONCAT(SUBSTITUTE(F87,"."," "))</f>
+        <v>Estai</v>
       </c>
       <c r="P87" s="25" t="s">
-        <v>965</v>
+        <v>589</v>
       </c>
       <c r="Q87" s="29" t="s">
-        <v>982</v>
+        <v>1003</v>
       </c>
       <c r="R87" s="61" t="s">
         <v>9</v>
@@ -11836,20 +11839,20 @@
       </c>
       <c r="U87" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Ancoras</v>
+        <v>Tensores</v>
       </c>
       <c r="V87" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W87" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.teanco.87</v>
+        <v>k.tetens.87</v>
       </c>
       <c r="X87" s="55" t="s">
         <v>624</v>
       </c>
       <c r="Y87" s="59" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="88" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11866,10 +11869,10 @@
         <v>603</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>1021</v>
+        <v>651</v>
       </c>
       <c r="F88" s="60" t="s">
-        <v>724</v>
+        <v>654</v>
       </c>
       <c r="G88" s="32" t="s">
         <v>9</v>
@@ -11887,26 +11890,26 @@
         <v>9</v>
       </c>
       <c r="L88" s="25" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="128"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M88" s="25" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="129"/>
         <v>Tensionadas</v>
       </c>
       <c r="N88" s="25" t="str">
-        <f t="shared" si="134"/>
-        <v>Ancoras</v>
+        <f t="shared" si="130"/>
+        <v>Tensores</v>
       </c>
       <c r="O88" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Ancoragem Extremo Fixo</v>
+        <f t="shared" si="127"/>
+        <v>Tensor Barra</v>
       </c>
       <c r="P88" s="25" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="Q88" s="29" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="R88" s="61" t="s">
         <v>9</v>
@@ -11921,20 +11924,20 @@
       </c>
       <c r="U88" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Ancoras</v>
+        <v>Tensores</v>
       </c>
       <c r="V88" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W88" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.teanco.88</v>
+        <v>k.tetens.88</v>
       </c>
       <c r="X88" s="55" t="s">
         <v>624</v>
       </c>
       <c r="Y88" s="59" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11951,10 +11954,10 @@
         <v>603</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>1021</v>
+        <v>651</v>
       </c>
       <c r="F89" s="60" t="s">
-        <v>725</v>
+        <v>661</v>
       </c>
       <c r="G89" s="32" t="s">
         <v>9</v>
@@ -11972,26 +11975,26 @@
         <v>9</v>
       </c>
       <c r="L89" s="25" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="128"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M89" s="25" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="129"/>
         <v>Tensionadas</v>
       </c>
       <c r="N89" s="25" t="str">
-        <f t="shared" si="134"/>
-        <v>Ancoras</v>
+        <f t="shared" si="130"/>
+        <v>Tensores</v>
       </c>
       <c r="O89" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Ancoragem Extremo Tensionado</v>
+        <f t="shared" si="127"/>
+        <v>Tensor Revestido</v>
       </c>
       <c r="P89" s="25" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="Q89" s="29" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="R89" s="61" t="s">
         <v>9</v>
@@ -12006,20 +12009,20 @@
       </c>
       <c r="U89" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Ancoras</v>
+        <v>Tensores</v>
       </c>
       <c r="V89" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W89" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.teanco.89</v>
+        <v>k.tetens.89</v>
       </c>
       <c r="X89" s="55" t="s">
         <v>624</v>
       </c>
       <c r="Y89" s="59" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12039,7 +12042,7 @@
         <v>651</v>
       </c>
       <c r="F90" s="60" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="G90" s="32" t="s">
         <v>9</v>
@@ -12057,26 +12060,26 @@
         <v>9</v>
       </c>
       <c r="L90" s="25" t="str">
-        <f t="shared" ref="L90" si="135">_xlfn.CONCAT(SUBSTITUTE(C90,"1.",""))</f>
+        <f t="shared" si="128"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M90" s="25" t="str">
-        <f t="shared" ref="M90" si="136">_xlfn.CONCAT(SUBSTITUTE(D90,"."," "))</f>
+        <f t="shared" si="129"/>
         <v>Tensionadas</v>
       </c>
       <c r="N90" s="25" t="str">
-        <f t="shared" ref="N90" si="137">_xlfn.CONCAT(SUBSTITUTE(E90,"."," "))</f>
+        <f t="shared" si="130"/>
         <v>Tensores</v>
       </c>
       <c r="O90" s="25" t="str">
-        <f t="shared" ref="O90" si="138">_xlfn.CONCAT(SUBSTITUTE(F90,"."," "))</f>
-        <v>Estai</v>
+        <f t="shared" si="127"/>
+        <v>Tensor Bainha</v>
       </c>
       <c r="P90" s="25" t="s">
-        <v>589</v>
+        <v>970</v>
       </c>
       <c r="Q90" s="29" t="s">
-        <v>1003</v>
+        <v>987</v>
       </c>
       <c r="R90" s="61" t="s">
         <v>9</v>
@@ -12104,7 +12107,7 @@
         <v>624</v>
       </c>
       <c r="Y90" s="59" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12124,7 +12127,7 @@
         <v>651</v>
       </c>
       <c r="F91" s="60" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="G91" s="32" t="s">
         <v>9</v>
@@ -12142,26 +12145,26 @@
         <v>9</v>
       </c>
       <c r="L91" s="25" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="128"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M91" s="25" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="129"/>
         <v>Tensionadas</v>
       </c>
       <c r="N91" s="25" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="130"/>
         <v>Tensores</v>
       </c>
       <c r="O91" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Tensor Barra</v>
+        <f t="shared" si="127"/>
+        <v>Tensor Bainha Acoplador</v>
       </c>
       <c r="P91" s="25" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="Q91" s="29" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="R91" s="61" t="s">
         <v>9</v>
@@ -12189,7 +12192,7 @@
         <v>624</v>
       </c>
       <c r="Y91" s="59" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12209,7 +12212,7 @@
         <v>651</v>
       </c>
       <c r="F92" s="60" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G92" s="32" t="s">
         <v>9</v>
@@ -12227,26 +12230,26 @@
         <v>9</v>
       </c>
       <c r="L92" s="25" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="128"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M92" s="25" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="129"/>
         <v>Tensionadas</v>
       </c>
       <c r="N92" s="25" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="130"/>
         <v>Tensores</v>
       </c>
       <c r="O92" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Tensor Revestido</v>
+        <f t="shared" si="127"/>
+        <v>Tensor Bainha Diabolo</v>
       </c>
       <c r="P92" s="25" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="Q92" s="29" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="R92" s="61" t="s">
         <v>9</v>
@@ -12274,7 +12277,7 @@
         <v>624</v>
       </c>
       <c r="Y92" s="59" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12294,7 +12297,7 @@
         <v>651</v>
       </c>
       <c r="F93" s="60" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G93" s="32" t="s">
         <v>9</v>
@@ -12312,26 +12315,26 @@
         <v>9</v>
       </c>
       <c r="L93" s="25" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="128"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M93" s="25" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="129"/>
         <v>Tensionadas</v>
       </c>
       <c r="N93" s="25" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="130"/>
         <v>Tensores</v>
       </c>
       <c r="O93" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Tensor Bainha</v>
+        <f t="shared" si="127"/>
+        <v>Tensor Bainha Cabo</v>
       </c>
       <c r="P93" s="25" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="Q93" s="29" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="R93" s="61" t="s">
         <v>9</v>
@@ -12359,7 +12362,7 @@
         <v>624</v>
       </c>
       <c r="Y93" s="59" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="94" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12379,7 +12382,7 @@
         <v>651</v>
       </c>
       <c r="F94" s="60" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G94" s="32" t="s">
         <v>9</v>
@@ -12397,26 +12400,26 @@
         <v>9</v>
       </c>
       <c r="L94" s="25" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="128"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M94" s="25" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="129"/>
         <v>Tensionadas</v>
       </c>
       <c r="N94" s="25" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="130"/>
         <v>Tensores</v>
       </c>
       <c r="O94" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Tensor Bainha Acoplador</v>
+        <f t="shared" si="127"/>
+        <v>Tensor Injetor</v>
       </c>
       <c r="P94" s="25" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="Q94" s="29" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="R94" s="61" t="s">
         <v>9</v>
@@ -12444,7 +12447,7 @@
         <v>624</v>
       </c>
       <c r="Y94" s="59" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12464,7 +12467,7 @@
         <v>651</v>
       </c>
       <c r="F95" s="60" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G95" s="32" t="s">
         <v>9</v>
@@ -12482,26 +12485,26 @@
         <v>9</v>
       </c>
       <c r="L95" s="25" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="128"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M95" s="25" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="129"/>
         <v>Tensionadas</v>
       </c>
       <c r="N95" s="25" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="130"/>
         <v>Tensores</v>
       </c>
       <c r="O95" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Tensor Bainha Diabolo</v>
+        <f t="shared" si="127"/>
+        <v>Tensor Trombeta</v>
       </c>
       <c r="P95" s="25" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="Q95" s="29" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="R95" s="61" t="s">
         <v>9</v>
@@ -12529,7 +12532,7 @@
         <v>624</v>
       </c>
       <c r="Y95" s="59" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12549,7 +12552,7 @@
         <v>651</v>
       </c>
       <c r="F96" s="60" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="G96" s="32" t="s">
         <v>9</v>
@@ -12567,26 +12570,26 @@
         <v>9</v>
       </c>
       <c r="L96" s="25" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="128"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M96" s="25" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="129"/>
         <v>Tensionadas</v>
       </c>
       <c r="N96" s="25" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="130"/>
         <v>Tensores</v>
       </c>
       <c r="O96" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Tensor Bainha Cabo</v>
+        <f t="shared" si="127"/>
+        <v>Tensor Corda</v>
       </c>
       <c r="P96" s="25" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="Q96" s="29" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="R96" s="61" t="s">
         <v>9</v>
@@ -12614,7 +12617,7 @@
         <v>624</v>
       </c>
       <c r="Y96" s="59" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12634,7 +12637,7 @@
         <v>651</v>
       </c>
       <c r="F97" s="60" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G97" s="32" t="s">
         <v>9</v>
@@ -12652,26 +12655,26 @@
         <v>9</v>
       </c>
       <c r="L97" s="25" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="128"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M97" s="25" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="129"/>
         <v>Tensionadas</v>
       </c>
       <c r="N97" s="25" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="130"/>
         <v>Tensores</v>
       </c>
       <c r="O97" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Tensor Injetor</v>
+        <f t="shared" si="127"/>
+        <v>Tensor Fio</v>
       </c>
       <c r="P97" s="25" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="Q97" s="29" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="R97" s="61" t="s">
         <v>9</v>
@@ -12699,7 +12702,7 @@
         <v>624</v>
       </c>
       <c r="Y97" s="59" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12718,8 +12721,8 @@
       <c r="E98" s="18" t="s">
         <v>651</v>
       </c>
-      <c r="F98" s="60" t="s">
-        <v>659</v>
+      <c r="F98" s="18" t="s">
+        <v>728</v>
       </c>
       <c r="G98" s="32" t="s">
         <v>9</v>
@@ -12737,26 +12740,26 @@
         <v>9</v>
       </c>
       <c r="L98" s="25" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="43"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M98" s="25" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="N98" s="25" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="126"/>
         <v>Tensores</v>
       </c>
       <c r="O98" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Tensor Trombeta</v>
+        <f t="shared" si="127"/>
+        <v>Mastro Estrutural</v>
       </c>
       <c r="P98" s="25" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="Q98" s="29" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="R98" s="61" t="s">
         <v>9</v>
@@ -12781,10 +12784,10 @@
         <v>k.tetens.98</v>
       </c>
       <c r="X98" s="55" t="s">
-        <v>624</v>
-      </c>
-      <c r="Y98" s="59" t="s">
-        <v>648</v>
+        <v>620</v>
+      </c>
+      <c r="Y98" s="55" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12803,8 +12806,8 @@
       <c r="E99" s="18" t="s">
         <v>651</v>
       </c>
-      <c r="F99" s="60" t="s">
-        <v>656</v>
+      <c r="F99" s="18" t="s">
+        <v>729</v>
       </c>
       <c r="G99" s="32" t="s">
         <v>9</v>
@@ -12822,26 +12825,26 @@
         <v>9</v>
       </c>
       <c r="L99" s="25" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" ref="L99:L120" si="135">_xlfn.CONCAT(SUBSTITUTE(C99,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M99" s="25" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" ref="M99:M120" si="136">_xlfn.CONCAT(SUBSTITUTE(D99,"."," "))</f>
         <v>Tensionadas</v>
       </c>
       <c r="N99" s="25" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" ref="N99:N120" si="137">_xlfn.CONCAT(SUBSTITUTE(E99,"."," "))</f>
         <v>Tensores</v>
       </c>
       <c r="O99" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Tensor Corda</v>
+        <f t="shared" si="127"/>
+        <v>Membrana Estrutural</v>
       </c>
       <c r="P99" s="25" t="s">
-        <v>976</v>
+        <v>602</v>
       </c>
       <c r="Q99" s="29" t="s">
-        <v>993</v>
+        <v>771</v>
       </c>
       <c r="R99" s="61" t="s">
         <v>9</v>
@@ -12866,10 +12869,10 @@
         <v>k.tetens.99</v>
       </c>
       <c r="X99" s="55" t="s">
-        <v>624</v>
-      </c>
-      <c r="Y99" s="59" t="s">
-        <v>649</v>
+        <v>626</v>
+      </c>
+      <c r="Y99" s="55" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12880,16 +12883,16 @@
         <v>76</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>603</v>
+        <v>925</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="F100" s="60" t="s">
-        <v>657</v>
+        <v>889</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>891</v>
       </c>
       <c r="G100" s="32" t="s">
         <v>9</v>
@@ -12907,54 +12910,54 @@
         <v>9</v>
       </c>
       <c r="L100" s="25" t="str">
-        <f t="shared" si="132"/>
-        <v>Estrutura.Principal</v>
+        <f t="shared" si="135"/>
+        <v>Estrutura.Secundária</v>
       </c>
       <c r="M100" s="25" t="str">
-        <f t="shared" si="133"/>
-        <v>Tensionadas</v>
+        <f t="shared" si="136"/>
+        <v>Terças de Suporte</v>
       </c>
       <c r="N100" s="25" t="str">
-        <f t="shared" si="134"/>
-        <v>Tensores</v>
+        <f t="shared" si="137"/>
+        <v>Terças</v>
       </c>
       <c r="O100" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Tensor Fio</v>
+        <f t="shared" si="127"/>
+        <v>Terça Cobertura</v>
       </c>
       <c r="P100" s="25" t="s">
-        <v>977</v>
+        <v>892</v>
       </c>
       <c r="Q100" s="29" t="s">
-        <v>994</v>
+        <v>908</v>
       </c>
       <c r="R100" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S100" s="62" t="str">
         <f t="shared" si="122"/>
-        <v>Estrutura Principal</v>
+        <v>Estrutura Secundária</v>
       </c>
       <c r="T100" s="62" t="str">
         <f t="shared" si="123"/>
-        <v>Tensionadas</v>
+        <v>Terças de Suporte</v>
       </c>
       <c r="U100" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Tensores</v>
+        <v>Terças</v>
       </c>
       <c r="V100" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W100" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.tetens.100</v>
+        <v>k.teterç.100</v>
       </c>
       <c r="X100" s="55" t="s">
-        <v>624</v>
-      </c>
-      <c r="Y100" s="59" t="s">
-        <v>650</v>
+        <v>628</v>
+      </c>
+      <c r="Y100" s="55" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12965,16 +12968,16 @@
         <v>76</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>603</v>
+        <v>925</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>651</v>
+        <v>889</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>728</v>
+        <v>890</v>
       </c>
       <c r="G101" s="32" t="s">
         <v>9</v>
@@ -12992,54 +12995,54 @@
         <v>9</v>
       </c>
       <c r="L101" s="25" t="str">
-        <f t="shared" si="43"/>
-        <v>Estrutura.Principal</v>
+        <f t="shared" ref="L101:L114" si="138">_xlfn.CONCAT(SUBSTITUTE(C101,"1.",""))</f>
+        <v>Estrutura.Secundária</v>
       </c>
       <c r="M101" s="25" t="str">
-        <f t="shared" si="129"/>
-        <v>Tensionadas</v>
+        <f t="shared" ref="M101:M114" si="139">_xlfn.CONCAT(SUBSTITUTE(D101,"."," "))</f>
+        <v>Terças de Suporte</v>
       </c>
       <c r="N101" s="25" t="str">
-        <f t="shared" si="130"/>
-        <v>Tensores</v>
+        <f t="shared" ref="N101:N114" si="140">_xlfn.CONCAT(SUBSTITUTE(E101,"."," "))</f>
+        <v>Terças</v>
       </c>
       <c r="O101" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Mastro Estrutural</v>
+        <f t="shared" ref="O101:O114" si="141">_xlfn.CONCAT(SUBSTITUTE(F101,"."," "))</f>
+        <v>Terça Fachada</v>
       </c>
       <c r="P101" s="25" t="s">
-        <v>978</v>
+        <v>893</v>
       </c>
       <c r="Q101" s="29" t="s">
-        <v>995</v>
+        <v>909</v>
       </c>
       <c r="R101" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S101" s="62" t="str">
         <f t="shared" si="122"/>
-        <v>Estrutura Principal</v>
+        <v>Estrutura Secundária</v>
       </c>
       <c r="T101" s="62" t="str">
         <f t="shared" si="123"/>
-        <v>Tensionadas</v>
+        <v>Terças de Suporte</v>
       </c>
       <c r="U101" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Tensores</v>
+        <v>Terças</v>
       </c>
       <c r="V101" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W101" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.tetens.101</v>
+        <v>k.teterç.101</v>
       </c>
       <c r="X101" s="55" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="Y101" s="55" t="s">
-        <v>727</v>
+        <v>621</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13050,16 +13053,16 @@
         <v>76</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>603</v>
+        <v>925</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>651</v>
+        <v>889</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>729</v>
+        <v>894</v>
       </c>
       <c r="G102" s="32" t="s">
         <v>9</v>
@@ -13077,54 +13080,54 @@
         <v>9</v>
       </c>
       <c r="L102" s="25" t="str">
-        <f t="shared" ref="L102:L123" si="139">_xlfn.CONCAT(SUBSTITUTE(C102,"1.",""))</f>
-        <v>Estrutura.Principal</v>
+        <f t="shared" si="138"/>
+        <v>Estrutura.Secundária</v>
       </c>
       <c r="M102" s="25" t="str">
-        <f t="shared" ref="M102:M123" si="140">_xlfn.CONCAT(SUBSTITUTE(D102,"."," "))</f>
-        <v>Tensionadas</v>
+        <f t="shared" si="139"/>
+        <v>Terças de Suporte</v>
       </c>
       <c r="N102" s="25" t="str">
-        <f t="shared" ref="N102:N123" si="141">_xlfn.CONCAT(SUBSTITUTE(E102,"."," "))</f>
-        <v>Tensores</v>
+        <f t="shared" si="140"/>
+        <v>Terças</v>
       </c>
       <c r="O102" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Membrana Estrutural</v>
+        <f t="shared" si="141"/>
+        <v>Terça Cartola</v>
       </c>
       <c r="P102" s="25" t="s">
-        <v>602</v>
+        <v>893</v>
       </c>
       <c r="Q102" s="29" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="R102" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S102" s="62" t="str">
         <f t="shared" si="122"/>
-        <v>Estrutura Principal</v>
+        <v>Estrutura Secundária</v>
       </c>
       <c r="T102" s="62" t="str">
         <f t="shared" si="123"/>
-        <v>Tensionadas</v>
+        <v>Terças de Suporte</v>
       </c>
       <c r="U102" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Tensores</v>
+        <v>Terças</v>
       </c>
       <c r="V102" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W102" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.tetens.102</v>
+        <v>k.teterç.102</v>
       </c>
       <c r="X102" s="55" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="Y102" s="55" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13141,10 +13144,10 @@
         <v>925</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>889</v>
+        <v>1009</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>891</v>
+        <v>1010</v>
       </c>
       <c r="G103" s="32" t="s">
         <v>9</v>
@@ -13162,26 +13165,26 @@
         <v>9</v>
       </c>
       <c r="L103" s="25" t="str">
+        <f t="shared" si="138"/>
+        <v>Estrutura.Secundária</v>
+      </c>
+      <c r="M103" s="25" t="str">
         <f t="shared" si="139"/>
-        <v>Estrutura.Secundária</v>
-      </c>
-      <c r="M103" s="25" t="str">
+        <v>Terças de Suporte</v>
+      </c>
+      <c r="N103" s="25" t="str">
         <f t="shared" si="140"/>
-        <v>Terças de Suporte</v>
-      </c>
-      <c r="N103" s="25" t="str">
+        <v>Tirantes</v>
+      </c>
+      <c r="O103" s="25" t="str">
         <f t="shared" si="141"/>
-        <v>Terças</v>
-      </c>
-      <c r="O103" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Terça Cobertura</v>
+        <v>Tirante Beiral</v>
       </c>
       <c r="P103" s="25" t="s">
-        <v>892</v>
+        <v>1013</v>
       </c>
       <c r="Q103" s="29" t="s">
-        <v>908</v>
+        <v>1017</v>
       </c>
       <c r="R103" s="61" t="s">
         <v>9</v>
@@ -13196,20 +13199,20 @@
       </c>
       <c r="U103" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Terças</v>
+        <v>Tirantes</v>
       </c>
       <c r="V103" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W103" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.teterç.103</v>
+        <v>k.tetira.103</v>
       </c>
       <c r="X103" s="55" t="s">
-        <v>628</v>
+        <v>832</v>
       </c>
       <c r="Y103" s="55" t="s">
-        <v>621</v>
+        <v>813</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13226,10 +13229,10 @@
         <v>925</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>889</v>
+        <v>1009</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>890</v>
+        <v>1011</v>
       </c>
       <c r="G104" s="32" t="s">
         <v>9</v>
@@ -13247,26 +13250,26 @@
         <v>9</v>
       </c>
       <c r="L104" s="25" t="str">
-        <f t="shared" ref="L104:L117" si="142">_xlfn.CONCAT(SUBSTITUTE(C104,"1.",""))</f>
+        <f t="shared" si="138"/>
         <v>Estrutura.Secundária</v>
       </c>
       <c r="M104" s="25" t="str">
-        <f t="shared" ref="M104:M117" si="143">_xlfn.CONCAT(SUBSTITUTE(D104,"."," "))</f>
+        <f t="shared" si="139"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="N104" s="25" t="str">
-        <f t="shared" ref="N104:N117" si="144">_xlfn.CONCAT(SUBSTITUTE(E104,"."," "))</f>
-        <v>Terças</v>
+        <f t="shared" si="140"/>
+        <v>Tirantes</v>
       </c>
       <c r="O104" s="25" t="str">
-        <f t="shared" ref="O104:O117" si="145">_xlfn.CONCAT(SUBSTITUTE(F104,"."," "))</f>
-        <v>Terça Fachada</v>
+        <f t="shared" si="141"/>
+        <v>Tirante Terça</v>
       </c>
       <c r="P104" s="25" t="s">
-        <v>893</v>
+        <v>1014</v>
       </c>
       <c r="Q104" s="29" t="s">
-        <v>909</v>
+        <v>1018</v>
       </c>
       <c r="R104" s="61" t="s">
         <v>9</v>
@@ -13281,20 +13284,20 @@
       </c>
       <c r="U104" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Terças</v>
+        <v>Tirantes</v>
       </c>
       <c r="V104" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W104" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.teterç.104</v>
+        <v>k.tetira.104</v>
       </c>
       <c r="X104" s="55" t="s">
-        <v>628</v>
+        <v>832</v>
       </c>
       <c r="Y104" s="55" t="s">
-        <v>621</v>
+        <v>813</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13311,10 +13314,10 @@
         <v>925</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>889</v>
+        <v>1009</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>894</v>
+        <v>1012</v>
       </c>
       <c r="G105" s="32" t="s">
         <v>9</v>
@@ -13332,26 +13335,26 @@
         <v>9</v>
       </c>
       <c r="L105" s="25" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" ref="L105" si="142">_xlfn.CONCAT(SUBSTITUTE(C105,"1.",""))</f>
         <v>Estrutura.Secundária</v>
       </c>
       <c r="M105" s="25" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" ref="M105" si="143">_xlfn.CONCAT(SUBSTITUTE(D105,"."," "))</f>
         <v>Terças de Suporte</v>
       </c>
       <c r="N105" s="25" t="str">
-        <f t="shared" si="144"/>
-        <v>Terças</v>
+        <f t="shared" ref="N105" si="144">_xlfn.CONCAT(SUBSTITUTE(E105,"."," "))</f>
+        <v>Tirantes</v>
       </c>
       <c r="O105" s="25" t="str">
-        <f t="shared" si="145"/>
-        <v>Terça Cartola</v>
+        <f t="shared" ref="O105" si="145">_xlfn.CONCAT(SUBSTITUTE(F105,"."," "))</f>
+        <v>Tirante Cumeeira</v>
       </c>
       <c r="P105" s="25" t="s">
-        <v>893</v>
+        <v>1015</v>
       </c>
       <c r="Q105" s="29" t="s">
-        <v>909</v>
+        <v>1016</v>
       </c>
       <c r="R105" s="61" t="s">
         <v>9</v>
@@ -13366,20 +13369,20 @@
       </c>
       <c r="U105" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Terças</v>
+        <v>Tirantes</v>
       </c>
       <c r="V105" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W105" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.teterç.105</v>
+        <v>k.tetira.105</v>
       </c>
       <c r="X105" s="55" t="s">
-        <v>628</v>
+        <v>832</v>
       </c>
       <c r="Y105" s="55" t="s">
-        <v>621</v>
+        <v>813</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13396,10 +13399,10 @@
         <v>925</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>1009</v>
+        <v>926</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>1010</v>
+        <v>924</v>
       </c>
       <c r="G106" s="32" t="s">
         <v>9</v>
@@ -13417,26 +13420,26 @@
         <v>9</v>
       </c>
       <c r="L106" s="25" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="138"/>
         <v>Estrutura.Secundária</v>
       </c>
       <c r="M106" s="25" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="139"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="N106" s="25" t="str">
-        <f t="shared" si="144"/>
-        <v>Tirantes</v>
+        <f t="shared" si="140"/>
+        <v>Frechais</v>
       </c>
       <c r="O106" s="25" t="str">
-        <f t="shared" si="145"/>
-        <v>Tirante Beiral</v>
+        <f t="shared" si="141"/>
+        <v>Frechal Alinhamento</v>
       </c>
       <c r="P106" s="25" t="s">
-        <v>1013</v>
+        <v>907</v>
       </c>
       <c r="Q106" s="29" t="s">
-        <v>1017</v>
+        <v>910</v>
       </c>
       <c r="R106" s="61" t="s">
         <v>9</v>
@@ -13451,20 +13454,20 @@
       </c>
       <c r="U106" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Tirantes</v>
+        <v>Frechais</v>
       </c>
       <c r="V106" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W106" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.tetira.106</v>
+        <v>k.tefrec.106</v>
       </c>
       <c r="X106" s="55" t="s">
-        <v>832</v>
-      </c>
-      <c r="Y106" s="55" t="s">
-        <v>813</v>
+        <v>624</v>
+      </c>
+      <c r="Y106" s="59" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13475,16 +13478,16 @@
         <v>76</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>92</v>
+        <v>902</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>1009</v>
+        <v>930</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>1011</v>
+        <v>943</v>
       </c>
       <c r="G107" s="32" t="s">
         <v>9</v>
@@ -13502,54 +13505,54 @@
         <v>9</v>
       </c>
       <c r="L107" s="25" t="str">
-        <f t="shared" si="142"/>
-        <v>Estrutura.Secundária</v>
+        <f t="shared" ref="L107" si="146">_xlfn.CONCAT(SUBSTITUTE(C107,"1.",""))</f>
+        <v>Estrutura.Fechamento</v>
       </c>
       <c r="M107" s="25" t="str">
-        <f t="shared" si="143"/>
-        <v>Terças de Suporte</v>
+        <f t="shared" ref="M107" si="147">_xlfn.CONCAT(SUBSTITUTE(D107,"."," "))</f>
+        <v>Sistemas Sanduíches</v>
       </c>
       <c r="N107" s="25" t="str">
-        <f t="shared" si="144"/>
-        <v>Tirantes</v>
+        <f t="shared" ref="N107" si="148">_xlfn.CONCAT(SUBSTITUTE(E107,"."," "))</f>
+        <v>Paineis Sanduíches</v>
       </c>
       <c r="O107" s="25" t="str">
-        <f t="shared" si="145"/>
-        <v>Tirante Terça</v>
+        <f t="shared" ref="O107" si="149">_xlfn.CONCAT(SUBSTITUTE(F107,"."," "))</f>
+        <v>Painel Sanduíche Fachada</v>
       </c>
       <c r="P107" s="25" t="s">
-        <v>1014</v>
+        <v>944</v>
       </c>
       <c r="Q107" s="29" t="s">
-        <v>1018</v>
+        <v>996</v>
       </c>
       <c r="R107" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S107" s="62" t="str">
         <f t="shared" si="122"/>
-        <v>Estrutura Secundária</v>
+        <v>Estrutura Fechamento</v>
       </c>
       <c r="T107" s="62" t="str">
         <f t="shared" si="123"/>
-        <v>Terças de Suporte</v>
+        <v>Sistemas Sanduíches</v>
       </c>
       <c r="U107" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Tirantes</v>
+        <v>Paineis Sanduíches</v>
       </c>
       <c r="V107" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W107" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.tetira.107</v>
+        <v>k.sipain.107</v>
       </c>
       <c r="X107" s="55" t="s">
-        <v>832</v>
+        <v>948</v>
       </c>
       <c r="Y107" s="55" t="s">
-        <v>813</v>
+        <v>945</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13560,16 +13563,16 @@
         <v>76</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>92</v>
+        <v>902</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>1009</v>
+        <v>930</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>1012</v>
+        <v>932</v>
       </c>
       <c r="G108" s="32" t="s">
         <v>9</v>
@@ -13587,54 +13590,54 @@
         <v>9</v>
       </c>
       <c r="L108" s="25" t="str">
-        <f t="shared" ref="L108" si="146">_xlfn.CONCAT(SUBSTITUTE(C108,"1.",""))</f>
-        <v>Estrutura.Secundária</v>
+        <f t="shared" si="138"/>
+        <v>Estrutura.Fechamento</v>
       </c>
       <c r="M108" s="25" t="str">
-        <f t="shared" ref="M108" si="147">_xlfn.CONCAT(SUBSTITUTE(D108,"."," "))</f>
-        <v>Terças de Suporte</v>
+        <f t="shared" si="139"/>
+        <v>Sistemas Sanduíches</v>
       </c>
       <c r="N108" s="25" t="str">
-        <f t="shared" ref="N108" si="148">_xlfn.CONCAT(SUBSTITUTE(E108,"."," "))</f>
-        <v>Tirantes</v>
+        <f t="shared" si="140"/>
+        <v>Paineis Sanduíches</v>
       </c>
       <c r="O108" s="25" t="str">
-        <f t="shared" ref="O108" si="149">_xlfn.CONCAT(SUBSTITUTE(F108,"."," "))</f>
-        <v>Tirante Cumeeira</v>
+        <f t="shared" si="141"/>
+        <v>Painel Sanduíche Térmico</v>
       </c>
       <c r="P108" s="25" t="s">
-        <v>1015</v>
+        <v>927</v>
       </c>
       <c r="Q108" s="29" t="s">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="R108" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S108" s="62" t="str">
         <f t="shared" si="122"/>
-        <v>Estrutura Secundária</v>
+        <v>Estrutura Fechamento</v>
       </c>
       <c r="T108" s="62" t="str">
         <f t="shared" si="123"/>
-        <v>Terças de Suporte</v>
+        <v>Sistemas Sanduíches</v>
       </c>
       <c r="U108" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Tirantes</v>
+        <v>Paineis Sanduíches</v>
       </c>
       <c r="V108" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W108" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.tetira.108</v>
+        <v>k.sipain.108</v>
       </c>
       <c r="X108" s="55" t="s">
-        <v>832</v>
+        <v>948</v>
       </c>
       <c r="Y108" s="55" t="s">
-        <v>813</v>
+        <v>945</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13645,16 +13648,16 @@
         <v>76</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>92</v>
+        <v>902</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="G109" s="32" t="s">
         <v>9</v>
@@ -13672,54 +13675,54 @@
         <v>9</v>
       </c>
       <c r="L109" s="25" t="str">
-        <f t="shared" si="142"/>
-        <v>Estrutura.Secundária</v>
+        <f t="shared" ref="L109:L111" si="150">_xlfn.CONCAT(SUBSTITUTE(C109,"1.",""))</f>
+        <v>Estrutura.Fechamento</v>
       </c>
       <c r="M109" s="25" t="str">
-        <f t="shared" si="143"/>
-        <v>Terças de Suporte</v>
+        <f t="shared" ref="M109:M111" si="151">_xlfn.CONCAT(SUBSTITUTE(D109,"."," "))</f>
+        <v>Sistemas Sanduíches</v>
       </c>
       <c r="N109" s="25" t="str">
-        <f t="shared" si="144"/>
-        <v>Frechais</v>
+        <f t="shared" ref="N109:N111" si="152">_xlfn.CONCAT(SUBSTITUTE(E109,"."," "))</f>
+        <v>Telhas Sanduíches</v>
       </c>
       <c r="O109" s="25" t="str">
-        <f t="shared" si="145"/>
-        <v>Frechal Alinhamento</v>
+        <f t="shared" ref="O109:O111" si="153">_xlfn.CONCAT(SUBSTITUTE(F109,"."," "))</f>
+        <v>Telha Sanduíche Zipada</v>
       </c>
       <c r="P109" s="25" t="s">
-        <v>907</v>
+        <v>934</v>
       </c>
       <c r="Q109" s="29" t="s">
-        <v>910</v>
+        <v>998</v>
       </c>
       <c r="R109" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S109" s="62" t="str">
         <f t="shared" si="122"/>
-        <v>Estrutura Secundária</v>
+        <v>Estrutura Fechamento</v>
       </c>
       <c r="T109" s="62" t="str">
         <f t="shared" si="123"/>
-        <v>Terças de Suporte</v>
+        <v>Sistemas Sanduíches</v>
       </c>
       <c r="U109" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Frechais</v>
+        <v>Telhas Sanduíches</v>
       </c>
       <c r="V109" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W109" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.tefrec.109</v>
+        <v>k.sitelh.109</v>
       </c>
       <c r="X109" s="55" t="s">
-        <v>624</v>
+        <v>946</v>
       </c>
       <c r="Y109" s="59" t="s">
-        <v>636</v>
+        <v>947</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13736,10 +13739,10 @@
         <v>929</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="G110" s="32" t="s">
         <v>9</v>
@@ -13757,26 +13760,26 @@
         <v>9</v>
       </c>
       <c r="L110" s="25" t="str">
-        <f t="shared" ref="L110" si="150">_xlfn.CONCAT(SUBSTITUTE(C110,"1.",""))</f>
+        <f t="shared" si="150"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M110" s="25" t="str">
-        <f t="shared" ref="M110" si="151">_xlfn.CONCAT(SUBSTITUTE(D110,"."," "))</f>
+        <f t="shared" si="151"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="N110" s="25" t="str">
-        <f t="shared" ref="N110" si="152">_xlfn.CONCAT(SUBSTITUTE(E110,"."," "))</f>
-        <v>Paineis Sanduíches</v>
+        <f t="shared" si="152"/>
+        <v>Telhas Sanduíches</v>
       </c>
       <c r="O110" s="25" t="str">
-        <f t="shared" ref="O110" si="153">_xlfn.CONCAT(SUBSTITUTE(F110,"."," "))</f>
-        <v>Painel Sanduíche Fachada</v>
+        <f t="shared" si="153"/>
+        <v>Telha Sanduíche Ondulada</v>
       </c>
       <c r="P110" s="25" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="Q110" s="29" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="R110" s="61" t="s">
         <v>9</v>
@@ -13791,20 +13794,20 @@
       </c>
       <c r="U110" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Paineis Sanduíches</v>
+        <v>Telhas Sanduíches</v>
       </c>
       <c r="V110" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W110" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.sipain.110</v>
+        <v>k.sitelh.110</v>
       </c>
       <c r="X110" s="55" t="s">
-        <v>948</v>
-      </c>
-      <c r="Y110" s="55" t="s">
-        <v>945</v>
+        <v>946</v>
+      </c>
+      <c r="Y110" s="59" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13821,10 +13824,10 @@
         <v>929</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="G111" s="32" t="s">
         <v>9</v>
@@ -13842,26 +13845,26 @@
         <v>9</v>
       </c>
       <c r="L111" s="25" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="150"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M111" s="25" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="151"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="N111" s="25" t="str">
-        <f t="shared" si="144"/>
-        <v>Paineis Sanduíches</v>
+        <f t="shared" si="152"/>
+        <v>Telhas Sanduíches</v>
       </c>
       <c r="O111" s="25" t="str">
-        <f t="shared" si="145"/>
-        <v>Painel Sanduíche Térmico</v>
+        <f t="shared" si="153"/>
+        <v>Telha Sanduíche Trapezoidal</v>
       </c>
       <c r="P111" s="25" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="Q111" s="29" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="R111" s="61" t="s">
         <v>9</v>
@@ -13876,20 +13879,20 @@
       </c>
       <c r="U111" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Paineis Sanduíches</v>
+        <v>Telhas Sanduíches</v>
       </c>
       <c r="V111" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W111" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.sipain.111</v>
+        <v>k.sitelh.111</v>
       </c>
       <c r="X111" s="55" t="s">
-        <v>948</v>
-      </c>
-      <c r="Y111" s="55" t="s">
-        <v>945</v>
+        <v>946</v>
+      </c>
+      <c r="Y111" s="59" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13909,7 +13912,7 @@
         <v>931</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="G112" s="32" t="s">
         <v>9</v>
@@ -13927,26 +13930,26 @@
         <v>9</v>
       </c>
       <c r="L112" s="25" t="str">
-        <f t="shared" ref="L112:L114" si="154">_xlfn.CONCAT(SUBSTITUTE(C112,"1.",""))</f>
+        <f t="shared" si="138"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M112" s="25" t="str">
-        <f t="shared" ref="M112:M114" si="155">_xlfn.CONCAT(SUBSTITUTE(D112,"."," "))</f>
+        <f t="shared" si="139"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="N112" s="25" t="str">
-        <f t="shared" ref="N112:N114" si="156">_xlfn.CONCAT(SUBSTITUTE(E112,"."," "))</f>
+        <f t="shared" si="140"/>
         <v>Telhas Sanduíches</v>
       </c>
       <c r="O112" s="25" t="str">
-        <f t="shared" ref="O112:O114" si="157">_xlfn.CONCAT(SUBSTITUTE(F112,"."," "))</f>
-        <v>Telha Sanduíche Zipada</v>
+        <f t="shared" si="141"/>
+        <v>Telha Sanduíche Solar</v>
       </c>
       <c r="P112" s="25" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="Q112" s="29" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="R112" s="61" t="s">
         <v>9</v>
@@ -13988,13 +13991,13 @@
         <v>902</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>929</v>
+        <v>905</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>931</v>
+        <v>903</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="G113" s="32" t="s">
         <v>9</v>
@@ -14012,26 +14015,26 @@
         <v>9</v>
       </c>
       <c r="L113" s="25" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="138"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M113" s="25" t="str">
-        <f t="shared" si="155"/>
-        <v>Sistemas Sanduíches</v>
+        <f t="shared" si="139"/>
+        <v>Sistemas Perfilados</v>
       </c>
       <c r="N113" s="25" t="str">
-        <f t="shared" si="156"/>
-        <v>Telhas Sanduíches</v>
+        <f t="shared" si="140"/>
+        <v>Telhas Perfiladas</v>
       </c>
       <c r="O113" s="25" t="str">
-        <f t="shared" si="157"/>
-        <v>Telha Sanduíche Ondulada</v>
+        <f t="shared" si="141"/>
+        <v>Telha Trapezoidal</v>
       </c>
       <c r="P113" s="25" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="Q113" s="29" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="R113" s="61" t="s">
         <v>9</v>
@@ -14042,11 +14045,11 @@
       </c>
       <c r="T113" s="62" t="str">
         <f t="shared" si="123"/>
-        <v>Sistemas Sanduíches</v>
+        <v>Sistemas Perfilados</v>
       </c>
       <c r="U113" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Telhas Sanduíches</v>
+        <v>Telhas Perfiladas</v>
       </c>
       <c r="V113" s="61" t="s">
         <v>726</v>
@@ -14073,13 +14076,13 @@
         <v>902</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>929</v>
+        <v>905</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>931</v>
+        <v>903</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>936</v>
+        <v>904</v>
       </c>
       <c r="G114" s="32" t="s">
         <v>9</v>
@@ -14097,26 +14100,26 @@
         <v>9</v>
       </c>
       <c r="L114" s="25" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="138"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M114" s="25" t="str">
-        <f t="shared" si="155"/>
-        <v>Sistemas Sanduíches</v>
+        <f t="shared" si="139"/>
+        <v>Sistemas Perfilados</v>
       </c>
       <c r="N114" s="25" t="str">
-        <f t="shared" si="156"/>
-        <v>Telhas Sanduíches</v>
+        <f t="shared" si="140"/>
+        <v>Telhas Perfiladas</v>
       </c>
       <c r="O114" s="25" t="str">
-        <f t="shared" si="157"/>
-        <v>Telha Sanduíche Trapezoidal</v>
+        <f t="shared" si="141"/>
+        <v>Telha Ondulada</v>
       </c>
       <c r="P114" s="25" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="Q114" s="29" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R114" s="61" t="s">
         <v>9</v>
@@ -14127,11 +14130,11 @@
       </c>
       <c r="T114" s="62" t="str">
         <f t="shared" si="123"/>
-        <v>Sistemas Sanduíches</v>
+        <v>Sistemas Perfilados</v>
       </c>
       <c r="U114" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Telhas Sanduíches</v>
+        <v>Telhas Perfiladas</v>
       </c>
       <c r="V114" s="61" t="s">
         <v>726</v>
@@ -14158,13 +14161,13 @@
         <v>902</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>929</v>
+        <v>905</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>931</v>
+        <v>903</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="G115" s="32" t="s">
         <v>9</v>
@@ -14182,26 +14185,26 @@
         <v>9</v>
       </c>
       <c r="L115" s="25" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="135"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M115" s="25" t="str">
-        <f t="shared" si="143"/>
-        <v>Sistemas Sanduíches</v>
+        <f t="shared" si="136"/>
+        <v>Sistemas Perfilados</v>
       </c>
       <c r="N115" s="25" t="str">
-        <f t="shared" si="144"/>
-        <v>Telhas Sanduíches</v>
+        <f t="shared" si="137"/>
+        <v>Telhas Perfiladas</v>
       </c>
       <c r="O115" s="25" t="str">
-        <f t="shared" si="145"/>
-        <v>Telha Sanduíche Solar</v>
+        <f t="shared" si="127"/>
+        <v>Telha Zipada</v>
       </c>
       <c r="P115" s="25" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="Q115" s="29" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="R115" s="61" t="s">
         <v>9</v>
@@ -14212,11 +14215,11 @@
       </c>
       <c r="T115" s="62" t="str">
         <f t="shared" si="123"/>
-        <v>Sistemas Sanduíches</v>
+        <v>Sistemas Perfilados</v>
       </c>
       <c r="U115" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Telhas Sanduíches</v>
+        <v>Telhas Perfiladas</v>
       </c>
       <c r="V115" s="61" t="s">
         <v>726</v>
@@ -14240,16 +14243,16 @@
         <v>76</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>905</v>
+        <v>666</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>903</v>
+        <v>597</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>935</v>
+        <v>595</v>
       </c>
       <c r="G116" s="32" t="s">
         <v>9</v>
@@ -14267,54 +14270,54 @@
         <v>9</v>
       </c>
       <c r="L116" s="25" t="str">
-        <f t="shared" si="142"/>
-        <v>Estrutura.Fechamento</v>
+        <f t="shared" ref="L116" si="154">_xlfn.CONCAT(SUBSTITUTE(C116,"1.",""))</f>
+        <v>Conexão.Estrutural</v>
       </c>
       <c r="M116" s="25" t="str">
-        <f t="shared" si="143"/>
-        <v>Sistemas Perfilados</v>
+        <f t="shared" ref="M116" si="155">_xlfn.CONCAT(SUBSTITUTE(D116,"."," "))</f>
+        <v>Fixações</v>
       </c>
       <c r="N116" s="25" t="str">
-        <f t="shared" si="144"/>
-        <v>Telhas Perfiladas</v>
+        <f t="shared" ref="N116" si="156">_xlfn.CONCAT(SUBSTITUTE(E116,"."," "))</f>
+        <v>Chumbadores</v>
       </c>
       <c r="O116" s="25" t="str">
-        <f t="shared" si="145"/>
-        <v>Telha Trapezoidal</v>
+        <f t="shared" ref="O116" si="157">_xlfn.CONCAT(SUBSTITUTE(F116,"."," "))</f>
+        <v>Chumbador Interno</v>
       </c>
       <c r="P116" s="25" t="s">
-        <v>940</v>
+        <v>598</v>
       </c>
       <c r="Q116" s="29" t="s">
-        <v>1002</v>
+        <v>772</v>
       </c>
       <c r="R116" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S116" s="62" t="str">
         <f t="shared" si="122"/>
-        <v>Estrutura Fechamento</v>
+        <v>Conexão Estrutural</v>
       </c>
       <c r="T116" s="62" t="str">
         <f t="shared" si="123"/>
-        <v>Sistemas Perfilados</v>
+        <v>Fixações</v>
       </c>
       <c r="U116" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Telhas Perfiladas</v>
+        <v>Chumbadores</v>
       </c>
       <c r="V116" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W116" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.sitelh.116</v>
+        <v>k.fichum.116</v>
       </c>
       <c r="X116" s="55" t="s">
-        <v>946</v>
-      </c>
-      <c r="Y116" s="59" t="s">
-        <v>947</v>
+        <v>627</v>
+      </c>
+      <c r="Y116" s="55" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="117" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14325,16 +14328,16 @@
         <v>76</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>905</v>
+        <v>666</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>903</v>
+        <v>597</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>904</v>
+        <v>596</v>
       </c>
       <c r="G117" s="32" t="s">
         <v>9</v>
@@ -14352,54 +14355,54 @@
         <v>9</v>
       </c>
       <c r="L117" s="25" t="str">
-        <f t="shared" si="142"/>
-        <v>Estrutura.Fechamento</v>
+        <f t="shared" si="135"/>
+        <v>Conexão.Estrutural</v>
       </c>
       <c r="M117" s="25" t="str">
-        <f t="shared" si="143"/>
-        <v>Sistemas Perfilados</v>
+        <f t="shared" si="136"/>
+        <v>Fixações</v>
       </c>
       <c r="N117" s="25" t="str">
-        <f t="shared" si="144"/>
-        <v>Telhas Perfiladas</v>
+        <f t="shared" si="137"/>
+        <v>Chumbadores</v>
       </c>
       <c r="O117" s="25" t="str">
-        <f t="shared" si="145"/>
-        <v>Telha Ondulada</v>
+        <f t="shared" ref="O117" si="158">_xlfn.CONCAT(SUBSTITUTE(F117,"."," "))</f>
+        <v>Chumbador Externo</v>
       </c>
       <c r="P117" s="25" t="s">
-        <v>938</v>
+        <v>599</v>
       </c>
       <c r="Q117" s="29" t="s">
-        <v>999</v>
+        <v>773</v>
       </c>
       <c r="R117" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S117" s="62" t="str">
         <f t="shared" si="122"/>
-        <v>Estrutura Fechamento</v>
+        <v>Conexão Estrutural</v>
       </c>
       <c r="T117" s="62" t="str">
         <f t="shared" si="123"/>
-        <v>Sistemas Perfilados</v>
+        <v>Fixações</v>
       </c>
       <c r="U117" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Telhas Perfiladas</v>
+        <v>Chumbadores</v>
       </c>
       <c r="V117" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W117" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.sitelh.117</v>
+        <v>k.fichum.117</v>
       </c>
       <c r="X117" s="55" t="s">
-        <v>946</v>
-      </c>
-      <c r="Y117" s="59" t="s">
-        <v>947</v>
+        <v>627</v>
+      </c>
+      <c r="Y117" s="55" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="118" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14410,16 +14413,16 @@
         <v>76</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>905</v>
+        <v>666</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>903</v>
-      </c>
-      <c r="F118" s="18" t="s">
-        <v>906</v>
+        <v>664</v>
+      </c>
+      <c r="F118" s="49" t="s">
+        <v>588</v>
       </c>
       <c r="G118" s="32" t="s">
         <v>9</v>
@@ -14437,54 +14440,54 @@
         <v>9</v>
       </c>
       <c r="L118" s="25" t="str">
-        <f t="shared" si="139"/>
-        <v>Estrutura.Fechamento</v>
+        <f t="shared" si="135"/>
+        <v>Conexão.Estrutural</v>
       </c>
       <c r="M118" s="25" t="str">
-        <f t="shared" si="140"/>
-        <v>Sistemas Perfilados</v>
+        <f t="shared" si="136"/>
+        <v>Fixações</v>
       </c>
       <c r="N118" s="25" t="str">
-        <f t="shared" si="141"/>
-        <v>Telhas Perfiladas</v>
+        <f t="shared" si="137"/>
+        <v>Parafusos</v>
       </c>
       <c r="O118" s="25" t="str">
-        <f t="shared" si="131"/>
-        <v>Telha Zipada</v>
+        <f t="shared" ref="O118" si="159">_xlfn.CONCAT(SUBSTITUTE(F118,"."," "))</f>
+        <v>Parafuso DIN</v>
       </c>
       <c r="P118" s="25" t="s">
-        <v>928</v>
+        <v>558</v>
       </c>
       <c r="Q118" s="29" t="s">
-        <v>998</v>
+        <v>774</v>
       </c>
       <c r="R118" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S118" s="62" t="str">
         <f t="shared" si="122"/>
-        <v>Estrutura Fechamento</v>
+        <v>Conexão Estrutural</v>
       </c>
       <c r="T118" s="62" t="str">
         <f t="shared" si="123"/>
-        <v>Sistemas Perfilados</v>
+        <v>Fixações</v>
       </c>
       <c r="U118" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Telhas Perfiladas</v>
+        <v>Parafusos</v>
       </c>
       <c r="V118" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W118" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.sitelh.118</v>
+        <v>k.fipara.118</v>
       </c>
       <c r="X118" s="55" t="s">
-        <v>946</v>
-      </c>
-      <c r="Y118" s="59" t="s">
-        <v>947</v>
+        <v>627</v>
+      </c>
+      <c r="Y118" s="55" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="119" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14501,10 +14504,10 @@
         <v>666</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>597</v>
-      </c>
-      <c r="F119" s="18" t="s">
-        <v>595</v>
+        <v>664</v>
+      </c>
+      <c r="F119" s="49" t="s">
+        <v>545</v>
       </c>
       <c r="G119" s="32" t="s">
         <v>9</v>
@@ -14522,26 +14525,26 @@
         <v>9</v>
       </c>
       <c r="L119" s="25" t="str">
-        <f t="shared" ref="L119" si="158">_xlfn.CONCAT(SUBSTITUTE(C119,"1.",""))</f>
+        <f t="shared" si="135"/>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M119" s="25" t="str">
-        <f t="shared" ref="M119" si="159">_xlfn.CONCAT(SUBSTITUTE(D119,"."," "))</f>
+        <f t="shared" si="136"/>
         <v>Fixações</v>
       </c>
       <c r="N119" s="25" t="str">
-        <f t="shared" ref="N119" si="160">_xlfn.CONCAT(SUBSTITUTE(E119,"."," "))</f>
-        <v>Chumbadores</v>
+        <f t="shared" si="137"/>
+        <v>Parafusos</v>
       </c>
       <c r="O119" s="25" t="str">
-        <f t="shared" ref="O119" si="161">_xlfn.CONCAT(SUBSTITUTE(F119,"."," "))</f>
-        <v>Chumbador Interno</v>
+        <f t="shared" ref="O119:O120" si="160">_xlfn.CONCAT(SUBSTITUTE(F119,"."," "))</f>
+        <v>Parafuso ASTM</v>
       </c>
       <c r="P119" s="25" t="s">
-        <v>598</v>
+        <v>555</v>
       </c>
       <c r="Q119" s="29" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="R119" s="61" t="s">
         <v>9</v>
@@ -14556,20 +14559,20 @@
       </c>
       <c r="U119" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Chumbadores</v>
+        <v>Parafusos</v>
       </c>
       <c r="V119" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W119" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.fichum.119</v>
+        <v>k.fipara.119</v>
       </c>
       <c r="X119" s="55" t="s">
         <v>627</v>
       </c>
       <c r="Y119" s="55" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="120" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14586,10 +14589,10 @@
         <v>666</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>597</v>
+        <v>664</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="G120" s="32" t="s">
         <v>9</v>
@@ -14607,26 +14610,26 @@
         <v>9</v>
       </c>
       <c r="L120" s="25" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="135"/>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M120" s="25" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="136"/>
         <v>Fixações</v>
       </c>
       <c r="N120" s="25" t="str">
-        <f t="shared" si="141"/>
-        <v>Chumbadores</v>
+        <f t="shared" si="137"/>
+        <v>Parafusos</v>
       </c>
       <c r="O120" s="25" t="str">
-        <f t="shared" ref="O120" si="162">_xlfn.CONCAT(SUBSTITUTE(F120,"."," "))</f>
-        <v>Chumbador Externo</v>
+        <f t="shared" si="160"/>
+        <v>Parafuso Drywall</v>
       </c>
       <c r="P120" s="25" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="Q120" s="29" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="R120" s="61" t="s">
         <v>9</v>
@@ -14641,20 +14644,20 @@
       </c>
       <c r="U120" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Chumbadores</v>
+        <v>Parafusos</v>
       </c>
       <c r="V120" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W120" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.fichum.120</v>
+        <v>k.fipara.120</v>
       </c>
       <c r="X120" s="55" t="s">
         <v>627</v>
       </c>
       <c r="Y120" s="55" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="121" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14673,8 +14676,8 @@
       <c r="E121" s="18" t="s">
         <v>664</v>
       </c>
-      <c r="F121" s="49" t="s">
-        <v>588</v>
+      <c r="F121" s="48" t="s">
+        <v>540</v>
       </c>
       <c r="G121" s="32" t="s">
         <v>9</v>
@@ -14692,26 +14695,26 @@
         <v>9</v>
       </c>
       <c r="L121" s="25" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" ref="L121:L122" si="161">_xlfn.CONCAT(SUBSTITUTE(C121,"1.",""))</f>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M121" s="25" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" ref="M121:M122" si="162">_xlfn.CONCAT(SUBSTITUTE(D121,"."," "))</f>
         <v>Fixações</v>
       </c>
       <c r="N121" s="25" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" ref="N121:N122" si="163">_xlfn.CONCAT(SUBSTITUTE(E121,"."," "))</f>
         <v>Parafusos</v>
       </c>
       <c r="O121" s="25" t="str">
-        <f t="shared" ref="O121" si="163">_xlfn.CONCAT(SUBSTITUTE(F121,"."," "))</f>
-        <v>Parafuso DIN</v>
+        <f t="shared" ref="O121:O122" si="164">_xlfn.CONCAT(SUBSTITUTE(F121,"."," "))</f>
+        <v>Parafuso Brocante</v>
       </c>
       <c r="P121" s="25" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="Q121" s="29" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="R121" s="61" t="s">
         <v>9</v>
@@ -14758,8 +14761,8 @@
       <c r="E122" s="18" t="s">
         <v>664</v>
       </c>
-      <c r="F122" s="49" t="s">
-        <v>545</v>
+      <c r="F122" s="18" t="s">
+        <v>556</v>
       </c>
       <c r="G122" s="32" t="s">
         <v>9</v>
@@ -14777,26 +14780,26 @@
         <v>9</v>
       </c>
       <c r="L122" s="25" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="161"/>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M122" s="25" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="162"/>
         <v>Fixações</v>
       </c>
       <c r="N122" s="25" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="163"/>
         <v>Parafusos</v>
       </c>
       <c r="O122" s="25" t="str">
-        <f t="shared" ref="O122:O123" si="164">_xlfn.CONCAT(SUBSTITUTE(F122,"."," "))</f>
-        <v>Parafuso ASTM</v>
+        <f t="shared" si="164"/>
+        <v>Parafuso Auto Atarraxante</v>
       </c>
       <c r="P122" s="25" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="Q122" s="29" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="R122" s="61" t="s">
         <v>9</v>
@@ -14841,10 +14844,10 @@
         <v>666</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>541</v>
+        <v>665</v>
       </c>
       <c r="G123" s="32" t="s">
         <v>9</v>
@@ -14862,26 +14865,26 @@
         <v>9</v>
       </c>
       <c r="L123" s="25" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" ref="L123:L126" si="165">_xlfn.CONCAT(SUBSTITUTE(C123,"1.",""))</f>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M123" s="25" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" ref="M123:M126" si="166">_xlfn.CONCAT(SUBSTITUTE(D123,"."," "))</f>
         <v>Fixações</v>
       </c>
       <c r="N123" s="25" t="str">
-        <f t="shared" si="141"/>
-        <v>Parafusos</v>
+        <f t="shared" ref="N123:N126" si="167">_xlfn.CONCAT(SUBSTITUTE(E123,"."," "))</f>
+        <v>Pinos</v>
       </c>
       <c r="O123" s="25" t="str">
-        <f t="shared" si="164"/>
-        <v>Parafuso Drywall</v>
+        <f t="shared" ref="O123:O126" si="168">_xlfn.CONCAT(SUBSTITUTE(F123,"."," "))</f>
+        <v>Pino de Cisalhamento</v>
       </c>
       <c r="P123" s="25" t="s">
-        <v>542</v>
+        <v>1049</v>
       </c>
       <c r="Q123" s="29" t="s">
-        <v>776</v>
+        <v>1050</v>
       </c>
       <c r="R123" s="61" t="s">
         <v>9</v>
@@ -14896,17 +14899,17 @@
       </c>
       <c r="U123" s="62" t="str">
         <f t="shared" si="124"/>
-        <v>Parafusos</v>
+        <v>Pinos</v>
       </c>
       <c r="V123" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W123" s="30" t="str">
         <f t="shared" si="111"/>
-        <v>k.fipara.123</v>
+        <v>k.fipino.123</v>
       </c>
       <c r="X123" s="55" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="Y123" s="55" t="s">
         <v>669</v>
@@ -14920,16 +14923,16 @@
         <v>76</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>912</v>
+        <v>1065</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>666</v>
+        <v>803</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>664</v>
-      </c>
-      <c r="F124" s="48" t="s">
-        <v>540</v>
+        <v>1005</v>
+      </c>
+      <c r="F124" s="18" t="s">
+        <v>1006</v>
       </c>
       <c r="G124" s="32" t="s">
         <v>9</v>
@@ -14947,54 +14950,54 @@
         <v>9</v>
       </c>
       <c r="L124" s="25" t="str">
-        <f t="shared" ref="L124:L125" si="165">_xlfn.CONCAT(SUBSTITUTE(C124,"1.",""))</f>
-        <v>Conexão.Estrutural</v>
+        <f t="shared" si="165"/>
+        <v>Tipos.Estruturais</v>
       </c>
       <c r="M124" s="25" t="str">
-        <f t="shared" ref="M124:M125" si="166">_xlfn.CONCAT(SUBSTITUTE(D124,"."," "))</f>
-        <v>Fixações</v>
+        <f t="shared" si="166"/>
+        <v>Galpões</v>
       </c>
       <c r="N124" s="25" t="str">
-        <f t="shared" ref="N124:N125" si="167">_xlfn.CONCAT(SUBSTITUTE(E124,"."," "))</f>
-        <v>Parafusos</v>
+        <f t="shared" si="167"/>
+        <v>Pórticos de Galpões</v>
       </c>
       <c r="O124" s="25" t="str">
-        <f t="shared" ref="O124:O125" si="168">_xlfn.CONCAT(SUBSTITUTE(F124,"."," "))</f>
-        <v>Parafuso Brocante</v>
+        <f t="shared" si="168"/>
+        <v>Pórtico Galpão</v>
       </c>
       <c r="P124" s="25" t="s">
-        <v>543</v>
+        <v>961</v>
       </c>
       <c r="Q124" s="29" t="s">
-        <v>777</v>
+        <v>979</v>
       </c>
       <c r="R124" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S124" s="62" t="str">
-        <f t="shared" si="122"/>
-        <v>Conexão Estrutural</v>
+        <f t="shared" ref="S124:S126" si="169">SUBSTITUTE(C124, ".", " ")</f>
+        <v>Tipos Estruturais</v>
       </c>
       <c r="T124" s="62" t="str">
-        <f t="shared" si="123"/>
-        <v>Fixações</v>
+        <f t="shared" ref="T124:T126" si="170">SUBSTITUTE(D124, ".", " ")</f>
+        <v>Galpões</v>
       </c>
       <c r="U124" s="62" t="str">
-        <f t="shared" si="124"/>
-        <v>Parafusos</v>
+        <f t="shared" ref="U124:U126" si="171">SUBSTITUTE(E124, ".", " ")</f>
+        <v>Pórticos de Galpões</v>
       </c>
       <c r="V124" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W124" s="30" t="str">
-        <f t="shared" si="111"/>
-        <v>k.fipara.124</v>
+        <f t="shared" ref="W124:W126" si="172">CONCATENATE("k.",LOWER(LEFT(D124,2)),LOWER(LEFT(E124,4)),".",A124)</f>
+        <v>k.gapórt.124</v>
       </c>
       <c r="X124" s="55" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="Y124" s="55" t="s">
-        <v>669</v>
+        <v>622</v>
       </c>
     </row>
     <row r="125" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -15005,16 +15008,16 @@
         <v>76</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>912</v>
+        <v>1065</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>666</v>
+        <v>803</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>664</v>
+        <v>1005</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>556</v>
+        <v>1007</v>
       </c>
       <c r="G125" s="32" t="s">
         <v>9</v>
@@ -15033,53 +15036,53 @@
       </c>
       <c r="L125" s="25" t="str">
         <f t="shared" si="165"/>
-        <v>Conexão.Estrutural</v>
+        <v>Tipos.Estruturais</v>
       </c>
       <c r="M125" s="25" t="str">
         <f t="shared" si="166"/>
-        <v>Fixações</v>
+        <v>Galpões</v>
       </c>
       <c r="N125" s="25" t="str">
         <f t="shared" si="167"/>
-        <v>Parafusos</v>
+        <v>Pórticos de Galpões</v>
       </c>
       <c r="O125" s="25" t="str">
         <f t="shared" si="168"/>
-        <v>Parafuso Auto Atarraxante</v>
+        <v>Pórtico Galpão e Anexo</v>
       </c>
       <c r="P125" s="25" t="s">
-        <v>544</v>
+        <v>962</v>
       </c>
       <c r="Q125" s="29" t="s">
-        <v>778</v>
+        <v>980</v>
       </c>
       <c r="R125" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S125" s="62" t="str">
-        <f t="shared" si="122"/>
-        <v>Conexão Estrutural</v>
+        <f t="shared" si="169"/>
+        <v>Tipos Estruturais</v>
       </c>
       <c r="T125" s="62" t="str">
-        <f t="shared" si="123"/>
-        <v>Fixações</v>
+        <f t="shared" si="170"/>
+        <v>Galpões</v>
       </c>
       <c r="U125" s="62" t="str">
-        <f t="shared" si="124"/>
-        <v>Parafusos</v>
+        <f t="shared" si="171"/>
+        <v>Pórticos de Galpões</v>
       </c>
       <c r="V125" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W125" s="30" t="str">
-        <f t="shared" si="111"/>
-        <v>k.fipara.125</v>
+        <f t="shared" si="172"/>
+        <v>k.gapórt.125</v>
       </c>
       <c r="X125" s="55" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="Y125" s="55" t="s">
-        <v>669</v>
+        <v>622</v>
       </c>
     </row>
     <row r="126" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -15090,16 +15093,16 @@
         <v>76</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>912</v>
+        <v>1065</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>666</v>
+        <v>803</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>631</v>
+        <v>1005</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>665</v>
+        <v>1008</v>
       </c>
       <c r="G126" s="32" t="s">
         <v>9</v>
@@ -15117,54 +15120,54 @@
         <v>9</v>
       </c>
       <c r="L126" s="25" t="str">
-        <f t="shared" ref="L126" si="169">_xlfn.CONCAT(SUBSTITUTE(C126,"1.",""))</f>
-        <v>Conexão.Estrutural</v>
+        <f t="shared" si="165"/>
+        <v>Tipos.Estruturais</v>
       </c>
       <c r="M126" s="25" t="str">
-        <f t="shared" ref="M126" si="170">_xlfn.CONCAT(SUBSTITUTE(D126,"."," "))</f>
-        <v>Fixações</v>
+        <f t="shared" si="166"/>
+        <v>Galpões</v>
       </c>
       <c r="N126" s="25" t="str">
-        <f t="shared" ref="N126" si="171">_xlfn.CONCAT(SUBSTITUTE(E126,"."," "))</f>
-        <v>Pinos</v>
+        <f t="shared" si="167"/>
+        <v>Pórticos de Galpões</v>
       </c>
       <c r="O126" s="25" t="str">
-        <f t="shared" ref="O126" si="172">_xlfn.CONCAT(SUBSTITUTE(F126,"."," "))</f>
-        <v>Pino de Cisalhamento</v>
+        <f t="shared" si="168"/>
+        <v>Pórtico Galpão Vãos Múltiplos</v>
       </c>
       <c r="P126" s="25" t="s">
-        <v>1049</v>
+        <v>963</v>
       </c>
       <c r="Q126" s="29" t="s">
-        <v>1050</v>
+        <v>981</v>
       </c>
       <c r="R126" s="61" t="s">
         <v>9</v>
       </c>
       <c r="S126" s="62" t="str">
-        <f t="shared" si="122"/>
-        <v>Conexão Estrutural</v>
+        <f t="shared" si="169"/>
+        <v>Tipos Estruturais</v>
       </c>
       <c r="T126" s="62" t="str">
-        <f t="shared" si="123"/>
-        <v>Fixações</v>
+        <f t="shared" si="170"/>
+        <v>Galpões</v>
       </c>
       <c r="U126" s="62" t="str">
-        <f t="shared" si="124"/>
-        <v>Pinos</v>
+        <f t="shared" si="171"/>
+        <v>Pórticos de Galpões</v>
       </c>
       <c r="V126" s="61" t="s">
         <v>726</v>
       </c>
       <c r="W126" s="30" t="str">
-        <f t="shared" si="111"/>
-        <v>k.fipino.126</v>
+        <f t="shared" si="172"/>
+        <v>k.gapórt.126</v>
       </c>
       <c r="X126" s="55" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="Y126" s="55" t="s">
-        <v>669</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -15177,24 +15180,24 @@
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Y83:Y97">
+    <cfRule type="duplicateValues" dxfId="15" priority="445"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="446"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="448"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="449"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="450"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y106">
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="W2:W126">
-    <cfRule type="duplicateValues" dxfId="15" priority="462"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y86:Y100">
-    <cfRule type="duplicateValues" dxfId="14" priority="445"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="446"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="447"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="448"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="449"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="450"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y109">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="466"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -30190,11 +30193,11 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B1:B155">
-    <cfRule type="duplicateValues" dxfId="2" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="150"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/META/Ontologia_METAL.xlsx
+++ b/Versão5/META/Ontologia_METAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\META\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0162964A-7DC1-4D1B-B3E1-55564AD40332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69F4385-823F-4FD6-B534-C7C6E3E1C7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6367" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6367" uniqueCount="1069">
   <si>
     <t>Edição</t>
   </si>
@@ -1817,9 +1817,6 @@
     <t>resistência.à.tração</t>
   </si>
   <si>
-    <t>"Liga de aço patinável Corten A para aplicação arquitetônica não estrutural"</t>
-  </si>
-  <si>
     <t>A588-A</t>
   </si>
   <si>
@@ -3275,6 +3272,12 @@
   </si>
   <si>
     <t>"Liga de aço de alta resistência composto por carbono, cobre, crómo, níquel, fósforo, enxofre, manganês, silício e vanádio. É um aço que cria uma pátina de ferrugem estável e resiste à corrosão atmosférica"</t>
+  </si>
+  <si>
+    <t>"Em aplicação arquitetônica não estrutural como revestimentos de fachada, por exemplo."</t>
+  </si>
+  <si>
+    <t>usado.em</t>
   </si>
 </sst>
 </file>
@@ -4385,7 +4388,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45940.356767476849</v>
+        <v>45940.362699074074</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -4487,7 +4490,7 @@
         <v>62</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>63</v>
@@ -4541,10 +4544,10 @@
         <v>58</v>
       </c>
       <c r="X1" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y1" s="27" t="s">
         <v>610</v>
-      </c>
-      <c r="Y1" s="27" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4555,16 +4558,16 @@
         <v>76</v>
       </c>
       <c r="C2" s="57" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2" s="56" t="s">
         <v>612</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="E2" s="56" t="s">
         <v>613</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="F2" s="18" t="s">
         <v>614</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>615</v>
       </c>
       <c r="G2" s="32" t="str">
         <f>_xlfn.CONCAT("é.nomeado some ",B2)</f>
@@ -4600,10 +4603,10 @@
         <v>Aço Estrutural</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="R2" s="61" t="s">
         <v>9</v>
@@ -4621,17 +4624,17 @@
         <v>Ligas Metálicas</v>
       </c>
       <c r="V2" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W2" s="30" t="str">
         <f t="shared" ref="W2:W72" si="2">CONCATENATE("k.",LOWER(LEFT(D2,2)),LOWER(LEFT(E2,4)),".",A2)</f>
         <v>k.daliga.2</v>
       </c>
       <c r="X2" s="55" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y2" s="55" t="s">
         <v>617</v>
-      </c>
-      <c r="Y2" s="55" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4642,16 +4645,16 @@
         <v>76</v>
       </c>
       <c r="C3" s="57" t="s">
+        <v>611</v>
+      </c>
+      <c r="D3" s="56" t="s">
         <v>612</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="E3" s="56" t="s">
         <v>613</v>
       </c>
-      <c r="E3" s="56" t="s">
-        <v>614</v>
-      </c>
       <c r="F3" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G3" s="32" t="str">
         <f>_xlfn.CONCAT("é.nomeado some ",B3)</f>
@@ -4687,10 +4690,10 @@
         <v>Alumínio Estrutural</v>
       </c>
       <c r="P3" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q3" s="29" t="s">
         <v>603</v>
-      </c>
-      <c r="Q3" s="29" t="s">
-        <v>604</v>
       </c>
       <c r="R3" s="61" t="s">
         <v>9</v>
@@ -4708,17 +4711,17 @@
         <v>Ligas Metálicas</v>
       </c>
       <c r="V3" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W3" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.daliga.3</v>
       </c>
       <c r="X3" s="55" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y3" s="55" t="s">
         <v>617</v>
-      </c>
-      <c r="Y3" s="55" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4732,13 +4735,13 @@
         <v>91</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>1021</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>1022</v>
       </c>
       <c r="G4" s="32" t="s">
         <v>9</v>
@@ -4772,10 +4775,10 @@
         <v>Vergalhão</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="R4" s="61" t="s">
         <v>9</v>
@@ -4793,17 +4796,17 @@
         <v>Vergalhões</v>
       </c>
       <c r="V4" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W4" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arverg.4</v>
       </c>
       <c r="X4" s="55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y4" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4817,13 +4820,13 @@
         <v>91</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>9</v>
@@ -4857,10 +4860,10 @@
         <v>Vergalhão Liso</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="R5" s="61" t="s">
         <v>9</v>
@@ -4878,17 +4881,17 @@
         <v>Vergalhões</v>
       </c>
       <c r="V5" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W5" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arverg.5</v>
       </c>
       <c r="X5" s="55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y5" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4902,13 +4905,13 @@
         <v>91</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G6" s="32" t="s">
         <v>9</v>
@@ -4942,10 +4945,10 @@
         <v>Vergalhão Nervurado</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="R6" s="61" t="s">
         <v>9</v>
@@ -4963,17 +4966,17 @@
         <v>Vergalhões</v>
       </c>
       <c r="V6" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W6" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arverg.6</v>
       </c>
       <c r="X6" s="55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y6" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4987,13 +4990,13 @@
         <v>91</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>1025</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>1026</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>9</v>
@@ -5027,10 +5030,10 @@
         <v>Vergalhão GG70</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="R7" s="61" t="s">
         <v>9</v>
@@ -5048,17 +5051,17 @@
         <v>Vergalhões</v>
       </c>
       <c r="V7" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W7" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arverg.7</v>
       </c>
       <c r="X7" s="55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y7" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5072,13 +5075,13 @@
         <v>91</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G8" s="32" t="s">
         <v>9</v>
@@ -5112,10 +5115,10 @@
         <v>Estribo Retangular</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="R8" s="61" t="s">
         <v>9</v>
@@ -5133,17 +5136,17 @@
         <v>Estribos</v>
       </c>
       <c r="V8" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W8" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arestr.8</v>
       </c>
       <c r="X8" s="55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y8" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5157,13 +5160,13 @@
         <v>91</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>9</v>
@@ -5197,10 +5200,10 @@
         <v>Estribo Circular</v>
       </c>
       <c r="P9" s="25" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="R9" s="61" t="s">
         <v>9</v>
@@ -5218,17 +5221,17 @@
         <v>Estribos</v>
       </c>
       <c r="V9" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arestr.9</v>
       </c>
       <c r="X9" s="55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y9" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5242,13 +5245,13 @@
         <v>91</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>9</v>
@@ -5282,10 +5285,10 @@
         <v>Estribo Diagonal</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="R10" s="61" t="s">
         <v>9</v>
@@ -5303,17 +5306,17 @@
         <v>Estribos</v>
       </c>
       <c r="V10" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W10" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arestr.10</v>
       </c>
       <c r="X10" s="55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y10" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5327,13 +5330,13 @@
         <v>91</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>9</v>
@@ -5367,10 +5370,10 @@
         <v>Estribo Helicoidal</v>
       </c>
       <c r="P11" s="25" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="R11" s="61" t="s">
         <v>9</v>
@@ -5388,17 +5391,17 @@
         <v>Estribos</v>
       </c>
       <c r="V11" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W11" s="30" t="str">
         <f t="shared" ref="W11:W14" si="21">CONCATENATE("k.",LOWER(LEFT(D11,2)),LOWER(LEFT(E11,4)),".",A11)</f>
         <v>k.arestr.11</v>
       </c>
       <c r="X11" s="55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y11" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5412,13 +5415,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G12" s="32" t="s">
         <v>9</v>
@@ -5452,10 +5455,10 @@
         <v>Tela Soldada</v>
       </c>
       <c r="P12" s="25" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q12" s="29" t="s">
         <v>1061</v>
-      </c>
-      <c r="Q12" s="29" t="s">
-        <v>1062</v>
       </c>
       <c r="R12" s="61" t="s">
         <v>9</v>
@@ -5473,17 +5476,17 @@
         <v>Prontas</v>
       </c>
       <c r="V12" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W12" s="30" t="str">
         <f t="shared" ref="W12" si="29">CONCATENATE("k.",LOWER(LEFT(D12,2)),LOWER(LEFT(E12,4)),".",A12)</f>
         <v>k.arpron.12</v>
       </c>
       <c r="X12" s="55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y12" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5497,13 +5500,13 @@
         <v>91</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E13" s="18" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>1050</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>1051</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>9</v>
@@ -5537,10 +5540,10 @@
         <v>Armadura APS</v>
       </c>
       <c r="P13" s="25" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="Q13" s="29" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="R13" s="61" t="s">
         <v>9</v>
@@ -5558,17 +5561,17 @@
         <v>Prontas</v>
       </c>
       <c r="V13" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W13" s="30" t="str">
         <f t="shared" si="21"/>
         <v>k.arpron.13</v>
       </c>
       <c r="X13" s="55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y13" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5582,13 +5585,13 @@
         <v>91</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G14" s="32" t="s">
         <v>9</v>
@@ -5622,10 +5625,10 @@
         <v>Fôrma Incorporada</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="Q14" s="29" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="R14" s="61" t="s">
         <v>9</v>
@@ -5643,17 +5646,17 @@
         <v>Prontas</v>
       </c>
       <c r="V14" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W14" s="30" t="str">
         <f t="shared" si="21"/>
         <v>k.arpron.14</v>
       </c>
       <c r="X14" s="55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y14" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5667,13 +5670,13 @@
         <v>91</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G15" s="32" t="s">
         <v>9</v>
@@ -5707,10 +5710,10 @@
         <v>Fôrma Incorporada APS</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="Q15" s="29" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="R15" s="61" t="s">
         <v>9</v>
@@ -5728,17 +5731,17 @@
         <v>Prontas</v>
       </c>
       <c r="V15" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W15" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arpron.15</v>
       </c>
       <c r="X15" s="55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y15" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5755,10 +5758,10 @@
         <v>520</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>9</v>
@@ -5770,7 +5773,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="K16" s="32" t="s">
         <v>9</v>
@@ -5792,10 +5795,10 @@
         <v>Coluna Viga Soldada</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="R16" s="61" t="s">
         <v>9</v>
@@ -5813,17 +5816,17 @@
         <v>Soldados</v>
       </c>
       <c r="V16" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W16" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.susold.16</v>
       </c>
       <c r="X16" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y16" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5840,10 +5843,10 @@
         <v>520</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G17" s="32" t="s">
         <v>9</v>
@@ -5877,10 +5880,10 @@
         <v>Coluna Soldada</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="Q17" s="29" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R17" s="61" t="s">
         <v>9</v>
@@ -5898,17 +5901,17 @@
         <v>Soldados</v>
       </c>
       <c r="V17" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W17" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.susold.17</v>
       </c>
       <c r="X17" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="Y17" s="55" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5925,10 +5928,10 @@
         <v>520</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G18" s="32" t="s">
         <v>9</v>
@@ -5962,10 +5965,10 @@
         <v>Viga Soldada</v>
       </c>
       <c r="P18" s="25" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Q18" s="29" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R18" s="61" t="s">
         <v>9</v>
@@ -5983,17 +5986,17 @@
         <v>Soldados</v>
       </c>
       <c r="V18" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W18" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.susold.18</v>
       </c>
       <c r="X18" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y18" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6010,10 +6013,10 @@
         <v>520</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>9</v>
@@ -6025,7 +6028,7 @@
         <v>9</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="K19" s="32" t="s">
         <v>9</v>
@@ -6047,10 +6050,10 @@
         <v>Perfil Laminado I</v>
       </c>
       <c r="P19" s="25" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="Q19" s="29" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R19" s="61" t="s">
         <v>9</v>
@@ -6068,17 +6071,17 @@
         <v>Laminados</v>
       </c>
       <c r="V19" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W19" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.sulami.19</v>
       </c>
       <c r="X19" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y19" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6095,10 +6098,10 @@
         <v>520</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G20" s="32" t="s">
         <v>9</v>
@@ -6132,10 +6135,10 @@
         <v>Perfil Laminado HP</v>
       </c>
       <c r="P20" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Q20" s="29" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R20" s="61" t="s">
         <v>9</v>
@@ -6153,17 +6156,17 @@
         <v>Laminados</v>
       </c>
       <c r="V20" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W20" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.sulami.20</v>
       </c>
       <c r="X20" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y20" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6180,10 +6183,10 @@
         <v>520</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>9</v>
@@ -6217,10 +6220,10 @@
         <v>Perfil Laminado W</v>
       </c>
       <c r="P21" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Q21" s="29" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="R21" s="61" t="s">
         <v>9</v>
@@ -6238,17 +6241,17 @@
         <v>Laminados</v>
       </c>
       <c r="V21" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W21" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.sulami.21</v>
       </c>
       <c r="X21" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y21" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6262,13 +6265,13 @@
         <v>91</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G22" s="32" t="s">
         <v>9</v>
@@ -6277,7 +6280,7 @@
         <v>9</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J22" s="32" t="s">
         <v>9</v>
@@ -6302,10 +6305,10 @@
         <v>Cantoneira</v>
       </c>
       <c r="P22" s="25" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="Q22" s="29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="R22" s="61" t="s">
         <v>9</v>
@@ -6323,17 +6326,17 @@
         <v>Perfis L</v>
       </c>
       <c r="V22" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W22" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.22</v>
       </c>
       <c r="X22" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y22" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6347,13 +6350,13 @@
         <v>91</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E23" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>895</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>896</v>
       </c>
       <c r="G23" s="32" t="s">
         <v>9</v>
@@ -6387,10 +6390,10 @@
         <v>Cantoneira Abas Desiguais</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="R23" s="61" t="s">
         <v>9</v>
@@ -6408,17 +6411,17 @@
         <v>Perfis L</v>
       </c>
       <c r="V23" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W23" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.23</v>
       </c>
       <c r="X23" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y23" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6432,13 +6435,13 @@
         <v>91</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G24" s="32" t="s">
         <v>9</v>
@@ -6472,10 +6475,10 @@
         <v>Perfil Sigma</v>
       </c>
       <c r="P24" s="25" t="s">
+        <v>898</v>
+      </c>
+      <c r="Q24" s="29" t="s">
         <v>899</v>
-      </c>
-      <c r="Q24" s="29" t="s">
-        <v>900</v>
       </c>
       <c r="R24" s="61" t="s">
         <v>9</v>
@@ -6493,17 +6496,17 @@
         <v>Perfis S</v>
       </c>
       <c r="V24" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W24" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.24</v>
       </c>
       <c r="X24" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y24" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6517,10 +6520,10 @@
         <v>91</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>85</v>
@@ -6557,10 +6560,10 @@
         <v>Perfil T</v>
       </c>
       <c r="P25" s="25" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="R25" s="61" t="s">
         <v>9</v>
@@ -6578,17 +6581,17 @@
         <v>Perfis T</v>
       </c>
       <c r="V25" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W25" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.25</v>
       </c>
       <c r="X25" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y25" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6602,10 +6605,10 @@
         <v>91</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>84</v>
@@ -6642,10 +6645,10 @@
         <v>Perfil U</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="R26" s="61" t="s">
         <v>9</v>
@@ -6663,17 +6666,17 @@
         <v>Perfis U</v>
       </c>
       <c r="V26" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W26" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.26</v>
       </c>
       <c r="X26" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y26" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6687,13 +6690,13 @@
         <v>91</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>9</v>
@@ -6727,10 +6730,10 @@
         <v>Perfil UE</v>
       </c>
       <c r="P27" s="25" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="R27" s="61" t="s">
         <v>9</v>
@@ -6748,17 +6751,17 @@
         <v>Perfis U</v>
       </c>
       <c r="V27" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W27" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.27</v>
       </c>
       <c r="X27" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y27" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6772,13 +6775,13 @@
         <v>91</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E28" s="18" t="s">
+        <v>882</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>883</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>884</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>9</v>
@@ -6812,10 +6815,10 @@
         <v>Perfil Z</v>
       </c>
       <c r="P28" s="25" t="s">
+        <v>884</v>
+      </c>
+      <c r="Q28" s="29" t="s">
         <v>885</v>
-      </c>
-      <c r="Q28" s="29" t="s">
-        <v>886</v>
       </c>
       <c r="R28" s="61" t="s">
         <v>9</v>
@@ -6833,17 +6836,17 @@
         <v>Perfis Z</v>
       </c>
       <c r="V28" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W28" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.28</v>
       </c>
       <c r="X28" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y28" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6857,13 +6860,13 @@
         <v>91</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>9</v>
@@ -6897,10 +6900,10 @@
         <v>Seção Circular</v>
       </c>
       <c r="P29" s="25" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q29" s="25" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="R29" s="61" t="s">
         <v>9</v>
@@ -6918,17 +6921,17 @@
         <v>Perfis Tubulares</v>
       </c>
       <c r="V29" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W29" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.29</v>
       </c>
       <c r="X29" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y29" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6942,13 +6945,13 @@
         <v>91</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>9</v>
@@ -6982,10 +6985,10 @@
         <v>Seção Quadrada</v>
       </c>
       <c r="P30" s="25" t="s">
+        <v>913</v>
+      </c>
+      <c r="Q30" s="25" t="s">
         <v>914</v>
-      </c>
-      <c r="Q30" s="25" t="s">
-        <v>915</v>
       </c>
       <c r="R30" s="61" t="s">
         <v>9</v>
@@ -7003,17 +7006,17 @@
         <v>Perfis Tubulares</v>
       </c>
       <c r="V30" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W30" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.30</v>
       </c>
       <c r="X30" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y30" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7027,13 +7030,13 @@
         <v>91</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>9</v>
@@ -7067,10 +7070,10 @@
         <v>Seção Retangular</v>
       </c>
       <c r="P31" s="25" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q31" s="25" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="R31" s="61" t="s">
         <v>9</v>
@@ -7088,17 +7091,17 @@
         <v>Perfis Tubulares</v>
       </c>
       <c r="V31" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W31" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.31</v>
       </c>
       <c r="X31" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y31" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7112,13 +7115,13 @@
         <v>91</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E32" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="F32" s="18" t="s">
         <v>684</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>685</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>9</v>
@@ -7155,7 +7158,7 @@
         <v>557</v>
       </c>
       <c r="Q32" s="29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R32" s="61" t="s">
         <v>9</v>
@@ -7173,17 +7176,17 @@
         <v>Placas</v>
       </c>
       <c r="V32" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W32" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.32</v>
       </c>
       <c r="X32" s="55" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Y32" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7197,13 +7200,13 @@
         <v>91</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>9</v>
@@ -7240,7 +7243,7 @@
         <v>559</v>
       </c>
       <c r="Q33" s="29" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="R33" s="61" t="s">
         <v>9</v>
@@ -7258,17 +7261,17 @@
         <v>Placas</v>
       </c>
       <c r="V33" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W33" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.33</v>
       </c>
       <c r="X33" s="55" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Y33" s="55" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7282,13 +7285,13 @@
         <v>91</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G34" s="32" t="s">
         <v>9</v>
@@ -7325,7 +7328,7 @@
         <v>559</v>
       </c>
       <c r="Q34" s="29" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="R34" s="61" t="s">
         <v>9</v>
@@ -7343,17 +7346,17 @@
         <v>Placas</v>
       </c>
       <c r="V34" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W34" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.34</v>
       </c>
       <c r="X34" s="55" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Y34" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7367,13 +7370,13 @@
         <v>91</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>9</v>
@@ -7407,10 +7410,10 @@
         <v>Placa de Emenda</v>
       </c>
       <c r="P35" s="25" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q35" s="29" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R35" s="61" t="s">
         <v>9</v>
@@ -7428,17 +7431,17 @@
         <v>Placas</v>
       </c>
       <c r="V35" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W35" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.35</v>
       </c>
       <c r="X35" s="55" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Y35" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7452,13 +7455,13 @@
         <v>91</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>9</v>
@@ -7495,7 +7498,7 @@
         <v>573</v>
       </c>
       <c r="Q36" s="29" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="R36" s="61" t="s">
         <v>9</v>
@@ -7513,17 +7516,17 @@
         <v>Placas</v>
       </c>
       <c r="V36" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W36" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.36</v>
       </c>
       <c r="X36" s="55" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Y36" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7537,13 +7540,13 @@
         <v>91</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G37" s="32" t="s">
         <v>9</v>
@@ -7558,7 +7561,7 @@
         <v>9</v>
       </c>
       <c r="K37" s="32" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L37" s="25" t="str">
         <f t="shared" si="51"/>
@@ -7577,10 +7580,10 @@
         <v>Placa de Mísula</v>
       </c>
       <c r="P37" s="25" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="Q37" s="29" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R37" s="61" t="s">
         <v>9</v>
@@ -7598,17 +7601,17 @@
         <v>Placas</v>
       </c>
       <c r="V37" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W37" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.37</v>
       </c>
       <c r="X37" s="55" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Y37" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7622,14 +7625,14 @@
         <v>91</v>
       </c>
       <c r="D38" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="F38" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="E38" s="18" t="s">
-        <v>684</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>796</v>
-      </c>
       <c r="G38" s="32" t="s">
         <v>9</v>
       </c>
@@ -7643,7 +7646,7 @@
         <v>9</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="L38" s="25" t="str">
         <f t="shared" si="51"/>
@@ -7662,10 +7665,10 @@
         <v>Placa de Cumeeira</v>
       </c>
       <c r="P38" s="25" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="Q38" s="29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="R38" s="61" t="s">
         <v>9</v>
@@ -7683,17 +7686,17 @@
         <v>Placas</v>
       </c>
       <c r="V38" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W38" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.38</v>
       </c>
       <c r="X38" s="55" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Y38" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7707,13 +7710,13 @@
         <v>91</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>9</v>
@@ -7728,7 +7731,7 @@
         <v>9</v>
       </c>
       <c r="K39" s="32" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L39" s="25" t="str">
         <f t="shared" si="51"/>
@@ -7747,10 +7750,10 @@
         <v>Placa Gusset</v>
       </c>
       <c r="P39" s="25" t="s">
+        <v>955</v>
+      </c>
+      <c r="Q39" s="29" t="s">
         <v>956</v>
-      </c>
-      <c r="Q39" s="29" t="s">
-        <v>957</v>
       </c>
       <c r="R39" s="61" t="s">
         <v>9</v>
@@ -7768,17 +7771,17 @@
         <v>Placas</v>
       </c>
       <c r="V39" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W39" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.39</v>
       </c>
       <c r="X39" s="55" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Y39" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7792,13 +7795,13 @@
         <v>91</v>
       </c>
       <c r="D40" s="18" t="s">
+        <v>948</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>949</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="F40" s="18" t="s">
         <v>950</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>951</v>
       </c>
       <c r="G40" s="32" t="s">
         <v>9</v>
@@ -7832,10 +7835,10 @@
         <v>SteelDeck Trapezoidal</v>
       </c>
       <c r="P40" s="25" t="s">
+        <v>951</v>
+      </c>
+      <c r="Q40" s="29" t="s">
         <v>952</v>
-      </c>
-      <c r="Q40" s="29" t="s">
-        <v>953</v>
       </c>
       <c r="R40" s="61" t="s">
         <v>9</v>
@@ -7853,17 +7856,17 @@
         <v>SteelDecks</v>
       </c>
       <c r="V40" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W40" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.chstee.40</v>
       </c>
       <c r="X40" s="55" t="s">
+        <v>953</v>
+      </c>
+      <c r="Y40" s="55" t="s">
         <v>954</v>
-      </c>
-      <c r="Y40" s="55" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7877,13 +7880,13 @@
         <v>91</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>9</v>
@@ -7917,10 +7920,10 @@
         <v>Barra Redonda</v>
       </c>
       <c r="P41" s="25" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="Q41" s="25" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R41" s="61" t="s">
         <v>9</v>
@@ -7938,17 +7941,17 @@
         <v>Barras Laminadas</v>
       </c>
       <c r="V41" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W41" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.41</v>
       </c>
       <c r="X41" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y41" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7962,13 +7965,13 @@
         <v>91</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E42" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="F42" s="18" t="s">
         <v>713</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>714</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>9</v>
@@ -8002,10 +8005,10 @@
         <v>Barra Quadrada</v>
       </c>
       <c r="P42" s="25" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q42" s="25" t="s">
         <v>790</v>
-      </c>
-      <c r="Q42" s="25" t="s">
-        <v>791</v>
       </c>
       <c r="R42" s="61" t="s">
         <v>9</v>
@@ -8023,17 +8026,17 @@
         <v>Barras Laminadas</v>
       </c>
       <c r="V42" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W42" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.42</v>
       </c>
       <c r="X42" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y42" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8047,13 +8050,13 @@
         <v>91</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G43" s="32" t="s">
         <v>9</v>
@@ -8087,10 +8090,10 @@
         <v>Barra Hexagonal</v>
       </c>
       <c r="P43" s="25" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q43" s="25" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R43" s="61" t="s">
         <v>9</v>
@@ -8108,17 +8111,17 @@
         <v>Barras Laminadas</v>
       </c>
       <c r="V43" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W43" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.43</v>
       </c>
       <c r="X43" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y43" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8132,13 +8135,13 @@
         <v>91</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G44" s="32" t="s">
         <v>9</v>
@@ -8172,10 +8175,10 @@
         <v>Barra Chata</v>
       </c>
       <c r="P44" s="25" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="Q44" s="29" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="R44" s="61" t="s">
         <v>9</v>
@@ -8193,17 +8196,17 @@
         <v>Barras Laminadas</v>
       </c>
       <c r="V44" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W44" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.44</v>
       </c>
       <c r="X44" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y44" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8217,13 +8220,13 @@
         <v>91</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>9</v>
@@ -8257,10 +8260,10 @@
         <v>Barra Trefilada Redonda</v>
       </c>
       <c r="P45" s="25" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Q45" s="29" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R45" s="61" t="s">
         <v>9</v>
@@ -8278,17 +8281,17 @@
         <v>Barras Trefiladas</v>
       </c>
       <c r="V45" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W45" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.45</v>
       </c>
       <c r="X45" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y45" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8302,13 +8305,13 @@
         <v>91</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E46" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="F46" s="18" t="s">
         <v>715</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>716</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>9</v>
@@ -8342,10 +8345,10 @@
         <v>Barra Trefilada Quadrada</v>
       </c>
       <c r="P46" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="Q46" s="29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="R46" s="61" t="s">
         <v>9</v>
@@ -8363,17 +8366,17 @@
         <v>Barras Trefiladas</v>
       </c>
       <c r="V46" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W46" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.46</v>
       </c>
       <c r="X46" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y46" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8387,13 +8390,13 @@
         <v>91</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>9</v>
@@ -8427,10 +8430,10 @@
         <v>Barra Trefilada Hexagonal</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Q47" s="29" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="R47" s="61" t="s">
         <v>9</v>
@@ -8448,17 +8451,17 @@
         <v>Barras Trefiladas</v>
       </c>
       <c r="V47" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W47" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.47</v>
       </c>
       <c r="X47" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y47" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8472,13 +8475,13 @@
         <v>91</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>9</v>
@@ -8493,7 +8496,7 @@
         <v>9</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L48" s="25" t="str">
         <f t="shared" ref="L48" si="67">_xlfn.CONCAT(SUBSTITUTE(C48,"1.",""))</f>
@@ -8512,10 +8515,10 @@
         <v>Barra Contraventamento</v>
       </c>
       <c r="P48" s="25" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q48" s="25" t="s">
         <v>808</v>
-      </c>
-      <c r="Q48" s="25" t="s">
-        <v>809</v>
       </c>
       <c r="R48" s="61" t="s">
         <v>9</v>
@@ -8533,17 +8536,17 @@
         <v>Barras Contraventamentos</v>
       </c>
       <c r="V48" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W48" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.48</v>
       </c>
       <c r="X48" s="55" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y48" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8557,13 +8560,13 @@
         <v>91</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>9</v>
@@ -8578,7 +8581,7 @@
         <v>9</v>
       </c>
       <c r="K49" s="32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L49" s="25" t="str">
         <f t="shared" ref="L49:L53" si="71">_xlfn.CONCAT(SUBSTITUTE(C49,"1.",""))</f>
@@ -8597,10 +8600,10 @@
         <v>Barra Comprimida</v>
       </c>
       <c r="P49" s="25" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q49" s="25" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="R49" s="61" t="s">
         <v>9</v>
@@ -8618,17 +8621,17 @@
         <v>Barras Contraventamentos</v>
       </c>
       <c r="V49" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W49" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.49</v>
       </c>
       <c r="X49" s="55" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y49" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8642,13 +8645,13 @@
         <v>91</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>9</v>
@@ -8663,7 +8666,7 @@
         <v>9</v>
       </c>
       <c r="K50" s="32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L50" s="25" t="str">
         <f t="shared" si="71"/>
@@ -8682,10 +8685,10 @@
         <v>Barra Tracionada</v>
       </c>
       <c r="P50" s="25" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q50" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="R50" s="61" t="s">
         <v>9</v>
@@ -8703,17 +8706,17 @@
         <v>Barras Contraventamentos</v>
       </c>
       <c r="V50" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W50" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.50</v>
       </c>
       <c r="X50" s="55" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y50" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8727,13 +8730,13 @@
         <v>91</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G51" s="32" t="s">
         <v>9</v>
@@ -8745,10 +8748,10 @@
         <v>9</v>
       </c>
       <c r="J51" s="32" t="s">
+        <v>845</v>
+      </c>
+      <c r="K51" s="32" t="s">
         <v>846</v>
-      </c>
-      <c r="K51" s="32" t="s">
-        <v>847</v>
       </c>
       <c r="L51" s="25" t="str">
         <f t="shared" si="71"/>
@@ -8767,10 +8770,10 @@
         <v>Barra Montante</v>
       </c>
       <c r="P51" s="25" t="s">
+        <v>822</v>
+      </c>
+      <c r="Q51" s="25" t="s">
         <v>823</v>
-      </c>
-      <c r="Q51" s="25" t="s">
-        <v>824</v>
       </c>
       <c r="R51" s="61" t="s">
         <v>9</v>
@@ -8788,17 +8791,17 @@
         <v>Barras Montantes</v>
       </c>
       <c r="V51" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W51" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.51</v>
       </c>
       <c r="X51" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y51" s="55" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8812,14 +8815,14 @@
         <v>91</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E52" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="F52" s="18" t="s">
         <v>814</v>
       </c>
-      <c r="F52" s="18" t="s">
-        <v>815</v>
-      </c>
       <c r="G52" s="32" t="s">
         <v>9</v>
       </c>
@@ -8830,10 +8833,10 @@
         <v>9</v>
       </c>
       <c r="J52" s="32" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K52" s="32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L52" s="25" t="str">
         <f t="shared" si="71"/>
@@ -8852,10 +8855,10 @@
         <v>Barra Diagonal</v>
       </c>
       <c r="P52" s="25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="Q52" s="25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="R52" s="61" t="s">
         <v>9</v>
@@ -8873,17 +8876,17 @@
         <v>Barras Diagonais</v>
       </c>
       <c r="V52" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W52" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.52</v>
       </c>
       <c r="X52" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y52" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8897,14 +8900,14 @@
         <v>91</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E53" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="F53" s="18" t="s">
         <v>817</v>
       </c>
-      <c r="F53" s="18" t="s">
-        <v>818</v>
-      </c>
       <c r="G53" s="32" t="s">
         <v>9</v>
       </c>
@@ -8915,10 +8918,10 @@
         <v>9</v>
       </c>
       <c r="J53" s="32" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="L53" s="25" t="str">
         <f t="shared" si="71"/>
@@ -8937,10 +8940,10 @@
         <v>Banzo Superior</v>
       </c>
       <c r="P53" s="25" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Q53" s="25" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="R53" s="61" t="s">
         <v>9</v>
@@ -8958,17 +8961,17 @@
         <v>Banzos</v>
       </c>
       <c r="V53" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W53" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babanz.53</v>
       </c>
       <c r="X53" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y53" s="55" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8982,13 +8985,13 @@
         <v>91</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G54" s="32" t="s">
         <v>9</v>
@@ -9003,7 +9006,7 @@
         <v>9</v>
       </c>
       <c r="K54" s="32" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="L54" s="25" t="str">
         <f t="shared" ref="L54" si="75">_xlfn.CONCAT(SUBSTITUTE(C54,"1.",""))</f>
@@ -9022,10 +9025,10 @@
         <v>Banzo Inferior</v>
       </c>
       <c r="P54" s="25" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Q54" s="25" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="R54" s="61" t="s">
         <v>9</v>
@@ -9043,17 +9046,17 @@
         <v>Banzos</v>
       </c>
       <c r="V54" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W54" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babanz.54</v>
       </c>
       <c r="X54" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y54" s="55" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9067,13 +9070,13 @@
         <v>91</v>
       </c>
       <c r="D55" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>841</v>
       </c>
-      <c r="E55" s="18" t="s">
-        <v>842</v>
-      </c>
       <c r="F55" s="18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>9</v>
@@ -9107,10 +9110,10 @@
         <v>ContraVentamento Horizontal Diagonal</v>
       </c>
       <c r="P55" s="25" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q55" s="25" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="R55" s="61" t="s">
         <v>9</v>
@@ -9128,17 +9131,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V55" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W55" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.55</v>
       </c>
       <c r="X55" s="55" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="Y55" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9152,13 +9155,13 @@
         <v>91</v>
       </c>
       <c r="D56" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>841</v>
       </c>
-      <c r="E56" s="18" t="s">
-        <v>842</v>
-      </c>
       <c r="F56" s="18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>9</v>
@@ -9192,10 +9195,10 @@
         <v>ContraVentamento Horizontal X</v>
       </c>
       <c r="P56" s="25" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Q56" s="25" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="R56" s="61" t="s">
         <v>9</v>
@@ -9213,17 +9216,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V56" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W56" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.56</v>
       </c>
       <c r="X56" s="55" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="Y56" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9237,13 +9240,13 @@
         <v>91</v>
       </c>
       <c r="D57" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="E57" s="18" t="s">
         <v>841</v>
       </c>
-      <c r="E57" s="18" t="s">
-        <v>842</v>
-      </c>
       <c r="F57" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>9</v>
@@ -9277,10 +9280,10 @@
         <v>ContraVentamento Horizontal K</v>
       </c>
       <c r="P57" s="25" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Q57" s="25" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="R57" s="61" t="s">
         <v>9</v>
@@ -9298,17 +9301,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V57" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W57" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.57</v>
       </c>
       <c r="X57" s="55" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="Y57" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9322,13 +9325,13 @@
         <v>91</v>
       </c>
       <c r="D58" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>841</v>
       </c>
-      <c r="E58" s="18" t="s">
-        <v>842</v>
-      </c>
       <c r="F58" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>9</v>
@@ -9362,10 +9365,10 @@
         <v>ContraVentamento Horizontal V</v>
       </c>
       <c r="P58" s="25" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q58" s="25" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="R58" s="61" t="s">
         <v>9</v>
@@ -9383,17 +9386,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V58" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W58" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.58</v>
       </c>
       <c r="X58" s="55" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="Y58" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9407,13 +9410,13 @@
         <v>91</v>
       </c>
       <c r="D59" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="E59" s="18" t="s">
         <v>841</v>
       </c>
-      <c r="E59" s="18" t="s">
-        <v>842</v>
-      </c>
       <c r="F59" s="18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G59" s="32" t="s">
         <v>9</v>
@@ -9447,10 +9450,10 @@
         <v>ContraVentamento Horizontal VI</v>
       </c>
       <c r="P59" s="25" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Q59" s="25" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="R59" s="61" t="s">
         <v>9</v>
@@ -9468,17 +9471,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V59" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W59" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.59</v>
       </c>
       <c r="X59" s="55" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="Y59" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9492,13 +9495,13 @@
         <v>91</v>
       </c>
       <c r="D60" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="E60" s="18" t="s">
         <v>841</v>
       </c>
-      <c r="E60" s="18" t="s">
-        <v>842</v>
-      </c>
       <c r="F60" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G60" s="32" t="s">
         <v>9</v>
@@ -9532,10 +9535,10 @@
         <v>ContraVentamento Horizontal Delta</v>
       </c>
       <c r="P60" s="25" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Q60" s="25" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="R60" s="61" t="s">
         <v>9</v>
@@ -9553,17 +9556,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V60" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W60" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.60</v>
       </c>
       <c r="X60" s="55" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="Y60" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9577,13 +9580,13 @@
         <v>91</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G61" s="32" t="s">
         <v>9</v>
@@ -9617,10 +9620,10 @@
         <v>ContraVentamento Vertical</v>
       </c>
       <c r="P61" s="25" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Q61" s="25" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="R61" s="61" t="s">
         <v>9</v>
@@ -9638,17 +9641,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V61" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W61" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.61</v>
       </c>
       <c r="X61" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Y61" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9662,13 +9665,13 @@
         <v>91</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G62" s="32" t="s">
         <v>9</v>
@@ -9702,10 +9705,10 @@
         <v>ContraVentamento Vertical X</v>
       </c>
       <c r="P62" s="25" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Q62" s="25" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="R62" s="61" t="s">
         <v>9</v>
@@ -9723,17 +9726,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V62" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W62" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.62</v>
       </c>
       <c r="X62" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Y62" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="63" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9747,13 +9750,13 @@
         <v>91</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G63" s="32" t="s">
         <v>9</v>
@@ -9787,10 +9790,10 @@
         <v>ContraVentamento Vertical K</v>
       </c>
       <c r="P63" s="25" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Q63" s="25" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="R63" s="61" t="s">
         <v>9</v>
@@ -9808,17 +9811,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V63" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W63" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.63</v>
       </c>
       <c r="X63" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Y63" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9832,13 +9835,13 @@
         <v>91</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G64" s="32" t="s">
         <v>9</v>
@@ -9872,10 +9875,10 @@
         <v>ContraVentamento Vertical V</v>
       </c>
       <c r="P64" s="25" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="Q64" s="25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="R64" s="61" t="s">
         <v>9</v>
@@ -9893,17 +9896,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V64" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W64" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.64</v>
       </c>
       <c r="X64" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Y64" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="65" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9917,13 +9920,13 @@
         <v>91</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E65" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="F65" s="18" t="s">
         <v>843</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>844</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>9</v>
@@ -9957,10 +9960,10 @@
         <v>ContraVentamento Vertical VI</v>
       </c>
       <c r="P65" s="25" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q65" s="25" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="R65" s="61" t="s">
         <v>9</v>
@@ -9978,17 +9981,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V65" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W65" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.65</v>
       </c>
       <c r="X65" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Y65" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="66" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10002,13 +10005,13 @@
         <v>91</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>9</v>
@@ -10042,10 +10045,10 @@
         <v>ContraVentamento Vertical Delta</v>
       </c>
       <c r="P66" s="25" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Q66" s="25" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="R66" s="61" t="s">
         <v>9</v>
@@ -10063,17 +10066,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V66" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W66" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.66</v>
       </c>
       <c r="X66" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Y66" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="67" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10087,13 +10090,13 @@
         <v>91</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E67" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="F67" s="18" t="s">
         <v>851</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>852</v>
       </c>
       <c r="G67" s="32" t="s">
         <v>9</v>
@@ -10127,10 +10130,10 @@
         <v>ContraVentamento Cabo</v>
       </c>
       <c r="P67" s="25" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="Q67" s="25" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="R67" s="61" t="s">
         <v>9</v>
@@ -10148,17 +10151,17 @@
         <v>ContraVentamentos Cabos</v>
       </c>
       <c r="V67" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W67" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.67</v>
       </c>
       <c r="X67" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y67" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="68" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10172,13 +10175,13 @@
         <v>91</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G68" s="32" t="s">
         <v>9</v>
@@ -10212,10 +10215,10 @@
         <v>Treliça Pratt</v>
       </c>
       <c r="P68" s="25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Q68" s="29" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="R68" s="61" t="s">
         <v>9</v>
@@ -10233,17 +10236,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V68" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W68" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.trtrel.68</v>
       </c>
       <c r="X68" s="55" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Y68" s="55" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10257,13 +10260,13 @@
         <v>91</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G69" s="32" t="s">
         <v>9</v>
@@ -10297,10 +10300,10 @@
         <v>Treliça Howe</v>
       </c>
       <c r="P69" s="25" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="Q69" s="29" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="R69" s="61" t="s">
         <v>9</v>
@@ -10318,17 +10321,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V69" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W69" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.trtrel.69</v>
       </c>
       <c r="X69" s="55" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Y69" s="55" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="70" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10342,13 +10345,13 @@
         <v>91</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G70" s="32" t="s">
         <v>9</v>
@@ -10382,10 +10385,10 @@
         <v>Treliça Warren</v>
       </c>
       <c r="P70" s="25" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Q70" s="29" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="R70" s="61" t="s">
         <v>9</v>
@@ -10403,17 +10406,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V70" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W70" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.trtrel.70</v>
       </c>
       <c r="X70" s="55" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Y70" s="55" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="71" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10427,13 +10430,13 @@
         <v>91</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G71" s="32" t="s">
         <v>9</v>
@@ -10467,10 +10470,10 @@
         <v>Treliça Fink</v>
       </c>
       <c r="P71" s="25" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q71" s="29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="R71" s="61" t="s">
         <v>9</v>
@@ -10488,17 +10491,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V71" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W71" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.trtrel.71</v>
       </c>
       <c r="X71" s="55" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Y71" s="55" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="72" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10512,13 +10515,13 @@
         <v>91</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G72" s="32" t="s">
         <v>9</v>
@@ -10552,10 +10555,10 @@
         <v>Treliça Vierendeel</v>
       </c>
       <c r="P72" s="25" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Q72" s="29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="R72" s="61" t="s">
         <v>9</v>
@@ -10573,17 +10576,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V72" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W72" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.trtrel.72</v>
       </c>
       <c r="X72" s="55" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Y72" s="55" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="73" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10597,13 +10600,13 @@
         <v>91</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G73" s="32" t="s">
         <v>9</v>
@@ -10637,10 +10640,10 @@
         <v>Tesoura</v>
       </c>
       <c r="P73" s="25" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q73" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R73" s="61" t="s">
         <v>9</v>
@@ -10658,17 +10661,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V73" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W73" s="30" t="str">
         <f t="shared" ref="W73:W123" si="111">CONCATENATE("k.",LOWER(LEFT(D73,2)),LOWER(LEFT(E73,4)),".",A73)</f>
         <v>k.trtrel.73</v>
       </c>
       <c r="X73" s="55" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Y73" s="55" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="74" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10682,13 +10685,13 @@
         <v>91</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G74" s="32" t="s">
         <v>9</v>
@@ -10722,10 +10725,10 @@
         <v>Treliça Ponte</v>
       </c>
       <c r="P74" s="25" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Q74" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="R74" s="61" t="s">
         <v>9</v>
@@ -10743,17 +10746,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V74" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W74" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.74</v>
       </c>
       <c r="X74" s="55" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Y74" s="55" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="75" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10767,13 +10770,13 @@
         <v>91</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G75" s="32" t="s">
         <v>9</v>
@@ -10807,10 +10810,10 @@
         <v>Treliça Espacial Reticulada</v>
       </c>
       <c r="P75" s="25" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="Q75" s="29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="R75" s="61" t="s">
         <v>9</v>
@@ -10828,17 +10831,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V75" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W75" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.75</v>
       </c>
       <c r="X75" s="55" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Y75" s="55" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="76" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10852,13 +10855,13 @@
         <v>91</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G76" s="32" t="s">
         <v>9</v>
@@ -10892,10 +10895,10 @@
         <v>Treliça Espacial Geodésica</v>
       </c>
       <c r="P76" s="25" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q76" s="29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="R76" s="61" t="s">
         <v>9</v>
@@ -10913,17 +10916,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V76" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W76" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.76</v>
       </c>
       <c r="X76" s="55" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Y76" s="55" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="77" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10937,13 +10940,13 @@
         <v>91</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E77" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="F77" s="18" t="s">
         <v>740</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>741</v>
       </c>
       <c r="G77" s="32" t="s">
         <v>9</v>
@@ -10977,10 +10980,10 @@
         <v>Treliça Espacial Arqueada</v>
       </c>
       <c r="P77" s="25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="Q77" s="29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="R77" s="61" t="s">
         <v>9</v>
@@ -10998,17 +11001,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V77" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W77" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.77</v>
       </c>
       <c r="X77" s="55" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Y77" s="55" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="78" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11022,13 +11025,13 @@
         <v>91</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G78" s="32" t="s">
         <v>9</v>
@@ -11062,10 +11065,10 @@
         <v>Treliça Espacial Piramidal</v>
       </c>
       <c r="P78" s="25" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q78" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="R78" s="61" t="s">
         <v>9</v>
@@ -11083,17 +11086,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V78" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W78" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.78</v>
       </c>
       <c r="X78" s="55" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Y78" s="55" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="79" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11107,13 +11110,13 @@
         <v>91</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G79" s="32" t="s">
         <v>9</v>
@@ -11147,10 +11150,10 @@
         <v>Treliça Espacial Octaédrica</v>
       </c>
       <c r="P79" s="25" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="Q79" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R79" s="61" t="s">
         <v>9</v>
@@ -11168,17 +11171,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V79" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W79" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.79</v>
       </c>
       <c r="X79" s="55" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Y79" s="55" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="80" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11192,13 +11195,13 @@
         <v>91</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G80" s="32" t="s">
         <v>9</v>
@@ -11232,10 +11235,10 @@
         <v>Treliça Espacial Híbrida</v>
       </c>
       <c r="P80" s="25" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Q80" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="R80" s="61" t="s">
         <v>9</v>
@@ -11253,17 +11256,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V80" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W80" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.80</v>
       </c>
       <c r="X80" s="55" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Y80" s="55" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="81" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11277,13 +11280,13 @@
         <v>91</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G81" s="32" t="s">
         <v>9</v>
@@ -11317,10 +11320,10 @@
         <v>Ancora Estrutural</v>
       </c>
       <c r="P81" s="25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q81" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R81" s="61" t="s">
         <v>9</v>
@@ -11338,17 +11341,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V81" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W81" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.81</v>
       </c>
       <c r="X81" s="55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Y81" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11362,13 +11365,13 @@
         <v>91</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G82" s="32" t="s">
         <v>9</v>
@@ -11402,10 +11405,10 @@
         <v>Conector Estrutural</v>
       </c>
       <c r="P82" s="25" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Q82" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="R82" s="61" t="s">
         <v>9</v>
@@ -11423,17 +11426,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V82" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W82" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.82</v>
       </c>
       <c r="X82" s="55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Y82" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="83" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11447,13 +11450,13 @@
         <v>91</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F83" s="60" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G83" s="32" t="s">
         <v>9</v>
@@ -11487,10 +11490,10 @@
         <v>Ancoragem de Estai</v>
       </c>
       <c r="P83" s="25" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="Q83" s="29" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="R83" s="61" t="s">
         <v>9</v>
@@ -11508,17 +11511,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V83" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W83" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.83</v>
       </c>
       <c r="X83" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y83" s="59" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="84" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11532,13 +11535,13 @@
         <v>91</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F84" s="60" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G84" s="32" t="s">
         <v>9</v>
@@ -11572,10 +11575,10 @@
         <v>Ancoragem Acoplador</v>
       </c>
       <c r="P84" s="25" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="Q84" s="29" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="R84" s="61" t="s">
         <v>9</v>
@@ -11593,17 +11596,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V84" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W84" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.84</v>
       </c>
       <c r="X84" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y84" s="59" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11617,13 +11620,13 @@
         <v>91</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F85" s="60" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G85" s="32" t="s">
         <v>9</v>
@@ -11657,10 +11660,10 @@
         <v>Ancoragem Extremo Fixo</v>
       </c>
       <c r="P85" s="25" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="Q85" s="29" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="R85" s="61" t="s">
         <v>9</v>
@@ -11678,17 +11681,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V85" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W85" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.85</v>
       </c>
       <c r="X85" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y85" s="59" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11702,13 +11705,13 @@
         <v>91</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F86" s="60" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G86" s="32" t="s">
         <v>9</v>
@@ -11742,10 +11745,10 @@
         <v>Ancoragem Extremo Tensionado</v>
       </c>
       <c r="P86" s="25" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="Q86" s="29" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="R86" s="61" t="s">
         <v>9</v>
@@ -11763,17 +11766,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V86" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W86" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.86</v>
       </c>
       <c r="X86" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y86" s="59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="87" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11787,13 +11790,13 @@
         <v>91</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F87" s="60" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G87" s="32" t="s">
         <v>9</v>
@@ -11827,10 +11830,10 @@
         <v>Estai</v>
       </c>
       <c r="P87" s="25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Q87" s="29" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="R87" s="61" t="s">
         <v>9</v>
@@ -11848,17 +11851,17 @@
         <v>Tensores</v>
       </c>
       <c r="V87" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W87" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.87</v>
       </c>
       <c r="X87" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y87" s="59" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="88" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11872,13 +11875,13 @@
         <v>91</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F88" s="60" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G88" s="32" t="s">
         <v>9</v>
@@ -11912,10 +11915,10 @@
         <v>Tensor Barra</v>
       </c>
       <c r="P88" s="25" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q88" s="29" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="R88" s="61" t="s">
         <v>9</v>
@@ -11933,17 +11936,17 @@
         <v>Tensores</v>
       </c>
       <c r="V88" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W88" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.88</v>
       </c>
       <c r="X88" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y88" s="59" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11957,13 +11960,13 @@
         <v>91</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F89" s="60" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G89" s="32" t="s">
         <v>9</v>
@@ -11997,10 +12000,10 @@
         <v>Tensor Revestido</v>
       </c>
       <c r="P89" s="25" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q89" s="29" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="R89" s="61" t="s">
         <v>9</v>
@@ -12018,17 +12021,17 @@
         <v>Tensores</v>
       </c>
       <c r="V89" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W89" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.89</v>
       </c>
       <c r="X89" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y89" s="59" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12042,13 +12045,13 @@
         <v>91</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F90" s="60" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G90" s="32" t="s">
         <v>9</v>
@@ -12082,10 +12085,10 @@
         <v>Tensor Bainha</v>
       </c>
       <c r="P90" s="25" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q90" s="29" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="R90" s="61" t="s">
         <v>9</v>
@@ -12103,17 +12106,17 @@
         <v>Tensores</v>
       </c>
       <c r="V90" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W90" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.90</v>
       </c>
       <c r="X90" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y90" s="59" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12127,13 +12130,13 @@
         <v>91</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F91" s="60" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G91" s="32" t="s">
         <v>9</v>
@@ -12167,10 +12170,10 @@
         <v>Tensor Bainha Acoplador</v>
       </c>
       <c r="P91" s="25" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="Q91" s="29" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="R91" s="61" t="s">
         <v>9</v>
@@ -12188,17 +12191,17 @@
         <v>Tensores</v>
       </c>
       <c r="V91" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W91" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.91</v>
       </c>
       <c r="X91" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y91" s="59" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12212,13 +12215,13 @@
         <v>91</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F92" s="60" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G92" s="32" t="s">
         <v>9</v>
@@ -12252,10 +12255,10 @@
         <v>Tensor Bainha Diabolo</v>
       </c>
       <c r="P92" s="25" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="Q92" s="29" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="R92" s="61" t="s">
         <v>9</v>
@@ -12273,17 +12276,17 @@
         <v>Tensores</v>
       </c>
       <c r="V92" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W92" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.92</v>
       </c>
       <c r="X92" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y92" s="59" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12297,13 +12300,13 @@
         <v>91</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F93" s="60" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G93" s="32" t="s">
         <v>9</v>
@@ -12337,10 +12340,10 @@
         <v>Tensor Bainha Cabo</v>
       </c>
       <c r="P93" s="25" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="Q93" s="29" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="R93" s="61" t="s">
         <v>9</v>
@@ -12358,17 +12361,17 @@
         <v>Tensores</v>
       </c>
       <c r="V93" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W93" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.93</v>
       </c>
       <c r="X93" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y93" s="59" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="94" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12382,13 +12385,13 @@
         <v>91</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F94" s="60" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G94" s="32" t="s">
         <v>9</v>
@@ -12422,10 +12425,10 @@
         <v>Tensor Injetor</v>
       </c>
       <c r="P94" s="25" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="Q94" s="29" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="R94" s="61" t="s">
         <v>9</v>
@@ -12443,17 +12446,17 @@
         <v>Tensores</v>
       </c>
       <c r="V94" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W94" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.94</v>
       </c>
       <c r="X94" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y94" s="59" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12467,13 +12470,13 @@
         <v>91</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F95" s="60" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G95" s="32" t="s">
         <v>9</v>
@@ -12507,10 +12510,10 @@
         <v>Tensor Trombeta</v>
       </c>
       <c r="P95" s="25" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="Q95" s="29" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="R95" s="61" t="s">
         <v>9</v>
@@ -12528,17 +12531,17 @@
         <v>Tensores</v>
       </c>
       <c r="V95" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W95" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.95</v>
       </c>
       <c r="X95" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y95" s="59" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12552,13 +12555,13 @@
         <v>91</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F96" s="60" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G96" s="32" t="s">
         <v>9</v>
@@ -12592,10 +12595,10 @@
         <v>Tensor Corda</v>
       </c>
       <c r="P96" s="25" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="Q96" s="29" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="R96" s="61" t="s">
         <v>9</v>
@@ -12613,17 +12616,17 @@
         <v>Tensores</v>
       </c>
       <c r="V96" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W96" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.96</v>
       </c>
       <c r="X96" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y96" s="59" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12637,13 +12640,13 @@
         <v>91</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F97" s="60" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G97" s="32" t="s">
         <v>9</v>
@@ -12677,10 +12680,10 @@
         <v>Tensor Fio</v>
       </c>
       <c r="P97" s="25" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="Q97" s="29" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="R97" s="61" t="s">
         <v>9</v>
@@ -12698,17 +12701,17 @@
         <v>Tensores</v>
       </c>
       <c r="V97" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W97" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.97</v>
       </c>
       <c r="X97" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y97" s="59" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12722,13 +12725,13 @@
         <v>91</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G98" s="32" t="s">
         <v>9</v>
@@ -12762,10 +12765,10 @@
         <v>Mastro Estrutural</v>
       </c>
       <c r="P98" s="25" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="Q98" s="29" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="R98" s="61" t="s">
         <v>9</v>
@@ -12783,17 +12786,17 @@
         <v>Tensores</v>
       </c>
       <c r="V98" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W98" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.98</v>
       </c>
       <c r="X98" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="Y98" s="55" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12807,13 +12810,13 @@
         <v>91</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G99" s="32" t="s">
         <v>9</v>
@@ -12847,10 +12850,10 @@
         <v>Membrana Estrutural</v>
       </c>
       <c r="P99" s="25" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Q99" s="29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R99" s="61" t="s">
         <v>9</v>
@@ -12868,17 +12871,17 @@
         <v>Tensores</v>
       </c>
       <c r="V99" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W99" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.99</v>
       </c>
       <c r="X99" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y99" s="55" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12892,13 +12895,13 @@
         <v>92</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G100" s="32" t="s">
         <v>9</v>
@@ -12932,10 +12935,10 @@
         <v>Terça Cobertura</v>
       </c>
       <c r="P100" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="Q100" s="29" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="R100" s="61" t="s">
         <v>9</v>
@@ -12953,17 +12956,17 @@
         <v>Terças</v>
       </c>
       <c r="V100" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W100" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teterç.100</v>
       </c>
       <c r="X100" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y100" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12977,13 +12980,13 @@
         <v>92</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E101" s="18" t="s">
+        <v>887</v>
+      </c>
+      <c r="F101" s="18" t="s">
         <v>888</v>
-      </c>
-      <c r="F101" s="18" t="s">
-        <v>889</v>
       </c>
       <c r="G101" s="32" t="s">
         <v>9</v>
@@ -13017,10 +13020,10 @@
         <v>Terça Fachada</v>
       </c>
       <c r="P101" s="25" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="Q101" s="29" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="R101" s="61" t="s">
         <v>9</v>
@@ -13038,17 +13041,17 @@
         <v>Terças</v>
       </c>
       <c r="V101" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W101" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teterç.101</v>
       </c>
       <c r="X101" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y101" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13062,13 +13065,13 @@
         <v>92</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G102" s="32" t="s">
         <v>9</v>
@@ -13102,10 +13105,10 @@
         <v>Terça Cartola</v>
       </c>
       <c r="P102" s="25" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="Q102" s="29" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="R102" s="61" t="s">
         <v>9</v>
@@ -13123,17 +13126,17 @@
         <v>Terças</v>
       </c>
       <c r="V102" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W102" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teterç.102</v>
       </c>
       <c r="X102" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y102" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13147,13 +13150,13 @@
         <v>92</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E103" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F103" s="18" t="s">
         <v>1008</v>
-      </c>
-      <c r="F103" s="18" t="s">
-        <v>1009</v>
       </c>
       <c r="G103" s="32" t="s">
         <v>9</v>
@@ -13187,10 +13190,10 @@
         <v>Tirante Beiral</v>
       </c>
       <c r="P103" s="25" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="Q103" s="29" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="R103" s="61" t="s">
         <v>9</v>
@@ -13208,17 +13211,17 @@
         <v>Tirantes</v>
       </c>
       <c r="V103" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W103" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetira.103</v>
       </c>
       <c r="X103" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="Y103" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13232,13 +13235,13 @@
         <v>92</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G104" s="32" t="s">
         <v>9</v>
@@ -13272,10 +13275,10 @@
         <v>Tirante Terça</v>
       </c>
       <c r="P104" s="25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="Q104" s="29" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="R104" s="61" t="s">
         <v>9</v>
@@ -13293,17 +13296,17 @@
         <v>Tirantes</v>
       </c>
       <c r="V104" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W104" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetira.104</v>
       </c>
       <c r="X104" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="Y104" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13317,13 +13320,13 @@
         <v>92</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G105" s="32" t="s">
         <v>9</v>
@@ -13357,10 +13360,10 @@
         <v>Tirante Cumeeira</v>
       </c>
       <c r="P105" s="25" t="s">
+        <v>1013</v>
+      </c>
+      <c r="Q105" s="29" t="s">
         <v>1014</v>
-      </c>
-      <c r="Q105" s="29" t="s">
-        <v>1015</v>
       </c>
       <c r="R105" s="61" t="s">
         <v>9</v>
@@ -13378,17 +13381,17 @@
         <v>Tirantes</v>
       </c>
       <c r="V105" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W105" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetira.105</v>
       </c>
       <c r="X105" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="Y105" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13402,13 +13405,13 @@
         <v>92</v>
       </c>
       <c r="D106" s="18" t="s">
+        <v>923</v>
+      </c>
+      <c r="E106" s="18" t="s">
         <v>924</v>
       </c>
-      <c r="E106" s="18" t="s">
-        <v>925</v>
-      </c>
       <c r="F106" s="18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G106" s="32" t="s">
         <v>9</v>
@@ -13442,10 +13445,10 @@
         <v>Frechal Alinhamento</v>
       </c>
       <c r="P106" s="25" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="Q106" s="29" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="R106" s="61" t="s">
         <v>9</v>
@@ -13463,17 +13466,17 @@
         <v>Frechais</v>
       </c>
       <c r="V106" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W106" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tefrec.106</v>
       </c>
       <c r="X106" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y106" s="59" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13484,16 +13487,16 @@
         <v>76</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D107" s="18" t="s">
+        <v>927</v>
+      </c>
+      <c r="E107" s="18" t="s">
         <v>928</v>
       </c>
-      <c r="E107" s="18" t="s">
-        <v>929</v>
-      </c>
       <c r="F107" s="18" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G107" s="32" t="s">
         <v>9</v>
@@ -13527,10 +13530,10 @@
         <v>Painel Sanduíche Fachada</v>
       </c>
       <c r="P107" s="25" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="Q107" s="29" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="R107" s="61" t="s">
         <v>9</v>
@@ -13548,17 +13551,17 @@
         <v>Paineis Sanduíches</v>
       </c>
       <c r="V107" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W107" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sipain.107</v>
       </c>
       <c r="X107" s="55" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="Y107" s="55" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13569,16 +13572,16 @@
         <v>76</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D108" s="18" t="s">
+        <v>927</v>
+      </c>
+      <c r="E108" s="18" t="s">
         <v>928</v>
       </c>
-      <c r="E108" s="18" t="s">
-        <v>929</v>
-      </c>
       <c r="F108" s="18" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G108" s="32" t="s">
         <v>9</v>
@@ -13612,10 +13615,10 @@
         <v>Painel Sanduíche Térmico</v>
       </c>
       <c r="P108" s="25" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="Q108" s="29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="R108" s="61" t="s">
         <v>9</v>
@@ -13633,17 +13636,17 @@
         <v>Paineis Sanduíches</v>
       </c>
       <c r="V108" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W108" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sipain.108</v>
       </c>
       <c r="X108" s="55" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="Y108" s="55" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13654,16 +13657,16 @@
         <v>76</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G109" s="32" t="s">
         <v>9</v>
@@ -13697,10 +13700,10 @@
         <v>Telha Sanduíche Zipada</v>
       </c>
       <c r="P109" s="25" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="Q109" s="29" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="R109" s="61" t="s">
         <v>9</v>
@@ -13718,17 +13721,17 @@
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V109" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W109" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.109</v>
       </c>
       <c r="X109" s="55" t="s">
+        <v>944</v>
+      </c>
+      <c r="Y109" s="59" t="s">
         <v>945</v>
-      </c>
-      <c r="Y109" s="59" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13739,16 +13742,16 @@
         <v>76</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G110" s="32" t="s">
         <v>9</v>
@@ -13782,10 +13785,10 @@
         <v>Telha Sanduíche Ondulada</v>
       </c>
       <c r="P110" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="Q110" s="29" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="R110" s="61" t="s">
         <v>9</v>
@@ -13803,17 +13806,17 @@
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V110" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W110" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.110</v>
       </c>
       <c r="X110" s="55" t="s">
+        <v>944</v>
+      </c>
+      <c r="Y110" s="59" t="s">
         <v>945</v>
-      </c>
-      <c r="Y110" s="59" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13824,16 +13827,16 @@
         <v>76</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G111" s="32" t="s">
         <v>9</v>
@@ -13867,10 +13870,10 @@
         <v>Telha Sanduíche Trapezoidal</v>
       </c>
       <c r="P111" s="25" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Q111" s="29" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="R111" s="61" t="s">
         <v>9</v>
@@ -13888,17 +13891,17 @@
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V111" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W111" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.111</v>
       </c>
       <c r="X111" s="55" t="s">
+        <v>944</v>
+      </c>
+      <c r="Y111" s="59" t="s">
         <v>945</v>
-      </c>
-      <c r="Y111" s="59" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13909,16 +13912,16 @@
         <v>76</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G112" s="32" t="s">
         <v>9</v>
@@ -13952,10 +13955,10 @@
         <v>Telha Sanduíche Solar</v>
       </c>
       <c r="P112" s="25" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="Q112" s="29" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R112" s="61" t="s">
         <v>9</v>
@@ -13973,17 +13976,17 @@
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V112" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W112" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.112</v>
       </c>
       <c r="X112" s="55" t="s">
+        <v>944</v>
+      </c>
+      <c r="Y112" s="59" t="s">
         <v>945</v>
-      </c>
-      <c r="Y112" s="59" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="113" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13994,16 +13997,16 @@
         <v>76</v>
       </c>
       <c r="C113" s="18" t="s">
+        <v>900</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="E113" s="18" t="s">
         <v>901</v>
       </c>
-      <c r="D113" s="18" t="s">
-        <v>904</v>
-      </c>
-      <c r="E113" s="18" t="s">
-        <v>902</v>
-      </c>
       <c r="F113" s="18" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G113" s="32" t="s">
         <v>9</v>
@@ -14037,10 +14040,10 @@
         <v>Telha Trapezoidal</v>
       </c>
       <c r="P113" s="25" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="Q113" s="29" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="R113" s="61" t="s">
         <v>9</v>
@@ -14058,17 +14061,17 @@
         <v>Telhas Perfiladas</v>
       </c>
       <c r="V113" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W113" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.113</v>
       </c>
       <c r="X113" s="55" t="s">
+        <v>944</v>
+      </c>
+      <c r="Y113" s="59" t="s">
         <v>945</v>
-      </c>
-      <c r="Y113" s="59" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="114" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14079,16 +14082,16 @@
         <v>76</v>
       </c>
       <c r="C114" s="18" t="s">
+        <v>900</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="E114" s="18" t="s">
         <v>901</v>
       </c>
-      <c r="D114" s="18" t="s">
-        <v>904</v>
-      </c>
-      <c r="E114" s="18" t="s">
+      <c r="F114" s="18" t="s">
         <v>902</v>
-      </c>
-      <c r="F114" s="18" t="s">
-        <v>903</v>
       </c>
       <c r="G114" s="32" t="s">
         <v>9</v>
@@ -14122,10 +14125,10 @@
         <v>Telha Ondulada</v>
       </c>
       <c r="P114" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="Q114" s="29" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="R114" s="61" t="s">
         <v>9</v>
@@ -14143,17 +14146,17 @@
         <v>Telhas Perfiladas</v>
       </c>
       <c r="V114" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W114" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.114</v>
       </c>
       <c r="X114" s="55" t="s">
+        <v>944</v>
+      </c>
+      <c r="Y114" s="59" t="s">
         <v>945</v>
-      </c>
-      <c r="Y114" s="59" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="115" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14164,16 +14167,16 @@
         <v>76</v>
       </c>
       <c r="C115" s="18" t="s">
+        <v>900</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="E115" s="18" t="s">
         <v>901</v>
       </c>
-      <c r="D115" s="18" t="s">
+      <c r="F115" s="18" t="s">
         <v>904</v>
-      </c>
-      <c r="E115" s="18" t="s">
-        <v>902</v>
-      </c>
-      <c r="F115" s="18" t="s">
-        <v>905</v>
       </c>
       <c r="G115" s="32" t="s">
         <v>9</v>
@@ -14207,10 +14210,10 @@
         <v>Telha Zipada</v>
       </c>
       <c r="P115" s="25" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="Q115" s="29" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="R115" s="61" t="s">
         <v>9</v>
@@ -14228,17 +14231,17 @@
         <v>Telhas Perfiladas</v>
       </c>
       <c r="V115" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W115" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.115</v>
       </c>
       <c r="X115" s="55" t="s">
+        <v>944</v>
+      </c>
+      <c r="Y115" s="59" t="s">
         <v>945</v>
-      </c>
-      <c r="Y115" s="59" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="116" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14249,16 +14252,16 @@
         <v>76</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G116" s="32" t="s">
         <v>9</v>
@@ -14292,10 +14295,10 @@
         <v>Chumbador Interno</v>
       </c>
       <c r="P116" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Q116" s="29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R116" s="61" t="s">
         <v>9</v>
@@ -14313,17 +14316,17 @@
         <v>Chumbadores</v>
       </c>
       <c r="V116" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W116" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fichum.116</v>
       </c>
       <c r="X116" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y116" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="117" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14334,16 +14337,16 @@
         <v>76</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G117" s="32" t="s">
         <v>9</v>
@@ -14377,10 +14380,10 @@
         <v>Chumbador Externo</v>
       </c>
       <c r="P117" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Q117" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="R117" s="61" t="s">
         <v>9</v>
@@ -14398,17 +14401,17 @@
         <v>Chumbadores</v>
       </c>
       <c r="V117" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W117" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fichum.117</v>
       </c>
       <c r="X117" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y117" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="118" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14419,16 +14422,16 @@
         <v>76</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F118" s="49" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G118" s="32" t="s">
         <v>9</v>
@@ -14465,7 +14468,7 @@
         <v>558</v>
       </c>
       <c r="Q118" s="29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R118" s="61" t="s">
         <v>9</v>
@@ -14483,17 +14486,17 @@
         <v>Parafusos</v>
       </c>
       <c r="V118" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W118" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipara.118</v>
       </c>
       <c r="X118" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y118" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="119" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14504,13 +14507,13 @@
         <v>76</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F119" s="49" t="s">
         <v>545</v>
@@ -14550,7 +14553,7 @@
         <v>555</v>
       </c>
       <c r="Q119" s="29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="R119" s="61" t="s">
         <v>9</v>
@@ -14568,17 +14571,17 @@
         <v>Parafusos</v>
       </c>
       <c r="V119" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W119" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipara.119</v>
       </c>
       <c r="X119" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y119" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="120" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14589,13 +14592,13 @@
         <v>76</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F120" s="18" t="s">
         <v>541</v>
@@ -14635,7 +14638,7 @@
         <v>542</v>
       </c>
       <c r="Q120" s="29" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R120" s="61" t="s">
         <v>9</v>
@@ -14653,17 +14656,17 @@
         <v>Parafusos</v>
       </c>
       <c r="V120" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W120" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipara.120</v>
       </c>
       <c r="X120" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y120" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="121" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14674,13 +14677,13 @@
         <v>76</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F121" s="48" t="s">
         <v>540</v>
@@ -14720,7 +14723,7 @@
         <v>543</v>
       </c>
       <c r="Q121" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R121" s="61" t="s">
         <v>9</v>
@@ -14738,17 +14741,17 @@
         <v>Parafusos</v>
       </c>
       <c r="V121" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W121" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipara.121</v>
       </c>
       <c r="X121" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y121" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="122" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14759,13 +14762,13 @@
         <v>76</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F122" s="18" t="s">
         <v>556</v>
@@ -14805,7 +14808,7 @@
         <v>544</v>
       </c>
       <c r="Q122" s="29" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="R122" s="61" t="s">
         <v>9</v>
@@ -14823,17 +14826,17 @@
         <v>Parafusos</v>
       </c>
       <c r="V122" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W122" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipara.122</v>
       </c>
       <c r="X122" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y122" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="123" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14844,16 +14847,16 @@
         <v>76</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G123" s="32" t="s">
         <v>9</v>
@@ -14887,10 +14890,10 @@
         <v>Pino de Cisalhamento</v>
       </c>
       <c r="P123" s="25" t="s">
+        <v>1047</v>
+      </c>
+      <c r="Q123" s="29" t="s">
         <v>1048</v>
-      </c>
-      <c r="Q123" s="29" t="s">
-        <v>1049</v>
       </c>
       <c r="R123" s="61" t="s">
         <v>9</v>
@@ -14908,17 +14911,17 @@
         <v>Pinos</v>
       </c>
       <c r="V123" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W123" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipino.123</v>
       </c>
       <c r="X123" s="55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Y123" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="124" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14929,16 +14932,16 @@
         <v>76</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E124" s="18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F124" s="18" t="s">
         <v>1004</v>
-      </c>
-      <c r="F124" s="18" t="s">
-        <v>1005</v>
       </c>
       <c r="G124" s="32" t="s">
         <v>9</v>
@@ -14972,10 +14975,10 @@
         <v>Pórtico Galpão</v>
       </c>
       <c r="P124" s="25" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="Q124" s="29" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="R124" s="61" t="s">
         <v>9</v>
@@ -14993,17 +14996,17 @@
         <v>Pórticos de Galpões</v>
       </c>
       <c r="V124" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W124" s="30" t="str">
         <f t="shared" ref="W124:W126" si="172">CONCATENATE("k.",LOWER(LEFT(D124,2)),LOWER(LEFT(E124,4)),".",A124)</f>
         <v>k.gapórt.124</v>
       </c>
       <c r="X124" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y124" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="125" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -15014,16 +15017,16 @@
         <v>76</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G125" s="32" t="s">
         <v>9</v>
@@ -15057,10 +15060,10 @@
         <v>Pórtico Galpão e Anexo</v>
       </c>
       <c r="P125" s="25" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="Q125" s="29" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="R125" s="61" t="s">
         <v>9</v>
@@ -15078,17 +15081,17 @@
         <v>Pórticos de Galpões</v>
       </c>
       <c r="V125" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W125" s="30" t="str">
         <f t="shared" si="172"/>
         <v>k.gapórt.125</v>
       </c>
       <c r="X125" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y125" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="126" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -15099,16 +15102,16 @@
         <v>76</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G126" s="32" t="s">
         <v>9</v>
@@ -15142,10 +15145,10 @@
         <v>Pórtico Galpão Vãos Múltiplos</v>
       </c>
       <c r="P126" s="25" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="Q126" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="R126" s="61" t="s">
         <v>9</v>
@@ -15163,17 +15166,17 @@
         <v>Pórticos de Galpões</v>
       </c>
       <c r="V126" s="61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W126" s="30" t="str">
         <f t="shared" si="172"/>
         <v>k.gapórt.126</v>
       </c>
       <c r="X126" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y126" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -15433,7 +15436,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y2" sqref="Y2:Y3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -15462,9 +15465,9 @@
     <col min="22" max="22" width="7.15234375" style="47" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.15234375" style="40" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="56.15234375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.15234375" style="47" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.3046875" style="47" customWidth="1"/>
+    <col min="25" max="25" width="57.15234375" customWidth="1"/>
+    <col min="26" max="26" width="8.4609375" style="47" customWidth="1"/>
+    <col min="27" max="27" width="34.4609375" style="47" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="7.15234375" style="47" customWidth="1"/>
     <col min="29" max="29" width="14.84375" style="47" customWidth="1"/>
     <col min="30" max="30" width="5.15234375" style="47" customWidth="1"/>
@@ -15571,16 +15574,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>1065</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>615</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>1066</v>
-      </c>
       <c r="E2" s="38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>9</v>
@@ -15640,7 +15643,7 @@
         <v>16</v>
       </c>
       <c r="Y2" s="52" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="Z2" s="39" t="s">
         <v>9</v>
@@ -15663,19 +15666,19 @@
     </row>
     <row r="3" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F3" s="45" t="s">
         <v>9</v>
@@ -15735,7 +15738,7 @@
         <v>16</v>
       </c>
       <c r="Y3" s="52" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="Z3" s="39" t="s">
         <v>9</v>
@@ -15758,19 +15761,19 @@
     </row>
     <row r="4" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>9</v>
+        <v>1065</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>9</v>
+        <v>1064</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>9</v>
@@ -15788,13 +15791,13 @@
         <v>576</v>
       </c>
       <c r="K4" s="42">
-        <v>250</v>
+        <v>345</v>
       </c>
       <c r="L4" s="39" t="s">
         <v>581</v>
       </c>
       <c r="M4" s="42">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N4" s="39" t="s">
         <v>9</v>
@@ -15830,13 +15833,13 @@
         <v>16</v>
       </c>
       <c r="Y4" s="52" t="s">
-        <v>574</v>
+        <v>1066</v>
       </c>
       <c r="Z4" s="39" t="s">
-        <v>9</v>
+        <v>1068</v>
       </c>
       <c r="AA4" s="19" t="s">
-        <v>9</v>
+        <v>1067</v>
       </c>
       <c r="AB4" s="39" t="s">
         <v>9</v>
@@ -15853,13 +15856,13 @@
     </row>
     <row r="5" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>9</v>
@@ -15883,13 +15886,13 @@
         <v>576</v>
       </c>
       <c r="K5" s="42">
-        <v>345</v>
+        <v>250</v>
       </c>
       <c r="L5" s="39" t="s">
         <v>581</v>
       </c>
       <c r="M5" s="42">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N5" s="39" t="s">
         <v>9</v>
@@ -15925,7 +15928,7 @@
         <v>16</v>
       </c>
       <c r="Y5" s="52" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Z5" s="39" t="s">
         <v>9</v>
@@ -15948,13 +15951,13 @@
     </row>
     <row r="6" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>9</v>
@@ -15978,13 +15981,13 @@
         <v>576</v>
       </c>
       <c r="K6" s="42">
-        <v>415</v>
+        <v>345</v>
       </c>
       <c r="L6" s="39" t="s">
         <v>581</v>
       </c>
       <c r="M6" s="42">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>9</v>
@@ -16043,13 +16046,13 @@
     </row>
     <row r="7" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>9</v>
@@ -16073,13 +16076,13 @@
         <v>576</v>
       </c>
       <c r="K7" s="42">
-        <v>345</v>
+        <v>415</v>
       </c>
       <c r="L7" s="39" t="s">
         <v>581</v>
       </c>
       <c r="M7" s="42">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="N7" s="39" t="s">
         <v>9</v>
@@ -16115,7 +16118,7 @@
         <v>16</v>
       </c>
       <c r="Y7" s="52" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="Z7" s="39" t="s">
         <v>9</v>
@@ -16141,10 +16144,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>9</v>
@@ -16210,7 +16213,7 @@
         <v>16</v>
       </c>
       <c r="Y8" s="52" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Z8" s="39" t="s">
         <v>9</v>
@@ -16236,10 +16239,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>9</v>
@@ -16305,7 +16308,7 @@
         <v>16</v>
       </c>
       <c r="Y9" s="52" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="Z9" s="39" t="s">
         <v>9</v>
@@ -16331,10 +16334,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>9</v>
@@ -16400,7 +16403,7 @@
         <v>16</v>
       </c>
       <c r="Y10" s="52" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Z10" s="39" t="s">
         <v>9</v>
@@ -16429,7 +16432,7 @@
         <v>391</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>577</v>
@@ -16524,7 +16527,7 @@
         <v>392</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>577</v>
@@ -16619,7 +16622,7 @@
         <v>393</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>577</v>
@@ -16714,7 +16717,7 @@
         <v>394</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>577</v>
@@ -16809,7 +16812,7 @@
         <v>395</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>577</v>
@@ -16904,7 +16907,7 @@
         <v>396</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>577</v>
@@ -16999,7 +17002,7 @@
         <v>397</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>577</v>
@@ -17094,7 +17097,7 @@
         <v>398</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>577</v>
@@ -17189,7 +17192,7 @@
         <v>399</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>577</v>
@@ -17284,7 +17287,7 @@
         <v>400</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>577</v>
@@ -17379,7 +17382,7 @@
         <v>401</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D21" s="37" t="s">
         <v>577</v>
@@ -17474,7 +17477,7 @@
         <v>402</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>577</v>
@@ -17569,7 +17572,7 @@
         <v>403</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>577</v>
@@ -17664,7 +17667,7 @@
         <v>404</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D24" s="37" t="s">
         <v>577</v>
@@ -17759,7 +17762,7 @@
         <v>405</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>577</v>
@@ -17854,7 +17857,7 @@
         <v>406</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>577</v>
@@ -17949,7 +17952,7 @@
         <v>407</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D27" s="37" t="s">
         <v>577</v>
@@ -18044,7 +18047,7 @@
         <v>408</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>577</v>
@@ -18139,7 +18142,7 @@
         <v>409</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>577</v>
@@ -18234,7 +18237,7 @@
         <v>410</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>577</v>
@@ -18329,7 +18332,7 @@
         <v>411</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>577</v>
@@ -18424,7 +18427,7 @@
         <v>412</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D32" s="37" t="s">
         <v>577</v>
@@ -18519,7 +18522,7 @@
         <v>413</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>577</v>
@@ -18614,7 +18617,7 @@
         <v>414</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>577</v>
@@ -18709,7 +18712,7 @@
         <v>415</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>577</v>
@@ -18804,7 +18807,7 @@
         <v>416</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>577</v>
@@ -18899,7 +18902,7 @@
         <v>417</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>577</v>
@@ -18994,7 +18997,7 @@
         <v>418</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>577</v>
@@ -19089,7 +19092,7 @@
         <v>419</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>577</v>
@@ -19184,7 +19187,7 @@
         <v>420</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>577</v>
@@ -19279,7 +19282,7 @@
         <v>421</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>577</v>
@@ -19374,7 +19377,7 @@
         <v>422</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D42" s="37" t="s">
         <v>577</v>
@@ -19469,7 +19472,7 @@
         <v>423</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>577</v>
@@ -19564,7 +19567,7 @@
         <v>424</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D44" s="37" t="s">
         <v>577</v>
@@ -19659,7 +19662,7 @@
         <v>425</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>577</v>
@@ -19754,7 +19757,7 @@
         <v>426</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D46" s="37" t="s">
         <v>577</v>
@@ -19849,7 +19852,7 @@
         <v>427</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>577</v>
@@ -19944,7 +19947,7 @@
         <v>428</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>577</v>
@@ -20039,7 +20042,7 @@
         <v>429</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>577</v>
@@ -20134,7 +20137,7 @@
         <v>430</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>577</v>
@@ -20229,7 +20232,7 @@
         <v>431</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>577</v>
@@ -20324,7 +20327,7 @@
         <v>432</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>577</v>
@@ -20419,7 +20422,7 @@
         <v>433</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D53" s="37" t="s">
         <v>577</v>
@@ -20514,7 +20517,7 @@
         <v>434</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D54" s="37" t="s">
         <v>577</v>
@@ -20609,7 +20612,7 @@
         <v>435</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D55" s="37" t="s">
         <v>577</v>
@@ -20704,7 +20707,7 @@
         <v>436</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D56" s="37" t="s">
         <v>577</v>
@@ -20799,7 +20802,7 @@
         <v>437</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D57" s="37" t="s">
         <v>577</v>
@@ -20894,7 +20897,7 @@
         <v>438</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D58" s="37" t="s">
         <v>577</v>
@@ -20989,7 +20992,7 @@
         <v>439</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D59" s="37" t="s">
         <v>577</v>
@@ -21084,7 +21087,7 @@
         <v>440</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D60" s="37" t="s">
         <v>577</v>
@@ -21179,7 +21182,7 @@
         <v>441</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D61" s="37" t="s">
         <v>577</v>
@@ -21274,7 +21277,7 @@
         <v>442</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D62" s="37" t="s">
         <v>577</v>
@@ -21369,7 +21372,7 @@
         <v>443</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D63" s="37" t="s">
         <v>577</v>
@@ -21464,7 +21467,7 @@
         <v>444</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D64" s="37" t="s">
         <v>577</v>
@@ -21559,7 +21562,7 @@
         <v>445</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D65" s="37" t="s">
         <v>577</v>
@@ -21654,7 +21657,7 @@
         <v>446</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D66" s="37" t="s">
         <v>577</v>
@@ -21749,7 +21752,7 @@
         <v>447</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D67" s="37" t="s">
         <v>577</v>
@@ -21844,7 +21847,7 @@
         <v>448</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D68" s="37" t="s">
         <v>577</v>
@@ -21939,7 +21942,7 @@
         <v>449</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D69" s="37" t="s">
         <v>577</v>
@@ -22034,7 +22037,7 @@
         <v>450</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D70" s="37" t="s">
         <v>577</v>
@@ -22129,7 +22132,7 @@
         <v>451</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D71" s="37" t="s">
         <v>577</v>
@@ -22224,7 +22227,7 @@
         <v>452</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D72" s="37" t="s">
         <v>577</v>
@@ -22319,7 +22322,7 @@
         <v>453</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D73" s="37" t="s">
         <v>577</v>
@@ -22414,7 +22417,7 @@
         <v>454</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D74" s="37" t="s">
         <v>577</v>
@@ -22509,7 +22512,7 @@
         <v>455</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D75" s="37" t="s">
         <v>577</v>
@@ -22604,7 +22607,7 @@
         <v>456</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D76" s="37" t="s">
         <v>577</v>
@@ -22699,7 +22702,7 @@
         <v>457</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D77" s="37" t="s">
         <v>577</v>
@@ -22794,7 +22797,7 @@
         <v>458</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D78" s="37" t="s">
         <v>577</v>
@@ -22889,7 +22892,7 @@
         <v>459</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D79" s="37" t="s">
         <v>577</v>
@@ -22984,7 +22987,7 @@
         <v>460</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D80" s="37" t="s">
         <v>577</v>
@@ -23079,7 +23082,7 @@
         <v>461</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D81" s="37" t="s">
         <v>577</v>
@@ -23174,7 +23177,7 @@
         <v>462</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D82" s="37" t="s">
         <v>577</v>
@@ -23269,7 +23272,7 @@
         <v>463</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D83" s="37" t="s">
         <v>577</v>
@@ -23364,7 +23367,7 @@
         <v>464</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D84" s="37" t="s">
         <v>577</v>
@@ -23459,7 +23462,7 @@
         <v>465</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D85" s="37" t="s">
         <v>577</v>
@@ -23554,7 +23557,7 @@
         <v>466</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D86" s="37" t="s">
         <v>577</v>
@@ -23649,7 +23652,7 @@
         <v>467</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D87" s="37" t="s">
         <v>577</v>
@@ -23744,7 +23747,7 @@
         <v>517</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D88" s="37" t="s">
         <v>577</v>
@@ -23839,7 +23842,7 @@
         <v>518</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D89" s="37" t="s">
         <v>577</v>
@@ -23934,7 +23937,7 @@
         <v>519</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D90" s="37" t="s">
         <v>577</v>
@@ -24029,7 +24032,7 @@
         <v>468</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D91" s="37" t="s">
         <v>577</v>
@@ -24124,7 +24127,7 @@
         <v>469</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D92" s="37" t="s">
         <v>577</v>
@@ -24219,7 +24222,7 @@
         <v>470</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D93" s="37" t="s">
         <v>577</v>
@@ -24314,7 +24317,7 @@
         <v>471</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D94" s="37" t="s">
         <v>577</v>
@@ -24409,7 +24412,7 @@
         <v>472</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D95" s="37" t="s">
         <v>577</v>
@@ -24504,7 +24507,7 @@
         <v>473</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D96" s="37" t="s">
         <v>577</v>
@@ -24599,7 +24602,7 @@
         <v>474</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D97" s="37" t="s">
         <v>577</v>
@@ -24694,7 +24697,7 @@
         <v>475</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D98" s="37" t="s">
         <v>577</v>
@@ -24789,7 +24792,7 @@
         <v>476</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D99" s="37" t="s">
         <v>577</v>
@@ -24884,7 +24887,7 @@
         <v>477</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D100" s="37" t="s">
         <v>577</v>
@@ -24979,7 +24982,7 @@
         <v>478</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D101" s="37" t="s">
         <v>577</v>
@@ -25074,7 +25077,7 @@
         <v>479</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D102" s="37" t="s">
         <v>577</v>
@@ -25169,7 +25172,7 @@
         <v>480</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D103" s="37" t="s">
         <v>577</v>
@@ -25264,7 +25267,7 @@
         <v>481</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D104" s="37" t="s">
         <v>577</v>
@@ -25359,7 +25362,7 @@
         <v>482</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D105" s="37" t="s">
         <v>577</v>
@@ -25454,7 +25457,7 @@
         <v>483</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D106" s="37" t="s">
         <v>577</v>
@@ -25549,7 +25552,7 @@
         <v>484</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D107" s="37" t="s">
         <v>577</v>
@@ -25644,7 +25647,7 @@
         <v>485</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D108" s="37" t="s">
         <v>577</v>
@@ -25739,7 +25742,7 @@
         <v>486</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D109" s="37" t="s">
         <v>577</v>
@@ -25834,7 +25837,7 @@
         <v>487</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D110" s="37" t="s">
         <v>577</v>
@@ -25929,7 +25932,7 @@
         <v>488</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D111" s="37" t="s">
         <v>577</v>
@@ -26024,7 +26027,7 @@
         <v>489</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D112" s="37" t="s">
         <v>577</v>
@@ -26119,7 +26122,7 @@
         <v>490</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D113" s="37" t="s">
         <v>577</v>
@@ -26214,7 +26217,7 @@
         <v>491</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D114" s="37" t="s">
         <v>577</v>
@@ -26309,7 +26312,7 @@
         <v>492</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D115" s="37" t="s">
         <v>577</v>
@@ -26404,7 +26407,7 @@
         <v>493</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D116" s="37" t="s">
         <v>577</v>
@@ -26499,7 +26502,7 @@
         <v>494</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D117" s="37" t="s">
         <v>577</v>
@@ -26594,7 +26597,7 @@
         <v>495</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D118" s="37" t="s">
         <v>577</v>
@@ -26689,7 +26692,7 @@
         <v>496</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D119" s="37" t="s">
         <v>577</v>
@@ -26784,7 +26787,7 @@
         <v>497</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D120" s="37" t="s">
         <v>577</v>
@@ -26879,7 +26882,7 @@
         <v>498</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D121" s="37" t="s">
         <v>577</v>
@@ -26974,7 +26977,7 @@
         <v>499</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D122" s="37" t="s">
         <v>577</v>
@@ -27069,7 +27072,7 @@
         <v>500</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D123" s="37" t="s">
         <v>577</v>
@@ -27164,7 +27167,7 @@
         <v>501</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D124" s="37" t="s">
         <v>577</v>
@@ -27259,7 +27262,7 @@
         <v>502</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D125" s="37" t="s">
         <v>577</v>
@@ -27354,7 +27357,7 @@
         <v>503</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D126" s="37" t="s">
         <v>577</v>
@@ -27449,7 +27452,7 @@
         <v>504</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D127" s="37" t="s">
         <v>577</v>
@@ -27544,7 +27547,7 @@
         <v>505</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D128" s="37" t="s">
         <v>577</v>
@@ -27639,7 +27642,7 @@
         <v>506</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D129" s="37" t="s">
         <v>577</v>
@@ -27734,7 +27737,7 @@
         <v>507</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D130" s="37" t="s">
         <v>577</v>
@@ -27829,7 +27832,7 @@
         <v>508</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D131" s="37" t="s">
         <v>577</v>
@@ -27924,7 +27927,7 @@
         <v>509</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D132" s="37" t="s">
         <v>577</v>
@@ -28019,7 +28022,7 @@
         <v>510</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D133" s="37" t="s">
         <v>577</v>
@@ -28114,7 +28117,7 @@
         <v>511</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D134" s="37" t="s">
         <v>577</v>
@@ -28209,7 +28212,7 @@
         <v>512</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D135" s="37" t="s">
         <v>577</v>
@@ -28304,7 +28307,7 @@
         <v>513</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D136" s="37" t="s">
         <v>577</v>
@@ -28399,7 +28402,7 @@
         <v>514</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D137" s="37" t="s">
         <v>577</v>
@@ -28494,7 +28497,7 @@
         <v>515</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D138" s="37" t="s">
         <v>577</v>
@@ -28589,7 +28592,7 @@
         <v>516</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D139" s="37" t="s">
         <v>577</v>
@@ -29064,7 +29067,7 @@
         <v>578</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D144" s="37" t="s">
         <v>577</v>
@@ -29130,7 +29133,7 @@
         <v>16</v>
       </c>
       <c r="Y144" s="52" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z144" s="39" t="s">
         <v>9</v>
@@ -29159,7 +29162,7 @@
         <v>579</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D145" s="37" t="s">
         <v>577</v>
@@ -29225,7 +29228,7 @@
         <v>16</v>
       </c>
       <c r="Y145" s="52" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Z145" s="39" t="s">
         <v>9</v>
@@ -29320,7 +29323,7 @@
         <v>16</v>
       </c>
       <c r="Y146" s="52" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Z146" s="39" t="s">
         <v>9</v>
@@ -29415,7 +29418,7 @@
         <v>16</v>
       </c>
       <c r="Y147" s="52" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Z147" s="39" t="s">
         <v>9</v>
@@ -29510,7 +29513,7 @@
         <v>16</v>
       </c>
       <c r="Y148" s="52" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Z148" s="39" t="s">
         <v>9</v>
@@ -30293,12 +30296,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="150"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B156">
-    <cfRule type="duplicateValues" dxfId="2" priority="467"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="468"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="469"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="470"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/META/Ontologia_METAL.xlsx
+++ b/Versão5/META/Ontologia_METAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\META\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69F4385-823F-4FD6-B534-C7C6E3E1C7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10108301-F165-43BF-8912-D2D27B9157D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -1814,9 +1814,6 @@
     <t>A242</t>
   </si>
   <si>
-    <t>resistência.à.tração</t>
-  </si>
-  <si>
     <t>A588-A</t>
   </si>
   <si>
@@ -3278,6 +3275,9 @@
   </si>
   <si>
     <t>usado.em</t>
+  </si>
+  <si>
+    <t>limite.de.resistência</t>
   </si>
 </sst>
 </file>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45940.362699074074</v>
+        <v>45940.365579861114</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -4490,7 +4490,7 @@
         <v>62</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>63</v>
@@ -4544,10 +4544,10 @@
         <v>58</v>
       </c>
       <c r="X1" s="27" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y1" s="27" t="s">
         <v>609</v>
-      </c>
-      <c r="Y1" s="27" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4558,16 +4558,16 @@
         <v>76</v>
       </c>
       <c r="C2" s="57" t="s">
+        <v>610</v>
+      </c>
+      <c r="D2" s="56" t="s">
         <v>611</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="E2" s="56" t="s">
         <v>612</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="F2" s="18" t="s">
         <v>613</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>614</v>
       </c>
       <c r="G2" s="32" t="str">
         <f>_xlfn.CONCAT("é.nomeado some ",B2)</f>
@@ -4603,10 +4603,10 @@
         <v>Aço Estrutural</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R2" s="61" t="s">
         <v>9</v>
@@ -4624,17 +4624,17 @@
         <v>Ligas Metálicas</v>
       </c>
       <c r="V2" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W2" s="30" t="str">
         <f t="shared" ref="W2:W72" si="2">CONCATENATE("k.",LOWER(LEFT(D2,2)),LOWER(LEFT(E2,4)),".",A2)</f>
         <v>k.daliga.2</v>
       </c>
       <c r="X2" s="55" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y2" s="55" t="s">
         <v>616</v>
-      </c>
-      <c r="Y2" s="55" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4645,16 +4645,16 @@
         <v>76</v>
       </c>
       <c r="C3" s="57" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" s="56" t="s">
         <v>611</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="E3" s="56" t="s">
         <v>612</v>
       </c>
-      <c r="E3" s="56" t="s">
-        <v>613</v>
-      </c>
       <c r="F3" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G3" s="32" t="str">
         <f>_xlfn.CONCAT("é.nomeado some ",B3)</f>
@@ -4690,10 +4690,10 @@
         <v>Alumínio Estrutural</v>
       </c>
       <c r="P3" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q3" s="29" t="s">
         <v>602</v>
-      </c>
-      <c r="Q3" s="29" t="s">
-        <v>603</v>
       </c>
       <c r="R3" s="61" t="s">
         <v>9</v>
@@ -4711,17 +4711,17 @@
         <v>Ligas Metálicas</v>
       </c>
       <c r="V3" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W3" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.daliga.3</v>
       </c>
       <c r="X3" s="55" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y3" s="55" t="s">
         <v>616</v>
-      </c>
-      <c r="Y3" s="55" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4735,13 +4735,13 @@
         <v>91</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>1020</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>1021</v>
       </c>
       <c r="G4" s="32" t="s">
         <v>9</v>
@@ -4775,10 +4775,10 @@
         <v>Vergalhão</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="R4" s="61" t="s">
         <v>9</v>
@@ -4796,17 +4796,17 @@
         <v>Vergalhões</v>
       </c>
       <c r="V4" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W4" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arverg.4</v>
       </c>
       <c r="X4" s="55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y4" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4820,13 +4820,13 @@
         <v>91</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>9</v>
@@ -4860,10 +4860,10 @@
         <v>Vergalhão Liso</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="R5" s="61" t="s">
         <v>9</v>
@@ -4881,17 +4881,17 @@
         <v>Vergalhões</v>
       </c>
       <c r="V5" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W5" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arverg.5</v>
       </c>
       <c r="X5" s="55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y5" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4905,13 +4905,13 @@
         <v>91</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G6" s="32" t="s">
         <v>9</v>
@@ -4945,10 +4945,10 @@
         <v>Vergalhão Nervurado</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="R6" s="61" t="s">
         <v>9</v>
@@ -4966,17 +4966,17 @@
         <v>Vergalhões</v>
       </c>
       <c r="V6" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W6" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arverg.6</v>
       </c>
       <c r="X6" s="55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y6" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4990,13 +4990,13 @@
         <v>91</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>1024</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>1025</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>9</v>
@@ -5030,10 +5030,10 @@
         <v>Vergalhão GG70</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="R7" s="61" t="s">
         <v>9</v>
@@ -5051,17 +5051,17 @@
         <v>Vergalhões</v>
       </c>
       <c r="V7" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W7" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arverg.7</v>
       </c>
       <c r="X7" s="55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y7" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5075,13 +5075,13 @@
         <v>91</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G8" s="32" t="s">
         <v>9</v>
@@ -5115,10 +5115,10 @@
         <v>Estribo Retangular</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="R8" s="61" t="s">
         <v>9</v>
@@ -5136,17 +5136,17 @@
         <v>Estribos</v>
       </c>
       <c r="V8" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W8" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arestr.8</v>
       </c>
       <c r="X8" s="55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y8" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5160,13 +5160,13 @@
         <v>91</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>9</v>
@@ -5200,10 +5200,10 @@
         <v>Estribo Circular</v>
       </c>
       <c r="P9" s="25" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="R9" s="61" t="s">
         <v>9</v>
@@ -5221,17 +5221,17 @@
         <v>Estribos</v>
       </c>
       <c r="V9" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arestr.9</v>
       </c>
       <c r="X9" s="55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y9" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5245,13 +5245,13 @@
         <v>91</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>9</v>
@@ -5285,10 +5285,10 @@
         <v>Estribo Diagonal</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="R10" s="61" t="s">
         <v>9</v>
@@ -5306,17 +5306,17 @@
         <v>Estribos</v>
       </c>
       <c r="V10" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W10" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arestr.10</v>
       </c>
       <c r="X10" s="55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y10" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5330,13 +5330,13 @@
         <v>91</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>9</v>
@@ -5370,10 +5370,10 @@
         <v>Estribo Helicoidal</v>
       </c>
       <c r="P11" s="25" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="R11" s="61" t="s">
         <v>9</v>
@@ -5391,17 +5391,17 @@
         <v>Estribos</v>
       </c>
       <c r="V11" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W11" s="30" t="str">
         <f t="shared" ref="W11:W14" si="21">CONCATENATE("k.",LOWER(LEFT(D11,2)),LOWER(LEFT(E11,4)),".",A11)</f>
         <v>k.arestr.11</v>
       </c>
       <c r="X11" s="55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y11" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5415,13 +5415,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G12" s="32" t="s">
         <v>9</v>
@@ -5455,10 +5455,10 @@
         <v>Tela Soldada</v>
       </c>
       <c r="P12" s="25" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q12" s="29" t="s">
         <v>1060</v>
-      </c>
-      <c r="Q12" s="29" t="s">
-        <v>1061</v>
       </c>
       <c r="R12" s="61" t="s">
         <v>9</v>
@@ -5476,17 +5476,17 @@
         <v>Prontas</v>
       </c>
       <c r="V12" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W12" s="30" t="str">
         <f t="shared" ref="W12" si="29">CONCATENATE("k.",LOWER(LEFT(D12,2)),LOWER(LEFT(E12,4)),".",A12)</f>
         <v>k.arpron.12</v>
       </c>
       <c r="X12" s="55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y12" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5500,13 +5500,13 @@
         <v>91</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E13" s="18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>1049</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>1050</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>9</v>
@@ -5540,10 +5540,10 @@
         <v>Armadura APS</v>
       </c>
       <c r="P13" s="25" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="Q13" s="29" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="R13" s="61" t="s">
         <v>9</v>
@@ -5561,17 +5561,17 @@
         <v>Prontas</v>
       </c>
       <c r="V13" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W13" s="30" t="str">
         <f t="shared" si="21"/>
         <v>k.arpron.13</v>
       </c>
       <c r="X13" s="55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y13" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5585,13 +5585,13 @@
         <v>91</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G14" s="32" t="s">
         <v>9</v>
@@ -5625,10 +5625,10 @@
         <v>Fôrma Incorporada</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="Q14" s="29" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="R14" s="61" t="s">
         <v>9</v>
@@ -5646,17 +5646,17 @@
         <v>Prontas</v>
       </c>
       <c r="V14" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W14" s="30" t="str">
         <f t="shared" si="21"/>
         <v>k.arpron.14</v>
       </c>
       <c r="X14" s="55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y14" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5670,13 +5670,13 @@
         <v>91</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G15" s="32" t="s">
         <v>9</v>
@@ -5710,10 +5710,10 @@
         <v>Fôrma Incorporada APS</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Q15" s="29" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="R15" s="61" t="s">
         <v>9</v>
@@ -5731,17 +5731,17 @@
         <v>Prontas</v>
       </c>
       <c r="V15" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W15" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arpron.15</v>
       </c>
       <c r="X15" s="55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y15" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5758,10 +5758,10 @@
         <v>520</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>9</v>
@@ -5773,7 +5773,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K16" s="32" t="s">
         <v>9</v>
@@ -5795,10 +5795,10 @@
         <v>Coluna Viga Soldada</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R16" s="61" t="s">
         <v>9</v>
@@ -5816,17 +5816,17 @@
         <v>Soldados</v>
       </c>
       <c r="V16" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W16" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.susold.16</v>
       </c>
       <c r="X16" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y16" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5843,10 +5843,10 @@
         <v>520</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G17" s="32" t="s">
         <v>9</v>
@@ -5880,10 +5880,10 @@
         <v>Coluna Soldada</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q17" s="29" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="R17" s="61" t="s">
         <v>9</v>
@@ -5901,17 +5901,17 @@
         <v>Soldados</v>
       </c>
       <c r="V17" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W17" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.susold.17</v>
       </c>
       <c r="X17" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y17" s="55" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5928,10 +5928,10 @@
         <v>520</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G18" s="32" t="s">
         <v>9</v>
@@ -5965,10 +5965,10 @@
         <v>Viga Soldada</v>
       </c>
       <c r="P18" s="25" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q18" s="29" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R18" s="61" t="s">
         <v>9</v>
@@ -5986,17 +5986,17 @@
         <v>Soldados</v>
       </c>
       <c r="V18" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W18" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.susold.18</v>
       </c>
       <c r="X18" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y18" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6013,10 +6013,10 @@
         <v>520</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>9</v>
@@ -6028,7 +6028,7 @@
         <v>9</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K19" s="32" t="s">
         <v>9</v>
@@ -6050,10 +6050,10 @@
         <v>Perfil Laminado I</v>
       </c>
       <c r="P19" s="25" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="Q19" s="29" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R19" s="61" t="s">
         <v>9</v>
@@ -6071,17 +6071,17 @@
         <v>Laminados</v>
       </c>
       <c r="V19" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W19" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.sulami.19</v>
       </c>
       <c r="X19" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y19" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6098,10 +6098,10 @@
         <v>520</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G20" s="32" t="s">
         <v>9</v>
@@ -6135,10 +6135,10 @@
         <v>Perfil Laminado HP</v>
       </c>
       <c r="P20" s="25" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="Q20" s="29" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R20" s="61" t="s">
         <v>9</v>
@@ -6156,17 +6156,17 @@
         <v>Laminados</v>
       </c>
       <c r="V20" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W20" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.sulami.20</v>
       </c>
       <c r="X20" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y20" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6183,10 +6183,10 @@
         <v>520</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>9</v>
@@ -6220,10 +6220,10 @@
         <v>Perfil Laminado W</v>
       </c>
       <c r="P21" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Q21" s="29" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R21" s="61" t="s">
         <v>9</v>
@@ -6241,17 +6241,17 @@
         <v>Laminados</v>
       </c>
       <c r="V21" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W21" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.sulami.21</v>
       </c>
       <c r="X21" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y21" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6265,13 +6265,13 @@
         <v>91</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G22" s="32" t="s">
         <v>9</v>
@@ -6280,7 +6280,7 @@
         <v>9</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J22" s="32" t="s">
         <v>9</v>
@@ -6305,10 +6305,10 @@
         <v>Cantoneira</v>
       </c>
       <c r="P22" s="25" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="Q22" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="R22" s="61" t="s">
         <v>9</v>
@@ -6326,17 +6326,17 @@
         <v>Perfis L</v>
       </c>
       <c r="V22" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W22" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.22</v>
       </c>
       <c r="X22" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y22" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6350,13 +6350,13 @@
         <v>91</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E23" s="18" t="s">
+        <v>893</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>894</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>895</v>
       </c>
       <c r="G23" s="32" t="s">
         <v>9</v>
@@ -6390,10 +6390,10 @@
         <v>Cantoneira Abas Desiguais</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="R23" s="61" t="s">
         <v>9</v>
@@ -6411,17 +6411,17 @@
         <v>Perfis L</v>
       </c>
       <c r="V23" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W23" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.23</v>
       </c>
       <c r="X23" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y23" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6435,13 +6435,13 @@
         <v>91</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G24" s="32" t="s">
         <v>9</v>
@@ -6475,10 +6475,10 @@
         <v>Perfil Sigma</v>
       </c>
       <c r="P24" s="25" t="s">
+        <v>897</v>
+      </c>
+      <c r="Q24" s="29" t="s">
         <v>898</v>
-      </c>
-      <c r="Q24" s="29" t="s">
-        <v>899</v>
       </c>
       <c r="R24" s="61" t="s">
         <v>9</v>
@@ -6496,17 +6496,17 @@
         <v>Perfis S</v>
       </c>
       <c r="V24" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W24" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.24</v>
       </c>
       <c r="X24" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y24" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6520,10 +6520,10 @@
         <v>91</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>85</v>
@@ -6560,10 +6560,10 @@
         <v>Perfil T</v>
       </c>
       <c r="P25" s="25" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="R25" s="61" t="s">
         <v>9</v>
@@ -6581,17 +6581,17 @@
         <v>Perfis T</v>
       </c>
       <c r="V25" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W25" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.25</v>
       </c>
       <c r="X25" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y25" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6605,10 +6605,10 @@
         <v>91</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>84</v>
@@ -6645,10 +6645,10 @@
         <v>Perfil U</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="R26" s="61" t="s">
         <v>9</v>
@@ -6666,17 +6666,17 @@
         <v>Perfis U</v>
       </c>
       <c r="V26" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W26" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.26</v>
       </c>
       <c r="X26" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y26" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6690,13 +6690,13 @@
         <v>91</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>9</v>
@@ -6730,10 +6730,10 @@
         <v>Perfil UE</v>
       </c>
       <c r="P27" s="25" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="R27" s="61" t="s">
         <v>9</v>
@@ -6751,17 +6751,17 @@
         <v>Perfis U</v>
       </c>
       <c r="V27" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W27" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.27</v>
       </c>
       <c r="X27" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y27" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6775,13 +6775,13 @@
         <v>91</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E28" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>882</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>883</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>9</v>
@@ -6815,10 +6815,10 @@
         <v>Perfil Z</v>
       </c>
       <c r="P28" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q28" s="29" t="s">
         <v>884</v>
-      </c>
-      <c r="Q28" s="29" t="s">
-        <v>885</v>
       </c>
       <c r="R28" s="61" t="s">
         <v>9</v>
@@ -6836,17 +6836,17 @@
         <v>Perfis Z</v>
       </c>
       <c r="V28" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W28" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.28</v>
       </c>
       <c r="X28" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y28" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6860,13 +6860,13 @@
         <v>91</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>9</v>
@@ -6900,10 +6900,10 @@
         <v>Seção Circular</v>
       </c>
       <c r="P29" s="25" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q29" s="25" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="R29" s="61" t="s">
         <v>9</v>
@@ -6921,17 +6921,17 @@
         <v>Perfis Tubulares</v>
       </c>
       <c r="V29" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W29" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.29</v>
       </c>
       <c r="X29" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y29" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6945,13 +6945,13 @@
         <v>91</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>9</v>
@@ -6985,10 +6985,10 @@
         <v>Seção Quadrada</v>
       </c>
       <c r="P30" s="25" t="s">
+        <v>912</v>
+      </c>
+      <c r="Q30" s="25" t="s">
         <v>913</v>
-      </c>
-      <c r="Q30" s="25" t="s">
-        <v>914</v>
       </c>
       <c r="R30" s="61" t="s">
         <v>9</v>
@@ -7006,17 +7006,17 @@
         <v>Perfis Tubulares</v>
       </c>
       <c r="V30" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W30" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.30</v>
       </c>
       <c r="X30" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y30" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7030,13 +7030,13 @@
         <v>91</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>9</v>
@@ -7070,10 +7070,10 @@
         <v>Seção Retangular</v>
       </c>
       <c r="P31" s="25" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="Q31" s="25" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="R31" s="61" t="s">
         <v>9</v>
@@ -7091,17 +7091,17 @@
         <v>Perfis Tubulares</v>
       </c>
       <c r="V31" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W31" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.31</v>
       </c>
       <c r="X31" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y31" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7115,13 +7115,13 @@
         <v>91</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E32" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="F32" s="18" t="s">
         <v>683</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>684</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>9</v>
@@ -7158,7 +7158,7 @@
         <v>557</v>
       </c>
       <c r="Q32" s="29" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="R32" s="61" t="s">
         <v>9</v>
@@ -7176,17 +7176,17 @@
         <v>Placas</v>
       </c>
       <c r="V32" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W32" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.32</v>
       </c>
       <c r="X32" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y32" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7200,13 +7200,13 @@
         <v>91</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>9</v>
@@ -7243,7 +7243,7 @@
         <v>559</v>
       </c>
       <c r="Q33" s="29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R33" s="61" t="s">
         <v>9</v>
@@ -7261,17 +7261,17 @@
         <v>Placas</v>
       </c>
       <c r="V33" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W33" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.33</v>
       </c>
       <c r="X33" s="55" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Y33" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7285,13 +7285,13 @@
         <v>91</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G34" s="32" t="s">
         <v>9</v>
@@ -7328,7 +7328,7 @@
         <v>559</v>
       </c>
       <c r="Q34" s="29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R34" s="61" t="s">
         <v>9</v>
@@ -7346,17 +7346,17 @@
         <v>Placas</v>
       </c>
       <c r="V34" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W34" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.34</v>
       </c>
       <c r="X34" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y34" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7370,13 +7370,13 @@
         <v>91</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>9</v>
@@ -7410,10 +7410,10 @@
         <v>Placa de Emenda</v>
       </c>
       <c r="P35" s="25" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Q35" s="29" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="R35" s="61" t="s">
         <v>9</v>
@@ -7431,17 +7431,17 @@
         <v>Placas</v>
       </c>
       <c r="V35" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W35" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.35</v>
       </c>
       <c r="X35" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y35" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7455,13 +7455,13 @@
         <v>91</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>9</v>
@@ -7498,7 +7498,7 @@
         <v>573</v>
       </c>
       <c r="Q36" s="29" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R36" s="61" t="s">
         <v>9</v>
@@ -7516,17 +7516,17 @@
         <v>Placas</v>
       </c>
       <c r="V36" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W36" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.36</v>
       </c>
       <c r="X36" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y36" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7540,13 +7540,13 @@
         <v>91</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G37" s="32" t="s">
         <v>9</v>
@@ -7561,7 +7561,7 @@
         <v>9</v>
       </c>
       <c r="K37" s="32" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L37" s="25" t="str">
         <f t="shared" si="51"/>
@@ -7580,10 +7580,10 @@
         <v>Placa de Mísula</v>
       </c>
       <c r="P37" s="25" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="Q37" s="29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="R37" s="61" t="s">
         <v>9</v>
@@ -7601,17 +7601,17 @@
         <v>Placas</v>
       </c>
       <c r="V37" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W37" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.37</v>
       </c>
       <c r="X37" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y37" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7625,14 +7625,14 @@
         <v>91</v>
       </c>
       <c r="D38" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="F38" s="18" t="s">
         <v>794</v>
       </c>
-      <c r="E38" s="18" t="s">
-        <v>683</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>795</v>
-      </c>
       <c r="G38" s="32" t="s">
         <v>9</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>9</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L38" s="25" t="str">
         <f t="shared" si="51"/>
@@ -7665,10 +7665,10 @@
         <v>Placa de Cumeeira</v>
       </c>
       <c r="P38" s="25" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="Q38" s="29" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R38" s="61" t="s">
         <v>9</v>
@@ -7686,17 +7686,17 @@
         <v>Placas</v>
       </c>
       <c r="V38" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W38" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.38</v>
       </c>
       <c r="X38" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y38" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7710,13 +7710,13 @@
         <v>91</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>9</v>
@@ -7731,7 +7731,7 @@
         <v>9</v>
       </c>
       <c r="K39" s="32" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="L39" s="25" t="str">
         <f t="shared" si="51"/>
@@ -7750,10 +7750,10 @@
         <v>Placa Gusset</v>
       </c>
       <c r="P39" s="25" t="s">
+        <v>954</v>
+      </c>
+      <c r="Q39" s="29" t="s">
         <v>955</v>
-      </c>
-      <c r="Q39" s="29" t="s">
-        <v>956</v>
       </c>
       <c r="R39" s="61" t="s">
         <v>9</v>
@@ -7771,17 +7771,17 @@
         <v>Placas</v>
       </c>
       <c r="V39" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W39" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.39</v>
       </c>
       <c r="X39" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y39" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7795,13 +7795,13 @@
         <v>91</v>
       </c>
       <c r="D40" s="18" t="s">
+        <v>947</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>948</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="F40" s="18" t="s">
         <v>949</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>950</v>
       </c>
       <c r="G40" s="32" t="s">
         <v>9</v>
@@ -7835,10 +7835,10 @@
         <v>SteelDeck Trapezoidal</v>
       </c>
       <c r="P40" s="25" t="s">
+        <v>950</v>
+      </c>
+      <c r="Q40" s="29" t="s">
         <v>951</v>
-      </c>
-      <c r="Q40" s="29" t="s">
-        <v>952</v>
       </c>
       <c r="R40" s="61" t="s">
         <v>9</v>
@@ -7856,17 +7856,17 @@
         <v>SteelDecks</v>
       </c>
       <c r="V40" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W40" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.chstee.40</v>
       </c>
       <c r="X40" s="55" t="s">
+        <v>952</v>
+      </c>
+      <c r="Y40" s="55" t="s">
         <v>953</v>
-      </c>
-      <c r="Y40" s="55" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7880,13 +7880,13 @@
         <v>91</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>9</v>
@@ -7920,10 +7920,10 @@
         <v>Barra Redonda</v>
       </c>
       <c r="P41" s="25" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="Q41" s="25" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="R41" s="61" t="s">
         <v>9</v>
@@ -7941,17 +7941,17 @@
         <v>Barras Laminadas</v>
       </c>
       <c r="V41" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W41" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.41</v>
       </c>
       <c r="X41" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y41" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7965,13 +7965,13 @@
         <v>91</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E42" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="F42" s="18" t="s">
         <v>712</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>713</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>9</v>
@@ -8005,10 +8005,10 @@
         <v>Barra Quadrada</v>
       </c>
       <c r="P42" s="25" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q42" s="25" t="s">
         <v>789</v>
-      </c>
-      <c r="Q42" s="25" t="s">
-        <v>790</v>
       </c>
       <c r="R42" s="61" t="s">
         <v>9</v>
@@ -8026,17 +8026,17 @@
         <v>Barras Laminadas</v>
       </c>
       <c r="V42" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W42" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.42</v>
       </c>
       <c r="X42" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y42" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8050,13 +8050,13 @@
         <v>91</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G43" s="32" t="s">
         <v>9</v>
@@ -8090,10 +8090,10 @@
         <v>Barra Hexagonal</v>
       </c>
       <c r="P43" s="25" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="Q43" s="25" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R43" s="61" t="s">
         <v>9</v>
@@ -8111,17 +8111,17 @@
         <v>Barras Laminadas</v>
       </c>
       <c r="V43" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W43" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.43</v>
       </c>
       <c r="X43" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y43" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8135,13 +8135,13 @@
         <v>91</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G44" s="32" t="s">
         <v>9</v>
@@ -8175,10 +8175,10 @@
         <v>Barra Chata</v>
       </c>
       <c r="P44" s="25" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Q44" s="29" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="R44" s="61" t="s">
         <v>9</v>
@@ -8196,17 +8196,17 @@
         <v>Barras Laminadas</v>
       </c>
       <c r="V44" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W44" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.44</v>
       </c>
       <c r="X44" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y44" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8220,13 +8220,13 @@
         <v>91</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>9</v>
@@ -8260,10 +8260,10 @@
         <v>Barra Trefilada Redonda</v>
       </c>
       <c r="P45" s="25" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="Q45" s="29" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="R45" s="61" t="s">
         <v>9</v>
@@ -8281,17 +8281,17 @@
         <v>Barras Trefiladas</v>
       </c>
       <c r="V45" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W45" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.45</v>
       </c>
       <c r="X45" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y45" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8305,13 +8305,13 @@
         <v>91</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E46" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="F46" s="18" t="s">
         <v>714</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>715</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>9</v>
@@ -8345,10 +8345,10 @@
         <v>Barra Trefilada Quadrada</v>
       </c>
       <c r="P46" s="25" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Q46" s="29" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="R46" s="61" t="s">
         <v>9</v>
@@ -8366,17 +8366,17 @@
         <v>Barras Trefiladas</v>
       </c>
       <c r="V46" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W46" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.46</v>
       </c>
       <c r="X46" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y46" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8390,13 +8390,13 @@
         <v>91</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>9</v>
@@ -8430,10 +8430,10 @@
         <v>Barra Trefilada Hexagonal</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="Q47" s="29" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R47" s="61" t="s">
         <v>9</v>
@@ -8451,17 +8451,17 @@
         <v>Barras Trefiladas</v>
       </c>
       <c r="V47" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W47" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.47</v>
       </c>
       <c r="X47" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y47" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8475,13 +8475,13 @@
         <v>91</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>9</v>
@@ -8496,7 +8496,7 @@
         <v>9</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L48" s="25" t="str">
         <f t="shared" ref="L48" si="67">_xlfn.CONCAT(SUBSTITUTE(C48,"1.",""))</f>
@@ -8515,10 +8515,10 @@
         <v>Barra Contraventamento</v>
       </c>
       <c r="P48" s="25" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q48" s="25" t="s">
         <v>807</v>
-      </c>
-      <c r="Q48" s="25" t="s">
-        <v>808</v>
       </c>
       <c r="R48" s="61" t="s">
         <v>9</v>
@@ -8536,17 +8536,17 @@
         <v>Barras Contraventamentos</v>
       </c>
       <c r="V48" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W48" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.48</v>
       </c>
       <c r="X48" s="55" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="Y48" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8560,13 +8560,13 @@
         <v>91</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>9</v>
@@ -8581,7 +8581,7 @@
         <v>9</v>
       </c>
       <c r="K49" s="32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L49" s="25" t="str">
         <f t="shared" ref="L49:L53" si="71">_xlfn.CONCAT(SUBSTITUTE(C49,"1.",""))</f>
@@ -8600,10 +8600,10 @@
         <v>Barra Comprimida</v>
       </c>
       <c r="P49" s="25" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="Q49" s="25" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="R49" s="61" t="s">
         <v>9</v>
@@ -8621,17 +8621,17 @@
         <v>Barras Contraventamentos</v>
       </c>
       <c r="V49" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W49" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.49</v>
       </c>
       <c r="X49" s="55" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="Y49" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8645,13 +8645,13 @@
         <v>91</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>9</v>
@@ -8666,7 +8666,7 @@
         <v>9</v>
       </c>
       <c r="K50" s="32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L50" s="25" t="str">
         <f t="shared" si="71"/>
@@ -8685,10 +8685,10 @@
         <v>Barra Tracionada</v>
       </c>
       <c r="P50" s="25" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q50" s="25" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="R50" s="61" t="s">
         <v>9</v>
@@ -8706,17 +8706,17 @@
         <v>Barras Contraventamentos</v>
       </c>
       <c r="V50" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W50" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.50</v>
       </c>
       <c r="X50" s="55" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="Y50" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8730,13 +8730,13 @@
         <v>91</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G51" s="32" t="s">
         <v>9</v>
@@ -8748,10 +8748,10 @@
         <v>9</v>
       </c>
       <c r="J51" s="32" t="s">
+        <v>844</v>
+      </c>
+      <c r="K51" s="32" t="s">
         <v>845</v>
-      </c>
-      <c r="K51" s="32" t="s">
-        <v>846</v>
       </c>
       <c r="L51" s="25" t="str">
         <f t="shared" si="71"/>
@@ -8770,10 +8770,10 @@
         <v>Barra Montante</v>
       </c>
       <c r="P51" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q51" s="25" t="s">
         <v>822</v>
-      </c>
-      <c r="Q51" s="25" t="s">
-        <v>823</v>
       </c>
       <c r="R51" s="61" t="s">
         <v>9</v>
@@ -8791,17 +8791,17 @@
         <v>Barras Montantes</v>
       </c>
       <c r="V51" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W51" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.51</v>
       </c>
       <c r="X51" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y51" s="55" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8815,14 +8815,14 @@
         <v>91</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E52" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="F52" s="18" t="s">
         <v>813</v>
       </c>
-      <c r="F52" s="18" t="s">
-        <v>814</v>
-      </c>
       <c r="G52" s="32" t="s">
         <v>9</v>
       </c>
@@ -8833,10 +8833,10 @@
         <v>9</v>
       </c>
       <c r="J52" s="32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K52" s="32" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L52" s="25" t="str">
         <f t="shared" si="71"/>
@@ -8855,10 +8855,10 @@
         <v>Barra Diagonal</v>
       </c>
       <c r="P52" s="25" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Q52" s="25" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="R52" s="61" t="s">
         <v>9</v>
@@ -8876,17 +8876,17 @@
         <v>Barras Diagonais</v>
       </c>
       <c r="V52" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W52" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.52</v>
       </c>
       <c r="X52" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y52" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8900,14 +8900,14 @@
         <v>91</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E53" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="F53" s="18" t="s">
         <v>816</v>
       </c>
-      <c r="F53" s="18" t="s">
-        <v>817</v>
-      </c>
       <c r="G53" s="32" t="s">
         <v>9</v>
       </c>
@@ -8918,10 +8918,10 @@
         <v>9</v>
       </c>
       <c r="J53" s="32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L53" s="25" t="str">
         <f t="shared" si="71"/>
@@ -8940,10 +8940,10 @@
         <v>Banzo Superior</v>
       </c>
       <c r="P53" s="25" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="Q53" s="25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="R53" s="61" t="s">
         <v>9</v>
@@ -8961,17 +8961,17 @@
         <v>Banzos</v>
       </c>
       <c r="V53" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W53" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babanz.53</v>
       </c>
       <c r="X53" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y53" s="55" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8985,13 +8985,13 @@
         <v>91</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G54" s="32" t="s">
         <v>9</v>
@@ -9006,7 +9006,7 @@
         <v>9</v>
       </c>
       <c r="K54" s="32" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="L54" s="25" t="str">
         <f t="shared" ref="L54" si="75">_xlfn.CONCAT(SUBSTITUTE(C54,"1.",""))</f>
@@ -9025,10 +9025,10 @@
         <v>Banzo Inferior</v>
       </c>
       <c r="P54" s="25" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Q54" s="25" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="R54" s="61" t="s">
         <v>9</v>
@@ -9046,17 +9046,17 @@
         <v>Banzos</v>
       </c>
       <c r="V54" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W54" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babanz.54</v>
       </c>
       <c r="X54" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y54" s="55" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9070,13 +9070,13 @@
         <v>91</v>
       </c>
       <c r="D55" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>840</v>
       </c>
-      <c r="E55" s="18" t="s">
-        <v>841</v>
-      </c>
       <c r="F55" s="18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>9</v>
@@ -9110,10 +9110,10 @@
         <v>ContraVentamento Horizontal Diagonal</v>
       </c>
       <c r="P55" s="25" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Q55" s="25" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="R55" s="61" t="s">
         <v>9</v>
@@ -9131,17 +9131,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V55" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W55" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.55</v>
       </c>
       <c r="X55" s="55" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="Y55" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9155,13 +9155,13 @@
         <v>91</v>
       </c>
       <c r="D56" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>840</v>
       </c>
-      <c r="E56" s="18" t="s">
-        <v>841</v>
-      </c>
       <c r="F56" s="18" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>9</v>
@@ -9195,10 +9195,10 @@
         <v>ContraVentamento Horizontal X</v>
       </c>
       <c r="P56" s="25" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q56" s="25" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="R56" s="61" t="s">
         <v>9</v>
@@ -9216,17 +9216,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V56" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W56" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.56</v>
       </c>
       <c r="X56" s="55" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="Y56" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9240,13 +9240,13 @@
         <v>91</v>
       </c>
       <c r="D57" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="E57" s="18" t="s">
         <v>840</v>
       </c>
-      <c r="E57" s="18" t="s">
-        <v>841</v>
-      </c>
       <c r="F57" s="18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>9</v>
@@ -9280,10 +9280,10 @@
         <v>ContraVentamento Horizontal K</v>
       </c>
       <c r="P57" s="25" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q57" s="25" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="R57" s="61" t="s">
         <v>9</v>
@@ -9301,17 +9301,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V57" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W57" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.57</v>
       </c>
       <c r="X57" s="55" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="Y57" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9325,13 +9325,13 @@
         <v>91</v>
       </c>
       <c r="D58" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>840</v>
       </c>
-      <c r="E58" s="18" t="s">
-        <v>841</v>
-      </c>
       <c r="F58" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>9</v>
@@ -9365,10 +9365,10 @@
         <v>ContraVentamento Horizontal V</v>
       </c>
       <c r="P58" s="25" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Q58" s="25" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="R58" s="61" t="s">
         <v>9</v>
@@ -9386,17 +9386,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V58" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W58" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.58</v>
       </c>
       <c r="X58" s="55" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="Y58" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9410,13 +9410,13 @@
         <v>91</v>
       </c>
       <c r="D59" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="E59" s="18" t="s">
         <v>840</v>
       </c>
-      <c r="E59" s="18" t="s">
-        <v>841</v>
-      </c>
       <c r="F59" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G59" s="32" t="s">
         <v>9</v>
@@ -9450,10 +9450,10 @@
         <v>ContraVentamento Horizontal VI</v>
       </c>
       <c r="P59" s="25" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Q59" s="25" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="R59" s="61" t="s">
         <v>9</v>
@@ -9471,17 +9471,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V59" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W59" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.59</v>
       </c>
       <c r="X59" s="55" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="Y59" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9495,13 +9495,13 @@
         <v>91</v>
       </c>
       <c r="D60" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="E60" s="18" t="s">
         <v>840</v>
       </c>
-      <c r="E60" s="18" t="s">
-        <v>841</v>
-      </c>
       <c r="F60" s="18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G60" s="32" t="s">
         <v>9</v>
@@ -9535,10 +9535,10 @@
         <v>ContraVentamento Horizontal Delta</v>
       </c>
       <c r="P60" s="25" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Q60" s="25" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="R60" s="61" t="s">
         <v>9</v>
@@ -9556,17 +9556,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V60" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W60" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.60</v>
       </c>
       <c r="X60" s="55" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="Y60" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9580,13 +9580,13 @@
         <v>91</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G61" s="32" t="s">
         <v>9</v>
@@ -9620,10 +9620,10 @@
         <v>ContraVentamento Vertical</v>
       </c>
       <c r="P61" s="25" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Q61" s="25" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="R61" s="61" t="s">
         <v>9</v>
@@ -9641,17 +9641,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V61" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W61" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.61</v>
       </c>
       <c r="X61" s="55" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Y61" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9665,13 +9665,13 @@
         <v>91</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G62" s="32" t="s">
         <v>9</v>
@@ -9705,10 +9705,10 @@
         <v>ContraVentamento Vertical X</v>
       </c>
       <c r="P62" s="25" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Q62" s="25" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="R62" s="61" t="s">
         <v>9</v>
@@ -9726,17 +9726,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V62" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W62" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.62</v>
       </c>
       <c r="X62" s="55" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Y62" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="63" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9750,13 +9750,13 @@
         <v>91</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G63" s="32" t="s">
         <v>9</v>
@@ -9790,10 +9790,10 @@
         <v>ContraVentamento Vertical K</v>
       </c>
       <c r="P63" s="25" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Q63" s="25" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="R63" s="61" t="s">
         <v>9</v>
@@ -9811,17 +9811,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V63" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W63" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.63</v>
       </c>
       <c r="X63" s="55" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Y63" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9835,13 +9835,13 @@
         <v>91</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G64" s="32" t="s">
         <v>9</v>
@@ -9875,10 +9875,10 @@
         <v>ContraVentamento Vertical V</v>
       </c>
       <c r="P64" s="25" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Q64" s="25" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="R64" s="61" t="s">
         <v>9</v>
@@ -9896,17 +9896,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V64" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W64" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.64</v>
       </c>
       <c r="X64" s="55" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Y64" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="65" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9920,13 +9920,13 @@
         <v>91</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E65" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="F65" s="18" t="s">
         <v>842</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>843</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>9</v>
@@ -9960,10 +9960,10 @@
         <v>ContraVentamento Vertical VI</v>
       </c>
       <c r="P65" s="25" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="Q65" s="25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="R65" s="61" t="s">
         <v>9</v>
@@ -9981,17 +9981,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V65" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W65" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.65</v>
       </c>
       <c r="X65" s="55" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Y65" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="66" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10005,13 +10005,13 @@
         <v>91</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>9</v>
@@ -10045,10 +10045,10 @@
         <v>ContraVentamento Vertical Delta</v>
       </c>
       <c r="P66" s="25" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Q66" s="25" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="R66" s="61" t="s">
         <v>9</v>
@@ -10066,17 +10066,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V66" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W66" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.66</v>
       </c>
       <c r="X66" s="55" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Y66" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="67" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10090,13 +10090,13 @@
         <v>91</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E67" s="18" t="s">
+        <v>849</v>
+      </c>
+      <c r="F67" s="18" t="s">
         <v>850</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>851</v>
       </c>
       <c r="G67" s="32" t="s">
         <v>9</v>
@@ -10130,10 +10130,10 @@
         <v>ContraVentamento Cabo</v>
       </c>
       <c r="P67" s="25" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="Q67" s="25" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="R67" s="61" t="s">
         <v>9</v>
@@ -10151,17 +10151,17 @@
         <v>ContraVentamentos Cabos</v>
       </c>
       <c r="V67" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W67" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.67</v>
       </c>
       <c r="X67" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y67" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="68" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10175,13 +10175,13 @@
         <v>91</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G68" s="32" t="s">
         <v>9</v>
@@ -10215,10 +10215,10 @@
         <v>Treliça Pratt</v>
       </c>
       <c r="P68" s="25" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="Q68" s="29" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="R68" s="61" t="s">
         <v>9</v>
@@ -10236,17 +10236,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V68" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W68" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.trtrel.68</v>
       </c>
       <c r="X68" s="55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Y68" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10260,13 +10260,13 @@
         <v>91</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G69" s="32" t="s">
         <v>9</v>
@@ -10300,10 +10300,10 @@
         <v>Treliça Howe</v>
       </c>
       <c r="P69" s="25" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Q69" s="29" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="R69" s="61" t="s">
         <v>9</v>
@@ -10321,17 +10321,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V69" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W69" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.trtrel.69</v>
       </c>
       <c r="X69" s="55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Y69" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="70" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10345,13 +10345,13 @@
         <v>91</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G70" s="32" t="s">
         <v>9</v>
@@ -10385,10 +10385,10 @@
         <v>Treliça Warren</v>
       </c>
       <c r="P70" s="25" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q70" s="29" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="R70" s="61" t="s">
         <v>9</v>
@@ -10406,17 +10406,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V70" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W70" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.trtrel.70</v>
       </c>
       <c r="X70" s="55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Y70" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="71" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10430,13 +10430,13 @@
         <v>91</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G71" s="32" t="s">
         <v>9</v>
@@ -10470,10 +10470,10 @@
         <v>Treliça Fink</v>
       </c>
       <c r="P71" s="25" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="Q71" s="29" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="R71" s="61" t="s">
         <v>9</v>
@@ -10491,17 +10491,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V71" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W71" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.trtrel.71</v>
       </c>
       <c r="X71" s="55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Y71" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="72" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10515,13 +10515,13 @@
         <v>91</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G72" s="32" t="s">
         <v>9</v>
@@ -10555,10 +10555,10 @@
         <v>Treliça Vierendeel</v>
       </c>
       <c r="P72" s="25" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q72" s="29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="R72" s="61" t="s">
         <v>9</v>
@@ -10576,17 +10576,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V72" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W72" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.trtrel.72</v>
       </c>
       <c r="X72" s="55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Y72" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="73" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10600,13 +10600,13 @@
         <v>91</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G73" s="32" t="s">
         <v>9</v>
@@ -10640,10 +10640,10 @@
         <v>Tesoura</v>
       </c>
       <c r="P73" s="25" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Q73" s="29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="R73" s="61" t="s">
         <v>9</v>
@@ -10661,17 +10661,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V73" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W73" s="30" t="str">
         <f t="shared" ref="W73:W123" si="111">CONCATENATE("k.",LOWER(LEFT(D73,2)),LOWER(LEFT(E73,4)),".",A73)</f>
         <v>k.trtrel.73</v>
       </c>
       <c r="X73" s="55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Y73" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="74" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10685,13 +10685,13 @@
         <v>91</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G74" s="32" t="s">
         <v>9</v>
@@ -10725,10 +10725,10 @@
         <v>Treliça Ponte</v>
       </c>
       <c r="P74" s="25" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Q74" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R74" s="61" t="s">
         <v>9</v>
@@ -10746,17 +10746,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V74" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W74" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.74</v>
       </c>
       <c r="X74" s="55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Y74" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="75" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10770,13 +10770,13 @@
         <v>91</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G75" s="32" t="s">
         <v>9</v>
@@ -10810,10 +10810,10 @@
         <v>Treliça Espacial Reticulada</v>
       </c>
       <c r="P75" s="25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Q75" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="R75" s="61" t="s">
         <v>9</v>
@@ -10831,17 +10831,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V75" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W75" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.75</v>
       </c>
       <c r="X75" s="55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Y75" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="76" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10855,13 +10855,13 @@
         <v>91</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G76" s="32" t="s">
         <v>9</v>
@@ -10895,10 +10895,10 @@
         <v>Treliça Espacial Geodésica</v>
       </c>
       <c r="P76" s="25" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q76" s="29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="R76" s="61" t="s">
         <v>9</v>
@@ -10916,17 +10916,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V76" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W76" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.76</v>
       </c>
       <c r="X76" s="55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Y76" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="77" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10940,13 +10940,13 @@
         <v>91</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E77" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="F77" s="18" t="s">
         <v>739</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>740</v>
       </c>
       <c r="G77" s="32" t="s">
         <v>9</v>
@@ -10980,10 +10980,10 @@
         <v>Treliça Espacial Arqueada</v>
       </c>
       <c r="P77" s="25" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Q77" s="29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="R77" s="61" t="s">
         <v>9</v>
@@ -11001,17 +11001,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V77" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W77" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.77</v>
       </c>
       <c r="X77" s="55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Y77" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="78" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11025,13 +11025,13 @@
         <v>91</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G78" s="32" t="s">
         <v>9</v>
@@ -11065,10 +11065,10 @@
         <v>Treliça Espacial Piramidal</v>
       </c>
       <c r="P78" s="25" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="Q78" s="29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="R78" s="61" t="s">
         <v>9</v>
@@ -11086,17 +11086,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V78" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W78" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.78</v>
       </c>
       <c r="X78" s="55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Y78" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="79" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11110,13 +11110,13 @@
         <v>91</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G79" s="32" t="s">
         <v>9</v>
@@ -11150,10 +11150,10 @@
         <v>Treliça Espacial Octaédrica</v>
       </c>
       <c r="P79" s="25" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Q79" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="R79" s="61" t="s">
         <v>9</v>
@@ -11171,17 +11171,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V79" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W79" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.79</v>
       </c>
       <c r="X79" s="55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Y79" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="80" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11195,13 +11195,13 @@
         <v>91</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G80" s="32" t="s">
         <v>9</v>
@@ -11235,10 +11235,10 @@
         <v>Treliça Espacial Híbrida</v>
       </c>
       <c r="P80" s="25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Q80" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R80" s="61" t="s">
         <v>9</v>
@@ -11256,17 +11256,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V80" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W80" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.80</v>
       </c>
       <c r="X80" s="55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Y80" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="81" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11280,13 +11280,13 @@
         <v>91</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G81" s="32" t="s">
         <v>9</v>
@@ -11320,10 +11320,10 @@
         <v>Ancora Estrutural</v>
       </c>
       <c r="P81" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Q81" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="R81" s="61" t="s">
         <v>9</v>
@@ -11341,17 +11341,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V81" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W81" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.81</v>
       </c>
       <c r="X81" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y81" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11365,13 +11365,13 @@
         <v>91</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G82" s="32" t="s">
         <v>9</v>
@@ -11405,10 +11405,10 @@
         <v>Conector Estrutural</v>
       </c>
       <c r="P82" s="25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q82" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R82" s="61" t="s">
         <v>9</v>
@@ -11426,17 +11426,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V82" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W82" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.82</v>
       </c>
       <c r="X82" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y82" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="83" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11450,13 +11450,13 @@
         <v>91</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F83" s="60" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G83" s="32" t="s">
         <v>9</v>
@@ -11490,10 +11490,10 @@
         <v>Ancoragem de Estai</v>
       </c>
       <c r="P83" s="25" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="Q83" s="29" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="R83" s="61" t="s">
         <v>9</v>
@@ -11511,17 +11511,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V83" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W83" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.83</v>
       </c>
       <c r="X83" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y83" s="59" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="84" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11535,13 +11535,13 @@
         <v>91</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F84" s="60" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G84" s="32" t="s">
         <v>9</v>
@@ -11575,10 +11575,10 @@
         <v>Ancoragem Acoplador</v>
       </c>
       <c r="P84" s="25" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="Q84" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="R84" s="61" t="s">
         <v>9</v>
@@ -11596,17 +11596,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V84" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W84" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.84</v>
       </c>
       <c r="X84" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y84" s="59" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11620,13 +11620,13 @@
         <v>91</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F85" s="60" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G85" s="32" t="s">
         <v>9</v>
@@ -11660,10 +11660,10 @@
         <v>Ancoragem Extremo Fixo</v>
       </c>
       <c r="P85" s="25" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="Q85" s="29" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="R85" s="61" t="s">
         <v>9</v>
@@ -11681,17 +11681,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V85" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W85" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.85</v>
       </c>
       <c r="X85" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y85" s="59" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11705,13 +11705,13 @@
         <v>91</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F86" s="60" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G86" s="32" t="s">
         <v>9</v>
@@ -11745,10 +11745,10 @@
         <v>Ancoragem Extremo Tensionado</v>
       </c>
       <c r="P86" s="25" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="Q86" s="29" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="R86" s="61" t="s">
         <v>9</v>
@@ -11766,17 +11766,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V86" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W86" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.86</v>
       </c>
       <c r="X86" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y86" s="59" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="87" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11790,13 +11790,13 @@
         <v>91</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F87" s="60" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G87" s="32" t="s">
         <v>9</v>
@@ -11830,10 +11830,10 @@
         <v>Estai</v>
       </c>
       <c r="P87" s="25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Q87" s="29" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="R87" s="61" t="s">
         <v>9</v>
@@ -11851,17 +11851,17 @@
         <v>Tensores</v>
       </c>
       <c r="V87" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W87" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.87</v>
       </c>
       <c r="X87" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y87" s="59" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="88" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11875,13 +11875,13 @@
         <v>91</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F88" s="60" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G88" s="32" t="s">
         <v>9</v>
@@ -11915,10 +11915,10 @@
         <v>Tensor Barra</v>
       </c>
       <c r="P88" s="25" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="Q88" s="29" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="R88" s="61" t="s">
         <v>9</v>
@@ -11936,17 +11936,17 @@
         <v>Tensores</v>
       </c>
       <c r="V88" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W88" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.88</v>
       </c>
       <c r="X88" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y88" s="59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11960,13 +11960,13 @@
         <v>91</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F89" s="60" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G89" s="32" t="s">
         <v>9</v>
@@ -12000,10 +12000,10 @@
         <v>Tensor Revestido</v>
       </c>
       <c r="P89" s="25" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q89" s="29" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="R89" s="61" t="s">
         <v>9</v>
@@ -12021,17 +12021,17 @@
         <v>Tensores</v>
       </c>
       <c r="V89" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W89" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.89</v>
       </c>
       <c r="X89" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y89" s="59" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12045,13 +12045,13 @@
         <v>91</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F90" s="60" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G90" s="32" t="s">
         <v>9</v>
@@ -12085,10 +12085,10 @@
         <v>Tensor Bainha</v>
       </c>
       <c r="P90" s="25" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q90" s="29" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="R90" s="61" t="s">
         <v>9</v>
@@ -12106,17 +12106,17 @@
         <v>Tensores</v>
       </c>
       <c r="V90" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W90" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.90</v>
       </c>
       <c r="X90" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y90" s="59" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12130,13 +12130,13 @@
         <v>91</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F91" s="60" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G91" s="32" t="s">
         <v>9</v>
@@ -12170,10 +12170,10 @@
         <v>Tensor Bainha Acoplador</v>
       </c>
       <c r="P91" s="25" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q91" s="29" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="R91" s="61" t="s">
         <v>9</v>
@@ -12191,17 +12191,17 @@
         <v>Tensores</v>
       </c>
       <c r="V91" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W91" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.91</v>
       </c>
       <c r="X91" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y91" s="59" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12215,13 +12215,13 @@
         <v>91</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F92" s="60" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G92" s="32" t="s">
         <v>9</v>
@@ -12255,10 +12255,10 @@
         <v>Tensor Bainha Diabolo</v>
       </c>
       <c r="P92" s="25" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="Q92" s="29" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="R92" s="61" t="s">
         <v>9</v>
@@ -12276,17 +12276,17 @@
         <v>Tensores</v>
       </c>
       <c r="V92" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W92" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.92</v>
       </c>
       <c r="X92" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y92" s="59" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12300,13 +12300,13 @@
         <v>91</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F93" s="60" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G93" s="32" t="s">
         <v>9</v>
@@ -12340,10 +12340,10 @@
         <v>Tensor Bainha Cabo</v>
       </c>
       <c r="P93" s="25" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="Q93" s="29" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="R93" s="61" t="s">
         <v>9</v>
@@ -12361,17 +12361,17 @@
         <v>Tensores</v>
       </c>
       <c r="V93" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W93" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.93</v>
       </c>
       <c r="X93" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y93" s="59" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="94" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12385,13 +12385,13 @@
         <v>91</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F94" s="60" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G94" s="32" t="s">
         <v>9</v>
@@ -12425,10 +12425,10 @@
         <v>Tensor Injetor</v>
       </c>
       <c r="P94" s="25" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="Q94" s="29" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="R94" s="61" t="s">
         <v>9</v>
@@ -12446,17 +12446,17 @@
         <v>Tensores</v>
       </c>
       <c r="V94" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W94" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.94</v>
       </c>
       <c r="X94" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y94" s="59" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12470,13 +12470,13 @@
         <v>91</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F95" s="60" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G95" s="32" t="s">
         <v>9</v>
@@ -12510,10 +12510,10 @@
         <v>Tensor Trombeta</v>
       </c>
       <c r="P95" s="25" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="Q95" s="29" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="R95" s="61" t="s">
         <v>9</v>
@@ -12531,17 +12531,17 @@
         <v>Tensores</v>
       </c>
       <c r="V95" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W95" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.95</v>
       </c>
       <c r="X95" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y95" s="59" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12555,13 +12555,13 @@
         <v>91</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F96" s="60" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G96" s="32" t="s">
         <v>9</v>
@@ -12595,10 +12595,10 @@
         <v>Tensor Corda</v>
       </c>
       <c r="P96" s="25" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="Q96" s="29" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="R96" s="61" t="s">
         <v>9</v>
@@ -12616,17 +12616,17 @@
         <v>Tensores</v>
       </c>
       <c r="V96" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W96" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.96</v>
       </c>
       <c r="X96" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y96" s="59" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12640,13 +12640,13 @@
         <v>91</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F97" s="60" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G97" s="32" t="s">
         <v>9</v>
@@ -12680,10 +12680,10 @@
         <v>Tensor Fio</v>
       </c>
       <c r="P97" s="25" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="Q97" s="29" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="R97" s="61" t="s">
         <v>9</v>
@@ -12701,17 +12701,17 @@
         <v>Tensores</v>
       </c>
       <c r="V97" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W97" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.97</v>
       </c>
       <c r="X97" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y97" s="59" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12725,13 +12725,13 @@
         <v>91</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G98" s="32" t="s">
         <v>9</v>
@@ -12765,10 +12765,10 @@
         <v>Mastro Estrutural</v>
       </c>
       <c r="P98" s="25" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="Q98" s="29" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="R98" s="61" t="s">
         <v>9</v>
@@ -12786,17 +12786,17 @@
         <v>Tensores</v>
       </c>
       <c r="V98" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W98" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.98</v>
       </c>
       <c r="X98" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y98" s="55" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12810,13 +12810,13 @@
         <v>91</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G99" s="32" t="s">
         <v>9</v>
@@ -12850,10 +12850,10 @@
         <v>Membrana Estrutural</v>
       </c>
       <c r="P99" s="25" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Q99" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="R99" s="61" t="s">
         <v>9</v>
@@ -12871,17 +12871,17 @@
         <v>Tensores</v>
       </c>
       <c r="V99" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W99" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.99</v>
       </c>
       <c r="X99" s="55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Y99" s="55" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12895,13 +12895,13 @@
         <v>92</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G100" s="32" t="s">
         <v>9</v>
@@ -12935,10 +12935,10 @@
         <v>Terça Cobertura</v>
       </c>
       <c r="P100" s="25" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="Q100" s="29" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="R100" s="61" t="s">
         <v>9</v>
@@ -12956,17 +12956,17 @@
         <v>Terças</v>
       </c>
       <c r="V100" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W100" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teterç.100</v>
       </c>
       <c r="X100" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y100" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12980,13 +12980,13 @@
         <v>92</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E101" s="18" t="s">
+        <v>886</v>
+      </c>
+      <c r="F101" s="18" t="s">
         <v>887</v>
-      </c>
-      <c r="F101" s="18" t="s">
-        <v>888</v>
       </c>
       <c r="G101" s="32" t="s">
         <v>9</v>
@@ -13020,10 +13020,10 @@
         <v>Terça Fachada</v>
       </c>
       <c r="P101" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="Q101" s="29" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="R101" s="61" t="s">
         <v>9</v>
@@ -13041,17 +13041,17 @@
         <v>Terças</v>
       </c>
       <c r="V101" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W101" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teterç.101</v>
       </c>
       <c r="X101" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y101" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13065,13 +13065,13 @@
         <v>92</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G102" s="32" t="s">
         <v>9</v>
@@ -13105,10 +13105,10 @@
         <v>Terça Cartola</v>
       </c>
       <c r="P102" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="Q102" s="29" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="R102" s="61" t="s">
         <v>9</v>
@@ -13126,17 +13126,17 @@
         <v>Terças</v>
       </c>
       <c r="V102" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W102" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teterç.102</v>
       </c>
       <c r="X102" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y102" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13150,13 +13150,13 @@
         <v>92</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E103" s="18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F103" s="18" t="s">
         <v>1007</v>
-      </c>
-      <c r="F103" s="18" t="s">
-        <v>1008</v>
       </c>
       <c r="G103" s="32" t="s">
         <v>9</v>
@@ -13190,10 +13190,10 @@
         <v>Tirante Beiral</v>
       </c>
       <c r="P103" s="25" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="Q103" s="29" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="R103" s="61" t="s">
         <v>9</v>
@@ -13211,17 +13211,17 @@
         <v>Tirantes</v>
       </c>
       <c r="V103" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W103" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetira.103</v>
       </c>
       <c r="X103" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Y103" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13235,13 +13235,13 @@
         <v>92</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G104" s="32" t="s">
         <v>9</v>
@@ -13275,10 +13275,10 @@
         <v>Tirante Terça</v>
       </c>
       <c r="P104" s="25" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="Q104" s="29" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="R104" s="61" t="s">
         <v>9</v>
@@ -13296,17 +13296,17 @@
         <v>Tirantes</v>
       </c>
       <c r="V104" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W104" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetira.104</v>
       </c>
       <c r="X104" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Y104" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13320,13 +13320,13 @@
         <v>92</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G105" s="32" t="s">
         <v>9</v>
@@ -13360,10 +13360,10 @@
         <v>Tirante Cumeeira</v>
       </c>
       <c r="P105" s="25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q105" s="29" t="s">
         <v>1013</v>
-      </c>
-      <c r="Q105" s="29" t="s">
-        <v>1014</v>
       </c>
       <c r="R105" s="61" t="s">
         <v>9</v>
@@ -13381,17 +13381,17 @@
         <v>Tirantes</v>
       </c>
       <c r="V105" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W105" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetira.105</v>
       </c>
       <c r="X105" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Y105" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13405,13 +13405,13 @@
         <v>92</v>
       </c>
       <c r="D106" s="18" t="s">
+        <v>922</v>
+      </c>
+      <c r="E106" s="18" t="s">
         <v>923</v>
       </c>
-      <c r="E106" s="18" t="s">
-        <v>924</v>
-      </c>
       <c r="F106" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G106" s="32" t="s">
         <v>9</v>
@@ -13445,10 +13445,10 @@
         <v>Frechal Alinhamento</v>
       </c>
       <c r="P106" s="25" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="Q106" s="29" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="R106" s="61" t="s">
         <v>9</v>
@@ -13466,17 +13466,17 @@
         <v>Frechais</v>
       </c>
       <c r="V106" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W106" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tefrec.106</v>
       </c>
       <c r="X106" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y106" s="59" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13487,16 +13487,16 @@
         <v>76</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D107" s="18" t="s">
+        <v>926</v>
+      </c>
+      <c r="E107" s="18" t="s">
         <v>927</v>
       </c>
-      <c r="E107" s="18" t="s">
-        <v>928</v>
-      </c>
       <c r="F107" s="18" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G107" s="32" t="s">
         <v>9</v>
@@ -13530,10 +13530,10 @@
         <v>Painel Sanduíche Fachada</v>
       </c>
       <c r="P107" s="25" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="Q107" s="29" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="R107" s="61" t="s">
         <v>9</v>
@@ -13551,17 +13551,17 @@
         <v>Paineis Sanduíches</v>
       </c>
       <c r="V107" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W107" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sipain.107</v>
       </c>
       <c r="X107" s="55" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="Y107" s="55" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13572,16 +13572,16 @@
         <v>76</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D108" s="18" t="s">
+        <v>926</v>
+      </c>
+      <c r="E108" s="18" t="s">
         <v>927</v>
       </c>
-      <c r="E108" s="18" t="s">
-        <v>928</v>
-      </c>
       <c r="F108" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G108" s="32" t="s">
         <v>9</v>
@@ -13615,10 +13615,10 @@
         <v>Painel Sanduíche Térmico</v>
       </c>
       <c r="P108" s="25" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="Q108" s="29" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="R108" s="61" t="s">
         <v>9</v>
@@ -13636,17 +13636,17 @@
         <v>Paineis Sanduíches</v>
       </c>
       <c r="V108" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W108" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sipain.108</v>
       </c>
       <c r="X108" s="55" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="Y108" s="55" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13657,16 +13657,16 @@
         <v>76</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G109" s="32" t="s">
         <v>9</v>
@@ -13700,10 +13700,10 @@
         <v>Telha Sanduíche Zipada</v>
       </c>
       <c r="P109" s="25" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="Q109" s="29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="R109" s="61" t="s">
         <v>9</v>
@@ -13721,17 +13721,17 @@
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V109" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W109" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.109</v>
       </c>
       <c r="X109" s="55" t="s">
+        <v>943</v>
+      </c>
+      <c r="Y109" s="59" t="s">
         <v>944</v>
-      </c>
-      <c r="Y109" s="59" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13742,16 +13742,16 @@
         <v>76</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G110" s="32" t="s">
         <v>9</v>
@@ -13785,10 +13785,10 @@
         <v>Telha Sanduíche Ondulada</v>
       </c>
       <c r="P110" s="25" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Q110" s="29" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="R110" s="61" t="s">
         <v>9</v>
@@ -13806,17 +13806,17 @@
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V110" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W110" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.110</v>
       </c>
       <c r="X110" s="55" t="s">
+        <v>943</v>
+      </c>
+      <c r="Y110" s="59" t="s">
         <v>944</v>
-      </c>
-      <c r="Y110" s="59" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13827,16 +13827,16 @@
         <v>76</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G111" s="32" t="s">
         <v>9</v>
@@ -13870,10 +13870,10 @@
         <v>Telha Sanduíche Trapezoidal</v>
       </c>
       <c r="P111" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="Q111" s="29" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="R111" s="61" t="s">
         <v>9</v>
@@ -13891,17 +13891,17 @@
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V111" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W111" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.111</v>
       </c>
       <c r="X111" s="55" t="s">
+        <v>943</v>
+      </c>
+      <c r="Y111" s="59" t="s">
         <v>944</v>
-      </c>
-      <c r="Y111" s="59" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13912,16 +13912,16 @@
         <v>76</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G112" s="32" t="s">
         <v>9</v>
@@ -13955,10 +13955,10 @@
         <v>Telha Sanduíche Solar</v>
       </c>
       <c r="P112" s="25" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="Q112" s="29" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="R112" s="61" t="s">
         <v>9</v>
@@ -13976,17 +13976,17 @@
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V112" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W112" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.112</v>
       </c>
       <c r="X112" s="55" t="s">
+        <v>943</v>
+      </c>
+      <c r="Y112" s="59" t="s">
         <v>944</v>
-      </c>
-      <c r="Y112" s="59" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="113" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13997,16 +13997,16 @@
         <v>76</v>
       </c>
       <c r="C113" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="E113" s="18" t="s">
         <v>900</v>
       </c>
-      <c r="D113" s="18" t="s">
-        <v>903</v>
-      </c>
-      <c r="E113" s="18" t="s">
-        <v>901</v>
-      </c>
       <c r="F113" s="18" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G113" s="32" t="s">
         <v>9</v>
@@ -14040,10 +14040,10 @@
         <v>Telha Trapezoidal</v>
       </c>
       <c r="P113" s="25" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="Q113" s="29" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R113" s="61" t="s">
         <v>9</v>
@@ -14061,17 +14061,17 @@
         <v>Telhas Perfiladas</v>
       </c>
       <c r="V113" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W113" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.113</v>
       </c>
       <c r="X113" s="55" t="s">
+        <v>943</v>
+      </c>
+      <c r="Y113" s="59" t="s">
         <v>944</v>
-      </c>
-      <c r="Y113" s="59" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="114" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14082,16 +14082,16 @@
         <v>76</v>
       </c>
       <c r="C114" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="E114" s="18" t="s">
         <v>900</v>
       </c>
-      <c r="D114" s="18" t="s">
-        <v>903</v>
-      </c>
-      <c r="E114" s="18" t="s">
+      <c r="F114" s="18" t="s">
         <v>901</v>
-      </c>
-      <c r="F114" s="18" t="s">
-        <v>902</v>
       </c>
       <c r="G114" s="32" t="s">
         <v>9</v>
@@ -14125,10 +14125,10 @@
         <v>Telha Ondulada</v>
       </c>
       <c r="P114" s="25" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Q114" s="29" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="R114" s="61" t="s">
         <v>9</v>
@@ -14146,17 +14146,17 @@
         <v>Telhas Perfiladas</v>
       </c>
       <c r="V114" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W114" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.114</v>
       </c>
       <c r="X114" s="55" t="s">
+        <v>943</v>
+      </c>
+      <c r="Y114" s="59" t="s">
         <v>944</v>
-      </c>
-      <c r="Y114" s="59" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="115" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14167,16 +14167,16 @@
         <v>76</v>
       </c>
       <c r="C115" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="E115" s="18" t="s">
         <v>900</v>
       </c>
-      <c r="D115" s="18" t="s">
+      <c r="F115" s="18" t="s">
         <v>903</v>
-      </c>
-      <c r="E115" s="18" t="s">
-        <v>901</v>
-      </c>
-      <c r="F115" s="18" t="s">
-        <v>904</v>
       </c>
       <c r="G115" s="32" t="s">
         <v>9</v>
@@ -14210,10 +14210,10 @@
         <v>Telha Zipada</v>
       </c>
       <c r="P115" s="25" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="Q115" s="29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="R115" s="61" t="s">
         <v>9</v>
@@ -14231,17 +14231,17 @@
         <v>Telhas Perfiladas</v>
       </c>
       <c r="V115" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W115" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.115</v>
       </c>
       <c r="X115" s="55" t="s">
+        <v>943</v>
+      </c>
+      <c r="Y115" s="59" t="s">
         <v>944</v>
-      </c>
-      <c r="Y115" s="59" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="116" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14252,16 +14252,16 @@
         <v>76</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G116" s="32" t="s">
         <v>9</v>
@@ -14295,10 +14295,10 @@
         <v>Chumbador Interno</v>
       </c>
       <c r="P116" s="25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Q116" s="29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R116" s="61" t="s">
         <v>9</v>
@@ -14316,17 +14316,17 @@
         <v>Chumbadores</v>
       </c>
       <c r="V116" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W116" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fichum.116</v>
       </c>
       <c r="X116" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y116" s="55" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="117" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14337,16 +14337,16 @@
         <v>76</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G117" s="32" t="s">
         <v>9</v>
@@ -14380,10 +14380,10 @@
         <v>Chumbador Externo</v>
       </c>
       <c r="P117" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Q117" s="29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R117" s="61" t="s">
         <v>9</v>
@@ -14401,17 +14401,17 @@
         <v>Chumbadores</v>
       </c>
       <c r="V117" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W117" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fichum.117</v>
       </c>
       <c r="X117" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y117" s="55" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="118" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14422,16 +14422,16 @@
         <v>76</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F118" s="49" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G118" s="32" t="s">
         <v>9</v>
@@ -14468,7 +14468,7 @@
         <v>558</v>
       </c>
       <c r="Q118" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="R118" s="61" t="s">
         <v>9</v>
@@ -14486,17 +14486,17 @@
         <v>Parafusos</v>
       </c>
       <c r="V118" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W118" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipara.118</v>
       </c>
       <c r="X118" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y118" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="119" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14507,13 +14507,13 @@
         <v>76</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F119" s="49" t="s">
         <v>545</v>
@@ -14553,7 +14553,7 @@
         <v>555</v>
       </c>
       <c r="Q119" s="29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R119" s="61" t="s">
         <v>9</v>
@@ -14571,17 +14571,17 @@
         <v>Parafusos</v>
       </c>
       <c r="V119" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W119" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipara.119</v>
       </c>
       <c r="X119" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y119" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="120" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14592,13 +14592,13 @@
         <v>76</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F120" s="18" t="s">
         <v>541</v>
@@ -14638,7 +14638,7 @@
         <v>542</v>
       </c>
       <c r="Q120" s="29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="R120" s="61" t="s">
         <v>9</v>
@@ -14656,17 +14656,17 @@
         <v>Parafusos</v>
       </c>
       <c r="V120" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W120" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipara.120</v>
       </c>
       <c r="X120" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y120" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="121" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14677,13 +14677,13 @@
         <v>76</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F121" s="48" t="s">
         <v>540</v>
@@ -14723,7 +14723,7 @@
         <v>543</v>
       </c>
       <c r="Q121" s="29" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R121" s="61" t="s">
         <v>9</v>
@@ -14741,17 +14741,17 @@
         <v>Parafusos</v>
       </c>
       <c r="V121" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W121" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipara.121</v>
       </c>
       <c r="X121" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y121" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="122" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14762,13 +14762,13 @@
         <v>76</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F122" s="18" t="s">
         <v>556</v>
@@ -14808,7 +14808,7 @@
         <v>544</v>
       </c>
       <c r="Q122" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R122" s="61" t="s">
         <v>9</v>
@@ -14826,17 +14826,17 @@
         <v>Parafusos</v>
       </c>
       <c r="V122" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W122" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipara.122</v>
       </c>
       <c r="X122" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y122" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="123" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14847,16 +14847,16 @@
         <v>76</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G123" s="32" t="s">
         <v>9</v>
@@ -14890,10 +14890,10 @@
         <v>Pino de Cisalhamento</v>
       </c>
       <c r="P123" s="25" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Q123" s="29" t="s">
         <v>1047</v>
-      </c>
-      <c r="Q123" s="29" t="s">
-        <v>1048</v>
       </c>
       <c r="R123" s="61" t="s">
         <v>9</v>
@@ -14911,17 +14911,17 @@
         <v>Pinos</v>
       </c>
       <c r="V123" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W123" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipino.123</v>
       </c>
       <c r="X123" s="55" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Y123" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="124" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14932,16 +14932,16 @@
         <v>76</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E124" s="18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F124" s="18" t="s">
         <v>1003</v>
-      </c>
-      <c r="F124" s="18" t="s">
-        <v>1004</v>
       </c>
       <c r="G124" s="32" t="s">
         <v>9</v>
@@ -14975,10 +14975,10 @@
         <v>Pórtico Galpão</v>
       </c>
       <c r="P124" s="25" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Q124" s="29" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="R124" s="61" t="s">
         <v>9</v>
@@ -14996,17 +14996,17 @@
         <v>Pórticos de Galpões</v>
       </c>
       <c r="V124" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W124" s="30" t="str">
         <f t="shared" ref="W124:W126" si="172">CONCATENATE("k.",LOWER(LEFT(D124,2)),LOWER(LEFT(E124,4)),".",A124)</f>
         <v>k.gapórt.124</v>
       </c>
       <c r="X124" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y124" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="125" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -15017,16 +15017,16 @@
         <v>76</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G125" s="32" t="s">
         <v>9</v>
@@ -15060,10 +15060,10 @@
         <v>Pórtico Galpão e Anexo</v>
       </c>
       <c r="P125" s="25" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="Q125" s="29" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="R125" s="61" t="s">
         <v>9</v>
@@ -15081,17 +15081,17 @@
         <v>Pórticos de Galpões</v>
       </c>
       <c r="V125" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W125" s="30" t="str">
         <f t="shared" si="172"/>
         <v>k.gapórt.125</v>
       </c>
       <c r="X125" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y125" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="126" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -15102,16 +15102,16 @@
         <v>76</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G126" s="32" t="s">
         <v>9</v>
@@ -15145,10 +15145,10 @@
         <v>Pórtico Galpão Vãos Múltiplos</v>
       </c>
       <c r="P126" s="25" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="Q126" s="29" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="R126" s="61" t="s">
         <v>9</v>
@@ -15166,17 +15166,17 @@
         <v>Pórticos de Galpões</v>
       </c>
       <c r="V126" s="61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W126" s="30" t="str">
         <f t="shared" si="172"/>
         <v>k.gapórt.126</v>
       </c>
       <c r="X126" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y126" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -15436,7 +15436,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A156"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -15574,16 +15574,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>1064</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>614</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>1065</v>
-      </c>
       <c r="E2" s="38" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>9</v>
@@ -15604,7 +15604,7 @@
         <v>345</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>581</v>
+        <v>1068</v>
       </c>
       <c r="M2" s="42">
         <v>485</v>
@@ -15643,7 +15643,7 @@
         <v>16</v>
       </c>
       <c r="Y2" s="52" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="Z2" s="39" t="s">
         <v>9</v>
@@ -15669,16 +15669,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F3" s="45" t="s">
         <v>9</v>
@@ -15699,7 +15699,7 @@
         <v>345</v>
       </c>
       <c r="L3" s="39" t="s">
-        <v>581</v>
+        <v>1068</v>
       </c>
       <c r="M3" s="42">
         <v>485</v>
@@ -15738,7 +15738,7 @@
         <v>16</v>
       </c>
       <c r="Y3" s="52" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="Z3" s="39" t="s">
         <v>9</v>
@@ -15767,13 +15767,13 @@
         <v>580</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>9</v>
@@ -15794,7 +15794,7 @@
         <v>345</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>581</v>
+        <v>1068</v>
       </c>
       <c r="M4" s="42">
         <v>480</v>
@@ -15833,13 +15833,13 @@
         <v>16</v>
       </c>
       <c r="Y4" s="52" t="s">
+        <v>1065</v>
+      </c>
+      <c r="Z4" s="39" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AA4" s="19" t="s">
         <v>1066</v>
-      </c>
-      <c r="Z4" s="39" t="s">
-        <v>1068</v>
-      </c>
-      <c r="AA4" s="19" t="s">
-        <v>1067</v>
       </c>
       <c r="AB4" s="39" t="s">
         <v>9</v>
@@ -15862,7 +15862,7 @@
         <v>564</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>9</v>
@@ -15889,7 +15889,7 @@
         <v>250</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>581</v>
+        <v>1068</v>
       </c>
       <c r="M5" s="42">
         <v>400</v>
@@ -15957,7 +15957,7 @@
         <v>562</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>9</v>
@@ -15984,7 +15984,7 @@
         <v>345</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>581</v>
+        <v>1068</v>
       </c>
       <c r="M6" s="42">
         <v>450</v>
@@ -16052,7 +16052,7 @@
         <v>563</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>9</v>
@@ -16079,7 +16079,7 @@
         <v>415</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>581</v>
+        <v>1068</v>
       </c>
       <c r="M7" s="42">
         <v>520</v>
@@ -16144,10 +16144,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>9</v>
@@ -16174,7 +16174,7 @@
         <v>350</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>581</v>
+        <v>1068</v>
       </c>
       <c r="M8" s="42">
         <v>500</v>
@@ -16213,7 +16213,7 @@
         <v>16</v>
       </c>
       <c r="Y8" s="52" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Z8" s="39" t="s">
         <v>9</v>
@@ -16239,10 +16239,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>9</v>
@@ -16308,7 +16308,7 @@
         <v>16</v>
       </c>
       <c r="Y9" s="52" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="Z9" s="39" t="s">
         <v>9</v>
@@ -16334,10 +16334,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>9</v>
@@ -16403,7 +16403,7 @@
         <v>16</v>
       </c>
       <c r="Y10" s="52" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="Z10" s="39" t="s">
         <v>9</v>
@@ -16432,7 +16432,7 @@
         <v>391</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>577</v>
@@ -16527,7 +16527,7 @@
         <v>392</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>577</v>
@@ -16622,7 +16622,7 @@
         <v>393</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>577</v>
@@ -16717,7 +16717,7 @@
         <v>394</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>577</v>
@@ -16812,7 +16812,7 @@
         <v>395</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>577</v>
@@ -16907,7 +16907,7 @@
         <v>396</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>577</v>
@@ -17002,7 +17002,7 @@
         <v>397</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>577</v>
@@ -17097,7 +17097,7 @@
         <v>398</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>577</v>
@@ -17192,7 +17192,7 @@
         <v>399</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>577</v>
@@ -17287,7 +17287,7 @@
         <v>400</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>577</v>
@@ -17382,7 +17382,7 @@
         <v>401</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D21" s="37" t="s">
         <v>577</v>
@@ -17477,7 +17477,7 @@
         <v>402</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>577</v>
@@ -17572,7 +17572,7 @@
         <v>403</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>577</v>
@@ -17667,7 +17667,7 @@
         <v>404</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D24" s="37" t="s">
         <v>577</v>
@@ -17762,7 +17762,7 @@
         <v>405</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>577</v>
@@ -17857,7 +17857,7 @@
         <v>406</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>577</v>
@@ -17952,7 +17952,7 @@
         <v>407</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D27" s="37" t="s">
         <v>577</v>
@@ -18047,7 +18047,7 @@
         <v>408</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>577</v>
@@ -18142,7 +18142,7 @@
         <v>409</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>577</v>
@@ -18237,7 +18237,7 @@
         <v>410</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>577</v>
@@ -18332,7 +18332,7 @@
         <v>411</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>577</v>
@@ -18427,7 +18427,7 @@
         <v>412</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D32" s="37" t="s">
         <v>577</v>
@@ -18522,7 +18522,7 @@
         <v>413</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>577</v>
@@ -18617,7 +18617,7 @@
         <v>414</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>577</v>
@@ -18712,7 +18712,7 @@
         <v>415</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>577</v>
@@ -18807,7 +18807,7 @@
         <v>416</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>577</v>
@@ -18902,7 +18902,7 @@
         <v>417</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>577</v>
@@ -18997,7 +18997,7 @@
         <v>418</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>577</v>
@@ -19092,7 +19092,7 @@
         <v>419</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>577</v>
@@ -19187,7 +19187,7 @@
         <v>420</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>577</v>
@@ -19282,7 +19282,7 @@
         <v>421</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>577</v>
@@ -19377,7 +19377,7 @@
         <v>422</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D42" s="37" t="s">
         <v>577</v>
@@ -19472,7 +19472,7 @@
         <v>423</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>577</v>
@@ -19567,7 +19567,7 @@
         <v>424</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D44" s="37" t="s">
         <v>577</v>
@@ -19662,7 +19662,7 @@
         <v>425</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>577</v>
@@ -19757,7 +19757,7 @@
         <v>426</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D46" s="37" t="s">
         <v>577</v>
@@ -19852,7 +19852,7 @@
         <v>427</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>577</v>
@@ -19947,7 +19947,7 @@
         <v>428</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>577</v>
@@ -20042,7 +20042,7 @@
         <v>429</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>577</v>
@@ -20137,7 +20137,7 @@
         <v>430</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>577</v>
@@ -20232,7 +20232,7 @@
         <v>431</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>577</v>
@@ -20327,7 +20327,7 @@
         <v>432</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>577</v>
@@ -20422,7 +20422,7 @@
         <v>433</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D53" s="37" t="s">
         <v>577</v>
@@ -20517,7 +20517,7 @@
         <v>434</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D54" s="37" t="s">
         <v>577</v>
@@ -20612,7 +20612,7 @@
         <v>435</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D55" s="37" t="s">
         <v>577</v>
@@ -20707,7 +20707,7 @@
         <v>436</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D56" s="37" t="s">
         <v>577</v>
@@ -20802,7 +20802,7 @@
         <v>437</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D57" s="37" t="s">
         <v>577</v>
@@ -20897,7 +20897,7 @@
         <v>438</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D58" s="37" t="s">
         <v>577</v>
@@ -20992,7 +20992,7 @@
         <v>439</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D59" s="37" t="s">
         <v>577</v>
@@ -21087,7 +21087,7 @@
         <v>440</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D60" s="37" t="s">
         <v>577</v>
@@ -21182,7 +21182,7 @@
         <v>441</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D61" s="37" t="s">
         <v>577</v>
@@ -21277,7 +21277,7 @@
         <v>442</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D62" s="37" t="s">
         <v>577</v>
@@ -21372,7 +21372,7 @@
         <v>443</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D63" s="37" t="s">
         <v>577</v>
@@ -21467,7 +21467,7 @@
         <v>444</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D64" s="37" t="s">
         <v>577</v>
@@ -21562,7 +21562,7 @@
         <v>445</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D65" s="37" t="s">
         <v>577</v>
@@ -21657,7 +21657,7 @@
         <v>446</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D66" s="37" t="s">
         <v>577</v>
@@ -21752,7 +21752,7 @@
         <v>447</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D67" s="37" t="s">
         <v>577</v>
@@ -21847,7 +21847,7 @@
         <v>448</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D68" s="37" t="s">
         <v>577</v>
@@ -21942,7 +21942,7 @@
         <v>449</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D69" s="37" t="s">
         <v>577</v>
@@ -22037,7 +22037,7 @@
         <v>450</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D70" s="37" t="s">
         <v>577</v>
@@ -22132,7 +22132,7 @@
         <v>451</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D71" s="37" t="s">
         <v>577</v>
@@ -22227,7 +22227,7 @@
         <v>452</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D72" s="37" t="s">
         <v>577</v>
@@ -22322,7 +22322,7 @@
         <v>453</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D73" s="37" t="s">
         <v>577</v>
@@ -22417,7 +22417,7 @@
         <v>454</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D74" s="37" t="s">
         <v>577</v>
@@ -22512,7 +22512,7 @@
         <v>455</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D75" s="37" t="s">
         <v>577</v>
@@ -22607,7 +22607,7 @@
         <v>456</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D76" s="37" t="s">
         <v>577</v>
@@ -22702,7 +22702,7 @@
         <v>457</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D77" s="37" t="s">
         <v>577</v>
@@ -22797,7 +22797,7 @@
         <v>458</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D78" s="37" t="s">
         <v>577</v>
@@ -22892,7 +22892,7 @@
         <v>459</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D79" s="37" t="s">
         <v>577</v>
@@ -22987,7 +22987,7 @@
         <v>460</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D80" s="37" t="s">
         <v>577</v>
@@ -23082,7 +23082,7 @@
         <v>461</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D81" s="37" t="s">
         <v>577</v>
@@ -23177,7 +23177,7 @@
         <v>462</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D82" s="37" t="s">
         <v>577</v>
@@ -23272,7 +23272,7 @@
         <v>463</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D83" s="37" t="s">
         <v>577</v>
@@ -23367,7 +23367,7 @@
         <v>464</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D84" s="37" t="s">
         <v>577</v>
@@ -23462,7 +23462,7 @@
         <v>465</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D85" s="37" t="s">
         <v>577</v>
@@ -23557,7 +23557,7 @@
         <v>466</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D86" s="37" t="s">
         <v>577</v>
@@ -23652,7 +23652,7 @@
         <v>467</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D87" s="37" t="s">
         <v>577</v>
@@ -23747,7 +23747,7 @@
         <v>517</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D88" s="37" t="s">
         <v>577</v>
@@ -23842,7 +23842,7 @@
         <v>518</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D89" s="37" t="s">
         <v>577</v>
@@ -23937,7 +23937,7 @@
         <v>519</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D90" s="37" t="s">
         <v>577</v>
@@ -24032,7 +24032,7 @@
         <v>468</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D91" s="37" t="s">
         <v>577</v>
@@ -24127,7 +24127,7 @@
         <v>469</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D92" s="37" t="s">
         <v>577</v>
@@ -24222,7 +24222,7 @@
         <v>470</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D93" s="37" t="s">
         <v>577</v>
@@ -24317,7 +24317,7 @@
         <v>471</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D94" s="37" t="s">
         <v>577</v>
@@ -24412,7 +24412,7 @@
         <v>472</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D95" s="37" t="s">
         <v>577</v>
@@ -24507,7 +24507,7 @@
         <v>473</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D96" s="37" t="s">
         <v>577</v>
@@ -24602,7 +24602,7 @@
         <v>474</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D97" s="37" t="s">
         <v>577</v>
@@ -24697,7 +24697,7 @@
         <v>475</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D98" s="37" t="s">
         <v>577</v>
@@ -24792,7 +24792,7 @@
         <v>476</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D99" s="37" t="s">
         <v>577</v>
@@ -24887,7 +24887,7 @@
         <v>477</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D100" s="37" t="s">
         <v>577</v>
@@ -24982,7 +24982,7 @@
         <v>478</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D101" s="37" t="s">
         <v>577</v>
@@ -25077,7 +25077,7 @@
         <v>479</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D102" s="37" t="s">
         <v>577</v>
@@ -25172,7 +25172,7 @@
         <v>480</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D103" s="37" t="s">
         <v>577</v>
@@ -25267,7 +25267,7 @@
         <v>481</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D104" s="37" t="s">
         <v>577</v>
@@ -25362,7 +25362,7 @@
         <v>482</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D105" s="37" t="s">
         <v>577</v>
@@ -25457,7 +25457,7 @@
         <v>483</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D106" s="37" t="s">
         <v>577</v>
@@ -25552,7 +25552,7 @@
         <v>484</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D107" s="37" t="s">
         <v>577</v>
@@ -25647,7 +25647,7 @@
         <v>485</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D108" s="37" t="s">
         <v>577</v>
@@ -25742,7 +25742,7 @@
         <v>486</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D109" s="37" t="s">
         <v>577</v>
@@ -25837,7 +25837,7 @@
         <v>487</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D110" s="37" t="s">
         <v>577</v>
@@ -25932,7 +25932,7 @@
         <v>488</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D111" s="37" t="s">
         <v>577</v>
@@ -26027,7 +26027,7 @@
         <v>489</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D112" s="37" t="s">
         <v>577</v>
@@ -26122,7 +26122,7 @@
         <v>490</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D113" s="37" t="s">
         <v>577</v>
@@ -26217,7 +26217,7 @@
         <v>491</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D114" s="37" t="s">
         <v>577</v>
@@ -26312,7 +26312,7 @@
         <v>492</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D115" s="37" t="s">
         <v>577</v>
@@ -26407,7 +26407,7 @@
         <v>493</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D116" s="37" t="s">
         <v>577</v>
@@ -26502,7 +26502,7 @@
         <v>494</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D117" s="37" t="s">
         <v>577</v>
@@ -26597,7 +26597,7 @@
         <v>495</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D118" s="37" t="s">
         <v>577</v>
@@ -26692,7 +26692,7 @@
         <v>496</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D119" s="37" t="s">
         <v>577</v>
@@ -26787,7 +26787,7 @@
         <v>497</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D120" s="37" t="s">
         <v>577</v>
@@ -26882,7 +26882,7 @@
         <v>498</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D121" s="37" t="s">
         <v>577</v>
@@ -26977,7 +26977,7 @@
         <v>499</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D122" s="37" t="s">
         <v>577</v>
@@ -27072,7 +27072,7 @@
         <v>500</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D123" s="37" t="s">
         <v>577</v>
@@ -27167,7 +27167,7 @@
         <v>501</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D124" s="37" t="s">
         <v>577</v>
@@ -27262,7 +27262,7 @@
         <v>502</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D125" s="37" t="s">
         <v>577</v>
@@ -27357,7 +27357,7 @@
         <v>503</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D126" s="37" t="s">
         <v>577</v>
@@ -27452,7 +27452,7 @@
         <v>504</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D127" s="37" t="s">
         <v>577</v>
@@ -27547,7 +27547,7 @@
         <v>505</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D128" s="37" t="s">
         <v>577</v>
@@ -27642,7 +27642,7 @@
         <v>506</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D129" s="37" t="s">
         <v>577</v>
@@ -27737,7 +27737,7 @@
         <v>507</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D130" s="37" t="s">
         <v>577</v>
@@ -27832,7 +27832,7 @@
         <v>508</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D131" s="37" t="s">
         <v>577</v>
@@ -27927,7 +27927,7 @@
         <v>509</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D132" s="37" t="s">
         <v>577</v>
@@ -28022,7 +28022,7 @@
         <v>510</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D133" s="37" t="s">
         <v>577</v>
@@ -28117,7 +28117,7 @@
         <v>511</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D134" s="37" t="s">
         <v>577</v>
@@ -28212,7 +28212,7 @@
         <v>512</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D135" s="37" t="s">
         <v>577</v>
@@ -28307,7 +28307,7 @@
         <v>513</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D136" s="37" t="s">
         <v>577</v>
@@ -28402,7 +28402,7 @@
         <v>514</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D137" s="37" t="s">
         <v>577</v>
@@ -28497,7 +28497,7 @@
         <v>515</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D138" s="37" t="s">
         <v>577</v>
@@ -28592,7 +28592,7 @@
         <v>516</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D139" s="37" t="s">
         <v>577</v>
@@ -29067,7 +29067,7 @@
         <v>578</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D144" s="37" t="s">
         <v>577</v>
@@ -29133,7 +29133,7 @@
         <v>16</v>
       </c>
       <c r="Y144" s="52" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Z144" s="39" t="s">
         <v>9</v>
@@ -29162,7 +29162,7 @@
         <v>579</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D145" s="37" t="s">
         <v>577</v>
@@ -29228,7 +29228,7 @@
         <v>16</v>
       </c>
       <c r="Y145" s="52" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Z145" s="39" t="s">
         <v>9</v>
@@ -29323,7 +29323,7 @@
         <v>16</v>
       </c>
       <c r="Y146" s="52" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z146" s="39" t="s">
         <v>9</v>
@@ -29418,7 +29418,7 @@
         <v>16</v>
       </c>
       <c r="Y147" s="52" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Z147" s="39" t="s">
         <v>9</v>
@@ -29513,7 +29513,7 @@
         <v>16</v>
       </c>
       <c r="Y148" s="52" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Z148" s="39" t="s">
         <v>9</v>
@@ -30296,12 +30296,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B156">
+    <cfRule type="duplicateValues" dxfId="2" priority="469"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="470"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="150"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B156">
-    <cfRule type="duplicateValues" dxfId="1" priority="469"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="470"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="150"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/META/Ontologia_METAL.xlsx
+++ b/Versão5/META/Ontologia_METAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\META\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10108301-F165-43BF-8912-D2D27B9157D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637BC675-F08C-4BD2-B345-25FEAEFF05FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6367" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6367" uniqueCount="1070">
   <si>
     <t>Edição</t>
   </si>
@@ -1820,9 +1820,6 @@
     <t>WS350-Gerdau</t>
   </si>
   <si>
-    <t>"Liga de aço patinável resistente à intempérie produzida pela Gerdau"</t>
-  </si>
-  <si>
     <t>Ligas de aço utilizadas no projeto</t>
   </si>
   <si>
@@ -3278,6 +3275,12 @@
   </si>
   <si>
     <t>limite.de.resistência</t>
+  </si>
+  <si>
+    <t>"Liga de aço patinável resistente à intempérie produzida pela Gerdau. Cumpre índice de corrosión ASTM G101 (6.3.1) ≥ 6,0"</t>
+  </si>
+  <si>
+    <t>"Usar elementos de ligação de alta resistência, como parafusos, porcas e arruelas que cumpram à composição química prescrita em ASTM A325, Tipo 3, Grau A ou equivalente."</t>
   </si>
 </sst>
 </file>
@@ -4388,7 +4391,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45940.365579861114</v>
+        <v>45940.384294212963</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -4490,7 +4493,7 @@
         <v>62</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>63</v>
@@ -4544,10 +4547,10 @@
         <v>58</v>
       </c>
       <c r="X1" s="27" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y1" s="27" t="s">
         <v>608</v>
-      </c>
-      <c r="Y1" s="27" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4558,16 +4561,16 @@
         <v>76</v>
       </c>
       <c r="C2" s="57" t="s">
+        <v>609</v>
+      </c>
+      <c r="D2" s="56" t="s">
         <v>610</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="E2" s="56" t="s">
         <v>611</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="F2" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>613</v>
       </c>
       <c r="G2" s="32" t="str">
         <f>_xlfn.CONCAT("é.nomeado some ",B2)</f>
@@ -4603,10 +4606,10 @@
         <v>Aço Estrutural</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R2" s="61" t="s">
         <v>9</v>
@@ -4624,17 +4627,17 @@
         <v>Ligas Metálicas</v>
       </c>
       <c r="V2" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W2" s="30" t="str">
         <f t="shared" ref="W2:W72" si="2">CONCATENATE("k.",LOWER(LEFT(D2,2)),LOWER(LEFT(E2,4)),".",A2)</f>
         <v>k.daliga.2</v>
       </c>
       <c r="X2" s="55" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y2" s="55" t="s">
         <v>615</v>
-      </c>
-      <c r="Y2" s="55" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4645,16 +4648,16 @@
         <v>76</v>
       </c>
       <c r="C3" s="57" t="s">
+        <v>609</v>
+      </c>
+      <c r="D3" s="56" t="s">
         <v>610</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="E3" s="56" t="s">
         <v>611</v>
       </c>
-      <c r="E3" s="56" t="s">
-        <v>612</v>
-      </c>
       <c r="F3" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G3" s="32" t="str">
         <f>_xlfn.CONCAT("é.nomeado some ",B3)</f>
@@ -4690,10 +4693,10 @@
         <v>Alumínio Estrutural</v>
       </c>
       <c r="P3" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q3" s="29" t="s">
         <v>601</v>
-      </c>
-      <c r="Q3" s="29" t="s">
-        <v>602</v>
       </c>
       <c r="R3" s="61" t="s">
         <v>9</v>
@@ -4711,17 +4714,17 @@
         <v>Ligas Metálicas</v>
       </c>
       <c r="V3" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W3" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.daliga.3</v>
       </c>
       <c r="X3" s="55" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y3" s="55" t="s">
         <v>615</v>
-      </c>
-      <c r="Y3" s="55" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4735,13 +4738,13 @@
         <v>91</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>1019</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>1020</v>
       </c>
       <c r="G4" s="32" t="s">
         <v>9</v>
@@ -4775,10 +4778,10 @@
         <v>Vergalhão</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R4" s="61" t="s">
         <v>9</v>
@@ -4796,17 +4799,17 @@
         <v>Vergalhões</v>
       </c>
       <c r="V4" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W4" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arverg.4</v>
       </c>
       <c r="X4" s="55" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y4" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4820,13 +4823,13 @@
         <v>91</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>9</v>
@@ -4860,10 +4863,10 @@
         <v>Vergalhão Liso</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="R5" s="61" t="s">
         <v>9</v>
@@ -4881,17 +4884,17 @@
         <v>Vergalhões</v>
       </c>
       <c r="V5" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W5" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arverg.5</v>
       </c>
       <c r="X5" s="55" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y5" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4905,13 +4908,13 @@
         <v>91</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G6" s="32" t="s">
         <v>9</v>
@@ -4945,10 +4948,10 @@
         <v>Vergalhão Nervurado</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="R6" s="61" t="s">
         <v>9</v>
@@ -4966,17 +4969,17 @@
         <v>Vergalhões</v>
       </c>
       <c r="V6" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W6" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arverg.6</v>
       </c>
       <c r="X6" s="55" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y6" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4990,13 +4993,13 @@
         <v>91</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>1023</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>1024</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>9</v>
@@ -5030,10 +5033,10 @@
         <v>Vergalhão GG70</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="R7" s="61" t="s">
         <v>9</v>
@@ -5051,17 +5054,17 @@
         <v>Vergalhões</v>
       </c>
       <c r="V7" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W7" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arverg.7</v>
       </c>
       <c r="X7" s="55" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y7" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5075,13 +5078,13 @@
         <v>91</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G8" s="32" t="s">
         <v>9</v>
@@ -5115,10 +5118,10 @@
         <v>Estribo Retangular</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="R8" s="61" t="s">
         <v>9</v>
@@ -5136,17 +5139,17 @@
         <v>Estribos</v>
       </c>
       <c r="V8" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W8" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arestr.8</v>
       </c>
       <c r="X8" s="55" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y8" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5160,13 +5163,13 @@
         <v>91</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>9</v>
@@ -5200,10 +5203,10 @@
         <v>Estribo Circular</v>
       </c>
       <c r="P9" s="25" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="R9" s="61" t="s">
         <v>9</v>
@@ -5221,17 +5224,17 @@
         <v>Estribos</v>
       </c>
       <c r="V9" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arestr.9</v>
       </c>
       <c r="X9" s="55" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y9" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5245,13 +5248,13 @@
         <v>91</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>9</v>
@@ -5285,10 +5288,10 @@
         <v>Estribo Diagonal</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="R10" s="61" t="s">
         <v>9</v>
@@ -5306,17 +5309,17 @@
         <v>Estribos</v>
       </c>
       <c r="V10" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W10" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arestr.10</v>
       </c>
       <c r="X10" s="55" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y10" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5330,13 +5333,13 @@
         <v>91</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>9</v>
@@ -5370,10 +5373,10 @@
         <v>Estribo Helicoidal</v>
       </c>
       <c r="P11" s="25" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="R11" s="61" t="s">
         <v>9</v>
@@ -5391,17 +5394,17 @@
         <v>Estribos</v>
       </c>
       <c r="V11" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W11" s="30" t="str">
         <f t="shared" ref="W11:W14" si="21">CONCATENATE("k.",LOWER(LEFT(D11,2)),LOWER(LEFT(E11,4)),".",A11)</f>
         <v>k.arestr.11</v>
       </c>
       <c r="X11" s="55" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y11" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5415,13 +5418,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G12" s="32" t="s">
         <v>9</v>
@@ -5455,10 +5458,10 @@
         <v>Tela Soldada</v>
       </c>
       <c r="P12" s="25" t="s">
+        <v>1058</v>
+      </c>
+      <c r="Q12" s="29" t="s">
         <v>1059</v>
-      </c>
-      <c r="Q12" s="29" t="s">
-        <v>1060</v>
       </c>
       <c r="R12" s="61" t="s">
         <v>9</v>
@@ -5476,17 +5479,17 @@
         <v>Prontas</v>
       </c>
       <c r="V12" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W12" s="30" t="str">
         <f t="shared" ref="W12" si="29">CONCATENATE("k.",LOWER(LEFT(D12,2)),LOWER(LEFT(E12,4)),".",A12)</f>
         <v>k.arpron.12</v>
       </c>
       <c r="X12" s="55" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y12" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5500,13 +5503,13 @@
         <v>91</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E13" s="18" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>1048</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>1049</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>9</v>
@@ -5540,10 +5543,10 @@
         <v>Armadura APS</v>
       </c>
       <c r="P13" s="25" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="Q13" s="29" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="R13" s="61" t="s">
         <v>9</v>
@@ -5561,17 +5564,17 @@
         <v>Prontas</v>
       </c>
       <c r="V13" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W13" s="30" t="str">
         <f t="shared" si="21"/>
         <v>k.arpron.13</v>
       </c>
       <c r="X13" s="55" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y13" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5585,13 +5588,13 @@
         <v>91</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G14" s="32" t="s">
         <v>9</v>
@@ -5625,10 +5628,10 @@
         <v>Fôrma Incorporada</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="Q14" s="29" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="R14" s="61" t="s">
         <v>9</v>
@@ -5646,17 +5649,17 @@
         <v>Prontas</v>
       </c>
       <c r="V14" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W14" s="30" t="str">
         <f t="shared" si="21"/>
         <v>k.arpron.14</v>
       </c>
       <c r="X14" s="55" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y14" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5670,13 +5673,13 @@
         <v>91</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G15" s="32" t="s">
         <v>9</v>
@@ -5710,10 +5713,10 @@
         <v>Fôrma Incorporada APS</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="Q15" s="29" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="R15" s="61" t="s">
         <v>9</v>
@@ -5731,17 +5734,17 @@
         <v>Prontas</v>
       </c>
       <c r="V15" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W15" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.arpron.15</v>
       </c>
       <c r="X15" s="55" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y15" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5758,10 +5761,10 @@
         <v>520</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>9</v>
@@ -5773,7 +5776,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="K16" s="32" t="s">
         <v>9</v>
@@ -5795,10 +5798,10 @@
         <v>Coluna Viga Soldada</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R16" s="61" t="s">
         <v>9</v>
@@ -5816,17 +5819,17 @@
         <v>Soldados</v>
       </c>
       <c r="V16" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W16" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.susold.16</v>
       </c>
       <c r="X16" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="Y16" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5843,10 +5846,10 @@
         <v>520</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G17" s="32" t="s">
         <v>9</v>
@@ -5880,10 +5883,10 @@
         <v>Coluna Soldada</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Q17" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R17" s="61" t="s">
         <v>9</v>
@@ -5901,17 +5904,17 @@
         <v>Soldados</v>
       </c>
       <c r="V17" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W17" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.susold.17</v>
       </c>
       <c r="X17" s="55" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Y17" s="55" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5928,10 +5931,10 @@
         <v>520</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G18" s="32" t="s">
         <v>9</v>
@@ -5965,10 +5968,10 @@
         <v>Viga Soldada</v>
       </c>
       <c r="P18" s="25" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q18" s="29" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="R18" s="61" t="s">
         <v>9</v>
@@ -5986,17 +5989,17 @@
         <v>Soldados</v>
       </c>
       <c r="V18" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W18" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.susold.18</v>
       </c>
       <c r="X18" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y18" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6013,10 +6016,10 @@
         <v>520</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>9</v>
@@ -6028,7 +6031,7 @@
         <v>9</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="K19" s="32" t="s">
         <v>9</v>
@@ -6050,10 +6053,10 @@
         <v>Perfil Laminado I</v>
       </c>
       <c r="P19" s="25" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="Q19" s="29" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R19" s="61" t="s">
         <v>9</v>
@@ -6071,17 +6074,17 @@
         <v>Laminados</v>
       </c>
       <c r="V19" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W19" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.sulami.19</v>
       </c>
       <c r="X19" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y19" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6098,10 +6101,10 @@
         <v>520</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G20" s="32" t="s">
         <v>9</v>
@@ -6135,10 +6138,10 @@
         <v>Perfil Laminado HP</v>
       </c>
       <c r="P20" s="25" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="Q20" s="29" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R20" s="61" t="s">
         <v>9</v>
@@ -6156,17 +6159,17 @@
         <v>Laminados</v>
       </c>
       <c r="V20" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W20" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.sulami.20</v>
       </c>
       <c r="X20" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="Y20" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6183,10 +6186,10 @@
         <v>520</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>9</v>
@@ -6220,10 +6223,10 @@
         <v>Perfil Laminado W</v>
       </c>
       <c r="P21" s="25" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="Q21" s="29" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R21" s="61" t="s">
         <v>9</v>
@@ -6241,17 +6244,17 @@
         <v>Laminados</v>
       </c>
       <c r="V21" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W21" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.sulami.21</v>
       </c>
       <c r="X21" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y21" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6265,13 +6268,13 @@
         <v>91</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G22" s="32" t="s">
         <v>9</v>
@@ -6280,7 +6283,7 @@
         <v>9</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J22" s="32" t="s">
         <v>9</v>
@@ -6305,10 +6308,10 @@
         <v>Cantoneira</v>
       </c>
       <c r="P22" s="25" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q22" s="29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="R22" s="61" t="s">
         <v>9</v>
@@ -6326,17 +6329,17 @@
         <v>Perfis L</v>
       </c>
       <c r="V22" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W22" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.22</v>
       </c>
       <c r="X22" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y22" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6350,13 +6353,13 @@
         <v>91</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E23" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>893</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>894</v>
       </c>
       <c r="G23" s="32" t="s">
         <v>9</v>
@@ -6390,10 +6393,10 @@
         <v>Cantoneira Abas Desiguais</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="R23" s="61" t="s">
         <v>9</v>
@@ -6411,17 +6414,17 @@
         <v>Perfis L</v>
       </c>
       <c r="V23" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W23" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.23</v>
       </c>
       <c r="X23" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y23" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6435,13 +6438,13 @@
         <v>91</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G24" s="32" t="s">
         <v>9</v>
@@ -6475,10 +6478,10 @@
         <v>Perfil Sigma</v>
       </c>
       <c r="P24" s="25" t="s">
+        <v>896</v>
+      </c>
+      <c r="Q24" s="29" t="s">
         <v>897</v>
-      </c>
-      <c r="Q24" s="29" t="s">
-        <v>898</v>
       </c>
       <c r="R24" s="61" t="s">
         <v>9</v>
@@ -6496,17 +6499,17 @@
         <v>Perfis S</v>
       </c>
       <c r="V24" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W24" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.24</v>
       </c>
       <c r="X24" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y24" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6520,10 +6523,10 @@
         <v>91</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>85</v>
@@ -6560,10 +6563,10 @@
         <v>Perfil T</v>
       </c>
       <c r="P25" s="25" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R25" s="61" t="s">
         <v>9</v>
@@ -6581,17 +6584,17 @@
         <v>Perfis T</v>
       </c>
       <c r="V25" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W25" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.25</v>
       </c>
       <c r="X25" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y25" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6605,10 +6608,10 @@
         <v>91</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>84</v>
@@ -6645,10 +6648,10 @@
         <v>Perfil U</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="R26" s="61" t="s">
         <v>9</v>
@@ -6666,17 +6669,17 @@
         <v>Perfis U</v>
       </c>
       <c r="V26" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W26" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.26</v>
       </c>
       <c r="X26" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y26" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6690,13 +6693,13 @@
         <v>91</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>9</v>
@@ -6730,10 +6733,10 @@
         <v>Perfil UE</v>
       </c>
       <c r="P27" s="25" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="R27" s="61" t="s">
         <v>9</v>
@@ -6751,17 +6754,17 @@
         <v>Perfis U</v>
       </c>
       <c r="V27" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W27" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.27</v>
       </c>
       <c r="X27" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y27" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6775,13 +6778,13 @@
         <v>91</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E28" s="18" t="s">
+        <v>880</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>881</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>882</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>9</v>
@@ -6815,10 +6818,10 @@
         <v>Perfil Z</v>
       </c>
       <c r="P28" s="25" t="s">
+        <v>882</v>
+      </c>
+      <c r="Q28" s="29" t="s">
         <v>883</v>
-      </c>
-      <c r="Q28" s="29" t="s">
-        <v>884</v>
       </c>
       <c r="R28" s="61" t="s">
         <v>9</v>
@@ -6836,17 +6839,17 @@
         <v>Perfis Z</v>
       </c>
       <c r="V28" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W28" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.28</v>
       </c>
       <c r="X28" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y28" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6860,13 +6863,13 @@
         <v>91</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>9</v>
@@ -6900,10 +6903,10 @@
         <v>Seção Circular</v>
       </c>
       <c r="P29" s="25" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q29" s="25" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="R29" s="61" t="s">
         <v>9</v>
@@ -6921,17 +6924,17 @@
         <v>Perfis Tubulares</v>
       </c>
       <c r="V29" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W29" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.29</v>
       </c>
       <c r="X29" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y29" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6945,13 +6948,13 @@
         <v>91</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>9</v>
@@ -6985,10 +6988,10 @@
         <v>Seção Quadrada</v>
       </c>
       <c r="P30" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="Q30" s="25" t="s">
         <v>912</v>
-      </c>
-      <c r="Q30" s="25" t="s">
-        <v>913</v>
       </c>
       <c r="R30" s="61" t="s">
         <v>9</v>
@@ -7006,17 +7009,17 @@
         <v>Perfis Tubulares</v>
       </c>
       <c r="V30" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W30" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.30</v>
       </c>
       <c r="X30" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y30" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7030,13 +7033,13 @@
         <v>91</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>9</v>
@@ -7070,10 +7073,10 @@
         <v>Seção Retangular</v>
       </c>
       <c r="P31" s="25" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="Q31" s="25" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="R31" s="61" t="s">
         <v>9</v>
@@ -7091,17 +7094,17 @@
         <v>Perfis Tubulares</v>
       </c>
       <c r="V31" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W31" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.peperf.31</v>
       </c>
       <c r="X31" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y31" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7115,13 +7118,13 @@
         <v>91</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E32" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="F32" s="18" t="s">
         <v>682</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>683</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>9</v>
@@ -7158,7 +7161,7 @@
         <v>557</v>
       </c>
       <c r="Q32" s="29" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R32" s="61" t="s">
         <v>9</v>
@@ -7176,17 +7179,17 @@
         <v>Placas</v>
       </c>
       <c r="V32" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W32" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.32</v>
       </c>
       <c r="X32" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y32" s="55" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7200,13 +7203,13 @@
         <v>91</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>9</v>
@@ -7243,7 +7246,7 @@
         <v>559</v>
       </c>
       <c r="Q33" s="29" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="R33" s="61" t="s">
         <v>9</v>
@@ -7261,17 +7264,17 @@
         <v>Placas</v>
       </c>
       <c r="V33" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W33" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.33</v>
       </c>
       <c r="X33" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y33" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7285,13 +7288,13 @@
         <v>91</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G34" s="32" t="s">
         <v>9</v>
@@ -7328,7 +7331,7 @@
         <v>559</v>
       </c>
       <c r="Q34" s="29" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="R34" s="61" t="s">
         <v>9</v>
@@ -7346,17 +7349,17 @@
         <v>Placas</v>
       </c>
       <c r="V34" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W34" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.34</v>
       </c>
       <c r="X34" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y34" s="55" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7370,13 +7373,13 @@
         <v>91</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>9</v>
@@ -7410,10 +7413,10 @@
         <v>Placa de Emenda</v>
       </c>
       <c r="P35" s="25" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Q35" s="29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R35" s="61" t="s">
         <v>9</v>
@@ -7431,17 +7434,17 @@
         <v>Placas</v>
       </c>
       <c r="V35" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W35" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.35</v>
       </c>
       <c r="X35" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y35" s="55" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7455,13 +7458,13 @@
         <v>91</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>9</v>
@@ -7498,7 +7501,7 @@
         <v>573</v>
       </c>
       <c r="Q36" s="29" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="R36" s="61" t="s">
         <v>9</v>
@@ -7516,17 +7519,17 @@
         <v>Placas</v>
       </c>
       <c r="V36" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W36" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.36</v>
       </c>
       <c r="X36" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y36" s="55" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7540,13 +7543,13 @@
         <v>91</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G37" s="32" t="s">
         <v>9</v>
@@ -7561,7 +7564,7 @@
         <v>9</v>
       </c>
       <c r="K37" s="32" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="L37" s="25" t="str">
         <f t="shared" si="51"/>
@@ -7580,10 +7583,10 @@
         <v>Placa de Mísula</v>
       </c>
       <c r="P37" s="25" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q37" s="29" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="R37" s="61" t="s">
         <v>9</v>
@@ -7601,17 +7604,17 @@
         <v>Placas</v>
       </c>
       <c r="V37" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W37" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.37</v>
       </c>
       <c r="X37" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y37" s="55" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7625,14 +7628,14 @@
         <v>91</v>
       </c>
       <c r="D38" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="F38" s="18" t="s">
         <v>793</v>
       </c>
-      <c r="E38" s="18" t="s">
-        <v>682</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>794</v>
-      </c>
       <c r="G38" s="32" t="s">
         <v>9</v>
       </c>
@@ -7646,7 +7649,7 @@
         <v>9</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L38" s="25" t="str">
         <f t="shared" si="51"/>
@@ -7665,10 +7668,10 @@
         <v>Placa de Cumeeira</v>
       </c>
       <c r="P38" s="25" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="Q38" s="29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="R38" s="61" t="s">
         <v>9</v>
@@ -7686,17 +7689,17 @@
         <v>Placas</v>
       </c>
       <c r="V38" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W38" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.38</v>
       </c>
       <c r="X38" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y38" s="55" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7710,13 +7713,13 @@
         <v>91</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>9</v>
@@ -7731,7 +7734,7 @@
         <v>9</v>
       </c>
       <c r="K39" s="32" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="L39" s="25" t="str">
         <f t="shared" si="51"/>
@@ -7750,10 +7753,10 @@
         <v>Placa Gusset</v>
       </c>
       <c r="P39" s="25" t="s">
+        <v>953</v>
+      </c>
+      <c r="Q39" s="29" t="s">
         <v>954</v>
-      </c>
-      <c r="Q39" s="29" t="s">
-        <v>955</v>
       </c>
       <c r="R39" s="61" t="s">
         <v>9</v>
@@ -7771,17 +7774,17 @@
         <v>Placas</v>
       </c>
       <c r="V39" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W39" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.emplac.39</v>
       </c>
       <c r="X39" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y39" s="55" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7795,13 +7798,13 @@
         <v>91</v>
       </c>
       <c r="D40" s="18" t="s">
+        <v>946</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>947</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="F40" s="18" t="s">
         <v>948</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>949</v>
       </c>
       <c r="G40" s="32" t="s">
         <v>9</v>
@@ -7835,10 +7838,10 @@
         <v>SteelDeck Trapezoidal</v>
       </c>
       <c r="P40" s="25" t="s">
+        <v>949</v>
+      </c>
+      <c r="Q40" s="29" t="s">
         <v>950</v>
-      </c>
-      <c r="Q40" s="29" t="s">
-        <v>951</v>
       </c>
       <c r="R40" s="61" t="s">
         <v>9</v>
@@ -7856,17 +7859,17 @@
         <v>SteelDecks</v>
       </c>
       <c r="V40" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W40" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.chstee.40</v>
       </c>
       <c r="X40" s="55" t="s">
+        <v>951</v>
+      </c>
+      <c r="Y40" s="55" t="s">
         <v>952</v>
-      </c>
-      <c r="Y40" s="55" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7880,13 +7883,13 @@
         <v>91</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>9</v>
@@ -7920,10 +7923,10 @@
         <v>Barra Redonda</v>
       </c>
       <c r="P41" s="25" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="Q41" s="25" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="R41" s="61" t="s">
         <v>9</v>
@@ -7941,17 +7944,17 @@
         <v>Barras Laminadas</v>
       </c>
       <c r="V41" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W41" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.41</v>
       </c>
       <c r="X41" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y41" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7965,13 +7968,13 @@
         <v>91</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E42" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="F42" s="18" t="s">
         <v>711</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>712</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>9</v>
@@ -8005,10 +8008,10 @@
         <v>Barra Quadrada</v>
       </c>
       <c r="P42" s="25" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q42" s="25" t="s">
         <v>788</v>
-      </c>
-      <c r="Q42" s="25" t="s">
-        <v>789</v>
       </c>
       <c r="R42" s="61" t="s">
         <v>9</v>
@@ -8026,17 +8029,17 @@
         <v>Barras Laminadas</v>
       </c>
       <c r="V42" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W42" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.42</v>
       </c>
       <c r="X42" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y42" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8050,13 +8053,13 @@
         <v>91</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G43" s="32" t="s">
         <v>9</v>
@@ -8090,10 +8093,10 @@
         <v>Barra Hexagonal</v>
       </c>
       <c r="P43" s="25" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="Q43" s="25" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="R43" s="61" t="s">
         <v>9</v>
@@ -8111,17 +8114,17 @@
         <v>Barras Laminadas</v>
       </c>
       <c r="V43" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W43" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.43</v>
       </c>
       <c r="X43" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y43" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8135,13 +8138,13 @@
         <v>91</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G44" s="32" t="s">
         <v>9</v>
@@ -8175,10 +8178,10 @@
         <v>Barra Chata</v>
       </c>
       <c r="P44" s="25" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q44" s="29" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R44" s="61" t="s">
         <v>9</v>
@@ -8196,17 +8199,17 @@
         <v>Barras Laminadas</v>
       </c>
       <c r="V44" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W44" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.44</v>
       </c>
       <c r="X44" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y44" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8220,13 +8223,13 @@
         <v>91</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>9</v>
@@ -8260,10 +8263,10 @@
         <v>Barra Trefilada Redonda</v>
       </c>
       <c r="P45" s="25" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="Q45" s="29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="R45" s="61" t="s">
         <v>9</v>
@@ -8281,17 +8284,17 @@
         <v>Barras Trefiladas</v>
       </c>
       <c r="V45" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W45" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.45</v>
       </c>
       <c r="X45" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y45" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8305,13 +8308,13 @@
         <v>91</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E46" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="F46" s="18" t="s">
         <v>713</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>714</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>9</v>
@@ -8345,10 +8348,10 @@
         <v>Barra Trefilada Quadrada</v>
       </c>
       <c r="P46" s="25" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="Q46" s="29" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R46" s="61" t="s">
         <v>9</v>
@@ -8366,17 +8369,17 @@
         <v>Barras Trefiladas</v>
       </c>
       <c r="V46" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W46" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.46</v>
       </c>
       <c r="X46" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y46" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8390,13 +8393,13 @@
         <v>91</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>9</v>
@@ -8430,10 +8433,10 @@
         <v>Barra Trefilada Hexagonal</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="Q47" s="29" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="R47" s="61" t="s">
         <v>9</v>
@@ -8451,17 +8454,17 @@
         <v>Barras Trefiladas</v>
       </c>
       <c r="V47" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W47" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.47</v>
       </c>
       <c r="X47" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y47" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8475,13 +8478,13 @@
         <v>91</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>9</v>
@@ -8496,7 +8499,7 @@
         <v>9</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L48" s="25" t="str">
         <f t="shared" ref="L48" si="67">_xlfn.CONCAT(SUBSTITUTE(C48,"1.",""))</f>
@@ -8515,10 +8518,10 @@
         <v>Barra Contraventamento</v>
       </c>
       <c r="P48" s="25" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q48" s="25" t="s">
         <v>806</v>
-      </c>
-      <c r="Q48" s="25" t="s">
-        <v>807</v>
       </c>
       <c r="R48" s="61" t="s">
         <v>9</v>
@@ -8536,17 +8539,17 @@
         <v>Barras Contraventamentos</v>
       </c>
       <c r="V48" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W48" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.48</v>
       </c>
       <c r="X48" s="55" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="Y48" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8560,13 +8563,13 @@
         <v>91</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>9</v>
@@ -8581,7 +8584,7 @@
         <v>9</v>
       </c>
       <c r="K49" s="32" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L49" s="25" t="str">
         <f t="shared" ref="L49:L53" si="71">_xlfn.CONCAT(SUBSTITUTE(C49,"1.",""))</f>
@@ -8600,10 +8603,10 @@
         <v>Barra Comprimida</v>
       </c>
       <c r="P49" s="25" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q49" s="25" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="R49" s="61" t="s">
         <v>9</v>
@@ -8621,17 +8624,17 @@
         <v>Barras Contraventamentos</v>
       </c>
       <c r="V49" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W49" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.49</v>
       </c>
       <c r="X49" s="55" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="Y49" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8645,13 +8648,13 @@
         <v>91</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>9</v>
@@ -8666,7 +8669,7 @@
         <v>9</v>
       </c>
       <c r="K50" s="32" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L50" s="25" t="str">
         <f t="shared" si="71"/>
@@ -8685,10 +8688,10 @@
         <v>Barra Tracionada</v>
       </c>
       <c r="P50" s="25" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="Q50" s="25" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="R50" s="61" t="s">
         <v>9</v>
@@ -8706,17 +8709,17 @@
         <v>Barras Contraventamentos</v>
       </c>
       <c r="V50" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W50" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.50</v>
       </c>
       <c r="X50" s="55" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="Y50" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8730,13 +8733,13 @@
         <v>91</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G51" s="32" t="s">
         <v>9</v>
@@ -8748,10 +8751,10 @@
         <v>9</v>
       </c>
       <c r="J51" s="32" t="s">
+        <v>843</v>
+      </c>
+      <c r="K51" s="32" t="s">
         <v>844</v>
-      </c>
-      <c r="K51" s="32" t="s">
-        <v>845</v>
       </c>
       <c r="L51" s="25" t="str">
         <f t="shared" si="71"/>
@@ -8770,10 +8773,10 @@
         <v>Barra Montante</v>
       </c>
       <c r="P51" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q51" s="25" t="s">
         <v>821</v>
-      </c>
-      <c r="Q51" s="25" t="s">
-        <v>822</v>
       </c>
       <c r="R51" s="61" t="s">
         <v>9</v>
@@ -8791,17 +8794,17 @@
         <v>Barras Montantes</v>
       </c>
       <c r="V51" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W51" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.51</v>
       </c>
       <c r="X51" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y51" s="55" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8815,14 +8818,14 @@
         <v>91</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E52" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="F52" s="18" t="s">
         <v>812</v>
       </c>
-      <c r="F52" s="18" t="s">
-        <v>813</v>
-      </c>
       <c r="G52" s="32" t="s">
         <v>9</v>
       </c>
@@ -8833,10 +8836,10 @@
         <v>9</v>
       </c>
       <c r="J52" s="32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K52" s="32" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L52" s="25" t="str">
         <f t="shared" si="71"/>
@@ -8855,10 +8858,10 @@
         <v>Barra Diagonal</v>
       </c>
       <c r="P52" s="25" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Q52" s="25" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="R52" s="61" t="s">
         <v>9</v>
@@ -8876,17 +8879,17 @@
         <v>Barras Diagonais</v>
       </c>
       <c r="V52" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W52" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babarr.52</v>
       </c>
       <c r="X52" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y52" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8900,14 +8903,14 @@
         <v>91</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E53" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="F53" s="18" t="s">
         <v>815</v>
       </c>
-      <c r="F53" s="18" t="s">
-        <v>816</v>
-      </c>
       <c r="G53" s="32" t="s">
         <v>9</v>
       </c>
@@ -8918,10 +8921,10 @@
         <v>9</v>
       </c>
       <c r="J53" s="32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L53" s="25" t="str">
         <f t="shared" si="71"/>
@@ -8940,10 +8943,10 @@
         <v>Banzo Superior</v>
       </c>
       <c r="P53" s="25" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Q53" s="25" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="R53" s="61" t="s">
         <v>9</v>
@@ -8961,17 +8964,17 @@
         <v>Banzos</v>
       </c>
       <c r="V53" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W53" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babanz.53</v>
       </c>
       <c r="X53" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y53" s="55" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8985,13 +8988,13 @@
         <v>91</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G54" s="32" t="s">
         <v>9</v>
@@ -9006,7 +9009,7 @@
         <v>9</v>
       </c>
       <c r="K54" s="32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L54" s="25" t="str">
         <f t="shared" ref="L54" si="75">_xlfn.CONCAT(SUBSTITUTE(C54,"1.",""))</f>
@@ -9025,10 +9028,10 @@
         <v>Banzo Inferior</v>
       </c>
       <c r="P54" s="25" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="Q54" s="25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="R54" s="61" t="s">
         <v>9</v>
@@ -9046,17 +9049,17 @@
         <v>Banzos</v>
       </c>
       <c r="V54" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W54" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.babanz.54</v>
       </c>
       <c r="X54" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y54" s="55" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9070,13 +9073,13 @@
         <v>91</v>
       </c>
       <c r="D55" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>839</v>
       </c>
-      <c r="E55" s="18" t="s">
-        <v>840</v>
-      </c>
       <c r="F55" s="18" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>9</v>
@@ -9110,10 +9113,10 @@
         <v>ContraVentamento Horizontal Diagonal</v>
       </c>
       <c r="P55" s="25" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q55" s="25" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="R55" s="61" t="s">
         <v>9</v>
@@ -9131,17 +9134,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V55" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W55" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.55</v>
       </c>
       <c r="X55" s="55" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="Y55" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9155,13 +9158,13 @@
         <v>91</v>
       </c>
       <c r="D56" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>839</v>
       </c>
-      <c r="E56" s="18" t="s">
-        <v>840</v>
-      </c>
       <c r="F56" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>9</v>
@@ -9195,10 +9198,10 @@
         <v>ContraVentamento Horizontal X</v>
       </c>
       <c r="P56" s="25" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Q56" s="25" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="R56" s="61" t="s">
         <v>9</v>
@@ -9216,17 +9219,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V56" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W56" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.56</v>
       </c>
       <c r="X56" s="55" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="Y56" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9240,13 +9243,13 @@
         <v>91</v>
       </c>
       <c r="D57" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="E57" s="18" t="s">
         <v>839</v>
       </c>
-      <c r="E57" s="18" t="s">
-        <v>840</v>
-      </c>
       <c r="F57" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>9</v>
@@ -9280,10 +9283,10 @@
         <v>ContraVentamento Horizontal K</v>
       </c>
       <c r="P57" s="25" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Q57" s="25" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="R57" s="61" t="s">
         <v>9</v>
@@ -9301,17 +9304,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V57" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W57" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.57</v>
       </c>
       <c r="X57" s="55" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="Y57" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9325,13 +9328,13 @@
         <v>91</v>
       </c>
       <c r="D58" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>839</v>
       </c>
-      <c r="E58" s="18" t="s">
-        <v>840</v>
-      </c>
       <c r="F58" s="18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>9</v>
@@ -9365,10 +9368,10 @@
         <v>ContraVentamento Horizontal V</v>
       </c>
       <c r="P58" s="25" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Q58" s="25" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="R58" s="61" t="s">
         <v>9</v>
@@ -9386,17 +9389,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V58" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W58" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.58</v>
       </c>
       <c r="X58" s="55" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="Y58" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9410,13 +9413,13 @@
         <v>91</v>
       </c>
       <c r="D59" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="E59" s="18" t="s">
         <v>839</v>
       </c>
-      <c r="E59" s="18" t="s">
-        <v>840</v>
-      </c>
       <c r="F59" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G59" s="32" t="s">
         <v>9</v>
@@ -9450,10 +9453,10 @@
         <v>ContraVentamento Horizontal VI</v>
       </c>
       <c r="P59" s="25" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Q59" s="25" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="R59" s="61" t="s">
         <v>9</v>
@@ -9471,17 +9474,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V59" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W59" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.59</v>
       </c>
       <c r="X59" s="55" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="Y59" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9495,13 +9498,13 @@
         <v>91</v>
       </c>
       <c r="D60" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="E60" s="18" t="s">
         <v>839</v>
       </c>
-      <c r="E60" s="18" t="s">
-        <v>840</v>
-      </c>
       <c r="F60" s="18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G60" s="32" t="s">
         <v>9</v>
@@ -9535,10 +9538,10 @@
         <v>ContraVentamento Horizontal Delta</v>
       </c>
       <c r="P60" s="25" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="Q60" s="25" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="R60" s="61" t="s">
         <v>9</v>
@@ -9556,17 +9559,17 @@
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="V60" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W60" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.60</v>
       </c>
       <c r="X60" s="55" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="Y60" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9580,13 +9583,13 @@
         <v>91</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G61" s="32" t="s">
         <v>9</v>
@@ -9620,10 +9623,10 @@
         <v>ContraVentamento Vertical</v>
       </c>
       <c r="P61" s="25" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q61" s="25" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="R61" s="61" t="s">
         <v>9</v>
@@ -9641,17 +9644,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V61" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W61" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.61</v>
       </c>
       <c r="X61" s="55" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Y61" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9665,13 +9668,13 @@
         <v>91</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G62" s="32" t="s">
         <v>9</v>
@@ -9705,10 +9708,10 @@
         <v>ContraVentamento Vertical X</v>
       </c>
       <c r="P62" s="25" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Q62" s="25" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="R62" s="61" t="s">
         <v>9</v>
@@ -9726,17 +9729,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V62" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W62" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.62</v>
       </c>
       <c r="X62" s="55" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Y62" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="63" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9750,13 +9753,13 @@
         <v>91</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G63" s="32" t="s">
         <v>9</v>
@@ -9790,10 +9793,10 @@
         <v>ContraVentamento Vertical K</v>
       </c>
       <c r="P63" s="25" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Q63" s="25" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="R63" s="61" t="s">
         <v>9</v>
@@ -9811,17 +9814,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V63" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W63" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.63</v>
       </c>
       <c r="X63" s="55" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Y63" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9835,13 +9838,13 @@
         <v>91</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G64" s="32" t="s">
         <v>9</v>
@@ -9875,10 +9878,10 @@
         <v>ContraVentamento Vertical V</v>
       </c>
       <c r="P64" s="25" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Q64" s="25" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="R64" s="61" t="s">
         <v>9</v>
@@ -9896,17 +9899,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V64" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W64" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.64</v>
       </c>
       <c r="X64" s="55" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Y64" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="65" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9920,13 +9923,13 @@
         <v>91</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E65" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="F65" s="18" t="s">
         <v>841</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>842</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>9</v>
@@ -9960,10 +9963,10 @@
         <v>ContraVentamento Vertical VI</v>
       </c>
       <c r="P65" s="25" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Q65" s="25" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="R65" s="61" t="s">
         <v>9</v>
@@ -9981,17 +9984,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V65" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W65" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.65</v>
       </c>
       <c r="X65" s="55" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Y65" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="66" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10005,13 +10008,13 @@
         <v>91</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>9</v>
@@ -10045,10 +10048,10 @@
         <v>ContraVentamento Vertical Delta</v>
       </c>
       <c r="P66" s="25" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="Q66" s="25" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="R66" s="61" t="s">
         <v>9</v>
@@ -10066,17 +10069,17 @@
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="V66" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W66" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.66</v>
       </c>
       <c r="X66" s="55" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Y66" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="67" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10090,13 +10093,13 @@
         <v>91</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E67" s="18" t="s">
+        <v>848</v>
+      </c>
+      <c r="F67" s="18" t="s">
         <v>849</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>850</v>
       </c>
       <c r="G67" s="32" t="s">
         <v>9</v>
@@ -10130,10 +10133,10 @@
         <v>ContraVentamento Cabo</v>
       </c>
       <c r="P67" s="25" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q67" s="25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="R67" s="61" t="s">
         <v>9</v>
@@ -10151,17 +10154,17 @@
         <v>ContraVentamentos Cabos</v>
       </c>
       <c r="V67" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W67" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.cocont.67</v>
       </c>
       <c r="X67" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y67" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="68" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10175,13 +10178,13 @@
         <v>91</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G68" s="32" t="s">
         <v>9</v>
@@ -10215,10 +10218,10 @@
         <v>Treliça Pratt</v>
       </c>
       <c r="P68" s="25" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q68" s="29" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="R68" s="61" t="s">
         <v>9</v>
@@ -10236,17 +10239,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V68" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W68" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.trtrel.68</v>
       </c>
       <c r="X68" s="55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Y68" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10260,13 +10263,13 @@
         <v>91</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G69" s="32" t="s">
         <v>9</v>
@@ -10300,10 +10303,10 @@
         <v>Treliça Howe</v>
       </c>
       <c r="P69" s="25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Q69" s="29" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="R69" s="61" t="s">
         <v>9</v>
@@ -10321,17 +10324,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V69" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W69" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.trtrel.69</v>
       </c>
       <c r="X69" s="55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Y69" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="70" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10345,13 +10348,13 @@
         <v>91</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G70" s="32" t="s">
         <v>9</v>
@@ -10385,10 +10388,10 @@
         <v>Treliça Warren</v>
       </c>
       <c r="P70" s="25" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Q70" s="29" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="R70" s="61" t="s">
         <v>9</v>
@@ -10406,17 +10409,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V70" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W70" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.trtrel.70</v>
       </c>
       <c r="X70" s="55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Y70" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="71" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10430,13 +10433,13 @@
         <v>91</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G71" s="32" t="s">
         <v>9</v>
@@ -10470,10 +10473,10 @@
         <v>Treliça Fink</v>
       </c>
       <c r="P71" s="25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="Q71" s="29" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="R71" s="61" t="s">
         <v>9</v>
@@ -10491,17 +10494,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V71" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W71" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.trtrel.71</v>
       </c>
       <c r="X71" s="55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Y71" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="72" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10515,13 +10518,13 @@
         <v>91</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G72" s="32" t="s">
         <v>9</v>
@@ -10555,10 +10558,10 @@
         <v>Treliça Vierendeel</v>
       </c>
       <c r="P72" s="25" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="Q72" s="29" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="R72" s="61" t="s">
         <v>9</v>
@@ -10576,17 +10579,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V72" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W72" s="30" t="str">
         <f t="shared" si="2"/>
         <v>k.trtrel.72</v>
       </c>
       <c r="X72" s="55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Y72" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="73" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10600,13 +10603,13 @@
         <v>91</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G73" s="32" t="s">
         <v>9</v>
@@ -10640,10 +10643,10 @@
         <v>Tesoura</v>
       </c>
       <c r="P73" s="25" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q73" s="29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="R73" s="61" t="s">
         <v>9</v>
@@ -10661,17 +10664,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V73" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W73" s="30" t="str">
         <f t="shared" ref="W73:W123" si="111">CONCATENATE("k.",LOWER(LEFT(D73,2)),LOWER(LEFT(E73,4)),".",A73)</f>
         <v>k.trtrel.73</v>
       </c>
       <c r="X73" s="55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Y73" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="74" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10685,13 +10688,13 @@
         <v>91</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G74" s="32" t="s">
         <v>9</v>
@@ -10725,10 +10728,10 @@
         <v>Treliça Ponte</v>
       </c>
       <c r="P74" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Q74" s="29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="R74" s="61" t="s">
         <v>9</v>
@@ -10746,17 +10749,17 @@
         <v>Treliças Planas</v>
       </c>
       <c r="V74" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W74" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.74</v>
       </c>
       <c r="X74" s="55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Y74" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="75" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10770,13 +10773,13 @@
         <v>91</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G75" s="32" t="s">
         <v>9</v>
@@ -10810,10 +10813,10 @@
         <v>Treliça Espacial Reticulada</v>
       </c>
       <c r="P75" s="25" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Q75" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R75" s="61" t="s">
         <v>9</v>
@@ -10831,17 +10834,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V75" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W75" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.75</v>
       </c>
       <c r="X75" s="55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Y75" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="76" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10855,13 +10858,13 @@
         <v>91</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G76" s="32" t="s">
         <v>9</v>
@@ -10895,10 +10898,10 @@
         <v>Treliça Espacial Geodésica</v>
       </c>
       <c r="P76" s="25" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="Q76" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="R76" s="61" t="s">
         <v>9</v>
@@ -10916,17 +10919,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V76" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W76" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.76</v>
       </c>
       <c r="X76" s="55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Y76" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="77" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10940,13 +10943,13 @@
         <v>91</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E77" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="F77" s="18" t="s">
         <v>738</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>739</v>
       </c>
       <c r="G77" s="32" t="s">
         <v>9</v>
@@ -10980,10 +10983,10 @@
         <v>Treliça Espacial Arqueada</v>
       </c>
       <c r="P77" s="25" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q77" s="29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="R77" s="61" t="s">
         <v>9</v>
@@ -11001,17 +11004,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V77" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W77" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.77</v>
       </c>
       <c r="X77" s="55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Y77" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="78" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11025,13 +11028,13 @@
         <v>91</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G78" s="32" t="s">
         <v>9</v>
@@ -11065,10 +11068,10 @@
         <v>Treliça Espacial Piramidal</v>
       </c>
       <c r="P78" s="25" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Q78" s="29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="R78" s="61" t="s">
         <v>9</v>
@@ -11086,17 +11089,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V78" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W78" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.78</v>
       </c>
       <c r="X78" s="55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Y78" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="79" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11110,13 +11113,13 @@
         <v>91</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G79" s="32" t="s">
         <v>9</v>
@@ -11150,10 +11153,10 @@
         <v>Treliça Espacial Octaédrica</v>
       </c>
       <c r="P79" s="25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Q79" s="29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="R79" s="61" t="s">
         <v>9</v>
@@ -11171,17 +11174,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V79" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W79" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.79</v>
       </c>
       <c r="X79" s="55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Y79" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="80" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11195,13 +11198,13 @@
         <v>91</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G80" s="32" t="s">
         <v>9</v>
@@ -11235,10 +11238,10 @@
         <v>Treliça Espacial Híbrida</v>
       </c>
       <c r="P80" s="25" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="Q80" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="R80" s="61" t="s">
         <v>9</v>
@@ -11256,17 +11259,17 @@
         <v>Treliças Espaciais</v>
       </c>
       <c r="V80" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W80" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.trtrel.80</v>
       </c>
       <c r="X80" s="55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Y80" s="55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="81" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11280,13 +11283,13 @@
         <v>91</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G81" s="32" t="s">
         <v>9</v>
@@ -11320,10 +11323,10 @@
         <v>Ancora Estrutural</v>
       </c>
       <c r="P81" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Q81" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R81" s="61" t="s">
         <v>9</v>
@@ -11341,17 +11344,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V81" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W81" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.81</v>
       </c>
       <c r="X81" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y81" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11365,13 +11368,13 @@
         <v>91</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G82" s="32" t="s">
         <v>9</v>
@@ -11405,10 +11408,10 @@
         <v>Conector Estrutural</v>
       </c>
       <c r="P82" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Q82" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="R82" s="61" t="s">
         <v>9</v>
@@ -11426,17 +11429,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V82" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W82" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.82</v>
       </c>
       <c r="X82" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Y82" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="83" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11450,13 +11453,13 @@
         <v>91</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F83" s="60" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G83" s="32" t="s">
         <v>9</v>
@@ -11490,10 +11493,10 @@
         <v>Ancoragem de Estai</v>
       </c>
       <c r="P83" s="25" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="Q83" s="29" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="R83" s="61" t="s">
         <v>9</v>
@@ -11511,17 +11514,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V83" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W83" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.83</v>
       </c>
       <c r="X83" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y83" s="59" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="84" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11535,13 +11538,13 @@
         <v>91</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F84" s="60" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G84" s="32" t="s">
         <v>9</v>
@@ -11575,10 +11578,10 @@
         <v>Ancoragem Acoplador</v>
       </c>
       <c r="P84" s="25" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="Q84" s="29" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="R84" s="61" t="s">
         <v>9</v>
@@ -11596,17 +11599,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V84" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W84" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.84</v>
       </c>
       <c r="X84" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y84" s="59" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11620,13 +11623,13 @@
         <v>91</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F85" s="60" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G85" s="32" t="s">
         <v>9</v>
@@ -11660,10 +11663,10 @@
         <v>Ancoragem Extremo Fixo</v>
       </c>
       <c r="P85" s="25" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="Q85" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="R85" s="61" t="s">
         <v>9</v>
@@ -11681,17 +11684,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V85" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W85" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.85</v>
       </c>
       <c r="X85" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y85" s="59" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11705,13 +11708,13 @@
         <v>91</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F86" s="60" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G86" s="32" t="s">
         <v>9</v>
@@ -11745,10 +11748,10 @@
         <v>Ancoragem Extremo Tensionado</v>
       </c>
       <c r="P86" s="25" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="Q86" s="29" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="R86" s="61" t="s">
         <v>9</v>
@@ -11766,17 +11769,17 @@
         <v>Ancoras</v>
       </c>
       <c r="V86" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W86" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teanco.86</v>
       </c>
       <c r="X86" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y86" s="59" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="87" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11790,13 +11793,13 @@
         <v>91</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F87" s="60" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G87" s="32" t="s">
         <v>9</v>
@@ -11830,10 +11833,10 @@
         <v>Estai</v>
       </c>
       <c r="P87" s="25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Q87" s="29" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R87" s="61" t="s">
         <v>9</v>
@@ -11851,17 +11854,17 @@
         <v>Tensores</v>
       </c>
       <c r="V87" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W87" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.87</v>
       </c>
       <c r="X87" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y87" s="59" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="88" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11875,13 +11878,13 @@
         <v>91</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F88" s="60" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G88" s="32" t="s">
         <v>9</v>
@@ -11915,10 +11918,10 @@
         <v>Tensor Barra</v>
       </c>
       <c r="P88" s="25" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="Q88" s="29" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="R88" s="61" t="s">
         <v>9</v>
@@ -11936,17 +11939,17 @@
         <v>Tensores</v>
       </c>
       <c r="V88" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W88" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.88</v>
       </c>
       <c r="X88" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y88" s="59" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11960,13 +11963,13 @@
         <v>91</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F89" s="60" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G89" s="32" t="s">
         <v>9</v>
@@ -12000,10 +12003,10 @@
         <v>Tensor Revestido</v>
       </c>
       <c r="P89" s="25" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="Q89" s="29" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="R89" s="61" t="s">
         <v>9</v>
@@ -12021,17 +12024,17 @@
         <v>Tensores</v>
       </c>
       <c r="V89" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W89" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.89</v>
       </c>
       <c r="X89" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y89" s="59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12045,13 +12048,13 @@
         <v>91</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F90" s="60" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G90" s="32" t="s">
         <v>9</v>
@@ -12085,10 +12088,10 @@
         <v>Tensor Bainha</v>
       </c>
       <c r="P90" s="25" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q90" s="29" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="R90" s="61" t="s">
         <v>9</v>
@@ -12106,17 +12109,17 @@
         <v>Tensores</v>
       </c>
       <c r="V90" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W90" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.90</v>
       </c>
       <c r="X90" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y90" s="59" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12130,13 +12133,13 @@
         <v>91</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F91" s="60" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G91" s="32" t="s">
         <v>9</v>
@@ -12170,10 +12173,10 @@
         <v>Tensor Bainha Acoplador</v>
       </c>
       <c r="P91" s="25" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Q91" s="29" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="R91" s="61" t="s">
         <v>9</v>
@@ -12191,17 +12194,17 @@
         <v>Tensores</v>
       </c>
       <c r="V91" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W91" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.91</v>
       </c>
       <c r="X91" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y91" s="59" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12215,13 +12218,13 @@
         <v>91</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F92" s="60" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G92" s="32" t="s">
         <v>9</v>
@@ -12255,10 +12258,10 @@
         <v>Tensor Bainha Diabolo</v>
       </c>
       <c r="P92" s="25" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Q92" s="29" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="R92" s="61" t="s">
         <v>9</v>
@@ -12276,17 +12279,17 @@
         <v>Tensores</v>
       </c>
       <c r="V92" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W92" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.92</v>
       </c>
       <c r="X92" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y92" s="59" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12300,13 +12303,13 @@
         <v>91</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F93" s="60" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G93" s="32" t="s">
         <v>9</v>
@@ -12340,10 +12343,10 @@
         <v>Tensor Bainha Cabo</v>
       </c>
       <c r="P93" s="25" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="Q93" s="29" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="R93" s="61" t="s">
         <v>9</v>
@@ -12361,17 +12364,17 @@
         <v>Tensores</v>
       </c>
       <c r="V93" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W93" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.93</v>
       </c>
       <c r="X93" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y93" s="59" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="94" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12385,13 +12388,13 @@
         <v>91</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F94" s="60" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G94" s="32" t="s">
         <v>9</v>
@@ -12425,10 +12428,10 @@
         <v>Tensor Injetor</v>
       </c>
       <c r="P94" s="25" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="Q94" s="29" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="R94" s="61" t="s">
         <v>9</v>
@@ -12446,17 +12449,17 @@
         <v>Tensores</v>
       </c>
       <c r="V94" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W94" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.94</v>
       </c>
       <c r="X94" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y94" s="59" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12470,13 +12473,13 @@
         <v>91</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F95" s="60" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G95" s="32" t="s">
         <v>9</v>
@@ -12510,10 +12513,10 @@
         <v>Tensor Trombeta</v>
       </c>
       <c r="P95" s="25" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="Q95" s="29" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="R95" s="61" t="s">
         <v>9</v>
@@ -12531,17 +12534,17 @@
         <v>Tensores</v>
       </c>
       <c r="V95" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W95" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.95</v>
       </c>
       <c r="X95" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y95" s="59" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12555,13 +12558,13 @@
         <v>91</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F96" s="60" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G96" s="32" t="s">
         <v>9</v>
@@ -12595,10 +12598,10 @@
         <v>Tensor Corda</v>
       </c>
       <c r="P96" s="25" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="Q96" s="29" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="R96" s="61" t="s">
         <v>9</v>
@@ -12616,17 +12619,17 @@
         <v>Tensores</v>
       </c>
       <c r="V96" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W96" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.96</v>
       </c>
       <c r="X96" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y96" s="59" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12640,13 +12643,13 @@
         <v>91</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F97" s="60" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G97" s="32" t="s">
         <v>9</v>
@@ -12680,10 +12683,10 @@
         <v>Tensor Fio</v>
       </c>
       <c r="P97" s="25" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="Q97" s="29" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="R97" s="61" t="s">
         <v>9</v>
@@ -12701,17 +12704,17 @@
         <v>Tensores</v>
       </c>
       <c r="V97" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W97" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.97</v>
       </c>
       <c r="X97" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y97" s="59" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12725,13 +12728,13 @@
         <v>91</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G98" s="32" t="s">
         <v>9</v>
@@ -12765,10 +12768,10 @@
         <v>Mastro Estrutural</v>
       </c>
       <c r="P98" s="25" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="Q98" s="29" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="R98" s="61" t="s">
         <v>9</v>
@@ -12786,17 +12789,17 @@
         <v>Tensores</v>
       </c>
       <c r="V98" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W98" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.98</v>
       </c>
       <c r="X98" s="55" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Y98" s="55" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12810,13 +12813,13 @@
         <v>91</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G99" s="32" t="s">
         <v>9</v>
@@ -12850,10 +12853,10 @@
         <v>Membrana Estrutural</v>
       </c>
       <c r="P99" s="25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Q99" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R99" s="61" t="s">
         <v>9</v>
@@ -12871,17 +12874,17 @@
         <v>Tensores</v>
       </c>
       <c r="V99" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W99" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetens.99</v>
       </c>
       <c r="X99" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y99" s="55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12895,13 +12898,13 @@
         <v>92</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G100" s="32" t="s">
         <v>9</v>
@@ -12935,10 +12938,10 @@
         <v>Terça Cobertura</v>
       </c>
       <c r="P100" s="25" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="Q100" s="29" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="R100" s="61" t="s">
         <v>9</v>
@@ -12956,17 +12959,17 @@
         <v>Terças</v>
       </c>
       <c r="V100" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W100" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teterç.100</v>
       </c>
       <c r="X100" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y100" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12980,13 +12983,13 @@
         <v>92</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E101" s="18" t="s">
+        <v>885</v>
+      </c>
+      <c r="F101" s="18" t="s">
         <v>886</v>
-      </c>
-      <c r="F101" s="18" t="s">
-        <v>887</v>
       </c>
       <c r="G101" s="32" t="s">
         <v>9</v>
@@ -13020,10 +13023,10 @@
         <v>Terça Fachada</v>
       </c>
       <c r="P101" s="25" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="Q101" s="29" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="R101" s="61" t="s">
         <v>9</v>
@@ -13041,17 +13044,17 @@
         <v>Terças</v>
       </c>
       <c r="V101" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W101" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teterç.101</v>
       </c>
       <c r="X101" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y101" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13065,13 +13068,13 @@
         <v>92</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G102" s="32" t="s">
         <v>9</v>
@@ -13105,10 +13108,10 @@
         <v>Terça Cartola</v>
       </c>
       <c r="P102" s="25" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="Q102" s="29" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="R102" s="61" t="s">
         <v>9</v>
@@ -13126,17 +13129,17 @@
         <v>Terças</v>
       </c>
       <c r="V102" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W102" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.teterç.102</v>
       </c>
       <c r="X102" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y102" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13150,13 +13153,13 @@
         <v>92</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E103" s="18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F103" s="18" t="s">
         <v>1006</v>
-      </c>
-      <c r="F103" s="18" t="s">
-        <v>1007</v>
       </c>
       <c r="G103" s="32" t="s">
         <v>9</v>
@@ -13190,10 +13193,10 @@
         <v>Tirante Beiral</v>
       </c>
       <c r="P103" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Q103" s="29" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="R103" s="61" t="s">
         <v>9</v>
@@ -13211,17 +13214,17 @@
         <v>Tirantes</v>
       </c>
       <c r="V103" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W103" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetira.103</v>
       </c>
       <c r="X103" s="55" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Y103" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13235,13 +13238,13 @@
         <v>92</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G104" s="32" t="s">
         <v>9</v>
@@ -13275,10 +13278,10 @@
         <v>Tirante Terça</v>
       </c>
       <c r="P104" s="25" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="Q104" s="29" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="R104" s="61" t="s">
         <v>9</v>
@@ -13296,17 +13299,17 @@
         <v>Tirantes</v>
       </c>
       <c r="V104" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W104" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetira.104</v>
       </c>
       <c r="X104" s="55" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Y104" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13320,13 +13323,13 @@
         <v>92</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G105" s="32" t="s">
         <v>9</v>
@@ -13360,10 +13363,10 @@
         <v>Tirante Cumeeira</v>
       </c>
       <c r="P105" s="25" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Q105" s="29" t="s">
         <v>1012</v>
-      </c>
-      <c r="Q105" s="29" t="s">
-        <v>1013</v>
       </c>
       <c r="R105" s="61" t="s">
         <v>9</v>
@@ -13381,17 +13384,17 @@
         <v>Tirantes</v>
       </c>
       <c r="V105" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W105" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tetira.105</v>
       </c>
       <c r="X105" s="55" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Y105" s="55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13405,13 +13408,13 @@
         <v>92</v>
       </c>
       <c r="D106" s="18" t="s">
+        <v>921</v>
+      </c>
+      <c r="E106" s="18" t="s">
         <v>922</v>
       </c>
-      <c r="E106" s="18" t="s">
-        <v>923</v>
-      </c>
       <c r="F106" s="18" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G106" s="32" t="s">
         <v>9</v>
@@ -13445,10 +13448,10 @@
         <v>Frechal Alinhamento</v>
       </c>
       <c r="P106" s="25" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="Q106" s="29" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="R106" s="61" t="s">
         <v>9</v>
@@ -13466,17 +13469,17 @@
         <v>Frechais</v>
       </c>
       <c r="V106" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W106" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.tefrec.106</v>
       </c>
       <c r="X106" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y106" s="59" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13487,16 +13490,16 @@
         <v>76</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D107" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="E107" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="E107" s="18" t="s">
-        <v>927</v>
-      </c>
       <c r="F107" s="18" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G107" s="32" t="s">
         <v>9</v>
@@ -13530,10 +13533,10 @@
         <v>Painel Sanduíche Fachada</v>
       </c>
       <c r="P107" s="25" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="Q107" s="29" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="R107" s="61" t="s">
         <v>9</v>
@@ -13551,17 +13554,17 @@
         <v>Paineis Sanduíches</v>
       </c>
       <c r="V107" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W107" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sipain.107</v>
       </c>
       <c r="X107" s="55" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="Y107" s="55" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13572,16 +13575,16 @@
         <v>76</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D108" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="E108" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="E108" s="18" t="s">
-        <v>927</v>
-      </c>
       <c r="F108" s="18" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G108" s="32" t="s">
         <v>9</v>
@@ -13615,10 +13618,10 @@
         <v>Painel Sanduíche Térmico</v>
       </c>
       <c r="P108" s="25" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="Q108" s="29" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="R108" s="61" t="s">
         <v>9</v>
@@ -13636,17 +13639,17 @@
         <v>Paineis Sanduíches</v>
       </c>
       <c r="V108" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W108" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sipain.108</v>
       </c>
       <c r="X108" s="55" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="Y108" s="55" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13657,16 +13660,16 @@
         <v>76</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G109" s="32" t="s">
         <v>9</v>
@@ -13700,10 +13703,10 @@
         <v>Telha Sanduíche Zipada</v>
       </c>
       <c r="P109" s="25" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="Q109" s="29" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="R109" s="61" t="s">
         <v>9</v>
@@ -13721,17 +13724,17 @@
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V109" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W109" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.109</v>
       </c>
       <c r="X109" s="55" t="s">
+        <v>942</v>
+      </c>
+      <c r="Y109" s="59" t="s">
         <v>943</v>
-      </c>
-      <c r="Y109" s="59" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13742,16 +13745,16 @@
         <v>76</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G110" s="32" t="s">
         <v>9</v>
@@ -13785,10 +13788,10 @@
         <v>Telha Sanduíche Ondulada</v>
       </c>
       <c r="P110" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="Q110" s="29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="R110" s="61" t="s">
         <v>9</v>
@@ -13806,17 +13809,17 @@
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V110" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W110" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.110</v>
       </c>
       <c r="X110" s="55" t="s">
+        <v>942</v>
+      </c>
+      <c r="Y110" s="59" t="s">
         <v>943</v>
-      </c>
-      <c r="Y110" s="59" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13827,16 +13830,16 @@
         <v>76</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G111" s="32" t="s">
         <v>9</v>
@@ -13870,10 +13873,10 @@
         <v>Telha Sanduíche Trapezoidal</v>
       </c>
       <c r="P111" s="25" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="Q111" s="29" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="R111" s="61" t="s">
         <v>9</v>
@@ -13891,17 +13894,17 @@
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V111" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W111" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.111</v>
       </c>
       <c r="X111" s="55" t="s">
+        <v>942</v>
+      </c>
+      <c r="Y111" s="59" t="s">
         <v>943</v>
-      </c>
-      <c r="Y111" s="59" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13912,16 +13915,16 @@
         <v>76</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G112" s="32" t="s">
         <v>9</v>
@@ -13955,10 +13958,10 @@
         <v>Telha Sanduíche Solar</v>
       </c>
       <c r="P112" s="25" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="Q112" s="29" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="R112" s="61" t="s">
         <v>9</v>
@@ -13976,17 +13979,17 @@
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V112" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W112" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.112</v>
       </c>
       <c r="X112" s="55" t="s">
+        <v>942</v>
+      </c>
+      <c r="Y112" s="59" t="s">
         <v>943</v>
-      </c>
-      <c r="Y112" s="59" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="113" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13997,16 +14000,16 @@
         <v>76</v>
       </c>
       <c r="C113" s="18" t="s">
+        <v>898</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="E113" s="18" t="s">
         <v>899</v>
       </c>
-      <c r="D113" s="18" t="s">
-        <v>902</v>
-      </c>
-      <c r="E113" s="18" t="s">
-        <v>900</v>
-      </c>
       <c r="F113" s="18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G113" s="32" t="s">
         <v>9</v>
@@ -14040,10 +14043,10 @@
         <v>Telha Trapezoidal</v>
       </c>
       <c r="P113" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="Q113" s="29" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="R113" s="61" t="s">
         <v>9</v>
@@ -14061,17 +14064,17 @@
         <v>Telhas Perfiladas</v>
       </c>
       <c r="V113" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W113" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.113</v>
       </c>
       <c r="X113" s="55" t="s">
+        <v>942</v>
+      </c>
+      <c r="Y113" s="59" t="s">
         <v>943</v>
-      </c>
-      <c r="Y113" s="59" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="114" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14082,16 +14085,16 @@
         <v>76</v>
       </c>
       <c r="C114" s="18" t="s">
+        <v>898</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="E114" s="18" t="s">
         <v>899</v>
       </c>
-      <c r="D114" s="18" t="s">
-        <v>902</v>
-      </c>
-      <c r="E114" s="18" t="s">
+      <c r="F114" s="18" t="s">
         <v>900</v>
-      </c>
-      <c r="F114" s="18" t="s">
-        <v>901</v>
       </c>
       <c r="G114" s="32" t="s">
         <v>9</v>
@@ -14125,10 +14128,10 @@
         <v>Telha Ondulada</v>
       </c>
       <c r="P114" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="Q114" s="29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="R114" s="61" t="s">
         <v>9</v>
@@ -14146,17 +14149,17 @@
         <v>Telhas Perfiladas</v>
       </c>
       <c r="V114" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W114" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.114</v>
       </c>
       <c r="X114" s="55" t="s">
+        <v>942</v>
+      </c>
+      <c r="Y114" s="59" t="s">
         <v>943</v>
-      </c>
-      <c r="Y114" s="59" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="115" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14167,16 +14170,16 @@
         <v>76</v>
       </c>
       <c r="C115" s="18" t="s">
+        <v>898</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="E115" s="18" t="s">
         <v>899</v>
       </c>
-      <c r="D115" s="18" t="s">
+      <c r="F115" s="18" t="s">
         <v>902</v>
-      </c>
-      <c r="E115" s="18" t="s">
-        <v>900</v>
-      </c>
-      <c r="F115" s="18" t="s">
-        <v>903</v>
       </c>
       <c r="G115" s="32" t="s">
         <v>9</v>
@@ -14210,10 +14213,10 @@
         <v>Telha Zipada</v>
       </c>
       <c r="P115" s="25" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="Q115" s="29" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="R115" s="61" t="s">
         <v>9</v>
@@ -14231,17 +14234,17 @@
         <v>Telhas Perfiladas</v>
       </c>
       <c r="V115" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W115" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.sitelh.115</v>
       </c>
       <c r="X115" s="55" t="s">
+        <v>942</v>
+      </c>
+      <c r="Y115" s="59" t="s">
         <v>943</v>
-      </c>
-      <c r="Y115" s="59" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="116" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14252,16 +14255,16 @@
         <v>76</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G116" s="32" t="s">
         <v>9</v>
@@ -14295,10 +14298,10 @@
         <v>Chumbador Interno</v>
       </c>
       <c r="P116" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q116" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="R116" s="61" t="s">
         <v>9</v>
@@ -14316,17 +14319,17 @@
         <v>Chumbadores</v>
       </c>
       <c r="V116" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W116" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fichum.116</v>
       </c>
       <c r="X116" s="55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Y116" s="55" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="117" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14337,16 +14340,16 @@
         <v>76</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G117" s="32" t="s">
         <v>9</v>
@@ -14380,10 +14383,10 @@
         <v>Chumbador Externo</v>
       </c>
       <c r="P117" s="25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Q117" s="29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R117" s="61" t="s">
         <v>9</v>
@@ -14401,17 +14404,17 @@
         <v>Chumbadores</v>
       </c>
       <c r="V117" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W117" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fichum.117</v>
       </c>
       <c r="X117" s="55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Y117" s="55" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="118" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14422,16 +14425,16 @@
         <v>76</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F118" s="49" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G118" s="32" t="s">
         <v>9</v>
@@ -14468,7 +14471,7 @@
         <v>558</v>
       </c>
       <c r="Q118" s="29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R118" s="61" t="s">
         <v>9</v>
@@ -14486,17 +14489,17 @@
         <v>Parafusos</v>
       </c>
       <c r="V118" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W118" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipara.118</v>
       </c>
       <c r="X118" s="55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Y118" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="119" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14507,13 +14510,13 @@
         <v>76</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F119" s="49" t="s">
         <v>545</v>
@@ -14553,7 +14556,7 @@
         <v>555</v>
       </c>
       <c r="Q119" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="R119" s="61" t="s">
         <v>9</v>
@@ -14571,17 +14574,17 @@
         <v>Parafusos</v>
       </c>
       <c r="V119" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W119" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipara.119</v>
       </c>
       <c r="X119" s="55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Y119" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="120" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14592,13 +14595,13 @@
         <v>76</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F120" s="18" t="s">
         <v>541</v>
@@ -14638,7 +14641,7 @@
         <v>542</v>
       </c>
       <c r="Q120" s="29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R120" s="61" t="s">
         <v>9</v>
@@ -14656,17 +14659,17 @@
         <v>Parafusos</v>
       </c>
       <c r="V120" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W120" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipara.120</v>
       </c>
       <c r="X120" s="55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Y120" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="121" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14677,13 +14680,13 @@
         <v>76</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F121" s="48" t="s">
         <v>540</v>
@@ -14723,7 +14726,7 @@
         <v>543</v>
       </c>
       <c r="Q121" s="29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="R121" s="61" t="s">
         <v>9</v>
@@ -14741,17 +14744,17 @@
         <v>Parafusos</v>
       </c>
       <c r="V121" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W121" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipara.121</v>
       </c>
       <c r="X121" s="55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Y121" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="122" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14762,13 +14765,13 @@
         <v>76</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F122" s="18" t="s">
         <v>556</v>
@@ -14808,7 +14811,7 @@
         <v>544</v>
       </c>
       <c r="Q122" s="29" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R122" s="61" t="s">
         <v>9</v>
@@ -14826,17 +14829,17 @@
         <v>Parafusos</v>
       </c>
       <c r="V122" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W122" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipara.122</v>
       </c>
       <c r="X122" s="55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Y122" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="123" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14847,16 +14850,16 @@
         <v>76</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G123" s="32" t="s">
         <v>9</v>
@@ -14890,10 +14893,10 @@
         <v>Pino de Cisalhamento</v>
       </c>
       <c r="P123" s="25" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Q123" s="29" t="s">
         <v>1046</v>
-      </c>
-      <c r="Q123" s="29" t="s">
-        <v>1047</v>
       </c>
       <c r="R123" s="61" t="s">
         <v>9</v>
@@ -14911,17 +14914,17 @@
         <v>Pinos</v>
       </c>
       <c r="V123" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W123" s="30" t="str">
         <f t="shared" si="111"/>
         <v>k.fipino.123</v>
       </c>
       <c r="X123" s="55" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Y123" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="124" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -14932,16 +14935,16 @@
         <v>76</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E124" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F124" s="18" t="s">
         <v>1002</v>
-      </c>
-      <c r="F124" s="18" t="s">
-        <v>1003</v>
       </c>
       <c r="G124" s="32" t="s">
         <v>9</v>
@@ -14975,10 +14978,10 @@
         <v>Pórtico Galpão</v>
       </c>
       <c r="P124" s="25" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="Q124" s="29" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="R124" s="61" t="s">
         <v>9</v>
@@ -14996,17 +14999,17 @@
         <v>Pórticos de Galpões</v>
       </c>
       <c r="V124" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W124" s="30" t="str">
         <f t="shared" ref="W124:W126" si="172">CONCATENATE("k.",LOWER(LEFT(D124,2)),LOWER(LEFT(E124,4)),".",A124)</f>
         <v>k.gapórt.124</v>
       </c>
       <c r="X124" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="Y124" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="125" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -15017,16 +15020,16 @@
         <v>76</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G125" s="32" t="s">
         <v>9</v>
@@ -15060,10 +15063,10 @@
         <v>Pórtico Galpão e Anexo</v>
       </c>
       <c r="P125" s="25" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Q125" s="29" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="R125" s="61" t="s">
         <v>9</v>
@@ -15081,17 +15084,17 @@
         <v>Pórticos de Galpões</v>
       </c>
       <c r="V125" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W125" s="30" t="str">
         <f t="shared" si="172"/>
         <v>k.gapórt.125</v>
       </c>
       <c r="X125" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="Y125" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="126" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -15102,16 +15105,16 @@
         <v>76</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G126" s="32" t="s">
         <v>9</v>
@@ -15145,10 +15148,10 @@
         <v>Pórtico Galpão Vãos Múltiplos</v>
       </c>
       <c r="P126" s="25" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="Q126" s="29" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="R126" s="61" t="s">
         <v>9</v>
@@ -15166,17 +15169,17 @@
         <v>Pórticos de Galpões</v>
       </c>
       <c r="V126" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W126" s="30" t="str">
         <f t="shared" si="172"/>
         <v>k.gapórt.126</v>
       </c>
       <c r="X126" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="Y126" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -15436,7 +15439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2:L2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -15574,13 +15577,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>1063</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>613</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>1064</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>581</v>
@@ -15604,7 +15607,7 @@
         <v>345</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M2" s="42">
         <v>485</v>
@@ -15643,7 +15646,7 @@
         <v>16</v>
       </c>
       <c r="Y2" s="52" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Z2" s="39" t="s">
         <v>9</v>
@@ -15672,13 +15675,13 @@
         <v>581</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F3" s="45" t="s">
         <v>9</v>
@@ -15699,7 +15702,7 @@
         <v>345</v>
       </c>
       <c r="L3" s="39" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M3" s="42">
         <v>485</v>
@@ -15738,7 +15741,7 @@
         <v>16</v>
       </c>
       <c r="Y3" s="52" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Z3" s="39" t="s">
         <v>9</v>
@@ -15767,13 +15770,13 @@
         <v>580</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>9</v>
@@ -15794,7 +15797,7 @@
         <v>345</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M4" s="42">
         <v>480</v>
@@ -15833,13 +15836,13 @@
         <v>16</v>
       </c>
       <c r="Y4" s="52" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Z4" s="39" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AA4" s="19" t="s">
         <v>1065</v>
-      </c>
-      <c r="Z4" s="39" t="s">
-        <v>1067</v>
-      </c>
-      <c r="AA4" s="19" t="s">
-        <v>1066</v>
       </c>
       <c r="AB4" s="39" t="s">
         <v>9</v>
@@ -15862,7 +15865,7 @@
         <v>564</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>9</v>
@@ -15889,7 +15892,7 @@
         <v>250</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M5" s="42">
         <v>400</v>
@@ -15957,7 +15960,7 @@
         <v>562</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>9</v>
@@ -15984,7 +15987,7 @@
         <v>345</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M6" s="42">
         <v>450</v>
@@ -16052,7 +16055,7 @@
         <v>563</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>9</v>
@@ -16079,7 +16082,7 @@
         <v>415</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M7" s="42">
         <v>520</v>
@@ -16147,7 +16150,7 @@
         <v>582</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>9</v>
@@ -16174,7 +16177,7 @@
         <v>350</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M8" s="42">
         <v>500</v>
@@ -16213,13 +16216,13 @@
         <v>16</v>
       </c>
       <c r="Y8" s="52" t="s">
-        <v>583</v>
+        <v>1068</v>
       </c>
       <c r="Z8" s="39" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>9</v>
+        <v>1069</v>
       </c>
       <c r="AB8" s="39" t="s">
         <v>9</v>
@@ -16239,10 +16242,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>9</v>
@@ -16308,7 +16311,7 @@
         <v>16</v>
       </c>
       <c r="Y9" s="52" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="Z9" s="39" t="s">
         <v>9</v>
@@ -16334,10 +16337,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>9</v>
@@ -16403,7 +16406,7 @@
         <v>16</v>
       </c>
       <c r="Y10" s="52" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="Z10" s="39" t="s">
         <v>9</v>
@@ -16432,7 +16435,7 @@
         <v>391</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>577</v>
@@ -16527,7 +16530,7 @@
         <v>392</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>577</v>
@@ -16622,7 +16625,7 @@
         <v>393</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>577</v>
@@ -16717,7 +16720,7 @@
         <v>394</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>577</v>
@@ -16812,7 +16815,7 @@
         <v>395</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>577</v>
@@ -16907,7 +16910,7 @@
         <v>396</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>577</v>
@@ -17002,7 +17005,7 @@
         <v>397</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>577</v>
@@ -17097,7 +17100,7 @@
         <v>398</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>577</v>
@@ -17192,7 +17195,7 @@
         <v>399</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>577</v>
@@ -17287,7 +17290,7 @@
         <v>400</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D20" s="37" t="s">
         <v>577</v>
@@ -17382,7 +17385,7 @@
         <v>401</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D21" s="37" t="s">
         <v>577</v>
@@ -17477,7 +17480,7 @@
         <v>402</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>577</v>
@@ -17572,7 +17575,7 @@
         <v>403</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>577</v>
@@ -17667,7 +17670,7 @@
         <v>404</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D24" s="37" t="s">
         <v>577</v>
@@ -17762,7 +17765,7 @@
         <v>405</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>577</v>
@@ -17857,7 +17860,7 @@
         <v>406</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>577</v>
@@ -17952,7 +17955,7 @@
         <v>407</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D27" s="37" t="s">
         <v>577</v>
@@ -18047,7 +18050,7 @@
         <v>408</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>577</v>
@@ -18142,7 +18145,7 @@
         <v>409</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>577</v>
@@ -18237,7 +18240,7 @@
         <v>410</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>577</v>
@@ -18332,7 +18335,7 @@
         <v>411</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>577</v>
@@ -18427,7 +18430,7 @@
         <v>412</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D32" s="37" t="s">
         <v>577</v>
@@ -18522,7 +18525,7 @@
         <v>413</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>577</v>
@@ -18617,7 +18620,7 @@
         <v>414</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>577</v>
@@ -18712,7 +18715,7 @@
         <v>415</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>577</v>
@@ -18807,7 +18810,7 @@
         <v>416</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>577</v>
@@ -18902,7 +18905,7 @@
         <v>417</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>577</v>
@@ -18997,7 +19000,7 @@
         <v>418</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>577</v>
@@ -19092,7 +19095,7 @@
         <v>419</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>577</v>
@@ -19187,7 +19190,7 @@
         <v>420</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>577</v>
@@ -19282,7 +19285,7 @@
         <v>421</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>577</v>
@@ -19377,7 +19380,7 @@
         <v>422</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D42" s="37" t="s">
         <v>577</v>
@@ -19472,7 +19475,7 @@
         <v>423</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>577</v>
@@ -19567,7 +19570,7 @@
         <v>424</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D44" s="37" t="s">
         <v>577</v>
@@ -19662,7 +19665,7 @@
         <v>425</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>577</v>
@@ -19757,7 +19760,7 @@
         <v>426</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D46" s="37" t="s">
         <v>577</v>
@@ -19852,7 +19855,7 @@
         <v>427</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>577</v>
@@ -19947,7 +19950,7 @@
         <v>428</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>577</v>
@@ -20042,7 +20045,7 @@
         <v>429</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>577</v>
@@ -20137,7 +20140,7 @@
         <v>430</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>577</v>
@@ -20232,7 +20235,7 @@
         <v>431</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>577</v>
@@ -20327,7 +20330,7 @@
         <v>432</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>577</v>
@@ -20422,7 +20425,7 @@
         <v>433</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D53" s="37" t="s">
         <v>577</v>
@@ -20517,7 +20520,7 @@
         <v>434</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D54" s="37" t="s">
         <v>577</v>
@@ -20612,7 +20615,7 @@
         <v>435</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D55" s="37" t="s">
         <v>577</v>
@@ -20707,7 +20710,7 @@
         <v>436</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D56" s="37" t="s">
         <v>577</v>
@@ -20802,7 +20805,7 @@
         <v>437</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D57" s="37" t="s">
         <v>577</v>
@@ -20897,7 +20900,7 @@
         <v>438</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D58" s="37" t="s">
         <v>577</v>
@@ -20992,7 +20995,7 @@
         <v>439</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D59" s="37" t="s">
         <v>577</v>
@@ -21087,7 +21090,7 @@
         <v>440</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D60" s="37" t="s">
         <v>577</v>
@@ -21182,7 +21185,7 @@
         <v>441</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D61" s="37" t="s">
         <v>577</v>
@@ -21277,7 +21280,7 @@
         <v>442</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D62" s="37" t="s">
         <v>577</v>
@@ -21372,7 +21375,7 @@
         <v>443</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D63" s="37" t="s">
         <v>577</v>
@@ -21467,7 +21470,7 @@
         <v>444</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D64" s="37" t="s">
         <v>577</v>
@@ -21562,7 +21565,7 @@
         <v>445</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D65" s="37" t="s">
         <v>577</v>
@@ -21657,7 +21660,7 @@
         <v>446</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D66" s="37" t="s">
         <v>577</v>
@@ -21752,7 +21755,7 @@
         <v>447</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D67" s="37" t="s">
         <v>577</v>
@@ -21847,7 +21850,7 @@
         <v>448</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D68" s="37" t="s">
         <v>577</v>
@@ -21942,7 +21945,7 @@
         <v>449</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D69" s="37" t="s">
         <v>577</v>
@@ -22037,7 +22040,7 @@
         <v>450</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D70" s="37" t="s">
         <v>577</v>
@@ -22132,7 +22135,7 @@
         <v>451</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D71" s="37" t="s">
         <v>577</v>
@@ -22227,7 +22230,7 @@
         <v>452</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D72" s="37" t="s">
         <v>577</v>
@@ -22322,7 +22325,7 @@
         <v>453</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D73" s="37" t="s">
         <v>577</v>
@@ -22417,7 +22420,7 @@
         <v>454</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D74" s="37" t="s">
         <v>577</v>
@@ -22512,7 +22515,7 @@
         <v>455</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D75" s="37" t="s">
         <v>577</v>
@@ -22607,7 +22610,7 @@
         <v>456</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D76" s="37" t="s">
         <v>577</v>
@@ -22702,7 +22705,7 @@
         <v>457</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D77" s="37" t="s">
         <v>577</v>
@@ -22797,7 +22800,7 @@
         <v>458</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D78" s="37" t="s">
         <v>577</v>
@@ -22892,7 +22895,7 @@
         <v>459</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D79" s="37" t="s">
         <v>577</v>
@@ -22987,7 +22990,7 @@
         <v>460</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D80" s="37" t="s">
         <v>577</v>
@@ -23082,7 +23085,7 @@
         <v>461</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D81" s="37" t="s">
         <v>577</v>
@@ -23177,7 +23180,7 @@
         <v>462</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D82" s="37" t="s">
         <v>577</v>
@@ -23272,7 +23275,7 @@
         <v>463</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D83" s="37" t="s">
         <v>577</v>
@@ -23367,7 +23370,7 @@
         <v>464</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D84" s="37" t="s">
         <v>577</v>
@@ -23462,7 +23465,7 @@
         <v>465</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D85" s="37" t="s">
         <v>577</v>
@@ -23557,7 +23560,7 @@
         <v>466</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D86" s="37" t="s">
         <v>577</v>
@@ -23652,7 +23655,7 @@
         <v>467</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D87" s="37" t="s">
         <v>577</v>
@@ -23747,7 +23750,7 @@
         <v>517</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D88" s="37" t="s">
         <v>577</v>
@@ -23842,7 +23845,7 @@
         <v>518</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D89" s="37" t="s">
         <v>577</v>
@@ -23937,7 +23940,7 @@
         <v>519</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D90" s="37" t="s">
         <v>577</v>
@@ -24032,7 +24035,7 @@
         <v>468</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D91" s="37" t="s">
         <v>577</v>
@@ -24127,7 +24130,7 @@
         <v>469</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D92" s="37" t="s">
         <v>577</v>
@@ -24222,7 +24225,7 @@
         <v>470</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D93" s="37" t="s">
         <v>577</v>
@@ -24317,7 +24320,7 @@
         <v>471</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D94" s="37" t="s">
         <v>577</v>
@@ -24412,7 +24415,7 @@
         <v>472</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D95" s="37" t="s">
         <v>577</v>
@@ -24507,7 +24510,7 @@
         <v>473</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D96" s="37" t="s">
         <v>577</v>
@@ -24602,7 +24605,7 @@
         <v>474</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D97" s="37" t="s">
         <v>577</v>
@@ -24697,7 +24700,7 @@
         <v>475</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D98" s="37" t="s">
         <v>577</v>
@@ -24792,7 +24795,7 @@
         <v>476</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D99" s="37" t="s">
         <v>577</v>
@@ -24887,7 +24890,7 @@
         <v>477</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D100" s="37" t="s">
         <v>577</v>
@@ -24982,7 +24985,7 @@
         <v>478</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D101" s="37" t="s">
         <v>577</v>
@@ -25077,7 +25080,7 @@
         <v>479</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D102" s="37" t="s">
         <v>577</v>
@@ -25172,7 +25175,7 @@
         <v>480</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D103" s="37" t="s">
         <v>577</v>
@@ -25267,7 +25270,7 @@
         <v>481</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D104" s="37" t="s">
         <v>577</v>
@@ -25362,7 +25365,7 @@
         <v>482</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D105" s="37" t="s">
         <v>577</v>
@@ -25457,7 +25460,7 @@
         <v>483</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D106" s="37" t="s">
         <v>577</v>
@@ -25552,7 +25555,7 @@
         <v>484</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D107" s="37" t="s">
         <v>577</v>
@@ -25647,7 +25650,7 @@
         <v>485</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D108" s="37" t="s">
         <v>577</v>
@@ -25742,7 +25745,7 @@
         <v>486</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D109" s="37" t="s">
         <v>577</v>
@@ -25837,7 +25840,7 @@
         <v>487</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D110" s="37" t="s">
         <v>577</v>
@@ -25932,7 +25935,7 @@
         <v>488</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D111" s="37" t="s">
         <v>577</v>
@@ -26027,7 +26030,7 @@
         <v>489</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D112" s="37" t="s">
         <v>577</v>
@@ -26122,7 +26125,7 @@
         <v>490</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D113" s="37" t="s">
         <v>577</v>
@@ -26217,7 +26220,7 @@
         <v>491</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D114" s="37" t="s">
         <v>577</v>
@@ -26312,7 +26315,7 @@
         <v>492</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D115" s="37" t="s">
         <v>577</v>
@@ -26407,7 +26410,7 @@
         <v>493</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D116" s="37" t="s">
         <v>577</v>
@@ -26502,7 +26505,7 @@
         <v>494</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D117" s="37" t="s">
         <v>577</v>
@@ -26597,7 +26600,7 @@
         <v>495</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D118" s="37" t="s">
         <v>577</v>
@@ -26692,7 +26695,7 @@
         <v>496</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D119" s="37" t="s">
         <v>577</v>
@@ -26787,7 +26790,7 @@
         <v>497</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D120" s="37" t="s">
         <v>577</v>
@@ -26882,7 +26885,7 @@
         <v>498</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D121" s="37" t="s">
         <v>577</v>
@@ -26977,7 +26980,7 @@
         <v>499</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D122" s="37" t="s">
         <v>577</v>
@@ -27072,7 +27075,7 @@
         <v>500</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D123" s="37" t="s">
         <v>577</v>
@@ -27167,7 +27170,7 @@
         <v>501</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D124" s="37" t="s">
         <v>577</v>
@@ -27262,7 +27265,7 @@
         <v>502</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D125" s="37" t="s">
         <v>577</v>
@@ -27357,7 +27360,7 @@
         <v>503</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D126" s="37" t="s">
         <v>577</v>
@@ -27452,7 +27455,7 @@
         <v>504</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D127" s="37" t="s">
         <v>577</v>
@@ -27547,7 +27550,7 @@
         <v>505</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D128" s="37" t="s">
         <v>577</v>
@@ -27642,7 +27645,7 @@
         <v>506</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D129" s="37" t="s">
         <v>577</v>
@@ -27737,7 +27740,7 @@
         <v>507</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D130" s="37" t="s">
         <v>577</v>
@@ -27832,7 +27835,7 @@
         <v>508</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D131" s="37" t="s">
         <v>577</v>
@@ -27927,7 +27930,7 @@
         <v>509</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D132" s="37" t="s">
         <v>577</v>
@@ -28022,7 +28025,7 @@
         <v>510</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D133" s="37" t="s">
         <v>577</v>
@@ -28117,7 +28120,7 @@
         <v>511</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D134" s="37" t="s">
         <v>577</v>
@@ -28212,7 +28215,7 @@
         <v>512</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D135" s="37" t="s">
         <v>577</v>
@@ -28307,7 +28310,7 @@
         <v>513</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D136" s="37" t="s">
         <v>577</v>
@@ -28402,7 +28405,7 @@
         <v>514</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D137" s="37" t="s">
         <v>577</v>
@@ -28497,7 +28500,7 @@
         <v>515</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D138" s="37" t="s">
         <v>577</v>
@@ -28592,7 +28595,7 @@
         <v>516</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D139" s="37" t="s">
         <v>577</v>
@@ -29067,7 +29070,7 @@
         <v>578</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D144" s="37" t="s">
         <v>577</v>
@@ -29133,7 +29136,7 @@
         <v>16</v>
       </c>
       <c r="Y144" s="52" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Z144" s="39" t="s">
         <v>9</v>
@@ -29162,7 +29165,7 @@
         <v>579</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D145" s="37" t="s">
         <v>577</v>
@@ -29228,7 +29231,7 @@
         <v>16</v>
       </c>
       <c r="Y145" s="52" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Z145" s="39" t="s">
         <v>9</v>
@@ -29323,7 +29326,7 @@
         <v>16</v>
       </c>
       <c r="Y146" s="52" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Z146" s="39" t="s">
         <v>9</v>
@@ -29418,7 +29421,7 @@
         <v>16</v>
       </c>
       <c r="Y147" s="52" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Z147" s="39" t="s">
         <v>9</v>
@@ -29513,7 +29516,7 @@
         <v>16</v>
       </c>
       <c r="Y148" s="52" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Z148" s="39" t="s">
         <v>9</v>

--- a/Versão5/META/Ontologia_METAL.xlsx
+++ b/Versão5/META/Ontologia_METAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\META\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637BC675-F08C-4BD2-B345-25FEAEFF05FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A1225D-5E53-4655-9A51-B9EEE0FE0E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6367" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6493" uniqueCount="1071">
   <si>
     <t>Edição</t>
   </si>
@@ -3281,6 +3281,9 @@
   </si>
   <si>
     <t>"Usar elementos de ligação de alta resistência, como parafusos, porcas e arruelas que cumpram à composição química prescrita em ASTM A325, Tipo 3, Grau A ou equivalente."</t>
+  </si>
+  <si>
+    <t>ABNT</t>
   </si>
 </sst>
 </file>
@@ -4240,14 +4243,14 @@
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.3046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.69140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="13"/>
+    <col min="1" max="1" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4255,7 +4258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -4263,7 +4266,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -4271,7 +4274,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -4297,7 +4300,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4305,7 +4308,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4313,7 +4316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -4329,7 +4332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -4337,7 +4340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -4345,7 +4348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -4353,7 +4356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -4369,7 +4372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -4377,7 +4380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -4385,16 +4388,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45940.384294212963</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45958.471916666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -4402,7 +4405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -4410,7 +4413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -4418,7 +4421,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
@@ -4441,42 +4444,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
-  <dimension ref="A1:Y126"/>
+  <dimension ref="A1:Z126"/>
   <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2:Z126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69140625" defaultRowHeight="6.55" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.15234375" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="10.69140625" customWidth="1"/>
-    <col min="4" max="4" width="9.84375" customWidth="1"/>
-    <col min="5" max="5" width="15.3828125" customWidth="1"/>
-    <col min="6" max="6" width="17.3046875" customWidth="1"/>
-    <col min="7" max="7" width="11.69140625" customWidth="1"/>
-    <col min="8" max="8" width="14.3046875" customWidth="1"/>
-    <col min="9" max="9" width="12.84375" customWidth="1"/>
-    <col min="10" max="10" width="15.23046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.3828125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3828125" customWidth="1"/>
-    <col min="13" max="13" width="10.15234375" customWidth="1"/>
-    <col min="14" max="14" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.53515625" customWidth="1"/>
-    <col min="16" max="16" width="40.69140625" customWidth="1"/>
-    <col min="17" max="17" width="41.3828125" customWidth="1"/>
-    <col min="18" max="18" width="4.53515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.69140625" style="40" customWidth="1"/>
-    <col min="20" max="20" width="9.15234375" style="40" customWidth="1"/>
-    <col min="21" max="21" width="13.69140625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="16" max="16" width="40.7109375" customWidth="1"/>
+    <col min="17" max="17" width="41.42578125" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="40" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="40" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" style="40" customWidth="1"/>
     <col min="22" max="22" width="7" style="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.84375" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="20.53515625" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="20.5703125" customWidth="1"/>
+    <col min="26" max="26" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26">
         <v>0</v>
       </c>
@@ -4552,8 +4556,11 @@
       <c r="Y1" s="27" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z1" s="27" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>2</v>
       </c>
@@ -4639,8 +4646,11 @@
       <c r="Y2" s="55" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z2" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>3</v>
       </c>
@@ -4726,8 +4736,11 @@
       <c r="Y3" s="55" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z3" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>4</v>
       </c>
@@ -4811,8 +4824,11 @@
       <c r="Y4" s="55" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z4" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>5</v>
       </c>
@@ -4896,8 +4912,11 @@
       <c r="Y5" s="55" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z5" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>6</v>
       </c>
@@ -4981,8 +5000,11 @@
       <c r="Y6" s="55" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z6" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>7</v>
       </c>
@@ -5066,8 +5088,11 @@
       <c r="Y7" s="55" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z7" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>8</v>
       </c>
@@ -5151,8 +5176,11 @@
       <c r="Y8" s="55" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z8" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>9</v>
       </c>
@@ -5236,8 +5264,11 @@
       <c r="Y9" s="55" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z9" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>10</v>
       </c>
@@ -5321,8 +5352,11 @@
       <c r="Y10" s="55" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z10" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>11</v>
       </c>
@@ -5406,8 +5440,11 @@
       <c r="Y11" s="55" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z11" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>12</v>
       </c>
@@ -5491,8 +5528,11 @@
       <c r="Y12" s="55" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z12" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>13</v>
       </c>
@@ -5576,8 +5616,11 @@
       <c r="Y13" s="55" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z13" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>14</v>
       </c>
@@ -5661,8 +5704,11 @@
       <c r="Y14" s="55" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z14" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>15</v>
       </c>
@@ -5746,8 +5792,11 @@
       <c r="Y15" s="55" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z15" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>16</v>
       </c>
@@ -5831,8 +5880,11 @@
       <c r="Y16" s="55" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z16" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>17</v>
       </c>
@@ -5916,8 +5968,11 @@
       <c r="Y17" s="55" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z17" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>18</v>
       </c>
@@ -6001,8 +6056,11 @@
       <c r="Y18" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z18" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>19</v>
       </c>
@@ -6086,8 +6144,11 @@
       <c r="Y19" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z19" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>20</v>
       </c>
@@ -6171,8 +6232,11 @@
       <c r="Y20" s="55" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z20" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>21</v>
       </c>
@@ -6256,8 +6320,11 @@
       <c r="Y21" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z21" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>22</v>
       </c>
@@ -6341,8 +6408,11 @@
       <c r="Y22" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z22" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>23</v>
       </c>
@@ -6426,8 +6496,11 @@
       <c r="Y23" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z23" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>24</v>
       </c>
@@ -6511,8 +6584,11 @@
       <c r="Y24" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z24" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>25</v>
       </c>
@@ -6596,8 +6672,11 @@
       <c r="Y25" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z25" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>26</v>
       </c>
@@ -6681,8 +6760,11 @@
       <c r="Y26" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z26" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>27</v>
       </c>
@@ -6766,8 +6848,11 @@
       <c r="Y27" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z27" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>28</v>
       </c>
@@ -6851,8 +6936,11 @@
       <c r="Y28" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z28" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>29</v>
       </c>
@@ -6936,8 +7024,11 @@
       <c r="Y29" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z29" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>30</v>
       </c>
@@ -7021,8 +7112,11 @@
       <c r="Y30" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z30" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>31</v>
       </c>
@@ -7106,8 +7200,11 @@
       <c r="Y31" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z31" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>32</v>
       </c>
@@ -7191,8 +7288,11 @@
       <c r="Y32" s="55" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z32" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>33</v>
       </c>
@@ -7276,8 +7376,11 @@
       <c r="Y33" s="55" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z33" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>34</v>
       </c>
@@ -7361,8 +7464,11 @@
       <c r="Y34" s="55" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z34" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>35</v>
       </c>
@@ -7446,8 +7552,11 @@
       <c r="Y35" s="55" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z35" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>36</v>
       </c>
@@ -7531,8 +7640,11 @@
       <c r="Y36" s="55" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z36" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>37</v>
       </c>
@@ -7616,8 +7728,11 @@
       <c r="Y37" s="55" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z37" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>38</v>
       </c>
@@ -7701,8 +7816,11 @@
       <c r="Y38" s="55" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z38" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>39</v>
       </c>
@@ -7786,8 +7904,11 @@
       <c r="Y39" s="55" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z39" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>40</v>
       </c>
@@ -7871,8 +7992,11 @@
       <c r="Y40" s="55" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z40" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>41</v>
       </c>
@@ -7956,8 +8080,11 @@
       <c r="Y41" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z41" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>42</v>
       </c>
@@ -8041,8 +8168,11 @@
       <c r="Y42" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z42" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>43</v>
       </c>
@@ -8126,8 +8256,11 @@
       <c r="Y43" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z43" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44</v>
       </c>
@@ -8211,8 +8344,11 @@
       <c r="Y44" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z44" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>45</v>
       </c>
@@ -8296,8 +8432,11 @@
       <c r="Y45" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z45" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>46</v>
       </c>
@@ -8381,8 +8520,11 @@
       <c r="Y46" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z46" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>47</v>
       </c>
@@ -8466,8 +8608,11 @@
       <c r="Y47" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z47" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>48</v>
       </c>
@@ -8551,8 +8696,11 @@
       <c r="Y48" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z48" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>49</v>
       </c>
@@ -8636,8 +8784,11 @@
       <c r="Y49" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z49" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>50</v>
       </c>
@@ -8721,8 +8872,11 @@
       <c r="Y50" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z50" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>51</v>
       </c>
@@ -8806,8 +8960,11 @@
       <c r="Y51" s="55" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z51" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>52</v>
       </c>
@@ -8891,8 +9048,11 @@
       <c r="Y52" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z52" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>53</v>
       </c>
@@ -8976,8 +9136,11 @@
       <c r="Y53" s="55" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z53" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>54</v>
       </c>
@@ -9061,8 +9224,11 @@
       <c r="Y54" s="55" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z54" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>55</v>
       </c>
@@ -9146,8 +9312,11 @@
       <c r="Y55" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z55" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>56</v>
       </c>
@@ -9231,8 +9400,11 @@
       <c r="Y56" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z56" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>57</v>
       </c>
@@ -9316,8 +9488,11 @@
       <c r="Y57" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z57" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>58</v>
       </c>
@@ -9401,8 +9576,11 @@
       <c r="Y58" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z58" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>59</v>
       </c>
@@ -9486,8 +9664,11 @@
       <c r="Y59" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z59" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>60</v>
       </c>
@@ -9571,8 +9752,11 @@
       <c r="Y60" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z60" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>61</v>
       </c>
@@ -9656,8 +9840,11 @@
       <c r="Y61" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z61" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>62</v>
       </c>
@@ -9741,8 +9928,11 @@
       <c r="Y62" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z62" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>63</v>
       </c>
@@ -9826,8 +10016,11 @@
       <c r="Y63" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z63" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>64</v>
       </c>
@@ -9911,8 +10104,11 @@
       <c r="Y64" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z64" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <v>65</v>
       </c>
@@ -9996,8 +10192,11 @@
       <c r="Y65" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z65" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>66</v>
       </c>
@@ -10081,8 +10280,11 @@
       <c r="Y66" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z66" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>67</v>
       </c>
@@ -10166,8 +10368,11 @@
       <c r="Y67" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z67" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>68</v>
       </c>
@@ -10251,8 +10456,11 @@
       <c r="Y68" s="55" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z68" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>69</v>
       </c>
@@ -10336,8 +10544,11 @@
       <c r="Y69" s="55" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z69" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>70</v>
       </c>
@@ -10421,8 +10632,11 @@
       <c r="Y70" s="55" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z70" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>71</v>
       </c>
@@ -10506,8 +10720,11 @@
       <c r="Y71" s="55" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z71" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>72</v>
       </c>
@@ -10591,8 +10808,11 @@
       <c r="Y72" s="55" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z72" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>73</v>
       </c>
@@ -10676,8 +10896,11 @@
       <c r="Y73" s="55" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z73" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>74</v>
       </c>
@@ -10761,8 +10984,11 @@
       <c r="Y74" s="55" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z74" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>75</v>
       </c>
@@ -10846,8 +11072,11 @@
       <c r="Y75" s="55" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z75" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>76</v>
       </c>
@@ -10931,8 +11160,11 @@
       <c r="Y76" s="55" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z76" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>77</v>
       </c>
@@ -11016,8 +11248,11 @@
       <c r="Y77" s="55" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z77" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>78</v>
       </c>
@@ -11101,8 +11336,11 @@
       <c r="Y78" s="55" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z78" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>79</v>
       </c>
@@ -11186,8 +11424,11 @@
       <c r="Y79" s="55" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z79" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>80</v>
       </c>
@@ -11271,8 +11512,11 @@
       <c r="Y80" s="55" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z80" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>81</v>
       </c>
@@ -11356,8 +11600,11 @@
       <c r="Y81" s="55" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z81" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>82</v>
       </c>
@@ -11441,8 +11688,11 @@
       <c r="Y82" s="55" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z82" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>83</v>
       </c>
@@ -11526,8 +11776,11 @@
       <c r="Y83" s="59" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z83" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>84</v>
       </c>
@@ -11611,8 +11864,11 @@
       <c r="Y84" s="59" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z84" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>85</v>
       </c>
@@ -11696,8 +11952,11 @@
       <c r="Y85" s="59" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z85" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
         <v>86</v>
       </c>
@@ -11781,8 +12040,11 @@
       <c r="Y86" s="59" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z86" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>87</v>
       </c>
@@ -11866,8 +12128,11 @@
       <c r="Y87" s="59" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z87" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
         <v>88</v>
       </c>
@@ -11951,8 +12216,11 @@
       <c r="Y88" s="59" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z88" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
         <v>89</v>
       </c>
@@ -12036,8 +12304,11 @@
       <c r="Y89" s="59" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z89" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>90</v>
       </c>
@@ -12121,8 +12392,11 @@
       <c r="Y90" s="59" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z90" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
         <v>91</v>
       </c>
@@ -12206,8 +12480,11 @@
       <c r="Y91" s="59" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z91" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>92</v>
       </c>
@@ -12291,8 +12568,11 @@
       <c r="Y92" s="59" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z92" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
         <v>93</v>
       </c>
@@ -12376,8 +12656,11 @@
       <c r="Y93" s="59" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z93" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
         <v>94</v>
       </c>
@@ -12461,8 +12744,11 @@
       <c r="Y94" s="59" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z94" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
         <v>95</v>
       </c>
@@ -12546,8 +12832,11 @@
       <c r="Y95" s="59" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z95" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
         <v>96</v>
       </c>
@@ -12631,8 +12920,11 @@
       <c r="Y96" s="59" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="97" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z96" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
         <v>97</v>
       </c>
@@ -12716,8 +13008,11 @@
       <c r="Y97" s="59" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z97" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
         <v>98</v>
       </c>
@@ -12801,8 +13096,11 @@
       <c r="Y98" s="55" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="99" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z98" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
         <v>99</v>
       </c>
@@ -12886,8 +13184,11 @@
       <c r="Y99" s="55" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="100" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z99" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
         <v>100</v>
       </c>
@@ -12971,8 +13272,11 @@
       <c r="Y100" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="101" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z100" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
         <v>101</v>
       </c>
@@ -13056,8 +13360,11 @@
       <c r="Y101" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="102" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z101" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
         <v>102</v>
       </c>
@@ -13141,8 +13448,11 @@
       <c r="Y102" s="55" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="103" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z102" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
         <v>103</v>
       </c>
@@ -13226,8 +13536,11 @@
       <c r="Y103" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="104" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z103" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
         <v>104</v>
       </c>
@@ -13311,8 +13624,11 @@
       <c r="Y104" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="105" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z104" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
         <v>105</v>
       </c>
@@ -13396,8 +13712,11 @@
       <c r="Y105" s="55" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="106" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z105" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
         <v>106</v>
       </c>
@@ -13481,8 +13800,11 @@
       <c r="Y106" s="59" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="107" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z106" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
         <v>107</v>
       </c>
@@ -13566,8 +13888,11 @@
       <c r="Y107" s="55" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="108" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z107" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
         <v>108</v>
       </c>
@@ -13651,8 +13976,11 @@
       <c r="Y108" s="55" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="109" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z108" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
         <v>109</v>
       </c>
@@ -13736,8 +14064,11 @@
       <c r="Y109" s="59" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="110" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z109" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
         <v>110</v>
       </c>
@@ -13821,8 +14152,11 @@
       <c r="Y110" s="59" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="111" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z110" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
         <v>111</v>
       </c>
@@ -13906,8 +14240,11 @@
       <c r="Y111" s="59" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="112" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z111" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
         <v>112</v>
       </c>
@@ -13991,8 +14328,11 @@
       <c r="Y112" s="59" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="113" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z112" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
         <v>113</v>
       </c>
@@ -14076,8 +14416,11 @@
       <c r="Y113" s="59" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="114" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z113" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
         <v>114</v>
       </c>
@@ -14161,8 +14504,11 @@
       <c r="Y114" s="59" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="115" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z114" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
         <v>115</v>
       </c>
@@ -14246,8 +14592,11 @@
       <c r="Y115" s="59" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="116" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z115" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="24">
         <v>116</v>
       </c>
@@ -14331,8 +14680,11 @@
       <c r="Y116" s="55" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="117" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z116" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
         <v>117</v>
       </c>
@@ -14416,8 +14768,11 @@
       <c r="Y117" s="55" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="118" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z117" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="24">
         <v>118</v>
       </c>
@@ -14501,8 +14856,11 @@
       <c r="Y118" s="55" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="119" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z118" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="24">
         <v>119</v>
       </c>
@@ -14586,8 +14944,11 @@
       <c r="Y119" s="55" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="120" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z119" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="24">
         <v>120</v>
       </c>
@@ -14671,8 +15032,11 @@
       <c r="Y120" s="55" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="121" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z120" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="24">
         <v>121</v>
       </c>
@@ -14756,8 +15120,11 @@
       <c r="Y121" s="55" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="122" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z121" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="24">
         <v>122</v>
       </c>
@@ -14841,8 +15208,11 @@
       <c r="Y122" s="55" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="123" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z122" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="24">
         <v>123</v>
       </c>
@@ -14926,8 +15296,11 @@
       <c r="Y123" s="55" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="124" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z123" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="24">
         <v>124</v>
       </c>
@@ -15011,8 +15384,11 @@
       <c r="Y124" s="55" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="125" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z124" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="24">
         <v>125</v>
       </c>
@@ -15096,8 +15472,11 @@
       <c r="Y125" s="55" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="126" spans="1:25" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z125" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="24">
         <v>126</v>
       </c>
@@ -15180,6 +15559,9 @@
       </c>
       <c r="Y126" s="55" t="s">
         <v>618</v>
+      </c>
+      <c r="Z126" s="55" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -15225,14 +15607,14 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.69140625" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.69140625" style="11" customWidth="1"/>
-    <col min="2" max="10" width="5.69140625" style="12"/>
-    <col min="11" max="16384" width="5.69140625" style="22"/>
+    <col min="1" max="1" width="2.7109375" style="11" customWidth="1"/>
+    <col min="2" max="10" width="5.7109375" style="12"/>
+    <col min="11" max="16384" width="5.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="7.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="20">
         <v>1</v>
       </c>
@@ -15297,7 +15679,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="7.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="8.25" x14ac:dyDescent="0.15">
       <c r="A2" s="20">
         <v>2</v>
       </c>
@@ -15377,16 +15759,16 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.84375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="11.3046875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="7.3046875" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="9.15234375" style="13"/>
+    <col min="2" max="2" width="7.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8">
         <v>1</v>
       </c>
@@ -15400,7 +15782,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -15414,7 +15796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>3</v>
       </c>
@@ -15437,47 +15819,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
   <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView topLeftCell="AA1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.69140625" customWidth="1"/>
-    <col min="2" max="2" width="8.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3046875" customWidth="1"/>
-    <col min="4" max="4" width="7.53515625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="4.53515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.69140625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="2.3046875" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.84375" style="47" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.3046875" style="47" customWidth="1"/>
-    <col min="11" max="11" width="6.84375" style="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.15234375" style="47" customWidth="1"/>
-    <col min="13" max="13" width="4.3046875" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.15234375" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.3046875" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.3046875" style="47" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.3046875" style="40" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.3046875" style="47" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.3046875" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.3046875" style="47" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.15234375" style="40" customWidth="1"/>
-    <col min="22" max="22" width="7.15234375" style="47" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.15234375" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="47" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="47" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="47" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.140625" style="40" customWidth="1"/>
+    <col min="22" max="22" width="7.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="57.15234375" customWidth="1"/>
-    <col min="26" max="26" width="8.4609375" style="47" customWidth="1"/>
-    <col min="27" max="27" width="34.4609375" style="47" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.15234375" style="47" customWidth="1"/>
-    <col min="29" max="29" width="14.84375" style="47" customWidth="1"/>
-    <col min="30" max="30" width="5.15234375" style="47" customWidth="1"/>
-    <col min="31" max="31" width="9.84375" style="47" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="57.140625" customWidth="1"/>
+    <col min="26" max="26" width="8.42578125" style="47" customWidth="1"/>
+    <col min="27" max="27" width="34.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.140625" style="47" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="47" customWidth="1"/>
+    <col min="30" max="30" width="5.140625" style="47" customWidth="1"/>
+    <col min="31" max="31" width="9.85546875" style="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
@@ -15572,7 +15954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -15667,7 +16049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -15762,7 +16144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -15857,7 +16239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -15952,7 +16334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -16047,7 +16429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -16142,7 +16524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -16237,7 +16619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -16332,7 +16714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -16427,7 +16809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>11</v>
       </c>
@@ -16522,7 +16904,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>12</v>
       </c>
@@ -16617,7 +16999,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>13</v>
       </c>
@@ -16712,7 +17094,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>14</v>
       </c>
@@ -16807,7 +17189,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>15</v>
       </c>
@@ -16902,7 +17284,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>16</v>
       </c>
@@ -16997,7 +17379,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>17</v>
       </c>
@@ -17092,7 +17474,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>18</v>
       </c>
@@ -17187,7 +17569,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>19</v>
       </c>
@@ -17282,7 +17664,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -17377,7 +17759,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>21</v>
       </c>
@@ -17472,7 +17854,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>22</v>
       </c>
@@ -17567,7 +17949,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>23</v>
       </c>
@@ -17662,7 +18044,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>24</v>
       </c>
@@ -17757,7 +18139,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>25</v>
       </c>
@@ -17852,7 +18234,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>26</v>
       </c>
@@ -17947,7 +18329,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -18042,7 +18424,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>28</v>
       </c>
@@ -18137,7 +18519,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>29</v>
       </c>
@@ -18232,7 +18614,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>30</v>
       </c>
@@ -18327,7 +18709,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>31</v>
       </c>
@@ -18422,7 +18804,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>32</v>
       </c>
@@ -18517,7 +18899,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>33</v>
       </c>
@@ -18612,7 +18994,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>34</v>
       </c>
@@ -18707,7 +19089,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>35</v>
       </c>
@@ -18802,7 +19184,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>36</v>
       </c>
@@ -18897,7 +19279,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>37</v>
       </c>
@@ -18992,7 +19374,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>38</v>
       </c>
@@ -19087,7 +19469,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>39</v>
       </c>
@@ -19182,7 +19564,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>40</v>
       </c>
@@ -19277,7 +19659,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>41</v>
       </c>
@@ -19372,7 +19754,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>42</v>
       </c>
@@ -19467,7 +19849,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>43</v>
       </c>
@@ -19562,7 +19944,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>44</v>
       </c>
@@ -19657,7 +20039,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>45</v>
       </c>
@@ -19752,7 +20134,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>46</v>
       </c>
@@ -19847,7 +20229,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>47</v>
       </c>
@@ -19942,7 +20324,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>48</v>
       </c>
@@ -20037,7 +20419,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>49</v>
       </c>
@@ -20132,7 +20514,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>50</v>
       </c>
@@ -20227,7 +20609,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>51</v>
       </c>
@@ -20322,7 +20704,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>52</v>
       </c>
@@ -20417,7 +20799,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>53</v>
       </c>
@@ -20512,7 +20894,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>54</v>
       </c>
@@ -20607,7 +20989,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>55</v>
       </c>
@@ -20702,7 +21084,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>56</v>
       </c>
@@ -20797,7 +21179,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>57</v>
       </c>
@@ -20892,7 +21274,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>58</v>
       </c>
@@ -20987,7 +21369,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>59</v>
       </c>
@@ -21082,7 +21464,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>60</v>
       </c>
@@ -21177,7 +21559,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>61</v>
       </c>
@@ -21272,7 +21654,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>62</v>
       </c>
@@ -21367,7 +21749,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>63</v>
       </c>
@@ -21462,7 +21844,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>64</v>
       </c>
@@ -21557,7 +21939,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>65</v>
       </c>
@@ -21652,7 +22034,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>66</v>
       </c>
@@ -21747,7 +22129,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>67</v>
       </c>
@@ -21842,7 +22224,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>68</v>
       </c>
@@ -21937,7 +22319,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>69</v>
       </c>
@@ -22032,7 +22414,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>70</v>
       </c>
@@ -22127,7 +22509,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <v>71</v>
       </c>
@@ -22222,7 +22604,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
         <v>72</v>
       </c>
@@ -22317,7 +22699,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <v>73</v>
       </c>
@@ -22412,7 +22794,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <v>74</v>
       </c>
@@ -22507,7 +22889,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
         <v>75</v>
       </c>
@@ -22602,7 +22984,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>76</v>
       </c>
@@ -22697,7 +23079,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>77</v>
       </c>
@@ -22792,7 +23174,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>78</v>
       </c>
@@ -22887,7 +23269,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16">
         <v>79</v>
       </c>
@@ -22982,7 +23364,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>80</v>
       </c>
@@ -23077,7 +23459,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>81</v>
       </c>
@@ -23172,7 +23554,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>82</v>
       </c>
@@ -23267,7 +23649,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <v>83</v>
       </c>
@@ -23362,7 +23744,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>84</v>
       </c>
@@ -23457,7 +23839,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="85" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>85</v>
       </c>
@@ -23552,7 +23934,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>86</v>
       </c>
@@ -23647,7 +24029,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="16">
         <v>87</v>
       </c>
@@ -23742,7 +24124,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>88</v>
       </c>
@@ -23837,7 +24219,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16">
         <v>89</v>
       </c>
@@ -23932,7 +24314,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>90</v>
       </c>
@@ -24027,7 +24409,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <v>91</v>
       </c>
@@ -24122,7 +24504,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16">
         <v>92</v>
       </c>
@@ -24217,7 +24599,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16">
         <v>93</v>
       </c>
@@ -24312,7 +24694,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="94" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16">
         <v>94</v>
       </c>
@@ -24407,7 +24789,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <v>95</v>
       </c>
@@ -24502,7 +24884,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>96</v>
       </c>
@@ -24597,7 +24979,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16">
         <v>97</v>
       </c>
@@ -24692,7 +25074,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16">
         <v>98</v>
       </c>
@@ -24787,7 +25169,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="99" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="16">
         <v>99</v>
       </c>
@@ -24882,7 +25264,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16">
         <v>100</v>
       </c>
@@ -24977,7 +25359,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16">
         <v>101</v>
       </c>
@@ -25072,7 +25454,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="102" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16">
         <v>102</v>
       </c>
@@ -25167,7 +25549,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="16">
         <v>103</v>
       </c>
@@ -25262,7 +25644,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="16">
         <v>104</v>
       </c>
@@ -25357,7 +25739,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="105" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16">
         <v>105</v>
       </c>
@@ -25452,7 +25834,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="106" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="16">
         <v>106</v>
       </c>
@@ -25547,7 +25929,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="16">
         <v>107</v>
       </c>
@@ -25642,7 +26024,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="16">
         <v>108</v>
       </c>
@@ -25737,7 +26119,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="109" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="16">
         <v>109</v>
       </c>
@@ -25832,7 +26214,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="110" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="16">
         <v>110</v>
       </c>
@@ -25927,7 +26309,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="16">
         <v>111</v>
       </c>
@@ -26022,7 +26404,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="112" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="16">
         <v>112</v>
       </c>
@@ -26117,7 +26499,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="113" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="16">
         <v>113</v>
       </c>
@@ -26212,7 +26594,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="16">
         <v>114</v>
       </c>
@@ -26307,7 +26689,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="16">
         <v>115</v>
       </c>
@@ -26402,7 +26784,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="116" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="16">
         <v>116</v>
       </c>
@@ -26497,7 +26879,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="16">
         <v>117</v>
       </c>
@@ -26592,7 +26974,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="16">
         <v>118</v>
       </c>
@@ -26687,7 +27069,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="16">
         <v>119</v>
       </c>
@@ -26782,7 +27164,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="120" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="16">
         <v>120</v>
       </c>
@@ -26877,7 +27259,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="121" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="16">
         <v>121</v>
       </c>
@@ -26972,7 +27354,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="122" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="16">
         <v>122</v>
       </c>
@@ -27067,7 +27449,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="123" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="16">
         <v>123</v>
       </c>
@@ -27162,7 +27544,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="124" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="16">
         <v>124</v>
       </c>
@@ -27257,7 +27639,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="125" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="16">
         <v>125</v>
       </c>
@@ -27352,7 +27734,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="126" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="16">
         <v>126</v>
       </c>
@@ -27447,7 +27829,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="127" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16">
         <v>127</v>
       </c>
@@ -27542,7 +27924,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="128" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="16">
         <v>128</v>
       </c>
@@ -27637,7 +28019,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="16">
         <v>129</v>
       </c>
@@ -27732,7 +28114,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="130" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="16">
         <v>130</v>
       </c>
@@ -27827,7 +28209,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="131" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="16">
         <v>131</v>
       </c>
@@ -27922,7 +28304,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="132" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="16">
         <v>132</v>
       </c>
@@ -28017,7 +28399,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="133" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="16">
         <v>133</v>
       </c>
@@ -28112,7 +28494,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="16">
         <v>134</v>
       </c>
@@ -28207,7 +28589,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="135" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="16">
         <v>135</v>
       </c>
@@ -28302,7 +28684,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="136" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="16">
         <v>136</v>
       </c>
@@ -28397,7 +28779,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="137" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="16">
         <v>137</v>
       </c>
@@ -28492,7 +28874,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="138" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="16">
         <v>138</v>
       </c>
@@ -28587,7 +28969,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="139" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="16">
         <v>139</v>
       </c>
@@ -28682,7 +29064,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="140" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="16">
         <v>140</v>
       </c>
@@ -28777,7 +29159,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="16">
         <v>141</v>
       </c>
@@ -28872,7 +29254,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="16">
         <v>142</v>
       </c>
@@ -28967,7 +29349,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="16">
         <v>143</v>
       </c>
@@ -29062,7 +29444,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="16">
         <v>144</v>
       </c>
@@ -29157,7 +29539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="16">
         <v>145</v>
       </c>
@@ -29252,7 +29634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="16">
         <v>146</v>
       </c>
@@ -29347,7 +29729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="16">
         <v>147</v>
       </c>
@@ -29442,7 +29824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="16">
         <v>148</v>
       </c>
@@ -29537,7 +29919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="16">
         <v>149</v>
       </c>
@@ -29632,7 +30014,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="16">
         <v>150</v>
       </c>
@@ -29727,7 +30109,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="16">
         <v>151</v>
       </c>
@@ -29822,7 +30204,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="152" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="16">
         <v>152</v>
       </c>
@@ -29917,7 +30299,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="153" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="16">
         <v>153</v>
       </c>
@@ -30012,7 +30394,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="154" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="16">
         <v>154</v>
       </c>
@@ -30107,7 +30489,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="155" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="16">
         <v>155</v>
       </c>
@@ -30202,7 +30584,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="156" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="16">
         <v>156</v>
       </c>

--- a/Versão5/META/Ontologia_METAL.xlsx
+++ b/Versão5/META/Ontologia_METAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\META\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A1225D-5E53-4655-9A51-B9EEE0FE0E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA2C722-E0A2-44CC-98D4-8822A70E33DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6493" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6494" uniqueCount="1072">
   <si>
     <t>Edição</t>
   </si>
@@ -3284,13 +3284,16 @@
   </si>
   <si>
     <t>ABNT</t>
+  </si>
+  <si>
+    <t>000 Translate Classe 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3354,8 +3357,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Nova Cond Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3488,6 +3498,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -3553,7 +3569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3737,11 +3753,25 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4243,14 +4273,14 @@
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="10.3046875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.69140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.15234375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4258,7 +4288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -4266,7 +4296,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -4274,7 +4304,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4282,7 +4312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -4291,7 +4321,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -4300,7 +4330,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4308,7 +4338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4316,7 +4346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -4324,7 +4354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -4332,7 +4362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -4340,7 +4370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -4348,7 +4378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -4356,7 +4386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -4364,7 +4394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -4372,7 +4402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -4380,7 +4410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -4388,16 +4418,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45958.471916666669</v>
+        <v>45989.680840393521</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -4405,7 +4435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -4413,7 +4443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -4421,7 +4451,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
@@ -4429,7 +4459,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
@@ -4444,43 +4474,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
-  <dimension ref="A1:Z126"/>
+  <dimension ref="A1:AA126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2:Z126"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.69140625" defaultRowHeight="6.65" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.15234375" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-    <col min="16" max="16" width="40.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.42578125" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="40" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="40" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="10.69140625" customWidth="1"/>
+    <col min="4" max="4" width="9.84375" customWidth="1"/>
+    <col min="5" max="5" width="15.3828125" customWidth="1"/>
+    <col min="6" max="6" width="17.3046875" customWidth="1"/>
+    <col min="7" max="7" width="11.69140625" customWidth="1"/>
+    <col min="8" max="8" width="14.3046875" customWidth="1"/>
+    <col min="9" max="9" width="12.84375" customWidth="1"/>
+    <col min="10" max="10" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.3828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3828125" customWidth="1"/>
+    <col min="13" max="13" width="10.15234375" customWidth="1"/>
+    <col min="14" max="14" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.53515625" customWidth="1"/>
+    <col min="16" max="16" width="40.69140625" customWidth="1"/>
+    <col min="17" max="17" width="41.3828125" customWidth="1"/>
+    <col min="18" max="18" width="4.53515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.69140625" style="40" customWidth="1"/>
+    <col min="20" max="20" width="9.15234375" style="40" customWidth="1"/>
+    <col min="21" max="21" width="13.69140625" style="40" customWidth="1"/>
     <col min="22" max="22" width="7" style="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="20.5703125" customWidth="1"/>
-    <col min="26" max="26" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.84375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="20.53515625" customWidth="1"/>
+    <col min="26" max="26" width="5.15234375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="97.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="30.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="26">
         <v>0</v>
       </c>
@@ -4559,8 +4590,11 @@
       <c r="Z1" s="27" t="s">
         <v>1070</v>
       </c>
+      <c r="AA1" s="63" t="s">
+        <v>1071</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="24">
         <v>2</v>
       </c>
@@ -4649,8 +4683,12 @@
       <c r="Z2" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA2" s="64" t="str">
+        <f>_xlfn.TRANSLATE(P2,"pt","en")</f>
+        <v>Alloy steel used in the project</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="24">
         <v>3</v>
       </c>
@@ -4739,8 +4777,12 @@
       <c r="Z3" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA3" s="64" t="str">
+        <f t="shared" ref="AA3:AA66" si="6">_xlfn.TRANSLATE(P3,"pt","en")</f>
+        <v>Aluminum alloys used in the project</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="24">
         <v>4</v>
       </c>
@@ -4775,7 +4817,7 @@
         <v>9</v>
       </c>
       <c r="L4" s="25" t="str">
-        <f t="shared" ref="L4:L7" si="6">_xlfn.CONCAT(SUBSTITUTE(C4,"1.",""))</f>
+        <f t="shared" ref="L4:L7" si="7">_xlfn.CONCAT(SUBSTITUTE(C4,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M4" s="25" t="str">
@@ -4827,8 +4869,12 @@
       <c r="Z4" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA4" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Rebar for reinforced concrete.</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="24">
         <v>5</v>
       </c>
@@ -4863,7 +4909,7 @@
         <v>9</v>
       </c>
       <c r="L5" s="25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M5" s="25" t="str">
@@ -4915,8 +4961,12 @@
       <c r="Z5" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA5" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Smooth rebar for reinforced concrete. Generally used when adhesion is not a primary concern, such as on slabs and floors. Can be in CA-25 Steel.</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="24">
         <v>6</v>
       </c>
@@ -4951,7 +5001,7 @@
         <v>9</v>
       </c>
       <c r="L6" s="25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M6" s="25" t="str">
@@ -5003,8 +5053,12 @@
       <c r="Z6" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA6" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Ribbed rebar for reinforced concrete. They have protrusions along their surface, with superior adhesion to concrete. Used in structural elements subject to high loads, such as beams and columns. They can be produced in CA-50, CA-60 and CA-70 Steel.</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24">
         <v>7</v>
       </c>
@@ -5039,7 +5093,7 @@
         <v>9</v>
       </c>
       <c r="L7" s="25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M7" s="25" t="str">
@@ -5091,8 +5145,12 @@
       <c r="Z7" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA7" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Rebar produced by Gerdau. The GG 70 stands out as a high-performance solution that redefines structural standards, offering more strength, productivity and resource rationalization. It is made of CA-70 Steel.</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="24">
         <v>8</v>
       </c>
@@ -5127,19 +5185,19 @@
         <v>9</v>
       </c>
       <c r="L8" s="25" t="str">
-        <f t="shared" ref="L8:L15" si="7">_xlfn.CONCAT(SUBSTITUTE(C8,"1.",""))</f>
+        <f t="shared" ref="L8:L15" si="8">_xlfn.CONCAT(SUBSTITUTE(C8,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M8" s="25" t="str">
-        <f t="shared" ref="M8:M15" si="8">_xlfn.CONCAT(SUBSTITUTE(D8,"."," "))</f>
+        <f t="shared" ref="M8:M15" si="9">_xlfn.CONCAT(SUBSTITUTE(D8,"."," "))</f>
         <v>Armaduras</v>
       </c>
       <c r="N8" s="25" t="str">
-        <f t="shared" ref="N8:N15" si="9">_xlfn.CONCAT(SUBSTITUTE(E8,"."," "))</f>
+        <f t="shared" ref="N8:N15" si="10">_xlfn.CONCAT(SUBSTITUTE(E8,"."," "))</f>
         <v>Estribos</v>
       </c>
       <c r="O8" s="25" t="str">
-        <f t="shared" ref="O8:O15" si="10">_xlfn.CONCAT(SUBSTITUTE(F8,"."," "))</f>
+        <f t="shared" ref="O8:O15" si="11">_xlfn.CONCAT(SUBSTITUTE(F8,"."," "))</f>
         <v>Estribo Retangular</v>
       </c>
       <c r="P8" s="25" t="s">
@@ -5152,15 +5210,15 @@
         <v>9</v>
       </c>
       <c r="S8" s="62" t="str">
-        <f t="shared" ref="S8:S15" si="11">SUBSTITUTE(C8, ".", " ")</f>
+        <f t="shared" ref="S8:S15" si="12">SUBSTITUTE(C8, ".", " ")</f>
         <v>Estrutura Principal</v>
       </c>
       <c r="T8" s="62" t="str">
-        <f t="shared" ref="T8:T15" si="12">SUBSTITUTE(D8, ".", " ")</f>
+        <f t="shared" ref="T8:T15" si="13">SUBSTITUTE(D8, ".", " ")</f>
         <v>Armaduras</v>
       </c>
       <c r="U8" s="62" t="str">
-        <f t="shared" ref="U8:U15" si="13">SUBSTITUTE(E8, ".", " ")</f>
+        <f t="shared" ref="U8:U15" si="14">SUBSTITUTE(E8, ".", " ")</f>
         <v>Estribos</v>
       </c>
       <c r="V8" s="61" t="s">
@@ -5179,8 +5237,12 @@
       <c r="Z8" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA8" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Stirrup to resist cutting forces and keep rebar in position. They ensure even distribution of efforts.</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="24">
         <v>9</v>
       </c>
@@ -5215,19 +5277,19 @@
         <v>9</v>
       </c>
       <c r="L9" s="25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M9" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Armaduras</v>
       </c>
       <c r="N9" s="25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Estribos</v>
       </c>
       <c r="O9" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Estribo Circular</v>
       </c>
       <c r="P9" s="25" t="s">
@@ -5240,15 +5302,15 @@
         <v>9</v>
       </c>
       <c r="S9" s="62" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T9" s="62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Armaduras</v>
       </c>
       <c r="U9" s="62" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Estribos</v>
       </c>
       <c r="V9" s="61" t="s">
@@ -5267,8 +5329,12 @@
       <c r="Z9" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA9" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Stirrup used in circular formwork and pipes.</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="24">
         <v>10</v>
       </c>
@@ -5303,19 +5369,19 @@
         <v>9</v>
       </c>
       <c r="L10" s="25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M10" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Armaduras</v>
       </c>
       <c r="N10" s="25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Estribos</v>
       </c>
       <c r="O10" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Estribo Diagonal</v>
       </c>
       <c r="P10" s="25" t="s">
@@ -5328,15 +5394,15 @@
         <v>9</v>
       </c>
       <c r="S10" s="62" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T10" s="62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Armaduras</v>
       </c>
       <c r="U10" s="62" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Estribos</v>
       </c>
       <c r="V10" s="61" t="s">
@@ -5355,8 +5421,12 @@
       <c r="Z10" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA10" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Stirrup that increases resistance against diagonal forces in beams and columns.</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="24">
         <v>11</v>
       </c>
@@ -5391,19 +5461,19 @@
         <v>9</v>
       </c>
       <c r="L11" s="25" t="str">
-        <f t="shared" ref="L11:L14" si="14">_xlfn.CONCAT(SUBSTITUTE(C11,"1.",""))</f>
+        <f t="shared" ref="L11:L14" si="15">_xlfn.CONCAT(SUBSTITUTE(C11,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M11" s="25" t="str">
-        <f t="shared" ref="M11:M14" si="15">_xlfn.CONCAT(SUBSTITUTE(D11,"."," "))</f>
+        <f t="shared" ref="M11:M14" si="16">_xlfn.CONCAT(SUBSTITUTE(D11,"."," "))</f>
         <v>Armaduras</v>
       </c>
       <c r="N11" s="25" t="str">
-        <f t="shared" ref="N11:N14" si="16">_xlfn.CONCAT(SUBSTITUTE(E11,"."," "))</f>
+        <f t="shared" ref="N11:N14" si="17">_xlfn.CONCAT(SUBSTITUTE(E11,"."," "))</f>
         <v>Estribos</v>
       </c>
       <c r="O11" s="25" t="str">
-        <f t="shared" ref="O11:O14" si="17">_xlfn.CONCAT(SUBSTITUTE(F11,"."," "))</f>
+        <f t="shared" ref="O11:O14" si="18">_xlfn.CONCAT(SUBSTITUTE(F11,"."," "))</f>
         <v>Estribo Helicoidal</v>
       </c>
       <c r="P11" s="25" t="s">
@@ -5416,22 +5486,22 @@
         <v>9</v>
       </c>
       <c r="S11" s="62" t="str">
-        <f t="shared" ref="S11:S14" si="18">SUBSTITUTE(C11, ".", " ")</f>
+        <f t="shared" ref="S11:S14" si="19">SUBSTITUTE(C11, ".", " ")</f>
         <v>Estrutura Principal</v>
       </c>
       <c r="T11" s="62" t="str">
-        <f t="shared" ref="T11:T14" si="19">SUBSTITUTE(D11, ".", " ")</f>
+        <f t="shared" ref="T11:T14" si="20">SUBSTITUTE(D11, ".", " ")</f>
         <v>Armaduras</v>
       </c>
       <c r="U11" s="62" t="str">
-        <f t="shared" ref="U11:U14" si="20">SUBSTITUTE(E11, ".", " ")</f>
+        <f t="shared" ref="U11:U14" si="21">SUBSTITUTE(E11, ".", " ")</f>
         <v>Estribos</v>
       </c>
       <c r="V11" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W11" s="30" t="str">
-        <f t="shared" ref="W11:W14" si="21">CONCATENATE("k.",LOWER(LEFT(D11,2)),LOWER(LEFT(E11,4)),".",A11)</f>
+        <f t="shared" ref="W11:W14" si="22">CONCATENATE("k.",LOWER(LEFT(D11,2)),LOWER(LEFT(E11,4)),".",A11)</f>
         <v>k.arestr.11</v>
       </c>
       <c r="X11" s="55" t="s">
@@ -5443,8 +5513,12 @@
       <c r="Z11" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA11" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Stirrup used in structures subject to high torsional stress.</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="24">
         <v>12</v>
       </c>
@@ -5479,19 +5553,19 @@
         <v>9</v>
       </c>
       <c r="L12" s="25" t="str">
-        <f t="shared" ref="L12" si="22">_xlfn.CONCAT(SUBSTITUTE(C12,"1.",""))</f>
+        <f t="shared" ref="L12" si="23">_xlfn.CONCAT(SUBSTITUTE(C12,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M12" s="25" t="str">
-        <f t="shared" ref="M12" si="23">_xlfn.CONCAT(SUBSTITUTE(D12,"."," "))</f>
+        <f t="shared" ref="M12" si="24">_xlfn.CONCAT(SUBSTITUTE(D12,"."," "))</f>
         <v>Armaduras</v>
       </c>
       <c r="N12" s="25" t="str">
-        <f t="shared" ref="N12" si="24">_xlfn.CONCAT(SUBSTITUTE(E12,"."," "))</f>
+        <f t="shared" ref="N12" si="25">_xlfn.CONCAT(SUBSTITUTE(E12,"."," "))</f>
         <v>Prontas</v>
       </c>
       <c r="O12" s="25" t="str">
-        <f t="shared" ref="O12" si="25">_xlfn.CONCAT(SUBSTITUTE(F12,"."," "))</f>
+        <f t="shared" ref="O12" si="26">_xlfn.CONCAT(SUBSTITUTE(F12,"."," "))</f>
         <v>Tela Soldada</v>
       </c>
       <c r="P12" s="25" t="s">
@@ -5504,22 +5578,22 @@
         <v>9</v>
       </c>
       <c r="S12" s="62" t="str">
-        <f t="shared" ref="S12" si="26">SUBSTITUTE(C12, ".", " ")</f>
+        <f t="shared" ref="S12" si="27">SUBSTITUTE(C12, ".", " ")</f>
         <v>Estrutura Principal</v>
       </c>
       <c r="T12" s="62" t="str">
-        <f t="shared" ref="T12" si="27">SUBSTITUTE(D12, ".", " ")</f>
+        <f t="shared" ref="T12" si="28">SUBSTITUTE(D12, ".", " ")</f>
         <v>Armaduras</v>
       </c>
       <c r="U12" s="62" t="str">
-        <f t="shared" ref="U12" si="28">SUBSTITUTE(E12, ".", " ")</f>
+        <f t="shared" ref="U12" si="29">SUBSTITUTE(E12, ".", " ")</f>
         <v>Prontas</v>
       </c>
       <c r="V12" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W12" s="30" t="str">
-        <f t="shared" ref="W12" si="29">CONCATENATE("k.",LOWER(LEFT(D12,2)),LOWER(LEFT(E12,4)),".",A12)</f>
+        <f t="shared" ref="W12" si="30">CONCATENATE("k.",LOWER(LEFT(D12,2)),LOWER(LEFT(E12,4)),".",A12)</f>
         <v>k.arpron.12</v>
       </c>
       <c r="X12" s="55" t="s">
@@ -5531,8 +5605,12 @@
       <c r="Z12" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA12" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Made of ribbed CA-60 steel and GG-50 steel. Ribbed Welded Mesh is supplied in panels and formed by welded wires or bars at all crossing points configuring the cracking control mesh and mechanical resistance.</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24">
         <v>13</v>
       </c>
@@ -5567,19 +5645,19 @@
         <v>9</v>
       </c>
       <c r="L13" s="25" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M13" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Armaduras</v>
       </c>
       <c r="N13" s="25" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Prontas</v>
       </c>
       <c r="O13" s="25" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Armadura APS</v>
       </c>
       <c r="P13" s="25" t="s">
@@ -5592,22 +5670,22 @@
         <v>9</v>
       </c>
       <c r="S13" s="62" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T13" s="62" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Armaduras</v>
       </c>
       <c r="U13" s="62" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Prontas</v>
       </c>
       <c r="V13" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W13" s="30" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>k.arpron.13</v>
       </c>
       <c r="X13" s="55" t="s">
@@ -5619,8 +5697,12 @@
       <c r="Z13" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA13" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Welded ready reinforcement (APS). Delivered ready at the site, according to the project of the work. The pieces are delivered identified and according to the schedule of execution of the work.</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="24">
         <v>14</v>
       </c>
@@ -5655,19 +5737,19 @@
         <v>9</v>
       </c>
       <c r="L14" s="25" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M14" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Armaduras</v>
       </c>
       <c r="N14" s="25" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Prontas</v>
       </c>
       <c r="O14" s="25" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Fôrma Incorporada</v>
       </c>
       <c r="P14" s="25" t="s">
@@ -5680,22 +5762,22 @@
         <v>9</v>
       </c>
       <c r="S14" s="62" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T14" s="62" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Armaduras</v>
       </c>
       <c r="U14" s="62" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Prontas</v>
       </c>
       <c r="V14" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W14" s="30" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>k.arpron.14</v>
       </c>
       <c r="X14" s="55" t="s">
@@ -5707,8 +5789,12 @@
       <c r="Z14" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA14" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Built-in formwork is produced with 0.5 mm thick galvanized steel panels with perforations, delivered with plastic spacers and galvanized clamps for permanent application that replaces the temporary conventional formwork, eliminating the formwork step.</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="24">
         <v>15</v>
       </c>
@@ -5743,19 +5829,19 @@
         <v>9</v>
       </c>
       <c r="L15" s="25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M15" s="25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Armaduras</v>
       </c>
       <c r="N15" s="25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Prontas</v>
       </c>
       <c r="O15" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Fôrma Incorporada APS</v>
       </c>
       <c r="P15" s="25" t="s">
@@ -5768,15 +5854,15 @@
         <v>9</v>
       </c>
       <c r="S15" s="62" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T15" s="62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Armaduras</v>
       </c>
       <c r="U15" s="62" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Prontas</v>
       </c>
       <c r="V15" s="61" t="s">
@@ -5795,8 +5881,12 @@
       <c r="Z15" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA15" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Built-in formwork mounted with welded ready reinforcement (APS).</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="24">
         <v>16</v>
       </c>
@@ -5831,7 +5921,7 @@
         <v>9</v>
       </c>
       <c r="L16" s="25" t="str">
-        <f t="shared" ref="L16:L18" si="30">_xlfn.CONCAT(SUBSTITUTE(C16,"1.",""))</f>
+        <f t="shared" ref="L16:L18" si="31">_xlfn.CONCAT(SUBSTITUTE(C16,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M16" s="25" t="str">
@@ -5883,8 +5973,12 @@
       <c r="Z16" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA16" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Welded metal profile for Column and Beam (CVS). They are structural metal profiles formed by joining steel plates connected with welding.</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="24">
         <v>17</v>
       </c>
@@ -5919,7 +6013,7 @@
         <v>9</v>
       </c>
       <c r="L17" s="25" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M17" s="25" t="str">
@@ -5971,8 +6065,12 @@
       <c r="Z17" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA17" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Welded metal profile for Column (CS). They are structural metal profiles formed by joining steel plates connected with welding.</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="24">
         <v>18</v>
       </c>
@@ -6007,7 +6105,7 @@
         <v>9</v>
       </c>
       <c r="L18" s="25" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M18" s="25" t="str">
@@ -6059,8 +6157,12 @@
       <c r="Z18" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA18" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Welded metal profile for Beams (VS). They are structural metal profiles formed by joining steel plates connected with welding.</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="24">
         <v>19</v>
       </c>
@@ -6095,19 +6197,19 @@
         <v>9</v>
       </c>
       <c r="L19" s="25" t="str">
-        <f t="shared" ref="L19:L31" si="31">_xlfn.CONCAT(SUBSTITUTE(C19,"1.",""))</f>
+        <f t="shared" ref="L19:L31" si="32">_xlfn.CONCAT(SUBSTITUTE(C19,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M19" s="25" t="str">
-        <f t="shared" ref="M19:M31" si="32">_xlfn.CONCAT(SUBSTITUTE(D19,"."," "))</f>
+        <f t="shared" ref="M19:M31" si="33">_xlfn.CONCAT(SUBSTITUTE(D19,"."," "))</f>
         <v>Sustentação</v>
       </c>
       <c r="N19" s="25" t="str">
-        <f t="shared" ref="N19:N31" si="33">_xlfn.CONCAT(SUBSTITUTE(E19,"."," "))</f>
+        <f t="shared" ref="N19:N31" si="34">_xlfn.CONCAT(SUBSTITUTE(E19,"."," "))</f>
         <v>Laminados</v>
       </c>
       <c r="O19" s="25" t="str">
-        <f t="shared" ref="O19:O31" si="34">_xlfn.CONCAT(SUBSTITUTE(F19,"."," "))</f>
+        <f t="shared" ref="O19:O31" si="35">_xlfn.CONCAT(SUBSTITUTE(F19,"."," "))</f>
         <v>Perfil Laminado I</v>
       </c>
       <c r="P19" s="25" t="s">
@@ -6147,8 +6249,12 @@
       <c r="Z19" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA19" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Hot-rolled profile made of heated steel and shaped by industrial rollers in I-shape with parallel flaps with lengths from 6 to 12 m.</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="24">
         <v>20</v>
       </c>
@@ -6183,19 +6289,19 @@
         <v>9</v>
       </c>
       <c r="L20" s="25" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M20" s="25" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>Sustentação</v>
       </c>
       <c r="N20" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Laminados</v>
       </c>
       <c r="O20" s="25" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>Perfil Laminado HP</v>
       </c>
       <c r="P20" s="25" t="s">
@@ -6235,8 +6341,12 @@
       <c r="Z20" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA20" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Hot-rolled profile made of heated steel and shaped by industrial rollers in HP format with parallel flaps with lengths from 6 to 12 m.</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="24">
         <v>21</v>
       </c>
@@ -6271,19 +6381,19 @@
         <v>9</v>
       </c>
       <c r="L21" s="25" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M21" s="25" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>Sustentação</v>
       </c>
       <c r="N21" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Laminados</v>
       </c>
       <c r="O21" s="25" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>Perfil Laminado W</v>
       </c>
       <c r="P21" s="25" t="s">
@@ -6323,8 +6433,12 @@
       <c r="Z21" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA21" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Hot-rolled profile made of heated steel and shaped by W-shaped industrial rollers with parallel flaps with lengths from 6 to 12 m.</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="24">
         <v>22</v>
       </c>
@@ -6359,19 +6473,19 @@
         <v>9</v>
       </c>
       <c r="L22" s="25" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M22" s="25" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N22" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Perfis L</v>
       </c>
       <c r="O22" s="25" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>Cantoneira</v>
       </c>
       <c r="P22" s="25" t="s">
@@ -6411,8 +6525,12 @@
       <c r="Z22" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA22" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Hot-rolled profile of heated steel and shaped by industrial rollers in L shape with equal flaps.</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24">
         <v>23</v>
       </c>
@@ -6447,19 +6565,19 @@
         <v>9</v>
       </c>
       <c r="L23" s="25" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M23" s="25" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N23" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Perfis L</v>
       </c>
       <c r="O23" s="25" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>Cantoneira Abas Desiguais</v>
       </c>
       <c r="P23" s="25" t="s">
@@ -6499,8 +6617,12 @@
       <c r="Z23" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA23" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Hot-rolled profile of heated steel and shaped by industrial rollers in L shape with uneven flaps.</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="24">
         <v>24</v>
       </c>
@@ -6535,19 +6657,19 @@
         <v>9</v>
       </c>
       <c r="L24" s="25" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M24" s="25" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N24" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Perfis S</v>
       </c>
       <c r="O24" s="25" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>Perfil Sigma</v>
       </c>
       <c r="P24" s="25" t="s">
@@ -6587,8 +6709,12 @@
       <c r="Z24" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA24" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Hot-rolled profile of steel heated and shaped by industrial rollers in S-format (Sigma).</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="24">
         <v>25</v>
       </c>
@@ -6623,19 +6749,19 @@
         <v>9</v>
       </c>
       <c r="L25" s="25" t="str">
-        <f t="shared" ref="L25" si="35">_xlfn.CONCAT(SUBSTITUTE(C25,"1.",""))</f>
+        <f t="shared" ref="L25" si="36">_xlfn.CONCAT(SUBSTITUTE(C25,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M25" s="25" t="str">
-        <f t="shared" ref="M25" si="36">_xlfn.CONCAT(SUBSTITUTE(D25,"."," "))</f>
+        <f t="shared" ref="M25" si="37">_xlfn.CONCAT(SUBSTITUTE(D25,"."," "))</f>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N25" s="25" t="str">
-        <f t="shared" ref="N25" si="37">_xlfn.CONCAT(SUBSTITUTE(E25,"."," "))</f>
+        <f t="shared" ref="N25" si="38">_xlfn.CONCAT(SUBSTITUTE(E25,"."," "))</f>
         <v>Perfis T</v>
       </c>
       <c r="O25" s="25" t="str">
-        <f t="shared" ref="O25" si="38">_xlfn.CONCAT(SUBSTITUTE(F25,"."," "))</f>
+        <f t="shared" ref="O25" si="39">_xlfn.CONCAT(SUBSTITUTE(F25,"."," "))</f>
         <v>Perfil T</v>
       </c>
       <c r="P25" s="25" t="s">
@@ -6675,8 +6801,12 @@
       <c r="Z25" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA25" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Hot-rolled profile of heated steel and shaped by industrial T-shaped rollers.</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="24">
         <v>26</v>
       </c>
@@ -6711,19 +6841,19 @@
         <v>9</v>
       </c>
       <c r="L26" s="25" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M26" s="25" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N26" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Perfis U</v>
       </c>
       <c r="O26" s="25" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>Perfil U</v>
       </c>
       <c r="P26" s="25" t="s">
@@ -6763,8 +6893,12 @@
       <c r="Z26" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA26" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Hot-rolled profile of steel heated and molded by industrial U-shaped rollers.</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="24">
         <v>27</v>
       </c>
@@ -6799,19 +6933,19 @@
         <v>9</v>
       </c>
       <c r="L27" s="25" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M27" s="25" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N27" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Perfis U</v>
       </c>
       <c r="O27" s="25" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>Perfil UE</v>
       </c>
       <c r="P27" s="25" t="s">
@@ -6851,8 +6985,12 @@
       <c r="Z27" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA27" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Hot-rolled profile of heated steel and shaped by hardened U-shaped industrial rollers.</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="24">
         <v>28</v>
       </c>
@@ -6887,19 +7025,19 @@
         <v>9</v>
       </c>
       <c r="L28" s="25" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M28" s="25" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N28" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Perfis Z</v>
       </c>
       <c r="O28" s="25" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>Perfil Z</v>
       </c>
       <c r="P28" s="25" t="s">
@@ -6939,8 +7077,12 @@
       <c r="Z28" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA28" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Hot-rolled profile of heated steel and shaped by industrial rollers in Z shape.</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="24">
         <v>29</v>
       </c>
@@ -6975,19 +7117,19 @@
         <v>9</v>
       </c>
       <c r="L29" s="25" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M29" s="25" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N29" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Perfis Tubulares</v>
       </c>
       <c r="O29" s="25" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>Seção Circular</v>
       </c>
       <c r="P29" s="25" t="s">
@@ -7027,8 +7169,12 @@
       <c r="Z29" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA29" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Circular section tubular profile.</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="24">
         <v>30</v>
       </c>
@@ -7063,19 +7209,19 @@
         <v>9</v>
       </c>
       <c r="L30" s="25" t="str">
-        <f t="shared" ref="L30" si="39">_xlfn.CONCAT(SUBSTITUTE(C30,"1.",""))</f>
+        <f t="shared" ref="L30" si="40">_xlfn.CONCAT(SUBSTITUTE(C30,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M30" s="25" t="str">
-        <f t="shared" ref="M30" si="40">_xlfn.CONCAT(SUBSTITUTE(D30,"."," "))</f>
+        <f t="shared" ref="M30" si="41">_xlfn.CONCAT(SUBSTITUTE(D30,"."," "))</f>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N30" s="25" t="str">
-        <f t="shared" ref="N30" si="41">_xlfn.CONCAT(SUBSTITUTE(E30,"."," "))</f>
+        <f t="shared" ref="N30" si="42">_xlfn.CONCAT(SUBSTITUTE(E30,"."," "))</f>
         <v>Perfis Tubulares</v>
       </c>
       <c r="O30" s="25" t="str">
-        <f t="shared" ref="O30" si="42">_xlfn.CONCAT(SUBSTITUTE(F30,"."," "))</f>
+        <f t="shared" ref="O30" si="43">_xlfn.CONCAT(SUBSTITUTE(F30,"."," "))</f>
         <v>Seção Quadrada</v>
       </c>
       <c r="P30" s="25" t="s">
@@ -7115,8 +7261,12 @@
       <c r="Z30" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA30" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Square section tubular profile.</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="24">
         <v>31</v>
       </c>
@@ -7151,19 +7301,19 @@
         <v>9</v>
       </c>
       <c r="L31" s="25" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M31" s="25" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>Perfis LSTUZ</v>
       </c>
       <c r="N31" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>Perfis Tubulares</v>
       </c>
       <c r="O31" s="25" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>Seção Retangular</v>
       </c>
       <c r="P31" s="25" t="s">
@@ -7203,8 +7353,12 @@
       <c r="Z31" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA31" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Tubular profile with rectangular section.</v>
+      </c>
     </row>
-    <row r="32" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="24">
         <v>32</v>
       </c>
@@ -7239,19 +7393,19 @@
         <v>9</v>
       </c>
       <c r="L32" s="25" t="str">
-        <f t="shared" ref="L32:L98" si="43">_xlfn.CONCAT(SUBSTITUTE(C32,"1.",""))</f>
+        <f t="shared" ref="L32:L98" si="44">_xlfn.CONCAT(SUBSTITUTE(C32,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M32" s="25" t="str">
-        <f t="shared" ref="M32" si="44">_xlfn.CONCAT(SUBSTITUTE(D32,"."," "))</f>
+        <f t="shared" ref="M32" si="45">_xlfn.CONCAT(SUBSTITUTE(D32,"."," "))</f>
         <v>Emplacados</v>
       </c>
       <c r="N32" s="25" t="str">
-        <f t="shared" ref="N32" si="45">_xlfn.CONCAT(SUBSTITUTE(E32,"."," "))</f>
+        <f t="shared" ref="N32" si="46">_xlfn.CONCAT(SUBSTITUTE(E32,"."," "))</f>
         <v>Placas</v>
       </c>
       <c r="O32" s="25" t="str">
-        <f t="shared" ref="O32:O42" si="46">_xlfn.CONCAT(SUBSTITUTE(F32,"."," "))</f>
+        <f t="shared" ref="O32:O42" si="47">_xlfn.CONCAT(SUBSTITUTE(F32,"."," "))</f>
         <v>Placa de Base</v>
       </c>
       <c r="P32" s="25" t="s">
@@ -7291,8 +7445,12 @@
       <c r="Z32" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA32" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Base Plate</v>
+      </c>
     </row>
-    <row r="33" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="24">
         <v>33</v>
       </c>
@@ -7327,19 +7485,19 @@
         <v>9</v>
       </c>
       <c r="L33" s="25" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M33" s="25" t="str">
-        <f t="shared" ref="M33:M80" si="47">_xlfn.CONCAT(SUBSTITUTE(D33,"."," "))</f>
+        <f t="shared" ref="M33:M80" si="48">_xlfn.CONCAT(SUBSTITUTE(D33,"."," "))</f>
         <v>Emplacados</v>
       </c>
       <c r="N33" s="25" t="str">
-        <f t="shared" ref="N33:N80" si="48">_xlfn.CONCAT(SUBSTITUTE(E33,"."," "))</f>
+        <f t="shared" ref="N33:N80" si="49">_xlfn.CONCAT(SUBSTITUTE(E33,"."," "))</f>
         <v>Placas</v>
       </c>
       <c r="O33" s="25" t="str">
-        <f t="shared" ref="O33:O40" si="49">_xlfn.CONCAT(SUBSTITUTE(F33,"."," "))</f>
+        <f t="shared" ref="O33:O40" si="50">_xlfn.CONCAT(SUBSTITUTE(F33,"."," "))</f>
         <v>Placa Enrijecedora</v>
       </c>
       <c r="P33" s="25" t="s">
@@ -7379,8 +7537,12 @@
       <c r="Z33" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA33" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Steel-concrete interface plate</v>
+      </c>
     </row>
-    <row r="34" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="24">
         <v>34</v>
       </c>
@@ -7415,19 +7577,19 @@
         <v>9</v>
       </c>
       <c r="L34" s="25" t="str">
-        <f t="shared" ref="L34:L40" si="50">_xlfn.CONCAT(SUBSTITUTE(C34,"1.",""))</f>
+        <f t="shared" ref="L34:L40" si="51">_xlfn.CONCAT(SUBSTITUTE(C34,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M34" s="25" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>Emplacados</v>
       </c>
       <c r="N34" s="25" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>Placas</v>
       </c>
       <c r="O34" s="25" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Placa de Interface</v>
       </c>
       <c r="P34" s="25" t="s">
@@ -7467,8 +7629,12 @@
       <c r="Z34" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA34" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Steel-concrete interface plate</v>
+      </c>
     </row>
-    <row r="35" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="24">
         <v>35</v>
       </c>
@@ -7503,19 +7669,19 @@
         <v>9</v>
       </c>
       <c r="L35" s="25" t="str">
+        <f t="shared" si="51"/>
+        <v>Estrutura.Principal</v>
+      </c>
+      <c r="M35" s="25" t="str">
+        <f t="shared" si="48"/>
+        <v>Emplacados</v>
+      </c>
+      <c r="N35" s="25" t="str">
+        <f t="shared" si="49"/>
+        <v>Placas</v>
+      </c>
+      <c r="O35" s="25" t="str">
         <f t="shared" si="50"/>
-        <v>Estrutura.Principal</v>
-      </c>
-      <c r="M35" s="25" t="str">
-        <f t="shared" si="47"/>
-        <v>Emplacados</v>
-      </c>
-      <c r="N35" s="25" t="str">
-        <f t="shared" si="48"/>
-        <v>Placas</v>
-      </c>
-      <c r="O35" s="25" t="str">
-        <f t="shared" si="49"/>
         <v>Placa de Emenda</v>
       </c>
       <c r="P35" s="25" t="s">
@@ -7555,8 +7721,12 @@
       <c r="Z35" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA35" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Splice plate for joining metal parts</v>
+      </c>
     </row>
-    <row r="36" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="24">
         <v>36</v>
       </c>
@@ -7591,19 +7761,19 @@
         <v>9</v>
       </c>
       <c r="L36" s="25" t="str">
-        <f t="shared" ref="L36:L39" si="51">_xlfn.CONCAT(SUBSTITUTE(C36,"1.",""))</f>
+        <f t="shared" ref="L36:L39" si="52">_xlfn.CONCAT(SUBSTITUTE(C36,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M36" s="25" t="str">
-        <f t="shared" ref="M36:M39" si="52">_xlfn.CONCAT(SUBSTITUTE(D36,"."," "))</f>
+        <f t="shared" ref="M36:M39" si="53">_xlfn.CONCAT(SUBSTITUTE(D36,"."," "))</f>
         <v>Emplacados</v>
       </c>
       <c r="N36" s="25" t="str">
-        <f t="shared" ref="N36:N39" si="53">_xlfn.CONCAT(SUBSTITUTE(E36,"."," "))</f>
+        <f t="shared" ref="N36:N39" si="54">_xlfn.CONCAT(SUBSTITUTE(E36,"."," "))</f>
         <v>Placas</v>
       </c>
       <c r="O36" s="25" t="str">
-        <f t="shared" ref="O36:O39" si="54">_xlfn.CONCAT(SUBSTITUTE(F36,"."," "))</f>
+        <f t="shared" ref="O36:O39" si="55">_xlfn.CONCAT(SUBSTITUTE(F36,"."," "))</f>
         <v>Placa de Fechamento</v>
       </c>
       <c r="P36" s="25" t="s">
@@ -7643,8 +7813,12 @@
       <c r="Z36" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA36" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Plate for closure</v>
+      </c>
     </row>
-    <row r="37" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="24">
         <v>37</v>
       </c>
@@ -7679,19 +7853,19 @@
         <v>1015</v>
       </c>
       <c r="L37" s="25" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M37" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Emplacados</v>
       </c>
       <c r="N37" s="25" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Placas</v>
       </c>
       <c r="O37" s="25" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Placa de Mísula</v>
       </c>
       <c r="P37" s="25" t="s">
@@ -7731,8 +7905,12 @@
       <c r="Z37" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA37" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Plate to connect the column and the girder of the gantry of a metal shed.</v>
+      </c>
     </row>
-    <row r="38" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24">
         <v>38</v>
       </c>
@@ -7767,19 +7945,19 @@
         <v>1016</v>
       </c>
       <c r="L38" s="25" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M38" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Emplacados</v>
       </c>
       <c r="N38" s="25" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Placas</v>
       </c>
       <c r="O38" s="25" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Placa de Cumeeira</v>
       </c>
       <c r="P38" s="25" t="s">
@@ -7819,8 +7997,12 @@
       <c r="Z38" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA38" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Plate to connect the gantry beams of a metal shed.</v>
+      </c>
     </row>
-    <row r="39" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="24">
         <v>39</v>
       </c>
@@ -7855,19 +8037,19 @@
         <v>831</v>
       </c>
       <c r="L39" s="25" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M39" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Emplacados</v>
       </c>
       <c r="N39" s="25" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Placas</v>
       </c>
       <c r="O39" s="25" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Placa Gusset</v>
       </c>
       <c r="P39" s="25" t="s">
@@ -7907,8 +8089,12 @@
       <c r="Z39" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA39" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Gusset plate is used to connect diagonal bars, uprights and flanges in metal truss nodes.</v>
+      </c>
     </row>
-    <row r="40" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="24">
         <v>40</v>
       </c>
@@ -7943,19 +8129,19 @@
         <v>9</v>
       </c>
       <c r="L40" s="25" t="str">
+        <f t="shared" si="51"/>
+        <v>Estrutura.Principal</v>
+      </c>
+      <c r="M40" s="25" t="str">
+        <f t="shared" si="48"/>
+        <v>Chapas</v>
+      </c>
+      <c r="N40" s="25" t="str">
+        <f t="shared" si="49"/>
+        <v>SteelDecks</v>
+      </c>
+      <c r="O40" s="25" t="str">
         <f t="shared" si="50"/>
-        <v>Estrutura.Principal</v>
-      </c>
-      <c r="M40" s="25" t="str">
-        <f t="shared" si="47"/>
-        <v>Chapas</v>
-      </c>
-      <c r="N40" s="25" t="str">
-        <f t="shared" si="48"/>
-        <v>SteelDecks</v>
-      </c>
-      <c r="O40" s="25" t="str">
-        <f t="shared" si="49"/>
         <v>SteelDeck Trapezoidal</v>
       </c>
       <c r="P40" s="25" t="s">
@@ -7995,8 +8181,12 @@
       <c r="Z40" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA40" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>SteelDeck system for high-strength slab, consisting of a trapezoidal profiled steel sheet as a concrete formwork. ZAR 280 steel. Thicknesses of 0.8 mm, 0.95 and 1.25 mm. Length 12 m, Cover width 0.85 m.</v>
+      </c>
     </row>
-    <row r="41" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="24">
         <v>41</v>
       </c>
@@ -8031,19 +8221,19 @@
         <v>9</v>
       </c>
       <c r="L41" s="25" t="str">
-        <f t="shared" ref="L41" si="55">_xlfn.CONCAT(SUBSTITUTE(C41,"1.",""))</f>
+        <f t="shared" ref="L41" si="56">_xlfn.CONCAT(SUBSTITUTE(C41,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M41" s="25" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>Barras</v>
       </c>
       <c r="N41" s="25" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>Barras Laminadas</v>
       </c>
       <c r="O41" s="25" t="str">
-        <f t="shared" ref="O41" si="56">_xlfn.CONCAT(SUBSTITUTE(F41,"."," "))</f>
+        <f t="shared" ref="O41" si="57">_xlfn.CONCAT(SUBSTITUTE(F41,"."," "))</f>
         <v>Barra Redonda</v>
       </c>
       <c r="P41" s="25" t="s">
@@ -8083,8 +8273,12 @@
       <c r="Z41" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA41" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Round Rolled Bar</v>
+      </c>
     </row>
-    <row r="42" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24">
         <v>42</v>
       </c>
@@ -8119,19 +8313,19 @@
         <v>9</v>
       </c>
       <c r="L42" s="25" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M42" s="25" t="str">
-        <f t="shared" ref="M42" si="57">_xlfn.CONCAT(SUBSTITUTE(D42,"."," "))</f>
+        <f t="shared" ref="M42" si="58">_xlfn.CONCAT(SUBSTITUTE(D42,"."," "))</f>
         <v>Barras</v>
       </c>
       <c r="N42" s="25" t="str">
-        <f t="shared" ref="N42" si="58">_xlfn.CONCAT(SUBSTITUTE(E42,"."," "))</f>
+        <f t="shared" ref="N42" si="59">_xlfn.CONCAT(SUBSTITUTE(E42,"."," "))</f>
         <v>Barras Laminadas</v>
       </c>
       <c r="O42" s="25" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>Barra Quadrada</v>
       </c>
       <c r="P42" s="25" t="s">
@@ -8171,8 +8365,12 @@
       <c r="Z42" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA42" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Square Rolled Bar</v>
+      </c>
     </row>
-    <row r="43" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="24">
         <v>43</v>
       </c>
@@ -8207,19 +8405,19 @@
         <v>9</v>
       </c>
       <c r="L43" s="25" t="str">
-        <f t="shared" ref="L43:L73" si="59">_xlfn.CONCAT(SUBSTITUTE(C43,"1.",""))</f>
+        <f t="shared" ref="L43:L73" si="60">_xlfn.CONCAT(SUBSTITUTE(C43,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M43" s="25" t="str">
-        <f t="shared" ref="M43:M73" si="60">_xlfn.CONCAT(SUBSTITUTE(D43,"."," "))</f>
+        <f t="shared" ref="M43:M73" si="61">_xlfn.CONCAT(SUBSTITUTE(D43,"."," "))</f>
         <v>Barras</v>
       </c>
       <c r="N43" s="25" t="str">
-        <f t="shared" ref="N43:N73" si="61">_xlfn.CONCAT(SUBSTITUTE(E43,"."," "))</f>
+        <f t="shared" ref="N43:N73" si="62">_xlfn.CONCAT(SUBSTITUTE(E43,"."," "))</f>
         <v>Barras Laminadas</v>
       </c>
       <c r="O43" s="25" t="str">
-        <f t="shared" ref="O43:O73" si="62">_xlfn.CONCAT(SUBSTITUTE(F43,"."," "))</f>
+        <f t="shared" ref="O43:O73" si="63">_xlfn.CONCAT(SUBSTITUTE(F43,"."," "))</f>
         <v>Barra Hexagonal</v>
       </c>
       <c r="P43" s="25" t="s">
@@ -8259,8 +8457,12 @@
       <c r="Z43" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA43" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Hexagonal Rolled Bar</v>
+      </c>
     </row>
-    <row r="44" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="24">
         <v>44</v>
       </c>
@@ -8295,19 +8497,19 @@
         <v>9</v>
       </c>
       <c r="L44" s="25" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M44" s="25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>Barras</v>
       </c>
       <c r="N44" s="25" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>Barras Laminadas</v>
       </c>
       <c r="O44" s="25" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>Barra Chata</v>
       </c>
       <c r="P44" s="25" t="s">
@@ -8347,8 +8549,12 @@
       <c r="Z44" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA44" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Flat bar</v>
+      </c>
     </row>
-    <row r="45" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24">
         <v>45</v>
       </c>
@@ -8383,19 +8589,19 @@
         <v>9</v>
       </c>
       <c r="L45" s="25" t="str">
-        <f t="shared" ref="L45" si="63">_xlfn.CONCAT(SUBSTITUTE(C45,"1.",""))</f>
+        <f t="shared" ref="L45" si="64">_xlfn.CONCAT(SUBSTITUTE(C45,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M45" s="25" t="str">
-        <f t="shared" ref="M45" si="64">_xlfn.CONCAT(SUBSTITUTE(D45,"."," "))</f>
+        <f t="shared" ref="M45" si="65">_xlfn.CONCAT(SUBSTITUTE(D45,"."," "))</f>
         <v>Barras</v>
       </c>
       <c r="N45" s="25" t="str">
-        <f t="shared" ref="N45" si="65">_xlfn.CONCAT(SUBSTITUTE(E45,"."," "))</f>
+        <f t="shared" ref="N45" si="66">_xlfn.CONCAT(SUBSTITUTE(E45,"."," "))</f>
         <v>Barras Trefiladas</v>
       </c>
       <c r="O45" s="25" t="str">
-        <f t="shared" ref="O45" si="66">_xlfn.CONCAT(SUBSTITUTE(F45,"."," "))</f>
+        <f t="shared" ref="O45" si="67">_xlfn.CONCAT(SUBSTITUTE(F45,"."," "))</f>
         <v>Barra Trefilada Redonda</v>
       </c>
       <c r="P45" s="25" t="s">
@@ -8435,8 +8641,12 @@
       <c r="Z45" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA45" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Drawn round bar</v>
+      </c>
     </row>
-    <row r="46" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="24">
         <v>46</v>
       </c>
@@ -8471,19 +8681,19 @@
         <v>9</v>
       </c>
       <c r="L46" s="25" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M46" s="25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>Barras</v>
       </c>
       <c r="N46" s="25" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>Barras Trefiladas</v>
       </c>
       <c r="O46" s="25" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>Barra Trefilada Quadrada</v>
       </c>
       <c r="P46" s="25" t="s">
@@ -8523,8 +8733,12 @@
       <c r="Z46" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA46" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Drawn square bar</v>
+      </c>
     </row>
-    <row r="47" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="24">
         <v>47</v>
       </c>
@@ -8559,19 +8773,19 @@
         <v>9</v>
       </c>
       <c r="L47" s="25" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M47" s="25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>Barras</v>
       </c>
       <c r="N47" s="25" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>Barras Trefiladas</v>
       </c>
       <c r="O47" s="25" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>Barra Trefilada Hexagonal</v>
       </c>
       <c r="P47" s="25" t="s">
@@ -8611,8 +8825,12 @@
       <c r="Z47" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA47" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Drawn round bar</v>
+      </c>
     </row>
-    <row r="48" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="24">
         <v>48</v>
       </c>
@@ -8647,19 +8865,19 @@
         <v>842</v>
       </c>
       <c r="L48" s="25" t="str">
-        <f t="shared" ref="L48" si="67">_xlfn.CONCAT(SUBSTITUTE(C48,"1.",""))</f>
+        <f t="shared" ref="L48" si="68">_xlfn.CONCAT(SUBSTITUTE(C48,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M48" s="25" t="str">
-        <f t="shared" ref="M48" si="68">_xlfn.CONCAT(SUBSTITUTE(D48,"."," "))</f>
+        <f t="shared" ref="M48" si="69">_xlfn.CONCAT(SUBSTITUTE(D48,"."," "))</f>
         <v>Barras</v>
       </c>
       <c r="N48" s="25" t="str">
-        <f t="shared" ref="N48" si="69">_xlfn.CONCAT(SUBSTITUTE(E48,"."," "))</f>
+        <f t="shared" ref="N48" si="70">_xlfn.CONCAT(SUBSTITUTE(E48,"."," "))</f>
         <v>Barras Contraventamentos</v>
       </c>
       <c r="O48" s="25" t="str">
-        <f t="shared" ref="O48" si="70">_xlfn.CONCAT(SUBSTITUTE(F48,"."," "))</f>
+        <f t="shared" ref="O48" si="71">_xlfn.CONCAT(SUBSTITUTE(F48,"."," "))</f>
         <v>Barra Contraventamento</v>
       </c>
       <c r="P48" s="25" t="s">
@@ -8699,8 +8917,12 @@
       <c r="Z48" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA48" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Bar of a bracing.</v>
+      </c>
     </row>
-    <row r="49" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="24">
         <v>49</v>
       </c>
@@ -8735,19 +8957,19 @@
         <v>842</v>
       </c>
       <c r="L49" s="25" t="str">
-        <f t="shared" ref="L49:L53" si="71">_xlfn.CONCAT(SUBSTITUTE(C49,"1.",""))</f>
+        <f t="shared" ref="L49:L53" si="72">_xlfn.CONCAT(SUBSTITUTE(C49,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M49" s="25" t="str">
-        <f t="shared" ref="M49:M53" si="72">_xlfn.CONCAT(SUBSTITUTE(D49,"."," "))</f>
+        <f t="shared" ref="M49:M53" si="73">_xlfn.CONCAT(SUBSTITUTE(D49,"."," "))</f>
         <v>Barras</v>
       </c>
       <c r="N49" s="25" t="str">
-        <f t="shared" ref="N49:N53" si="73">_xlfn.CONCAT(SUBSTITUTE(E49,"."," "))</f>
+        <f t="shared" ref="N49:N53" si="74">_xlfn.CONCAT(SUBSTITUTE(E49,"."," "))</f>
         <v>Barras Contraventamentos</v>
       </c>
       <c r="O49" s="25" t="str">
-        <f t="shared" ref="O49:O53" si="74">_xlfn.CONCAT(SUBSTITUTE(F49,"."," "))</f>
+        <f t="shared" ref="O49:O53" si="75">_xlfn.CONCAT(SUBSTITUTE(F49,"."," "))</f>
         <v>Barra Comprimida</v>
       </c>
       <c r="P49" s="25" t="s">
@@ -8787,8 +9009,12 @@
       <c r="Z49" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA49" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Compressed bar of a bracing.</v>
+      </c>
     </row>
-    <row r="50" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="24">
         <v>50</v>
       </c>
@@ -8823,19 +9049,19 @@
         <v>842</v>
       </c>
       <c r="L50" s="25" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M50" s="25" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>Barras</v>
       </c>
       <c r="N50" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>Barras Contraventamentos</v>
       </c>
       <c r="O50" s="25" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>Barra Tracionada</v>
       </c>
       <c r="P50" s="25" t="s">
@@ -8875,8 +9101,12 @@
       <c r="Z50" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA50" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Traction bar of a bracing.</v>
+      </c>
     </row>
-    <row r="51" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="24">
         <v>51</v>
       </c>
@@ -8911,19 +9141,19 @@
         <v>844</v>
       </c>
       <c r="L51" s="25" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M51" s="25" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>Barras</v>
       </c>
       <c r="N51" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>Barras Montantes</v>
       </c>
       <c r="O51" s="25" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>Barra Montante</v>
       </c>
       <c r="P51" s="25" t="s">
@@ -8963,8 +9193,12 @@
       <c r="Z51" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA51" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Slash upstream a structure.</v>
+      </c>
     </row>
-    <row r="52" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="24">
         <v>52</v>
       </c>
@@ -8999,19 +9233,19 @@
         <v>845</v>
       </c>
       <c r="L52" s="25" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M52" s="25" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>Barras</v>
       </c>
       <c r="N52" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>Barras Diagonais</v>
       </c>
       <c r="O52" s="25" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>Barra Diagonal</v>
       </c>
       <c r="P52" s="25" t="s">
@@ -9051,8 +9285,12 @@
       <c r="Z52" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA52" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Diagonal bar a structure.</v>
+      </c>
     </row>
-    <row r="53" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="24">
         <v>53</v>
       </c>
@@ -9087,19 +9325,19 @@
         <v>846</v>
       </c>
       <c r="L53" s="25" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M53" s="25" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>Barras</v>
       </c>
       <c r="N53" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>Banzos</v>
       </c>
       <c r="O53" s="25" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>Banzo Superior</v>
       </c>
       <c r="P53" s="25" t="s">
@@ -9139,8 +9377,12 @@
       <c r="Z53" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA53" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Top sting of a truss.</v>
+      </c>
     </row>
-    <row r="54" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="24">
         <v>54</v>
       </c>
@@ -9175,19 +9417,19 @@
         <v>847</v>
       </c>
       <c r="L54" s="25" t="str">
-        <f t="shared" ref="L54" si="75">_xlfn.CONCAT(SUBSTITUTE(C54,"1.",""))</f>
+        <f t="shared" ref="L54" si="76">_xlfn.CONCAT(SUBSTITUTE(C54,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M54" s="25" t="str">
-        <f t="shared" ref="M54" si="76">_xlfn.CONCAT(SUBSTITUTE(D54,"."," "))</f>
+        <f t="shared" ref="M54" si="77">_xlfn.CONCAT(SUBSTITUTE(D54,"."," "))</f>
         <v>Barras</v>
       </c>
       <c r="N54" s="25" t="str">
-        <f t="shared" ref="N54" si="77">_xlfn.CONCAT(SUBSTITUTE(E54,"."," "))</f>
+        <f t="shared" ref="N54" si="78">_xlfn.CONCAT(SUBSTITUTE(E54,"."," "))</f>
         <v>Banzos</v>
       </c>
       <c r="O54" s="25" t="str">
-        <f t="shared" ref="O54" si="78">_xlfn.CONCAT(SUBSTITUTE(F54,"."," "))</f>
+        <f t="shared" ref="O54" si="79">_xlfn.CONCAT(SUBSTITUTE(F54,"."," "))</f>
         <v>Banzo Inferior</v>
       </c>
       <c r="P54" s="25" t="s">
@@ -9227,8 +9469,12 @@
       <c r="Z54" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA54" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Lower flange of a truss.</v>
+      </c>
     </row>
-    <row r="55" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="24">
         <v>55</v>
       </c>
@@ -9263,19 +9509,19 @@
         <v>9</v>
       </c>
       <c r="L55" s="25" t="str">
-        <f t="shared" ref="L55:L60" si="79">_xlfn.CONCAT(SUBSTITUTE(C55,"1.",""))</f>
+        <f t="shared" ref="L55:L60" si="80">_xlfn.CONCAT(SUBSTITUTE(C55,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M55" s="25" t="str">
-        <f t="shared" ref="M55:M60" si="80">_xlfn.CONCAT(SUBSTITUTE(D55,"."," "))</f>
+        <f t="shared" ref="M55:M60" si="81">_xlfn.CONCAT(SUBSTITUTE(D55,"."," "))</f>
         <v>ContraVentamentos</v>
       </c>
       <c r="N55" s="25" t="str">
-        <f t="shared" ref="N55:N60" si="81">_xlfn.CONCAT(SUBSTITUTE(E55,"."," "))</f>
+        <f t="shared" ref="N55:N60" si="82">_xlfn.CONCAT(SUBSTITUTE(E55,"."," "))</f>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="O55" s="25" t="str">
-        <f t="shared" ref="O55:O60" si="82">_xlfn.CONCAT(SUBSTITUTE(F55,"."," "))</f>
+        <f t="shared" ref="O55:O60" si="83">_xlfn.CONCAT(SUBSTITUTE(F55,"."," "))</f>
         <v>ContraVentamento Horizontal Diagonal</v>
       </c>
       <c r="P55" s="25" t="s">
@@ -9315,8 +9561,12 @@
       <c r="Z55" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA55" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Horizontal Diagonal Bracing. Bracing increases the overall rigidity of the metal structure and helps reduce the weight and efficiency of the parts.</v>
+      </c>
     </row>
-    <row r="56" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="24">
         <v>56</v>
       </c>
@@ -9351,19 +9601,19 @@
         <v>9</v>
       </c>
       <c r="L56" s="25" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M56" s="25" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="N56" s="25" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="O56" s="25" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>ContraVentamento Horizontal X</v>
       </c>
       <c r="P56" s="25" t="s">
@@ -9403,8 +9653,12 @@
       <c r="Z56" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA56" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Horizontal Cross Bracing. Bracing increases the overall rigidity of the metal structure and helps reduce the weight and efficiency of the parts.</v>
+      </c>
     </row>
-    <row r="57" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="24">
         <v>57</v>
       </c>
@@ -9439,19 +9693,19 @@
         <v>9</v>
       </c>
       <c r="L57" s="25" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M57" s="25" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="N57" s="25" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="O57" s="25" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>ContraVentamento Horizontal K</v>
       </c>
       <c r="P57" s="25" t="s">
@@ -9491,8 +9745,12 @@
       <c r="Z57" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA57" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Horizontal bracing K. Bracing increases the overall rigidity of the metal structure and helps reduce the weight and efficiency of the parts.</v>
+      </c>
     </row>
-    <row r="58" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="24">
         <v>58</v>
       </c>
@@ -9527,19 +9785,19 @@
         <v>9</v>
       </c>
       <c r="L58" s="25" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M58" s="25" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="N58" s="25" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="O58" s="25" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>ContraVentamento Horizontal V</v>
       </c>
       <c r="P58" s="25" t="s">
@@ -9579,8 +9837,12 @@
       <c r="Z58" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA58" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Horizontal V bracing. Bracing increases the overall rigidity of the metal structure and helps reduce the weight and efficiency of the parts.</v>
+      </c>
     </row>
-    <row r="59" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="24">
         <v>59</v>
       </c>
@@ -9615,19 +9877,19 @@
         <v>9</v>
       </c>
       <c r="L59" s="25" t="str">
-        <f t="shared" ref="L59" si="83">_xlfn.CONCAT(SUBSTITUTE(C59,"1.",""))</f>
+        <f t="shared" ref="L59" si="84">_xlfn.CONCAT(SUBSTITUTE(C59,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M59" s="25" t="str">
-        <f t="shared" ref="M59" si="84">_xlfn.CONCAT(SUBSTITUTE(D59,"."," "))</f>
+        <f t="shared" ref="M59" si="85">_xlfn.CONCAT(SUBSTITUTE(D59,"."," "))</f>
         <v>ContraVentamentos</v>
       </c>
       <c r="N59" s="25" t="str">
-        <f t="shared" ref="N59" si="85">_xlfn.CONCAT(SUBSTITUTE(E59,"."," "))</f>
+        <f t="shared" ref="N59" si="86">_xlfn.CONCAT(SUBSTITUTE(E59,"."," "))</f>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="O59" s="25" t="str">
-        <f t="shared" ref="O59" si="86">_xlfn.CONCAT(SUBSTITUTE(F59,"."," "))</f>
+        <f t="shared" ref="O59" si="87">_xlfn.CONCAT(SUBSTITUTE(F59,"."," "))</f>
         <v>ContraVentamento Horizontal VI</v>
       </c>
       <c r="P59" s="25" t="s">
@@ -9667,8 +9929,12 @@
       <c r="Z59" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA59" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Horizontal inverted V bracing. Bracing increases the overall rigidity of the metal structure and helps reduce the weight and efficiency of the parts.</v>
+      </c>
     </row>
-    <row r="60" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="24">
         <v>60</v>
       </c>
@@ -9703,19 +9969,19 @@
         <v>9</v>
       </c>
       <c r="L60" s="25" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M60" s="25" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="N60" s="25" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>ContraVentamentos Horizontais</v>
       </c>
       <c r="O60" s="25" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>ContraVentamento Horizontal Delta</v>
       </c>
       <c r="P60" s="25" t="s">
@@ -9755,8 +10021,12 @@
       <c r="Z60" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA60" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Horizontal Delta bracing. Bracing increases the overall rigidity of the metal structure and helps reduce the weight and efficiency of the parts.</v>
+      </c>
     </row>
-    <row r="61" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24">
         <v>61</v>
       </c>
@@ -9791,19 +10061,19 @@
         <v>9</v>
       </c>
       <c r="L61" s="25" t="str">
-        <f t="shared" ref="L61" si="87">_xlfn.CONCAT(SUBSTITUTE(C61,"1.",""))</f>
+        <f t="shared" ref="L61" si="88">_xlfn.CONCAT(SUBSTITUTE(C61,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M61" s="25" t="str">
-        <f t="shared" ref="M61" si="88">_xlfn.CONCAT(SUBSTITUTE(D61,"."," "))</f>
+        <f t="shared" ref="M61" si="89">_xlfn.CONCAT(SUBSTITUTE(D61,"."," "))</f>
         <v>ContraVentamentos</v>
       </c>
       <c r="N61" s="25" t="str">
-        <f t="shared" ref="N61" si="89">_xlfn.CONCAT(SUBSTITUTE(E61,"."," "))</f>
+        <f t="shared" ref="N61" si="90">_xlfn.CONCAT(SUBSTITUTE(E61,"."," "))</f>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="O61" s="25" t="str">
-        <f t="shared" ref="O61" si="90">_xlfn.CONCAT(SUBSTITUTE(F61,"."," "))</f>
+        <f t="shared" ref="O61" si="91">_xlfn.CONCAT(SUBSTITUTE(F61,"."," "))</f>
         <v>ContraVentamento Vertical</v>
       </c>
       <c r="P61" s="25" t="s">
@@ -9843,8 +10113,12 @@
       <c r="Z61" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA61" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Vertical Diagonal Bracing. Bracing increases the overall rigidity of the metal structure and helps reduce the weight and efficiency of the parts.</v>
+      </c>
     </row>
-    <row r="62" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="24">
         <v>62</v>
       </c>
@@ -9879,19 +10153,19 @@
         <v>9</v>
       </c>
       <c r="L62" s="25" t="str">
-        <f t="shared" ref="L62:L67" si="91">_xlfn.CONCAT(SUBSTITUTE(C62,"1.",""))</f>
+        <f t="shared" ref="L62:L67" si="92">_xlfn.CONCAT(SUBSTITUTE(C62,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M62" s="25" t="str">
-        <f t="shared" ref="M62:M67" si="92">_xlfn.CONCAT(SUBSTITUTE(D62,"."," "))</f>
+        <f t="shared" ref="M62:M67" si="93">_xlfn.CONCAT(SUBSTITUTE(D62,"."," "))</f>
         <v>ContraVentamentos</v>
       </c>
       <c r="N62" s="25" t="str">
-        <f t="shared" ref="N62:N67" si="93">_xlfn.CONCAT(SUBSTITUTE(E62,"."," "))</f>
+        <f t="shared" ref="N62:N67" si="94">_xlfn.CONCAT(SUBSTITUTE(E62,"."," "))</f>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="O62" s="25" t="str">
-        <f t="shared" ref="O62:O67" si="94">_xlfn.CONCAT(SUBSTITUTE(F62,"."," "))</f>
+        <f t="shared" ref="O62:O67" si="95">_xlfn.CONCAT(SUBSTITUTE(F62,"."," "))</f>
         <v>ContraVentamento Vertical X</v>
       </c>
       <c r="P62" s="25" t="s">
@@ -9931,8 +10205,12 @@
       <c r="Z62" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA62" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Vertical Cross Bracing. Bracing increases the overall rigidity of the metal structure and helps reduce the weight and efficiency of the parts.</v>
+      </c>
     </row>
-    <row r="63" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="24">
         <v>63</v>
       </c>
@@ -9967,19 +10245,19 @@
         <v>9</v>
       </c>
       <c r="L63" s="25" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M63" s="25" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="N63" s="25" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="O63" s="25" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>ContraVentamento Vertical K</v>
       </c>
       <c r="P63" s="25" t="s">
@@ -10019,8 +10297,12 @@
       <c r="Z63" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA63" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Vertical K bracing. Bracing increases the overall rigidity of the metal structure and helps reduce the weight and efficiency of the parts.</v>
+      </c>
     </row>
-    <row r="64" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="24">
         <v>64</v>
       </c>
@@ -10055,19 +10337,19 @@
         <v>9</v>
       </c>
       <c r="L64" s="25" t="str">
-        <f t="shared" ref="L64:L66" si="95">_xlfn.CONCAT(SUBSTITUTE(C64,"1.",""))</f>
+        <f t="shared" ref="L64:L66" si="96">_xlfn.CONCAT(SUBSTITUTE(C64,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M64" s="25" t="str">
-        <f t="shared" ref="M64:M66" si="96">_xlfn.CONCAT(SUBSTITUTE(D64,"."," "))</f>
+        <f t="shared" ref="M64:M66" si="97">_xlfn.CONCAT(SUBSTITUTE(D64,"."," "))</f>
         <v>ContraVentamentos</v>
       </c>
       <c r="N64" s="25" t="str">
-        <f t="shared" ref="N64:N66" si="97">_xlfn.CONCAT(SUBSTITUTE(E64,"."," "))</f>
+        <f t="shared" ref="N64:N66" si="98">_xlfn.CONCAT(SUBSTITUTE(E64,"."," "))</f>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="O64" s="25" t="str">
-        <f t="shared" ref="O64:O66" si="98">_xlfn.CONCAT(SUBSTITUTE(F64,"."," "))</f>
+        <f t="shared" ref="O64:O66" si="99">_xlfn.CONCAT(SUBSTITUTE(F64,"."," "))</f>
         <v>ContraVentamento Vertical V</v>
       </c>
       <c r="P64" s="25" t="s">
@@ -10107,8 +10389,12 @@
       <c r="Z64" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA64" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Vertical V bracing. Bracing increases the overall rigidity of the metal structure and helps reduce the weight and efficiency of the parts.</v>
+      </c>
     </row>
-    <row r="65" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="24">
         <v>65</v>
       </c>
@@ -10143,19 +10429,19 @@
         <v>9</v>
       </c>
       <c r="L65" s="25" t="str">
-        <f t="shared" ref="L65" si="99">_xlfn.CONCAT(SUBSTITUTE(C65,"1.",""))</f>
+        <f t="shared" ref="L65" si="100">_xlfn.CONCAT(SUBSTITUTE(C65,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M65" s="25" t="str">
-        <f t="shared" ref="M65" si="100">_xlfn.CONCAT(SUBSTITUTE(D65,"."," "))</f>
+        <f t="shared" ref="M65" si="101">_xlfn.CONCAT(SUBSTITUTE(D65,"."," "))</f>
         <v>ContraVentamentos</v>
       </c>
       <c r="N65" s="25" t="str">
-        <f t="shared" ref="N65" si="101">_xlfn.CONCAT(SUBSTITUTE(E65,"."," "))</f>
+        <f t="shared" ref="N65" si="102">_xlfn.CONCAT(SUBSTITUTE(E65,"."," "))</f>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="O65" s="25" t="str">
-        <f t="shared" ref="O65" si="102">_xlfn.CONCAT(SUBSTITUTE(F65,"."," "))</f>
+        <f t="shared" ref="O65" si="103">_xlfn.CONCAT(SUBSTITUTE(F65,"."," "))</f>
         <v>ContraVentamento Vertical VI</v>
       </c>
       <c r="P65" s="25" t="s">
@@ -10195,8 +10481,12 @@
       <c r="Z65" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA65" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Vertical inverted V bracing. Bracing increases the overall rigidity of the metal structure and helps reduce the weight and efficiency of the parts.</v>
+      </c>
     </row>
-    <row r="66" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="24">
         <v>66</v>
       </c>
@@ -10231,19 +10521,19 @@
         <v>9</v>
       </c>
       <c r="L66" s="25" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M66" s="25" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="N66" s="25" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>ContraVentamentos Verticais</v>
       </c>
       <c r="O66" s="25" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>ContraVentamento Vertical Delta</v>
       </c>
       <c r="P66" s="25" t="s">
@@ -10283,8 +10573,12 @@
       <c r="Z66" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA66" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>Horizontal Delta bracing. Bracing increases the overall rigidity of the metal structure and helps reduce the weight and efficiency of the parts.</v>
+      </c>
     </row>
-    <row r="67" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="24">
         <v>67</v>
       </c>
@@ -10319,19 +10613,19 @@
         <v>9</v>
       </c>
       <c r="L67" s="25" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M67" s="25" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>ContraVentamentos</v>
       </c>
       <c r="N67" s="25" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>ContraVentamentos Cabos</v>
       </c>
       <c r="O67" s="25" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>ContraVentamento Cabo</v>
       </c>
       <c r="P67" s="25" t="s">
@@ -10371,8 +10665,12 @@
       <c r="Z67" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA67" s="64" t="str">
+        <f t="shared" ref="AA67:AA126" si="104">_xlfn.TRANSLATE(P67,"pt","en")</f>
+        <v>Bracing with tensioned cable. Bracing increases the overall rigidity of the metal structure and helps reduce the weight and efficiency of the parts.</v>
+      </c>
     </row>
-    <row r="68" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="24">
         <v>68</v>
       </c>
@@ -10407,19 +10705,19 @@
         <v>9</v>
       </c>
       <c r="L68" s="25" t="str">
-        <f t="shared" ref="L68:L72" si="103">_xlfn.CONCAT(SUBSTITUTE(C68,"1.",""))</f>
+        <f t="shared" ref="L68:L72" si="105">_xlfn.CONCAT(SUBSTITUTE(C68,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M68" s="25" t="str">
-        <f t="shared" ref="M68:M72" si="104">_xlfn.CONCAT(SUBSTITUTE(D68,"."," "))</f>
+        <f t="shared" ref="M68:M72" si="106">_xlfn.CONCAT(SUBSTITUTE(D68,"."," "))</f>
         <v>Treliçados</v>
       </c>
       <c r="N68" s="25" t="str">
-        <f t="shared" ref="N68:N72" si="105">_xlfn.CONCAT(SUBSTITUTE(E68,"."," "))</f>
+        <f t="shared" ref="N68:N72" si="107">_xlfn.CONCAT(SUBSTITUTE(E68,"."," "))</f>
         <v>Treliças Planas</v>
       </c>
       <c r="O68" s="25" t="str">
-        <f t="shared" ref="O68:O71" si="106">_xlfn.CONCAT(SUBSTITUTE(F68,"."," "))</f>
+        <f t="shared" ref="O68:O71" si="108">_xlfn.CONCAT(SUBSTITUTE(F68,"."," "))</f>
         <v>Treliça Pratt</v>
       </c>
       <c r="P68" s="25" t="s">
@@ -10459,8 +10757,12 @@
       <c r="Z68" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA68" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Truss of parallel flanges with diagonals sloping downwards towards the center.</v>
+      </c>
     </row>
-    <row r="69" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="24">
         <v>69</v>
       </c>
@@ -10495,19 +10797,19 @@
         <v>9</v>
       </c>
       <c r="L69" s="25" t="str">
-        <f t="shared" ref="L69:L71" si="107">_xlfn.CONCAT(SUBSTITUTE(C69,"1.",""))</f>
+        <f t="shared" ref="L69:L71" si="109">_xlfn.CONCAT(SUBSTITUTE(C69,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M69" s="25" t="str">
-        <f t="shared" ref="M69:M71" si="108">_xlfn.CONCAT(SUBSTITUTE(D69,"."," "))</f>
+        <f t="shared" ref="M69:M71" si="110">_xlfn.CONCAT(SUBSTITUTE(D69,"."," "))</f>
         <v>Treliçados</v>
       </c>
       <c r="N69" s="25" t="str">
-        <f t="shared" ref="N69:N71" si="109">_xlfn.CONCAT(SUBSTITUTE(E69,"."," "))</f>
+        <f t="shared" ref="N69:N71" si="111">_xlfn.CONCAT(SUBSTITUTE(E69,"."," "))</f>
         <v>Treliças Planas</v>
       </c>
       <c r="O69" s="25" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>Treliça Howe</v>
       </c>
       <c r="P69" s="25" t="s">
@@ -10547,8 +10849,12 @@
       <c r="Z69" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA69" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Truss of parallel flanges with diagonals sloping upwards towards the center.</v>
+      </c>
     </row>
-    <row r="70" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="24">
         <v>70</v>
       </c>
@@ -10583,19 +10889,19 @@
         <v>9</v>
       </c>
       <c r="L70" s="25" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M70" s="25" t="str">
+        <f t="shared" si="110"/>
+        <v>Treliçados</v>
+      </c>
+      <c r="N70" s="25" t="str">
+        <f t="shared" si="111"/>
+        <v>Treliças Planas</v>
+      </c>
+      <c r="O70" s="25" t="str">
         <f t="shared" si="108"/>
-        <v>Treliçados</v>
-      </c>
-      <c r="N70" s="25" t="str">
-        <f t="shared" si="109"/>
-        <v>Treliças Planas</v>
-      </c>
-      <c r="O70" s="25" t="str">
-        <f t="shared" si="106"/>
         <v>Treliça Warren</v>
       </c>
       <c r="P70" s="25" t="s">
@@ -10635,8 +10941,12 @@
       <c r="Z70" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA70" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Lattice of parallel flanges with diagonals forming equilateral or isosceles triangles.</v>
+      </c>
     </row>
-    <row r="71" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="24">
         <v>71</v>
       </c>
@@ -10671,19 +10981,19 @@
         <v>9</v>
       </c>
       <c r="L71" s="25" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M71" s="25" t="str">
+        <f t="shared" si="110"/>
+        <v>Treliçados</v>
+      </c>
+      <c r="N71" s="25" t="str">
+        <f t="shared" si="111"/>
+        <v>Treliças Planas</v>
+      </c>
+      <c r="O71" s="25" t="str">
         <f t="shared" si="108"/>
-        <v>Treliçados</v>
-      </c>
-      <c r="N71" s="25" t="str">
-        <f t="shared" si="109"/>
-        <v>Treliças Planas</v>
-      </c>
-      <c r="O71" s="25" t="str">
-        <f t="shared" si="106"/>
         <v>Treliça Fink</v>
       </c>
       <c r="P71" s="25" t="s">
@@ -10723,8 +11033,12 @@
       <c r="Z71" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA71" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Truss with sloping flanges with W or M diagonals.</v>
+      </c>
     </row>
-    <row r="72" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="24">
         <v>72</v>
       </c>
@@ -10759,19 +11073,19 @@
         <v>9</v>
       </c>
       <c r="L72" s="25" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M72" s="25" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>Treliçados</v>
       </c>
       <c r="N72" s="25" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>Treliças Planas</v>
       </c>
       <c r="O72" s="25" t="str">
-        <f t="shared" ref="O72" si="110">_xlfn.CONCAT(SUBSTITUTE(F72,"."," "))</f>
+        <f t="shared" ref="O72" si="112">_xlfn.CONCAT(SUBSTITUTE(F72,"."," "))</f>
         <v>Treliça Vierendeel</v>
       </c>
       <c r="P72" s="25" t="s">
@@ -10811,8 +11125,12 @@
       <c r="Z72" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA72" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Truss with greater height and no diagonals. Formed by rigid rectacles or squares.</v>
+      </c>
     </row>
-    <row r="73" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="24">
         <v>73</v>
       </c>
@@ -10847,19 +11165,19 @@
         <v>9</v>
       </c>
       <c r="L73" s="25" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M73" s="25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>Treliçados</v>
       </c>
       <c r="N73" s="25" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>Treliças Planas</v>
       </c>
       <c r="O73" s="25" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>Tesoura</v>
       </c>
       <c r="P73" s="25" t="s">
@@ -10887,7 +11205,7 @@
         <v>722</v>
       </c>
       <c r="W73" s="30" t="str">
-        <f t="shared" ref="W73:W123" si="111">CONCATENATE("k.",LOWER(LEFT(D73,2)),LOWER(LEFT(E73,4)),".",A73)</f>
+        <f t="shared" ref="W73:W123" si="113">CONCATENATE("k.",LOWER(LEFT(D73,2)),LOWER(LEFT(E73,4)),".",A73)</f>
         <v>k.trtrel.73</v>
       </c>
       <c r="X73" s="55" t="s">
@@ -10899,8 +11217,12 @@
       <c r="Z73" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA73" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Flat truss of sloping flanges for residential roofs.</v>
+      </c>
     </row>
-    <row r="74" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="24">
         <v>74</v>
       </c>
@@ -10935,19 +11257,19 @@
         <v>9</v>
       </c>
       <c r="L74" s="25" t="str">
-        <f t="shared" ref="L74:L80" si="112">_xlfn.CONCAT(SUBSTITUTE(C74,"1.",""))</f>
+        <f t="shared" ref="L74:L80" si="114">_xlfn.CONCAT(SUBSTITUTE(C74,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M74" s="25" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>Treliçados</v>
       </c>
       <c r="N74" s="25" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>Treliças Planas</v>
       </c>
       <c r="O74" s="25" t="str">
-        <f t="shared" ref="O74:O80" si="113">_xlfn.CONCAT(SUBSTITUTE(F74,"."," "))</f>
+        <f t="shared" ref="O74:O80" si="115">_xlfn.CONCAT(SUBSTITUTE(F74,"."," "))</f>
         <v>Treliça Ponte</v>
       </c>
       <c r="P74" s="25" t="s">
@@ -10975,7 +11297,7 @@
         <v>722</v>
       </c>
       <c r="W74" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.trtrel.74</v>
       </c>
       <c r="X74" s="55" t="s">
@@ -10987,8 +11309,12 @@
       <c r="Z74" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA74" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Flat truss with parallel flanges for bridges.</v>
+      </c>
     </row>
-    <row r="75" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="24">
         <v>75</v>
       </c>
@@ -11023,19 +11349,19 @@
         <v>9</v>
       </c>
       <c r="L75" s="25" t="str">
-        <f t="shared" ref="L75:L79" si="114">_xlfn.CONCAT(SUBSTITUTE(C75,"1.",""))</f>
+        <f t="shared" ref="L75:L79" si="116">_xlfn.CONCAT(SUBSTITUTE(C75,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M75" s="25" t="str">
-        <f t="shared" ref="M75:M79" si="115">_xlfn.CONCAT(SUBSTITUTE(D75,"."," "))</f>
+        <f t="shared" ref="M75:M79" si="117">_xlfn.CONCAT(SUBSTITUTE(D75,"."," "))</f>
         <v>Treliçados</v>
       </c>
       <c r="N75" s="25" t="str">
-        <f t="shared" ref="N75:N79" si="116">_xlfn.CONCAT(SUBSTITUTE(E75,"."," "))</f>
+        <f t="shared" ref="N75:N79" si="118">_xlfn.CONCAT(SUBSTITUTE(E75,"."," "))</f>
         <v>Treliças Espaciais</v>
       </c>
       <c r="O75" s="25" t="str">
-        <f t="shared" ref="O75:O79" si="117">_xlfn.CONCAT(SUBSTITUTE(F75,"."," "))</f>
+        <f t="shared" ref="O75:O79" si="119">_xlfn.CONCAT(SUBSTITUTE(F75,"."," "))</f>
         <v>Treliça Espacial Reticulada</v>
       </c>
       <c r="P75" s="25" t="s">
@@ -11063,7 +11389,7 @@
         <v>722</v>
       </c>
       <c r="W75" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.trtrel.75</v>
       </c>
       <c r="X75" s="55" t="s">
@@ -11075,8 +11401,12 @@
       <c r="Z75" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA75" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Spatial truss formed by two or more layers of equal bars arranged in a square or rectangular mesh.</v>
+      </c>
     </row>
-    <row r="76" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="24">
         <v>76</v>
       </c>
@@ -11111,19 +11441,19 @@
         <v>9</v>
       </c>
       <c r="L76" s="25" t="str">
-        <f t="shared" ref="L76" si="118">_xlfn.CONCAT(SUBSTITUTE(C76,"1.",""))</f>
+        <f t="shared" ref="L76" si="120">_xlfn.CONCAT(SUBSTITUTE(C76,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M76" s="25" t="str">
-        <f t="shared" ref="M76" si="119">_xlfn.CONCAT(SUBSTITUTE(D76,"."," "))</f>
+        <f t="shared" ref="M76" si="121">_xlfn.CONCAT(SUBSTITUTE(D76,"."," "))</f>
         <v>Treliçados</v>
       </c>
       <c r="N76" s="25" t="str">
-        <f t="shared" ref="N76" si="120">_xlfn.CONCAT(SUBSTITUTE(E76,"."," "))</f>
+        <f t="shared" ref="N76" si="122">_xlfn.CONCAT(SUBSTITUTE(E76,"."," "))</f>
         <v>Treliças Espaciais</v>
       </c>
       <c r="O76" s="25" t="str">
-        <f t="shared" ref="O76" si="121">_xlfn.CONCAT(SUBSTITUTE(F76,"."," "))</f>
+        <f t="shared" ref="O76" si="123">_xlfn.CONCAT(SUBSTITUTE(F76,"."," "))</f>
         <v>Treliça Espacial Geodésica</v>
       </c>
       <c r="P76" s="25" t="s">
@@ -11136,22 +11466,22 @@
         <v>9</v>
       </c>
       <c r="S76" s="62" t="str">
-        <f t="shared" ref="S76:S123" si="122">SUBSTITUTE(C76, ".", " ")</f>
+        <f t="shared" ref="S76:S123" si="124">SUBSTITUTE(C76, ".", " ")</f>
         <v>Estrutura Principal</v>
       </c>
       <c r="T76" s="62" t="str">
-        <f t="shared" ref="T76:T123" si="123">SUBSTITUTE(D76, ".", " ")</f>
+        <f t="shared" ref="T76:T123" si="125">SUBSTITUTE(D76, ".", " ")</f>
         <v>Treliçados</v>
       </c>
       <c r="U76" s="62" t="str">
-        <f t="shared" ref="U76:U123" si="124">SUBSTITUTE(E76, ".", " ")</f>
+        <f t="shared" ref="U76:U123" si="126">SUBSTITUTE(E76, ".", " ")</f>
         <v>Treliças Espaciais</v>
       </c>
       <c r="V76" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W76" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.trtrel.76</v>
       </c>
       <c r="X76" s="55" t="s">
@@ -11163,8 +11493,12 @@
       <c r="Z76" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA76" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Spatial truss formed as a geodesic dome of equilateral or near-equilateral triangles.</v>
+      </c>
     </row>
-    <row r="77" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="24">
         <v>77</v>
       </c>
@@ -11199,283 +11533,295 @@
         <v>9</v>
       </c>
       <c r="L77" s="25" t="str">
+        <f t="shared" si="116"/>
+        <v>Estrutura.Principal</v>
+      </c>
+      <c r="M77" s="25" t="str">
+        <f t="shared" si="117"/>
+        <v>Treliçados</v>
+      </c>
+      <c r="N77" s="25" t="str">
+        <f t="shared" si="118"/>
+        <v>Treliças Espaciais</v>
+      </c>
+      <c r="O77" s="25" t="str">
+        <f t="shared" si="119"/>
+        <v>Treliça Espacial Arqueada</v>
+      </c>
+      <c r="P77" s="25" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q77" s="29" t="s">
+        <v>761</v>
+      </c>
+      <c r="R77" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S77" s="62" t="str">
+        <f t="shared" si="124"/>
+        <v>Estrutura Principal</v>
+      </c>
+      <c r="T77" s="62" t="str">
+        <f t="shared" si="125"/>
+        <v>Treliçados</v>
+      </c>
+      <c r="U77" s="62" t="str">
+        <f t="shared" si="126"/>
+        <v>Treliças Espaciais</v>
+      </c>
+      <c r="V77" s="61" t="s">
+        <v>722</v>
+      </c>
+      <c r="W77" s="30" t="str">
+        <f t="shared" si="113"/>
+        <v>k.trtrel.77</v>
+      </c>
+      <c r="X77" s="55" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y77" s="55" t="s">
+        <v>830</v>
+      </c>
+      <c r="Z77" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA77" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Spatial truss formed as a vault or curvatures of equilateral or near-equilateral tricculles.</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="24">
+        <v>78</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="G78" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J78" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L78" s="25" t="str">
+        <f t="shared" si="116"/>
+        <v>Estrutura.Principal</v>
+      </c>
+      <c r="M78" s="25" t="str">
+        <f t="shared" si="117"/>
+        <v>Treliçados</v>
+      </c>
+      <c r="N78" s="25" t="str">
+        <f t="shared" si="118"/>
+        <v>Treliças Espaciais</v>
+      </c>
+      <c r="O78" s="25" t="str">
+        <f t="shared" si="119"/>
+        <v>Treliça Espacial Piramidal</v>
+      </c>
+      <c r="P78" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q78" s="29" t="s">
+        <v>762</v>
+      </c>
+      <c r="R78" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S78" s="62" t="str">
+        <f t="shared" si="124"/>
+        <v>Estrutura Principal</v>
+      </c>
+      <c r="T78" s="62" t="str">
+        <f t="shared" si="125"/>
+        <v>Treliçados</v>
+      </c>
+      <c r="U78" s="62" t="str">
+        <f t="shared" si="126"/>
+        <v>Treliças Espaciais</v>
+      </c>
+      <c r="V78" s="61" t="s">
+        <v>722</v>
+      </c>
+      <c r="W78" s="30" t="str">
+        <f t="shared" si="113"/>
+        <v>k.trtrel.78</v>
+      </c>
+      <c r="X78" s="55" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y78" s="55" t="s">
+        <v>830</v>
+      </c>
+      <c r="Z78" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA78" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Spatial truss formed by pyramidal spatial modules of equal bars.</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="24">
+        <v>79</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="G79" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J79" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L79" s="25" t="str">
+        <f t="shared" si="116"/>
+        <v>Estrutura.Principal</v>
+      </c>
+      <c r="M79" s="25" t="str">
+        <f t="shared" si="117"/>
+        <v>Treliçados</v>
+      </c>
+      <c r="N79" s="25" t="str">
+        <f t="shared" si="118"/>
+        <v>Treliças Espaciais</v>
+      </c>
+      <c r="O79" s="25" t="str">
+        <f t="shared" si="119"/>
+        <v>Treliça Espacial Octaédrica</v>
+      </c>
+      <c r="P79" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q79" s="29" t="s">
+        <v>763</v>
+      </c>
+      <c r="R79" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S79" s="62" t="str">
+        <f t="shared" si="124"/>
+        <v>Estrutura Principal</v>
+      </c>
+      <c r="T79" s="62" t="str">
+        <f t="shared" si="125"/>
+        <v>Treliçados</v>
+      </c>
+      <c r="U79" s="62" t="str">
+        <f t="shared" si="126"/>
+        <v>Treliças Espaciais</v>
+      </c>
+      <c r="V79" s="61" t="s">
+        <v>722</v>
+      </c>
+      <c r="W79" s="30" t="str">
+        <f t="shared" si="113"/>
+        <v>k.trtrel.79</v>
+      </c>
+      <c r="X79" s="55" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y79" s="55" t="s">
+        <v>830</v>
+      </c>
+      <c r="Z79" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA79" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Spatial truss formed by spatial modules of octahedra of equal bars.</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="24">
+        <v>80</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="G80" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J80" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L80" s="25" t="str">
         <f t="shared" si="114"/>
         <v>Estrutura.Principal</v>
       </c>
-      <c r="M77" s="25" t="str">
+      <c r="M80" s="25" t="str">
+        <f t="shared" si="48"/>
+        <v>Treliçados</v>
+      </c>
+      <c r="N80" s="25" t="str">
+        <f t="shared" si="49"/>
+        <v>Treliças Espaciais</v>
+      </c>
+      <c r="O80" s="25" t="str">
         <f t="shared" si="115"/>
-        <v>Treliçados</v>
-      </c>
-      <c r="N77" s="25" t="str">
-        <f t="shared" si="116"/>
-        <v>Treliças Espaciais</v>
-      </c>
-      <c r="O77" s="25" t="str">
-        <f t="shared" si="117"/>
-        <v>Treliça Espacial Arqueada</v>
-      </c>
-      <c r="P77" s="25" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q77" s="29" t="s">
-        <v>761</v>
-      </c>
-      <c r="R77" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="S77" s="62" t="str">
-        <f t="shared" si="122"/>
-        <v>Estrutura Principal</v>
-      </c>
-      <c r="T77" s="62" t="str">
-        <f t="shared" si="123"/>
-        <v>Treliçados</v>
-      </c>
-      <c r="U77" s="62" t="str">
-        <f t="shared" si="124"/>
-        <v>Treliças Espaciais</v>
-      </c>
-      <c r="V77" s="61" t="s">
-        <v>722</v>
-      </c>
-      <c r="W77" s="30" t="str">
-        <f t="shared" si="111"/>
-        <v>k.trtrel.77</v>
-      </c>
-      <c r="X77" s="55" t="s">
-        <v>630</v>
-      </c>
-      <c r="Y77" s="55" t="s">
-        <v>830</v>
-      </c>
-      <c r="Z77" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="24">
-        <v>78</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>680</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>737</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="G78" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I78" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="J78" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="K78" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="L78" s="25" t="str">
-        <f t="shared" si="114"/>
-        <v>Estrutura.Principal</v>
-      </c>
-      <c r="M78" s="25" t="str">
-        <f t="shared" si="115"/>
-        <v>Treliçados</v>
-      </c>
-      <c r="N78" s="25" t="str">
-        <f t="shared" si="116"/>
-        <v>Treliças Espaciais</v>
-      </c>
-      <c r="O78" s="25" t="str">
-        <f t="shared" si="117"/>
-        <v>Treliça Espacial Piramidal</v>
-      </c>
-      <c r="P78" s="25" t="s">
-        <v>735</v>
-      </c>
-      <c r="Q78" s="29" t="s">
-        <v>762</v>
-      </c>
-      <c r="R78" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="S78" s="62" t="str">
-        <f t="shared" si="122"/>
-        <v>Estrutura Principal</v>
-      </c>
-      <c r="T78" s="62" t="str">
-        <f t="shared" si="123"/>
-        <v>Treliçados</v>
-      </c>
-      <c r="U78" s="62" t="str">
-        <f t="shared" si="124"/>
-        <v>Treliças Espaciais</v>
-      </c>
-      <c r="V78" s="61" t="s">
-        <v>722</v>
-      </c>
-      <c r="W78" s="30" t="str">
-        <f t="shared" si="111"/>
-        <v>k.trtrel.78</v>
-      </c>
-      <c r="X78" s="55" t="s">
-        <v>630</v>
-      </c>
-      <c r="Y78" s="55" t="s">
-        <v>830</v>
-      </c>
-      <c r="Z78" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="24">
-        <v>79</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>680</v>
-      </c>
-      <c r="E79" s="18" t="s">
-        <v>737</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="G79" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I79" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="J79" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="K79" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="L79" s="25" t="str">
-        <f t="shared" si="114"/>
-        <v>Estrutura.Principal</v>
-      </c>
-      <c r="M79" s="25" t="str">
-        <f t="shared" si="115"/>
-        <v>Treliçados</v>
-      </c>
-      <c r="N79" s="25" t="str">
-        <f t="shared" si="116"/>
-        <v>Treliças Espaciais</v>
-      </c>
-      <c r="O79" s="25" t="str">
-        <f t="shared" si="117"/>
-        <v>Treliça Espacial Octaédrica</v>
-      </c>
-      <c r="P79" s="25" t="s">
-        <v>734</v>
-      </c>
-      <c r="Q79" s="29" t="s">
-        <v>763</v>
-      </c>
-      <c r="R79" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="S79" s="62" t="str">
-        <f t="shared" si="122"/>
-        <v>Estrutura Principal</v>
-      </c>
-      <c r="T79" s="62" t="str">
-        <f t="shared" si="123"/>
-        <v>Treliçados</v>
-      </c>
-      <c r="U79" s="62" t="str">
-        <f t="shared" si="124"/>
-        <v>Treliças Espaciais</v>
-      </c>
-      <c r="V79" s="61" t="s">
-        <v>722</v>
-      </c>
-      <c r="W79" s="30" t="str">
-        <f t="shared" si="111"/>
-        <v>k.trtrel.79</v>
-      </c>
-      <c r="X79" s="55" t="s">
-        <v>630</v>
-      </c>
-      <c r="Y79" s="55" t="s">
-        <v>830</v>
-      </c>
-      <c r="Z79" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="24">
-        <v>80</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>680</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>737</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>740</v>
-      </c>
-      <c r="G80" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H80" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I80" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="J80" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="K80" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="L80" s="25" t="str">
-        <f t="shared" si="112"/>
-        <v>Estrutura.Principal</v>
-      </c>
-      <c r="M80" s="25" t="str">
-        <f t="shared" si="47"/>
-        <v>Treliçados</v>
-      </c>
-      <c r="N80" s="25" t="str">
-        <f t="shared" si="48"/>
-        <v>Treliças Espaciais</v>
-      </c>
-      <c r="O80" s="25" t="str">
-        <f t="shared" si="113"/>
         <v>Treliça Espacial Híbrida</v>
       </c>
       <c r="P80" s="25" t="s">
@@ -11488,22 +11834,22 @@
         <v>9</v>
       </c>
       <c r="S80" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T80" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Treliçados</v>
       </c>
       <c r="U80" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Treliças Espaciais</v>
       </c>
       <c r="V80" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W80" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.trtrel.80</v>
       </c>
       <c r="X80" s="55" t="s">
@@ -11515,8 +11861,12 @@
       <c r="Z80" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA80" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Truss of space modules of mixed formation of equal bars.</v>
+      </c>
     </row>
-    <row r="81" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="24">
         <v>81</v>
       </c>
@@ -11551,19 +11901,19 @@
         <v>9</v>
       </c>
       <c r="L81" s="25" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M81" s="25" t="str">
-        <f t="shared" ref="M81:M98" si="125">_xlfn.CONCAT(SUBSTITUTE(D81,"."," "))</f>
+        <f t="shared" ref="M81:M98" si="127">_xlfn.CONCAT(SUBSTITUTE(D81,"."," "))</f>
         <v>Tensionadas</v>
       </c>
       <c r="N81" s="25" t="str">
-        <f t="shared" ref="N81:N98" si="126">_xlfn.CONCAT(SUBSTITUTE(E81,"."," "))</f>
+        <f t="shared" ref="N81:N98" si="128">_xlfn.CONCAT(SUBSTITUTE(E81,"."," "))</f>
         <v>Ancoras</v>
       </c>
       <c r="O81" s="25" t="str">
-        <f t="shared" ref="O81:O115" si="127">_xlfn.CONCAT(SUBSTITUTE(F81,"."," "))</f>
+        <f t="shared" ref="O81:O115" si="129">_xlfn.CONCAT(SUBSTITUTE(F81,"."," "))</f>
         <v>Ancora Estrutural</v>
       </c>
       <c r="P81" s="25" t="s">
@@ -11576,22 +11926,22 @@
         <v>9</v>
       </c>
       <c r="S81" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T81" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U81" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Ancoras</v>
       </c>
       <c r="V81" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W81" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.teanco.81</v>
       </c>
       <c r="X81" s="55" t="s">
@@ -11603,8 +11953,12 @@
       <c r="Z81" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA81" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Anchoring element</v>
+      </c>
     </row>
-    <row r="82" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="24">
         <v>82</v>
       </c>
@@ -11639,19 +11993,19 @@
         <v>9</v>
       </c>
       <c r="L82" s="25" t="str">
-        <f t="shared" ref="L82:L97" si="128">_xlfn.CONCAT(SUBSTITUTE(C82,"1.",""))</f>
+        <f t="shared" ref="L82:L97" si="130">_xlfn.CONCAT(SUBSTITUTE(C82,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M82" s="25" t="str">
-        <f t="shared" ref="M82:M97" si="129">_xlfn.CONCAT(SUBSTITUTE(D82,"."," "))</f>
+        <f t="shared" ref="M82:M97" si="131">_xlfn.CONCAT(SUBSTITUTE(D82,"."," "))</f>
         <v>Tensionadas</v>
       </c>
       <c r="N82" s="25" t="str">
-        <f t="shared" ref="N82:N97" si="130">_xlfn.CONCAT(SUBSTITUTE(E82,"."," "))</f>
+        <f t="shared" ref="N82:N97" si="132">_xlfn.CONCAT(SUBSTITUTE(E82,"."," "))</f>
         <v>Ancoras</v>
       </c>
       <c r="O82" s="25" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>Conector Estrutural</v>
       </c>
       <c r="P82" s="25" t="s">
@@ -11664,22 +12018,22 @@
         <v>9</v>
       </c>
       <c r="S82" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T82" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U82" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Ancoras</v>
       </c>
       <c r="V82" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W82" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.teanco.82</v>
       </c>
       <c r="X82" s="55" t="s">
@@ -11691,8 +12045,12 @@
       <c r="Z82" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA82" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Connector element</v>
+      </c>
     </row>
-    <row r="83" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="24">
         <v>83</v>
       </c>
@@ -11727,19 +12085,19 @@
         <v>9</v>
       </c>
       <c r="L83" s="25" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M83" s="25" t="str">
+        <f t="shared" si="131"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N83" s="25" t="str">
+        <f t="shared" si="132"/>
+        <v>Ancoras</v>
+      </c>
+      <c r="O83" s="25" t="str">
         <f t="shared" si="129"/>
-        <v>Tensionadas</v>
-      </c>
-      <c r="N83" s="25" t="str">
-        <f t="shared" si="130"/>
-        <v>Ancoras</v>
-      </c>
-      <c r="O83" s="25" t="str">
-        <f t="shared" si="127"/>
         <v>Ancoragem de Estai</v>
       </c>
       <c r="P83" s="25" t="s">
@@ -11752,22 +12110,22 @@
         <v>9</v>
       </c>
       <c r="S83" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T83" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U83" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Ancoras</v>
       </c>
       <c r="V83" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W83" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.teanco.83</v>
       </c>
       <c r="X83" s="55" t="s">
@@ -11779,8 +12137,12 @@
       <c r="Z83" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA83" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Estai Anchoring</v>
+      </c>
     </row>
-    <row r="84" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="24">
         <v>84</v>
       </c>
@@ -11815,19 +12177,19 @@
         <v>9</v>
       </c>
       <c r="L84" s="25" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M84" s="25" t="str">
+        <f t="shared" si="131"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N84" s="25" t="str">
+        <f t="shared" si="132"/>
+        <v>Ancoras</v>
+      </c>
+      <c r="O84" s="25" t="str">
         <f t="shared" si="129"/>
-        <v>Tensionadas</v>
-      </c>
-      <c r="N84" s="25" t="str">
-        <f t="shared" si="130"/>
-        <v>Ancoras</v>
-      </c>
-      <c r="O84" s="25" t="str">
-        <f t="shared" si="127"/>
         <v>Ancoragem Acoplador</v>
       </c>
       <c r="P84" s="25" t="s">
@@ -11840,22 +12202,22 @@
         <v>9</v>
       </c>
       <c r="S84" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T84" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U84" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Ancoras</v>
       </c>
       <c r="V84" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W84" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.teanco.84</v>
       </c>
       <c r="X84" s="55" t="s">
@@ -11867,8 +12229,12 @@
       <c r="Z84" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA84" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Anchor Coupler</v>
+      </c>
     </row>
-    <row r="85" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="24">
         <v>85</v>
       </c>
@@ -11903,19 +12269,19 @@
         <v>9</v>
       </c>
       <c r="L85" s="25" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M85" s="25" t="str">
+        <f t="shared" si="131"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N85" s="25" t="str">
+        <f t="shared" si="132"/>
+        <v>Ancoras</v>
+      </c>
+      <c r="O85" s="25" t="str">
         <f t="shared" si="129"/>
-        <v>Tensionadas</v>
-      </c>
-      <c r="N85" s="25" t="str">
-        <f t="shared" si="130"/>
-        <v>Ancoras</v>
-      </c>
-      <c r="O85" s="25" t="str">
-        <f t="shared" si="127"/>
         <v>Ancoragem Extremo Fixo</v>
       </c>
       <c r="P85" s="25" t="s">
@@ -11928,22 +12294,22 @@
         <v>9</v>
       </c>
       <c r="S85" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T85" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U85" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Ancoras</v>
       </c>
       <c r="V85" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W85" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.teanco.85</v>
       </c>
       <c r="X85" s="55" t="s">
@@ -11955,8 +12321,12 @@
       <c r="Z85" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA85" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Fixed Extreme Anchorage</v>
+      </c>
     </row>
-    <row r="86" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="24">
         <v>86</v>
       </c>
@@ -11991,19 +12361,19 @@
         <v>9</v>
       </c>
       <c r="L86" s="25" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M86" s="25" t="str">
+        <f t="shared" si="131"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N86" s="25" t="str">
+        <f t="shared" si="132"/>
+        <v>Ancoras</v>
+      </c>
+      <c r="O86" s="25" t="str">
         <f t="shared" si="129"/>
-        <v>Tensionadas</v>
-      </c>
-      <c r="N86" s="25" t="str">
-        <f t="shared" si="130"/>
-        <v>Ancoras</v>
-      </c>
-      <c r="O86" s="25" t="str">
-        <f t="shared" si="127"/>
         <v>Ancoragem Extremo Tensionado</v>
       </c>
       <c r="P86" s="25" t="s">
@@ -12016,22 +12386,22 @@
         <v>9</v>
       </c>
       <c r="S86" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T86" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U86" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Ancoras</v>
       </c>
       <c r="V86" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W86" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.teanco.86</v>
       </c>
       <c r="X86" s="55" t="s">
@@ -12043,8 +12413,12 @@
       <c r="Z86" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA86" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Extreme Tensioned Anchor</v>
+      </c>
     </row>
-    <row r="87" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="24">
         <v>87</v>
       </c>
@@ -12079,19 +12453,19 @@
         <v>9</v>
       </c>
       <c r="L87" s="25" t="str">
-        <f t="shared" ref="L87" si="131">_xlfn.CONCAT(SUBSTITUTE(C87,"1.",""))</f>
+        <f t="shared" ref="L87" si="133">_xlfn.CONCAT(SUBSTITUTE(C87,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M87" s="25" t="str">
-        <f t="shared" ref="M87" si="132">_xlfn.CONCAT(SUBSTITUTE(D87,"."," "))</f>
+        <f t="shared" ref="M87" si="134">_xlfn.CONCAT(SUBSTITUTE(D87,"."," "))</f>
         <v>Tensionadas</v>
       </c>
       <c r="N87" s="25" t="str">
-        <f t="shared" ref="N87" si="133">_xlfn.CONCAT(SUBSTITUTE(E87,"."," "))</f>
+        <f t="shared" ref="N87" si="135">_xlfn.CONCAT(SUBSTITUTE(E87,"."," "))</f>
         <v>Tensores</v>
       </c>
       <c r="O87" s="25" t="str">
-        <f t="shared" ref="O87" si="134">_xlfn.CONCAT(SUBSTITUTE(F87,"."," "))</f>
+        <f t="shared" ref="O87" si="136">_xlfn.CONCAT(SUBSTITUTE(F87,"."," "))</f>
         <v>Estai</v>
       </c>
       <c r="P87" s="25" t="s">
@@ -12104,22 +12478,22 @@
         <v>9</v>
       </c>
       <c r="S87" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T87" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U87" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Tensores</v>
       </c>
       <c r="V87" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W87" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.tetens.87</v>
       </c>
       <c r="X87" s="55" t="s">
@@ -12131,8 +12505,12 @@
       <c r="Z87" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA87" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Stay</v>
+      </c>
     </row>
-    <row r="88" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="24">
         <v>88</v>
       </c>
@@ -12167,19 +12545,19 @@
         <v>9</v>
       </c>
       <c r="L88" s="25" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M88" s="25" t="str">
+        <f t="shared" si="131"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N88" s="25" t="str">
+        <f t="shared" si="132"/>
+        <v>Tensores</v>
+      </c>
+      <c r="O88" s="25" t="str">
         <f t="shared" si="129"/>
-        <v>Tensionadas</v>
-      </c>
-      <c r="N88" s="25" t="str">
-        <f t="shared" si="130"/>
-        <v>Tensores</v>
-      </c>
-      <c r="O88" s="25" t="str">
-        <f t="shared" si="127"/>
         <v>Tensor Barra</v>
       </c>
       <c r="P88" s="25" t="s">
@@ -12192,22 +12570,22 @@
         <v>9</v>
       </c>
       <c r="S88" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T88" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U88" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Tensores</v>
       </c>
       <c r="V88" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W88" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.tetens.88</v>
       </c>
       <c r="X88" s="55" t="s">
@@ -12219,8 +12597,12 @@
       <c r="Z88" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA88" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Tensioner Bar</v>
+      </c>
     </row>
-    <row r="89" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="24">
         <v>89</v>
       </c>
@@ -12255,19 +12637,19 @@
         <v>9</v>
       </c>
       <c r="L89" s="25" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M89" s="25" t="str">
+        <f t="shared" si="131"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N89" s="25" t="str">
+        <f t="shared" si="132"/>
+        <v>Tensores</v>
+      </c>
+      <c r="O89" s="25" t="str">
         <f t="shared" si="129"/>
-        <v>Tensionadas</v>
-      </c>
-      <c r="N89" s="25" t="str">
-        <f t="shared" si="130"/>
-        <v>Tensores</v>
-      </c>
-      <c r="O89" s="25" t="str">
-        <f t="shared" si="127"/>
         <v>Tensor Revestido</v>
       </c>
       <c r="P89" s="25" t="s">
@@ -12280,22 +12662,22 @@
         <v>9</v>
       </c>
       <c r="S89" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T89" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U89" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Tensores</v>
       </c>
       <c r="V89" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W89" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.tetens.89</v>
       </c>
       <c r="X89" s="55" t="s">
@@ -12307,8 +12689,12 @@
       <c r="Z89" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA89" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Coated Tensioner</v>
+      </c>
     </row>
-    <row r="90" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="24">
         <v>90</v>
       </c>
@@ -12343,19 +12729,19 @@
         <v>9</v>
       </c>
       <c r="L90" s="25" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M90" s="25" t="str">
+        <f t="shared" si="131"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N90" s="25" t="str">
+        <f t="shared" si="132"/>
+        <v>Tensores</v>
+      </c>
+      <c r="O90" s="25" t="str">
         <f t="shared" si="129"/>
-        <v>Tensionadas</v>
-      </c>
-      <c r="N90" s="25" t="str">
-        <f t="shared" si="130"/>
-        <v>Tensores</v>
-      </c>
-      <c r="O90" s="25" t="str">
-        <f t="shared" si="127"/>
         <v>Tensor Bainha</v>
       </c>
       <c r="P90" s="25" t="s">
@@ -12368,22 +12754,22 @@
         <v>9</v>
       </c>
       <c r="S90" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T90" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U90" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Tensores</v>
       </c>
       <c r="V90" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W90" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.tetens.90</v>
       </c>
       <c r="X90" s="55" t="s">
@@ -12395,8 +12781,12 @@
       <c r="Z90" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA90" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Tensioner Sheath</v>
+      </c>
     </row>
-    <row r="91" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="24">
         <v>91</v>
       </c>
@@ -12431,19 +12821,19 @@
         <v>9</v>
       </c>
       <c r="L91" s="25" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M91" s="25" t="str">
+        <f t="shared" si="131"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N91" s="25" t="str">
+        <f t="shared" si="132"/>
+        <v>Tensores</v>
+      </c>
+      <c r="O91" s="25" t="str">
         <f t="shared" si="129"/>
-        <v>Tensionadas</v>
-      </c>
-      <c r="N91" s="25" t="str">
-        <f t="shared" si="130"/>
-        <v>Tensores</v>
-      </c>
-      <c r="O91" s="25" t="str">
-        <f t="shared" si="127"/>
         <v>Tensor Bainha Acoplador</v>
       </c>
       <c r="P91" s="25" t="s">
@@ -12456,22 +12846,22 @@
         <v>9</v>
       </c>
       <c r="S91" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T91" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U91" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Tensores</v>
       </c>
       <c r="V91" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W91" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.tetens.91</v>
       </c>
       <c r="X91" s="55" t="s">
@@ -12483,8 +12873,12 @@
       <c r="Z91" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA91" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Tensioner Sheath Coupler</v>
+      </c>
     </row>
-    <row r="92" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="24">
         <v>92</v>
       </c>
@@ -12519,19 +12913,19 @@
         <v>9</v>
       </c>
       <c r="L92" s="25" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M92" s="25" t="str">
+        <f t="shared" si="131"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N92" s="25" t="str">
+        <f t="shared" si="132"/>
+        <v>Tensores</v>
+      </c>
+      <c r="O92" s="25" t="str">
         <f t="shared" si="129"/>
-        <v>Tensionadas</v>
-      </c>
-      <c r="N92" s="25" t="str">
-        <f t="shared" si="130"/>
-        <v>Tensores</v>
-      </c>
-      <c r="O92" s="25" t="str">
-        <f t="shared" si="127"/>
         <v>Tensor Bainha Diabolo</v>
       </c>
       <c r="P92" s="25" t="s">
@@ -12544,22 +12938,22 @@
         <v>9</v>
       </c>
       <c r="S92" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T92" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U92" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Tensores</v>
       </c>
       <c r="V92" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W92" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.tetens.92</v>
       </c>
       <c r="X92" s="55" t="s">
@@ -12571,8 +12965,12 @@
       <c r="Z92" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA92" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Diabolo Sheath Tensioner</v>
+      </c>
     </row>
-    <row r="93" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="24">
         <v>93</v>
       </c>
@@ -12607,19 +13005,19 @@
         <v>9</v>
       </c>
       <c r="L93" s="25" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M93" s="25" t="str">
+        <f t="shared" si="131"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N93" s="25" t="str">
+        <f t="shared" si="132"/>
+        <v>Tensores</v>
+      </c>
+      <c r="O93" s="25" t="str">
         <f t="shared" si="129"/>
-        <v>Tensionadas</v>
-      </c>
-      <c r="N93" s="25" t="str">
-        <f t="shared" si="130"/>
-        <v>Tensores</v>
-      </c>
-      <c r="O93" s="25" t="str">
-        <f t="shared" si="127"/>
         <v>Tensor Bainha Cabo</v>
       </c>
       <c r="P93" s="25" t="s">
@@ -12632,22 +13030,22 @@
         <v>9</v>
       </c>
       <c r="S93" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T93" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U93" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Tensores</v>
       </c>
       <c r="V93" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W93" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.tetens.93</v>
       </c>
       <c r="X93" s="55" t="s">
@@ -12659,8 +13057,12 @@
       <c r="Z93" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA93" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Tensioner Sheath Cable</v>
+      </c>
     </row>
-    <row r="94" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="24">
         <v>94</v>
       </c>
@@ -12695,19 +13097,19 @@
         <v>9</v>
       </c>
       <c r="L94" s="25" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M94" s="25" t="str">
+        <f t="shared" si="131"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N94" s="25" t="str">
+        <f t="shared" si="132"/>
+        <v>Tensores</v>
+      </c>
+      <c r="O94" s="25" t="str">
         <f t="shared" si="129"/>
-        <v>Tensionadas</v>
-      </c>
-      <c r="N94" s="25" t="str">
-        <f t="shared" si="130"/>
-        <v>Tensores</v>
-      </c>
-      <c r="O94" s="25" t="str">
-        <f t="shared" si="127"/>
         <v>Tensor Injetor</v>
       </c>
       <c r="P94" s="25" t="s">
@@ -12720,22 +13122,22 @@
         <v>9</v>
       </c>
       <c r="S94" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T94" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U94" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Tensores</v>
       </c>
       <c r="V94" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W94" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.tetens.94</v>
       </c>
       <c r="X94" s="55" t="s">
@@ -12747,8 +13149,12 @@
       <c r="Z94" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA94" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Injector Tensioner</v>
+      </c>
     </row>
-    <row r="95" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="24">
         <v>95</v>
       </c>
@@ -12783,19 +13189,19 @@
         <v>9</v>
       </c>
       <c r="L95" s="25" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M95" s="25" t="str">
+        <f t="shared" si="131"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N95" s="25" t="str">
+        <f t="shared" si="132"/>
+        <v>Tensores</v>
+      </c>
+      <c r="O95" s="25" t="str">
         <f t="shared" si="129"/>
-        <v>Tensionadas</v>
-      </c>
-      <c r="N95" s="25" t="str">
-        <f t="shared" si="130"/>
-        <v>Tensores</v>
-      </c>
-      <c r="O95" s="25" t="str">
-        <f t="shared" si="127"/>
         <v>Tensor Trombeta</v>
       </c>
       <c r="P95" s="25" t="s">
@@ -12808,22 +13214,22 @@
         <v>9</v>
       </c>
       <c r="S95" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T95" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U95" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Tensores</v>
       </c>
       <c r="V95" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W95" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.tetens.95</v>
       </c>
       <c r="X95" s="55" t="s">
@@ -12835,8 +13241,12 @@
       <c r="Z95" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA95" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Trumpet Tensor</v>
+      </c>
     </row>
-    <row r="96" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="24">
         <v>96</v>
       </c>
@@ -12871,19 +13281,19 @@
         <v>9</v>
       </c>
       <c r="L96" s="25" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M96" s="25" t="str">
+        <f t="shared" si="131"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N96" s="25" t="str">
+        <f t="shared" si="132"/>
+        <v>Tensores</v>
+      </c>
+      <c r="O96" s="25" t="str">
         <f t="shared" si="129"/>
-        <v>Tensionadas</v>
-      </c>
-      <c r="N96" s="25" t="str">
-        <f t="shared" si="130"/>
-        <v>Tensores</v>
-      </c>
-      <c r="O96" s="25" t="str">
-        <f t="shared" si="127"/>
         <v>Tensor Corda</v>
       </c>
       <c r="P96" s="25" t="s">
@@ -12896,22 +13306,22 @@
         <v>9</v>
       </c>
       <c r="S96" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T96" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U96" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Tensores</v>
       </c>
       <c r="V96" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W96" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.tetens.96</v>
       </c>
       <c r="X96" s="55" t="s">
@@ -12923,8 +13333,12 @@
       <c r="Z96" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA96" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Rope Tensioner</v>
+      </c>
     </row>
-    <row r="97" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="24">
         <v>97</v>
       </c>
@@ -12959,19 +13373,19 @@
         <v>9</v>
       </c>
       <c r="L97" s="25" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M97" s="25" t="str">
+        <f t="shared" si="131"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N97" s="25" t="str">
+        <f t="shared" si="132"/>
+        <v>Tensores</v>
+      </c>
+      <c r="O97" s="25" t="str">
         <f t="shared" si="129"/>
-        <v>Tensionadas</v>
-      </c>
-      <c r="N97" s="25" t="str">
-        <f t="shared" si="130"/>
-        <v>Tensores</v>
-      </c>
-      <c r="O97" s="25" t="str">
-        <f t="shared" si="127"/>
         <v>Tensor Fio</v>
       </c>
       <c r="P97" s="25" t="s">
@@ -12984,22 +13398,22 @@
         <v>9</v>
       </c>
       <c r="S97" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T97" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U97" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Tensores</v>
       </c>
       <c r="V97" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W97" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.tetens.97</v>
       </c>
       <c r="X97" s="55" t="s">
@@ -13011,8 +13425,12 @@
       <c r="Z97" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA97" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Wire Tensioner</v>
+      </c>
     </row>
-    <row r="98" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="24">
         <v>98</v>
       </c>
@@ -13047,47 +13465,47 @@
         <v>9</v>
       </c>
       <c r="L98" s="25" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M98" s="25" t="str">
+        <f t="shared" si="127"/>
+        <v>Tensionadas</v>
+      </c>
+      <c r="N98" s="25" t="str">
+        <f t="shared" si="128"/>
+        <v>Tensores</v>
+      </c>
+      <c r="O98" s="25" t="str">
+        <f t="shared" si="129"/>
+        <v>Mastro Estrutural</v>
+      </c>
+      <c r="P98" s="25" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q98" s="29" t="s">
+        <v>991</v>
+      </c>
+      <c r="R98" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="S98" s="62" t="str">
+        <f t="shared" si="124"/>
+        <v>Estrutura Principal</v>
+      </c>
+      <c r="T98" s="62" t="str">
         <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
-      <c r="N98" s="25" t="str">
+      <c r="U98" s="62" t="str">
         <f t="shared" si="126"/>
         <v>Tensores</v>
       </c>
-      <c r="O98" s="25" t="str">
-        <f t="shared" si="127"/>
-        <v>Mastro Estrutural</v>
-      </c>
-      <c r="P98" s="25" t="s">
-        <v>974</v>
-      </c>
-      <c r="Q98" s="29" t="s">
-        <v>991</v>
-      </c>
-      <c r="R98" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="S98" s="62" t="str">
-        <f t="shared" si="122"/>
-        <v>Estrutura Principal</v>
-      </c>
-      <c r="T98" s="62" t="str">
-        <f t="shared" si="123"/>
-        <v>Tensionadas</v>
-      </c>
-      <c r="U98" s="62" t="str">
-        <f t="shared" si="124"/>
-        <v>Tensores</v>
-      </c>
       <c r="V98" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W98" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.tetens.98</v>
       </c>
       <c r="X98" s="55" t="s">
@@ -13099,8 +13517,12 @@
       <c r="Z98" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA98" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Structural Mast</v>
+      </c>
     </row>
-    <row r="99" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="24">
         <v>99</v>
       </c>
@@ -13135,19 +13557,19 @@
         <v>9</v>
       </c>
       <c r="L99" s="25" t="str">
-        <f t="shared" ref="L99:L120" si="135">_xlfn.CONCAT(SUBSTITUTE(C99,"1.",""))</f>
+        <f t="shared" ref="L99:L120" si="137">_xlfn.CONCAT(SUBSTITUTE(C99,"1.",""))</f>
         <v>Estrutura.Principal</v>
       </c>
       <c r="M99" s="25" t="str">
-        <f t="shared" ref="M99:M120" si="136">_xlfn.CONCAT(SUBSTITUTE(D99,"."," "))</f>
+        <f t="shared" ref="M99:M120" si="138">_xlfn.CONCAT(SUBSTITUTE(D99,"."," "))</f>
         <v>Tensionadas</v>
       </c>
       <c r="N99" s="25" t="str">
-        <f t="shared" ref="N99:N120" si="137">_xlfn.CONCAT(SUBSTITUTE(E99,"."," "))</f>
+        <f t="shared" ref="N99:N120" si="139">_xlfn.CONCAT(SUBSTITUTE(E99,"."," "))</f>
         <v>Tensores</v>
       </c>
       <c r="O99" s="25" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>Membrana Estrutural</v>
       </c>
       <c r="P99" s="25" t="s">
@@ -13160,22 +13582,22 @@
         <v>9</v>
       </c>
       <c r="S99" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Principal</v>
       </c>
       <c r="T99" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Tensionadas</v>
       </c>
       <c r="U99" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Tensores</v>
       </c>
       <c r="V99" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W99" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.tetens.99</v>
       </c>
       <c r="X99" s="55" t="s">
@@ -13187,8 +13609,12 @@
       <c r="Z99" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA99" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Closure membrane</v>
+      </c>
     </row>
-    <row r="100" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="24">
         <v>100</v>
       </c>
@@ -13223,19 +13649,19 @@
         <v>9</v>
       </c>
       <c r="L100" s="25" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>Estrutura.Secundária</v>
       </c>
       <c r="M100" s="25" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="N100" s="25" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>Terças</v>
       </c>
       <c r="O100" s="25" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>Terça Cobertura</v>
       </c>
       <c r="P100" s="25" t="s">
@@ -13248,22 +13674,22 @@
         <v>9</v>
       </c>
       <c r="S100" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Secundária</v>
       </c>
       <c r="T100" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="U100" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Terças</v>
       </c>
       <c r="V100" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W100" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.teterç.100</v>
       </c>
       <c r="X100" s="55" t="s">
@@ -13275,8 +13701,12 @@
       <c r="Z100" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA100" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Purlins for metal structure roofing placed at 1.50 m to support the roof.</v>
+      </c>
     </row>
-    <row r="101" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="24">
         <v>101</v>
       </c>
@@ -13311,19 +13741,19 @@
         <v>9</v>
       </c>
       <c r="L101" s="25" t="str">
-        <f t="shared" ref="L101:L114" si="138">_xlfn.CONCAT(SUBSTITUTE(C101,"1.",""))</f>
+        <f t="shared" ref="L101:L114" si="140">_xlfn.CONCAT(SUBSTITUTE(C101,"1.",""))</f>
         <v>Estrutura.Secundária</v>
       </c>
       <c r="M101" s="25" t="str">
-        <f t="shared" ref="M101:M114" si="139">_xlfn.CONCAT(SUBSTITUTE(D101,"."," "))</f>
+        <f t="shared" ref="M101:M114" si="141">_xlfn.CONCAT(SUBSTITUTE(D101,"."," "))</f>
         <v>Terças de Suporte</v>
       </c>
       <c r="N101" s="25" t="str">
-        <f t="shared" ref="N101:N114" si="140">_xlfn.CONCAT(SUBSTITUTE(E101,"."," "))</f>
+        <f t="shared" ref="N101:N114" si="142">_xlfn.CONCAT(SUBSTITUTE(E101,"."," "))</f>
         <v>Terças</v>
       </c>
       <c r="O101" s="25" t="str">
-        <f t="shared" ref="O101:O114" si="141">_xlfn.CONCAT(SUBSTITUTE(F101,"."," "))</f>
+        <f t="shared" ref="O101:O114" si="143">_xlfn.CONCAT(SUBSTITUTE(F101,"."," "))</f>
         <v>Terça Fachada</v>
       </c>
       <c r="P101" s="25" t="s">
@@ -13336,22 +13766,22 @@
         <v>9</v>
       </c>
       <c r="S101" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Secundária</v>
       </c>
       <c r="T101" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="U101" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Terças</v>
       </c>
       <c r="V101" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W101" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.teterç.101</v>
       </c>
       <c r="X101" s="55" t="s">
@@ -13363,8 +13793,12 @@
       <c r="Z101" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA101" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Purlins to support façade elements placed at 1.50 m to support vertical panels.</v>
+      </c>
     </row>
-    <row r="102" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="24">
         <v>102</v>
       </c>
@@ -13399,19 +13833,19 @@
         <v>9</v>
       </c>
       <c r="L102" s="25" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>Estrutura.Secundária</v>
       </c>
       <c r="M102" s="25" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="N102" s="25" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>Terças</v>
       </c>
       <c r="O102" s="25" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>Terça Cartola</v>
       </c>
       <c r="P102" s="25" t="s">
@@ -13424,22 +13858,22 @@
         <v>9</v>
       </c>
       <c r="S102" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Secundária</v>
       </c>
       <c r="T102" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="U102" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Terças</v>
       </c>
       <c r="V102" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W102" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.teterç.102</v>
       </c>
       <c r="X102" s="55" t="s">
@@ -13451,8 +13885,12 @@
       <c r="Z102" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA102" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Purlins to support façade elements placed at 1.50 m to support vertical panels.</v>
+      </c>
     </row>
-    <row r="103" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="24">
         <v>103</v>
       </c>
@@ -13487,19 +13925,19 @@
         <v>9</v>
       </c>
       <c r="L103" s="25" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>Estrutura.Secundária</v>
       </c>
       <c r="M103" s="25" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="N103" s="25" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>Tirantes</v>
       </c>
       <c r="O103" s="25" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>Tirante Beiral</v>
       </c>
       <c r="P103" s="25" t="s">
@@ -13512,22 +13950,22 @@
         <v>9</v>
       </c>
       <c r="S103" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Secundária</v>
       </c>
       <c r="T103" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="U103" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Tirantes</v>
       </c>
       <c r="V103" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W103" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.tetira.103</v>
       </c>
       <c r="X103" s="55" t="s">
@@ -13539,8 +13977,12 @@
       <c r="Z103" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA103" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Metal connection at the junction between the inclined beam (rafter) and the vertical column at the point where the roof meets the side wall.</v>
+      </c>
     </row>
-    <row r="104" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="24">
         <v>104</v>
       </c>
@@ -13575,19 +14017,19 @@
         <v>9</v>
       </c>
       <c r="L104" s="25" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>Estrutura.Secundária</v>
       </c>
       <c r="M104" s="25" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="N104" s="25" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>Tirantes</v>
       </c>
       <c r="O104" s="25" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>Tirante Terça</v>
       </c>
       <c r="P104" s="25" t="s">
@@ -13600,22 +14042,22 @@
         <v>9</v>
       </c>
       <c r="S104" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Secundária</v>
       </c>
       <c r="T104" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="U104" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Tirantes</v>
       </c>
       <c r="V104" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W104" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.tetira.104</v>
       </c>
       <c r="X104" s="55" t="s">
@@ -13627,8 +14069,12 @@
       <c r="Z104" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA104" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Metal connection at the junction between the inclined beam (rafter) and the purlin.</v>
+      </c>
     </row>
-    <row r="105" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="24">
         <v>105</v>
       </c>
@@ -13663,19 +14109,19 @@
         <v>9</v>
       </c>
       <c r="L105" s="25" t="str">
-        <f t="shared" ref="L105" si="142">_xlfn.CONCAT(SUBSTITUTE(C105,"1.",""))</f>
+        <f t="shared" ref="L105" si="144">_xlfn.CONCAT(SUBSTITUTE(C105,"1.",""))</f>
         <v>Estrutura.Secundária</v>
       </c>
       <c r="M105" s="25" t="str">
-        <f t="shared" ref="M105" si="143">_xlfn.CONCAT(SUBSTITUTE(D105,"."," "))</f>
+        <f t="shared" ref="M105" si="145">_xlfn.CONCAT(SUBSTITUTE(D105,"."," "))</f>
         <v>Terças de Suporte</v>
       </c>
       <c r="N105" s="25" t="str">
-        <f t="shared" ref="N105" si="144">_xlfn.CONCAT(SUBSTITUTE(E105,"."," "))</f>
+        <f t="shared" ref="N105" si="146">_xlfn.CONCAT(SUBSTITUTE(E105,"."," "))</f>
         <v>Tirantes</v>
       </c>
       <c r="O105" s="25" t="str">
-        <f t="shared" ref="O105" si="145">_xlfn.CONCAT(SUBSTITUTE(F105,"."," "))</f>
+        <f t="shared" ref="O105" si="147">_xlfn.CONCAT(SUBSTITUTE(F105,"."," "))</f>
         <v>Tirante Cumeeira</v>
       </c>
       <c r="P105" s="25" t="s">
@@ -13688,22 +14134,22 @@
         <v>9</v>
       </c>
       <c r="S105" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Secundária</v>
       </c>
       <c r="T105" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="U105" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Tirantes</v>
       </c>
       <c r="V105" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W105" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.tetira.105</v>
       </c>
       <c r="X105" s="55" t="s">
@@ -13715,8 +14161,12 @@
       <c r="Z105" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA105" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Metal connection at the junction between the inclined beams of the gantry.</v>
+      </c>
     </row>
-    <row r="106" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="24">
         <v>106</v>
       </c>
@@ -13751,19 +14201,19 @@
         <v>9</v>
       </c>
       <c r="L106" s="25" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>Estrutura.Secundária</v>
       </c>
       <c r="M106" s="25" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="N106" s="25" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>Frechais</v>
       </c>
       <c r="O106" s="25" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>Frechal Alinhamento</v>
       </c>
       <c r="P106" s="25" t="s">
@@ -13776,22 +14226,22 @@
         <v>9</v>
       </c>
       <c r="S106" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Secundária</v>
       </c>
       <c r="T106" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Terças de Suporte</v>
       </c>
       <c r="U106" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Frechais</v>
       </c>
       <c r="V106" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W106" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.tefrec.106</v>
       </c>
       <c r="X106" s="55" t="s">
@@ -13803,8 +14253,12 @@
       <c r="Z106" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA106" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Alignment of purliners.</v>
+      </c>
     </row>
-    <row r="107" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="24">
         <v>107</v>
       </c>
@@ -13839,19 +14293,19 @@
         <v>9</v>
       </c>
       <c r="L107" s="25" t="str">
-        <f t="shared" ref="L107" si="146">_xlfn.CONCAT(SUBSTITUTE(C107,"1.",""))</f>
+        <f t="shared" ref="L107" si="148">_xlfn.CONCAT(SUBSTITUTE(C107,"1.",""))</f>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M107" s="25" t="str">
-        <f t="shared" ref="M107" si="147">_xlfn.CONCAT(SUBSTITUTE(D107,"."," "))</f>
+        <f t="shared" ref="M107" si="149">_xlfn.CONCAT(SUBSTITUTE(D107,"."," "))</f>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="N107" s="25" t="str">
-        <f t="shared" ref="N107" si="148">_xlfn.CONCAT(SUBSTITUTE(E107,"."," "))</f>
+        <f t="shared" ref="N107" si="150">_xlfn.CONCAT(SUBSTITUTE(E107,"."," "))</f>
         <v>Paineis Sanduíches</v>
       </c>
       <c r="O107" s="25" t="str">
-        <f t="shared" ref="O107" si="149">_xlfn.CONCAT(SUBSTITUTE(F107,"."," "))</f>
+        <f t="shared" ref="O107" si="151">_xlfn.CONCAT(SUBSTITUTE(F107,"."," "))</f>
         <v>Painel Sanduíche Fachada</v>
       </c>
       <c r="P107" s="25" t="s">
@@ -13864,22 +14318,22 @@
         <v>9</v>
       </c>
       <c r="S107" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Fechamento</v>
       </c>
       <c r="T107" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="U107" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Paineis Sanduíches</v>
       </c>
       <c r="V107" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W107" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.sipain.107</v>
       </c>
       <c r="X107" s="55" t="s">
@@ -13891,8 +14345,12 @@
       <c r="Z107" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA107" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Sandwich panel for facades with PIR AP cores covered by pre-painted steel sheets. They provide architectural finish with a concealed fitting system. Manufactured with high-pressure foam injection, they ensure uniformity of insulation.</v>
+      </c>
     </row>
-    <row r="108" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="24">
         <v>108</v>
       </c>
@@ -13927,19 +14385,19 @@
         <v>9</v>
       </c>
       <c r="L108" s="25" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M108" s="25" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="N108" s="25" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>Paineis Sanduíches</v>
       </c>
       <c r="O108" s="25" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>Painel Sanduíche Térmico</v>
       </c>
       <c r="P108" s="25" t="s">
@@ -13952,22 +14410,22 @@
         <v>9</v>
       </c>
       <c r="S108" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Fechamento</v>
       </c>
       <c r="T108" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="U108" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Paineis Sanduíches</v>
       </c>
       <c r="V108" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W108" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.sipain.108</v>
       </c>
       <c r="X108" s="55" t="s">
@@ -13979,8 +14437,12 @@
       <c r="Z108" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA108" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Thermal Panel with EPS core meets thermal insulation demands in environments that require strict temperature control, such as refrigerators and cold rooms.</v>
+      </c>
     </row>
-    <row r="109" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="24">
         <v>109</v>
       </c>
@@ -14015,19 +14477,19 @@
         <v>9</v>
       </c>
       <c r="L109" s="25" t="str">
-        <f t="shared" ref="L109:L111" si="150">_xlfn.CONCAT(SUBSTITUTE(C109,"1.",""))</f>
+        <f t="shared" ref="L109:L111" si="152">_xlfn.CONCAT(SUBSTITUTE(C109,"1.",""))</f>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M109" s="25" t="str">
-        <f t="shared" ref="M109:M111" si="151">_xlfn.CONCAT(SUBSTITUTE(D109,"."," "))</f>
+        <f t="shared" ref="M109:M111" si="153">_xlfn.CONCAT(SUBSTITUTE(D109,"."," "))</f>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="N109" s="25" t="str">
-        <f t="shared" ref="N109:N111" si="152">_xlfn.CONCAT(SUBSTITUTE(E109,"."," "))</f>
+        <f t="shared" ref="N109:N111" si="154">_xlfn.CONCAT(SUBSTITUTE(E109,"."," "))</f>
         <v>Telhas Sanduíches</v>
       </c>
       <c r="O109" s="25" t="str">
-        <f t="shared" ref="O109:O111" si="153">_xlfn.CONCAT(SUBSTITUTE(F109,"."," "))</f>
+        <f t="shared" ref="O109:O111" si="155">_xlfn.CONCAT(SUBSTITUTE(F109,"."," "))</f>
         <v>Telha Sanduíche Zipada</v>
       </c>
       <c r="P109" s="25" t="s">
@@ -14040,22 +14502,22 @@
         <v>9</v>
       </c>
       <c r="S109" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Fechamento</v>
       </c>
       <c r="T109" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="U109" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V109" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W109" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.sitelh.109</v>
       </c>
       <c r="X109" s="55" t="s">
@@ -14067,8 +14529,12 @@
       <c r="Z109" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA109" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Zipped sandwich tile system is applied to roofs with low slope and large areas, offering thermal insulation and watertightness without the need for drilling.</v>
+      </c>
     </row>
-    <row r="110" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="24">
         <v>110</v>
       </c>
@@ -14103,19 +14569,19 @@
         <v>9</v>
       </c>
       <c r="L110" s="25" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M110" s="25" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="N110" s="25" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>Telhas Sanduíches</v>
       </c>
       <c r="O110" s="25" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Telha Sanduíche Ondulada</v>
       </c>
       <c r="P110" s="25" t="s">
@@ -14128,22 +14594,22 @@
         <v>9</v>
       </c>
       <c r="S110" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Fechamento</v>
       </c>
       <c r="T110" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="U110" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V110" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W110" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.sitelh.110</v>
       </c>
       <c r="X110" s="55" t="s">
@@ -14155,8 +14621,12 @@
       <c r="Z110" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA110" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Corrugated Roofing Sheet composed of layers of Galvalume steel and PIR core, with excellent thermal insulation and weather resistance, for residential and commercial projects.</v>
+      </c>
     </row>
-    <row r="111" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="24">
         <v>111</v>
       </c>
@@ -14191,19 +14661,19 @@
         <v>9</v>
       </c>
       <c r="L111" s="25" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M111" s="25" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="N111" s="25" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>Telhas Sanduíches</v>
       </c>
       <c r="O111" s="25" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>Telha Sanduíche Trapezoidal</v>
       </c>
       <c r="P111" s="25" t="s">
@@ -14216,22 +14686,22 @@
         <v>9</v>
       </c>
       <c r="S111" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Fechamento</v>
       </c>
       <c r="T111" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="U111" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V111" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W111" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.sitelh.111</v>
       </c>
       <c r="X111" s="55" t="s">
@@ -14243,8 +14713,12 @@
       <c r="Z111" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA111" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Isothermal trapezoidal sandwich tile offers thermal comfort and energy saving. With three trapezoids, it has great mechanical resistance, ideal for roofs that require greater spacing between purlins, helping to reduce the support structure.</v>
+      </c>
     </row>
-    <row r="112" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="24">
         <v>112</v>
       </c>
@@ -14279,19 +14753,19 @@
         <v>9</v>
       </c>
       <c r="L112" s="25" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M112" s="25" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="N112" s="25" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>Telhas Sanduíches</v>
       </c>
       <c r="O112" s="25" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>Telha Sanduíche Solar</v>
       </c>
       <c r="P112" s="25" t="s">
@@ -14304,22 +14778,22 @@
         <v>9</v>
       </c>
       <c r="S112" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Fechamento</v>
       </c>
       <c r="T112" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Sistemas Sanduíches</v>
       </c>
       <c r="U112" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Telhas Sanduíches</v>
       </c>
       <c r="V112" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W112" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.sitelh.112</v>
       </c>
       <c r="X112" s="55" t="s">
@@ -14331,8 +14805,12 @@
       <c r="Z112" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA112" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Isothermal trapezoidal sandwich tile offers thermal comfort and energy saving. With trapezoids of adapted shape for the placement of solar panels integrated into the roof.</v>
+      </c>
     </row>
-    <row r="113" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="24">
         <v>113</v>
       </c>
@@ -14367,19 +14845,19 @@
         <v>9</v>
       </c>
       <c r="L113" s="25" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M113" s="25" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>Sistemas Perfilados</v>
       </c>
       <c r="N113" s="25" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>Telhas Perfiladas</v>
       </c>
       <c r="O113" s="25" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>Telha Trapezoidal</v>
       </c>
       <c r="P113" s="25" t="s">
@@ -14392,22 +14870,22 @@
         <v>9</v>
       </c>
       <c r="S113" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Fechamento</v>
       </c>
       <c r="T113" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Sistemas Perfilados</v>
       </c>
       <c r="U113" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Telhas Perfiladas</v>
       </c>
       <c r="V113" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W113" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.sitelh.113</v>
       </c>
       <c r="X113" s="55" t="s">
@@ -14419,8 +14897,12 @@
       <c r="Z113" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA113" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Trapezoidal Tile</v>
+      </c>
     </row>
-    <row r="114" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="24">
         <v>114</v>
       </c>
@@ -14455,19 +14937,19 @@
         <v>9</v>
       </c>
       <c r="L114" s="25" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M114" s="25" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>Sistemas Perfilados</v>
       </c>
       <c r="N114" s="25" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>Telhas Perfiladas</v>
       </c>
       <c r="O114" s="25" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>Telha Ondulada</v>
       </c>
       <c r="P114" s="25" t="s">
@@ -14480,22 +14962,22 @@
         <v>9</v>
       </c>
       <c r="S114" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Fechamento</v>
       </c>
       <c r="T114" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Sistemas Perfilados</v>
       </c>
       <c r="U114" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Telhas Perfiladas</v>
       </c>
       <c r="V114" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W114" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.sitelh.114</v>
       </c>
       <c r="X114" s="55" t="s">
@@ -14507,8 +14989,12 @@
       <c r="Z114" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA114" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Corrugated Roofing Sheet composed of layers of Galvalume steel and PIR core, with excellent thermal insulation and weather resistance, for residential and commercial projects.</v>
+      </c>
     </row>
-    <row r="115" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="24">
         <v>115</v>
       </c>
@@ -14543,19 +15029,19 @@
         <v>9</v>
       </c>
       <c r="L115" s="25" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>Estrutura.Fechamento</v>
       </c>
       <c r="M115" s="25" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>Sistemas Perfilados</v>
       </c>
       <c r="N115" s="25" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>Telhas Perfiladas</v>
       </c>
       <c r="O115" s="25" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>Telha Zipada</v>
       </c>
       <c r="P115" s="25" t="s">
@@ -14568,22 +15054,22 @@
         <v>9</v>
       </c>
       <c r="S115" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Estrutura Fechamento</v>
       </c>
       <c r="T115" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Sistemas Perfilados</v>
       </c>
       <c r="U115" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Telhas Perfiladas</v>
       </c>
       <c r="V115" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W115" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.sitelh.115</v>
       </c>
       <c r="X115" s="55" t="s">
@@ -14595,8 +15081,12 @@
       <c r="Z115" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA115" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Sandwich zipped tile system is applied to roofs with low slope and large areas, offering thermal insulation and watertightness without the need for drilling.</v>
+      </c>
     </row>
-    <row r="116" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="24">
         <v>116</v>
       </c>
@@ -14631,19 +15121,19 @@
         <v>9</v>
       </c>
       <c r="L116" s="25" t="str">
-        <f t="shared" ref="L116" si="154">_xlfn.CONCAT(SUBSTITUTE(C116,"1.",""))</f>
+        <f t="shared" ref="L116" si="156">_xlfn.CONCAT(SUBSTITUTE(C116,"1.",""))</f>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M116" s="25" t="str">
-        <f t="shared" ref="M116" si="155">_xlfn.CONCAT(SUBSTITUTE(D116,"."," "))</f>
+        <f t="shared" ref="M116" si="157">_xlfn.CONCAT(SUBSTITUTE(D116,"."," "))</f>
         <v>Fixações</v>
       </c>
       <c r="N116" s="25" t="str">
-        <f t="shared" ref="N116" si="156">_xlfn.CONCAT(SUBSTITUTE(E116,"."," "))</f>
+        <f t="shared" ref="N116" si="158">_xlfn.CONCAT(SUBSTITUTE(E116,"."," "))</f>
         <v>Chumbadores</v>
       </c>
       <c r="O116" s="25" t="str">
-        <f t="shared" ref="O116" si="157">_xlfn.CONCAT(SUBSTITUTE(F116,"."," "))</f>
+        <f t="shared" ref="O116" si="159">_xlfn.CONCAT(SUBSTITUTE(F116,"."," "))</f>
         <v>Chumbador Interno</v>
       </c>
       <c r="P116" s="25" t="s">
@@ -14656,22 +15146,22 @@
         <v>9</v>
       </c>
       <c r="S116" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Conexão Estrutural</v>
       </c>
       <c r="T116" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Fixações</v>
       </c>
       <c r="U116" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Chumbadores</v>
       </c>
       <c r="V116" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W116" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.fichum.116</v>
       </c>
       <c r="X116" s="55" t="s">
@@ -14683,8 +15173,12 @@
       <c r="Z116" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA116" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Anchor bolt located in the inner region of the base plate</v>
+      </c>
     </row>
-    <row r="117" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="24">
         <v>117</v>
       </c>
@@ -14719,19 +15213,19 @@
         <v>9</v>
       </c>
       <c r="L117" s="25" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M117" s="25" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>Fixações</v>
       </c>
       <c r="N117" s="25" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>Chumbadores</v>
       </c>
       <c r="O117" s="25" t="str">
-        <f t="shared" ref="O117" si="158">_xlfn.CONCAT(SUBSTITUTE(F117,"."," "))</f>
+        <f t="shared" ref="O117" si="160">_xlfn.CONCAT(SUBSTITUTE(F117,"."," "))</f>
         <v>Chumbador Externo</v>
       </c>
       <c r="P117" s="25" t="s">
@@ -14744,22 +15238,22 @@
         <v>9</v>
       </c>
       <c r="S117" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Conexão Estrutural</v>
       </c>
       <c r="T117" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Fixações</v>
       </c>
       <c r="U117" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Chumbadores</v>
       </c>
       <c r="V117" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W117" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.fichum.117</v>
       </c>
       <c r="X117" s="55" t="s">
@@ -14771,8 +15265,12 @@
       <c r="Z117" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA117" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Anchor bolt located in the outer region of the base plate</v>
+      </c>
     </row>
-    <row r="118" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="24">
         <v>118</v>
       </c>
@@ -14807,19 +15305,19 @@
         <v>9</v>
       </c>
       <c r="L118" s="25" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M118" s="25" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>Fixações</v>
       </c>
       <c r="N118" s="25" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>Parafusos</v>
       </c>
       <c r="O118" s="25" t="str">
-        <f t="shared" ref="O118" si="159">_xlfn.CONCAT(SUBSTITUTE(F118,"."," "))</f>
+        <f t="shared" ref="O118" si="161">_xlfn.CONCAT(SUBSTITUTE(F118,"."," "))</f>
         <v>Parafuso DIN</v>
       </c>
       <c r="P118" s="25" t="s">
@@ -14832,22 +15330,22 @@
         <v>9</v>
       </c>
       <c r="S118" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Conexão Estrutural</v>
       </c>
       <c r="T118" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Fixações</v>
       </c>
       <c r="U118" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Parafusos</v>
       </c>
       <c r="V118" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W118" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.fipara.118</v>
       </c>
       <c r="X118" s="55" t="s">
@@ -14859,8 +15357,12 @@
       <c r="Z118" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA118" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>DIN standard structural bolt</v>
+      </c>
     </row>
-    <row r="119" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="24">
         <v>119</v>
       </c>
@@ -14895,19 +15397,19 @@
         <v>9</v>
       </c>
       <c r="L119" s="25" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M119" s="25" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>Fixações</v>
       </c>
       <c r="N119" s="25" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>Parafusos</v>
       </c>
       <c r="O119" s="25" t="str">
-        <f t="shared" ref="O119:O120" si="160">_xlfn.CONCAT(SUBSTITUTE(F119,"."," "))</f>
+        <f t="shared" ref="O119:O120" si="162">_xlfn.CONCAT(SUBSTITUTE(F119,"."," "))</f>
         <v>Parafuso ASTM</v>
       </c>
       <c r="P119" s="25" t="s">
@@ -14920,22 +15422,22 @@
         <v>9</v>
       </c>
       <c r="S119" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Conexão Estrutural</v>
       </c>
       <c r="T119" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Fixações</v>
       </c>
       <c r="U119" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Parafusos</v>
       </c>
       <c r="V119" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W119" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.fipara.119</v>
       </c>
       <c r="X119" s="55" t="s">
@@ -14947,8 +15449,12 @@
       <c r="Z119" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA119" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>ASTM Heavy Duty Thread Structural Bolt</v>
+      </c>
     </row>
-    <row r="120" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="24">
         <v>120</v>
       </c>
@@ -14983,19 +15489,19 @@
         <v>9</v>
       </c>
       <c r="L120" s="25" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M120" s="25" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>Fixações</v>
       </c>
       <c r="N120" s="25" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>Parafusos</v>
       </c>
       <c r="O120" s="25" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>Parafuso Drywall</v>
       </c>
       <c r="P120" s="25" t="s">
@@ -15008,22 +15514,22 @@
         <v>9</v>
       </c>
       <c r="S120" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Conexão Estrutural</v>
       </c>
       <c r="T120" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Fixações</v>
       </c>
       <c r="U120" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Parafusos</v>
       </c>
       <c r="V120" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W120" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.fipara.120</v>
       </c>
       <c r="X120" s="55" t="s">
@@ -15035,8 +15541,12 @@
       <c r="Z120" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA120" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Drywall Screw</v>
+      </c>
     </row>
-    <row r="121" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="24">
         <v>121</v>
       </c>
@@ -15071,19 +15581,19 @@
         <v>9</v>
       </c>
       <c r="L121" s="25" t="str">
-        <f t="shared" ref="L121:L122" si="161">_xlfn.CONCAT(SUBSTITUTE(C121,"1.",""))</f>
+        <f t="shared" ref="L121:L122" si="163">_xlfn.CONCAT(SUBSTITUTE(C121,"1.",""))</f>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M121" s="25" t="str">
-        <f t="shared" ref="M121:M122" si="162">_xlfn.CONCAT(SUBSTITUTE(D121,"."," "))</f>
+        <f t="shared" ref="M121:M122" si="164">_xlfn.CONCAT(SUBSTITUTE(D121,"."," "))</f>
         <v>Fixações</v>
       </c>
       <c r="N121" s="25" t="str">
-        <f t="shared" ref="N121:N122" si="163">_xlfn.CONCAT(SUBSTITUTE(E121,"."," "))</f>
+        <f t="shared" ref="N121:N122" si="165">_xlfn.CONCAT(SUBSTITUTE(E121,"."," "))</f>
         <v>Parafusos</v>
       </c>
       <c r="O121" s="25" t="str">
-        <f t="shared" ref="O121:O122" si="164">_xlfn.CONCAT(SUBSTITUTE(F121,"."," "))</f>
+        <f t="shared" ref="O121:O122" si="166">_xlfn.CONCAT(SUBSTITUTE(F121,"."," "))</f>
         <v>Parafuso Brocante</v>
       </c>
       <c r="P121" s="25" t="s">
@@ -15096,22 +15606,22 @@
         <v>9</v>
       </c>
       <c r="S121" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Conexão Estrutural</v>
       </c>
       <c r="T121" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Fixações</v>
       </c>
       <c r="U121" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Parafusos</v>
       </c>
       <c r="V121" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W121" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.fipara.121</v>
       </c>
       <c r="X121" s="55" t="s">
@@ -15123,8 +15633,12 @@
       <c r="Z121" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA121" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Drilling Screw</v>
+      </c>
     </row>
-    <row r="122" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="24">
         <v>122</v>
       </c>
@@ -15159,19 +15673,19 @@
         <v>9</v>
       </c>
       <c r="L122" s="25" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M122" s="25" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>Fixações</v>
       </c>
       <c r="N122" s="25" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>Parafusos</v>
       </c>
       <c r="O122" s="25" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>Parafuso Auto Atarraxante</v>
       </c>
       <c r="P122" s="25" t="s">
@@ -15184,22 +15698,22 @@
         <v>9</v>
       </c>
       <c r="S122" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Conexão Estrutural</v>
       </c>
       <c r="T122" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Fixações</v>
       </c>
       <c r="U122" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Parafusos</v>
       </c>
       <c r="V122" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W122" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.fipara.122</v>
       </c>
       <c r="X122" s="55" t="s">
@@ -15211,8 +15725,12 @@
       <c r="Z122" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA122" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Self-tapping screw</v>
+      </c>
     </row>
-    <row r="123" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="24">
         <v>123</v>
       </c>
@@ -15247,19 +15765,19 @@
         <v>9</v>
       </c>
       <c r="L123" s="25" t="str">
-        <f t="shared" ref="L123:L126" si="165">_xlfn.CONCAT(SUBSTITUTE(C123,"1.",""))</f>
+        <f t="shared" ref="L123:L126" si="167">_xlfn.CONCAT(SUBSTITUTE(C123,"1.",""))</f>
         <v>Conexão.Estrutural</v>
       </c>
       <c r="M123" s="25" t="str">
-        <f t="shared" ref="M123:M126" si="166">_xlfn.CONCAT(SUBSTITUTE(D123,"."," "))</f>
+        <f t="shared" ref="M123:M126" si="168">_xlfn.CONCAT(SUBSTITUTE(D123,"."," "))</f>
         <v>Fixações</v>
       </c>
       <c r="N123" s="25" t="str">
-        <f t="shared" ref="N123:N126" si="167">_xlfn.CONCAT(SUBSTITUTE(E123,"."," "))</f>
+        <f t="shared" ref="N123:N126" si="169">_xlfn.CONCAT(SUBSTITUTE(E123,"."," "))</f>
         <v>Pinos</v>
       </c>
       <c r="O123" s="25" t="str">
-        <f t="shared" ref="O123:O126" si="168">_xlfn.CONCAT(SUBSTITUTE(F123,"."," "))</f>
+        <f t="shared" ref="O123:O126" si="170">_xlfn.CONCAT(SUBSTITUTE(F123,"."," "))</f>
         <v>Pino de Cisalhamento</v>
       </c>
       <c r="P123" s="25" t="s">
@@ -15272,22 +15790,22 @@
         <v>9</v>
       </c>
       <c r="S123" s="62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>Conexão Estrutural</v>
       </c>
       <c r="T123" s="62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>Fixações</v>
       </c>
       <c r="U123" s="62" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>Pinos</v>
       </c>
       <c r="V123" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W123" s="30" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>k.fipino.123</v>
       </c>
       <c r="X123" s="55" t="s">
@@ -15299,8 +15817,12 @@
       <c r="Z123" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA123" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Shear Pin for Steel Deck Slabs</v>
+      </c>
     </row>
-    <row r="124" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="24">
         <v>124</v>
       </c>
@@ -15335,19 +15857,19 @@
         <v>9</v>
       </c>
       <c r="L124" s="25" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>Tipos.Estruturais</v>
       </c>
       <c r="M124" s="25" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>Galpões</v>
       </c>
       <c r="N124" s="25" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>Pórticos de Galpões</v>
       </c>
       <c r="O124" s="25" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>Pórtico Galpão</v>
       </c>
       <c r="P124" s="25" t="s">
@@ -15360,22 +15882,22 @@
         <v>9</v>
       </c>
       <c r="S124" s="62" t="str">
-        <f t="shared" ref="S124:S126" si="169">SUBSTITUTE(C124, ".", " ")</f>
+        <f t="shared" ref="S124:S126" si="171">SUBSTITUTE(C124, ".", " ")</f>
         <v>Tipos Estruturais</v>
       </c>
       <c r="T124" s="62" t="str">
-        <f t="shared" ref="T124:T126" si="170">SUBSTITUTE(D124, ".", " ")</f>
+        <f t="shared" ref="T124:T126" si="172">SUBSTITUTE(D124, ".", " ")</f>
         <v>Galpões</v>
       </c>
       <c r="U124" s="62" t="str">
-        <f t="shared" ref="U124:U126" si="171">SUBSTITUTE(E124, ".", " ")</f>
+        <f t="shared" ref="U124:U126" si="173">SUBSTITUTE(E124, ".", " ")</f>
         <v>Pórticos de Galpões</v>
       </c>
       <c r="V124" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W124" s="30" t="str">
-        <f t="shared" ref="W124:W126" si="172">CONCATENATE("k.",LOWER(LEFT(D124,2)),LOWER(LEFT(E124,4)),".",A124)</f>
+        <f t="shared" ref="W124:W126" si="174">CONCATENATE("k.",LOWER(LEFT(D124,2)),LOWER(LEFT(E124,4)),".",A124)</f>
         <v>k.gapórt.124</v>
       </c>
       <c r="X124" s="55" t="s">
@@ -15387,8 +15909,12 @@
       <c r="Z124" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA124" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Metal shed</v>
+      </c>
     </row>
-    <row r="125" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="24">
         <v>125</v>
       </c>
@@ -15423,19 +15949,19 @@
         <v>9</v>
       </c>
       <c r="L125" s="25" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>Tipos.Estruturais</v>
       </c>
       <c r="M125" s="25" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>Galpões</v>
       </c>
       <c r="N125" s="25" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>Pórticos de Galpões</v>
       </c>
       <c r="O125" s="25" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>Pórtico Galpão e Anexo</v>
       </c>
       <c r="P125" s="25" t="s">
@@ -15448,22 +15974,22 @@
         <v>9</v>
       </c>
       <c r="S125" s="62" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>Tipos Estruturais</v>
       </c>
       <c r="T125" s="62" t="str">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>Galpões</v>
       </c>
       <c r="U125" s="62" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>Pórticos de Galpões</v>
       </c>
       <c r="V125" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W125" s="30" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>k.gapórt.125</v>
       </c>
       <c r="X125" s="55" t="s">
@@ -15475,8 +16001,12 @@
       <c r="Z125" s="55" t="s">
         <v>9</v>
       </c>
+      <c r="AA125" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Metal shed of multiple modules.</v>
+      </c>
     </row>
-    <row r="126" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="24">
         <v>126</v>
       </c>
@@ -15511,19 +16041,19 @@
         <v>9</v>
       </c>
       <c r="L126" s="25" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>Tipos.Estruturais</v>
       </c>
       <c r="M126" s="25" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>Galpões</v>
       </c>
       <c r="N126" s="25" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>Pórticos de Galpões</v>
       </c>
       <c r="O126" s="25" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>Pórtico Galpão Vãos Múltiplos</v>
       </c>
       <c r="P126" s="25" t="s">
@@ -15536,22 +16066,22 @@
         <v>9</v>
       </c>
       <c r="S126" s="62" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>Tipos Estruturais</v>
       </c>
       <c r="T126" s="62" t="str">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>Galpões</v>
       </c>
       <c r="U126" s="62" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>Pórticos de Galpões</v>
       </c>
       <c r="V126" s="61" t="s">
         <v>722</v>
       </c>
       <c r="W126" s="30" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>k.gapórt.126</v>
       </c>
       <c r="X126" s="55" t="s">
@@ -15562,36 +16092,45 @@
       </c>
       <c r="Z126" s="55" t="s">
         <v>9</v>
+      </c>
+      <c r="AA126" s="64" t="str">
+        <f t="shared" si="104"/>
+        <v>Metal shed with adjacent annex.</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O1">
-    <cfRule type="cellIs" dxfId="16" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="53" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W126">
-    <cfRule type="duplicateValues" dxfId="15" priority="466"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="467"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y83:Y97">
-    <cfRule type="duplicateValues" dxfId="14" priority="445"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="446"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="447"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="448"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="449"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="450"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="446"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="448"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="449"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="450"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="451"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y106">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA1:AA126">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -15607,14 +16146,14 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.69140625" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="11" customWidth="1"/>
-    <col min="2" max="10" width="5.7109375" style="12"/>
-    <col min="11" max="16384" width="5.7109375" style="22"/>
+    <col min="1" max="1" width="2.69140625" style="11" customWidth="1"/>
+    <col min="2" max="10" width="5.69140625" style="12"/>
+    <col min="11" max="16384" width="5.69140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="7.75" x14ac:dyDescent="0.2">
       <c r="A1" s="20">
         <v>1</v>
       </c>
@@ -15679,7 +16218,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="7.75" x14ac:dyDescent="0.2">
       <c r="A2" s="20">
         <v>2</v>
       </c>
@@ -15759,16 +16298,16 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="13"/>
+    <col min="2" max="2" width="7.84375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11.3046875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="7.3046875" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9.15234375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8">
         <v>1</v>
       </c>
@@ -15782,7 +16321,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -15796,7 +16335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>3</v>
       </c>
@@ -15824,42 +16363,42 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.69140625" customWidth="1"/>
+    <col min="2" max="2" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3046875" customWidth="1"/>
+    <col min="4" max="4" width="7.53515625" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="47" customWidth="1"/>
-    <col min="8" max="8" width="2.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="47" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="47" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.140625" style="40" customWidth="1"/>
-    <col min="22" max="22" width="7.140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.53515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.69140625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="2.3046875" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.84375" style="47" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.3046875" style="47" customWidth="1"/>
+    <col min="11" max="11" width="6.84375" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.15234375" style="47" customWidth="1"/>
+    <col min="13" max="13" width="4.3046875" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.15234375" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.3046875" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.3046875" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.3046875" style="40" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.3046875" style="47" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.3046875" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.3046875" style="47" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.15234375" style="40" customWidth="1"/>
+    <col min="22" max="22" width="7.15234375" style="47" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.15234375" style="40" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="57.140625" customWidth="1"/>
-    <col min="26" max="26" width="8.42578125" style="47" customWidth="1"/>
-    <col min="27" max="27" width="34.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.140625" style="47" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="47" customWidth="1"/>
-    <col min="30" max="30" width="5.140625" style="47" customWidth="1"/>
-    <col min="31" max="31" width="9.85546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="57.15234375" customWidth="1"/>
+    <col min="26" max="26" width="8.3828125" style="47" customWidth="1"/>
+    <col min="27" max="27" width="34.3828125" style="47" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.15234375" style="47" customWidth="1"/>
+    <col min="29" max="29" width="14.84375" style="47" customWidth="1"/>
+    <col min="30" max="30" width="5.15234375" style="47" customWidth="1"/>
+    <col min="31" max="31" width="9.84375" style="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
@@ -15954,7 +16493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -16049,7 +16588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -16144,7 +16683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -16239,7 +16778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -16334,7 +16873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -16429,7 +16968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -16524,7 +17063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -16619,7 +17158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -16714,7 +17253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -16809,7 +17348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="16">
         <v>11</v>
       </c>
@@ -16904,7 +17443,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16">
         <v>12</v>
       </c>
@@ -16999,7 +17538,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
         <v>13</v>
       </c>
@@ -17094,7 +17633,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>14</v>
       </c>
@@ -17189,7 +17728,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16">
         <v>15</v>
       </c>
@@ -17284,7 +17823,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="16">
         <v>16</v>
       </c>
@@ -17379,7 +17918,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
         <v>17</v>
       </c>
@@ -17474,7 +18013,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16">
         <v>18</v>
       </c>
@@ -17569,7 +18108,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>19</v>
       </c>
@@ -17664,7 +18203,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -17759,7 +18298,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16">
         <v>21</v>
       </c>
@@ -17854,7 +18393,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16">
         <v>22</v>
       </c>
@@ -17949,7 +18488,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16">
         <v>23</v>
       </c>
@@ -18044,7 +18583,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16">
         <v>24</v>
       </c>
@@ -18139,7 +18678,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16">
         <v>25</v>
       </c>
@@ -18234,7 +18773,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16">
         <v>26</v>
       </c>
@@ -18329,7 +18868,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -18424,7 +18963,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="16">
         <v>28</v>
       </c>
@@ -18519,7 +19058,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="16">
         <v>29</v>
       </c>
@@ -18614,7 +19153,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="16">
         <v>30</v>
       </c>
@@ -18709,7 +19248,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="16">
         <v>31</v>
       </c>
@@ -18804,7 +19343,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="16">
         <v>32</v>
       </c>
@@ -18899,7 +19438,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16">
         <v>33</v>
       </c>
@@ -18994,7 +19533,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16">
         <v>34</v>
       </c>
@@ -19089,7 +19628,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="16">
         <v>35</v>
       </c>
@@ -19184,7 +19723,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>36</v>
       </c>
@@ -19279,7 +19818,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>37</v>
       </c>
@@ -19374,7 +19913,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>38</v>
       </c>
@@ -19469,7 +20008,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>39</v>
       </c>
@@ -19564,7 +20103,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>40</v>
       </c>
@@ -19659,7 +20198,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>41</v>
       </c>
@@ -19754,7 +20293,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>42</v>
       </c>
@@ -19849,7 +20388,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>43</v>
       </c>
@@ -19944,7 +20483,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>44</v>
       </c>
@@ -20039,7 +20578,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>45</v>
       </c>
@@ -20134,7 +20673,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>46</v>
       </c>
@@ -20229,7 +20768,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>47</v>
       </c>
@@ -20324,7 +20863,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>48</v>
       </c>
@@ -20419,7 +20958,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>49</v>
       </c>
@@ -20514,7 +21053,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>50</v>
       </c>
@@ -20609,7 +21148,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>51</v>
       </c>
@@ -20704,7 +21243,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>52</v>
       </c>
@@ -20799,7 +21338,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>53</v>
       </c>
@@ -20894,7 +21433,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>54</v>
       </c>
@@ -20989,7 +21528,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>55</v>
       </c>
@@ -21084,7 +21623,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>56</v>
       </c>
@@ -21179,7 +21718,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>57</v>
       </c>
@@ -21274,7 +21813,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="16">
         <v>58</v>
       </c>
@@ -21369,7 +21908,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16">
         <v>59</v>
       </c>
@@ -21464,7 +22003,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="16">
         <v>60</v>
       </c>
@@ -21559,7 +22098,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="16">
         <v>61</v>
       </c>
@@ -21654,7 +22193,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="16">
         <v>62</v>
       </c>
@@ -21749,7 +22288,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="16">
         <v>63</v>
       </c>
@@ -21844,7 +22383,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="16">
         <v>64</v>
       </c>
@@ -21939,7 +22478,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="16">
         <v>65</v>
       </c>
@@ -22034,7 +22573,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="16">
         <v>66</v>
       </c>
@@ -22129,7 +22668,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="16">
         <v>67</v>
       </c>
@@ -22224,7 +22763,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="16">
         <v>68</v>
       </c>
@@ -22319,7 +22858,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="16">
         <v>69</v>
       </c>
@@ -22414,7 +22953,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="16">
         <v>70</v>
       </c>
@@ -22509,7 +23048,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="16">
         <v>71</v>
       </c>
@@ -22604,7 +23143,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="16">
         <v>72</v>
       </c>
@@ -22699,7 +23238,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="16">
         <v>73</v>
       </c>
@@ -22794,7 +23333,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="16">
         <v>74</v>
       </c>
@@ -22889,7 +23428,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="16">
         <v>75</v>
       </c>
@@ -22984,7 +23523,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="16">
         <v>76</v>
       </c>
@@ -23079,7 +23618,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="16">
         <v>77</v>
       </c>
@@ -23174,7 +23713,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="16">
         <v>78</v>
       </c>
@@ -23269,7 +23808,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="16">
         <v>79</v>
       </c>
@@ -23364,7 +23903,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="16">
         <v>80</v>
       </c>
@@ -23459,7 +23998,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="16">
         <v>81</v>
       </c>
@@ -23554,7 +24093,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="16">
         <v>82</v>
       </c>
@@ -23649,7 +24188,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="16">
         <v>83</v>
       </c>
@@ -23744,7 +24283,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="16">
         <v>84</v>
       </c>
@@ -23839,7 +24378,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="85" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="16">
         <v>85</v>
       </c>
@@ -23934,7 +24473,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="16">
         <v>86</v>
       </c>
@@ -24029,7 +24568,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="16">
         <v>87</v>
       </c>
@@ -24124,7 +24663,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="16">
         <v>88</v>
       </c>
@@ -24219,7 +24758,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="16">
         <v>89</v>
       </c>
@@ -24314,7 +24853,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="16">
         <v>90</v>
       </c>
@@ -24409,7 +24948,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="16">
         <v>91</v>
       </c>
@@ -24504,7 +25043,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="16">
         <v>92</v>
       </c>
@@ -24599,7 +25138,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="16">
         <v>93</v>
       </c>
@@ -24694,7 +25233,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="94" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="16">
         <v>94</v>
       </c>
@@ -24789,7 +25328,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="16">
         <v>95</v>
       </c>
@@ -24884,7 +25423,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="16">
         <v>96</v>
       </c>
@@ -24979,7 +25518,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="16">
         <v>97</v>
       </c>
@@ -25074,7 +25613,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="16">
         <v>98</v>
       </c>
@@ -25169,7 +25708,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="99" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="16">
         <v>99</v>
       </c>
@@ -25264,7 +25803,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="16">
         <v>100</v>
       </c>
@@ -25359,7 +25898,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="16">
         <v>101</v>
       </c>
@@ -25454,7 +25993,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="102" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="16">
         <v>102</v>
       </c>
@@ -25549,7 +26088,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="16">
         <v>103</v>
       </c>
@@ -25644,7 +26183,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="16">
         <v>104</v>
       </c>
@@ -25739,7 +26278,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="105" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="16">
         <v>105</v>
       </c>
@@ -25834,7 +26373,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="106" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="16">
         <v>106</v>
       </c>
@@ -25929,7 +26468,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="16">
         <v>107</v>
       </c>
@@ -26024,7 +26563,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="16">
         <v>108</v>
       </c>
@@ -26119,7 +26658,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="109" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="16">
         <v>109</v>
       </c>
@@ -26214,7 +26753,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="110" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="16">
         <v>110</v>
       </c>
@@ -26309,7 +26848,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="16">
         <v>111</v>
       </c>
@@ -26404,7 +26943,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="112" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="16">
         <v>112</v>
       </c>
@@ -26499,7 +27038,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="113" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="16">
         <v>113</v>
       </c>
@@ -26594,7 +27133,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="16">
         <v>114</v>
       </c>
@@ -26689,7 +27228,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="16">
         <v>115</v>
       </c>
@@ -26784,7 +27323,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="116" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="16">
         <v>116</v>
       </c>
@@ -26879,7 +27418,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="16">
         <v>117</v>
       </c>
@@ -26974,7 +27513,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="16">
         <v>118</v>
       </c>
@@ -27069,7 +27608,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="16">
         <v>119</v>
       </c>
@@ -27164,7 +27703,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="120" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="16">
         <v>120</v>
       </c>
@@ -27259,7 +27798,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="121" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="16">
         <v>121</v>
       </c>
@@ -27354,7 +27893,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="122" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="16">
         <v>122</v>
       </c>
@@ -27449,7 +27988,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="123" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="16">
         <v>123</v>
       </c>
@@ -27544,7 +28083,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="124" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="16">
         <v>124</v>
       </c>
@@ -27639,7 +28178,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="125" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="16">
         <v>125</v>
       </c>
@@ -27734,7 +28273,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="126" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="16">
         <v>126</v>
       </c>
@@ -27829,7 +28368,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="127" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="16">
         <v>127</v>
       </c>
@@ -27924,7 +28463,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="128" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="16">
         <v>128</v>
       </c>
@@ -28019,7 +28558,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="16">
         <v>129</v>
       </c>
@@ -28114,7 +28653,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="130" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="16">
         <v>130</v>
       </c>
@@ -28209,7 +28748,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="131" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="16">
         <v>131</v>
       </c>
@@ -28304,7 +28843,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="132" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="16">
         <v>132</v>
       </c>
@@ -28399,7 +28938,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="133" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="16">
         <v>133</v>
       </c>
@@ -28494,7 +29033,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="16">
         <v>134</v>
       </c>
@@ -28589,7 +29128,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="135" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="16">
         <v>135</v>
       </c>
@@ -28684,7 +29223,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="136" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="16">
         <v>136</v>
       </c>
@@ -28779,7 +29318,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="137" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="16">
         <v>137</v>
       </c>
@@ -28874,7 +29413,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="138" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="16">
         <v>138</v>
       </c>
@@ -28969,7 +29508,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="139" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="16">
         <v>139</v>
       </c>
@@ -29064,7 +29603,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="140" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="16">
         <v>140</v>
       </c>
@@ -29159,7 +29698,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="16">
         <v>141</v>
       </c>
@@ -29254,7 +29793,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="16">
         <v>142</v>
       </c>
@@ -29349,7 +29888,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="16">
         <v>143</v>
       </c>
@@ -29444,7 +29983,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="16">
         <v>144</v>
       </c>
@@ -29539,7 +30078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="16">
         <v>145</v>
       </c>
@@ -29634,7 +30173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="16">
         <v>146</v>
       </c>
@@ -29729,7 +30268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="16">
         <v>147</v>
       </c>
@@ -29824,7 +30363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="16">
         <v>148</v>
       </c>
@@ -29919,7 +30458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="16">
         <v>149</v>
       </c>
@@ -30014,7 +30553,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="16">
         <v>150</v>
       </c>
@@ -30109,7 +30648,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="16">
         <v>151</v>
       </c>
@@ -30204,7 +30743,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="152" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="16">
         <v>152</v>
       </c>
@@ -30299,7 +30838,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="153" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="16">
         <v>153</v>
       </c>
@@ -30394,7 +30933,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="154" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="16">
         <v>154</v>
       </c>
@@ -30489,7 +31028,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="155" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="16">
         <v>155</v>
       </c>
@@ -30584,7 +31123,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="156" spans="1:31" ht="7.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="16">
         <v>156</v>
       </c>
@@ -30682,11 +31221,11 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B1:B156">
-    <cfRule type="duplicateValues" dxfId="2" priority="469"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="470"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="469"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="470"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="150"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/META/Ontologia_METAL.xlsx
+++ b/Versão5/META/Ontologia_METAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\META\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8F3B99-965A-468E-AE48-D4B8E9C94BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7749F771-DB96-45E9-AF40-55435219D9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6495" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6519" uniqueCount="1077">
   <si>
     <t>Edição</t>
   </si>
@@ -3290,13 +3290,25 @@
   </si>
   <si>
     <t>Explanation</t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>"pt"</t>
+  </si>
+  <si>
+    <t>"es"</t>
+  </si>
+  <si>
+    <t>"en"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3371,6 +3383,12 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial Nova Cond"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial Nova Cond Light"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3578,7 +3596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3769,6 +3787,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4278,53 +4305,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1124724F-B8C4-4B86-9028-743FC73CDDB0}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.3046875" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.69140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="13"/>
+    <col min="3" max="3" width="3.4609375" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.15234375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="66" t="s">
+        <v>1073</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="C2" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="C3" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C4" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -4332,8 +4372,11 @@
         <f>_xlfn.CONCAT(B4,"Prop")</f>
         <v>BIMProp</v>
       </c>
+      <c r="C5" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -4341,151 +4384,208 @@
         <f>_xlfn.CONCAT(B4,"Data")</f>
         <v>BIMData</v>
       </c>
+      <c r="C6" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C7" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" s="65" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" s="65" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1071</v>
       </c>
+      <c r="C8" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C9" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C10" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C11" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C12" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C13" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C14" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C15" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C16" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="C17" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45992.397899189818</v>
+        <v>45992.541504398148</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>1074</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C19" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C20" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="C21" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="22" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="C22" s="67" t="s">
+        <v>1074</v>
+      </c>
     </row>
-    <row r="23" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="C23" s="67" t="s">
+        <v>1075</v>
+      </c>
     </row>
-    <row r="24" spans="1:2" s="65" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" s="65" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>1072</v>
       </c>
       <c r="B24" s="6" t="str">
         <f>_xlfn.TRANSLATE(B22,"pt","en")</f>
         <v>Formalize data of metallic structural elements.</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>1076</v>
       </c>
     </row>
   </sheetData>

--- a/Versão5/META/Ontologia_METAL.xlsx
+++ b/Versão5/META/Ontologia_METAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\META\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7749F771-DB96-45E9-AF40-55435219D9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453B5CEC-70B3-4776-A842-7490DA67B21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -3295,13 +3295,13 @@
     <t>Idioma</t>
   </si>
   <si>
-    <t>"pt"</t>
-  </si>
-  <si>
-    <t>"es"</t>
-  </si>
-  <si>
-    <t>"en"</t>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
@@ -4308,8 +4308,8 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45992.541504398148</v>
+        <v>45992.731883564818</v>
       </c>
       <c r="C18" s="67" t="s">
         <v>1074</v>
